--- a/tests/_dummy_data.xlsx
+++ b/tests/_dummy_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ali_m\AnacondaProjects\PhD\Semiology-Visualisation-Tool\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61EC9FB-0EB0-4849-8AC4-00CF7A13043A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC98D501-2F80-413E-8D48-47650BF42FB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="391">
   <si>
     <t xml:space="preserve">Semiology </t>
   </si>
@@ -1207,6 +1207,21 @@
   </si>
   <si>
     <t>Marvasti et al on epigastric aura, journal of awesomeness 2035</t>
+  </si>
+  <si>
+    <t>tonic right arm</t>
+  </si>
+  <si>
+    <t>Tonic</t>
+  </si>
+  <si>
+    <t>sEEG and MRI/EEG concordant</t>
+  </si>
+  <si>
+    <t>left premotor</t>
+  </si>
+  <si>
+    <t>Romagnoli et al on paediatric frontal lobe recordings 2025</t>
   </si>
 </sst>
 </file>
@@ -2005,6 +2020,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2026,9 +2053,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2047,17 +2071,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2753,46 +2768,46 @@
                   <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>91</c:v>
@@ -2978,7 +2993,7 @@
                   <c:v>454</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>477</c:v>
@@ -2987,64 +3002,64 @@
                   <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>564</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3203,73 +3218,73 @@
                   <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>241</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>296</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3428,73 +3443,73 @@
                   <c:v>1041</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1119.5</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.00">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1357.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4650,11 +4665,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DU51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="CJ3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="CY3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S2" sqref="S2"/>
+      <selection pane="bottomRight" activeCell="DG10" sqref="DG10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4746,106 +4761,106 @@
     <row r="1" spans="1:125" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="106"/>
       <c r="C1" s="17"/>
-      <c r="D1" s="109" t="s">
+      <c r="D1" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="109"/>
-      <c r="G1" s="117" t="s">
+      <c r="E1" s="113"/>
+      <c r="G1" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="K1" s="119" t="s">
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="K1" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="120"/>
-      <c r="O1" s="121"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
-      <c r="U1" s="110"/>
-      <c r="V1" s="110"/>
-      <c r="W1" s="110"/>
-      <c r="X1" s="110"/>
-      <c r="Y1" s="110"/>
-      <c r="Z1" s="110"/>
-      <c r="AA1" s="110"/>
-      <c r="AB1" s="110"/>
-      <c r="AC1" s="110"/>
-      <c r="AD1" s="110"/>
-      <c r="AE1" s="110"/>
-      <c r="AF1" s="110"/>
-      <c r="AG1" s="110"/>
-      <c r="AH1" s="110"/>
-      <c r="AI1" s="110"/>
-      <c r="AJ1" s="110"/>
-      <c r="AK1" s="110"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="124"/>
+      <c r="S1" s="114"/>
+      <c r="T1" s="114"/>
+      <c r="U1" s="114"/>
+      <c r="V1" s="114"/>
+      <c r="W1" s="114"/>
+      <c r="X1" s="114"/>
+      <c r="Y1" s="114"/>
+      <c r="Z1" s="114"/>
+      <c r="AA1" s="114"/>
+      <c r="AB1" s="114"/>
+      <c r="AC1" s="114"/>
+      <c r="AD1" s="114"/>
+      <c r="AE1" s="114"/>
+      <c r="AF1" s="114"/>
+      <c r="AG1" s="114"/>
+      <c r="AH1" s="114"/>
+      <c r="AI1" s="114"/>
+      <c r="AJ1" s="114"/>
+      <c r="AK1" s="114"/>
       <c r="AM1" s="105"/>
-      <c r="AN1" s="111" t="s">
+      <c r="AN1" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="AO1" s="110"/>
-      <c r="AP1" s="110"/>
-      <c r="AQ1" s="110"/>
-      <c r="AR1" s="110"/>
-      <c r="AS1" s="110"/>
-      <c r="AT1" s="110"/>
-      <c r="AU1" s="110"/>
-      <c r="AV1" s="110"/>
-      <c r="AW1" s="110"/>
-      <c r="AX1" s="110"/>
-      <c r="AY1" s="110"/>
-      <c r="AZ1" s="110"/>
-      <c r="BA1" s="110"/>
-      <c r="BB1" s="110"/>
-      <c r="BC1" s="110"/>
-      <c r="BD1" s="110"/>
-      <c r="BE1" s="110"/>
-      <c r="BF1" s="110"/>
-      <c r="BG1" s="110"/>
-      <c r="BH1" s="110"/>
-      <c r="BI1" s="110"/>
-      <c r="BJ1" s="110"/>
-      <c r="BK1" s="110"/>
-      <c r="BL1" s="110"/>
-      <c r="BM1" s="110"/>
-      <c r="BN1" s="110"/>
-      <c r="BO1" s="110"/>
-      <c r="BP1" s="110"/>
-      <c r="BR1" s="113"/>
-      <c r="BS1" s="114"/>
-      <c r="BT1" s="114"/>
-      <c r="BU1" s="114"/>
-      <c r="BV1" s="114"/>
-      <c r="BW1" s="115"/>
+      <c r="AO1" s="114"/>
+      <c r="AP1" s="114"/>
+      <c r="AQ1" s="114"/>
+      <c r="AR1" s="114"/>
+      <c r="AS1" s="114"/>
+      <c r="AT1" s="114"/>
+      <c r="AU1" s="114"/>
+      <c r="AV1" s="114"/>
+      <c r="AW1" s="114"/>
+      <c r="AX1" s="114"/>
+      <c r="AY1" s="114"/>
+      <c r="AZ1" s="114"/>
+      <c r="BA1" s="114"/>
+      <c r="BB1" s="114"/>
+      <c r="BC1" s="114"/>
+      <c r="BD1" s="114"/>
+      <c r="BE1" s="114"/>
+      <c r="BF1" s="114"/>
+      <c r="BG1" s="114"/>
+      <c r="BH1" s="114"/>
+      <c r="BI1" s="114"/>
+      <c r="BJ1" s="114"/>
+      <c r="BK1" s="114"/>
+      <c r="BL1" s="114"/>
+      <c r="BM1" s="114"/>
+      <c r="BN1" s="114"/>
+      <c r="BO1" s="114"/>
+      <c r="BP1" s="114"/>
+      <c r="BR1" s="117"/>
+      <c r="BS1" s="118"/>
+      <c r="BT1" s="118"/>
+      <c r="BU1" s="118"/>
+      <c r="BV1" s="118"/>
+      <c r="BW1" s="119"/>
       <c r="BX1" s="108"/>
-      <c r="BZ1" s="110"/>
-      <c r="CA1" s="110"/>
-      <c r="CB1" s="110"/>
-      <c r="CC1" s="110"/>
-      <c r="CD1" s="110"/>
-      <c r="CE1" s="110"/>
-      <c r="CF1" s="110"/>
-      <c r="CG1" s="112"/>
-      <c r="CH1" s="111" t="s">
+      <c r="BZ1" s="114"/>
+      <c r="CA1" s="114"/>
+      <c r="CB1" s="114"/>
+      <c r="CC1" s="114"/>
+      <c r="CD1" s="114"/>
+      <c r="CE1" s="114"/>
+      <c r="CF1" s="114"/>
+      <c r="CG1" s="116"/>
+      <c r="CH1" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="CI1" s="110"/>
-      <c r="CJ1" s="110"/>
-      <c r="CK1" s="110"/>
-      <c r="CL1" s="110"/>
-      <c r="CM1" s="112"/>
+      <c r="CI1" s="114"/>
+      <c r="CJ1" s="114"/>
+      <c r="CK1" s="114"/>
+      <c r="CL1" s="114"/>
+      <c r="CM1" s="116"/>
       <c r="CO1" s="67"/>
-      <c r="CP1" s="110" t="s">
+      <c r="CP1" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="CQ1" s="110"/>
-      <c r="CR1" s="110"/>
-      <c r="CS1" s="110"/>
-      <c r="CT1" s="110"/>
-      <c r="CU1" s="110"/>
-      <c r="CV1" s="110"/>
+      <c r="CQ1" s="114"/>
+      <c r="CR1" s="114"/>
+      <c r="CS1" s="114"/>
+      <c r="CT1" s="114"/>
+      <c r="CU1" s="114"/>
+      <c r="CV1" s="114"/>
       <c r="CX1" s="100"/>
       <c r="CY1" s="100"/>
       <c r="CZ1" s="100"/>
@@ -5124,7 +5139,7 @@
       <c r="CH2" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="CI2" s="123" t="s">
+      <c r="CI2" s="109" t="s">
         <v>90</v>
       </c>
       <c r="CJ2" s="26" t="s">
@@ -5169,16 +5184,16 @@
       <c r="CW2" s="79" t="s">
         <v>104</v>
       </c>
-      <c r="CX2" s="124" t="s">
+      <c r="CX2" s="110" t="s">
         <v>105</v>
       </c>
-      <c r="CY2" s="125" t="s">
+      <c r="CY2" s="111" t="s">
         <v>106</v>
       </c>
-      <c r="CZ2" s="125" t="s">
+      <c r="CZ2" s="111" t="s">
         <v>107</v>
       </c>
-      <c r="DA2" s="126" t="s">
+      <c r="DA2" s="112" t="s">
         <v>108</v>
       </c>
       <c r="DB2" s="37" t="s">
@@ -5296,14 +5311,65 @@
       <c r="DT4" s="34"/>
       <c r="DU4" s="34"/>
     </row>
-    <row r="5" spans="1:125">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
+    <row r="5" spans="1:125" ht="30">
+      <c r="A5" s="33" t="s">
+        <v>390</v>
+      </c>
+      <c r="B5" s="33">
+        <v>1</v>
+      </c>
+      <c r="C5" s="33">
+        <v>1</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>386</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>388</v>
+      </c>
       <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
+      <c r="H5" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="J5" s="5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="5">
+        <v>1</v>
+      </c>
+      <c r="P5" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="32" t="s">
+        <v>389</v>
+      </c>
+      <c r="AL5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AW5" s="5">
+        <v>1</v>
+      </c>
+      <c r="DA5" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="DB5" s="6">
+        <v>1</v>
+      </c>
+      <c r="DC5" s="6">
+        <v>0</v>
+      </c>
+      <c r="DD5" s="5">
+        <v>0</v>
+      </c>
+      <c r="DG5" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="DP5" s="34"/>
       <c r="DQ5" s="34"/>
       <c r="DR5" s="34"/>
@@ -6034,12 +6100,12 @@
     <row r="1" spans="1:8">
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="122" t="s">
+      <c r="E1" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
     </row>
     <row r="2" spans="1:8" ht="45">
       <c r="C2" s="77" t="s">
@@ -6338,11 +6404,11 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="C1" s="2"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="112"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="116"/>
       <c r="I1" s="107"/>
       <c r="J1" s="93"/>
     </row>
@@ -6529,15 +6595,15 @@
     <row r="1" spans="1:11" ht="26.25">
       <c r="C1" s="2"/>
       <c r="D1" s="67"/>
-      <c r="E1" s="116" t="s">
+      <c r="E1" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
     </row>
     <row r="2" spans="1:11" ht="30">
       <c r="C2" s="78" t="s">
@@ -7100,19 +7166,19 @@
       </c>
       <c r="D6" s="40">
         <f>COUNTA(Main!A2:A47)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" s="40">
         <f>SUM(Main!C2:C47)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6" s="40">
         <f>SUM(Main!J2:J47)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="40">
         <f>SUM(Main!P2:P47)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="40" customFormat="1">
@@ -7128,7 +7194,7 @@
       </c>
       <c r="D7" s="40">
         <f>COUNTA(Main!A3:A47)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="40">
         <v>477</v>
@@ -7156,18 +7222,18 @@
       </c>
       <c r="D8" s="40">
         <f>COUNTA(Main!A2:A47)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" s="40">
         <v>480</v>
       </c>
       <c r="F8" s="40">
         <f>SUM(Main!$J$2:J47)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="62">
         <f>SUM(Main!$P$2:P47)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="40" customFormat="1">
@@ -7183,19 +7249,19 @@
       </c>
       <c r="D9" s="40">
         <f>COUNTA(Main!$A$2:A47)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9" s="40">
         <f>SUM(Main!$C$2:C47)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9" s="40">
         <f>SUM(Main!$J$2:J47)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="40">
         <f>SUM(Main!$P$2:P47)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="40" customFormat="1">
@@ -7211,19 +7277,19 @@
       </c>
       <c r="D10" s="40">
         <f>COUNTA(Main!$A$2:A47)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10" s="40">
         <f>SUM(Main!$C$2:C47)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F10" s="40">
         <f>SUM(Main!$J$2:J47)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="40">
         <f>SUM(Main!$P$2:P47)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="40" customFormat="1">
@@ -7239,19 +7305,19 @@
       </c>
       <c r="D11" s="40">
         <f>COUNTA(Main!$A$2:A47)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11" s="40">
         <f>SUM(Main!$C$2:C47)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F11" s="40">
         <f>SUM(Main!$J$2:J47)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="40">
         <f>SUM(Main!$P$2:P47)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -7290,19 +7356,19 @@
       </c>
       <c r="D13" s="40">
         <f>COUNTA(Main!$A$2:A47)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13" s="40">
         <f>SUM(Main!$C$2:C47)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F13" s="40">
         <f>SUM(Main!$J$2:J47)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="40">
         <f>SUM(Main!$P$2:P47)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="40" customFormat="1">
@@ -7320,15 +7386,15 @@
       </c>
       <c r="E14" s="40">
         <f>SUM(Main!$C$2:C47)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F14" s="40">
         <f>SUM(Main!$J$2:J47)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="40">
         <f>SUM(Main!$P$2:P47)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="40" customFormat="1">
@@ -7344,19 +7410,19 @@
       </c>
       <c r="D15" s="40">
         <f>COUNTA(Main!$A$2:A47)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15" s="40">
         <f>SUM(Main!$C$2:C47)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F15" s="40">
         <f>SUM(Main!$J$2:J47)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="40">
         <f>SUM(Main!$P$2:P47)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="40" customFormat="1">
@@ -7372,19 +7438,19 @@
       </c>
       <c r="D16" s="40">
         <f>COUNTA(Main!$A$2:A47)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16" s="40">
         <f>SUM(Main!$C$2:C47)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F16" s="40">
         <f>SUM(Main!$J$2:J47)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="40">
         <f>SUM(Main!$P$2:P47)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -7400,19 +7466,19 @@
       </c>
       <c r="D17" s="40">
         <f>COUNTA(Main!$A$2:A47)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17" s="40">
         <f>SUM(Main!$C$2:C47)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F17" s="40">
         <f>SUM(Main!$J$2:J47)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="40">
         <f>SUM(Main!$P$2:P47)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -7428,19 +7494,19 @@
       </c>
       <c r="D18" s="40">
         <f>COUNTA(Main!$A$2:A47)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18" s="40">
         <f>SUM(Main!$C$2:C47)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F18" s="40">
         <f>SUM(Main!$J$2:J47)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="40">
         <f>SUM(Main!$P$2:P47)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -7455,19 +7521,19 @@
       </c>
       <c r="D19" s="40">
         <f>COUNTA(Main!$A$2:A47)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E19" s="40">
         <f>SUM(Main!$C$2:C47)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F19" s="40">
         <f>SUM(Main!$J$2:J47)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="40">
         <f>SUM(Main!$P$2:P47)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -7485,15 +7551,15 @@
       </c>
       <c r="E20" s="40">
         <f>SUM(Main!$C$2:C47)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F20" s="40">
         <f>SUM(Main!$J$2:J47)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="40">
         <f>SUM(Main!$P$2:P47)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -7511,15 +7577,15 @@
       </c>
       <c r="E21" s="40">
         <f>SUM(Main!$C$2:C47)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F21" s="40">
         <f>SUM(Main!$J$2:J47)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="40">
         <f>SUM(Main!$P$2:P47)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -7537,15 +7603,15 @@
       </c>
       <c r="E22" s="40">
         <f>SUM(Main!$C$2:C47)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F22" s="40">
         <f>SUM(Main!$J$2:J47)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="40">
         <f>SUM(Main!$P$2:P47)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -7563,15 +7629,15 @@
       </c>
       <c r="E23" s="40">
         <f>SUM(Main!$C$2:C47)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F23" s="40">
         <f>SUM(Main!$J$2:J47)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="40">
         <f>SUM(Main!$P$2:P47)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -7589,15 +7655,15 @@
       </c>
       <c r="E24" s="40">
         <f>SUM(Main!$C$2:C47)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F24" s="40">
         <f>SUM(Main!$J$2:J47)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="40">
         <f>SUM(Main!$P$2:P47)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -7615,15 +7681,15 @@
       </c>
       <c r="E25" s="40">
         <f>SUM(Main!$C$2:C47)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F25" s="40">
         <f>SUM(Main!$J$2:J47)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="40">
         <f>SUM(Main!$P$2:P47)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -7641,15 +7707,15 @@
       </c>
       <c r="E26" s="40">
         <f>SUM(Main!$C$2:C47)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F26" s="40">
         <f>SUM(Main!$J$2:J47)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="40">
         <f>SUM(Main!$P$2:P47)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H26" t="s">
         <v>139</v>
@@ -7671,15 +7737,15 @@
       </c>
       <c r="E27" s="40">
         <f>SUM(Main!$C$2:C47)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F27" s="40">
         <f>SUM(Main!$J$2:J47)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" s="40">
         <f>SUM(Main!$P$2:P47)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -7697,15 +7763,15 @@
       </c>
       <c r="E28" s="40">
         <f>SUM(Main!$C$2:C47)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F28" s="40">
         <f>SUM(Main!$J$2:J47)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" s="40">
         <f>SUM(Main!$P$2:P47)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H28" t="s">
         <v>140</v>
@@ -11236,24 +11302,24 @@
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1">
       <c r="D1" s="76"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
-      <c r="U1" s="110"/>
-      <c r="V1" s="110"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
+      <c r="R1" s="114"/>
+      <c r="S1" s="114"/>
+      <c r="T1" s="114"/>
+      <c r="U1" s="114"/>
+      <c r="V1" s="114"/>
     </row>
     <row r="2" spans="1:23" ht="96" customHeight="1">
       <c r="A2" s="43"/>
@@ -12218,37 +12284,37 @@
     <row r="1" spans="1:33" ht="15" customHeight="1">
       <c r="A1" s="43"/>
       <c r="B1" s="44"/>
-      <c r="E1" s="111" t="s">
+      <c r="E1" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
-      <c r="U1" s="110"/>
-      <c r="V1" s="110"/>
-      <c r="W1" s="110"/>
-      <c r="X1" s="110"/>
-      <c r="Y1" s="110"/>
-      <c r="Z1" s="110"/>
-      <c r="AA1" s="110"/>
-      <c r="AB1" s="110"/>
-      <c r="AC1" s="110"/>
-      <c r="AD1" s="110"/>
-      <c r="AE1" s="110"/>
-      <c r="AF1" s="110"/>
-      <c r="AG1" s="110"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
+      <c r="R1" s="114"/>
+      <c r="S1" s="114"/>
+      <c r="T1" s="114"/>
+      <c r="U1" s="114"/>
+      <c r="V1" s="114"/>
+      <c r="W1" s="114"/>
+      <c r="X1" s="114"/>
+      <c r="Y1" s="114"/>
+      <c r="Z1" s="114"/>
+      <c r="AA1" s="114"/>
+      <c r="AB1" s="114"/>
+      <c r="AC1" s="114"/>
+      <c r="AD1" s="114"/>
+      <c r="AE1" s="114"/>
+      <c r="AF1" s="114"/>
+      <c r="AG1" s="114"/>
     </row>
     <row r="2" spans="1:33" ht="144" customHeight="1">
       <c r="C2" s="76" t="s">

--- a/tests/_dummy_data.xlsx
+++ b/tests/_dummy_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ali_m\AnacondaProjects\PhD\Semiology-Visualisation-Tool\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC98D501-2F80-413E-8D48-47650BF42FB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE58D750-728B-4E7F-B965-F035982271DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="398">
   <si>
     <t xml:space="preserve">Semiology </t>
   </si>
@@ -1222,6 +1222,27 @@
   </si>
   <si>
     <t>Romagnoli et al on paediatric frontal lobe recordings 2025</t>
+  </si>
+  <si>
+    <t>ADNFLE</t>
+  </si>
+  <si>
+    <t>anonymous, ADNFLE</t>
+  </si>
+  <si>
+    <t>leg bicycling</t>
+  </si>
+  <si>
+    <t>Hypermotor</t>
+  </si>
+  <si>
+    <t>SPECT</t>
+  </si>
+  <si>
+    <t>concordant ictal SPECT and sEEG</t>
+  </si>
+  <si>
+    <t>frontal, cingulate</t>
   </si>
 </sst>
 </file>
@@ -2768,46 +2789,46 @@
                   <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>91</c:v>
@@ -2993,7 +3014,7 @@
                   <c:v>454</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>477</c:v>
@@ -3002,64 +3023,64 @@
                   <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>564</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3443,73 +3464,73 @@
                   <c:v>1041</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1119.5</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.00">
-                  <c:v>4</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1357.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4666,10 +4687,10 @@
   <dimension ref="A1:DU51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="CY3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="CZ3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="DG10" sqref="DG10"/>
+      <selection pane="bottomRight" activeCell="DE7" sqref="DE7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -5392,14 +5413,74 @@
       <c r="DT6" s="34"/>
       <c r="DU6" s="34"/>
     </row>
-    <row r="7" spans="1:125">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
+    <row r="7" spans="1:125" ht="30">
+      <c r="A7" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="B7" s="33">
+        <v>10</v>
+      </c>
+      <c r="C7" s="33">
+        <v>10</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>394</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>396</v>
+      </c>
       <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
+      <c r="H7" s="33" t="s">
+        <v>395</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="M7" s="5">
+        <v>10</v>
+      </c>
+      <c r="P7" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="32" t="s">
+        <v>397</v>
+      </c>
+      <c r="AL7" s="5">
+        <v>10</v>
+      </c>
+      <c r="AN7" s="5">
+        <v>5</v>
+      </c>
+      <c r="AV7" s="5">
+        <v>5</v>
+      </c>
+      <c r="AW7" s="5">
+        <v>1</v>
+      </c>
+      <c r="BQ7" s="5">
+        <v>2</v>
+      </c>
+      <c r="BS7" s="5">
+        <v>2</v>
+      </c>
+      <c r="DA7" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="DB7" s="6">
+        <v>10</v>
+      </c>
+      <c r="DC7" s="6">
+        <v>0</v>
+      </c>
+      <c r="DD7" s="5">
+        <v>0</v>
+      </c>
+      <c r="DH7" s="5" t="s">
+        <v>391</v>
+      </c>
       <c r="DP7" s="34"/>
       <c r="DQ7" s="34"/>
       <c r="DR7" s="34"/>
@@ -7166,11 +7247,11 @@
       </c>
       <c r="D6" s="40">
         <f>COUNTA(Main!A2:A47)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" s="40">
         <f>SUM(Main!C2:C47)</f>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F6" s="40">
         <f>SUM(Main!J2:J47)</f>
@@ -7178,7 +7259,7 @@
       </c>
       <c r="G6" s="40">
         <f>SUM(Main!P2:P47)</f>
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="40" customFormat="1">
@@ -7194,7 +7275,7 @@
       </c>
       <c r="D7" s="40">
         <f>COUNTA(Main!A3:A47)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" s="40">
         <v>477</v>
@@ -7222,7 +7303,7 @@
       </c>
       <c r="D8" s="40">
         <f>COUNTA(Main!A2:A47)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8" s="40">
         <v>480</v>
@@ -7233,7 +7314,7 @@
       </c>
       <c r="G8" s="62">
         <f>SUM(Main!$P$2:P47)</f>
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="40" customFormat="1">
@@ -7249,11 +7330,11 @@
       </c>
       <c r="D9" s="40">
         <f>COUNTA(Main!$A$2:A47)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9" s="40">
         <f>SUM(Main!$C$2:C47)</f>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F9" s="40">
         <f>SUM(Main!$J$2:J47)</f>
@@ -7261,7 +7342,7 @@
       </c>
       <c r="G9" s="40">
         <f>SUM(Main!$P$2:P47)</f>
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="40" customFormat="1">
@@ -7277,11 +7358,11 @@
       </c>
       <c r="D10" s="40">
         <f>COUNTA(Main!$A$2:A47)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10" s="40">
         <f>SUM(Main!$C$2:C47)</f>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F10" s="40">
         <f>SUM(Main!$J$2:J47)</f>
@@ -7289,7 +7370,7 @@
       </c>
       <c r="G10" s="40">
         <f>SUM(Main!$P$2:P47)</f>
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="40" customFormat="1">
@@ -7305,11 +7386,11 @@
       </c>
       <c r="D11" s="40">
         <f>COUNTA(Main!$A$2:A47)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11" s="40">
         <f>SUM(Main!$C$2:C47)</f>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F11" s="40">
         <f>SUM(Main!$J$2:J47)</f>
@@ -7317,7 +7398,7 @@
       </c>
       <c r="G11" s="40">
         <f>SUM(Main!$P$2:P47)</f>
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -7356,11 +7437,11 @@
       </c>
       <c r="D13" s="40">
         <f>COUNTA(Main!$A$2:A47)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E13" s="40">
         <f>SUM(Main!$C$2:C47)</f>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F13" s="40">
         <f>SUM(Main!$J$2:J47)</f>
@@ -7368,7 +7449,7 @@
       </c>
       <c r="G13" s="40">
         <f>SUM(Main!$P$2:P47)</f>
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="40" customFormat="1">
@@ -7386,7 +7467,7 @@
       </c>
       <c r="E14" s="40">
         <f>SUM(Main!$C$2:C47)</f>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F14" s="40">
         <f>SUM(Main!$J$2:J47)</f>
@@ -7394,7 +7475,7 @@
       </c>
       <c r="G14" s="40">
         <f>SUM(Main!$P$2:P47)</f>
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="40" customFormat="1">
@@ -7410,11 +7491,11 @@
       </c>
       <c r="D15" s="40">
         <f>COUNTA(Main!$A$2:A47)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E15" s="40">
         <f>SUM(Main!$C$2:C47)</f>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F15" s="40">
         <f>SUM(Main!$J$2:J47)</f>
@@ -7422,7 +7503,7 @@
       </c>
       <c r="G15" s="40">
         <f>SUM(Main!$P$2:P47)</f>
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="40" customFormat="1">
@@ -7438,11 +7519,11 @@
       </c>
       <c r="D16" s="40">
         <f>COUNTA(Main!$A$2:A47)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E16" s="40">
         <f>SUM(Main!$C$2:C47)</f>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F16" s="40">
         <f>SUM(Main!$J$2:J47)</f>
@@ -7450,7 +7531,7 @@
       </c>
       <c r="G16" s="40">
         <f>SUM(Main!$P$2:P47)</f>
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -7466,11 +7547,11 @@
       </c>
       <c r="D17" s="40">
         <f>COUNTA(Main!$A$2:A47)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E17" s="40">
         <f>SUM(Main!$C$2:C47)</f>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F17" s="40">
         <f>SUM(Main!$J$2:J47)</f>
@@ -7478,7 +7559,7 @@
       </c>
       <c r="G17" s="40">
         <f>SUM(Main!$P$2:P47)</f>
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -7494,11 +7575,11 @@
       </c>
       <c r="D18" s="40">
         <f>COUNTA(Main!$A$2:A47)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E18" s="40">
         <f>SUM(Main!$C$2:C47)</f>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F18" s="40">
         <f>SUM(Main!$J$2:J47)</f>
@@ -7506,7 +7587,7 @@
       </c>
       <c r="G18" s="40">
         <f>SUM(Main!$P$2:P47)</f>
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -7521,11 +7602,11 @@
       </c>
       <c r="D19" s="40">
         <f>COUNTA(Main!$A$2:A47)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E19" s="40">
         <f>SUM(Main!$C$2:C47)</f>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F19" s="40">
         <f>SUM(Main!$J$2:J47)</f>
@@ -7533,7 +7614,7 @@
       </c>
       <c r="G19" s="40">
         <f>SUM(Main!$P$2:P47)</f>
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -7551,7 +7632,7 @@
       </c>
       <c r="E20" s="40">
         <f>SUM(Main!$C$2:C47)</f>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F20" s="40">
         <f>SUM(Main!$J$2:J47)</f>
@@ -7559,7 +7640,7 @@
       </c>
       <c r="G20" s="40">
         <f>SUM(Main!$P$2:P47)</f>
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -7577,7 +7658,7 @@
       </c>
       <c r="E21" s="40">
         <f>SUM(Main!$C$2:C47)</f>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F21" s="40">
         <f>SUM(Main!$J$2:J47)</f>
@@ -7585,7 +7666,7 @@
       </c>
       <c r="G21" s="40">
         <f>SUM(Main!$P$2:P47)</f>
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -7603,7 +7684,7 @@
       </c>
       <c r="E22" s="40">
         <f>SUM(Main!$C$2:C47)</f>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F22" s="40">
         <f>SUM(Main!$J$2:J47)</f>
@@ -7611,7 +7692,7 @@
       </c>
       <c r="G22" s="40">
         <f>SUM(Main!$P$2:P47)</f>
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -7629,7 +7710,7 @@
       </c>
       <c r="E23" s="40">
         <f>SUM(Main!$C$2:C47)</f>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F23" s="40">
         <f>SUM(Main!$J$2:J47)</f>
@@ -7637,7 +7718,7 @@
       </c>
       <c r="G23" s="40">
         <f>SUM(Main!$P$2:P47)</f>
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -7655,7 +7736,7 @@
       </c>
       <c r="E24" s="40">
         <f>SUM(Main!$C$2:C47)</f>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F24" s="40">
         <f>SUM(Main!$J$2:J47)</f>
@@ -7663,7 +7744,7 @@
       </c>
       <c r="G24" s="40">
         <f>SUM(Main!$P$2:P47)</f>
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -7681,7 +7762,7 @@
       </c>
       <c r="E25" s="40">
         <f>SUM(Main!$C$2:C47)</f>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F25" s="40">
         <f>SUM(Main!$J$2:J47)</f>
@@ -7689,7 +7770,7 @@
       </c>
       <c r="G25" s="40">
         <f>SUM(Main!$P$2:P47)</f>
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -7707,7 +7788,7 @@
       </c>
       <c r="E26" s="40">
         <f>SUM(Main!$C$2:C47)</f>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F26" s="40">
         <f>SUM(Main!$J$2:J47)</f>
@@ -7715,7 +7796,7 @@
       </c>
       <c r="G26" s="40">
         <f>SUM(Main!$P$2:P47)</f>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
         <v>139</v>
@@ -7737,7 +7818,7 @@
       </c>
       <c r="E27" s="40">
         <f>SUM(Main!$C$2:C47)</f>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F27" s="40">
         <f>SUM(Main!$J$2:J47)</f>
@@ -7745,7 +7826,7 @@
       </c>
       <c r="G27" s="40">
         <f>SUM(Main!$P$2:P47)</f>
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -7763,7 +7844,7 @@
       </c>
       <c r="E28" s="40">
         <f>SUM(Main!$C$2:C47)</f>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F28" s="40">
         <f>SUM(Main!$J$2:J47)</f>
@@ -7771,7 +7852,7 @@
       </c>
       <c r="G28" s="40">
         <f>SUM(Main!$P$2:P47)</f>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
         <v>140</v>

--- a/tests/_dummy_data.xlsx
+++ b/tests/_dummy_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ali_m\AnacondaProjects\PhD\Semiology-Visualisation-Tool\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE58D750-728B-4E7F-B965-F035982271DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2E5CF1-1995-41DA-A2FB-A5095AA889CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="398">
   <si>
     <t xml:space="preserve">Semiology </t>
   </si>
@@ -4690,7 +4690,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="CZ3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="DE7" sqref="DE7"/>
+      <selection pane="bottomRight" activeCell="DE11" sqref="DE11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -5478,6 +5478,9 @@
       <c r="DD7" s="5">
         <v>0</v>
       </c>
+      <c r="DE7" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="DH7" s="5" t="s">
         <v>391</v>
       </c>

--- a/tests/_dummy_data.xlsx
+++ b/tests/_dummy_data.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ali_m\AnacondaProjects\PhD\Semiology-Visualisation-Tool\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2E5CF1-1995-41DA-A2FB-A5095AA889CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9D0254-03DC-466F-9CF4-CFDA41A7F642}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="Progress" sheetId="3" r:id="rId2"/>
+    <sheet name="test_counts" sheetId="3" r:id="rId2"/>
     <sheet name="semiology_list" sheetId="2" r:id="rId3"/>
     <sheet name="Full GIF Map for Review " sheetId="11" r:id="rId4"/>
     <sheet name="GIF list" sheetId="12" r:id="rId5"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="406">
   <si>
     <t xml:space="preserve">Semiology </t>
   </si>
@@ -431,48 +431,6 @@
     <t>Vomiting</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>abstract screened</t>
-  </si>
-  <si>
-    <t xml:space="preserve">full-text screened papers  </t>
-  </si>
-  <si>
-    <t>papers included</t>
-  </si>
-  <si>
-    <t>patients included</t>
-  </si>
-  <si>
-    <t>lateralising data points</t>
-  </si>
-  <si>
-    <t>localising data points</t>
-  </si>
-  <si>
-    <t># semiologies given in the papers included</t>
-  </si>
-  <si>
-    <t>cell number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">localising is number of patients in each row for each semiology, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">but when summing the locaslising, as one pt can have more than one semiology, this is no longer number of patients. </t>
-  </si>
-  <si>
-    <t>380ish</t>
-  </si>
-  <si>
-    <t>Mid Feb summary - to be confirmed</t>
-  </si>
-  <si>
-    <t>Early March summary - to be confirmed</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -1243,6 +1201,72 @@
   </si>
   <si>
     <t>frontal, cingulate</t>
+  </si>
+  <si>
+    <t>aphasias in epilepsy surgery by Broca</t>
+  </si>
+  <si>
+    <t>postictal aphasia</t>
+  </si>
+  <si>
+    <t>Engel I postop</t>
+  </si>
+  <si>
+    <t>broca</t>
+  </si>
+  <si>
+    <t>mesial temp, ifg, ATL</t>
+  </si>
+  <si>
+    <t>Speech aphasia</t>
+  </si>
+  <si>
+    <t>speech (aphasia)</t>
+  </si>
+  <si>
+    <t>concordant</t>
+  </si>
+  <si>
+    <t>one parentheses</t>
+  </si>
+  <si>
+    <t>double parentheses</t>
+  </si>
+  <si>
+    <t>caps letters</t>
+  </si>
+  <si>
+    <t>APHASIA</t>
+  </si>
+  <si>
+    <t>aphasia total</t>
+  </si>
+  <si>
+    <t>localising</t>
+  </si>
+  <si>
+    <t>lateralising</t>
+  </si>
+  <si>
+    <t>with single parentheses</t>
+  </si>
+  <si>
+    <t>with double parentheses</t>
+  </si>
+  <si>
+    <t>with postictal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">speech (dysphasia, aphasia,) </t>
+  </si>
+  <si>
+    <t>speech (dysphasia, aphasia)</t>
+  </si>
+  <si>
+    <t>caps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">localising </t>
   </si>
 </sst>
 </file>
@@ -1737,7 +1761,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1882,9 +1906,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2200,12 +2221,9 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Progress!$B$1</c:f>
+              <c:f>test_counts!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>abstract screened</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -2235,181 +2253,19 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Progress!$A$2:$A$28</c:f>
+              <c:f>test_counts!$A$2:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>43586</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43619</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43620</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43627</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43628</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43634</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43643</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43644</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43658</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43664</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43669</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43671</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>43672</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>43679</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>43683</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>43700</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>43704</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>43706</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>43725</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>43747</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>43759</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>43787</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>43788</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>43858</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>43879</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>43886</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>43902</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Progress!$B$2:$B$28</c:f>
+              <c:f>test_counts!$B$2:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>245</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>272</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>296</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>307</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>313</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>325</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>341</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>354</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>372</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>395</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>405</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>427</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>440</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>464</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>469</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>471</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>473</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>474</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>476</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>479</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>482</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>535</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>549</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>648</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2425,12 +2281,9 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Progress!$C$1</c:f>
+              <c:f>test_counts!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>full-text screened papers  </c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -2460,177 +2313,48 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Progress!$A$2:$A$28</c:f>
+              <c:f>test_counts!$A$2:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>43586</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43619</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43620</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43627</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43628</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43634</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43643</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43644</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43658</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43664</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43669</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43671</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>43672</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>43679</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>43683</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>43700</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>43704</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>43706</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>43725</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>43747</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>43759</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>43787</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>43788</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>43858</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>43879</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>43886</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>43902</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Progress!$C$2:$C$28</c:f>
+              <c:f>test_counts!$C$2:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>162</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>173</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>207</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>220</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>251</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>278</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>288</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>308</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>321</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>333</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>349</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>354</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>356</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>358</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>359</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>361</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>364</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>435</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>481</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>514</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2647,11 +2371,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Progress!$D$1</c:f>
+              <c:f>test_counts!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>papers included</c:v>
+                  <c:v>aphasia total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2682,97 +2406,16 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Progress!$A$2:$A$28</c:f>
+              <c:f>test_counts!$A$2:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>43586</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43619</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43620</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43627</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43628</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43634</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43643</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43644</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43658</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43664</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43669</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43671</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>43672</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>43679</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>43683</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>43700</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>43704</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>43706</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>43725</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>43747</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>43759</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>43787</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>43788</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>43858</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>43879</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>43886</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>43902</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Progress!$D$2:$D$28</c:f>
+              <c:f>test_counts!$D$2:$D$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -2780,82 +2423,43 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>38</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>60</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>91</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>93</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>94</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>141</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2872,12 +2476,9 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Progress!$E$1</c:f>
+              <c:f>test_counts!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>patients included</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -2907,181 +2508,19 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Progress!$A$2:$A$28</c:f>
+              <c:f>test_counts!$A$2:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>43586</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43619</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43620</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43627</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43628</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43634</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43643</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43644</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43658</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43664</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43669</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43671</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>43672</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>43679</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>43683</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>43700</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>43704</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>43706</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>43725</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>43747</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>43759</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>43787</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>43788</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>43858</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>43879</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>43886</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>43902</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Progress!$E$2:$E$28</c:f>
+              <c:f>test_counts!$E$2:$E$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>247</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>403</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>432</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>454</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>477</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>564</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>14</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3097,12 +2536,9 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Progress!$F$1</c:f>
+              <c:f>test_counts!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>lateralising data points</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -3132,181 +2568,19 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Progress!$A$2:$A$28</c:f>
+              <c:f>test_counts!$A$2:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>43586</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43619</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43620</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43627</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43628</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43634</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43643</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43644</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43658</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43664</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43669</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43671</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>43672</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>43679</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>43683</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>43700</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>43704</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>43706</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>43725</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>43747</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>43759</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>43787</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>43788</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>43858</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>43879</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>43886</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>43902</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Progress!$F$2:$F$28</c:f>
+              <c:f>test_counts!$F$2:$F$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>212</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>218</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>228</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>241</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>296</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3322,12 +2596,9 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Progress!$G$1</c:f>
+              <c:f>test_counts!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>localising data points</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -3357,181 +2628,19 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Progress!$A$2:$A$28</c:f>
+              <c:f>test_counts!$A$2:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>43586</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43619</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43620</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43627</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43628</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43634</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43643</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43644</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43658</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43664</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43669</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43671</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>43672</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>43679</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>43683</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>43700</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>43704</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>43706</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>43725</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>43747</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>43759</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>43787</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>43788</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>43858</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>43879</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>43886</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>43902</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Progress!$G$2:$G$28</c:f>
+              <c:f>test_counts!$G$2:$G$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>470</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>898</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>970</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1041</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1119.5</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.00">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1357.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>14</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -4686,11 +3795,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DU51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="CZ3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="DE11" sqref="DE11"/>
+      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4780,112 +3889,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:125" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="106"/>
+      <c r="A1" s="105"/>
       <c r="C1" s="17"/>
-      <c r="D1" s="113" t="s">
+      <c r="D1" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="113"/>
-      <c r="G1" s="120" t="s">
+      <c r="E1" s="112"/>
+      <c r="G1" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="K1" s="122" t="s">
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="K1" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="124"/>
-      <c r="S1" s="114"/>
-      <c r="T1" s="114"/>
-      <c r="U1" s="114"/>
-      <c r="V1" s="114"/>
-      <c r="W1" s="114"/>
-      <c r="X1" s="114"/>
-      <c r="Y1" s="114"/>
-      <c r="Z1" s="114"/>
-      <c r="AA1" s="114"/>
-      <c r="AB1" s="114"/>
-      <c r="AC1" s="114"/>
-      <c r="AD1" s="114"/>
-      <c r="AE1" s="114"/>
-      <c r="AF1" s="114"/>
-      <c r="AG1" s="114"/>
-      <c r="AH1" s="114"/>
-      <c r="AI1" s="114"/>
-      <c r="AJ1" s="114"/>
-      <c r="AK1" s="114"/>
-      <c r="AM1" s="105"/>
-      <c r="AN1" s="115" t="s">
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="122"/>
+      <c r="O1" s="123"/>
+      <c r="S1" s="113"/>
+      <c r="T1" s="113"/>
+      <c r="U1" s="113"/>
+      <c r="V1" s="113"/>
+      <c r="W1" s="113"/>
+      <c r="X1" s="113"/>
+      <c r="Y1" s="113"/>
+      <c r="Z1" s="113"/>
+      <c r="AA1" s="113"/>
+      <c r="AB1" s="113"/>
+      <c r="AC1" s="113"/>
+      <c r="AD1" s="113"/>
+      <c r="AE1" s="113"/>
+      <c r="AF1" s="113"/>
+      <c r="AG1" s="113"/>
+      <c r="AH1" s="113"/>
+      <c r="AI1" s="113"/>
+      <c r="AJ1" s="113"/>
+      <c r="AK1" s="113"/>
+      <c r="AM1" s="104"/>
+      <c r="AN1" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="AO1" s="114"/>
-      <c r="AP1" s="114"/>
-      <c r="AQ1" s="114"/>
-      <c r="AR1" s="114"/>
-      <c r="AS1" s="114"/>
-      <c r="AT1" s="114"/>
-      <c r="AU1" s="114"/>
-      <c r="AV1" s="114"/>
-      <c r="AW1" s="114"/>
-      <c r="AX1" s="114"/>
-      <c r="AY1" s="114"/>
-      <c r="AZ1" s="114"/>
-      <c r="BA1" s="114"/>
-      <c r="BB1" s="114"/>
-      <c r="BC1" s="114"/>
-      <c r="BD1" s="114"/>
-      <c r="BE1" s="114"/>
-      <c r="BF1" s="114"/>
-      <c r="BG1" s="114"/>
-      <c r="BH1" s="114"/>
-      <c r="BI1" s="114"/>
-      <c r="BJ1" s="114"/>
-      <c r="BK1" s="114"/>
-      <c r="BL1" s="114"/>
-      <c r="BM1" s="114"/>
-      <c r="BN1" s="114"/>
-      <c r="BO1" s="114"/>
-      <c r="BP1" s="114"/>
-      <c r="BR1" s="117"/>
-      <c r="BS1" s="118"/>
-      <c r="BT1" s="118"/>
-      <c r="BU1" s="118"/>
-      <c r="BV1" s="118"/>
-      <c r="BW1" s="119"/>
-      <c r="BX1" s="108"/>
-      <c r="BZ1" s="114"/>
-      <c r="CA1" s="114"/>
-      <c r="CB1" s="114"/>
-      <c r="CC1" s="114"/>
-      <c r="CD1" s="114"/>
-      <c r="CE1" s="114"/>
-      <c r="CF1" s="114"/>
-      <c r="CG1" s="116"/>
-      <c r="CH1" s="115" t="s">
+      <c r="AO1" s="113"/>
+      <c r="AP1" s="113"/>
+      <c r="AQ1" s="113"/>
+      <c r="AR1" s="113"/>
+      <c r="AS1" s="113"/>
+      <c r="AT1" s="113"/>
+      <c r="AU1" s="113"/>
+      <c r="AV1" s="113"/>
+      <c r="AW1" s="113"/>
+      <c r="AX1" s="113"/>
+      <c r="AY1" s="113"/>
+      <c r="AZ1" s="113"/>
+      <c r="BA1" s="113"/>
+      <c r="BB1" s="113"/>
+      <c r="BC1" s="113"/>
+      <c r="BD1" s="113"/>
+      <c r="BE1" s="113"/>
+      <c r="BF1" s="113"/>
+      <c r="BG1" s="113"/>
+      <c r="BH1" s="113"/>
+      <c r="BI1" s="113"/>
+      <c r="BJ1" s="113"/>
+      <c r="BK1" s="113"/>
+      <c r="BL1" s="113"/>
+      <c r="BM1" s="113"/>
+      <c r="BN1" s="113"/>
+      <c r="BO1" s="113"/>
+      <c r="BP1" s="113"/>
+      <c r="BR1" s="116"/>
+      <c r="BS1" s="117"/>
+      <c r="BT1" s="117"/>
+      <c r="BU1" s="117"/>
+      <c r="BV1" s="117"/>
+      <c r="BW1" s="118"/>
+      <c r="BX1" s="107"/>
+      <c r="BZ1" s="113"/>
+      <c r="CA1" s="113"/>
+      <c r="CB1" s="113"/>
+      <c r="CC1" s="113"/>
+      <c r="CD1" s="113"/>
+      <c r="CE1" s="113"/>
+      <c r="CF1" s="113"/>
+      <c r="CG1" s="115"/>
+      <c r="CH1" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="CI1" s="114"/>
-      <c r="CJ1" s="114"/>
-      <c r="CK1" s="114"/>
-      <c r="CL1" s="114"/>
-      <c r="CM1" s="116"/>
-      <c r="CO1" s="67"/>
-      <c r="CP1" s="114" t="s">
+      <c r="CI1" s="113"/>
+      <c r="CJ1" s="113"/>
+      <c r="CK1" s="113"/>
+      <c r="CL1" s="113"/>
+      <c r="CM1" s="115"/>
+      <c r="CO1" s="66"/>
+      <c r="CP1" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="CQ1" s="114"/>
-      <c r="CR1" s="114"/>
-      <c r="CS1" s="114"/>
-      <c r="CT1" s="114"/>
-      <c r="CU1" s="114"/>
-      <c r="CV1" s="114"/>
-      <c r="CX1" s="100"/>
-      <c r="CY1" s="100"/>
-      <c r="CZ1" s="100"/>
-      <c r="DA1" s="100"/>
+      <c r="CQ1" s="113"/>
+      <c r="CR1" s="113"/>
+      <c r="CS1" s="113"/>
+      <c r="CT1" s="113"/>
+      <c r="CU1" s="113"/>
+      <c r="CV1" s="113"/>
+      <c r="CX1" s="99"/>
+      <c r="CY1" s="99"/>
+      <c r="CZ1" s="99"/>
+      <c r="DA1" s="99"/>
       <c r="DB1" s="36"/>
       <c r="DC1" s="14"/>
       <c r="DD1" s="15"/>
@@ -4902,10 +4011,10 @@
       <c r="DO1" s="4"/>
     </row>
     <row r="2" spans="1:125" s="13" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="79" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="19" t="s">
@@ -4917,7 +4026,7 @@
       <c r="E2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="72" t="s">
+      <c r="F2" s="71" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="23" t="s">
@@ -4929,7 +4038,7 @@
       <c r="I2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="73" t="s">
+      <c r="J2" s="72" t="s">
         <v>15</v>
       </c>
       <c r="K2" s="7" t="s">
@@ -4947,13 +4056,13 @@
       <c r="O2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="74" t="s">
+      <c r="P2" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="75" t="s">
+      <c r="Q2" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="76" t="s">
+      <c r="R2" s="75" t="s">
         <v>23</v>
       </c>
       <c r="S2" s="26" t="s">
@@ -5013,7 +4122,7 @@
       <c r="AK2" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="AL2" s="76" t="s">
+      <c r="AL2" s="75" t="s">
         <v>43</v>
       </c>
       <c r="AM2" s="26" t="s">
@@ -5025,7 +4134,7 @@
       <c r="AO2" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="AP2" s="92" t="s">
+      <c r="AP2" s="91" t="s">
         <v>47</v>
       </c>
       <c r="AQ2" s="24" t="s">
@@ -5049,7 +4158,7 @@
       <c r="AW2" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="AX2" s="66" t="s">
+      <c r="AX2" s="65" t="s">
         <v>55</v>
       </c>
       <c r="AY2" s="24" t="s">
@@ -5059,7 +4168,7 @@
         <v>57</v>
       </c>
       <c r="BA2" s="24" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="BB2" s="24" t="s">
         <v>58</v>
@@ -5086,15 +4195,15 @@
         <v>65</v>
       </c>
       <c r="BJ2" s="24" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="BK2" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="BL2" s="82" t="s">
+      <c r="BL2" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="BM2" s="82" t="s">
+      <c r="BM2" s="81" t="s">
         <v>68</v>
       </c>
       <c r="BN2" s="24" t="s">
@@ -5106,31 +4215,31 @@
       <c r="BP2" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="BQ2" s="76" t="s">
+      <c r="BQ2" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="BR2" s="95" t="s">
+      <c r="BR2" s="94" t="s">
         <v>73</v>
       </c>
-      <c r="BS2" s="96" t="s">
+      <c r="BS2" s="95" t="s">
         <v>74</v>
       </c>
-      <c r="BT2" s="97" t="s">
+      <c r="BT2" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="BU2" s="97" t="s">
+      <c r="BU2" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="BV2" s="98" t="s">
+      <c r="BV2" s="97" t="s">
         <v>77</v>
       </c>
-      <c r="BW2" s="96" t="s">
+      <c r="BW2" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="BX2" s="99" t="s">
+      <c r="BX2" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="BY2" s="76" t="s">
+      <c r="BY2" s="75" t="s">
         <v>80</v>
       </c>
       <c r="BZ2" s="26" t="s">
@@ -5157,16 +4266,16 @@
       <c r="CG2" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="CH2" s="77" t="s">
+      <c r="CH2" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="CI2" s="109" t="s">
+      <c r="CI2" s="108" t="s">
         <v>90</v>
       </c>
       <c r="CJ2" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="CK2" s="84" t="s">
+      <c r="CK2" s="83" t="s">
         <v>92</v>
       </c>
       <c r="CL2" s="26" t="s">
@@ -5175,13 +4284,13 @@
       <c r="CM2" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="CN2" s="78" t="s">
+      <c r="CN2" s="77" t="s">
         <v>95</v>
       </c>
-      <c r="CO2" s="68" t="s">
+      <c r="CO2" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="CP2" s="69" t="s">
+      <c r="CP2" s="68" t="s">
         <v>97</v>
       </c>
       <c r="CQ2" s="24" t="s">
@@ -5202,19 +4311,19 @@
       <c r="CV2" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="CW2" s="79" t="s">
+      <c r="CW2" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="CX2" s="110" t="s">
+      <c r="CX2" s="109" t="s">
         <v>105</v>
       </c>
-      <c r="CY2" s="111" t="s">
+      <c r="CY2" s="110" t="s">
         <v>106</v>
       </c>
-      <c r="CZ2" s="111" t="s">
+      <c r="CZ2" s="110" t="s">
         <v>107</v>
       </c>
-      <c r="DA2" s="112" t="s">
+      <c r="DA2" s="111" t="s">
         <v>108</v>
       </c>
       <c r="DB2" s="37" t="s">
@@ -5248,7 +4357,7 @@
     </row>
     <row r="3" spans="1:125" ht="30">
       <c r="A3" s="33" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="B3" s="33">
         <v>5</v>
@@ -5257,13 +4366,13 @@
         <v>3</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="E3" s="34" t="s">
         <v>117</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="G3" s="33" t="s">
         <v>116</v>
@@ -5274,7 +4383,7 @@
         <v>3</v>
       </c>
       <c r="Q3" s="32" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="R3" s="5">
         <v>1</v>
@@ -5296,7 +4405,7 @@
         <v>1</v>
       </c>
       <c r="DA3" s="5" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="DB3" s="6">
         <v>5</v>
@@ -5334,7 +4443,7 @@
     </row>
     <row r="5" spans="1:125" ht="30">
       <c r="A5" s="33" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="B5" s="33">
         <v>1</v>
@@ -5343,13 +4452,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="G5" s="33"/>
       <c r="H5" s="33" t="s">
@@ -5368,7 +4477,7 @@
         <v>1</v>
       </c>
       <c r="Q5" s="32" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="AL5" s="5">
         <v>1</v>
@@ -5415,7 +4524,7 @@
     </row>
     <row r="7" spans="1:125" ht="30">
       <c r="A7" s="33" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="B7" s="33">
         <v>10</v>
@@ -5424,17 +4533,17 @@
         <v>10</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="G7" s="33"/>
       <c r="H7" s="33" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="I7" s="33" t="s">
         <v>116</v>
@@ -5446,7 +4555,7 @@
         <v>10</v>
       </c>
       <c r="Q7" s="32" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="AL7" s="5">
         <v>10</v>
@@ -5467,7 +4576,7 @@
         <v>2</v>
       </c>
       <c r="DA7" s="5" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="DB7" s="6">
         <v>10</v>
@@ -5482,7 +4591,7 @@
         <v>116</v>
       </c>
       <c r="DH7" s="5" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="DP7" s="34"/>
       <c r="DQ7" s="34"/>
@@ -5507,13 +4616,71 @@
       <c r="DU8" s="34"/>
     </row>
     <row r="9" spans="1:125">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="G9" s="33"/>
+      <c r="A9" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="B9" s="33">
+        <v>10</v>
+      </c>
+      <c r="C9" s="33">
+        <v>10</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>389</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>368</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>116</v>
+      </c>
       <c r="H9" s="33"/>
       <c r="I9" s="33"/>
+      <c r="J9" s="5">
+        <v>5</v>
+      </c>
+      <c r="N9" s="5">
+        <v>5</v>
+      </c>
+      <c r="P9" s="5">
+        <v>9</v>
+      </c>
+      <c r="Q9" s="32" t="s">
+        <v>388</v>
+      </c>
+      <c r="R9" s="5">
+        <v>9</v>
+      </c>
+      <c r="S9" s="5">
+        <v>5</v>
+      </c>
+      <c r="T9" s="5">
+        <v>4</v>
+      </c>
+      <c r="Z9" s="5">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="5">
+        <v>5</v>
+      </c>
+      <c r="DA9" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="DB9" s="6">
+        <v>10</v>
+      </c>
+      <c r="DC9" s="6">
+        <v>0</v>
+      </c>
+      <c r="DD9" s="5">
+        <v>10</v>
+      </c>
+      <c r="DF9" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="DP9" s="34"/>
       <c r="DQ9" s="34"/>
       <c r="DR9" s="34"/>
@@ -5525,10 +4692,41 @@
       <c r="A10" s="18"/>
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="G10" s="33"/>
+      <c r="D10" s="33" t="s">
+        <v>385</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>385</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>386</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>116</v>
+      </c>
       <c r="H10" s="33"/>
       <c r="I10" s="33"/>
+      <c r="J10" s="5">
+        <v>1</v>
+      </c>
+      <c r="N10" s="5">
+        <v>1</v>
+      </c>
+      <c r="P10" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="AL10" s="5">
+        <v>1</v>
+      </c>
+      <c r="BE10" s="5">
+        <v>1</v>
+      </c>
+      <c r="DA10" s="5" t="s">
+        <v>370</v>
+      </c>
       <c r="DP10" s="34"/>
       <c r="DQ10" s="34"/>
       <c r="DR10" s="34"/>
@@ -5567,13 +4765,53 @@
       <c r="DU12" s="34"/>
     </row>
     <row r="13" spans="1:125">
-      <c r="A13" s="33"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
+      <c r="A13" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="B13" s="33">
+        <v>1</v>
+      </c>
+      <c r="C13" s="33">
+        <v>1</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>391</v>
+      </c>
       <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
+      <c r="H13" s="33" t="s">
+        <v>116</v>
+      </c>
       <c r="I13" s="33"/>
+      <c r="P13" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="R13" s="5">
+        <v>1</v>
+      </c>
+      <c r="DA13" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="DB13" s="6">
+        <v>1</v>
+      </c>
+      <c r="DC13" s="6">
+        <v>0</v>
+      </c>
+      <c r="DD13" s="5">
+        <v>0</v>
+      </c>
+      <c r="DF13" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="DP13" s="34"/>
       <c r="DQ13" s="34"/>
       <c r="DR13" s="34"/>
@@ -5582,13 +4820,53 @@
       <c r="DU13" s="34"/>
     </row>
     <row r="14" spans="1:125">
-      <c r="A14" s="33"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
+      <c r="A14" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="B14" s="33">
+        <v>1</v>
+      </c>
+      <c r="C14" s="33">
+        <v>1</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>402</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>403</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>391</v>
+      </c>
       <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
+      <c r="H14" s="33" t="s">
+        <v>116</v>
+      </c>
       <c r="I14" s="33"/>
+      <c r="P14" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="R14" s="5">
+        <v>1</v>
+      </c>
+      <c r="DA14" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="DB14" s="6">
+        <v>1</v>
+      </c>
+      <c r="DC14" s="6">
+        <v>0</v>
+      </c>
+      <c r="DD14" s="5">
+        <v>0</v>
+      </c>
+      <c r="DF14" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="DP14" s="34"/>
       <c r="DQ14" s="34"/>
       <c r="DR14" s="34"/>
@@ -5597,13 +4875,53 @@
       <c r="DU14" s="34"/>
     </row>
     <row r="15" spans="1:125">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
+      <c r="A15" s="33" t="s">
+        <v>394</v>
+      </c>
+      <c r="B15" s="33">
+        <v>1</v>
+      </c>
+      <c r="C15" s="33">
+        <v>1</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>395</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>395</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>391</v>
+      </c>
       <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
+      <c r="H15" s="33" t="s">
+        <v>116</v>
+      </c>
       <c r="I15" s="33"/>
+      <c r="P15" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="R15" s="5">
+        <v>1</v>
+      </c>
+      <c r="DA15" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="DB15" s="6">
+        <v>1</v>
+      </c>
+      <c r="DC15" s="6">
+        <v>0</v>
+      </c>
+      <c r="DD15" s="5">
+        <v>0</v>
+      </c>
+      <c r="DF15" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="DP15" s="34"/>
       <c r="DQ15" s="34"/>
       <c r="DR15" s="34"/>
@@ -6184,24 +5502,24 @@
     <row r="1" spans="1:8">
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="125" t="s">
+      <c r="E1" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
     </row>
     <row r="2" spans="1:8" ht="45">
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="83" t="s">
+      <c r="D2" s="82" t="s">
         <v>90</v>
       </c>
       <c r="E2" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="84" t="s">
+      <c r="F2" s="83" t="s">
         <v>92</v>
       </c>
       <c r="G2" s="26" t="s">
@@ -6213,7 +5531,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="51" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="B3" s="46">
         <v>109</v>
@@ -6224,7 +5542,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="51" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B4" s="46">
         <v>110</v>
@@ -6240,7 +5558,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="B5" s="46">
         <v>115</v>
@@ -6248,7 +5566,7 @@
       <c r="C5" s="46">
         <v>115</v>
       </c>
-      <c r="D5" s="88">
+      <c r="D5" s="87">
         <v>115</v>
       </c>
       <c r="E5" s="51"/>
@@ -6258,7 +5576,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="B6" s="46">
         <v>116</v>
@@ -6266,7 +5584,7 @@
       <c r="C6" s="46">
         <v>116</v>
       </c>
-      <c r="D6" s="88">
+      <c r="D6" s="87">
         <v>116</v>
       </c>
       <c r="E6" s="51"/>
@@ -6276,7 +5594,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="51" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="B7" s="46">
         <v>129</v>
@@ -6292,7 +5610,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="51" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="B8" s="46">
         <v>130</v>
@@ -6308,7 +5626,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="B9" s="46">
         <v>135</v>
@@ -6318,7 +5636,7 @@
       </c>
       <c r="D9" s="51"/>
       <c r="E9" s="51"/>
-      <c r="F9" s="88">
+      <c r="F9" s="87">
         <v>135</v>
       </c>
       <c r="G9" s="51"/>
@@ -6326,7 +5644,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="B10" s="46">
         <v>136</v>
@@ -6336,7 +5654,7 @@
       </c>
       <c r="D10" s="51"/>
       <c r="E10" s="51"/>
-      <c r="F10" s="88">
+      <c r="F10" s="87">
         <v>136</v>
       </c>
       <c r="G10" s="51"/>
@@ -6344,7 +5662,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="B11" s="46">
         <v>145</v>
@@ -6353,7 +5671,7 @@
         <v>145</v>
       </c>
       <c r="D11" s="51"/>
-      <c r="E11" s="88">
+      <c r="E11" s="87">
         <v>145</v>
       </c>
       <c r="F11" s="51"/>
@@ -6362,7 +5680,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="B12" s="46">
         <v>146</v>
@@ -6371,16 +5689,16 @@
         <v>146</v>
       </c>
       <c r="D12" s="51"/>
-      <c r="E12" s="88">
+      <c r="E12" s="87">
         <v>146</v>
       </c>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="88"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="B13" s="46">
         <v>157</v>
@@ -6389,16 +5707,16 @@
         <v>157</v>
       </c>
       <c r="D13" s="51"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="88">
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="87">
         <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="B14" s="46">
         <v>158</v>
@@ -6407,16 +5725,16 @@
         <v>158</v>
       </c>
       <c r="D14" s="51"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="88">
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="87">
         <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="51" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="B15" s="46">
         <v>161</v>
@@ -6432,7 +5750,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="51" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="B16" s="46">
         <v>162</v>
@@ -6443,7 +5761,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="51" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="B17" s="40">
         <v>197</v>
@@ -6454,7 +5772,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="51" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="B18" s="40">
         <v>198</v>
@@ -6488,43 +5806,43 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="C1" s="2"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="93"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="92"/>
     </row>
     <row r="2" spans="1:10" ht="47.25">
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="96" t="s">
+      <c r="D2" s="95" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="97" t="s">
+      <c r="E2" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="97" t="s">
+      <c r="F2" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="98" t="s">
+      <c r="G2" s="97" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="96" t="s">
+      <c r="H2" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="I2" s="99" t="s">
+      <c r="I2" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="94" t="s">
-        <v>378</v>
+      <c r="J2" s="93" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="B3" s="46">
         <v>101</v>
@@ -6545,7 +5863,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="B4" s="46">
         <v>102</v>
@@ -6566,7 +5884,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="B5" s="46">
         <v>139</v>
@@ -6580,7 +5898,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="B6" s="46">
         <v>140</v>
@@ -6594,7 +5912,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="B7" s="46">
         <v>167</v>
@@ -6605,13 +5923,13 @@
       <c r="H7" s="46">
         <v>167</v>
       </c>
-      <c r="I7" s="86">
+      <c r="I7" s="85">
         <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="B8" s="46">
         <v>168</v>
@@ -6622,13 +5940,13 @@
       <c r="H8" s="46">
         <v>168</v>
       </c>
-      <c r="I8" s="86">
+      <c r="I8" s="85">
         <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="B9" s="46">
         <v>83</v>
@@ -6642,7 +5960,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="B10" s="46">
         <v>91</v>
@@ -6678,25 +5996,25 @@
   <sheetData>
     <row r="1" spans="1:11" ht="26.25">
       <c r="C1" s="2"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="126" t="s">
+      <c r="D1" s="66"/>
+      <c r="E1" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
     </row>
     <row r="2" spans="1:11" ht="30">
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="77" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="69" t="s">
+      <c r="E2" s="68" t="s">
         <v>97</v>
       </c>
       <c r="F2" s="24" t="s">
@@ -6720,7 +6038,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="B3" s="46">
         <v>103</v>
@@ -6740,13 +6058,13 @@
       <c r="G3" s="46">
         <v>103</v>
       </c>
-      <c r="K3" s="86">
+      <c r="K3" s="85">
         <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="B4" s="46">
         <v>104</v>
@@ -6766,13 +6084,13 @@
       <c r="G4" s="46">
         <v>104</v>
       </c>
-      <c r="K4" s="86">
+      <c r="K4" s="85">
         <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="B5" s="46">
         <v>173</v>
@@ -6780,10 +6098,10 @@
       <c r="C5" s="46">
         <v>173</v>
       </c>
-      <c r="H5" s="86">
+      <c r="H5" s="85">
         <v>173</v>
       </c>
-      <c r="I5" s="86">
+      <c r="I5" s="85">
         <v>173</v>
       </c>
       <c r="J5" s="46">
@@ -6792,7 +6110,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="B6" s="46">
         <v>174</v>
@@ -6800,10 +6118,10 @@
       <c r="C6" s="46">
         <v>174</v>
       </c>
-      <c r="H6" s="86">
+      <c r="H6" s="85">
         <v>174</v>
       </c>
-      <c r="I6" s="86">
+      <c r="I6" s="85">
         <v>174</v>
       </c>
       <c r="J6" s="46">
@@ -6840,13 +6158,13 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:5" ht="26.25">
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="78" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="B3" s="46">
         <v>60</v>
@@ -6857,7 +6175,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="B4" s="46">
         <v>61</v>
@@ -6867,33 +6185,33 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="87"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="40"/>
       <c r="C5" s="40"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="87"/>
+      <c r="A6" s="86"/>
       <c r="B6" s="40"/>
       <c r="C6" s="40"/>
       <c r="D6" s="40"/>
       <c r="E6" s="40"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="87"/>
+      <c r="A7" s="86"/>
       <c r="B7" s="40"/>
       <c r="C7" s="40"/>
       <c r="D7" s="40"/>
       <c r="E7" s="40"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="87"/>
+      <c r="A8" s="86"/>
       <c r="B8" s="40"/>
       <c r="C8" s="40"/>
       <c r="D8" s="40"/>
       <c r="E8" s="40"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="87"/>
+      <c r="A9" s="86"/>
       <c r="B9" s="40"/>
       <c r="C9" s="40"/>
       <c r="D9" s="40"/>
@@ -6920,24 +6238,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
     </row>
     <row r="2" spans="1:6" ht="26.25">
-      <c r="C2" s="101" t="s">
+      <c r="C2" s="100" t="s">
         <v>105</v>
       </c>
-      <c r="D2" s="102" t="s">
+      <c r="D2" s="101" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="102" t="s">
+      <c r="E2" s="101" t="s">
         <v>107</v>
       </c>
       <c r="F2" s="40"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="87" t="s">
-        <v>226</v>
+      <c r="A3" s="86" t="s">
+        <v>212</v>
       </c>
       <c r="B3" s="40">
         <v>39</v>
@@ -6952,8 +6270,8 @@
       <c r="F3" s="40"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="87" t="s">
-        <v>227</v>
+      <c r="A4" s="86" t="s">
+        <v>213</v>
       </c>
       <c r="B4" s="40">
         <v>40</v>
@@ -6968,8 +6286,8 @@
       <c r="F4" s="40"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="87" t="s">
-        <v>228</v>
+      <c r="A5" s="86" t="s">
+        <v>214</v>
       </c>
       <c r="B5" s="40">
         <v>41</v>
@@ -6984,8 +6302,8 @@
       <c r="F5" s="40"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="87" t="s">
-        <v>229</v>
+      <c r="A6" s="86" t="s">
+        <v>215</v>
       </c>
       <c r="B6" s="40">
         <v>42</v>
@@ -7000,8 +6318,8 @@
       <c r="F6" s="40"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="87" t="s">
-        <v>254</v>
+      <c r="A7" s="86" t="s">
+        <v>240</v>
       </c>
       <c r="B7" s="40">
         <v>72</v>
@@ -7016,8 +6334,8 @@
       <c r="F7" s="40"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="87" t="s">
-        <v>255</v>
+      <c r="A8" s="86" t="s">
+        <v>241</v>
       </c>
       <c r="B8" s="40">
         <v>73</v>
@@ -7032,8 +6350,8 @@
       <c r="F8" s="40"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="87" t="s">
-        <v>256</v>
+      <c r="A9" s="86" t="s">
+        <v>242</v>
       </c>
       <c r="B9" s="40">
         <v>74</v>
@@ -7061,16 +6379,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView zoomScale="133" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="70" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="69" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" style="40" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" style="40" bestFit="1" customWidth="1"/>
@@ -7082,154 +6400,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="39" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="81" t="s">
-        <v>127</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="C1" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="D1" s="64" t="s">
-        <v>130</v>
-      </c>
-      <c r="E1" s="65" t="s">
-        <v>131</v>
-      </c>
-      <c r="F1" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="G1" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="H1" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="I1" s="39" t="s">
-        <v>135</v>
-      </c>
+      <c r="A1" s="80"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="63" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1" s="64"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:13" s="40" customFormat="1">
-      <c r="A2" s="70">
-        <v>43586</v>
-      </c>
-      <c r="B2" s="40">
-        <f>L2-C8</f>
-        <v>134</v>
+      <c r="A2" s="69"/>
+      <c r="C2" s="40" t="s">
+        <v>397</v>
       </c>
       <c r="D2" s="30">
+        <f>SUM(Main!P9:P15)</f>
         <v>13</v>
       </c>
-      <c r="E2" s="40">
-        <v>247</v>
-      </c>
-      <c r="F2" s="40">
-        <v>98</v>
-      </c>
-      <c r="G2" s="40">
-        <v>470</v>
-      </c>
       <c r="H2" s="30"/>
-      <c r="L2" s="40">
-        <v>313</v>
-      </c>
     </row>
     <row r="3" spans="1:13" s="40" customFormat="1">
-      <c r="A3" s="70">
-        <v>43619</v>
-      </c>
-      <c r="B3" s="40">
-        <f>$B$2+C3</f>
-        <v>245</v>
-      </c>
-      <c r="C3" s="40">
-        <v>111</v>
+      <c r="A3" s="69"/>
+      <c r="C3" s="40" t="s">
+        <v>398</v>
       </c>
       <c r="D3" s="31">
-        <f>29</f>
-        <v>29</v>
-      </c>
-      <c r="E3" s="40">
-        <f>650-247</f>
-        <v>403</v>
-      </c>
-      <c r="F3" s="40">
-        <f>310-98</f>
-        <v>212</v>
-      </c>
-      <c r="G3" s="40">
-        <f>1368-470</f>
-        <v>898</v>
+        <f>SUM(Main!J9:J15)</f>
+        <v>6</v>
       </c>
       <c r="H3" s="31"/>
       <c r="I3" s="5"/>
       <c r="J3" s="31"/>
-      <c r="K3" s="31" t="s">
-        <v>136</v>
-      </c>
+      <c r="K3" s="31"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
     <row r="4" spans="1:13" s="40" customFormat="1">
-      <c r="A4" s="70">
-        <v>43620</v>
-      </c>
-      <c r="B4" s="40">
-        <f>$B$2+C4</f>
-        <v>260</v>
-      </c>
-      <c r="C4" s="40">
-        <v>126</v>
-      </c>
-      <c r="D4" s="31">
-        <f>34</f>
-        <v>34</v>
-      </c>
-      <c r="E4" s="40">
-        <f>679-247</f>
-        <v>432</v>
-      </c>
-      <c r="F4" s="40">
-        <f>316-98</f>
-        <v>218</v>
-      </c>
-      <c r="G4" s="40">
-        <f>1440-470</f>
-        <v>970</v>
-      </c>
+      <c r="A4" s="69"/>
+      <c r="D4" s="31"/>
       <c r="H4" s="31"/>
       <c r="I4" s="5"/>
       <c r="J4" s="31"/>
-      <c r="K4" s="31" t="s">
-        <v>137</v>
-      </c>
+      <c r="K4" s="31"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
     <row r="5" spans="1:13" s="40" customFormat="1">
-      <c r="A5" s="70">
-        <v>43627</v>
-      </c>
-      <c r="B5" s="40">
-        <f t="shared" ref="B5:B8" si="0">$B$2+C5</f>
-        <v>272</v>
-      </c>
-      <c r="C5" s="40">
-        <v>138</v>
-      </c>
-      <c r="D5" s="30">
-        <v>38</v>
-      </c>
-      <c r="E5" s="40">
-        <v>454</v>
-      </c>
-      <c r="F5" s="40">
-        <v>228</v>
-      </c>
-      <c r="G5" s="40">
-        <v>1041</v>
-      </c>
+      <c r="A5" s="69"/>
+      <c r="D5" s="30"/>
       <c r="H5" s="30"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -7238,640 +6456,136 @@
       <c r="M5" s="5"/>
     </row>
     <row r="6" spans="1:13" s="40" customFormat="1">
-      <c r="A6" s="70">
-        <v>43628</v>
-      </c>
-      <c r="B6" s="40">
-        <f t="shared" si="0"/>
-        <v>296</v>
-      </c>
-      <c r="C6" s="40">
-        <v>162</v>
-      </c>
-      <c r="D6" s="40">
-        <f>COUNTA(Main!A2:A47)</f>
-        <v>4</v>
-      </c>
-      <c r="E6" s="40">
-        <f>SUM(Main!C2:C47)</f>
-        <v>14</v>
-      </c>
-      <c r="F6" s="40">
-        <f>SUM(Main!J2:J47)</f>
+      <c r="A6" s="69"/>
+      <c r="D6" s="40" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="40" customFormat="1">
+      <c r="A7" s="69"/>
+      <c r="C7" s="40" t="s">
+        <v>397</v>
+      </c>
+      <c r="D7" s="30">
         <v>1</v>
       </c>
-      <c r="G6" s="40">
-        <f>SUM(Main!P2:P47)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="40" customFormat="1">
-      <c r="A7" s="70">
-        <v>43634</v>
-      </c>
-      <c r="B7" s="40">
-        <f t="shared" si="0"/>
-        <v>307</v>
-      </c>
-      <c r="C7" s="52">
-        <v>173</v>
-      </c>
-      <c r="D7" s="40">
-        <f>COUNTA(Main!A3:A47)</f>
-        <v>3</v>
-      </c>
-      <c r="E7" s="40">
-        <v>477</v>
-      </c>
-      <c r="F7" s="40">
-        <v>241</v>
-      </c>
-      <c r="G7" s="40">
-        <v>1119.5</v>
-      </c>
-      <c r="H7" s="40" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="8" spans="1:13" s="40" customFormat="1">
-      <c r="A8" s="70">
-        <v>43643</v>
-      </c>
-      <c r="B8" s="40">
-        <f t="shared" si="0"/>
-        <v>313</v>
-      </c>
-      <c r="C8" s="40">
-        <v>179</v>
-      </c>
-      <c r="D8" s="40">
-        <f>COUNTA(Main!A2:A47)</f>
-        <v>4</v>
-      </c>
-      <c r="E8" s="40">
-        <v>480</v>
-      </c>
-      <c r="F8" s="40">
-        <f>SUM(Main!$J$2:J47)</f>
+      <c r="A8" s="69"/>
+      <c r="C8" s="40" t="s">
+        <v>398</v>
+      </c>
+      <c r="D8" s="31">
+        <v>0</v>
+      </c>
+      <c r="G8" s="61"/>
+    </row>
+    <row r="9" spans="1:13" s="40" customFormat="1">
+      <c r="A9" s="69"/>
+    </row>
+    <row r="10" spans="1:13" s="40" customFormat="1">
+      <c r="A10" s="69"/>
+    </row>
+    <row r="11" spans="1:13" s="40" customFormat="1">
+      <c r="A11" s="69"/>
+      <c r="D11" s="40" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="C12" s="40" t="s">
+        <v>397</v>
+      </c>
+      <c r="D12" s="30">
         <v>1</v>
       </c>
-      <c r="G8" s="62">
-        <f>SUM(Main!$P$2:P47)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="40" customFormat="1">
-      <c r="A9" s="70">
-        <v>43644</v>
-      </c>
-      <c r="B9" s="40">
-        <f>C9+$B$2</f>
-        <v>325</v>
-      </c>
-      <c r="C9" s="40">
-        <v>191</v>
-      </c>
-      <c r="D9" s="40">
-        <f>COUNTA(Main!$A$2:A47)</f>
-        <v>4</v>
-      </c>
-      <c r="E9" s="40">
-        <f>SUM(Main!$C$2:C47)</f>
-        <v>14</v>
-      </c>
-      <c r="F9" s="40">
-        <f>SUM(Main!$J$2:J47)</f>
+    </row>
+    <row r="13" spans="1:13" s="40" customFormat="1">
+      <c r="A13" s="69"/>
+      <c r="C13" s="40" t="s">
+        <v>398</v>
+      </c>
+      <c r="D13" s="31">
+        <f>SUM(Main!J19:J25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="40" customFormat="1">
+      <c r="A14" s="69"/>
+    </row>
+    <row r="15" spans="1:13" s="40" customFormat="1">
+      <c r="A15" s="69"/>
+    </row>
+    <row r="16" spans="1:13" s="40" customFormat="1">
+      <c r="A16" s="69"/>
+      <c r="D16" s="40" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="C17" s="40" t="s">
+        <v>397</v>
+      </c>
+      <c r="D17" s="30">
         <v>1</v>
       </c>
-      <c r="G9" s="40">
-        <f>SUM(Main!$P$2:P47)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="40" customFormat="1">
-      <c r="A10" s="70">
-        <v>43658</v>
-      </c>
-      <c r="B10" s="40">
-        <f>C10+$B$2</f>
-        <v>341</v>
-      </c>
-      <c r="C10" s="40">
-        <v>207</v>
-      </c>
-      <c r="D10" s="40">
-        <f>COUNTA(Main!$A$2:A47)</f>
-        <v>4</v>
-      </c>
-      <c r="E10" s="40">
-        <f>SUM(Main!$C$2:C47)</f>
-        <v>14</v>
-      </c>
-      <c r="F10" s="40">
-        <f>SUM(Main!$J$2:J47)</f>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="C18" s="40" t="s">
+        <v>398</v>
+      </c>
+      <c r="D18" s="31">
         <v>1</v>
       </c>
-      <c r="G10" s="40">
-        <f>SUM(Main!$P$2:P47)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" s="40" customFormat="1">
-      <c r="A11" s="70">
-        <v>43664</v>
-      </c>
-      <c r="B11" s="40">
-        <f>C11+$B$2</f>
-        <v>354</v>
-      </c>
-      <c r="C11" s="40">
-        <v>220</v>
-      </c>
-      <c r="D11" s="40">
-        <f>COUNTA(Main!$A$2:A47)</f>
-        <v>4</v>
-      </c>
-      <c r="E11" s="40">
-        <f>SUM(Main!$C$2:C47)</f>
-        <v>14</v>
-      </c>
-      <c r="F11" s="40">
-        <f>SUM(Main!$J$2:J47)</f>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="90"/>
+      <c r="C19" s="40"/>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="C20" s="40"/>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="C21" s="40"/>
+      <c r="D21" s="40" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="C22" s="40" t="s">
+        <v>405</v>
+      </c>
+      <c r="D22" s="40">
         <v>1</v>
       </c>
-      <c r="G11" s="40">
-        <f>SUM(Main!$P$2:P47)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="70">
-        <v>43669</v>
-      </c>
-      <c r="B12" s="40">
-        <v>372</v>
-      </c>
-      <c r="C12" s="40">
-        <v>251</v>
-      </c>
-      <c r="D12" s="40">
-        <v>60</v>
-      </c>
-      <c r="E12" s="40">
-        <v>564</v>
-      </c>
-      <c r="F12" s="40">
-        <v>296</v>
-      </c>
-      <c r="G12" s="40">
-        <v>1357.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="40" customFormat="1">
-      <c r="A13" s="70">
-        <v>43671</v>
-      </c>
-      <c r="B13" s="40">
-        <f>C13+117</f>
-        <v>395</v>
-      </c>
-      <c r="C13" s="40">
-        <v>278</v>
-      </c>
-      <c r="D13" s="40">
-        <f>COUNTA(Main!$A$2:A47)</f>
-        <v>4</v>
-      </c>
-      <c r="E13" s="40">
-        <f>SUM(Main!$C$2:C47)</f>
-        <v>14</v>
-      </c>
-      <c r="F13" s="40">
-        <f>SUM(Main!$J$2:J47)</f>
-        <v>1</v>
-      </c>
-      <c r="G13" s="40">
-        <f>SUM(Main!$P$2:P47)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="40" customFormat="1">
-      <c r="A14" s="70">
-        <v>43672</v>
-      </c>
-      <c r="B14" s="40">
-        <v>405</v>
-      </c>
-      <c r="C14" s="40">
-        <v>288</v>
-      </c>
-      <c r="D14" s="40">
-        <v>71</v>
-      </c>
-      <c r="E14" s="40">
-        <f>SUM(Main!$C$2:C47)</f>
-        <v>14</v>
-      </c>
-      <c r="F14" s="40">
-        <f>SUM(Main!$J$2:J47)</f>
-        <v>1</v>
-      </c>
-      <c r="G14" s="40">
-        <f>SUM(Main!$P$2:P47)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" s="40" customFormat="1">
-      <c r="A15" s="70">
-        <v>43679</v>
-      </c>
-      <c r="B15" s="40">
-        <f>C15+119</f>
-        <v>427</v>
-      </c>
-      <c r="C15" s="40">
-        <v>308</v>
-      </c>
-      <c r="D15" s="40">
-        <f>COUNTA(Main!$A$2:A47)</f>
-        <v>4</v>
-      </c>
-      <c r="E15" s="40">
-        <f>SUM(Main!$C$2:C47)</f>
-        <v>14</v>
-      </c>
-      <c r="F15" s="40">
-        <f>SUM(Main!$J$2:J47)</f>
-        <v>1</v>
-      </c>
-      <c r="G15" s="40">
-        <f>SUM(Main!$P$2:P47)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="40" customFormat="1">
-      <c r="A16" s="70">
-        <v>43683</v>
-      </c>
-      <c r="B16" s="40">
-        <f>C16+119</f>
-        <v>440</v>
-      </c>
-      <c r="C16" s="40">
-        <v>321</v>
-      </c>
-      <c r="D16" s="40">
-        <f>COUNTA(Main!$A$2:A47)</f>
-        <v>4</v>
-      </c>
-      <c r="E16" s="40">
-        <f>SUM(Main!$C$2:C47)</f>
-        <v>14</v>
-      </c>
-      <c r="F16" s="40">
-        <f>SUM(Main!$J$2:J47)</f>
-        <v>1</v>
-      </c>
-      <c r="G16" s="40">
-        <f>SUM(Main!$P$2:P47)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="70">
-        <v>43700</v>
-      </c>
-      <c r="B17" s="40">
-        <f>333+117</f>
-        <v>450</v>
-      </c>
-      <c r="C17" s="91">
-        <v>333</v>
-      </c>
-      <c r="D17" s="40">
-        <f>COUNTA(Main!$A$2:A47)</f>
-        <v>4</v>
-      </c>
-      <c r="E17" s="40">
-        <f>SUM(Main!$C$2:C47)</f>
-        <v>14</v>
-      </c>
-      <c r="F17" s="40">
-        <f>SUM(Main!$J$2:J47)</f>
-        <v>1</v>
-      </c>
-      <c r="G17" s="40">
-        <f>SUM(Main!$P$2:P47)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="70">
-        <v>43704</v>
-      </c>
-      <c r="B18" s="40">
-        <f>349+115</f>
-        <v>464</v>
-      </c>
-      <c r="C18" s="40">
-        <v>349</v>
-      </c>
-      <c r="D18" s="40">
-        <f>COUNTA(Main!$A$2:A47)</f>
-        <v>4</v>
-      </c>
-      <c r="E18" s="40">
-        <f>SUM(Main!$C$2:C47)</f>
-        <v>14</v>
-      </c>
-      <c r="F18" s="40">
-        <f>SUM(Main!$J$2:J47)</f>
-        <v>1</v>
-      </c>
-      <c r="G18" s="40">
-        <f>SUM(Main!$P$2:P47)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="70">
-        <v>43706</v>
-      </c>
-      <c r="B19" s="91">
-        <v>469</v>
-      </c>
-      <c r="C19" s="40">
-        <v>354</v>
-      </c>
-      <c r="D19" s="40">
-        <f>COUNTA(Main!$A$2:A47)</f>
-        <v>4</v>
-      </c>
-      <c r="E19" s="40">
-        <f>SUM(Main!$C$2:C47)</f>
-        <v>14</v>
-      </c>
-      <c r="F19" s="40">
-        <f>SUM(Main!$J$2:J47)</f>
-        <v>1</v>
-      </c>
-      <c r="G19" s="40">
-        <f>SUM(Main!$P$2:P47)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="70">
-        <v>43725</v>
-      </c>
-      <c r="B20" s="40">
-        <v>471</v>
-      </c>
-      <c r="C20" s="40">
-        <v>356</v>
-      </c>
-      <c r="D20" s="40">
-        <v>91</v>
-      </c>
-      <c r="E20" s="40">
-        <f>SUM(Main!$C$2:C47)</f>
-        <v>14</v>
-      </c>
-      <c r="F20" s="40">
-        <f>SUM(Main!$J$2:J47)</f>
-        <v>1</v>
-      </c>
-      <c r="G20" s="40">
-        <f>SUM(Main!$P$2:P47)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="70">
-        <v>43747</v>
-      </c>
-      <c r="B21" s="40">
-        <v>473</v>
-      </c>
-      <c r="C21" s="40">
-        <v>358</v>
-      </c>
-      <c r="D21" s="40">
-        <v>93</v>
-      </c>
-      <c r="E21" s="40">
-        <f>SUM(Main!$C$2:C47)</f>
-        <v>14</v>
-      </c>
-      <c r="F21" s="40">
-        <f>SUM(Main!$J$2:J47)</f>
-        <v>1</v>
-      </c>
-      <c r="G21" s="40">
-        <f>SUM(Main!$P$2:P47)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="70">
-        <v>43759</v>
-      </c>
-      <c r="B22" s="40">
-        <v>474</v>
-      </c>
-      <c r="C22" s="40">
-        <v>359</v>
-      </c>
-      <c r="D22" s="40">
-        <v>94</v>
-      </c>
-      <c r="E22" s="40">
-        <f>SUM(Main!$C$2:C47)</f>
-        <v>14</v>
-      </c>
-      <c r="F22" s="40">
-        <f>SUM(Main!$J$2:J47)</f>
-        <v>1</v>
-      </c>
-      <c r="G22" s="40">
-        <f>SUM(Main!$P$2:P47)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="70">
-        <v>43787</v>
-      </c>
-      <c r="B23" s="40">
-        <v>476</v>
-      </c>
-      <c r="C23" s="40">
-        <v>360</v>
-      </c>
-      <c r="D23" s="40">
-        <v>94</v>
-      </c>
-      <c r="E23" s="40">
-        <f>SUM(Main!$C$2:C47)</f>
-        <v>14</v>
-      </c>
-      <c r="F23" s="40">
-        <f>SUM(Main!$J$2:J47)</f>
-        <v>1</v>
-      </c>
-      <c r="G23" s="40">
-        <f>SUM(Main!$P$2:P47)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="70">
-        <v>43788</v>
-      </c>
-      <c r="B24" s="40">
-        <v>479</v>
-      </c>
-      <c r="C24" s="40">
-        <v>361</v>
-      </c>
-      <c r="D24" s="40">
-        <v>95</v>
-      </c>
-      <c r="E24" s="40">
-        <f>SUM(Main!$C$2:C47)</f>
-        <v>14</v>
-      </c>
-      <c r="F24" s="40">
-        <f>SUM(Main!$J$2:J47)</f>
-        <v>1</v>
-      </c>
-      <c r="G24" s="40">
-        <f>SUM(Main!$P$2:P47)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="70">
-        <v>43858</v>
-      </c>
-      <c r="B25" s="40">
-        <v>482</v>
-      </c>
-      <c r="C25" s="40">
-        <v>364</v>
-      </c>
-      <c r="D25" s="40">
-        <v>109</v>
-      </c>
-      <c r="E25" s="40">
-        <f>SUM(Main!$C$2:C47)</f>
-        <v>14</v>
-      </c>
-      <c r="F25" s="40">
-        <f>SUM(Main!$J$2:J47)</f>
-        <v>1</v>
-      </c>
-      <c r="G25" s="40">
-        <f>SUM(Main!$P$2:P47)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="70">
-        <v>43879</v>
-      </c>
-      <c r="B26" s="40">
-        <v>535</v>
-      </c>
-      <c r="C26" s="40">
-        <v>435</v>
-      </c>
-      <c r="D26" s="40">
-        <v>114</v>
-      </c>
-      <c r="E26" s="40">
-        <f>SUM(Main!$C$2:C47)</f>
-        <v>14</v>
-      </c>
-      <c r="F26" s="40">
-        <f>SUM(Main!$J$2:J47)</f>
-        <v>1</v>
-      </c>
-      <c r="G26" s="40">
-        <f>SUM(Main!$P$2:P47)</f>
-        <v>14</v>
-      </c>
-      <c r="H26" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="70">
-        <v>43886</v>
-      </c>
-      <c r="B27" s="40">
-        <f>C27+(549-481)</f>
-        <v>549</v>
-      </c>
-      <c r="C27" s="40">
-        <v>481</v>
-      </c>
-      <c r="D27" s="40">
-        <v>123</v>
-      </c>
-      <c r="E27" s="40">
-        <f>SUM(Main!$C$2:C47)</f>
-        <v>14</v>
-      </c>
-      <c r="F27" s="40">
-        <f>SUM(Main!$J$2:J47)</f>
-        <v>1</v>
-      </c>
-      <c r="G27" s="40">
-        <f>SUM(Main!$P$2:P47)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="70">
-        <v>43902</v>
-      </c>
-      <c r="B28" s="40">
-        <v>648</v>
-      </c>
-      <c r="C28" s="5">
-        <v>514</v>
-      </c>
-      <c r="D28" s="40">
-        <v>141</v>
-      </c>
-      <c r="E28" s="40">
-        <f>SUM(Main!$C$2:C47)</f>
-        <v>14</v>
-      </c>
-      <c r="F28" s="40">
-        <f>SUM(Main!$J$2:J47)</f>
-        <v>1</v>
-      </c>
-      <c r="G28" s="40">
-        <f>SUM(Main!$P$2:P47)</f>
-        <v>14</v>
-      </c>
-      <c r="H28" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="B29" s="40" t="s">
-        <v>141</v>
-      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="C23" s="40" t="s">
+        <v>398</v>
+      </c>
+      <c r="D23" s="31">
+        <f>SUM(Main!J29:J35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="C24" s="40"/>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="C25" s="40"/>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="C26" s="40"/>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="C27" s="40"/>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="C28" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="G6 G8" formulaRange="1"/>
-  </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -7888,142 +6602,142 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="G1" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="G2" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="G3" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="G4" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="H4" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="J4" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="B11" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="G11" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="B12" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="B13" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="B14" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="B15" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="B16" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="D18" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="E18" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="G18" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="D19" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="E19" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="G19" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="D20" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="E20" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="G20" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="2:7">
@@ -8038,12 +6752,12 @@
     </row>
     <row r="26" spans="2:7">
       <c r="B26" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="2:7">
@@ -8068,32 +6782,32 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="2:9">
       <c r="B35" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="2:9">
       <c r="B36" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37" spans="2:9">
       <c r="B37" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="2:9">
       <c r="B38" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="2:9">
@@ -8101,44 +6815,44 @@
         <v>123</v>
       </c>
       <c r="G39" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41" spans="2:9">
       <c r="B41" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="2:9">
       <c r="B42" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="G42" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="H42" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="I42" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
     </row>
     <row r="43" spans="2:9">
       <c r="B43" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
     <row r="44" spans="2:9">
       <c r="B44" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45" spans="2:9">
       <c r="B45" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="G45" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" spans="2:9">
@@ -8146,28 +6860,28 @@
         <v>119</v>
       </c>
       <c r="G46" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="47" spans="2:9">
       <c r="B47" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="G47" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="49" spans="2:7">
       <c r="B49" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="50" spans="2:7">
       <c r="B50" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="G50" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
     </row>
     <row r="51" spans="2:7">
@@ -8175,40 +6889,40 @@
         <v>120</v>
       </c>
       <c r="G51" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
     </row>
     <row r="52" spans="2:7">
       <c r="B52" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
     </row>
     <row r="53" spans="2:7">
       <c r="B53" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
     </row>
     <row r="54" spans="2:7">
       <c r="B54" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
     </row>
     <row r="56" spans="2:7">
       <c r="B56" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" s="71" customFormat="1">
-      <c r="B60" s="71" t="s">
-        <v>203</v>
-      </c>
-      <c r="D60" s="71" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" s="104" customFormat="1">
-      <c r="B62" s="104" t="s">
-        <v>205</v>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" s="70" customFormat="1">
+      <c r="B60" s="70" t="s">
+        <v>189</v>
+      </c>
+      <c r="D60" s="70" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" s="103" customFormat="1">
+      <c r="B62" s="103" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -8226,1524 +6940,1524 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29" style="87" customWidth="1"/>
+    <col min="1" max="1" width="29" style="86" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" style="40" customWidth="1"/>
     <col min="3" max="4" width="11.42578125" style="40"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="39" customFormat="1">
       <c r="A1" s="39" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D1" s="39" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="87" t="s">
-        <v>210</v>
+      <c r="A2" s="86" t="s">
+        <v>196</v>
       </c>
       <c r="B2" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="87" t="s">
-        <v>211</v>
+      <c r="A3" s="86" t="s">
+        <v>197</v>
       </c>
       <c r="B3" s="40">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="87" t="s">
-        <v>212</v>
+      <c r="A4" s="86" t="s">
+        <v>198</v>
       </c>
       <c r="B4" s="40">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="87" t="s">
-        <v>213</v>
+      <c r="A5" s="86" t="s">
+        <v>199</v>
       </c>
       <c r="B5" s="40">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="87" t="s">
-        <v>214</v>
+      <c r="A6" s="86" t="s">
+        <v>200</v>
       </c>
       <c r="B6" s="40">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="87" t="s">
-        <v>215</v>
+      <c r="A7" s="86" t="s">
+        <v>201</v>
       </c>
       <c r="B7" s="40">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="87" t="s">
-        <v>216</v>
+      <c r="A8" s="86" t="s">
+        <v>202</v>
       </c>
       <c r="B8" s="40">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="87" t="s">
-        <v>217</v>
+      <c r="A9" s="86" t="s">
+        <v>203</v>
       </c>
       <c r="B9" s="40">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="87" t="s">
-        <v>218</v>
+      <c r="A10" s="86" t="s">
+        <v>204</v>
       </c>
       <c r="C10" s="40">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="87" t="s">
-        <v>219</v>
+      <c r="A11" s="86" t="s">
+        <v>205</v>
       </c>
       <c r="D11" s="40">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="87" t="s">
-        <v>220</v>
+      <c r="A12" s="86" t="s">
+        <v>206</v>
       </c>
       <c r="C12" s="40">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="87" t="s">
-        <v>221</v>
+      <c r="A13" s="86" t="s">
+        <v>207</v>
       </c>
       <c r="D13" s="40">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="87" t="s">
-        <v>222</v>
+      <c r="A14" s="86" t="s">
+        <v>208</v>
       </c>
       <c r="B14" s="40">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="87" t="s">
-        <v>223</v>
+      <c r="A15" s="86" t="s">
+        <v>209</v>
       </c>
       <c r="B15" s="40">
         <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="87" t="s">
-        <v>224</v>
+      <c r="A16" s="86" t="s">
+        <v>210</v>
       </c>
       <c r="C16" s="40">
         <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="87" t="s">
-        <v>225</v>
+      <c r="A17" s="86" t="s">
+        <v>211</v>
       </c>
       <c r="D17" s="40">
         <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="87" t="s">
-        <v>226</v>
+      <c r="A18" s="86" t="s">
+        <v>212</v>
       </c>
       <c r="C18" s="40">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="87" t="s">
-        <v>227</v>
+      <c r="A19" s="86" t="s">
+        <v>213</v>
       </c>
       <c r="D19" s="40">
         <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="87" t="s">
-        <v>228</v>
+      <c r="A20" s="86" t="s">
+        <v>214</v>
       </c>
       <c r="C20" s="40">
         <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="87" t="s">
-        <v>229</v>
+      <c r="A21" s="86" t="s">
+        <v>215</v>
       </c>
       <c r="D21" s="40">
         <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="87" t="s">
-        <v>230</v>
+      <c r="A22" s="86" t="s">
+        <v>216</v>
       </c>
       <c r="C22" s="40">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="87" t="s">
-        <v>231</v>
+      <c r="A23" s="86" t="s">
+        <v>217</v>
       </c>
       <c r="D23" s="40">
         <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="87" t="s">
-        <v>232</v>
+      <c r="A24" s="86" t="s">
+        <v>218</v>
       </c>
       <c r="B24" s="40">
         <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="87" t="s">
-        <v>233</v>
+      <c r="A25" s="86" t="s">
+        <v>219</v>
       </c>
       <c r="C25" s="40">
         <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="87" t="s">
-        <v>234</v>
+      <c r="A26" s="86" t="s">
+        <v>220</v>
       </c>
       <c r="D26" s="40">
         <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="87" t="s">
-        <v>235</v>
+      <c r="A27" s="86" t="s">
+        <v>221</v>
       </c>
       <c r="C27" s="40">
         <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="87" t="s">
-        <v>236</v>
+      <c r="A28" s="86" t="s">
+        <v>222</v>
       </c>
       <c r="D28" s="40">
         <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="87" t="s">
-        <v>237</v>
+      <c r="A29" s="86" t="s">
+        <v>223</v>
       </c>
       <c r="C29" s="40">
         <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="87" t="s">
-        <v>238</v>
+      <c r="A30" s="86" t="s">
+        <v>224</v>
       </c>
       <c r="D30" s="40">
         <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="87" t="s">
-        <v>239</v>
+      <c r="A31" s="86" t="s">
+        <v>225</v>
       </c>
       <c r="C31" s="40">
         <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="87" t="s">
-        <v>240</v>
+      <c r="A32" s="86" t="s">
+        <v>226</v>
       </c>
       <c r="D32" s="40">
         <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="87" t="s">
-        <v>241</v>
+      <c r="A33" s="86" t="s">
+        <v>227</v>
       </c>
       <c r="C33" s="40">
         <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="87" t="s">
-        <v>242</v>
+      <c r="A34" s="86" t="s">
+        <v>228</v>
       </c>
       <c r="D34" s="40">
         <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="87" t="s">
-        <v>243</v>
+      <c r="A35" s="86" t="s">
+        <v>229</v>
       </c>
       <c r="C35" s="40">
         <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="87" t="s">
-        <v>244</v>
+      <c r="A36" s="86" t="s">
+        <v>230</v>
       </c>
       <c r="D36" s="40">
         <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="87" t="s">
-        <v>245</v>
+      <c r="A37" s="86" t="s">
+        <v>231</v>
       </c>
       <c r="C37" s="40">
         <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="87" t="s">
-        <v>246</v>
+      <c r="A38" s="86" t="s">
+        <v>232</v>
       </c>
       <c r="D38" s="40">
         <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="87" t="s">
-        <v>247</v>
+      <c r="A39" s="86" t="s">
+        <v>233</v>
       </c>
       <c r="C39" s="40">
         <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="87" t="s">
-        <v>248</v>
+      <c r="A40" s="86" t="s">
+        <v>234</v>
       </c>
       <c r="D40" s="40">
         <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="87" t="s">
-        <v>249</v>
+      <c r="A41" s="86" t="s">
+        <v>235</v>
       </c>
       <c r="C41" s="40">
         <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="87" t="s">
-        <v>250</v>
+      <c r="A42" s="86" t="s">
+        <v>236</v>
       </c>
       <c r="D42" s="40">
         <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="87" t="s">
-        <v>251</v>
+      <c r="A43" s="86" t="s">
+        <v>237</v>
       </c>
       <c r="C43" s="40">
         <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="87" t="s">
-        <v>252</v>
+      <c r="A44" s="86" t="s">
+        <v>238</v>
       </c>
       <c r="D44" s="40">
         <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="87" t="s">
-        <v>253</v>
+      <c r="A45" s="86" t="s">
+        <v>239</v>
       </c>
       <c r="B45" s="40">
         <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="87" t="s">
-        <v>254</v>
+      <c r="A46" s="86" t="s">
+        <v>240</v>
       </c>
       <c r="B46" s="40">
         <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="87" t="s">
-        <v>255</v>
+      <c r="A47" s="86" t="s">
+        <v>241</v>
       </c>
       <c r="B47" s="40">
         <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="87" t="s">
-        <v>256</v>
+      <c r="A48" s="86" t="s">
+        <v>242</v>
       </c>
       <c r="B48" s="40">
         <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="87" t="s">
-        <v>257</v>
+      <c r="A49" s="86" t="s">
+        <v>243</v>
       </c>
       <c r="C49" s="40">
         <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="87" t="s">
-        <v>258</v>
+      <c r="A50" s="86" t="s">
+        <v>244</v>
       </c>
       <c r="D50" s="40">
         <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="87" t="s">
-        <v>259</v>
+      <c r="A51" s="86" t="s">
+        <v>245</v>
       </c>
       <c r="C51" s="40">
         <v>81</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="87" t="s">
-        <v>260</v>
+      <c r="A52" s="86" t="s">
+        <v>246</v>
       </c>
       <c r="C52" s="40">
         <v>82</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="87" t="s">
-        <v>261</v>
+      <c r="A53" s="86" t="s">
+        <v>247</v>
       </c>
       <c r="C53" s="40">
         <v>83</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="87" t="s">
-        <v>262</v>
+      <c r="A54" s="86" t="s">
+        <v>248</v>
       </c>
       <c r="C54" s="40">
         <v>84</v>
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="87" t="s">
-        <v>263</v>
+      <c r="A55" s="86" t="s">
+        <v>249</v>
       </c>
       <c r="C55" s="40">
         <v>85</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="87" t="s">
-        <v>264</v>
+      <c r="A56" s="86" t="s">
+        <v>250</v>
       </c>
       <c r="C56" s="40">
         <v>86</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="87" t="s">
-        <v>265</v>
+      <c r="A57" s="86" t="s">
+        <v>251</v>
       </c>
       <c r="B57" s="40">
         <v>87</v>
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="87" t="s">
-        <v>266</v>
+      <c r="A58" s="86" t="s">
+        <v>252</v>
       </c>
       <c r="D58" s="40">
         <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="87" t="s">
-        <v>267</v>
+      <c r="A59" s="86" t="s">
+        <v>253</v>
       </c>
       <c r="D59" s="40">
         <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="87" t="s">
-        <v>268</v>
+      <c r="A60" s="86" t="s">
+        <v>254</v>
       </c>
       <c r="D60" s="40">
         <v>91</v>
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="87" t="s">
-        <v>269</v>
+      <c r="A61" s="86" t="s">
+        <v>255</v>
       </c>
       <c r="D61" s="40">
         <v>92</v>
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="87" t="s">
-        <v>270</v>
+      <c r="A62" s="86" t="s">
+        <v>256</v>
       </c>
       <c r="D62" s="40">
         <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="87" t="s">
-        <v>271</v>
+      <c r="A63" s="86" t="s">
+        <v>257</v>
       </c>
       <c r="D63" s="40">
         <v>94</v>
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="87" t="s">
-        <v>272</v>
+      <c r="A64" s="86" t="s">
+        <v>258</v>
       </c>
       <c r="C64" s="40">
         <v>96</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="87" t="s">
-        <v>273</v>
+      <c r="A65" s="86" t="s">
+        <v>259</v>
       </c>
       <c r="D65" s="40">
         <v>97</v>
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="87" t="s">
-        <v>274</v>
+      <c r="A66" s="86" t="s">
+        <v>260</v>
       </c>
       <c r="C66" s="40">
         <v>101</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="87" t="s">
-        <v>275</v>
+      <c r="A67" s="86" t="s">
+        <v>261</v>
       </c>
       <c r="D67" s="40">
         <v>102</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="87" t="s">
-        <v>276</v>
+      <c r="A68" s="86" t="s">
+        <v>262</v>
       </c>
       <c r="C68" s="40">
         <v>103</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="87" t="s">
-        <v>277</v>
+      <c r="A69" s="86" t="s">
+        <v>263</v>
       </c>
       <c r="D69" s="40">
         <v>104</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="87" t="s">
-        <v>278</v>
+      <c r="A70" s="86" t="s">
+        <v>264</v>
       </c>
       <c r="C70" s="40">
         <v>105</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="87" t="s">
-        <v>279</v>
+      <c r="A71" s="86" t="s">
+        <v>265</v>
       </c>
       <c r="D71" s="40">
         <v>106</v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="87" t="s">
-        <v>280</v>
+      <c r="A72" s="86" t="s">
+        <v>266</v>
       </c>
       <c r="C72" s="40">
         <v>107</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="87" t="s">
-        <v>281</v>
+      <c r="A73" s="86" t="s">
+        <v>267</v>
       </c>
       <c r="D73" s="40">
         <v>108</v>
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="87" t="s">
-        <v>282</v>
+      <c r="A74" s="86" t="s">
+        <v>268</v>
       </c>
       <c r="C74" s="40">
         <v>109</v>
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="87" t="s">
-        <v>283</v>
+      <c r="A75" s="86" t="s">
+        <v>269</v>
       </c>
       <c r="D75" s="40">
         <v>110</v>
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="87" t="s">
-        <v>284</v>
+      <c r="A76" s="86" t="s">
+        <v>270</v>
       </c>
       <c r="C76" s="40">
         <v>113</v>
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="87" t="s">
-        <v>285</v>
+      <c r="A77" s="86" t="s">
+        <v>271</v>
       </c>
       <c r="D77" s="40">
         <v>114</v>
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="87" t="s">
-        <v>286</v>
+      <c r="A78" s="86" t="s">
+        <v>272</v>
       </c>
       <c r="C78" s="40">
         <v>115</v>
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="87" t="s">
-        <v>287</v>
+      <c r="A79" s="86" t="s">
+        <v>273</v>
       </c>
       <c r="D79" s="40">
         <v>116</v>
       </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="87" t="s">
-        <v>288</v>
+      <c r="A80" s="86" t="s">
+        <v>274</v>
       </c>
       <c r="C80" s="40">
         <v>117</v>
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="87" t="s">
-        <v>289</v>
+      <c r="A81" s="86" t="s">
+        <v>275</v>
       </c>
       <c r="D81" s="40">
         <v>118</v>
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="87" t="s">
-        <v>290</v>
+      <c r="A82" s="86" t="s">
+        <v>276</v>
       </c>
       <c r="C82" s="40">
         <v>119</v>
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="87" t="s">
-        <v>291</v>
+      <c r="A83" s="86" t="s">
+        <v>277</v>
       </c>
       <c r="D83" s="40">
         <v>120</v>
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="87" t="s">
-        <v>292</v>
+      <c r="A84" s="86" t="s">
+        <v>278</v>
       </c>
       <c r="C84" s="40">
         <v>121</v>
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="87" t="s">
-        <v>293</v>
+      <c r="A85" s="86" t="s">
+        <v>279</v>
       </c>
       <c r="D85" s="40">
         <v>122</v>
       </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="87" t="s">
-        <v>294</v>
+      <c r="A86" s="86" t="s">
+        <v>280</v>
       </c>
       <c r="C86" s="40">
         <v>123</v>
       </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="87" t="s">
-        <v>295</v>
+      <c r="A87" s="86" t="s">
+        <v>281</v>
       </c>
       <c r="D87" s="40">
         <v>124</v>
       </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="87" t="s">
-        <v>296</v>
+      <c r="A88" s="86" t="s">
+        <v>282</v>
       </c>
       <c r="C88" s="40">
         <v>125</v>
       </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="87" t="s">
-        <v>297</v>
+      <c r="A89" s="86" t="s">
+        <v>283</v>
       </c>
       <c r="D89" s="40">
         <v>126</v>
       </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="87" t="s">
-        <v>298</v>
+      <c r="A90" s="86" t="s">
+        <v>284</v>
       </c>
       <c r="C90" s="40">
         <v>129</v>
       </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="87" t="s">
-        <v>299</v>
+      <c r="A91" s="86" t="s">
+        <v>285</v>
       </c>
       <c r="D91" s="40">
         <v>130</v>
       </c>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="87" t="s">
-        <v>300</v>
+      <c r="A92" s="86" t="s">
+        <v>286</v>
       </c>
       <c r="C92" s="40">
         <v>133</v>
       </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="87" t="s">
-        <v>301</v>
+      <c r="A93" s="86" t="s">
+        <v>287</v>
       </c>
       <c r="D93" s="40">
         <v>134</v>
       </c>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="87" t="s">
-        <v>302</v>
+      <c r="A94" s="86" t="s">
+        <v>288</v>
       </c>
       <c r="C94" s="40">
         <v>135</v>
       </c>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="87" t="s">
-        <v>303</v>
+      <c r="A95" s="86" t="s">
+        <v>289</v>
       </c>
       <c r="D95" s="40">
         <v>136</v>
       </c>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="87" t="s">
-        <v>304</v>
+      <c r="A96" s="86" t="s">
+        <v>290</v>
       </c>
       <c r="C96" s="40">
         <v>137</v>
       </c>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="87" t="s">
-        <v>305</v>
+      <c r="A97" s="86" t="s">
+        <v>291</v>
       </c>
       <c r="D97" s="40">
         <v>138</v>
       </c>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="87" t="s">
-        <v>306</v>
+      <c r="A98" s="86" t="s">
+        <v>292</v>
       </c>
       <c r="C98" s="40">
         <v>139</v>
       </c>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="87" t="s">
-        <v>307</v>
+      <c r="A99" s="86" t="s">
+        <v>293</v>
       </c>
       <c r="D99" s="40">
         <v>140</v>
       </c>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="87" t="s">
-        <v>308</v>
+      <c r="A100" s="86" t="s">
+        <v>294</v>
       </c>
       <c r="C100" s="40">
         <v>141</v>
       </c>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="87" t="s">
-        <v>309</v>
+      <c r="A101" s="86" t="s">
+        <v>295</v>
       </c>
       <c r="D101" s="40">
         <v>142</v>
       </c>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="87" t="s">
-        <v>310</v>
+      <c r="A102" s="86" t="s">
+        <v>296</v>
       </c>
       <c r="C102" s="40">
         <v>143</v>
       </c>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="87" t="s">
-        <v>311</v>
+      <c r="A103" s="86" t="s">
+        <v>297</v>
       </c>
       <c r="D103" s="40">
         <v>144</v>
       </c>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="87" t="s">
-        <v>312</v>
+      <c r="A104" s="86" t="s">
+        <v>298</v>
       </c>
       <c r="C104" s="40">
         <v>145</v>
       </c>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="87" t="s">
-        <v>313</v>
+      <c r="A105" s="86" t="s">
+        <v>299</v>
       </c>
       <c r="D105" s="40">
         <v>146</v>
       </c>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="87" t="s">
-        <v>314</v>
+      <c r="A106" s="86" t="s">
+        <v>300</v>
       </c>
       <c r="C106" s="40">
         <v>147</v>
       </c>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="87" t="s">
-        <v>315</v>
+      <c r="A107" s="86" t="s">
+        <v>301</v>
       </c>
       <c r="D107" s="40">
         <v>148</v>
       </c>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="87" t="s">
-        <v>316</v>
+      <c r="A108" s="86" t="s">
+        <v>302</v>
       </c>
       <c r="C108" s="40">
         <v>149</v>
       </c>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="87" t="s">
-        <v>317</v>
+      <c r="A109" s="86" t="s">
+        <v>303</v>
       </c>
       <c r="D109" s="40">
         <v>150</v>
       </c>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="87" t="s">
-        <v>318</v>
+      <c r="A110" s="86" t="s">
+        <v>304</v>
       </c>
       <c r="C110" s="40">
         <v>151</v>
       </c>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="87" t="s">
-        <v>319</v>
+      <c r="A111" s="86" t="s">
+        <v>305</v>
       </c>
       <c r="D111" s="40">
         <v>152</v>
       </c>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="87" t="s">
-        <v>320</v>
+      <c r="A112" s="86" t="s">
+        <v>306</v>
       </c>
       <c r="C112" s="40">
         <v>153</v>
       </c>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" s="87" t="s">
-        <v>321</v>
+      <c r="A113" s="86" t="s">
+        <v>307</v>
       </c>
       <c r="D113" s="40">
         <v>154</v>
       </c>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="87" t="s">
-        <v>322</v>
+      <c r="A114" s="86" t="s">
+        <v>308</v>
       </c>
       <c r="C114" s="40">
         <v>155</v>
       </c>
     </row>
     <row r="115" spans="1:4">
-      <c r="A115" s="87" t="s">
-        <v>323</v>
+      <c r="A115" s="86" t="s">
+        <v>309</v>
       </c>
       <c r="D115" s="40">
         <v>156</v>
       </c>
     </row>
     <row r="116" spans="1:4">
-      <c r="A116" s="87" t="s">
-        <v>324</v>
+      <c r="A116" s="86" t="s">
+        <v>310</v>
       </c>
       <c r="C116" s="40">
         <v>157</v>
       </c>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" s="87" t="s">
-        <v>325</v>
+      <c r="A117" s="86" t="s">
+        <v>311</v>
       </c>
       <c r="D117" s="40">
         <v>158</v>
       </c>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="87" t="s">
-        <v>326</v>
+      <c r="A118" s="86" t="s">
+        <v>312</v>
       </c>
       <c r="C118" s="40">
         <v>161</v>
       </c>
     </row>
     <row r="119" spans="1:4">
-      <c r="A119" s="87" t="s">
-        <v>327</v>
+      <c r="A119" s="86" t="s">
+        <v>313</v>
       </c>
       <c r="D119" s="40">
         <v>162</v>
       </c>
     </row>
     <row r="120" spans="1:4">
-      <c r="A120" s="87" t="s">
-        <v>328</v>
+      <c r="A120" s="86" t="s">
+        <v>314</v>
       </c>
       <c r="C120" s="40">
         <v>163</v>
       </c>
     </row>
     <row r="121" spans="1:4">
-      <c r="A121" s="87" t="s">
-        <v>329</v>
+      <c r="A121" s="86" t="s">
+        <v>315</v>
       </c>
       <c r="D121" s="40">
         <v>164</v>
       </c>
     </row>
     <row r="122" spans="1:4">
-      <c r="A122" s="87" t="s">
-        <v>330</v>
+      <c r="A122" s="86" t="s">
+        <v>316</v>
       </c>
       <c r="C122" s="40">
         <v>165</v>
       </c>
     </row>
     <row r="123" spans="1:4">
-      <c r="A123" s="87" t="s">
-        <v>331</v>
+      <c r="A123" s="86" t="s">
+        <v>317</v>
       </c>
       <c r="D123" s="40">
         <v>166</v>
       </c>
     </row>
     <row r="124" spans="1:4">
-      <c r="A124" s="87" t="s">
-        <v>332</v>
+      <c r="A124" s="86" t="s">
+        <v>318</v>
       </c>
       <c r="C124" s="40">
         <v>167</v>
       </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="87" t="s">
-        <v>333</v>
+      <c r="A125" s="86" t="s">
+        <v>319</v>
       </c>
       <c r="D125" s="40">
         <v>168</v>
       </c>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" s="87" t="s">
-        <v>334</v>
+      <c r="A126" s="86" t="s">
+        <v>320</v>
       </c>
       <c r="C126" s="40">
         <v>169</v>
       </c>
     </row>
     <row r="127" spans="1:4">
-      <c r="A127" s="87" t="s">
-        <v>335</v>
+      <c r="A127" s="86" t="s">
+        <v>321</v>
       </c>
       <c r="D127" s="40">
         <v>170</v>
       </c>
     </row>
     <row r="128" spans="1:4">
-      <c r="A128" s="87" t="s">
-        <v>336</v>
+      <c r="A128" s="86" t="s">
+        <v>322</v>
       </c>
       <c r="C128" s="40">
         <v>171</v>
       </c>
     </row>
     <row r="129" spans="1:4">
-      <c r="A129" s="87" t="s">
-        <v>337</v>
+      <c r="A129" s="86" t="s">
+        <v>323</v>
       </c>
       <c r="D129" s="40">
         <v>172</v>
       </c>
     </row>
     <row r="130" spans="1:4">
-      <c r="A130" s="87" t="s">
-        <v>338</v>
+      <c r="A130" s="86" t="s">
+        <v>324</v>
       </c>
       <c r="C130" s="40">
         <v>173</v>
       </c>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="87" t="s">
-        <v>339</v>
+      <c r="A131" s="86" t="s">
+        <v>325</v>
       </c>
       <c r="D131" s="40">
         <v>174</v>
       </c>
     </row>
     <row r="132" spans="1:4">
-      <c r="A132" s="87" t="s">
-        <v>340</v>
+      <c r="A132" s="86" t="s">
+        <v>326</v>
       </c>
       <c r="C132" s="40">
         <v>175</v>
       </c>
     </row>
     <row r="133" spans="1:4">
-      <c r="A133" s="87" t="s">
-        <v>341</v>
+      <c r="A133" s="86" t="s">
+        <v>327</v>
       </c>
       <c r="D133" s="40">
         <v>176</v>
       </c>
     </row>
     <row r="134" spans="1:4">
-      <c r="A134" s="87" t="s">
-        <v>342</v>
+      <c r="A134" s="86" t="s">
+        <v>328</v>
       </c>
       <c r="C134" s="40">
         <v>177</v>
       </c>
     </row>
     <row r="135" spans="1:4">
-      <c r="A135" s="87" t="s">
-        <v>343</v>
+      <c r="A135" s="86" t="s">
+        <v>329</v>
       </c>
       <c r="D135" s="40">
         <v>178</v>
       </c>
     </row>
     <row r="136" spans="1:4">
-      <c r="A136" s="87" t="s">
-        <v>344</v>
+      <c r="A136" s="86" t="s">
+        <v>330</v>
       </c>
       <c r="C136" s="40">
         <v>179</v>
       </c>
     </row>
     <row r="137" spans="1:4">
-      <c r="A137" s="87" t="s">
-        <v>345</v>
+      <c r="A137" s="86" t="s">
+        <v>331</v>
       </c>
       <c r="D137" s="40">
         <v>180</v>
       </c>
     </row>
     <row r="138" spans="1:4">
-      <c r="A138" s="87" t="s">
-        <v>346</v>
+      <c r="A138" s="86" t="s">
+        <v>332</v>
       </c>
       <c r="C138" s="40">
         <v>181</v>
       </c>
     </row>
     <row r="139" spans="1:4">
-      <c r="A139" s="87" t="s">
-        <v>347</v>
+      <c r="A139" s="86" t="s">
+        <v>333</v>
       </c>
       <c r="D139" s="40">
         <v>182</v>
       </c>
     </row>
     <row r="140" spans="1:4">
-      <c r="A140" s="87" t="s">
-        <v>348</v>
+      <c r="A140" s="86" t="s">
+        <v>334</v>
       </c>
       <c r="C140" s="40">
         <v>183</v>
       </c>
     </row>
     <row r="141" spans="1:4">
-      <c r="A141" s="87" t="s">
-        <v>349</v>
+      <c r="A141" s="86" t="s">
+        <v>335</v>
       </c>
       <c r="D141" s="40">
         <v>184</v>
       </c>
     </row>
     <row r="142" spans="1:4">
-      <c r="A142" s="87" t="s">
-        <v>350</v>
+      <c r="A142" s="86" t="s">
+        <v>336</v>
       </c>
       <c r="C142" s="40">
         <v>185</v>
       </c>
     </row>
     <row r="143" spans="1:4">
-      <c r="A143" s="87" t="s">
-        <v>351</v>
+      <c r="A143" s="86" t="s">
+        <v>337</v>
       </c>
       <c r="D143" s="40">
         <v>186</v>
       </c>
     </row>
     <row r="144" spans="1:4">
-      <c r="A144" s="87" t="s">
-        <v>352</v>
+      <c r="A144" s="86" t="s">
+        <v>338</v>
       </c>
       <c r="C144" s="40">
         <v>187</v>
       </c>
     </row>
     <row r="145" spans="1:4">
-      <c r="A145" s="87" t="s">
-        <v>353</v>
+      <c r="A145" s="86" t="s">
+        <v>339</v>
       </c>
       <c r="D145" s="40">
         <v>188</v>
       </c>
     </row>
     <row r="146" spans="1:4">
-      <c r="A146" s="87" t="s">
-        <v>354</v>
+      <c r="A146" s="86" t="s">
+        <v>340</v>
       </c>
       <c r="C146" s="40">
         <v>191</v>
       </c>
     </row>
     <row r="147" spans="1:4">
-      <c r="A147" s="87" t="s">
-        <v>355</v>
+      <c r="A147" s="86" t="s">
+        <v>341</v>
       </c>
       <c r="D147" s="40">
         <v>192</v>
       </c>
     </row>
     <row r="148" spans="1:4">
-      <c r="A148" s="87" t="s">
-        <v>356</v>
+      <c r="A148" s="86" t="s">
+        <v>342</v>
       </c>
       <c r="C148" s="40">
         <v>193</v>
       </c>
     </row>
     <row r="149" spans="1:4">
-      <c r="A149" s="87" t="s">
-        <v>357</v>
+      <c r="A149" s="86" t="s">
+        <v>343</v>
       </c>
       <c r="D149" s="40">
         <v>194</v>
       </c>
     </row>
     <row r="150" spans="1:4">
-      <c r="A150" s="87" t="s">
-        <v>358</v>
+      <c r="A150" s="86" t="s">
+        <v>344</v>
       </c>
       <c r="C150" s="40">
         <v>195</v>
       </c>
     </row>
     <row r="151" spans="1:4">
-      <c r="A151" s="87" t="s">
-        <v>359</v>
+      <c r="A151" s="86" t="s">
+        <v>345</v>
       </c>
       <c r="D151" s="40">
         <v>196</v>
       </c>
     </row>
     <row r="152" spans="1:4">
-      <c r="A152" s="87" t="s">
-        <v>360</v>
+      <c r="A152" s="86" t="s">
+        <v>346</v>
       </c>
       <c r="C152" s="40">
         <v>197</v>
       </c>
     </row>
     <row r="153" spans="1:4">
-      <c r="A153" s="87" t="s">
-        <v>361</v>
+      <c r="A153" s="86" t="s">
+        <v>347</v>
       </c>
       <c r="D153" s="40">
         <v>198</v>
       </c>
     </row>
     <row r="154" spans="1:4">
-      <c r="A154" s="87" t="s">
-        <v>362</v>
+      <c r="A154" s="86" t="s">
+        <v>348</v>
       </c>
       <c r="C154" s="40">
         <v>199</v>
       </c>
     </row>
     <row r="155" spans="1:4">
-      <c r="A155" s="87" t="s">
-        <v>363</v>
+      <c r="A155" s="86" t="s">
+        <v>349</v>
       </c>
       <c r="D155" s="40">
         <v>200</v>
       </c>
     </row>
     <row r="156" spans="1:4">
-      <c r="A156" s="87" t="s">
-        <v>364</v>
+      <c r="A156" s="86" t="s">
+        <v>350</v>
       </c>
       <c r="C156" s="40">
         <v>201</v>
       </c>
     </row>
     <row r="157" spans="1:4">
-      <c r="A157" s="87" t="s">
-        <v>365</v>
+      <c r="A157" s="86" t="s">
+        <v>351</v>
       </c>
       <c r="D157" s="40">
         <v>202</v>
       </c>
     </row>
     <row r="158" spans="1:4">
-      <c r="A158" s="87" t="s">
-        <v>366</v>
+      <c r="A158" s="86" t="s">
+        <v>352</v>
       </c>
       <c r="C158" s="40">
         <v>203</v>
       </c>
     </row>
     <row r="159" spans="1:4">
-      <c r="A159" s="87" t="s">
-        <v>367</v>
+      <c r="A159" s="86" t="s">
+        <v>353</v>
       </c>
       <c r="D159" s="40">
         <v>204</v>
       </c>
     </row>
     <row r="160" spans="1:4">
-      <c r="A160" s="87" t="s">
-        <v>368</v>
+      <c r="A160" s="86" t="s">
+        <v>354</v>
       </c>
       <c r="C160" s="40">
         <v>205</v>
       </c>
     </row>
     <row r="161" spans="1:4">
-      <c r="A161" s="87" t="s">
-        <v>369</v>
+      <c r="A161" s="86" t="s">
+        <v>355</v>
       </c>
       <c r="D161" s="40">
         <v>206</v>
       </c>
     </row>
     <row r="162" spans="1:4">
-      <c r="A162" s="87" t="s">
-        <v>370</v>
+      <c r="A162" s="86" t="s">
+        <v>356</v>
       </c>
       <c r="C162" s="40">
         <v>207</v>
       </c>
     </row>
     <row r="163" spans="1:4">
-      <c r="A163" s="87" t="s">
-        <v>371</v>
+      <c r="A163" s="86" t="s">
+        <v>357</v>
       </c>
       <c r="D163" s="40">
         <v>208</v>
       </c>
     </row>
     <row r="164" spans="1:4">
-      <c r="A164" s="87" t="s">
-        <v>218</v>
+      <c r="A164" s="86" t="s">
+        <v>204</v>
       </c>
       <c r="C164" s="40">
         <v>24</v>
       </c>
     </row>
     <row r="165" spans="1:4">
-      <c r="A165" s="87" t="s">
-        <v>219</v>
+      <c r="A165" s="86" t="s">
+        <v>205</v>
       </c>
       <c r="D165" s="40">
         <v>31</v>
       </c>
     </row>
     <row r="166" spans="1:4">
-      <c r="A166" s="87" t="s">
-        <v>222</v>
+      <c r="A166" s="86" t="s">
+        <v>208</v>
       </c>
       <c r="B166" s="40">
         <v>35</v>
       </c>
     </row>
     <row r="167" spans="1:4">
-      <c r="A167" s="87" t="s">
-        <v>223</v>
+      <c r="A167" s="86" t="s">
+        <v>209</v>
       </c>
       <c r="B167" s="40">
         <v>36</v>
       </c>
     </row>
     <row r="168" spans="1:4">
-      <c r="A168" s="87" t="s">
-        <v>224</v>
+      <c r="A168" s="86" t="s">
+        <v>210</v>
       </c>
       <c r="C168" s="40">
         <v>37</v>
       </c>
     </row>
     <row r="169" spans="1:4">
-      <c r="A169" s="87" t="s">
-        <v>225</v>
+      <c r="A169" s="86" t="s">
+        <v>211</v>
       </c>
       <c r="D169" s="40">
         <v>38</v>
       </c>
     </row>
     <row r="170" spans="1:4">
-      <c r="A170" s="87" t="s">
-        <v>226</v>
+      <c r="A170" s="86" t="s">
+        <v>212</v>
       </c>
       <c r="C170" s="40">
         <v>39</v>
       </c>
     </row>
     <row r="171" spans="1:4">
-      <c r="A171" s="87" t="s">
-        <v>227</v>
+      <c r="A171" s="86" t="s">
+        <v>213</v>
       </c>
       <c r="D171" s="40">
         <v>40</v>
       </c>
     </row>
     <row r="172" spans="1:4">
-      <c r="A172" s="87" t="s">
-        <v>230</v>
+      <c r="A172" s="86" t="s">
+        <v>216</v>
       </c>
       <c r="C172" s="40">
         <v>43</v>
       </c>
     </row>
     <row r="173" spans="1:4">
-      <c r="A173" s="87" t="s">
-        <v>231</v>
+      <c r="A173" s="86" t="s">
+        <v>217</v>
       </c>
       <c r="D173" s="40">
         <v>44</v>
       </c>
     </row>
     <row r="174" spans="1:4">
-      <c r="A174" s="87" t="s">
-        <v>241</v>
+      <c r="A174" s="86" t="s">
+        <v>227</v>
       </c>
       <c r="C174" s="40">
         <v>56</v>
       </c>
     </row>
     <row r="175" spans="1:4">
-      <c r="A175" s="87" t="s">
-        <v>242</v>
+      <c r="A175" s="86" t="s">
+        <v>228</v>
       </c>
       <c r="D175" s="40">
         <v>57</v>
       </c>
     </row>
     <row r="176" spans="1:4">
-      <c r="A176" s="87" t="s">
-        <v>243</v>
+      <c r="A176" s="86" t="s">
+        <v>229</v>
       </c>
       <c r="C176" s="40">
         <v>58</v>
       </c>
     </row>
     <row r="177" spans="1:4">
-      <c r="A177" s="87" t="s">
-        <v>244</v>
+      <c r="A177" s="86" t="s">
+        <v>230</v>
       </c>
       <c r="D177" s="40">
         <v>59</v>
       </c>
     </row>
     <row r="178" spans="1:4">
-      <c r="A178" s="87" t="s">
-        <v>245</v>
+      <c r="A178" s="86" t="s">
+        <v>231</v>
       </c>
       <c r="C178" s="40">
         <v>60</v>
       </c>
     </row>
     <row r="179" spans="1:4">
-      <c r="A179" s="87" t="s">
-        <v>246</v>
+      <c r="A179" s="86" t="s">
+        <v>232</v>
       </c>
       <c r="D179" s="40">
         <v>61</v>
       </c>
     </row>
     <row r="180" spans="1:4">
-      <c r="A180" s="87" t="s">
-        <v>247</v>
+      <c r="A180" s="86" t="s">
+        <v>233</v>
       </c>
       <c r="C180" s="40">
         <v>62</v>
       </c>
     </row>
     <row r="181" spans="1:4">
-      <c r="A181" s="87" t="s">
-        <v>248</v>
+      <c r="A181" s="86" t="s">
+        <v>234</v>
       </c>
       <c r="D181" s="40">
         <v>63</v>
       </c>
     </row>
     <row r="182" spans="1:4">
-      <c r="A182" s="87" t="s">
-        <v>254</v>
+      <c r="A182" s="86" t="s">
+        <v>240</v>
       </c>
       <c r="B182" s="40">
         <v>72</v>
       </c>
     </row>
     <row r="183" spans="1:4">
-      <c r="A183" s="87" t="s">
-        <v>255</v>
+      <c r="A183" s="86" t="s">
+        <v>241</v>
       </c>
       <c r="B183" s="40">
         <v>73</v>
       </c>
     </row>
     <row r="184" spans="1:4">
-      <c r="A184" s="87" t="s">
-        <v>256</v>
+      <c r="A184" s="86" t="s">
+        <v>242</v>
       </c>
       <c r="B184" s="40">
         <v>74</v>
       </c>
     </row>
     <row r="185" spans="1:4">
-      <c r="A185" s="87" t="s">
-        <v>265</v>
+      <c r="A185" s="86" t="s">
+        <v>251</v>
       </c>
       <c r="B185" s="40">
         <v>87</v>
       </c>
     </row>
     <row r="186" spans="1:4">
-      <c r="A186" s="87" t="s">
-        <v>272</v>
+      <c r="A186" s="86" t="s">
+        <v>258</v>
       </c>
       <c r="C186" s="40">
         <v>96</v>
       </c>
     </row>
     <row r="187" spans="1:4">
-      <c r="A187" s="87" t="s">
-        <v>273</v>
+      <c r="A187" s="86" t="s">
+        <v>259</v>
       </c>
       <c r="D187" s="40">
         <v>97</v>
       </c>
     </row>
     <row r="188" spans="1:4">
-      <c r="A188" s="87" t="s">
-        <v>372</v>
+      <c r="A188" s="86" t="s">
+        <v>358</v>
       </c>
       <c r="D188" s="40">
         <v>76</v>
       </c>
     </row>
     <row r="189" spans="1:4">
-      <c r="A189" s="87" t="s">
-        <v>258</v>
+      <c r="A189" s="86" t="s">
+        <v>244</v>
       </c>
       <c r="C189" s="40">
         <v>77</v>
@@ -9772,15 +8486,15 @@
   <sheetData>
     <row r="1" spans="1:2" s="45" customFormat="1">
       <c r="A1" s="43" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="B2" s="46">
         <v>0</v>
@@ -9788,7 +8502,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="B3" s="46">
         <v>1</v>
@@ -9796,7 +8510,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="B4" s="46">
         <v>2</v>
@@ -9804,7 +8518,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="B5" s="46">
         <v>3</v>
@@ -9812,7 +8526,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="B6" s="46">
         <v>4</v>
@@ -9820,7 +8534,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="B7" s="46">
         <v>5</v>
@@ -9828,7 +8542,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="B8" s="46">
         <v>12</v>
@@ -9836,7 +8550,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="B9" s="46">
         <v>16</v>
@@ -9844,7 +8558,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="B10" s="46">
         <v>24</v>
@@ -9852,7 +8566,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="B11" s="46">
         <v>31</v>
@@ -9860,7 +8574,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="B12" s="46">
         <v>32</v>
@@ -9868,7 +8582,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="B13" s="46">
         <v>33</v>
@@ -9876,7 +8590,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="B14" s="46">
         <v>35</v>
@@ -9884,7 +8598,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="B15" s="46">
         <v>36</v>
@@ -9892,7 +8606,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="B16" s="46">
         <v>37</v>
@@ -9900,7 +8614,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="B17" s="46">
         <v>38</v>
@@ -9908,7 +8622,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="B18" s="46">
         <v>39</v>
@@ -9916,7 +8630,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="B19" s="46">
         <v>40</v>
@@ -9924,7 +8638,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="B20" s="46">
         <v>41</v>
@@ -9932,7 +8646,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="B21" s="46">
         <v>42</v>
@@ -9940,7 +8654,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="B22" s="46">
         <v>43</v>
@@ -9948,7 +8662,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="B23" s="46">
         <v>44</v>
@@ -9956,7 +8670,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="B24" s="46">
         <v>47</v>
@@ -9964,7 +8678,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="B25" s="46">
         <v>48</v>
@@ -9972,7 +8686,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="B26" s="46">
         <v>49</v>
@@ -9980,7 +8694,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="B27" s="46">
         <v>50</v>
@@ -9988,7 +8702,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="B28" s="46">
         <v>51</v>
@@ -9996,7 +8710,7 @@
     </row>
     <row r="29" spans="1:2" s="41" customFormat="1">
       <c r="A29" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="B29" s="46">
         <v>52</v>
@@ -10004,7 +8718,7 @@
     </row>
     <row r="30" spans="1:2" s="41" customFormat="1">
       <c r="A30" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="B30" s="46">
         <v>53</v>
@@ -10012,7 +8726,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="B31" s="46">
         <v>54</v>
@@ -10020,7 +8734,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="B32" s="46">
         <v>55</v>
@@ -10028,7 +8742,7 @@
     </row>
     <row r="33" spans="1:2" s="41" customFormat="1">
       <c r="A33" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="B33" s="46">
         <v>56</v>
@@ -10036,7 +8750,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="B34" s="46">
         <v>57</v>
@@ -10044,7 +8758,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="B35" s="46">
         <v>58</v>
@@ -10052,7 +8766,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="B36" s="46">
         <v>59</v>
@@ -10060,7 +8774,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="B37" s="46">
         <v>60</v>
@@ -10068,7 +8782,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="B38" s="46">
         <v>61</v>
@@ -10076,7 +8790,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="B39" s="46">
         <v>62</v>
@@ -10084,7 +8798,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="B40" s="46">
         <v>63</v>
@@ -10092,7 +8806,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="B41" s="46">
         <v>64</v>
@@ -10100,7 +8814,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="B42" s="46">
         <v>65</v>
@@ -10108,7 +8822,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="B43" s="46">
         <v>66</v>
@@ -10116,7 +8830,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="B44" s="46">
         <v>67</v>
@@ -10124,7 +8838,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="B45" s="46">
         <v>70</v>
@@ -10132,7 +8846,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="B46" s="46">
         <v>72</v>
@@ -10140,7 +8854,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="B47" s="46">
         <v>73</v>
@@ -10148,7 +8862,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="B48" s="46">
         <v>74</v>
@@ -10156,7 +8870,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B49" s="46">
         <v>76</v>
@@ -10164,7 +8878,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B50" s="46">
         <v>77</v>
@@ -10172,7 +8886,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="B51" s="46">
         <v>81</v>
@@ -10180,7 +8894,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="B52" s="46">
         <v>82</v>
@@ -10188,7 +8902,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="B53" s="46">
         <v>83</v>
@@ -10196,7 +8910,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="B54" s="46">
         <v>84</v>
@@ -10204,7 +8918,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="B55" s="46">
         <v>85</v>
@@ -10212,7 +8926,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="B56" s="46">
         <v>86</v>
@@ -10220,7 +8934,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="B57" s="46">
         <v>87</v>
@@ -10228,7 +8942,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="B58" s="46">
         <v>89</v>
@@ -10236,7 +8950,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="B59" s="46">
         <v>90</v>
@@ -10244,7 +8958,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="B60" s="46">
         <v>91</v>
@@ -10252,7 +8966,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="B61" s="46">
         <v>92</v>
@@ -10260,7 +8974,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="B62" s="46">
         <v>93</v>
@@ -10268,7 +8982,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="B63" s="46">
         <v>94</v>
@@ -10276,7 +8990,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="B64" s="46">
         <v>96</v>
@@ -10284,7 +8998,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="B65" s="46">
         <v>97</v>
@@ -10292,7 +9006,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="B66" s="46">
         <v>101</v>
@@ -10300,7 +9014,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="B67" s="46">
         <v>102</v>
@@ -10308,7 +9022,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="B68" s="46">
         <v>103</v>
@@ -10316,7 +9030,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="B69" s="46">
         <v>104</v>
@@ -10324,7 +9038,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="B70" s="46">
         <v>105</v>
@@ -10332,7 +9046,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="B71" s="46">
         <v>106</v>
@@ -10340,7 +9054,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="B72" s="46">
         <v>107</v>
@@ -10348,7 +9062,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="B73" s="46">
         <v>108</v>
@@ -10356,7 +9070,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="B74" s="46">
         <v>109</v>
@@ -10364,7 +9078,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B75" s="46">
         <v>110</v>
@@ -10372,7 +9086,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="B76" s="46">
         <v>113</v>
@@ -10380,7 +9094,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="B77" s="46">
         <v>114</v>
@@ -10388,7 +9102,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="B78" s="46">
         <v>115</v>
@@ -10396,7 +9110,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="B79" s="46">
         <v>116</v>
@@ -10404,7 +9118,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="B80" s="46">
         <v>117</v>
@@ -10412,7 +9126,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="B81" s="46">
         <v>118</v>
@@ -10420,7 +9134,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="B82" s="46">
         <v>119</v>
@@ -10428,7 +9142,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="B83" s="46">
         <v>120</v>
@@ -10436,7 +9150,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="B84" s="46">
         <v>121</v>
@@ -10444,7 +9158,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="B85" s="46">
         <v>122</v>
@@ -10452,7 +9166,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="B86" s="46">
         <v>123</v>
@@ -10460,7 +9174,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="B87" s="46">
         <v>124</v>
@@ -10468,7 +9182,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="B88" s="46">
         <v>125</v>
@@ -10476,7 +9190,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="B89" s="46">
         <v>126</v>
@@ -10484,7 +9198,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="B90" s="46">
         <v>129</v>
@@ -10492,7 +9206,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="B91" s="46">
         <v>130</v>
@@ -10500,7 +9214,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="B92" s="46">
         <v>133</v>
@@ -10508,7 +9222,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="B93" s="46">
         <v>134</v>
@@ -10516,7 +9230,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="B94" s="46">
         <v>135</v>
@@ -10524,7 +9238,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="B95" s="46">
         <v>136</v>
@@ -10532,7 +9246,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="B96" s="46">
         <v>137</v>
@@ -10540,7 +9254,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="B97" s="46">
         <v>138</v>
@@ -10548,7 +9262,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="B98" s="46">
         <v>139</v>
@@ -10556,7 +9270,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="B99" s="46">
         <v>140</v>
@@ -10564,7 +9278,7 @@
     </row>
     <row r="100" spans="1:2" s="47" customFormat="1">
       <c r="A100" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="B100" s="46">
         <v>141</v>
@@ -10572,7 +9286,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="B101" s="46">
         <v>142</v>
@@ -10580,7 +9294,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="B102" s="46">
         <v>143</v>
@@ -10588,7 +9302,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="B103" s="46">
         <v>144</v>
@@ -10596,7 +9310,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="B104" s="46">
         <v>145</v>
@@ -10604,7 +9318,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="B105" s="46">
         <v>146</v>
@@ -10612,7 +9326,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="B106" s="46">
         <v>147</v>
@@ -10620,7 +9334,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="B107" s="46">
         <v>148</v>
@@ -10628,7 +9342,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="B108" s="46">
         <v>149</v>
@@ -10636,7 +9350,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="B109" s="46">
         <v>150</v>
@@ -10644,7 +9358,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="B110" s="46">
         <v>151</v>
@@ -10652,7 +9366,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="B111" s="46">
         <v>152</v>
@@ -10660,7 +9374,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="B112" s="46">
         <v>153</v>
@@ -10668,7 +9382,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="B113" s="46">
         <v>154</v>
@@ -10676,7 +9390,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="B114" s="46">
         <v>155</v>
@@ -10684,7 +9398,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="B115" s="46">
         <v>156</v>
@@ -10692,7 +9406,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="B116" s="46">
         <v>157</v>
@@ -10700,7 +9414,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="B117" s="46">
         <v>158</v>
@@ -10708,7 +9422,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="B118" s="46">
         <v>161</v>
@@ -10716,7 +9430,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="B119" s="46">
         <v>162</v>
@@ -10724,7 +9438,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="B120" s="46">
         <v>163</v>
@@ -10732,7 +9446,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="B121" s="46">
         <v>164</v>
@@ -10740,7 +9454,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="B122" s="46">
         <v>165</v>
@@ -10748,7 +9462,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="B123" s="46">
         <v>166</v>
@@ -10756,7 +9470,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="B124" s="46">
         <v>167</v>
@@ -10764,7 +9478,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="B125" s="46">
         <v>168</v>
@@ -10772,7 +9486,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="B126" s="46">
         <v>169</v>
@@ -10780,7 +9494,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="B127" s="46">
         <v>170</v>
@@ -10788,7 +9502,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="B128" s="46">
         <v>171</v>
@@ -10796,7 +9510,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="B129" s="46">
         <v>172</v>
@@ -10804,7 +9518,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="B130" s="46">
         <v>173</v>
@@ -10812,7 +9526,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="B131" s="46">
         <v>174</v>
@@ -10820,7 +9534,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="B132" s="46">
         <v>175</v>
@@ -10828,7 +9542,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="B133" s="46">
         <v>176</v>
@@ -10836,7 +9550,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B134" s="46">
         <v>177</v>
@@ -10844,7 +9558,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="B135" s="46">
         <v>178</v>
@@ -10852,7 +9566,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="B136" s="46">
         <v>179</v>
@@ -10860,7 +9574,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="B137" s="40">
         <v>180</v>
@@ -10868,7 +9582,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="B138" s="40">
         <v>181</v>
@@ -10876,7 +9590,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="B139" s="40">
         <v>182</v>
@@ -10884,7 +9598,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="B140" s="40">
         <v>183</v>
@@ -10892,7 +9606,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="B141" s="40">
         <v>184</v>
@@ -10900,7 +9614,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="B142" s="40">
         <v>185</v>
@@ -10908,7 +9622,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="B143" s="40">
         <v>186</v>
@@ -10916,7 +9630,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="B144" s="40">
         <v>187</v>
@@ -10924,7 +9638,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="B145" s="40">
         <v>188</v>
@@ -10932,7 +9646,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="B146" s="40">
         <v>191</v>
@@ -10940,7 +9654,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="B147" s="40">
         <v>192</v>
@@ -10948,7 +9662,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="B148" s="40">
         <v>193</v>
@@ -10956,7 +9670,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="B149" s="40">
         <v>194</v>
@@ -10964,7 +9678,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="B150" s="40">
         <v>195</v>
@@ -10972,7 +9686,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="B151" s="40">
         <v>196</v>
@@ -10980,7 +9694,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="B152" s="40">
         <v>197</v>
@@ -10988,7 +9702,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="B153" s="40">
         <v>198</v>
@@ -10996,7 +9710,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="B154" s="40">
         <v>199</v>
@@ -11004,7 +9718,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="B155" s="40">
         <v>200</v>
@@ -11012,7 +9726,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="B156" s="40">
         <v>201</v>
@@ -11020,7 +9734,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="B157" s="40">
         <v>202</v>
@@ -11028,7 +9742,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="B158" s="40">
         <v>203</v>
@@ -11036,7 +9750,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="B159" s="40">
         <v>204</v>
@@ -11044,7 +9758,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="B160" s="40">
         <v>205</v>
@@ -11052,7 +9766,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="B161" s="40">
         <v>206</v>
@@ -11060,7 +9774,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="B162" s="40">
         <v>207</v>
@@ -11068,7 +9782,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="B163" s="40">
         <v>208</v>
@@ -11097,16 +9811,16 @@
   <sheetData>
     <row r="1" spans="1:3" s="45" customFormat="1">
       <c r="A1" s="43" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="C1" s="39"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="B2" s="46">
         <v>24</v>
@@ -11115,7 +9829,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="B3" s="46">
         <v>31</v>
@@ -11124,7 +9838,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="B4" s="46">
         <v>35</v>
@@ -11133,7 +9847,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="B5" s="46">
         <v>36</v>
@@ -11142,7 +9856,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="B6" s="46">
         <v>37</v>
@@ -11151,7 +9865,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="B7" s="46">
         <v>38</v>
@@ -11160,7 +9874,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="B8" s="46">
         <v>39</v>
@@ -11169,7 +9883,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="B9" s="46">
         <v>40</v>
@@ -11178,7 +9892,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="B10" s="46">
         <v>43</v>
@@ -11187,7 +9901,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="B11" s="46">
         <v>44</v>
@@ -11196,7 +9910,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="B12" s="46">
         <v>56</v>
@@ -11205,7 +9919,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="B13" s="46">
         <v>57</v>
@@ -11214,7 +9928,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="B14" s="46">
         <v>58</v>
@@ -11223,7 +9937,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="B15" s="46">
         <v>59</v>
@@ -11232,7 +9946,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="B16" s="46">
         <v>60</v>
@@ -11241,7 +9955,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="B17" s="46">
         <v>61</v>
@@ -11250,7 +9964,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="B18" s="46">
         <v>62</v>
@@ -11259,7 +9973,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="B19" s="46">
         <v>63</v>
@@ -11268,7 +9982,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="B20" s="46">
         <v>72</v>
@@ -11277,7 +9991,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="B21" s="46">
         <v>73</v>
@@ -11286,7 +10000,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="B22" s="46">
         <v>74</v>
@@ -11294,7 +10008,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="B23" s="46">
         <v>87</v>
@@ -11302,7 +10016,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="B24" s="46">
         <v>96</v>
@@ -11310,7 +10024,7 @@
     </row>
     <row r="25" spans="1:3" s="41" customFormat="1">
       <c r="A25" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="B25" s="46">
         <v>97</v>
@@ -11319,7 +10033,7 @@
     </row>
     <row r="26" spans="1:3" s="41" customFormat="1">
       <c r="A26" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="B26" s="46">
         <v>76</v>
@@ -11328,7 +10042,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B27" s="46">
         <v>77</v>
@@ -11385,31 +10099,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1">
-      <c r="D1" s="76"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-      <c r="Q1" s="114"/>
-      <c r="R1" s="114"/>
-      <c r="S1" s="114"/>
-      <c r="T1" s="114"/>
-      <c r="U1" s="114"/>
-      <c r="V1" s="114"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
+      <c r="Q1" s="113"/>
+      <c r="R1" s="113"/>
+      <c r="S1" s="113"/>
+      <c r="T1" s="113"/>
+      <c r="U1" s="113"/>
+      <c r="V1" s="113"/>
     </row>
     <row r="2" spans="1:23" ht="96" customHeight="1">
       <c r="A2" s="43"/>
       <c r="B2" s="44"/>
       <c r="C2" s="39"/>
-      <c r="D2" s="76" t="s">
+      <c r="D2" s="75" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="26" t="s">
@@ -11472,7 +10186,7 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="B3" s="46">
         <v>32</v>
@@ -11497,7 +10211,7 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="B4" s="46">
         <v>33</v>
@@ -11522,7 +10236,7 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="B5" s="46">
         <v>48</v>
@@ -11546,7 +10260,7 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="B6" s="46">
         <v>49</v>
@@ -11570,7 +10284,7 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="B7" s="46">
         <v>117</v>
@@ -11594,7 +10308,7 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="B8" s="46">
         <v>118</v>
@@ -11618,7 +10332,7 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="B9" s="46">
         <v>123</v>
@@ -11644,7 +10358,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="B10" s="46">
         <v>124</v>
@@ -11670,7 +10384,7 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="B11" s="46">
         <v>133</v>
@@ -11695,7 +10409,7 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="B12" s="46">
         <v>134</v>
@@ -11720,7 +10434,7 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="B13" s="46">
         <v>155</v>
@@ -11742,7 +10456,7 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="B14" s="46">
         <v>156</v>
@@ -11764,7 +10478,7 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="B15" s="46">
         <v>171</v>
@@ -11793,7 +10507,7 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="B16" s="46">
         <v>172</v>
@@ -11822,7 +10536,7 @@
     </row>
     <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="B17" s="40">
         <v>181</v>
@@ -11847,7 +10561,7 @@
     </row>
     <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="B18" s="40">
         <v>182</v>
@@ -11872,7 +10586,7 @@
     </row>
     <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="B19" s="40">
         <v>185</v>
@@ -11894,7 +10608,7 @@
     </row>
     <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="B20" s="40">
         <v>186</v>
@@ -11914,7 +10628,7 @@
     </row>
     <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="B21" s="40">
         <v>201</v>
@@ -11934,7 +10648,7 @@
     </row>
     <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="B22" s="40">
         <v>202</v>
@@ -11954,7 +10668,7 @@
     </row>
     <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="B23" s="40">
         <v>203</v>
@@ -11968,7 +10682,7 @@
     </row>
     <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="B24" s="40">
         <v>204</v>
@@ -11982,7 +10696,7 @@
     </row>
     <row r="25" spans="1:24">
       <c r="A25" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="B25" s="40">
         <v>207</v>
@@ -12002,7 +10716,7 @@
     </row>
     <row r="26" spans="1:24">
       <c r="A26" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="B26" s="40">
         <v>208</v>
@@ -12088,7 +10802,7 @@
     </row>
     <row r="32" spans="1:24" s="41" customFormat="1">
       <c r="A32" s="41" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="C32"/>
       <c r="D32"/>
@@ -12368,40 +11082,40 @@
     <row r="1" spans="1:33" ht="15" customHeight="1">
       <c r="A1" s="43"/>
       <c r="B1" s="44"/>
-      <c r="E1" s="115" t="s">
+      <c r="E1" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-      <c r="Q1" s="114"/>
-      <c r="R1" s="114"/>
-      <c r="S1" s="114"/>
-      <c r="T1" s="114"/>
-      <c r="U1" s="114"/>
-      <c r="V1" s="114"/>
-      <c r="W1" s="114"/>
-      <c r="X1" s="114"/>
-      <c r="Y1" s="114"/>
-      <c r="Z1" s="114"/>
-      <c r="AA1" s="114"/>
-      <c r="AB1" s="114"/>
-      <c r="AC1" s="114"/>
-      <c r="AD1" s="114"/>
-      <c r="AE1" s="114"/>
-      <c r="AF1" s="114"/>
-      <c r="AG1" s="114"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
+      <c r="Q1" s="113"/>
+      <c r="R1" s="113"/>
+      <c r="S1" s="113"/>
+      <c r="T1" s="113"/>
+      <c r="U1" s="113"/>
+      <c r="V1" s="113"/>
+      <c r="W1" s="113"/>
+      <c r="X1" s="113"/>
+      <c r="Y1" s="113"/>
+      <c r="Z1" s="113"/>
+      <c r="AA1" s="113"/>
+      <c r="AB1" s="113"/>
+      <c r="AC1" s="113"/>
+      <c r="AD1" s="113"/>
+      <c r="AE1" s="113"/>
+      <c r="AF1" s="113"/>
+      <c r="AG1" s="113"/>
     </row>
     <row r="2" spans="1:33" ht="144" customHeight="1">
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="75" t="s">
         <v>43</v>
       </c>
       <c r="D2" s="26" t="s">
@@ -12413,7 +11127,7 @@
       <c r="F2" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="92" t="s">
+      <c r="G2" s="91" t="s">
         <v>47</v>
       </c>
       <c r="H2" s="24" t="s">
@@ -12437,7 +11151,7 @@
       <c r="N2" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="O2" s="66" t="s">
+      <c r="O2" s="65" t="s">
         <v>55</v>
       </c>
       <c r="P2" s="24" t="s">
@@ -12447,7 +11161,7 @@
         <v>57</v>
       </c>
       <c r="R2" s="24" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="S2" s="24" t="s">
         <v>58</v>
@@ -12474,15 +11188,15 @@
         <v>65</v>
       </c>
       <c r="AA2" s="24" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="AB2" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="AC2" s="82" t="s">
+      <c r="AC2" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="AD2" s="82" t="s">
+      <c r="AD2" s="81" t="s">
         <v>68</v>
       </c>
       <c r="AE2" s="24" t="s">
@@ -12497,7 +11211,7 @@
     </row>
     <row r="5" spans="1:33">
       <c r="A5" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="B5" s="46">
         <v>105</v>
@@ -12519,7 +11233,7 @@
     </row>
     <row r="6" spans="1:33">
       <c r="A6" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="B6" s="46">
         <v>106</v>
@@ -12541,7 +11255,7 @@
     </row>
     <row r="7" spans="1:33">
       <c r="A7" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="B7" s="46">
         <v>119</v>
@@ -12557,7 +11271,7 @@
     </row>
     <row r="8" spans="1:33">
       <c r="A8" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="B8" s="46">
         <v>120</v>
@@ -12573,7 +11287,7 @@
     </row>
     <row r="9" spans="1:33">
       <c r="A9" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="B9" s="46">
         <v>121</v>
@@ -12600,7 +11314,7 @@
     </row>
     <row r="10" spans="1:33">
       <c r="A10" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="B10" s="46">
         <v>122</v>
@@ -12626,8 +11340,8 @@
       </c>
     </row>
     <row r="11" spans="1:33">
-      <c r="A11" s="89" t="s">
-        <v>296</v>
+      <c r="A11" s="88" t="s">
+        <v>282</v>
       </c>
       <c r="B11" s="46">
         <v>125</v>
@@ -12644,8 +11358,8 @@
       </c>
     </row>
     <row r="12" spans="1:33">
-      <c r="A12" s="89" t="s">
-        <v>297</v>
+      <c r="A12" s="88" t="s">
+        <v>283</v>
       </c>
       <c r="B12" s="46">
         <v>126</v>
@@ -12663,7 +11377,7 @@
     </row>
     <row r="13" spans="1:33">
       <c r="A13" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="B13" s="46">
         <v>137</v>
@@ -12685,7 +11399,7 @@
     </row>
     <row r="14" spans="1:33">
       <c r="A14" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="B14" s="46">
         <v>138</v>
@@ -12706,8 +11420,8 @@
       </c>
     </row>
     <row r="15" spans="1:33">
-      <c r="A15" s="53" t="s">
-        <v>308</v>
+      <c r="A15" s="52" t="s">
+        <v>294</v>
       </c>
       <c r="B15" s="46">
         <v>141</v>
@@ -12722,8 +11436,8 @@
       </c>
     </row>
     <row r="16" spans="1:33">
-      <c r="A16" s="53" t="s">
-        <v>309</v>
+      <c r="A16" s="52" t="s">
+        <v>295</v>
       </c>
       <c r="B16" s="46">
         <v>142</v>
@@ -12738,7 +11452,7 @@
     </row>
     <row r="17" spans="1:27">
       <c r="A17" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="B17" s="46">
         <v>143</v>
@@ -12762,7 +11476,7 @@
     </row>
     <row r="18" spans="1:27">
       <c r="A18" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="B18" s="46">
         <v>144</v>
@@ -12786,7 +11500,7 @@
     </row>
     <row r="19" spans="1:27">
       <c r="A19" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="B19" s="46">
         <v>147</v>
@@ -12807,7 +11521,7 @@
     </row>
     <row r="20" spans="1:27">
       <c r="A20" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="B20" s="46">
         <v>148</v>
@@ -12828,7 +11542,7 @@
     </row>
     <row r="21" spans="1:27">
       <c r="A21" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="B21" s="46">
         <v>151</v>
@@ -12844,7 +11558,7 @@
     </row>
     <row r="22" spans="1:27">
       <c r="A22" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="B22" s="46">
         <v>152</v>
@@ -12860,7 +11574,7 @@
     </row>
     <row r="23" spans="1:27">
       <c r="A23" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="B23" s="46">
         <v>153</v>
@@ -12875,7 +11589,7 @@
     </row>
     <row r="24" spans="1:27">
       <c r="A24" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="B24" s="46">
         <v>154</v>
@@ -12890,7 +11604,7 @@
     </row>
     <row r="25" spans="1:27">
       <c r="A25" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="B25" s="46">
         <v>163</v>
@@ -12908,7 +11622,7 @@
     </row>
     <row r="26" spans="1:27">
       <c r="A26" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="B26" s="46">
         <v>164</v>
@@ -12926,7 +11640,7 @@
     </row>
     <row r="27" spans="1:27">
       <c r="A27" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="B27" s="46">
         <v>165</v>
@@ -12944,7 +11658,7 @@
     </row>
     <row r="28" spans="1:27">
       <c r="A28" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="B28" s="46">
         <v>166</v>
@@ -12962,7 +11676,7 @@
     </row>
     <row r="29" spans="1:27">
       <c r="A29" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="B29" s="46">
         <v>179</v>
@@ -12983,7 +11697,7 @@
     </row>
     <row r="30" spans="1:27">
       <c r="A30" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="B30" s="40">
         <v>180</v>
@@ -13004,7 +11718,7 @@
     </row>
     <row r="31" spans="1:27">
       <c r="A31" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="B31" s="40">
         <v>183</v>
@@ -13023,7 +11737,7 @@
     </row>
     <row r="32" spans="1:27">
       <c r="A32" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="B32" s="40">
         <v>184</v>
@@ -13042,7 +11756,7 @@
     </row>
     <row r="33" spans="1:33">
       <c r="A33" s="51" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="B33" s="40">
         <v>187</v>
@@ -13054,7 +11768,7 @@
     </row>
     <row r="34" spans="1:33">
       <c r="A34" s="51" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="B34" s="40">
         <v>188</v>
@@ -13066,7 +11780,7 @@
     </row>
     <row r="35" spans="1:33">
       <c r="A35" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="B35" s="40">
         <v>191</v>
@@ -13085,7 +11799,7 @@
     </row>
     <row r="36" spans="1:33">
       <c r="A36" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="B36" s="40">
         <v>192</v>
@@ -13104,7 +11818,7 @@
     </row>
     <row r="37" spans="1:33">
       <c r="A37" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="B37" s="40">
         <v>193</v>
@@ -13116,34 +11830,34 @@
       <c r="F37" s="40">
         <v>193</v>
       </c>
-      <c r="Z37" s="54">
+      <c r="Z37" s="53">
         <v>193</v>
       </c>
-      <c r="AA37" s="54">
+      <c r="AA37" s="53">
         <v>193</v>
       </c>
-      <c r="AB37" s="54">
+      <c r="AB37" s="53">
         <v>193</v>
       </c>
-      <c r="AC37" s="54">
+      <c r="AC37" s="53">
         <v>193</v>
       </c>
-      <c r="AD37" s="54">
+      <c r="AD37" s="53">
         <v>193</v>
       </c>
-      <c r="AE37" s="54">
+      <c r="AE37" s="53">
         <v>193</v>
       </c>
-      <c r="AF37" s="55">
+      <c r="AF37" s="54">
         <v>193</v>
       </c>
-      <c r="AG37" s="55">
+      <c r="AG37" s="54">
         <v>193</v>
       </c>
     </row>
     <row r="38" spans="1:33">
       <c r="A38" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="B38" s="40">
         <v>194</v>
@@ -13155,34 +11869,34 @@
       <c r="F38" s="40">
         <v>194</v>
       </c>
-      <c r="Z38" s="54">
+      <c r="Z38" s="53">
         <v>194</v>
       </c>
-      <c r="AA38" s="54">
+      <c r="AA38" s="53">
         <v>194</v>
       </c>
-      <c r="AB38" s="54">
+      <c r="AB38" s="53">
         <v>194</v>
       </c>
-      <c r="AC38" s="54">
+      <c r="AC38" s="53">
         <v>194</v>
       </c>
-      <c r="AD38" s="54">
+      <c r="AD38" s="53">
         <v>194</v>
       </c>
-      <c r="AE38" s="54">
+      <c r="AE38" s="53">
         <v>194</v>
       </c>
-      <c r="AF38" s="55">
+      <c r="AF38" s="54">
         <v>194</v>
       </c>
-      <c r="AG38" s="55">
+      <c r="AG38" s="54">
         <v>194</v>
       </c>
     </row>
     <row r="39" spans="1:33">
       <c r="A39" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="B39" s="40">
         <v>205</v>
@@ -13200,7 +11914,7 @@
     </row>
     <row r="40" spans="1:33">
       <c r="A40" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="B40" s="40">
         <v>206</v>
@@ -13458,48 +12172,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
-      <c r="C1" s="85"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="60"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="59"/>
     </row>
     <row r="2" spans="1:11" ht="96" customHeight="1">
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="63" t="s">
+      <c r="E2" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="G2" s="90" t="s">
-        <v>377</v>
-      </c>
-      <c r="H2" s="56" t="s">
+      <c r="G2" s="89" t="s">
+        <v>363</v>
+      </c>
+      <c r="H2" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="I2" s="57" t="s">
+      <c r="I2" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="J2" s="57" t="s">
+      <c r="J2" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="K2" s="58" t="s">
+      <c r="K2" s="57" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="B3" s="46">
         <v>107</v>
@@ -13507,22 +12221,22 @@
       <c r="C3" s="46">
         <v>107</v>
       </c>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
       <c r="H3" s="46">
         <v>107</v>
       </c>
-      <c r="I3" s="61"/>
+      <c r="I3" s="60"/>
       <c r="J3" s="46">
         <v>107</v>
       </c>
-      <c r="K3" s="61"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="B4" s="46">
         <v>108</v>
@@ -13539,7 +12253,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="51" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="B5" s="46">
         <v>113</v>
@@ -13551,7 +12265,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="51" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="B6" s="46">
         <v>114</v>
@@ -13563,7 +12277,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="B7" s="46">
         <v>149</v>
@@ -13577,7 +12291,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="B8" s="46">
         <v>150</v>
@@ -13591,7 +12305,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="B9" s="46">
         <v>169</v>
@@ -13606,7 +12320,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="B10" s="46">
         <v>170</v>
@@ -13621,7 +12335,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="B11" s="46">
         <v>175</v>
@@ -13636,7 +12350,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="B12" s="46">
         <v>176</v>
@@ -13651,7 +12365,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B13" s="46">
         <v>177</v>
@@ -13667,7 +12381,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="B14" s="46">
         <v>178</v>
@@ -13682,7 +12396,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="B15" s="40">
         <v>195</v>
@@ -13699,7 +12413,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="B16" s="40">
         <v>196</v>
@@ -13716,7 +12430,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="B17" s="40">
         <v>199</v>
@@ -13731,7 +12445,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="B18" s="40">
         <v>200</v>
@@ -13746,7 +12460,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="B19" s="46">
         <v>169</v>
@@ -13757,7 +12471,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="B20" s="46">
         <v>170</v>
@@ -13767,8 +12481,8 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="87" t="s">
-        <v>264</v>
+      <c r="A21" s="86" t="s">
+        <v>250</v>
       </c>
       <c r="B21" s="40">
         <v>86</v>
@@ -13778,8 +12492,8 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="87" t="s">
-        <v>271</v>
+      <c r="A22" s="86" t="s">
+        <v>257</v>
       </c>
       <c r="B22" s="40">
         <v>94</v>

--- a/tests/_dummy_data.xlsx
+++ b/tests/_dummy_data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ali_m\AnacondaProjects\PhD\Semiology-Visualisation-Tool\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9D0254-03DC-466F-9CF4-CFDA41A7F642}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64C2017-5E83-4C63-9DAA-E226716576CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="test_counts" sheetId="3" r:id="rId2"/>
-    <sheet name="semiology_list" sheetId="2" r:id="rId3"/>
+    <sheet name="test_aphasia_counts" sheetId="3" r:id="rId2"/>
+    <sheet name="fixture_aphasia" sheetId="2" r:id="rId3"/>
     <sheet name="Full GIF Map for Review " sheetId="11" r:id="rId4"/>
     <sheet name="GIF list" sheetId="12" r:id="rId5"/>
     <sheet name="GIF Spare" sheetId="4" r:id="rId6"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="341">
   <si>
     <t xml:space="preserve">Semiology </t>
   </si>
@@ -404,226 +404,10 @@
     <t>Aura (Epigastric)</t>
   </si>
   <si>
-    <t>Head Version</t>
-  </si>
-  <si>
-    <t>aphemia</t>
-  </si>
-  <si>
-    <t>LOA</t>
-  </si>
-  <si>
-    <t>Head Turn</t>
-  </si>
-  <si>
-    <t>Clonic</t>
-  </si>
-  <si>
-    <t>Behavioural arrest</t>
-  </si>
-  <si>
-    <t>Urinary urge</t>
-  </si>
-  <si>
-    <t>Eye Version</t>
-  </si>
-  <si>
-    <t>Vomiting</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>References</t>
-  </si>
-  <si>
-    <t>epigastric (=abdominal)</t>
-  </si>
-  <si>
-    <t>Auras:</t>
-  </si>
-  <si>
-    <t>fear (/anxiety)</t>
-  </si>
-  <si>
-    <t>{Binder, 2009 #736}</t>
-  </si>
-  <si>
-    <t>experiential (de ja vu, jamais vu, erotic/sexual, psychic, depersonalisation)</t>
-  </si>
-  <si>
-    <t>Engel, 2001 ILAE experiential</t>
-  </si>
-  <si>
-    <t xml:space="preserve">depersonalisation </t>
-  </si>
-  <si>
-    <t>{Alkawadri, 2013 #786}</t>
-  </si>
-  <si>
-    <t>olfactory-gustatory</t>
-  </si>
-  <si>
-    <t>autonomous-vegetative</t>
-  </si>
-  <si>
-    <t>non-specific</t>
-  </si>
-  <si>
-    <t>AUTOMATISMS</t>
-  </si>
-  <si>
-    <t>{Blair, 2012 #776} all below except in red</t>
-  </si>
-  <si>
-    <t>Unilateral limb automatism Ipsilateral focus</t>
-  </si>
-  <si>
-    <t>Oral automatism (m)Temporal lobe</t>
-  </si>
-  <si>
-    <t>Unilateral eye blinks Ipsilateral to focus</t>
-  </si>
-  <si>
-    <t>Postictal cough Temporal lobe</t>
-  </si>
-  <si>
-    <t>Postictal nose wiping Ipsilateral temporal lobe</t>
-  </si>
-  <si>
-    <t>Ictal spitting or drinking Temporal lobe focus (R)</t>
-  </si>
-  <si>
-    <t>Gelastic seizures (m)Temporal, hypothalamic, frontal (cingulate)</t>
-  </si>
-  <si>
-    <t>laughter</t>
-  </si>
-  <si>
-    <t>electrocortical stimulation of subdural contacts covering the left mesial superior frontal gyrus,</t>
-  </si>
-  <si>
-    <t>Fried  I, Wilson  CL, MacDonald  KA, Behnke  EJ.  Electric current stimulates laughter.  Nature. 1998;391(6668):650.</t>
-  </si>
-  <si>
-    <t>Dacrystic seizures (m)Temporal, hypothalamic</t>
-  </si>
-  <si>
-    <t>right anterior cingulate stimulation</t>
-  </si>
-  <si>
-    <t>Sperli  F, Spinelli  L, Pollo  C, Seeck  M.  Contralateral smile and laughter, but no mirth, induced by electrical stimulation of the cingulate cortex.  Epilepsia. 2006;47(2):440-443.</t>
-  </si>
-  <si>
-    <t>Unilateral limb automatisms Ipsilateral focus</t>
-  </si>
-  <si>
-    <t>cingulate</t>
-  </si>
-  <si>
-    <t>Arroyo  S, Lesser  RP, Gordon  B,  et al.  Mirth, laughter and gelastic seizures.  Brain. 1993;116(pt 4):757-780.</t>
-  </si>
-  <si>
-    <t>Whistling Temporal lobe</t>
-  </si>
-  <si>
-    <t>AUTONOMIC</t>
-  </si>
-  <si>
-    <t>Piloerection</t>
-  </si>
-  <si>
-    <t>MOTOR</t>
-  </si>
-  <si>
-    <t>Asymmetric Clonic</t>
-  </si>
-  <si>
-    <t>Fencing (M2E) asymmetric tonic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Figure 4 </t>
-  </si>
-  <si>
-    <t>Tonic limb posturing</t>
-  </si>
-  <si>
-    <t>Dystonic limb posturing</t>
-  </si>
-  <si>
-    <t>Unilateral ictal paresis</t>
-  </si>
-  <si>
-    <t>? or do we include this in consciousness / absence?</t>
-  </si>
-  <si>
-    <t>SPEECH</t>
-  </si>
-  <si>
-    <t>ictal vocalisation</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>{Blair, 2012 #776}</t>
-  </si>
-  <si>
     <t>aphasia</t>
-  </si>
-  <si>
-    <t>dysphasia</t>
-  </si>
-  <si>
-    <t>Pallilalia</t>
-  </si>
-  <si>
-    <t>{Cai, 2017 #864}</t>
-  </si>
-  <si>
-    <t>{Catenoix, 2013 #2553}</t>
-  </si>
-  <si>
-    <t>corprolalia</t>
-  </si>
-  <si>
-    <t>{Daniel, 2016 #2365}</t>
-  </si>
-  <si>
-    <t>CONSCIOUSNESS</t>
-  </si>
-  <si>
-    <t>Dialeptic applies to:</t>
-  </si>
-  <si>
-    <t>Terms like “impaired consciousness,” “unresponsiveness,” “loss of contact,” and “loss of awareness” are interchangeably used to describe the sudden and reversible changes in mental state associated with the brain’s abnormal electrical discharges which characterize epilepsy (McCorry and McCorry, 2007).</t>
-  </si>
-  <si>
-    <t>or biaxial unresponsive vs loss of subjective awareness but this can't always be remembered post seizure and not reliable (Cavanna, 2008)</t>
-  </si>
-  <si>
-    <t>(absence is generalised hence excluded)</t>
-  </si>
-  <si>
-    <t>unresp</t>
-  </si>
-  <si>
-    <t>dyscog</t>
-  </si>
-  <si>
-    <t>vertigo?</t>
-  </si>
-  <si>
-    <t>ATL regions:</t>
-  </si>
-  <si>
-    <t>all mesial temporal (at least part of their structures) + temporal pole + uncus (Anna Misorocchi)</t>
-  </si>
-  <si>
-    <t>TPO junction: angular gyrus BRodmann area 39 + STG + lateral occipital</t>
   </si>
   <si>
     <t>GIF Description</t>
@@ -1267,6 +1051,27 @@
   </si>
   <si>
     <t xml:space="preserve">localising </t>
+  </si>
+  <si>
+    <t>query_lateralisation</t>
+  </si>
+  <si>
+    <t>three rows</t>
+  </si>
+  <si>
+    <t>top row</t>
+  </si>
+  <si>
+    <t>result should be this</t>
+  </si>
+  <si>
+    <t>TL = Gif Parcellation</t>
+  </si>
+  <si>
+    <t>fixture Gif Parcellation</t>
+  </si>
+  <si>
+    <t>fixture pt #s</t>
   </si>
 </sst>
 </file>
@@ -1761,7 +1566,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1958,7 +1763,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1986,9 +1790,6 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2013,9 +1814,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2049,7 +1847,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2116,6 +1913,21 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2137,1335 +1949,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Progress
-2019
-</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>test_counts!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>test_counts!$A$2:$A$28</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="27"/>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>test_counts!$B$2:$B$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F5C2-BB4A-A2BE-7C4AE922A880}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>test_counts!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>test_counts!$A$2:$A$28</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="27"/>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>test_counts!$C$2:$C$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F5C2-BB4A-A2BE-7C4AE922A880}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>test_counts!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>aphasia total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>test_counts!$A$2:$A$28</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="27"/>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>test_counts!$D$2:$D$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F5C2-BB4A-A2BE-7C4AE922A880}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>test_counts!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>test_counts!$A$2:$A$28</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="27"/>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>test_counts!$E$2:$E$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-F5C2-BB4A-A2BE-7C4AE922A880}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>test_counts!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>test_counts!$A$2:$A$28</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="27"/>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>test_counts!$F$2:$F$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-F5C2-BB4A-A2BE-7C4AE922A880}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>test_counts!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>test_counts!$A$2:$A$28</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="27"/>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>test_counts!$G$2:$G$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-47AA-4CB1-B3C4-9E3D376A1705}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="179581312"/>
-        <c:axId val="179583232"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="179581312"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="179583232"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="179583232"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="179581312"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="100"/>
-        <c:minorUnit val="50"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152305</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>162189</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>571405</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>19314</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6" title="Progress ">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15C944D9-DE84-2642-9038-8D8494CB062B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3796,10 +2279,10 @@
   <dimension ref="A1:DU51"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomRight" activeCell="R9" sqref="R9:AA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3889,112 +2372,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:125" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="105"/>
+      <c r="A1" s="101"/>
       <c r="C1" s="17"/>
-      <c r="D1" s="112" t="s">
+      <c r="D1" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="112"/>
-      <c r="G1" s="119" t="s">
+      <c r="E1" s="108"/>
+      <c r="G1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="K1" s="121" t="s">
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="K1" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="122"/>
-      <c r="M1" s="122"/>
-      <c r="N1" s="122"/>
-      <c r="O1" s="123"/>
-      <c r="S1" s="113"/>
-      <c r="T1" s="113"/>
-      <c r="U1" s="113"/>
-      <c r="V1" s="113"/>
-      <c r="W1" s="113"/>
-      <c r="X1" s="113"/>
-      <c r="Y1" s="113"/>
-      <c r="Z1" s="113"/>
-      <c r="AA1" s="113"/>
-      <c r="AB1" s="113"/>
-      <c r="AC1" s="113"/>
-      <c r="AD1" s="113"/>
-      <c r="AE1" s="113"/>
-      <c r="AF1" s="113"/>
-      <c r="AG1" s="113"/>
-      <c r="AH1" s="113"/>
-      <c r="AI1" s="113"/>
-      <c r="AJ1" s="113"/>
-      <c r="AK1" s="113"/>
-      <c r="AM1" s="104"/>
-      <c r="AN1" s="114" t="s">
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="119"/>
+      <c r="S1" s="109"/>
+      <c r="T1" s="109"/>
+      <c r="U1" s="109"/>
+      <c r="V1" s="109"/>
+      <c r="W1" s="109"/>
+      <c r="X1" s="109"/>
+      <c r="Y1" s="109"/>
+      <c r="Z1" s="109"/>
+      <c r="AA1" s="109"/>
+      <c r="AB1" s="109"/>
+      <c r="AC1" s="109"/>
+      <c r="AD1" s="109"/>
+      <c r="AE1" s="109"/>
+      <c r="AF1" s="109"/>
+      <c r="AG1" s="109"/>
+      <c r="AH1" s="109"/>
+      <c r="AI1" s="109"/>
+      <c r="AJ1" s="109"/>
+      <c r="AK1" s="109"/>
+      <c r="AM1" s="100"/>
+      <c r="AN1" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="AO1" s="113"/>
-      <c r="AP1" s="113"/>
-      <c r="AQ1" s="113"/>
-      <c r="AR1" s="113"/>
-      <c r="AS1" s="113"/>
-      <c r="AT1" s="113"/>
-      <c r="AU1" s="113"/>
-      <c r="AV1" s="113"/>
-      <c r="AW1" s="113"/>
-      <c r="AX1" s="113"/>
-      <c r="AY1" s="113"/>
-      <c r="AZ1" s="113"/>
-      <c r="BA1" s="113"/>
-      <c r="BB1" s="113"/>
-      <c r="BC1" s="113"/>
-      <c r="BD1" s="113"/>
-      <c r="BE1" s="113"/>
-      <c r="BF1" s="113"/>
-      <c r="BG1" s="113"/>
-      <c r="BH1" s="113"/>
-      <c r="BI1" s="113"/>
-      <c r="BJ1" s="113"/>
-      <c r="BK1" s="113"/>
-      <c r="BL1" s="113"/>
-      <c r="BM1" s="113"/>
-      <c r="BN1" s="113"/>
-      <c r="BO1" s="113"/>
-      <c r="BP1" s="113"/>
-      <c r="BR1" s="116"/>
-      <c r="BS1" s="117"/>
-      <c r="BT1" s="117"/>
-      <c r="BU1" s="117"/>
-      <c r="BV1" s="117"/>
-      <c r="BW1" s="118"/>
-      <c r="BX1" s="107"/>
-      <c r="BZ1" s="113"/>
-      <c r="CA1" s="113"/>
-      <c r="CB1" s="113"/>
-      <c r="CC1" s="113"/>
-      <c r="CD1" s="113"/>
-      <c r="CE1" s="113"/>
-      <c r="CF1" s="113"/>
-      <c r="CG1" s="115"/>
-      <c r="CH1" s="114" t="s">
+      <c r="AO1" s="109"/>
+      <c r="AP1" s="109"/>
+      <c r="AQ1" s="109"/>
+      <c r="AR1" s="109"/>
+      <c r="AS1" s="109"/>
+      <c r="AT1" s="109"/>
+      <c r="AU1" s="109"/>
+      <c r="AV1" s="109"/>
+      <c r="AW1" s="109"/>
+      <c r="AX1" s="109"/>
+      <c r="AY1" s="109"/>
+      <c r="AZ1" s="109"/>
+      <c r="BA1" s="109"/>
+      <c r="BB1" s="109"/>
+      <c r="BC1" s="109"/>
+      <c r="BD1" s="109"/>
+      <c r="BE1" s="109"/>
+      <c r="BF1" s="109"/>
+      <c r="BG1" s="109"/>
+      <c r="BH1" s="109"/>
+      <c r="BI1" s="109"/>
+      <c r="BJ1" s="109"/>
+      <c r="BK1" s="109"/>
+      <c r="BL1" s="109"/>
+      <c r="BM1" s="109"/>
+      <c r="BN1" s="109"/>
+      <c r="BO1" s="109"/>
+      <c r="BP1" s="109"/>
+      <c r="BR1" s="112"/>
+      <c r="BS1" s="113"/>
+      <c r="BT1" s="113"/>
+      <c r="BU1" s="113"/>
+      <c r="BV1" s="113"/>
+      <c r="BW1" s="114"/>
+      <c r="BX1" s="103"/>
+      <c r="BZ1" s="109"/>
+      <c r="CA1" s="109"/>
+      <c r="CB1" s="109"/>
+      <c r="CC1" s="109"/>
+      <c r="CD1" s="109"/>
+      <c r="CE1" s="109"/>
+      <c r="CF1" s="109"/>
+      <c r="CG1" s="111"/>
+      <c r="CH1" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="CI1" s="113"/>
-      <c r="CJ1" s="113"/>
-      <c r="CK1" s="113"/>
-      <c r="CL1" s="113"/>
-      <c r="CM1" s="115"/>
+      <c r="CI1" s="109"/>
+      <c r="CJ1" s="109"/>
+      <c r="CK1" s="109"/>
+      <c r="CL1" s="109"/>
+      <c r="CM1" s="111"/>
       <c r="CO1" s="66"/>
-      <c r="CP1" s="113" t="s">
+      <c r="CP1" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="CQ1" s="113"/>
-      <c r="CR1" s="113"/>
-      <c r="CS1" s="113"/>
-      <c r="CT1" s="113"/>
-      <c r="CU1" s="113"/>
-      <c r="CV1" s="113"/>
-      <c r="CX1" s="99"/>
-      <c r="CY1" s="99"/>
-      <c r="CZ1" s="99"/>
-      <c r="DA1" s="99"/>
+      <c r="CQ1" s="109"/>
+      <c r="CR1" s="109"/>
+      <c r="CS1" s="109"/>
+      <c r="CT1" s="109"/>
+      <c r="CU1" s="109"/>
+      <c r="CV1" s="109"/>
+      <c r="CX1" s="96"/>
+      <c r="CY1" s="96"/>
+      <c r="CZ1" s="96"/>
+      <c r="DA1" s="96"/>
       <c r="DB1" s="36"/>
       <c r="DC1" s="14"/>
       <c r="DD1" s="15"/>
@@ -4011,10 +2494,10 @@
       <c r="DO1" s="4"/>
     </row>
     <row r="2" spans="1:125" s="13" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="78" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="19" t="s">
@@ -4026,7 +2509,7 @@
       <c r="E2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="71" t="s">
+      <c r="F2" s="70" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="23" t="s">
@@ -4038,7 +2521,7 @@
       <c r="I2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="72" t="s">
+      <c r="J2" s="71" t="s">
         <v>15</v>
       </c>
       <c r="K2" s="7" t="s">
@@ -4056,13 +2539,13 @@
       <c r="O2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="73" t="s">
+      <c r="P2" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="74" t="s">
+      <c r="Q2" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="75" t="s">
+      <c r="R2" s="74" t="s">
         <v>23</v>
       </c>
       <c r="S2" s="26" t="s">
@@ -4122,7 +2605,7 @@
       <c r="AK2" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="AL2" s="75" t="s">
+      <c r="AL2" s="74" t="s">
         <v>43</v>
       </c>
       <c r="AM2" s="26" t="s">
@@ -4134,7 +2617,7 @@
       <c r="AO2" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="AP2" s="91" t="s">
+      <c r="AP2" s="88" t="s">
         <v>47</v>
       </c>
       <c r="AQ2" s="24" t="s">
@@ -4168,7 +2651,7 @@
         <v>57</v>
       </c>
       <c r="BA2" s="24" t="s">
-        <v>361</v>
+        <v>289</v>
       </c>
       <c r="BB2" s="24" t="s">
         <v>58</v>
@@ -4195,15 +2678,15 @@
         <v>65</v>
       </c>
       <c r="BJ2" s="24" t="s">
-        <v>362</v>
+        <v>290</v>
       </c>
       <c r="BK2" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="BL2" s="81" t="s">
+      <c r="BL2" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="BM2" s="81" t="s">
+      <c r="BM2" s="79" t="s">
         <v>68</v>
       </c>
       <c r="BN2" s="24" t="s">
@@ -4215,31 +2698,31 @@
       <c r="BP2" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="BQ2" s="75" t="s">
+      <c r="BQ2" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="BR2" s="94" t="s">
+      <c r="BR2" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="BS2" s="95" t="s">
+      <c r="BS2" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="BT2" s="96" t="s">
+      <c r="BT2" s="93" t="s">
         <v>75</v>
       </c>
-      <c r="BU2" s="96" t="s">
+      <c r="BU2" s="93" t="s">
         <v>76</v>
       </c>
-      <c r="BV2" s="97" t="s">
+      <c r="BV2" s="94" t="s">
         <v>77</v>
       </c>
-      <c r="BW2" s="95" t="s">
+      <c r="BW2" s="92" t="s">
         <v>78</v>
       </c>
-      <c r="BX2" s="98" t="s">
+      <c r="BX2" s="95" t="s">
         <v>79</v>
       </c>
-      <c r="BY2" s="75" t="s">
+      <c r="BY2" s="74" t="s">
         <v>80</v>
       </c>
       <c r="BZ2" s="26" t="s">
@@ -4266,16 +2749,16 @@
       <c r="CG2" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="CH2" s="76" t="s">
+      <c r="CH2" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="CI2" s="108" t="s">
+      <c r="CI2" s="104" t="s">
         <v>90</v>
       </c>
       <c r="CJ2" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="CK2" s="83" t="s">
+      <c r="CK2" s="81" t="s">
         <v>92</v>
       </c>
       <c r="CL2" s="26" t="s">
@@ -4284,7 +2767,7 @@
       <c r="CM2" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="CN2" s="77" t="s">
+      <c r="CN2" s="76" t="s">
         <v>95</v>
       </c>
       <c r="CO2" s="67" t="s">
@@ -4311,19 +2794,19 @@
       <c r="CV2" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="CW2" s="78" t="s">
+      <c r="CW2" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="CX2" s="109" t="s">
+      <c r="CX2" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="CY2" s="110" t="s">
+      <c r="CY2" s="106" t="s">
         <v>106</v>
       </c>
-      <c r="CZ2" s="110" t="s">
+      <c r="CZ2" s="106" t="s">
         <v>107</v>
       </c>
-      <c r="DA2" s="111" t="s">
+      <c r="DA2" s="107" t="s">
         <v>108</v>
       </c>
       <c r="DB2" s="37" t="s">
@@ -4357,7 +2840,7 @@
     </row>
     <row r="3" spans="1:125" ht="30">
       <c r="A3" s="33" t="s">
-        <v>371</v>
+        <v>299</v>
       </c>
       <c r="B3" s="33">
         <v>5</v>
@@ -4366,13 +2849,13 @@
         <v>3</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>367</v>
+        <v>295</v>
       </c>
       <c r="E3" s="34" t="s">
         <v>117</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>368</v>
+        <v>296</v>
       </c>
       <c r="G3" s="33" t="s">
         <v>116</v>
@@ -4383,7 +2866,7 @@
         <v>3</v>
       </c>
       <c r="Q3" s="32" t="s">
-        <v>369</v>
+        <v>297</v>
       </c>
       <c r="R3" s="5">
         <v>1</v>
@@ -4405,7 +2888,7 @@
         <v>1</v>
       </c>
       <c r="DA3" s="5" t="s">
-        <v>370</v>
+        <v>298</v>
       </c>
       <c r="DB3" s="6">
         <v>5</v>
@@ -4443,7 +2926,7 @@
     </row>
     <row r="5" spans="1:125" ht="30">
       <c r="A5" s="33" t="s">
-        <v>376</v>
+        <v>304</v>
       </c>
       <c r="B5" s="33">
         <v>1</v>
@@ -4452,13 +2935,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>372</v>
+        <v>300</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>373</v>
+        <v>301</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>374</v>
+        <v>302</v>
       </c>
       <c r="G5" s="33"/>
       <c r="H5" s="33" t="s">
@@ -4477,7 +2960,7 @@
         <v>1</v>
       </c>
       <c r="Q5" s="32" t="s">
-        <v>375</v>
+        <v>303</v>
       </c>
       <c r="AL5" s="5">
         <v>1</v>
@@ -4524,7 +3007,7 @@
     </row>
     <row r="7" spans="1:125" ht="30">
       <c r="A7" s="33" t="s">
-        <v>378</v>
+        <v>306</v>
       </c>
       <c r="B7" s="33">
         <v>10</v>
@@ -4533,17 +3016,17 @@
         <v>10</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>379</v>
+        <v>307</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>380</v>
+        <v>308</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>382</v>
+        <v>310</v>
       </c>
       <c r="G7" s="33"/>
       <c r="H7" s="33" t="s">
-        <v>381</v>
+        <v>309</v>
       </c>
       <c r="I7" s="33" t="s">
         <v>116</v>
@@ -4555,7 +3038,7 @@
         <v>10</v>
       </c>
       <c r="Q7" s="32" t="s">
-        <v>383</v>
+        <v>311</v>
       </c>
       <c r="AL7" s="5">
         <v>10</v>
@@ -4576,7 +3059,7 @@
         <v>2</v>
       </c>
       <c r="DA7" s="5" t="s">
-        <v>370</v>
+        <v>298</v>
       </c>
       <c r="DB7" s="6">
         <v>10</v>
@@ -4591,7 +3074,7 @@
         <v>116</v>
       </c>
       <c r="DH7" s="5" t="s">
-        <v>377</v>
+        <v>305</v>
       </c>
       <c r="DP7" s="34"/>
       <c r="DQ7" s="34"/>
@@ -4617,7 +3100,7 @@
     </row>
     <row r="9" spans="1:125">
       <c r="A9" s="33" t="s">
-        <v>384</v>
+        <v>312</v>
       </c>
       <c r="B9" s="33">
         <v>10</v>
@@ -4626,13 +3109,13 @@
         <v>10</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>174</v>
+        <v>119</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>389</v>
+        <v>317</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>368</v>
+        <v>296</v>
       </c>
       <c r="G9" s="33" t="s">
         <v>116</v>
@@ -4649,7 +3132,7 @@
         <v>9</v>
       </c>
       <c r="Q9" s="32" t="s">
-        <v>388</v>
+        <v>316</v>
       </c>
       <c r="R9" s="5">
         <v>9</v>
@@ -4667,7 +3150,7 @@
         <v>5</v>
       </c>
       <c r="DA9" s="5" t="s">
-        <v>370</v>
+        <v>298</v>
       </c>
       <c r="DB9" s="6">
         <v>10</v>
@@ -4693,13 +3176,13 @@
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
       <c r="D10" s="33" t="s">
-        <v>385</v>
+        <v>313</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>385</v>
+        <v>313</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>386</v>
+        <v>314</v>
       </c>
       <c r="G10" s="33" t="s">
         <v>116</v>
@@ -4716,7 +3199,7 @@
         <v>1</v>
       </c>
       <c r="Q10" s="32" t="s">
-        <v>387</v>
+        <v>315</v>
       </c>
       <c r="AL10" s="5">
         <v>1</v>
@@ -4725,7 +3208,7 @@
         <v>1</v>
       </c>
       <c r="DA10" s="5" t="s">
-        <v>370</v>
+        <v>298</v>
       </c>
       <c r="DP10" s="34"/>
       <c r="DQ10" s="34"/>
@@ -4766,7 +3249,7 @@
     </row>
     <row r="13" spans="1:125">
       <c r="A13" s="33" t="s">
-        <v>392</v>
+        <v>320</v>
       </c>
       <c r="B13" s="33">
         <v>1</v>
@@ -4775,13 +3258,13 @@
         <v>1</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>174</v>
+        <v>119</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>390</v>
+        <v>318</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>391</v>
+        <v>319</v>
       </c>
       <c r="G13" s="33"/>
       <c r="H13" s="33" t="s">
@@ -4798,7 +3281,7 @@
         <v>1</v>
       </c>
       <c r="DA13" s="5" t="s">
-        <v>370</v>
+        <v>298</v>
       </c>
       <c r="DB13" s="6">
         <v>1</v>
@@ -4821,7 +3304,7 @@
     </row>
     <row r="14" spans="1:125">
       <c r="A14" s="33" t="s">
-        <v>393</v>
+        <v>321</v>
       </c>
       <c r="B14" s="33">
         <v>1</v>
@@ -4830,13 +3313,13 @@
         <v>1</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>402</v>
+        <v>330</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>403</v>
+        <v>331</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>391</v>
+        <v>319</v>
       </c>
       <c r="G14" s="33"/>
       <c r="H14" s="33" t="s">
@@ -4853,7 +3336,7 @@
         <v>1</v>
       </c>
       <c r="DA14" s="5" t="s">
-        <v>370</v>
+        <v>298</v>
       </c>
       <c r="DB14" s="6">
         <v>1</v>
@@ -4876,7 +3359,7 @@
     </row>
     <row r="15" spans="1:125">
       <c r="A15" s="33" t="s">
-        <v>394</v>
+        <v>322</v>
       </c>
       <c r="B15" s="33">
         <v>1</v>
@@ -4885,13 +3368,13 @@
         <v>1</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>395</v>
+        <v>323</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>395</v>
+        <v>323</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>391</v>
+        <v>319</v>
       </c>
       <c r="G15" s="33"/>
       <c r="H15" s="33" t="s">
@@ -4908,7 +3391,7 @@
         <v>1</v>
       </c>
       <c r="DA15" s="5" t="s">
-        <v>370</v>
+        <v>298</v>
       </c>
       <c r="DB15" s="6">
         <v>1</v>
@@ -5502,24 +3985,24 @@
     <row r="1" spans="1:8">
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="124" t="s">
+      <c r="E1" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
     </row>
     <row r="2" spans="1:8" ht="45">
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="82" t="s">
+      <c r="D2" s="80" t="s">
         <v>90</v>
       </c>
       <c r="E2" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="83" t="s">
+      <c r="F2" s="81" t="s">
         <v>92</v>
       </c>
       <c r="G2" s="26" t="s">
@@ -5531,7 +4014,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="51" t="s">
-        <v>268</v>
+        <v>196</v>
       </c>
       <c r="B3" s="46">
         <v>109</v>
@@ -5542,7 +4025,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="51" t="s">
-        <v>269</v>
+        <v>197</v>
       </c>
       <c r="B4" s="46">
         <v>110</v>
@@ -5558,7 +4041,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>272</v>
+        <v>200</v>
       </c>
       <c r="B5" s="46">
         <v>115</v>
@@ -5566,7 +4049,7 @@
       <c r="C5" s="46">
         <v>115</v>
       </c>
-      <c r="D5" s="87">
+      <c r="D5" s="85">
         <v>115</v>
       </c>
       <c r="E5" s="51"/>
@@ -5576,7 +4059,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>273</v>
+        <v>201</v>
       </c>
       <c r="B6" s="46">
         <v>116</v>
@@ -5584,7 +4067,7 @@
       <c r="C6" s="46">
         <v>116</v>
       </c>
-      <c r="D6" s="87">
+      <c r="D6" s="85">
         <v>116</v>
       </c>
       <c r="E6" s="51"/>
@@ -5594,7 +4077,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="51" t="s">
-        <v>284</v>
+        <v>212</v>
       </c>
       <c r="B7" s="46">
         <v>129</v>
@@ -5610,7 +4093,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="51" t="s">
-        <v>285</v>
+        <v>213</v>
       </c>
       <c r="B8" s="46">
         <v>130</v>
@@ -5626,7 +4109,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>288</v>
+        <v>216</v>
       </c>
       <c r="B9" s="46">
         <v>135</v>
@@ -5636,7 +4119,7 @@
       </c>
       <c r="D9" s="51"/>
       <c r="E9" s="51"/>
-      <c r="F9" s="87">
+      <c r="F9" s="85">
         <v>135</v>
       </c>
       <c r="G9" s="51"/>
@@ -5644,7 +4127,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>289</v>
+        <v>217</v>
       </c>
       <c r="B10" s="46">
         <v>136</v>
@@ -5654,7 +4137,7 @@
       </c>
       <c r="D10" s="51"/>
       <c r="E10" s="51"/>
-      <c r="F10" s="87">
+      <c r="F10" s="85">
         <v>136</v>
       </c>
       <c r="G10" s="51"/>
@@ -5662,7 +4145,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>298</v>
+        <v>226</v>
       </c>
       <c r="B11" s="46">
         <v>145</v>
@@ -5671,7 +4154,7 @@
         <v>145</v>
       </c>
       <c r="D11" s="51"/>
-      <c r="E11" s="87">
+      <c r="E11" s="85">
         <v>145</v>
       </c>
       <c r="F11" s="51"/>
@@ -5680,7 +4163,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>299</v>
+        <v>227</v>
       </c>
       <c r="B12" s="46">
         <v>146</v>
@@ -5689,16 +4172,16 @@
         <v>146</v>
       </c>
       <c r="D12" s="51"/>
-      <c r="E12" s="87">
+      <c r="E12" s="85">
         <v>146</v>
       </c>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="88"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>310</v>
+        <v>238</v>
       </c>
       <c r="B13" s="46">
         <v>157</v>
@@ -5707,16 +4190,16 @@
         <v>157</v>
       </c>
       <c r="D13" s="51"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="87">
+      <c r="E13" s="86"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="85">
         <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>311</v>
+        <v>239</v>
       </c>
       <c r="B14" s="46">
         <v>158</v>
@@ -5725,16 +4208,16 @@
         <v>158</v>
       </c>
       <c r="D14" s="51"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="87">
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="85">
         <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="51" t="s">
-        <v>312</v>
+        <v>240</v>
       </c>
       <c r="B15" s="46">
         <v>161</v>
@@ -5750,7 +4233,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="51" t="s">
-        <v>313</v>
+        <v>241</v>
       </c>
       <c r="B16" s="46">
         <v>162</v>
@@ -5761,7 +4244,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="51" t="s">
-        <v>346</v>
+        <v>274</v>
       </c>
       <c r="B17" s="40">
         <v>197</v>
@@ -5772,7 +4255,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="51" t="s">
-        <v>347</v>
+        <v>275</v>
       </c>
       <c r="B18" s="40">
         <v>198</v>
@@ -5806,43 +4289,43 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="C1" s="2"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="92"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="89"/>
     </row>
     <row r="2" spans="1:10" ht="47.25">
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="95" t="s">
+      <c r="D2" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="96" t="s">
+      <c r="E2" s="93" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="96" t="s">
+      <c r="F2" s="93" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="97" t="s">
+      <c r="G2" s="94" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="95" t="s">
+      <c r="H2" s="92" t="s">
         <v>78</v>
       </c>
-      <c r="I2" s="98" t="s">
+      <c r="I2" s="95" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="93" t="s">
-        <v>364</v>
+      <c r="J2" s="90" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>260</v>
+        <v>188</v>
       </c>
       <c r="B3" s="46">
         <v>101</v>
@@ -5863,7 +4346,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>261</v>
+        <v>189</v>
       </c>
       <c r="B4" s="46">
         <v>102</v>
@@ -5884,7 +4367,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>292</v>
+        <v>220</v>
       </c>
       <c r="B5" s="46">
         <v>139</v>
@@ -5898,7 +4381,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>293</v>
+        <v>221</v>
       </c>
       <c r="B6" s="46">
         <v>140</v>
@@ -5912,7 +4395,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>318</v>
+        <v>246</v>
       </c>
       <c r="B7" s="46">
         <v>167</v>
@@ -5923,13 +4406,13 @@
       <c r="H7" s="46">
         <v>167</v>
       </c>
-      <c r="I7" s="85">
+      <c r="I7" s="83">
         <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>319</v>
+        <v>247</v>
       </c>
       <c r="B8" s="46">
         <v>168</v>
@@ -5940,13 +4423,13 @@
       <c r="H8" s="46">
         <v>168</v>
       </c>
-      <c r="I8" s="85">
+      <c r="I8" s="83">
         <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>365</v>
+        <v>293</v>
       </c>
       <c r="B9" s="46">
         <v>83</v>
@@ -5960,7 +4443,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>366</v>
+        <v>294</v>
       </c>
       <c r="B10" s="46">
         <v>91</v>
@@ -5997,18 +4480,18 @@
     <row r="1" spans="1:11" ht="26.25">
       <c r="C1" s="2"/>
       <c r="D1" s="66"/>
-      <c r="E1" s="125" t="s">
+      <c r="E1" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
     </row>
     <row r="2" spans="1:11" ht="30">
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="76" t="s">
         <v>95</v>
       </c>
       <c r="D2" s="67" t="s">
@@ -6038,7 +4521,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>262</v>
+        <v>190</v>
       </c>
       <c r="B3" s="46">
         <v>103</v>
@@ -6058,13 +4541,13 @@
       <c r="G3" s="46">
         <v>103</v>
       </c>
-      <c r="K3" s="85">
+      <c r="K3" s="83">
         <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>263</v>
+        <v>191</v>
       </c>
       <c r="B4" s="46">
         <v>104</v>
@@ -6084,13 +4567,13 @@
       <c r="G4" s="46">
         <v>104</v>
       </c>
-      <c r="K4" s="85">
+      <c r="K4" s="83">
         <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>324</v>
+        <v>252</v>
       </c>
       <c r="B5" s="46">
         <v>173</v>
@@ -6098,10 +4581,10 @@
       <c r="C5" s="46">
         <v>173</v>
       </c>
-      <c r="H5" s="85">
+      <c r="H5" s="83">
         <v>173</v>
       </c>
-      <c r="I5" s="85">
+      <c r="I5" s="83">
         <v>173</v>
       </c>
       <c r="J5" s="46">
@@ -6110,7 +4593,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>325</v>
+        <v>253</v>
       </c>
       <c r="B6" s="46">
         <v>174</v>
@@ -6118,10 +4601,10 @@
       <c r="C6" s="46">
         <v>174</v>
       </c>
-      <c r="H6" s="85">
+      <c r="H6" s="83">
         <v>174</v>
       </c>
-      <c r="I6" s="85">
+      <c r="I6" s="83">
         <v>174</v>
       </c>
       <c r="J6" s="46">
@@ -6158,13 +4641,13 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:5" ht="26.25">
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="77" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>231</v>
+        <v>159</v>
       </c>
       <c r="B3" s="46">
         <v>60</v>
@@ -6175,7 +4658,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>232</v>
+        <v>160</v>
       </c>
       <c r="B4" s="46">
         <v>61</v>
@@ -6185,33 +4668,33 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="86"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="40"/>
       <c r="C5" s="40"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="86"/>
+      <c r="A6" s="84"/>
       <c r="B6" s="40"/>
       <c r="C6" s="40"/>
       <c r="D6" s="40"/>
       <c r="E6" s="40"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="86"/>
+      <c r="A7" s="84"/>
       <c r="B7" s="40"/>
       <c r="C7" s="40"/>
       <c r="D7" s="40"/>
       <c r="E7" s="40"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="86"/>
+      <c r="A8" s="84"/>
       <c r="B8" s="40"/>
       <c r="C8" s="40"/>
       <c r="D8" s="40"/>
       <c r="E8" s="40"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="86"/>
+      <c r="A9" s="84"/>
       <c r="B9" s="40"/>
       <c r="C9" s="40"/>
       <c r="D9" s="40"/>
@@ -6238,24 +4721,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
     </row>
     <row r="2" spans="1:6" ht="26.25">
-      <c r="C2" s="100" t="s">
+      <c r="C2" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="D2" s="101" t="s">
+      <c r="D2" s="98" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="101" t="s">
+      <c r="E2" s="98" t="s">
         <v>107</v>
       </c>
       <c r="F2" s="40"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="86" t="s">
-        <v>212</v>
+      <c r="A3" s="84" t="s">
+        <v>140</v>
       </c>
       <c r="B3" s="40">
         <v>39</v>
@@ -6270,8 +4753,8 @@
       <c r="F3" s="40"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="86" t="s">
-        <v>213</v>
+      <c r="A4" s="84" t="s">
+        <v>141</v>
       </c>
       <c r="B4" s="40">
         <v>40</v>
@@ -6286,8 +4769,8 @@
       <c r="F4" s="40"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="86" t="s">
-        <v>214</v>
+      <c r="A5" s="84" t="s">
+        <v>142</v>
       </c>
       <c r="B5" s="40">
         <v>41</v>
@@ -6302,8 +4785,8 @@
       <c r="F5" s="40"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="86" t="s">
-        <v>215</v>
+      <c r="A6" s="84" t="s">
+        <v>143</v>
       </c>
       <c r="B6" s="40">
         <v>42</v>
@@ -6318,8 +4801,8 @@
       <c r="F6" s="40"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="86" t="s">
-        <v>240</v>
+      <c r="A7" s="84" t="s">
+        <v>168</v>
       </c>
       <c r="B7" s="40">
         <v>72</v>
@@ -6334,8 +4817,8 @@
       <c r="F7" s="40"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="86" t="s">
-        <v>241</v>
+      <c r="A8" s="84" t="s">
+        <v>169</v>
       </c>
       <c r="B8" s="40">
         <v>73</v>
@@ -6350,8 +4833,8 @@
       <c r="F8" s="40"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="86" t="s">
-        <v>242</v>
+      <c r="A9" s="84" t="s">
+        <v>170</v>
       </c>
       <c r="B9" s="40">
         <v>74</v>
@@ -6379,11 +4862,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomLeft" activeCell="M3" sqref="M3:N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -6392,539 +4875,1322 @@
     <col min="2" max="2" width="15.7109375" style="40" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" style="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="21.42578125" style="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="107.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" style="40" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="107.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="39" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="80"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="63" t="s">
-        <v>396</v>
-      </c>
-      <c r="E1" s="64"/>
-      <c r="H1" s="42"/>
-    </row>
-    <row r="2" spans="1:13" s="40" customFormat="1">
-      <c r="A2" s="69"/>
-      <c r="C2" s="40" t="s">
-        <v>397</v>
-      </c>
-      <c r="D2" s="30">
+    <row r="1" spans="1:14" s="39" customFormat="1" ht="18" customHeight="1">
+      <c r="A1" s="42"/>
+      <c r="B1" s="63" t="s">
+        <v>324</v>
+      </c>
+      <c r="E1" s="64" t="s">
+        <v>334</v>
+      </c>
+      <c r="I1" s="42"/>
+    </row>
+    <row r="2" spans="1:14" s="40" customFormat="1" ht="31.5">
+      <c r="A2" s="40" t="s">
+        <v>325</v>
+      </c>
+      <c r="B2" s="30">
         <f>SUM(Main!P9:P15)</f>
         <v>13</v>
       </c>
-      <c r="H2" s="30"/>
-    </row>
-    <row r="3" spans="1:13" s="40" customFormat="1">
-      <c r="A3" s="69"/>
-      <c r="C3" s="40" t="s">
-        <v>398</v>
-      </c>
-      <c r="D3" s="31">
+      <c r="E2" s="74" t="s">
+        <v>338</v>
+      </c>
+      <c r="F2" s="40" t="s">
+        <v>335</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>336</v>
+      </c>
+      <c r="H2" s="40" t="s">
+        <v>336</v>
+      </c>
+      <c r="I2" s="40" t="s">
+        <v>336</v>
+      </c>
+      <c r="J2" s="40" t="s">
+        <v>336</v>
+      </c>
+      <c r="K2" s="40" t="s">
+        <v>336</v>
+      </c>
+      <c r="L2" s="39" t="s">
+        <v>337</v>
+      </c>
+      <c r="M2" s="74" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="40" customFormat="1">
+      <c r="A3" s="40" t="s">
+        <v>326</v>
+      </c>
+      <c r="B3" s="31">
         <f>SUM(Main!J9:J15)</f>
         <v>6</v>
       </c>
-      <c r="H3" s="31"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-    </row>
-    <row r="4" spans="1:13" s="40" customFormat="1">
-      <c r="A4" s="69"/>
-      <c r="D4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-    </row>
-    <row r="5" spans="1:13" s="40" customFormat="1">
-      <c r="A5" s="69"/>
-      <c r="D5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="5"/>
+      <c r="E3" s="123">
+        <v>32</v>
+      </c>
+      <c r="I3" s="31"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="46">
+        <v>5</v>
+      </c>
+      <c r="L3" s="122">
+        <f>SUM(F3:K3)</f>
+        <v>5</v>
+      </c>
+      <c r="M3" s="123">
+        <v>105</v>
+      </c>
+      <c r="N3" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="40" customFormat="1">
+      <c r="B4" s="31"/>
+      <c r="E4" s="123">
+        <v>33</v>
+      </c>
+      <c r="I4" s="31"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="46">
+        <v>5</v>
+      </c>
+      <c r="L4" s="122">
+        <f t="shared" ref="L4:L26" si="0">SUM(F4:K4)</f>
+        <v>5</v>
+      </c>
+      <c r="M4" s="123">
+        <v>106</v>
+      </c>
+      <c r="N4" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="40" customFormat="1">
+      <c r="B5" s="30"/>
+      <c r="E5" s="123">
+        <v>48</v>
+      </c>
+      <c r="F5" s="40">
+        <v>3</v>
+      </c>
+      <c r="G5" s="40">
+        <v>9</v>
+      </c>
+      <c r="I5" s="30"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-    </row>
-    <row r="6" spans="1:13" s="40" customFormat="1">
-      <c r="A6" s="69"/>
-      <c r="D6" s="40" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="40" customFormat="1">
-      <c r="A7" s="69"/>
-      <c r="C7" s="40" t="s">
-        <v>397</v>
-      </c>
-      <c r="D7" s="30">
+      <c r="K5" s="46">
+        <v>5</v>
+      </c>
+      <c r="L5" s="122">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="M5" s="123">
+        <v>119</v>
+      </c>
+      <c r="N5" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="40" customFormat="1">
-      <c r="A8" s="69"/>
-      <c r="C8" s="40" t="s">
-        <v>398</v>
-      </c>
-      <c r="D8" s="31">
+    <row r="6" spans="1:14" s="40" customFormat="1">
+      <c r="B6" s="40" t="s">
+        <v>327</v>
+      </c>
+      <c r="E6" s="123">
+        <v>49</v>
+      </c>
+      <c r="F6" s="40">
+        <v>3</v>
+      </c>
+      <c r="G6" s="40">
+        <v>9</v>
+      </c>
+      <c r="K6" s="46">
+        <v>5</v>
+      </c>
+      <c r="L6" s="122">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="M6" s="123">
+        <v>120</v>
+      </c>
+      <c r="N6" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="40" customFormat="1">
+      <c r="A7" s="40" t="s">
+        <v>325</v>
+      </c>
+      <c r="B7" s="30">
+        <v>1</v>
+      </c>
+      <c r="E7" s="123">
+        <v>117</v>
+      </c>
+      <c r="F7" s="40">
+        <v>3</v>
+      </c>
+      <c r="G7" s="40">
+        <v>9</v>
+      </c>
+      <c r="K7" s="46">
+        <v>5</v>
+      </c>
+      <c r="L7" s="122">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="M7" s="123">
+        <v>121</v>
+      </c>
+      <c r="N7" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="40" customFormat="1">
+      <c r="A8" s="40" t="s">
+        <v>326</v>
+      </c>
+      <c r="B8" s="31">
         <v>0</v>
       </c>
-      <c r="G8" s="61"/>
-    </row>
-    <row r="9" spans="1:13" s="40" customFormat="1">
-      <c r="A9" s="69"/>
-    </row>
-    <row r="10" spans="1:13" s="40" customFormat="1">
-      <c r="A10" s="69"/>
-    </row>
-    <row r="11" spans="1:13" s="40" customFormat="1">
-      <c r="A11" s="69"/>
-      <c r="D11" s="40" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="C12" s="40" t="s">
-        <v>397</v>
-      </c>
-      <c r="D12" s="30">
+      <c r="E8" s="123">
+        <v>118</v>
+      </c>
+      <c r="F8" s="40">
+        <v>3</v>
+      </c>
+      <c r="G8" s="40">
+        <v>9</v>
+      </c>
+      <c r="H8" s="61"/>
+      <c r="K8" s="46">
+        <v>5</v>
+      </c>
+      <c r="L8" s="122">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="M8" s="123">
+        <v>122</v>
+      </c>
+      <c r="N8" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="40" customFormat="1">
-      <c r="A13" s="69"/>
-      <c r="C13" s="40" t="s">
-        <v>398</v>
-      </c>
-      <c r="D13" s="31">
+    <row r="9" spans="1:14" s="40" customFormat="1">
+      <c r="E9" s="123">
+        <v>123</v>
+      </c>
+      <c r="F9" s="40">
+        <v>3</v>
+      </c>
+      <c r="G9" s="40">
+        <v>9</v>
+      </c>
+      <c r="K9" s="49"/>
+      <c r="L9" s="122">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="M9" s="123">
+        <v>125</v>
+      </c>
+      <c r="N9" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="40" customFormat="1">
+      <c r="E10" s="123">
+        <v>124</v>
+      </c>
+      <c r="F10" s="40">
+        <v>3</v>
+      </c>
+      <c r="G10" s="40">
+        <v>9</v>
+      </c>
+      <c r="K10" s="49"/>
+      <c r="L10" s="122">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="M10" s="123">
+        <v>126</v>
+      </c>
+      <c r="N10" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="40" customFormat="1">
+      <c r="B11" s="40" t="s">
+        <v>328</v>
+      </c>
+      <c r="E11" s="123">
+        <v>133</v>
+      </c>
+      <c r="F11" s="40">
+        <v>3</v>
+      </c>
+      <c r="G11" s="40">
+        <v>9</v>
+      </c>
+      <c r="I11" s="46">
+        <v>4</v>
+      </c>
+      <c r="J11" s="40">
+        <v>4</v>
+      </c>
+      <c r="L11" s="122">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="M11" s="123">
+        <v>137</v>
+      </c>
+      <c r="N11" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="40" t="s">
+        <v>325</v>
+      </c>
+      <c r="B12" s="30">
+        <v>1</v>
+      </c>
+      <c r="E12" s="123">
+        <v>134</v>
+      </c>
+      <c r="F12" s="40">
+        <v>3</v>
+      </c>
+      <c r="G12" s="40">
+        <v>9</v>
+      </c>
+      <c r="I12" s="46">
+        <v>4</v>
+      </c>
+      <c r="J12" s="46">
+        <v>4</v>
+      </c>
+      <c r="K12" s="40"/>
+      <c r="L12" s="122">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="M12" s="123">
+        <v>138</v>
+      </c>
+      <c r="N12" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="40" customFormat="1">
+      <c r="A13" s="40" t="s">
+        <v>326</v>
+      </c>
+      <c r="B13" s="31">
         <f>SUM(Main!J19:J25)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" s="40" customFormat="1">
-      <c r="A14" s="69"/>
-    </row>
-    <row r="15" spans="1:13" s="40" customFormat="1">
-      <c r="A15" s="69"/>
-    </row>
-    <row r="16" spans="1:13" s="40" customFormat="1">
-      <c r="A16" s="69"/>
-      <c r="D16" s="40" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="C17" s="40" t="s">
-        <v>397</v>
-      </c>
-      <c r="D17" s="30">
+      <c r="E13" s="123">
+        <v>155</v>
+      </c>
+      <c r="F13" s="40">
+        <v>3</v>
+      </c>
+      <c r="G13" s="40">
+        <v>9</v>
+      </c>
+      <c r="I13" s="46">
+        <v>4</v>
+      </c>
+      <c r="L13" s="122">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="M13" s="123">
+        <v>141</v>
+      </c>
+      <c r="N13" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
-      <c r="C18" s="40" t="s">
-        <v>398</v>
-      </c>
-      <c r="D18" s="31">
+    <row r="14" spans="1:14" s="40" customFormat="1">
+      <c r="E14" s="123">
+        <v>156</v>
+      </c>
+      <c r="F14" s="40">
+        <v>3</v>
+      </c>
+      <c r="G14" s="40">
+        <v>9</v>
+      </c>
+      <c r="I14" s="46">
+        <v>4</v>
+      </c>
+      <c r="L14" s="122">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="M14" s="123">
+        <v>142</v>
+      </c>
+      <c r="N14" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="90"/>
-      <c r="C19" s="40"/>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="C20" s="40"/>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="C21" s="40"/>
-      <c r="D21" s="40" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="C22" s="40" t="s">
-        <v>405</v>
-      </c>
-      <c r="D22" s="40">
+    <row r="15" spans="1:14" s="40" customFormat="1">
+      <c r="E15" s="123">
+        <v>171</v>
+      </c>
+      <c r="F15" s="40">
+        <v>3</v>
+      </c>
+      <c r="G15" s="40">
+        <v>9</v>
+      </c>
+      <c r="K15" s="46">
+        <v>5</v>
+      </c>
+      <c r="L15" s="122">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="M15" s="123">
+        <v>143</v>
+      </c>
+      <c r="N15" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
-      <c r="C23" s="40" t="s">
-        <v>398</v>
-      </c>
-      <c r="D23" s="31">
+    <row r="16" spans="1:14" s="40" customFormat="1">
+      <c r="B16" s="40" t="s">
+        <v>329</v>
+      </c>
+      <c r="E16" s="123">
+        <v>172</v>
+      </c>
+      <c r="F16" s="40">
+        <v>3</v>
+      </c>
+      <c r="G16" s="40">
+        <v>9</v>
+      </c>
+      <c r="K16" s="46">
+        <v>5</v>
+      </c>
+      <c r="L16" s="122">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="M16" s="123">
+        <v>144</v>
+      </c>
+      <c r="N16" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="40" t="s">
+        <v>325</v>
+      </c>
+      <c r="B17" s="30">
+        <v>1</v>
+      </c>
+      <c r="E17" s="39">
+        <v>181</v>
+      </c>
+      <c r="F17" s="40">
+        <v>3</v>
+      </c>
+      <c r="G17" s="40">
+        <v>9</v>
+      </c>
+      <c r="I17" s="46">
+        <v>4</v>
+      </c>
+      <c r="L17" s="122">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="M17" s="123">
+        <v>147</v>
+      </c>
+      <c r="N17" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="40" t="s">
+        <v>326</v>
+      </c>
+      <c r="B18" s="31">
+        <v>1</v>
+      </c>
+      <c r="E18" s="39">
+        <v>182</v>
+      </c>
+      <c r="F18" s="40">
+        <v>3</v>
+      </c>
+      <c r="G18" s="40">
+        <v>9</v>
+      </c>
+      <c r="I18" s="46">
+        <v>4</v>
+      </c>
+      <c r="L18" s="122">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="M18" s="123">
+        <v>148</v>
+      </c>
+      <c r="N18" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="40"/>
+      <c r="E19" s="39">
+        <v>185</v>
+      </c>
+      <c r="F19" s="40">
+        <v>3</v>
+      </c>
+      <c r="G19" s="40">
+        <v>9</v>
+      </c>
+      <c r="I19" s="46">
+        <v>4</v>
+      </c>
+      <c r="L19" s="122">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="M19" s="123">
+        <v>151</v>
+      </c>
+      <c r="N19" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="40"/>
+      <c r="E20" s="39">
+        <v>186</v>
+      </c>
+      <c r="F20" s="40">
+        <v>3</v>
+      </c>
+      <c r="G20" s="40">
+        <v>9</v>
+      </c>
+      <c r="I20" s="46">
+        <v>4</v>
+      </c>
+      <c r="L20" s="122">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="M20" s="123">
+        <v>152</v>
+      </c>
+      <c r="N20" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="40"/>
+      <c r="B21" s="40" t="s">
+        <v>332</v>
+      </c>
+      <c r="E21" s="39">
+        <v>201</v>
+      </c>
+      <c r="F21" s="40">
+        <v>3</v>
+      </c>
+      <c r="G21" s="40">
+        <v>9</v>
+      </c>
+      <c r="I21" s="46">
+        <v>4</v>
+      </c>
+      <c r="L21" s="122">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="M21" s="123">
+        <v>153</v>
+      </c>
+      <c r="N21" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="40" t="s">
+        <v>333</v>
+      </c>
+      <c r="B22" s="40">
+        <v>1</v>
+      </c>
+      <c r="E22" s="39">
+        <v>202</v>
+      </c>
+      <c r="F22" s="40">
+        <v>3</v>
+      </c>
+      <c r="G22" s="40">
+        <v>9</v>
+      </c>
+      <c r="I22" s="46">
+        <v>4</v>
+      </c>
+      <c r="L22" s="122">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="M22" s="123">
+        <v>154</v>
+      </c>
+      <c r="N22" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="40" t="s">
+        <v>326</v>
+      </c>
+      <c r="B23" s="31">
         <f>SUM(Main!J29:J35)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:4">
+      <c r="E23" s="39">
+        <v>203</v>
+      </c>
+      <c r="F23" s="40">
+        <v>3</v>
+      </c>
+      <c r="G23" s="40">
+        <v>9</v>
+      </c>
+      <c r="H23" s="40">
+        <v>5</v>
+      </c>
+      <c r="I23" s="40"/>
+      <c r="L23" s="122">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="M23" s="123">
+        <v>163</v>
+      </c>
+      <c r="N23" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="C24" s="40"/>
-    </row>
-    <row r="25" spans="2:4">
+      <c r="E24" s="39">
+        <v>204</v>
+      </c>
+      <c r="F24" s="40">
+        <v>3</v>
+      </c>
+      <c r="G24" s="40">
+        <v>9</v>
+      </c>
+      <c r="H24" s="40">
+        <v>5</v>
+      </c>
+      <c r="I24" s="40"/>
+      <c r="L24" s="122">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="M24" s="123">
+        <v>164</v>
+      </c>
+      <c r="N24" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="C25" s="40"/>
-    </row>
-    <row r="26" spans="2:4">
+      <c r="E25" s="39">
+        <v>207</v>
+      </c>
+      <c r="F25" s="40">
+        <v>3</v>
+      </c>
+      <c r="G25" s="40">
+        <v>9</v>
+      </c>
+      <c r="I25" s="46">
+        <v>4</v>
+      </c>
+      <c r="L25" s="122">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="M25" s="123">
+        <v>165</v>
+      </c>
+      <c r="N25" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="C26" s="40"/>
-    </row>
-    <row r="27" spans="2:4">
+      <c r="E26" s="39">
+        <v>208</v>
+      </c>
+      <c r="F26" s="40">
+        <v>3</v>
+      </c>
+      <c r="G26" s="40">
+        <v>9</v>
+      </c>
+      <c r="I26" s="46">
+        <v>4</v>
+      </c>
+      <c r="L26" s="122">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="M26" s="123">
+        <v>166</v>
+      </c>
+      <c r="N26" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="C27" s="40"/>
-    </row>
-    <row r="28" spans="2:4">
+      <c r="M27" s="123">
+        <v>179</v>
+      </c>
+      <c r="N27" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="C28" s="5"/>
+      <c r="M28" s="39">
+        <v>180</v>
+      </c>
+      <c r="N28" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="M29" s="39">
+        <v>183</v>
+      </c>
+      <c r="N29" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="M30" s="39">
+        <v>184</v>
+      </c>
+      <c r="N30" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="M31" s="39">
+        <v>187</v>
+      </c>
+      <c r="N31" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="M32" s="39">
+        <v>188</v>
+      </c>
+      <c r="N32" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="13:14">
+      <c r="M33" s="39">
+        <v>191</v>
+      </c>
+      <c r="N33" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="13:14">
+      <c r="M34" s="39">
+        <v>192</v>
+      </c>
+      <c r="N34" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="13:14">
+      <c r="M35" s="39">
+        <v>193</v>
+      </c>
+      <c r="N35" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="13:14">
+      <c r="M36" s="39">
+        <v>194</v>
+      </c>
+      <c r="N36" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="13:14">
+      <c r="M37" s="39">
+        <v>205</v>
+      </c>
+      <c r="N37" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="13:14">
+      <c r="M38" s="39">
+        <v>206</v>
+      </c>
+      <c r="N38" s="39">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J62"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" style="54" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="54" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="54"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="G1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="39" t="s">
+        <v>339</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="124">
+        <v>32</v>
+      </c>
+      <c r="B2" s="54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="124">
+        <v>33</v>
+      </c>
+      <c r="B3" s="54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="124">
+        <v>48</v>
+      </c>
+      <c r="B4" s="54">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="124">
+        <v>49</v>
+      </c>
+      <c r="B5" s="54">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="124">
+        <v>117</v>
+      </c>
+      <c r="B6" s="54">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="124">
+        <v>118</v>
+      </c>
+      <c r="B7" s="54">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="124">
+        <v>123</v>
+      </c>
+      <c r="B8" s="54">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="124">
+        <v>124</v>
+      </c>
+      <c r="B9" s="54">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="124">
         <v>133</v>
       </c>
-      <c r="G4" t="s">
+      <c r="B10" s="54">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="124">
         <v>134</v>
       </c>
-      <c r="H4" t="s">
-        <v>135</v>
-      </c>
-      <c r="J4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
+      <c r="B11" s="54">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="124">
+        <v>155</v>
+      </c>
+      <c r="B12" s="54">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="124">
+        <v>156</v>
+      </c>
+      <c r="B13" s="54">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="124">
+        <v>171</v>
+      </c>
+      <c r="B14" s="54">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="124">
+        <v>172</v>
+      </c>
+      <c r="B15" s="54">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="54">
+        <v>181</v>
+      </c>
+      <c r="B16" s="54">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="54">
+        <v>182</v>
+      </c>
+      <c r="B17" s="54">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="54">
+        <v>185</v>
+      </c>
+      <c r="B18" s="54">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="54">
+        <v>186</v>
+      </c>
+      <c r="B19" s="54">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="54">
+        <v>201</v>
+      </c>
+      <c r="B20" s="54">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="54">
+        <v>202</v>
+      </c>
+      <c r="B21" s="54">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="54">
+        <v>203</v>
+      </c>
+      <c r="B22" s="54">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="54">
+        <v>204</v>
+      </c>
+      <c r="B23" s="54">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="54">
+        <v>207</v>
+      </c>
+      <c r="B24" s="54">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="54">
+        <v>208</v>
+      </c>
+      <c r="B25" s="54">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="124">
+        <v>105</v>
+      </c>
+      <c r="B26" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="124">
+        <v>106</v>
+      </c>
+      <c r="B27" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="124">
+        <v>119</v>
+      </c>
+      <c r="B28" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="124">
+        <v>120</v>
+      </c>
+      <c r="B29" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="124">
+        <v>121</v>
+      </c>
+      <c r="B30" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="124">
+        <v>122</v>
+      </c>
+      <c r="B31" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="124">
+        <v>125</v>
+      </c>
+      <c r="B32" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="124">
+        <v>126</v>
+      </c>
+      <c r="B33" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="124">
         <v>137</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
+      <c r="B34" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="124">
         <v>138</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="B11" t="s">
-        <v>140</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="B35" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="124">
         <v>141</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="B12" t="s">
+      <c r="B36" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="124">
         <v>142</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="B13" t="s">
+      <c r="B37" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="124">
         <v>143</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="B14" t="s">
+      <c r="B38" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="124">
         <v>144</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="B15" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="B16" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" t="s">
+      <c r="B39" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="124">
         <v>147</v>
       </c>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18" t="s">
+      <c r="B40" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="124">
         <v>148</v>
       </c>
-      <c r="D18" t="s">
-        <v>149</v>
-      </c>
-      <c r="E18" t="s">
-        <v>150</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="B41" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="124">
         <v>151</v>
       </c>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" t="s">
+      <c r="B42" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="124">
         <v>152</v>
       </c>
-      <c r="D19" t="s">
-        <v>149</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="B43" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="124">
         <v>153</v>
       </c>
-      <c r="G19" t="s">
+      <c r="B44" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="124">
         <v>154</v>
       </c>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" t="s">
-        <v>155</v>
-      </c>
-      <c r="D20" t="s">
-        <v>149</v>
-      </c>
-      <c r="E20" t="s">
-        <v>156</v>
-      </c>
-      <c r="G20" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="B25" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="B26" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7">
-      <c r="B28" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7">
-      <c r="B29" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7">
-      <c r="B30" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7">
-      <c r="B31" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7">
-      <c r="B32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9">
-      <c r="B33" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9">
-      <c r="B34" t="s">
+      <c r="B45" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="124">
         <v>163</v>
       </c>
-    </row>
-    <row r="35" spans="2:9">
-      <c r="B35" t="s">
+      <c r="B46" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="124">
         <v>164</v>
       </c>
-    </row>
-    <row r="36" spans="2:9">
-      <c r="B36" t="s">
+      <c r="B47" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="124">
         <v>165</v>
       </c>
-    </row>
-    <row r="37" spans="2:9">
-      <c r="B37" t="s">
+      <c r="B48" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="124">
         <v>166</v>
       </c>
-    </row>
-    <row r="38" spans="2:9">
-      <c r="B38" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9">
-      <c r="B39" t="s">
-        <v>123</v>
-      </c>
-      <c r="G39" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9">
-      <c r="B41" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9">
-      <c r="B42" t="s">
-        <v>170</v>
-      </c>
-      <c r="G42" t="s">
-        <v>171</v>
-      </c>
-      <c r="H42" t="s">
-        <v>172</v>
-      </c>
-      <c r="I42" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9">
-      <c r="B43" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9">
-      <c r="B44" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9">
-      <c r="B45" t="s">
-        <v>176</v>
-      </c>
-      <c r="G45" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9">
-      <c r="B46" t="s">
-        <v>119</v>
-      </c>
-      <c r="G46" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9">
-      <c r="B47" t="s">
+      <c r="B49" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="124">
         <v>179</v>
       </c>
-      <c r="G47" t="s">
+      <c r="B50" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="54">
         <v>180</v>
       </c>
-    </row>
-    <row r="49" spans="2:7">
-      <c r="B49" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7">
-      <c r="B50" t="s">
-        <v>182</v>
-      </c>
-      <c r="G50" t="s">
+      <c r="B51" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="54">
         <v>183</v>
       </c>
-    </row>
-    <row r="51" spans="2:7">
-      <c r="B51" t="s">
-        <v>120</v>
-      </c>
-      <c r="G51" t="s">
+      <c r="B52" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="54">
         <v>184</v>
       </c>
-    </row>
-    <row r="52" spans="2:7">
-      <c r="B52" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7">
-      <c r="B53" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7">
-      <c r="B54" t="s">
+      <c r="B53" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="54">
         <v>187</v>
       </c>
-    </row>
-    <row r="56" spans="2:7">
-      <c r="B56" t="s">
+      <c r="B54" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="54">
         <v>188</v>
       </c>
-    </row>
-    <row r="60" spans="2:7" s="70" customFormat="1">
-      <c r="B60" s="70" t="s">
-        <v>189</v>
-      </c>
-      <c r="D60" s="70" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" s="103" customFormat="1">
-      <c r="B62" s="103" t="s">
+      <c r="B55" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="54">
         <v>191</v>
       </c>
-    </row>
+      <c r="B56" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="54">
+        <v>192</v>
+      </c>
+      <c r="B57" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="54">
+        <v>193</v>
+      </c>
+      <c r="B58" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="54">
+        <v>194</v>
+      </c>
+      <c r="B59" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" s="125" customFormat="1">
+      <c r="A60" s="54">
+        <v>205</v>
+      </c>
+      <c r="B60" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="54">
+        <v>206</v>
+      </c>
+      <c r="B61" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" s="126" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6940,1524 +6206,1524 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29" style="86" customWidth="1"/>
+    <col min="1" max="1" width="29" style="84" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" style="40" customWidth="1"/>
     <col min="3" max="4" width="11.42578125" style="40"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="39" customFormat="1">
       <c r="A1" s="39" t="s">
-        <v>192</v>
+        <v>120</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>193</v>
+        <v>121</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>194</v>
+        <v>122</v>
       </c>
       <c r="D1" s="39" t="s">
-        <v>195</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="86" t="s">
-        <v>196</v>
+      <c r="A2" s="84" t="s">
+        <v>124</v>
       </c>
       <c r="B2" s="40">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="86" t="s">
-        <v>197</v>
+      <c r="A3" s="84" t="s">
+        <v>125</v>
       </c>
       <c r="B3" s="40">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="86" t="s">
-        <v>198</v>
+      <c r="A4" s="84" t="s">
+        <v>126</v>
       </c>
       <c r="B4" s="40">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="86" t="s">
-        <v>199</v>
+      <c r="A5" s="84" t="s">
+        <v>127</v>
       </c>
       <c r="B5" s="40">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="86" t="s">
-        <v>200</v>
+      <c r="A6" s="84" t="s">
+        <v>128</v>
       </c>
       <c r="B6" s="40">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="86" t="s">
-        <v>201</v>
+      <c r="A7" s="84" t="s">
+        <v>129</v>
       </c>
       <c r="B7" s="40">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="86" t="s">
-        <v>202</v>
+      <c r="A8" s="84" t="s">
+        <v>130</v>
       </c>
       <c r="B8" s="40">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="86" t="s">
-        <v>203</v>
+      <c r="A9" s="84" t="s">
+        <v>131</v>
       </c>
       <c r="B9" s="40">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="86" t="s">
-        <v>204</v>
+      <c r="A10" s="84" t="s">
+        <v>132</v>
       </c>
       <c r="C10" s="40">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="86" t="s">
-        <v>205</v>
+      <c r="A11" s="84" t="s">
+        <v>133</v>
       </c>
       <c r="D11" s="40">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="86" t="s">
-        <v>206</v>
+      <c r="A12" s="84" t="s">
+        <v>134</v>
       </c>
       <c r="C12" s="40">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="86" t="s">
-        <v>207</v>
+      <c r="A13" s="84" t="s">
+        <v>135</v>
       </c>
       <c r="D13" s="40">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="86" t="s">
-        <v>208</v>
+      <c r="A14" s="84" t="s">
+        <v>136</v>
       </c>
       <c r="B14" s="40">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="86" t="s">
-        <v>209</v>
+      <c r="A15" s="84" t="s">
+        <v>137</v>
       </c>
       <c r="B15" s="40">
         <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="86" t="s">
-        <v>210</v>
+      <c r="A16" s="84" t="s">
+        <v>138</v>
       </c>
       <c r="C16" s="40">
         <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="86" t="s">
-        <v>211</v>
+      <c r="A17" s="84" t="s">
+        <v>139</v>
       </c>
       <c r="D17" s="40">
         <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="86" t="s">
-        <v>212</v>
+      <c r="A18" s="84" t="s">
+        <v>140</v>
       </c>
       <c r="C18" s="40">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="86" t="s">
-        <v>213</v>
+      <c r="A19" s="84" t="s">
+        <v>141</v>
       </c>
       <c r="D19" s="40">
         <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="86" t="s">
-        <v>214</v>
+      <c r="A20" s="84" t="s">
+        <v>142</v>
       </c>
       <c r="C20" s="40">
         <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="86" t="s">
-        <v>215</v>
+      <c r="A21" s="84" t="s">
+        <v>143</v>
       </c>
       <c r="D21" s="40">
         <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="86" t="s">
-        <v>216</v>
+      <c r="A22" s="84" t="s">
+        <v>144</v>
       </c>
       <c r="C22" s="40">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="86" t="s">
-        <v>217</v>
+      <c r="A23" s="84" t="s">
+        <v>145</v>
       </c>
       <c r="D23" s="40">
         <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="86" t="s">
-        <v>218</v>
+      <c r="A24" s="84" t="s">
+        <v>146</v>
       </c>
       <c r="B24" s="40">
         <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="86" t="s">
-        <v>219</v>
+      <c r="A25" s="84" t="s">
+        <v>147</v>
       </c>
       <c r="C25" s="40">
         <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="86" t="s">
-        <v>220</v>
+      <c r="A26" s="84" t="s">
+        <v>148</v>
       </c>
       <c r="D26" s="40">
         <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="86" t="s">
-        <v>221</v>
+      <c r="A27" s="84" t="s">
+        <v>149</v>
       </c>
       <c r="C27" s="40">
         <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="86" t="s">
-        <v>222</v>
+      <c r="A28" s="84" t="s">
+        <v>150</v>
       </c>
       <c r="D28" s="40">
         <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="86" t="s">
-        <v>223</v>
+      <c r="A29" s="84" t="s">
+        <v>151</v>
       </c>
       <c r="C29" s="40">
         <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="86" t="s">
-        <v>224</v>
+      <c r="A30" s="84" t="s">
+        <v>152</v>
       </c>
       <c r="D30" s="40">
         <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="86" t="s">
-        <v>225</v>
+      <c r="A31" s="84" t="s">
+        <v>153</v>
       </c>
       <c r="C31" s="40">
         <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="86" t="s">
-        <v>226</v>
+      <c r="A32" s="84" t="s">
+        <v>154</v>
       </c>
       <c r="D32" s="40">
         <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="86" t="s">
-        <v>227</v>
+      <c r="A33" s="84" t="s">
+        <v>155</v>
       </c>
       <c r="C33" s="40">
         <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="86" t="s">
-        <v>228</v>
+      <c r="A34" s="84" t="s">
+        <v>156</v>
       </c>
       <c r="D34" s="40">
         <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="86" t="s">
-        <v>229</v>
+      <c r="A35" s="84" t="s">
+        <v>157</v>
       </c>
       <c r="C35" s="40">
         <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="86" t="s">
-        <v>230</v>
+      <c r="A36" s="84" t="s">
+        <v>158</v>
       </c>
       <c r="D36" s="40">
         <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="86" t="s">
-        <v>231</v>
+      <c r="A37" s="84" t="s">
+        <v>159</v>
       </c>
       <c r="C37" s="40">
         <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="86" t="s">
-        <v>232</v>
+      <c r="A38" s="84" t="s">
+        <v>160</v>
       </c>
       <c r="D38" s="40">
         <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="86" t="s">
-        <v>233</v>
+      <c r="A39" s="84" t="s">
+        <v>161</v>
       </c>
       <c r="C39" s="40">
         <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="86" t="s">
-        <v>234</v>
+      <c r="A40" s="84" t="s">
+        <v>162</v>
       </c>
       <c r="D40" s="40">
         <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="86" t="s">
-        <v>235</v>
+      <c r="A41" s="84" t="s">
+        <v>163</v>
       </c>
       <c r="C41" s="40">
         <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="86" t="s">
-        <v>236</v>
+      <c r="A42" s="84" t="s">
+        <v>164</v>
       </c>
       <c r="D42" s="40">
         <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="86" t="s">
-        <v>237</v>
+      <c r="A43" s="84" t="s">
+        <v>165</v>
       </c>
       <c r="C43" s="40">
         <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="86" t="s">
-        <v>238</v>
+      <c r="A44" s="84" t="s">
+        <v>166</v>
       </c>
       <c r="D44" s="40">
         <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="86" t="s">
-        <v>239</v>
+      <c r="A45" s="84" t="s">
+        <v>167</v>
       </c>
       <c r="B45" s="40">
         <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="86" t="s">
-        <v>240</v>
+      <c r="A46" s="84" t="s">
+        <v>168</v>
       </c>
       <c r="B46" s="40">
         <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="86" t="s">
-        <v>241</v>
+      <c r="A47" s="84" t="s">
+        <v>169</v>
       </c>
       <c r="B47" s="40">
         <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="86" t="s">
-        <v>242</v>
+      <c r="A48" s="84" t="s">
+        <v>170</v>
       </c>
       <c r="B48" s="40">
         <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="86" t="s">
-        <v>243</v>
+      <c r="A49" s="84" t="s">
+        <v>171</v>
       </c>
       <c r="C49" s="40">
         <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="86" t="s">
-        <v>244</v>
+      <c r="A50" s="84" t="s">
+        <v>172</v>
       </c>
       <c r="D50" s="40">
         <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="86" t="s">
-        <v>245</v>
+      <c r="A51" s="84" t="s">
+        <v>173</v>
       </c>
       <c r="C51" s="40">
         <v>81</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="86" t="s">
-        <v>246</v>
+      <c r="A52" s="84" t="s">
+        <v>174</v>
       </c>
       <c r="C52" s="40">
         <v>82</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="86" t="s">
-        <v>247</v>
+      <c r="A53" s="84" t="s">
+        <v>175</v>
       </c>
       <c r="C53" s="40">
         <v>83</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="86" t="s">
-        <v>248</v>
+      <c r="A54" s="84" t="s">
+        <v>176</v>
       </c>
       <c r="C54" s="40">
         <v>84</v>
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="86" t="s">
-        <v>249</v>
+      <c r="A55" s="84" t="s">
+        <v>177</v>
       </c>
       <c r="C55" s="40">
         <v>85</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="86" t="s">
-        <v>250</v>
+      <c r="A56" s="84" t="s">
+        <v>178</v>
       </c>
       <c r="C56" s="40">
         <v>86</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="86" t="s">
-        <v>251</v>
+      <c r="A57" s="84" t="s">
+        <v>179</v>
       </c>
       <c r="B57" s="40">
         <v>87</v>
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="86" t="s">
-        <v>252</v>
+      <c r="A58" s="84" t="s">
+        <v>180</v>
       </c>
       <c r="D58" s="40">
         <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="86" t="s">
-        <v>253</v>
+      <c r="A59" s="84" t="s">
+        <v>181</v>
       </c>
       <c r="D59" s="40">
         <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="86" t="s">
-        <v>254</v>
+      <c r="A60" s="84" t="s">
+        <v>182</v>
       </c>
       <c r="D60" s="40">
         <v>91</v>
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="86" t="s">
-        <v>255</v>
+      <c r="A61" s="84" t="s">
+        <v>183</v>
       </c>
       <c r="D61" s="40">
         <v>92</v>
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="86" t="s">
-        <v>256</v>
+      <c r="A62" s="84" t="s">
+        <v>184</v>
       </c>
       <c r="D62" s="40">
         <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="86" t="s">
-        <v>257</v>
+      <c r="A63" s="84" t="s">
+        <v>185</v>
       </c>
       <c r="D63" s="40">
         <v>94</v>
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="86" t="s">
-        <v>258</v>
+      <c r="A64" s="84" t="s">
+        <v>186</v>
       </c>
       <c r="C64" s="40">
         <v>96</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="86" t="s">
-        <v>259</v>
+      <c r="A65" s="84" t="s">
+        <v>187</v>
       </c>
       <c r="D65" s="40">
         <v>97</v>
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="86" t="s">
-        <v>260</v>
+      <c r="A66" s="84" t="s">
+        <v>188</v>
       </c>
       <c r="C66" s="40">
         <v>101</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="86" t="s">
-        <v>261</v>
+      <c r="A67" s="84" t="s">
+        <v>189</v>
       </c>
       <c r="D67" s="40">
         <v>102</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="86" t="s">
-        <v>262</v>
+      <c r="A68" s="84" t="s">
+        <v>190</v>
       </c>
       <c r="C68" s="40">
         <v>103</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="86" t="s">
-        <v>263</v>
+      <c r="A69" s="84" t="s">
+        <v>191</v>
       </c>
       <c r="D69" s="40">
         <v>104</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="86" t="s">
-        <v>264</v>
+      <c r="A70" s="84" t="s">
+        <v>192</v>
       </c>
       <c r="C70" s="40">
         <v>105</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="86" t="s">
-        <v>265</v>
+      <c r="A71" s="84" t="s">
+        <v>193</v>
       </c>
       <c r="D71" s="40">
         <v>106</v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="86" t="s">
-        <v>266</v>
+      <c r="A72" s="84" t="s">
+        <v>194</v>
       </c>
       <c r="C72" s="40">
         <v>107</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="86" t="s">
-        <v>267</v>
+      <c r="A73" s="84" t="s">
+        <v>195</v>
       </c>
       <c r="D73" s="40">
         <v>108</v>
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="86" t="s">
-        <v>268</v>
+      <c r="A74" s="84" t="s">
+        <v>196</v>
       </c>
       <c r="C74" s="40">
         <v>109</v>
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="86" t="s">
-        <v>269</v>
+      <c r="A75" s="84" t="s">
+        <v>197</v>
       </c>
       <c r="D75" s="40">
         <v>110</v>
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="86" t="s">
-        <v>270</v>
+      <c r="A76" s="84" t="s">
+        <v>198</v>
       </c>
       <c r="C76" s="40">
         <v>113</v>
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="86" t="s">
-        <v>271</v>
+      <c r="A77" s="84" t="s">
+        <v>199</v>
       </c>
       <c r="D77" s="40">
         <v>114</v>
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="86" t="s">
-        <v>272</v>
+      <c r="A78" s="84" t="s">
+        <v>200</v>
       </c>
       <c r="C78" s="40">
         <v>115</v>
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="86" t="s">
-        <v>273</v>
+      <c r="A79" s="84" t="s">
+        <v>201</v>
       </c>
       <c r="D79" s="40">
         <v>116</v>
       </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="86" t="s">
-        <v>274</v>
+      <c r="A80" s="84" t="s">
+        <v>202</v>
       </c>
       <c r="C80" s="40">
         <v>117</v>
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="86" t="s">
-        <v>275</v>
+      <c r="A81" s="84" t="s">
+        <v>203</v>
       </c>
       <c r="D81" s="40">
         <v>118</v>
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="86" t="s">
-        <v>276</v>
+      <c r="A82" s="84" t="s">
+        <v>204</v>
       </c>
       <c r="C82" s="40">
         <v>119</v>
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="86" t="s">
-        <v>277</v>
+      <c r="A83" s="84" t="s">
+        <v>205</v>
       </c>
       <c r="D83" s="40">
         <v>120</v>
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="86" t="s">
-        <v>278</v>
+      <c r="A84" s="84" t="s">
+        <v>206</v>
       </c>
       <c r="C84" s="40">
         <v>121</v>
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="86" t="s">
-        <v>279</v>
+      <c r="A85" s="84" t="s">
+        <v>207</v>
       </c>
       <c r="D85" s="40">
         <v>122</v>
       </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="86" t="s">
-        <v>280</v>
+      <c r="A86" s="84" t="s">
+        <v>208</v>
       </c>
       <c r="C86" s="40">
         <v>123</v>
       </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="86" t="s">
-        <v>281</v>
+      <c r="A87" s="84" t="s">
+        <v>209</v>
       </c>
       <c r="D87" s="40">
         <v>124</v>
       </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="86" t="s">
-        <v>282</v>
+      <c r="A88" s="84" t="s">
+        <v>210</v>
       </c>
       <c r="C88" s="40">
         <v>125</v>
       </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="86" t="s">
-        <v>283</v>
+      <c r="A89" s="84" t="s">
+        <v>211</v>
       </c>
       <c r="D89" s="40">
         <v>126</v>
       </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="86" t="s">
-        <v>284</v>
+      <c r="A90" s="84" t="s">
+        <v>212</v>
       </c>
       <c r="C90" s="40">
         <v>129</v>
       </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="86" t="s">
-        <v>285</v>
+      <c r="A91" s="84" t="s">
+        <v>213</v>
       </c>
       <c r="D91" s="40">
         <v>130</v>
       </c>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="86" t="s">
-        <v>286</v>
+      <c r="A92" s="84" t="s">
+        <v>214</v>
       </c>
       <c r="C92" s="40">
         <v>133</v>
       </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="86" t="s">
-        <v>287</v>
+      <c r="A93" s="84" t="s">
+        <v>215</v>
       </c>
       <c r="D93" s="40">
         <v>134</v>
       </c>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="86" t="s">
-        <v>288</v>
+      <c r="A94" s="84" t="s">
+        <v>216</v>
       </c>
       <c r="C94" s="40">
         <v>135</v>
       </c>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="86" t="s">
-        <v>289</v>
+      <c r="A95" s="84" t="s">
+        <v>217</v>
       </c>
       <c r="D95" s="40">
         <v>136</v>
       </c>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="86" t="s">
-        <v>290</v>
+      <c r="A96" s="84" t="s">
+        <v>218</v>
       </c>
       <c r="C96" s="40">
         <v>137</v>
       </c>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="86" t="s">
-        <v>291</v>
+      <c r="A97" s="84" t="s">
+        <v>219</v>
       </c>
       <c r="D97" s="40">
         <v>138</v>
       </c>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="86" t="s">
-        <v>292</v>
+      <c r="A98" s="84" t="s">
+        <v>220</v>
       </c>
       <c r="C98" s="40">
         <v>139</v>
       </c>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="86" t="s">
-        <v>293</v>
+      <c r="A99" s="84" t="s">
+        <v>221</v>
       </c>
       <c r="D99" s="40">
         <v>140</v>
       </c>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="86" t="s">
-        <v>294</v>
+      <c r="A100" s="84" t="s">
+        <v>222</v>
       </c>
       <c r="C100" s="40">
         <v>141</v>
       </c>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="86" t="s">
-        <v>295</v>
+      <c r="A101" s="84" t="s">
+        <v>223</v>
       </c>
       <c r="D101" s="40">
         <v>142</v>
       </c>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="86" t="s">
-        <v>296</v>
+      <c r="A102" s="84" t="s">
+        <v>224</v>
       </c>
       <c r="C102" s="40">
         <v>143</v>
       </c>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="86" t="s">
-        <v>297</v>
+      <c r="A103" s="84" t="s">
+        <v>225</v>
       </c>
       <c r="D103" s="40">
         <v>144</v>
       </c>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="86" t="s">
-        <v>298</v>
+      <c r="A104" s="84" t="s">
+        <v>226</v>
       </c>
       <c r="C104" s="40">
         <v>145</v>
       </c>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="86" t="s">
-        <v>299</v>
+      <c r="A105" s="84" t="s">
+        <v>227</v>
       </c>
       <c r="D105" s="40">
         <v>146</v>
       </c>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="86" t="s">
-        <v>300</v>
+      <c r="A106" s="84" t="s">
+        <v>228</v>
       </c>
       <c r="C106" s="40">
         <v>147</v>
       </c>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="86" t="s">
-        <v>301</v>
+      <c r="A107" s="84" t="s">
+        <v>229</v>
       </c>
       <c r="D107" s="40">
         <v>148</v>
       </c>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="86" t="s">
-        <v>302</v>
+      <c r="A108" s="84" t="s">
+        <v>230</v>
       </c>
       <c r="C108" s="40">
         <v>149</v>
       </c>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="86" t="s">
-        <v>303</v>
+      <c r="A109" s="84" t="s">
+        <v>231</v>
       </c>
       <c r="D109" s="40">
         <v>150</v>
       </c>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="86" t="s">
-        <v>304</v>
+      <c r="A110" s="84" t="s">
+        <v>232</v>
       </c>
       <c r="C110" s="40">
         <v>151</v>
       </c>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="86" t="s">
-        <v>305</v>
+      <c r="A111" s="84" t="s">
+        <v>233</v>
       </c>
       <c r="D111" s="40">
         <v>152</v>
       </c>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="86" t="s">
-        <v>306</v>
+      <c r="A112" s="84" t="s">
+        <v>234</v>
       </c>
       <c r="C112" s="40">
         <v>153</v>
       </c>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" s="86" t="s">
-        <v>307</v>
+      <c r="A113" s="84" t="s">
+        <v>235</v>
       </c>
       <c r="D113" s="40">
         <v>154</v>
       </c>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="86" t="s">
-        <v>308</v>
+      <c r="A114" s="84" t="s">
+        <v>236</v>
       </c>
       <c r="C114" s="40">
         <v>155</v>
       </c>
     </row>
     <row r="115" spans="1:4">
-      <c r="A115" s="86" t="s">
-        <v>309</v>
+      <c r="A115" s="84" t="s">
+        <v>237</v>
       </c>
       <c r="D115" s="40">
         <v>156</v>
       </c>
     </row>
     <row r="116" spans="1:4">
-      <c r="A116" s="86" t="s">
-        <v>310</v>
+      <c r="A116" s="84" t="s">
+        <v>238</v>
       </c>
       <c r="C116" s="40">
         <v>157</v>
       </c>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" s="86" t="s">
-        <v>311</v>
+      <c r="A117" s="84" t="s">
+        <v>239</v>
       </c>
       <c r="D117" s="40">
         <v>158</v>
       </c>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="86" t="s">
-        <v>312</v>
+      <c r="A118" s="84" t="s">
+        <v>240</v>
       </c>
       <c r="C118" s="40">
         <v>161</v>
       </c>
     </row>
     <row r="119" spans="1:4">
-      <c r="A119" s="86" t="s">
-        <v>313</v>
+      <c r="A119" s="84" t="s">
+        <v>241</v>
       </c>
       <c r="D119" s="40">
         <v>162</v>
       </c>
     </row>
     <row r="120" spans="1:4">
-      <c r="A120" s="86" t="s">
-        <v>314</v>
+      <c r="A120" s="84" t="s">
+        <v>242</v>
       </c>
       <c r="C120" s="40">
         <v>163</v>
       </c>
     </row>
     <row r="121" spans="1:4">
-      <c r="A121" s="86" t="s">
-        <v>315</v>
+      <c r="A121" s="84" t="s">
+        <v>243</v>
       </c>
       <c r="D121" s="40">
         <v>164</v>
       </c>
     </row>
     <row r="122" spans="1:4">
-      <c r="A122" s="86" t="s">
-        <v>316</v>
+      <c r="A122" s="84" t="s">
+        <v>244</v>
       </c>
       <c r="C122" s="40">
         <v>165</v>
       </c>
     </row>
     <row r="123" spans="1:4">
-      <c r="A123" s="86" t="s">
-        <v>317</v>
+      <c r="A123" s="84" t="s">
+        <v>245</v>
       </c>
       <c r="D123" s="40">
         <v>166</v>
       </c>
     </row>
     <row r="124" spans="1:4">
-      <c r="A124" s="86" t="s">
-        <v>318</v>
+      <c r="A124" s="84" t="s">
+        <v>246</v>
       </c>
       <c r="C124" s="40">
         <v>167</v>
       </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="86" t="s">
-        <v>319</v>
+      <c r="A125" s="84" t="s">
+        <v>247</v>
       </c>
       <c r="D125" s="40">
         <v>168</v>
       </c>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" s="86" t="s">
-        <v>320</v>
+      <c r="A126" s="84" t="s">
+        <v>248</v>
       </c>
       <c r="C126" s="40">
         <v>169</v>
       </c>
     </row>
     <row r="127" spans="1:4">
-      <c r="A127" s="86" t="s">
-        <v>321</v>
+      <c r="A127" s="84" t="s">
+        <v>249</v>
       </c>
       <c r="D127" s="40">
         <v>170</v>
       </c>
     </row>
     <row r="128" spans="1:4">
-      <c r="A128" s="86" t="s">
-        <v>322</v>
+      <c r="A128" s="84" t="s">
+        <v>250</v>
       </c>
       <c r="C128" s="40">
         <v>171</v>
       </c>
     </row>
     <row r="129" spans="1:4">
-      <c r="A129" s="86" t="s">
-        <v>323</v>
+      <c r="A129" s="84" t="s">
+        <v>251</v>
       </c>
       <c r="D129" s="40">
         <v>172</v>
       </c>
     </row>
     <row r="130" spans="1:4">
-      <c r="A130" s="86" t="s">
-        <v>324</v>
+      <c r="A130" s="84" t="s">
+        <v>252</v>
       </c>
       <c r="C130" s="40">
         <v>173</v>
       </c>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="86" t="s">
-        <v>325</v>
+      <c r="A131" s="84" t="s">
+        <v>253</v>
       </c>
       <c r="D131" s="40">
         <v>174</v>
       </c>
     </row>
     <row r="132" spans="1:4">
-      <c r="A132" s="86" t="s">
-        <v>326</v>
+      <c r="A132" s="84" t="s">
+        <v>254</v>
       </c>
       <c r="C132" s="40">
         <v>175</v>
       </c>
     </row>
     <row r="133" spans="1:4">
-      <c r="A133" s="86" t="s">
-        <v>327</v>
+      <c r="A133" s="84" t="s">
+        <v>255</v>
       </c>
       <c r="D133" s="40">
         <v>176</v>
       </c>
     </row>
     <row r="134" spans="1:4">
-      <c r="A134" s="86" t="s">
-        <v>328</v>
+      <c r="A134" s="84" t="s">
+        <v>256</v>
       </c>
       <c r="C134" s="40">
         <v>177</v>
       </c>
     </row>
     <row r="135" spans="1:4">
-      <c r="A135" s="86" t="s">
-        <v>329</v>
+      <c r="A135" s="84" t="s">
+        <v>257</v>
       </c>
       <c r="D135" s="40">
         <v>178</v>
       </c>
     </row>
     <row r="136" spans="1:4">
-      <c r="A136" s="86" t="s">
-        <v>330</v>
+      <c r="A136" s="84" t="s">
+        <v>258</v>
       </c>
       <c r="C136" s="40">
         <v>179</v>
       </c>
     </row>
     <row r="137" spans="1:4">
-      <c r="A137" s="86" t="s">
-        <v>331</v>
+      <c r="A137" s="84" t="s">
+        <v>259</v>
       </c>
       <c r="D137" s="40">
         <v>180</v>
       </c>
     </row>
     <row r="138" spans="1:4">
-      <c r="A138" s="86" t="s">
-        <v>332</v>
+      <c r="A138" s="84" t="s">
+        <v>260</v>
       </c>
       <c r="C138" s="40">
         <v>181</v>
       </c>
     </row>
     <row r="139" spans="1:4">
-      <c r="A139" s="86" t="s">
-        <v>333</v>
+      <c r="A139" s="84" t="s">
+        <v>261</v>
       </c>
       <c r="D139" s="40">
         <v>182</v>
       </c>
     </row>
     <row r="140" spans="1:4">
-      <c r="A140" s="86" t="s">
-        <v>334</v>
+      <c r="A140" s="84" t="s">
+        <v>262</v>
       </c>
       <c r="C140" s="40">
         <v>183</v>
       </c>
     </row>
     <row r="141" spans="1:4">
-      <c r="A141" s="86" t="s">
-        <v>335</v>
+      <c r="A141" s="84" t="s">
+        <v>263</v>
       </c>
       <c r="D141" s="40">
         <v>184</v>
       </c>
     </row>
     <row r="142" spans="1:4">
-      <c r="A142" s="86" t="s">
-        <v>336</v>
+      <c r="A142" s="84" t="s">
+        <v>264</v>
       </c>
       <c r="C142" s="40">
         <v>185</v>
       </c>
     </row>
     <row r="143" spans="1:4">
-      <c r="A143" s="86" t="s">
-        <v>337</v>
+      <c r="A143" s="84" t="s">
+        <v>265</v>
       </c>
       <c r="D143" s="40">
         <v>186</v>
       </c>
     </row>
     <row r="144" spans="1:4">
-      <c r="A144" s="86" t="s">
-        <v>338</v>
+      <c r="A144" s="84" t="s">
+        <v>266</v>
       </c>
       <c r="C144" s="40">
         <v>187</v>
       </c>
     </row>
     <row r="145" spans="1:4">
-      <c r="A145" s="86" t="s">
-        <v>339</v>
+      <c r="A145" s="84" t="s">
+        <v>267</v>
       </c>
       <c r="D145" s="40">
         <v>188</v>
       </c>
     </row>
     <row r="146" spans="1:4">
-      <c r="A146" s="86" t="s">
-        <v>340</v>
+      <c r="A146" s="84" t="s">
+        <v>268</v>
       </c>
       <c r="C146" s="40">
         <v>191</v>
       </c>
     </row>
     <row r="147" spans="1:4">
-      <c r="A147" s="86" t="s">
-        <v>341</v>
+      <c r="A147" s="84" t="s">
+        <v>269</v>
       </c>
       <c r="D147" s="40">
         <v>192</v>
       </c>
     </row>
     <row r="148" spans="1:4">
-      <c r="A148" s="86" t="s">
-        <v>342</v>
+      <c r="A148" s="84" t="s">
+        <v>270</v>
       </c>
       <c r="C148" s="40">
         <v>193</v>
       </c>
     </row>
     <row r="149" spans="1:4">
-      <c r="A149" s="86" t="s">
-        <v>343</v>
+      <c r="A149" s="84" t="s">
+        <v>271</v>
       </c>
       <c r="D149" s="40">
         <v>194</v>
       </c>
     </row>
     <row r="150" spans="1:4">
-      <c r="A150" s="86" t="s">
-        <v>344</v>
+      <c r="A150" s="84" t="s">
+        <v>272</v>
       </c>
       <c r="C150" s="40">
         <v>195</v>
       </c>
     </row>
     <row r="151" spans="1:4">
-      <c r="A151" s="86" t="s">
-        <v>345</v>
+      <c r="A151" s="84" t="s">
+        <v>273</v>
       </c>
       <c r="D151" s="40">
         <v>196</v>
       </c>
     </row>
     <row r="152" spans="1:4">
-      <c r="A152" s="86" t="s">
-        <v>346</v>
+      <c r="A152" s="84" t="s">
+        <v>274</v>
       </c>
       <c r="C152" s="40">
         <v>197</v>
       </c>
     </row>
     <row r="153" spans="1:4">
-      <c r="A153" s="86" t="s">
-        <v>347</v>
+      <c r="A153" s="84" t="s">
+        <v>275</v>
       </c>
       <c r="D153" s="40">
         <v>198</v>
       </c>
     </row>
     <row r="154" spans="1:4">
-      <c r="A154" s="86" t="s">
-        <v>348</v>
+      <c r="A154" s="84" t="s">
+        <v>276</v>
       </c>
       <c r="C154" s="40">
         <v>199</v>
       </c>
     </row>
     <row r="155" spans="1:4">
-      <c r="A155" s="86" t="s">
-        <v>349</v>
+      <c r="A155" s="84" t="s">
+        <v>277</v>
       </c>
       <c r="D155" s="40">
         <v>200</v>
       </c>
     </row>
     <row r="156" spans="1:4">
-      <c r="A156" s="86" t="s">
-        <v>350</v>
+      <c r="A156" s="84" t="s">
+        <v>278</v>
       </c>
       <c r="C156" s="40">
         <v>201</v>
       </c>
     </row>
     <row r="157" spans="1:4">
-      <c r="A157" s="86" t="s">
-        <v>351</v>
+      <c r="A157" s="84" t="s">
+        <v>279</v>
       </c>
       <c r="D157" s="40">
         <v>202</v>
       </c>
     </row>
     <row r="158" spans="1:4">
-      <c r="A158" s="86" t="s">
-        <v>352</v>
+      <c r="A158" s="84" t="s">
+        <v>280</v>
       </c>
       <c r="C158" s="40">
         <v>203</v>
       </c>
     </row>
     <row r="159" spans="1:4">
-      <c r="A159" s="86" t="s">
-        <v>353</v>
+      <c r="A159" s="84" t="s">
+        <v>281</v>
       </c>
       <c r="D159" s="40">
         <v>204</v>
       </c>
     </row>
     <row r="160" spans="1:4">
-      <c r="A160" s="86" t="s">
-        <v>354</v>
+      <c r="A160" s="84" t="s">
+        <v>282</v>
       </c>
       <c r="C160" s="40">
         <v>205</v>
       </c>
     </row>
     <row r="161" spans="1:4">
-      <c r="A161" s="86" t="s">
-        <v>355</v>
+      <c r="A161" s="84" t="s">
+        <v>283</v>
       </c>
       <c r="D161" s="40">
         <v>206</v>
       </c>
     </row>
     <row r="162" spans="1:4">
-      <c r="A162" s="86" t="s">
-        <v>356</v>
+      <c r="A162" s="84" t="s">
+        <v>284</v>
       </c>
       <c r="C162" s="40">
         <v>207</v>
       </c>
     </row>
     <row r="163" spans="1:4">
-      <c r="A163" s="86" t="s">
-        <v>357</v>
+      <c r="A163" s="84" t="s">
+        <v>285</v>
       </c>
       <c r="D163" s="40">
         <v>208</v>
       </c>
     </row>
     <row r="164" spans="1:4">
-      <c r="A164" s="86" t="s">
-        <v>204</v>
+      <c r="A164" s="84" t="s">
+        <v>132</v>
       </c>
       <c r="C164" s="40">
         <v>24</v>
       </c>
     </row>
     <row r="165" spans="1:4">
-      <c r="A165" s="86" t="s">
-        <v>205</v>
+      <c r="A165" s="84" t="s">
+        <v>133</v>
       </c>
       <c r="D165" s="40">
         <v>31</v>
       </c>
     </row>
     <row r="166" spans="1:4">
-      <c r="A166" s="86" t="s">
-        <v>208</v>
+      <c r="A166" s="84" t="s">
+        <v>136</v>
       </c>
       <c r="B166" s="40">
         <v>35</v>
       </c>
     </row>
     <row r="167" spans="1:4">
-      <c r="A167" s="86" t="s">
-        <v>209</v>
+      <c r="A167" s="84" t="s">
+        <v>137</v>
       </c>
       <c r="B167" s="40">
         <v>36</v>
       </c>
     </row>
     <row r="168" spans="1:4">
-      <c r="A168" s="86" t="s">
-        <v>210</v>
+      <c r="A168" s="84" t="s">
+        <v>138</v>
       </c>
       <c r="C168" s="40">
         <v>37</v>
       </c>
     </row>
     <row r="169" spans="1:4">
-      <c r="A169" s="86" t="s">
-        <v>211</v>
+      <c r="A169" s="84" t="s">
+        <v>139</v>
       </c>
       <c r="D169" s="40">
         <v>38</v>
       </c>
     </row>
     <row r="170" spans="1:4">
-      <c r="A170" s="86" t="s">
-        <v>212</v>
+      <c r="A170" s="84" t="s">
+        <v>140</v>
       </c>
       <c r="C170" s="40">
         <v>39</v>
       </c>
     </row>
     <row r="171" spans="1:4">
-      <c r="A171" s="86" t="s">
-        <v>213</v>
+      <c r="A171" s="84" t="s">
+        <v>141</v>
       </c>
       <c r="D171" s="40">
         <v>40</v>
       </c>
     </row>
     <row r="172" spans="1:4">
-      <c r="A172" s="86" t="s">
-        <v>216</v>
+      <c r="A172" s="84" t="s">
+        <v>144</v>
       </c>
       <c r="C172" s="40">
         <v>43</v>
       </c>
     </row>
     <row r="173" spans="1:4">
-      <c r="A173" s="86" t="s">
-        <v>217</v>
+      <c r="A173" s="84" t="s">
+        <v>145</v>
       </c>
       <c r="D173" s="40">
         <v>44</v>
       </c>
     </row>
     <row r="174" spans="1:4">
-      <c r="A174" s="86" t="s">
-        <v>227</v>
+      <c r="A174" s="84" t="s">
+        <v>155</v>
       </c>
       <c r="C174" s="40">
         <v>56</v>
       </c>
     </row>
     <row r="175" spans="1:4">
-      <c r="A175" s="86" t="s">
-        <v>228</v>
+      <c r="A175" s="84" t="s">
+        <v>156</v>
       </c>
       <c r="D175" s="40">
         <v>57</v>
       </c>
     </row>
     <row r="176" spans="1:4">
-      <c r="A176" s="86" t="s">
-        <v>229</v>
+      <c r="A176" s="84" t="s">
+        <v>157</v>
       </c>
       <c r="C176" s="40">
         <v>58</v>
       </c>
     </row>
     <row r="177" spans="1:4">
-      <c r="A177" s="86" t="s">
-        <v>230</v>
+      <c r="A177" s="84" t="s">
+        <v>158</v>
       </c>
       <c r="D177" s="40">
         <v>59</v>
       </c>
     </row>
     <row r="178" spans="1:4">
-      <c r="A178" s="86" t="s">
-        <v>231</v>
+      <c r="A178" s="84" t="s">
+        <v>159</v>
       </c>
       <c r="C178" s="40">
         <v>60</v>
       </c>
     </row>
     <row r="179" spans="1:4">
-      <c r="A179" s="86" t="s">
-        <v>232</v>
+      <c r="A179" s="84" t="s">
+        <v>160</v>
       </c>
       <c r="D179" s="40">
         <v>61</v>
       </c>
     </row>
     <row r="180" spans="1:4">
-      <c r="A180" s="86" t="s">
-        <v>233</v>
+      <c r="A180" s="84" t="s">
+        <v>161</v>
       </c>
       <c r="C180" s="40">
         <v>62</v>
       </c>
     </row>
     <row r="181" spans="1:4">
-      <c r="A181" s="86" t="s">
-        <v>234</v>
+      <c r="A181" s="84" t="s">
+        <v>162</v>
       </c>
       <c r="D181" s="40">
         <v>63</v>
       </c>
     </row>
     <row r="182" spans="1:4">
-      <c r="A182" s="86" t="s">
-        <v>240</v>
+      <c r="A182" s="84" t="s">
+        <v>168</v>
       </c>
       <c r="B182" s="40">
         <v>72</v>
       </c>
     </row>
     <row r="183" spans="1:4">
-      <c r="A183" s="86" t="s">
-        <v>241</v>
+      <c r="A183" s="84" t="s">
+        <v>169</v>
       </c>
       <c r="B183" s="40">
         <v>73</v>
       </c>
     </row>
     <row r="184" spans="1:4">
-      <c r="A184" s="86" t="s">
-        <v>242</v>
+      <c r="A184" s="84" t="s">
+        <v>170</v>
       </c>
       <c r="B184" s="40">
         <v>74</v>
       </c>
     </row>
     <row r="185" spans="1:4">
-      <c r="A185" s="86" t="s">
-        <v>251</v>
+      <c r="A185" s="84" t="s">
+        <v>179</v>
       </c>
       <c r="B185" s="40">
         <v>87</v>
       </c>
     </row>
     <row r="186" spans="1:4">
-      <c r="A186" s="86" t="s">
-        <v>258</v>
+      <c r="A186" s="84" t="s">
+        <v>186</v>
       </c>
       <c r="C186" s="40">
         <v>96</v>
       </c>
     </row>
     <row r="187" spans="1:4">
-      <c r="A187" s="86" t="s">
-        <v>259</v>
+      <c r="A187" s="84" t="s">
+        <v>187</v>
       </c>
       <c r="D187" s="40">
         <v>97</v>
       </c>
     </row>
     <row r="188" spans="1:4">
-      <c r="A188" s="86" t="s">
-        <v>358</v>
+      <c r="A188" s="84" t="s">
+        <v>286</v>
       </c>
       <c r="D188" s="40">
         <v>76</v>
       </c>
     </row>
     <row r="189" spans="1:4">
-      <c r="A189" s="86" t="s">
-        <v>244</v>
+      <c r="A189" s="84" t="s">
+        <v>172</v>
       </c>
       <c r="C189" s="40">
         <v>77</v>
@@ -8486,15 +7752,15 @@
   <sheetData>
     <row r="1" spans="1:2" s="45" customFormat="1">
       <c r="A1" s="43" t="s">
-        <v>359</v>
+        <v>287</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>360</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>196</v>
+        <v>124</v>
       </c>
       <c r="B2" s="46">
         <v>0</v>
@@ -8502,7 +7768,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>197</v>
+        <v>125</v>
       </c>
       <c r="B3" s="46">
         <v>1</v>
@@ -8510,7 +7776,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>198</v>
+        <v>126</v>
       </c>
       <c r="B4" s="46">
         <v>2</v>
@@ -8518,7 +7784,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>199</v>
+        <v>127</v>
       </c>
       <c r="B5" s="46">
         <v>3</v>
@@ -8526,7 +7792,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="B6" s="46">
         <v>4</v>
@@ -8534,7 +7800,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>201</v>
+        <v>129</v>
       </c>
       <c r="B7" s="46">
         <v>5</v>
@@ -8542,7 +7808,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>202</v>
+        <v>130</v>
       </c>
       <c r="B8" s="46">
         <v>12</v>
@@ -8550,7 +7816,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>203</v>
+        <v>131</v>
       </c>
       <c r="B9" s="46">
         <v>16</v>
@@ -8558,7 +7824,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>204</v>
+        <v>132</v>
       </c>
       <c r="B10" s="46">
         <v>24</v>
@@ -8566,7 +7832,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>205</v>
+        <v>133</v>
       </c>
       <c r="B11" s="46">
         <v>31</v>
@@ -8574,7 +7840,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>206</v>
+        <v>134</v>
       </c>
       <c r="B12" s="46">
         <v>32</v>
@@ -8582,7 +7848,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>207</v>
+        <v>135</v>
       </c>
       <c r="B13" s="46">
         <v>33</v>
@@ -8590,7 +7856,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>208</v>
+        <v>136</v>
       </c>
       <c r="B14" s="46">
         <v>35</v>
@@ -8598,7 +7864,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>209</v>
+        <v>137</v>
       </c>
       <c r="B15" s="46">
         <v>36</v>
@@ -8606,7 +7872,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>210</v>
+        <v>138</v>
       </c>
       <c r="B16" s="46">
         <v>37</v>
@@ -8614,7 +7880,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>211</v>
+        <v>139</v>
       </c>
       <c r="B17" s="46">
         <v>38</v>
@@ -8622,7 +7888,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>212</v>
+        <v>140</v>
       </c>
       <c r="B18" s="46">
         <v>39</v>
@@ -8630,7 +7896,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>213</v>
+        <v>141</v>
       </c>
       <c r="B19" s="46">
         <v>40</v>
@@ -8638,7 +7904,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>214</v>
+        <v>142</v>
       </c>
       <c r="B20" s="46">
         <v>41</v>
@@ -8646,7 +7912,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>215</v>
+        <v>143</v>
       </c>
       <c r="B21" s="46">
         <v>42</v>
@@ -8654,7 +7920,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>216</v>
+        <v>144</v>
       </c>
       <c r="B22" s="46">
         <v>43</v>
@@ -8662,7 +7928,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>217</v>
+        <v>145</v>
       </c>
       <c r="B23" s="46">
         <v>44</v>
@@ -8670,7 +7936,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>218</v>
+        <v>146</v>
       </c>
       <c r="B24" s="46">
         <v>47</v>
@@ -8678,7 +7944,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>219</v>
+        <v>147</v>
       </c>
       <c r="B25" s="46">
         <v>48</v>
@@ -8686,7 +7952,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>220</v>
+        <v>148</v>
       </c>
       <c r="B26" s="46">
         <v>49</v>
@@ -8694,7 +7960,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>221</v>
+        <v>149</v>
       </c>
       <c r="B27" s="46">
         <v>50</v>
@@ -8702,7 +7968,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>222</v>
+        <v>150</v>
       </c>
       <c r="B28" s="46">
         <v>51</v>
@@ -8710,7 +7976,7 @@
     </row>
     <row r="29" spans="1:2" s="41" customFormat="1">
       <c r="A29" t="s">
-        <v>223</v>
+        <v>151</v>
       </c>
       <c r="B29" s="46">
         <v>52</v>
@@ -8718,7 +7984,7 @@
     </row>
     <row r="30" spans="1:2" s="41" customFormat="1">
       <c r="A30" t="s">
-        <v>224</v>
+        <v>152</v>
       </c>
       <c r="B30" s="46">
         <v>53</v>
@@ -8726,7 +7992,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>225</v>
+        <v>153</v>
       </c>
       <c r="B31" s="46">
         <v>54</v>
@@ -8734,7 +8000,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>226</v>
+        <v>154</v>
       </c>
       <c r="B32" s="46">
         <v>55</v>
@@ -8742,7 +8008,7 @@
     </row>
     <row r="33" spans="1:2" s="41" customFormat="1">
       <c r="A33" t="s">
-        <v>227</v>
+        <v>155</v>
       </c>
       <c r="B33" s="46">
         <v>56</v>
@@ -8750,7 +8016,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>228</v>
+        <v>156</v>
       </c>
       <c r="B34" s="46">
         <v>57</v>
@@ -8758,7 +8024,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>229</v>
+        <v>157</v>
       </c>
       <c r="B35" s="46">
         <v>58</v>
@@ -8766,7 +8032,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>230</v>
+        <v>158</v>
       </c>
       <c r="B36" s="46">
         <v>59</v>
@@ -8774,7 +8040,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>231</v>
+        <v>159</v>
       </c>
       <c r="B37" s="46">
         <v>60</v>
@@ -8782,7 +8048,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>232</v>
+        <v>160</v>
       </c>
       <c r="B38" s="46">
         <v>61</v>
@@ -8790,7 +8056,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>233</v>
+        <v>161</v>
       </c>
       <c r="B39" s="46">
         <v>62</v>
@@ -8798,7 +8064,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>234</v>
+        <v>162</v>
       </c>
       <c r="B40" s="46">
         <v>63</v>
@@ -8806,7 +8072,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>235</v>
+        <v>163</v>
       </c>
       <c r="B41" s="46">
         <v>64</v>
@@ -8814,7 +8080,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>236</v>
+        <v>164</v>
       </c>
       <c r="B42" s="46">
         <v>65</v>
@@ -8822,7 +8088,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>237</v>
+        <v>165</v>
       </c>
       <c r="B43" s="46">
         <v>66</v>
@@ -8830,7 +8096,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>238</v>
+        <v>166</v>
       </c>
       <c r="B44" s="46">
         <v>67</v>
@@ -8838,7 +8104,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>239</v>
+        <v>167</v>
       </c>
       <c r="B45" s="46">
         <v>70</v>
@@ -8846,7 +8112,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>240</v>
+        <v>168</v>
       </c>
       <c r="B46" s="46">
         <v>72</v>
@@ -8854,7 +8120,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>241</v>
+        <v>169</v>
       </c>
       <c r="B47" s="46">
         <v>73</v>
@@ -8862,7 +8128,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>242</v>
+        <v>170</v>
       </c>
       <c r="B48" s="46">
         <v>74</v>
@@ -8870,7 +8136,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>243</v>
+        <v>171</v>
       </c>
       <c r="B49" s="46">
         <v>76</v>
@@ -8878,7 +8144,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>244</v>
+        <v>172</v>
       </c>
       <c r="B50" s="46">
         <v>77</v>
@@ -8886,7 +8152,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>245</v>
+        <v>173</v>
       </c>
       <c r="B51" s="46">
         <v>81</v>
@@ -8894,7 +8160,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>246</v>
+        <v>174</v>
       </c>
       <c r="B52" s="46">
         <v>82</v>
@@ -8902,7 +8168,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>247</v>
+        <v>175</v>
       </c>
       <c r="B53" s="46">
         <v>83</v>
@@ -8910,7 +8176,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>248</v>
+        <v>176</v>
       </c>
       <c r="B54" s="46">
         <v>84</v>
@@ -8918,7 +8184,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>249</v>
+        <v>177</v>
       </c>
       <c r="B55" s="46">
         <v>85</v>
@@ -8926,7 +8192,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>250</v>
+        <v>178</v>
       </c>
       <c r="B56" s="46">
         <v>86</v>
@@ -8934,7 +8200,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>251</v>
+        <v>179</v>
       </c>
       <c r="B57" s="46">
         <v>87</v>
@@ -8942,7 +8208,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>252</v>
+        <v>180</v>
       </c>
       <c r="B58" s="46">
         <v>89</v>
@@ -8950,7 +8216,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>253</v>
+        <v>181</v>
       </c>
       <c r="B59" s="46">
         <v>90</v>
@@ -8958,7 +8224,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>254</v>
+        <v>182</v>
       </c>
       <c r="B60" s="46">
         <v>91</v>
@@ -8966,7 +8232,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>255</v>
+        <v>183</v>
       </c>
       <c r="B61" s="46">
         <v>92</v>
@@ -8974,7 +8240,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>256</v>
+        <v>184</v>
       </c>
       <c r="B62" s="46">
         <v>93</v>
@@ -8982,7 +8248,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>257</v>
+        <v>185</v>
       </c>
       <c r="B63" s="46">
         <v>94</v>
@@ -8990,7 +8256,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>258</v>
+        <v>186</v>
       </c>
       <c r="B64" s="46">
         <v>96</v>
@@ -8998,7 +8264,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>259</v>
+        <v>187</v>
       </c>
       <c r="B65" s="46">
         <v>97</v>
@@ -9006,7 +8272,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>260</v>
+        <v>188</v>
       </c>
       <c r="B66" s="46">
         <v>101</v>
@@ -9014,7 +8280,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>261</v>
+        <v>189</v>
       </c>
       <c r="B67" s="46">
         <v>102</v>
@@ -9022,7 +8288,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>262</v>
+        <v>190</v>
       </c>
       <c r="B68" s="46">
         <v>103</v>
@@ -9030,7 +8296,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>263</v>
+        <v>191</v>
       </c>
       <c r="B69" s="46">
         <v>104</v>
@@ -9038,7 +8304,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>264</v>
+        <v>192</v>
       </c>
       <c r="B70" s="46">
         <v>105</v>
@@ -9046,7 +8312,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>265</v>
+        <v>193</v>
       </c>
       <c r="B71" s="46">
         <v>106</v>
@@ -9054,7 +8320,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>266</v>
+        <v>194</v>
       </c>
       <c r="B72" s="46">
         <v>107</v>
@@ -9062,7 +8328,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>267</v>
+        <v>195</v>
       </c>
       <c r="B73" s="46">
         <v>108</v>
@@ -9070,7 +8336,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>268</v>
+        <v>196</v>
       </c>
       <c r="B74" s="46">
         <v>109</v>
@@ -9078,7 +8344,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>269</v>
+        <v>197</v>
       </c>
       <c r="B75" s="46">
         <v>110</v>
@@ -9086,7 +8352,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>270</v>
+        <v>198</v>
       </c>
       <c r="B76" s="46">
         <v>113</v>
@@ -9094,7 +8360,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>271</v>
+        <v>199</v>
       </c>
       <c r="B77" s="46">
         <v>114</v>
@@ -9102,7 +8368,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>272</v>
+        <v>200</v>
       </c>
       <c r="B78" s="46">
         <v>115</v>
@@ -9110,7 +8376,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>273</v>
+        <v>201</v>
       </c>
       <c r="B79" s="46">
         <v>116</v>
@@ -9118,7 +8384,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>274</v>
+        <v>202</v>
       </c>
       <c r="B80" s="46">
         <v>117</v>
@@ -9126,7 +8392,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>275</v>
+        <v>203</v>
       </c>
       <c r="B81" s="46">
         <v>118</v>
@@ -9134,7 +8400,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>276</v>
+        <v>204</v>
       </c>
       <c r="B82" s="46">
         <v>119</v>
@@ -9142,7 +8408,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>277</v>
+        <v>205</v>
       </c>
       <c r="B83" s="46">
         <v>120</v>
@@ -9150,7 +8416,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>278</v>
+        <v>206</v>
       </c>
       <c r="B84" s="46">
         <v>121</v>
@@ -9158,7 +8424,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>279</v>
+        <v>207</v>
       </c>
       <c r="B85" s="46">
         <v>122</v>
@@ -9166,7 +8432,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>280</v>
+        <v>208</v>
       </c>
       <c r="B86" s="46">
         <v>123</v>
@@ -9174,7 +8440,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>281</v>
+        <v>209</v>
       </c>
       <c r="B87" s="46">
         <v>124</v>
@@ -9182,7 +8448,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>282</v>
+        <v>210</v>
       </c>
       <c r="B88" s="46">
         <v>125</v>
@@ -9190,7 +8456,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>283</v>
+        <v>211</v>
       </c>
       <c r="B89" s="46">
         <v>126</v>
@@ -9198,7 +8464,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>284</v>
+        <v>212</v>
       </c>
       <c r="B90" s="46">
         <v>129</v>
@@ -9206,7 +8472,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>285</v>
+        <v>213</v>
       </c>
       <c r="B91" s="46">
         <v>130</v>
@@ -9214,7 +8480,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>286</v>
+        <v>214</v>
       </c>
       <c r="B92" s="46">
         <v>133</v>
@@ -9222,7 +8488,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>287</v>
+        <v>215</v>
       </c>
       <c r="B93" s="46">
         <v>134</v>
@@ -9230,7 +8496,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>288</v>
+        <v>216</v>
       </c>
       <c r="B94" s="46">
         <v>135</v>
@@ -9238,7 +8504,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>289</v>
+        <v>217</v>
       </c>
       <c r="B95" s="46">
         <v>136</v>
@@ -9246,7 +8512,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>290</v>
+        <v>218</v>
       </c>
       <c r="B96" s="46">
         <v>137</v>
@@ -9254,7 +8520,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>291</v>
+        <v>219</v>
       </c>
       <c r="B97" s="46">
         <v>138</v>
@@ -9262,7 +8528,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>292</v>
+        <v>220</v>
       </c>
       <c r="B98" s="46">
         <v>139</v>
@@ -9270,7 +8536,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>293</v>
+        <v>221</v>
       </c>
       <c r="B99" s="46">
         <v>140</v>
@@ -9278,7 +8544,7 @@
     </row>
     <row r="100" spans="1:2" s="47" customFormat="1">
       <c r="A100" t="s">
-        <v>294</v>
+        <v>222</v>
       </c>
       <c r="B100" s="46">
         <v>141</v>
@@ -9286,7 +8552,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>295</v>
+        <v>223</v>
       </c>
       <c r="B101" s="46">
         <v>142</v>
@@ -9294,7 +8560,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>296</v>
+        <v>224</v>
       </c>
       <c r="B102" s="46">
         <v>143</v>
@@ -9302,7 +8568,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>297</v>
+        <v>225</v>
       </c>
       <c r="B103" s="46">
         <v>144</v>
@@ -9310,7 +8576,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>298</v>
+        <v>226</v>
       </c>
       <c r="B104" s="46">
         <v>145</v>
@@ -9318,7 +8584,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>299</v>
+        <v>227</v>
       </c>
       <c r="B105" s="46">
         <v>146</v>
@@ -9326,7 +8592,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>300</v>
+        <v>228</v>
       </c>
       <c r="B106" s="46">
         <v>147</v>
@@ -9334,7 +8600,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>301</v>
+        <v>229</v>
       </c>
       <c r="B107" s="46">
         <v>148</v>
@@ -9342,7 +8608,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>302</v>
+        <v>230</v>
       </c>
       <c r="B108" s="46">
         <v>149</v>
@@ -9350,7 +8616,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>303</v>
+        <v>231</v>
       </c>
       <c r="B109" s="46">
         <v>150</v>
@@ -9358,7 +8624,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>304</v>
+        <v>232</v>
       </c>
       <c r="B110" s="46">
         <v>151</v>
@@ -9366,7 +8632,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>305</v>
+        <v>233</v>
       </c>
       <c r="B111" s="46">
         <v>152</v>
@@ -9374,7 +8640,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>306</v>
+        <v>234</v>
       </c>
       <c r="B112" s="46">
         <v>153</v>
@@ -9382,7 +8648,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>307</v>
+        <v>235</v>
       </c>
       <c r="B113" s="46">
         <v>154</v>
@@ -9390,7 +8656,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>308</v>
+        <v>236</v>
       </c>
       <c r="B114" s="46">
         <v>155</v>
@@ -9398,7 +8664,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>309</v>
+        <v>237</v>
       </c>
       <c r="B115" s="46">
         <v>156</v>
@@ -9406,7 +8672,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>310</v>
+        <v>238</v>
       </c>
       <c r="B116" s="46">
         <v>157</v>
@@ -9414,7 +8680,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>311</v>
+        <v>239</v>
       </c>
       <c r="B117" s="46">
         <v>158</v>
@@ -9422,7 +8688,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>312</v>
+        <v>240</v>
       </c>
       <c r="B118" s="46">
         <v>161</v>
@@ -9430,7 +8696,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>313</v>
+        <v>241</v>
       </c>
       <c r="B119" s="46">
         <v>162</v>
@@ -9438,7 +8704,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>314</v>
+        <v>242</v>
       </c>
       <c r="B120" s="46">
         <v>163</v>
@@ -9446,7 +8712,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>315</v>
+        <v>243</v>
       </c>
       <c r="B121" s="46">
         <v>164</v>
@@ -9454,7 +8720,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>316</v>
+        <v>244</v>
       </c>
       <c r="B122" s="46">
         <v>165</v>
@@ -9462,7 +8728,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>317</v>
+        <v>245</v>
       </c>
       <c r="B123" s="46">
         <v>166</v>
@@ -9470,7 +8736,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>318</v>
+        <v>246</v>
       </c>
       <c r="B124" s="46">
         <v>167</v>
@@ -9478,7 +8744,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>319</v>
+        <v>247</v>
       </c>
       <c r="B125" s="46">
         <v>168</v>
@@ -9486,7 +8752,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>320</v>
+        <v>248</v>
       </c>
       <c r="B126" s="46">
         <v>169</v>
@@ -9494,7 +8760,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>321</v>
+        <v>249</v>
       </c>
       <c r="B127" s="46">
         <v>170</v>
@@ -9502,7 +8768,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>322</v>
+        <v>250</v>
       </c>
       <c r="B128" s="46">
         <v>171</v>
@@ -9510,7 +8776,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>323</v>
+        <v>251</v>
       </c>
       <c r="B129" s="46">
         <v>172</v>
@@ -9518,7 +8784,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>324</v>
+        <v>252</v>
       </c>
       <c r="B130" s="46">
         <v>173</v>
@@ -9526,7 +8792,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>325</v>
+        <v>253</v>
       </c>
       <c r="B131" s="46">
         <v>174</v>
@@ -9534,7 +8800,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>326</v>
+        <v>254</v>
       </c>
       <c r="B132" s="46">
         <v>175</v>
@@ -9542,7 +8808,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>327</v>
+        <v>255</v>
       </c>
       <c r="B133" s="46">
         <v>176</v>
@@ -9550,7 +8816,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>328</v>
+        <v>256</v>
       </c>
       <c r="B134" s="46">
         <v>177</v>
@@ -9558,7 +8824,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>329</v>
+        <v>257</v>
       </c>
       <c r="B135" s="46">
         <v>178</v>
@@ -9566,7 +8832,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>330</v>
+        <v>258</v>
       </c>
       <c r="B136" s="46">
         <v>179</v>
@@ -9574,7 +8840,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>331</v>
+        <v>259</v>
       </c>
       <c r="B137" s="40">
         <v>180</v>
@@ -9582,7 +8848,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>332</v>
+        <v>260</v>
       </c>
       <c r="B138" s="40">
         <v>181</v>
@@ -9590,7 +8856,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>333</v>
+        <v>261</v>
       </c>
       <c r="B139" s="40">
         <v>182</v>
@@ -9598,7 +8864,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>334</v>
+        <v>262</v>
       </c>
       <c r="B140" s="40">
         <v>183</v>
@@ -9606,7 +8872,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>335</v>
+        <v>263</v>
       </c>
       <c r="B141" s="40">
         <v>184</v>
@@ -9614,7 +8880,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>336</v>
+        <v>264</v>
       </c>
       <c r="B142" s="40">
         <v>185</v>
@@ -9622,7 +8888,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>337</v>
+        <v>265</v>
       </c>
       <c r="B143" s="40">
         <v>186</v>
@@ -9630,7 +8896,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>338</v>
+        <v>266</v>
       </c>
       <c r="B144" s="40">
         <v>187</v>
@@ -9638,7 +8904,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>339</v>
+        <v>267</v>
       </c>
       <c r="B145" s="40">
         <v>188</v>
@@ -9646,7 +8912,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>340</v>
+        <v>268</v>
       </c>
       <c r="B146" s="40">
         <v>191</v>
@@ -9654,7 +8920,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>341</v>
+        <v>269</v>
       </c>
       <c r="B147" s="40">
         <v>192</v>
@@ -9662,7 +8928,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>342</v>
+        <v>270</v>
       </c>
       <c r="B148" s="40">
         <v>193</v>
@@ -9670,7 +8936,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>343</v>
+        <v>271</v>
       </c>
       <c r="B149" s="40">
         <v>194</v>
@@ -9678,7 +8944,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>344</v>
+        <v>272</v>
       </c>
       <c r="B150" s="40">
         <v>195</v>
@@ -9686,7 +8952,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>345</v>
+        <v>273</v>
       </c>
       <c r="B151" s="40">
         <v>196</v>
@@ -9694,7 +8960,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>346</v>
+        <v>274</v>
       </c>
       <c r="B152" s="40">
         <v>197</v>
@@ -9702,7 +8968,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>347</v>
+        <v>275</v>
       </c>
       <c r="B153" s="40">
         <v>198</v>
@@ -9710,7 +8976,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>348</v>
+        <v>276</v>
       </c>
       <c r="B154" s="40">
         <v>199</v>
@@ -9718,7 +8984,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>349</v>
+        <v>277</v>
       </c>
       <c r="B155" s="40">
         <v>200</v>
@@ -9726,7 +8992,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>350</v>
+        <v>278</v>
       </c>
       <c r="B156" s="40">
         <v>201</v>
@@ -9734,7 +9000,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>351</v>
+        <v>279</v>
       </c>
       <c r="B157" s="40">
         <v>202</v>
@@ -9742,7 +9008,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>352</v>
+        <v>280</v>
       </c>
       <c r="B158" s="40">
         <v>203</v>
@@ -9750,7 +9016,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>353</v>
+        <v>281</v>
       </c>
       <c r="B159" s="40">
         <v>204</v>
@@ -9758,7 +9024,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>354</v>
+        <v>282</v>
       </c>
       <c r="B160" s="40">
         <v>205</v>
@@ -9766,7 +9032,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>355</v>
+        <v>283</v>
       </c>
       <c r="B161" s="40">
         <v>206</v>
@@ -9774,7 +9040,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>356</v>
+        <v>284</v>
       </c>
       <c r="B162" s="40">
         <v>207</v>
@@ -9782,7 +9048,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>357</v>
+        <v>285</v>
       </c>
       <c r="B163" s="40">
         <v>208</v>
@@ -9811,16 +9077,16 @@
   <sheetData>
     <row r="1" spans="1:3" s="45" customFormat="1">
       <c r="A1" s="43" t="s">
-        <v>359</v>
+        <v>287</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>360</v>
+        <v>288</v>
       </c>
       <c r="C1" s="39"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>204</v>
+        <v>132</v>
       </c>
       <c r="B2" s="46">
         <v>24</v>
@@ -9829,7 +9095,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>205</v>
+        <v>133</v>
       </c>
       <c r="B3" s="46">
         <v>31</v>
@@ -9838,7 +9104,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>208</v>
+        <v>136</v>
       </c>
       <c r="B4" s="46">
         <v>35</v>
@@ -9847,7 +9113,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>209</v>
+        <v>137</v>
       </c>
       <c r="B5" s="46">
         <v>36</v>
@@ -9856,7 +9122,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>210</v>
+        <v>138</v>
       </c>
       <c r="B6" s="46">
         <v>37</v>
@@ -9865,7 +9131,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>211</v>
+        <v>139</v>
       </c>
       <c r="B7" s="46">
         <v>38</v>
@@ -9874,7 +9140,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>212</v>
+        <v>140</v>
       </c>
       <c r="B8" s="46">
         <v>39</v>
@@ -9883,7 +9149,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>213</v>
+        <v>141</v>
       </c>
       <c r="B9" s="46">
         <v>40</v>
@@ -9892,7 +9158,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>216</v>
+        <v>144</v>
       </c>
       <c r="B10" s="46">
         <v>43</v>
@@ -9901,7 +9167,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>217</v>
+        <v>145</v>
       </c>
       <c r="B11" s="46">
         <v>44</v>
@@ -9910,7 +9176,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>227</v>
+        <v>155</v>
       </c>
       <c r="B12" s="46">
         <v>56</v>
@@ -9919,7 +9185,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>228</v>
+        <v>156</v>
       </c>
       <c r="B13" s="46">
         <v>57</v>
@@ -9928,7 +9194,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>229</v>
+        <v>157</v>
       </c>
       <c r="B14" s="46">
         <v>58</v>
@@ -9937,7 +9203,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>230</v>
+        <v>158</v>
       </c>
       <c r="B15" s="46">
         <v>59</v>
@@ -9946,7 +9212,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>231</v>
+        <v>159</v>
       </c>
       <c r="B16" s="46">
         <v>60</v>
@@ -9955,7 +9221,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>232</v>
+        <v>160</v>
       </c>
       <c r="B17" s="46">
         <v>61</v>
@@ -9964,7 +9230,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>233</v>
+        <v>161</v>
       </c>
       <c r="B18" s="46">
         <v>62</v>
@@ -9973,7 +9239,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>234</v>
+        <v>162</v>
       </c>
       <c r="B19" s="46">
         <v>63</v>
@@ -9982,7 +9248,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>240</v>
+        <v>168</v>
       </c>
       <c r="B20" s="46">
         <v>72</v>
@@ -9991,7 +9257,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>241</v>
+        <v>169</v>
       </c>
       <c r="B21" s="46">
         <v>73</v>
@@ -10000,7 +9266,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>242</v>
+        <v>170</v>
       </c>
       <c r="B22" s="46">
         <v>74</v>
@@ -10008,7 +9274,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>251</v>
+        <v>179</v>
       </c>
       <c r="B23" s="46">
         <v>87</v>
@@ -10016,7 +9282,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>258</v>
+        <v>186</v>
       </c>
       <c r="B24" s="46">
         <v>96</v>
@@ -10024,7 +9290,7 @@
     </row>
     <row r="25" spans="1:3" s="41" customFormat="1">
       <c r="A25" t="s">
-        <v>259</v>
+        <v>187</v>
       </c>
       <c r="B25" s="46">
         <v>97</v>
@@ -10033,7 +9299,7 @@
     </row>
     <row r="26" spans="1:3" s="41" customFormat="1">
       <c r="A26" t="s">
-        <v>358</v>
+        <v>286</v>
       </c>
       <c r="B26" s="46">
         <v>76</v>
@@ -10042,7 +9308,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>244</v>
+        <v>172</v>
       </c>
       <c r="B27" s="46">
         <v>77</v>
@@ -10088,7 +9354,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="M3" sqref="M3:M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -10099,31 +9365,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1">
-      <c r="D1" s="75"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
-      <c r="P1" s="113"/>
-      <c r="Q1" s="113"/>
-      <c r="R1" s="113"/>
-      <c r="S1" s="113"/>
-      <c r="T1" s="113"/>
-      <c r="U1" s="113"/>
-      <c r="V1" s="113"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
+      <c r="T1" s="109"/>
+      <c r="U1" s="109"/>
+      <c r="V1" s="109"/>
     </row>
     <row r="2" spans="1:23" ht="96" customHeight="1">
       <c r="A2" s="43"/>
       <c r="B2" s="44"/>
       <c r="C2" s="39"/>
-      <c r="D2" s="75" t="s">
+      <c r="D2" s="74" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="26" t="s">
@@ -10186,7 +9452,7 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>206</v>
+        <v>134</v>
       </c>
       <c r="B3" s="46">
         <v>32</v>
@@ -10211,7 +9477,7 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>207</v>
+        <v>135</v>
       </c>
       <c r="B4" s="46">
         <v>33</v>
@@ -10236,7 +9502,7 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>219</v>
+        <v>147</v>
       </c>
       <c r="B5" s="46">
         <v>48</v>
@@ -10260,7 +9526,7 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>220</v>
+        <v>148</v>
       </c>
       <c r="B6" s="46">
         <v>49</v>
@@ -10284,7 +9550,7 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>274</v>
+        <v>202</v>
       </c>
       <c r="B7" s="46">
         <v>117</v>
@@ -10308,7 +9574,7 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>275</v>
+        <v>203</v>
       </c>
       <c r="B8" s="46">
         <v>118</v>
@@ -10332,7 +9598,7 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>280</v>
+        <v>208</v>
       </c>
       <c r="B9" s="46">
         <v>123</v>
@@ -10358,7 +9624,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>281</v>
+        <v>209</v>
       </c>
       <c r="B10" s="46">
         <v>124</v>
@@ -10384,7 +9650,7 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>286</v>
+        <v>214</v>
       </c>
       <c r="B11" s="46">
         <v>133</v>
@@ -10409,7 +9675,7 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>287</v>
+        <v>215</v>
       </c>
       <c r="B12" s="46">
         <v>134</v>
@@ -10434,7 +9700,7 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>308</v>
+        <v>236</v>
       </c>
       <c r="B13" s="46">
         <v>155</v>
@@ -10456,7 +9722,7 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>309</v>
+        <v>237</v>
       </c>
       <c r="B14" s="46">
         <v>156</v>
@@ -10478,7 +9744,7 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>322</v>
+        <v>250</v>
       </c>
       <c r="B15" s="46">
         <v>171</v>
@@ -10507,7 +9773,7 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>323</v>
+        <v>251</v>
       </c>
       <c r="B16" s="46">
         <v>172</v>
@@ -10536,7 +9802,7 @@
     </row>
     <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>332</v>
+        <v>260</v>
       </c>
       <c r="B17" s="40">
         <v>181</v>
@@ -10561,7 +9827,7 @@
     </row>
     <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>333</v>
+        <v>261</v>
       </c>
       <c r="B18" s="40">
         <v>182</v>
@@ -10586,7 +9852,7 @@
     </row>
     <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>336</v>
+        <v>264</v>
       </c>
       <c r="B19" s="40">
         <v>185</v>
@@ -10608,7 +9874,7 @@
     </row>
     <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>337</v>
+        <v>265</v>
       </c>
       <c r="B20" s="40">
         <v>186</v>
@@ -10628,7 +9894,7 @@
     </row>
     <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>350</v>
+        <v>278</v>
       </c>
       <c r="B21" s="40">
         <v>201</v>
@@ -10648,7 +9914,7 @@
     </row>
     <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>351</v>
+        <v>279</v>
       </c>
       <c r="B22" s="40">
         <v>202</v>
@@ -10668,7 +9934,7 @@
     </row>
     <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>352</v>
+        <v>280</v>
       </c>
       <c r="B23" s="40">
         <v>203</v>
@@ -10682,7 +9948,7 @@
     </row>
     <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>353</v>
+        <v>281</v>
       </c>
       <c r="B24" s="40">
         <v>204</v>
@@ -10696,7 +9962,7 @@
     </row>
     <row r="25" spans="1:24">
       <c r="A25" t="s">
-        <v>356</v>
+        <v>284</v>
       </c>
       <c r="B25" s="40">
         <v>207</v>
@@ -10716,7 +9982,7 @@
     </row>
     <row r="26" spans="1:24">
       <c r="A26" t="s">
-        <v>357</v>
+        <v>285</v>
       </c>
       <c r="B26" s="40">
         <v>208</v>
@@ -10802,7 +10068,7 @@
     </row>
     <row r="32" spans="1:24" s="41" customFormat="1">
       <c r="A32" s="41" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C32"/>
       <c r="D32"/>
@@ -10829,16 +10095,16 @@
     </row>
     <row r="33" spans="3:24" s="41" customFormat="1">
       <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33"/>
-      <c r="J33"/>
-      <c r="K33"/>
-      <c r="L33"/>
-      <c r="M33"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
       <c r="N33"/>
       <c r="O33"/>
       <c r="P33"/>
@@ -11068,7 +10334,7 @@
   <dimension ref="A1:AG324"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:D10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -11082,40 +10348,40 @@
     <row r="1" spans="1:33" ht="15" customHeight="1">
       <c r="A1" s="43"/>
       <c r="B1" s="44"/>
-      <c r="E1" s="114" t="s">
+      <c r="E1" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
-      <c r="P1" s="113"/>
-      <c r="Q1" s="113"/>
-      <c r="R1" s="113"/>
-      <c r="S1" s="113"/>
-      <c r="T1" s="113"/>
-      <c r="U1" s="113"/>
-      <c r="V1" s="113"/>
-      <c r="W1" s="113"/>
-      <c r="X1" s="113"/>
-      <c r="Y1" s="113"/>
-      <c r="Z1" s="113"/>
-      <c r="AA1" s="113"/>
-      <c r="AB1" s="113"/>
-      <c r="AC1" s="113"/>
-      <c r="AD1" s="113"/>
-      <c r="AE1" s="113"/>
-      <c r="AF1" s="113"/>
-      <c r="AG1" s="113"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
+      <c r="T1" s="109"/>
+      <c r="U1" s="109"/>
+      <c r="V1" s="109"/>
+      <c r="W1" s="109"/>
+      <c r="X1" s="109"/>
+      <c r="Y1" s="109"/>
+      <c r="Z1" s="109"/>
+      <c r="AA1" s="109"/>
+      <c r="AB1" s="109"/>
+      <c r="AC1" s="109"/>
+      <c r="AD1" s="109"/>
+      <c r="AE1" s="109"/>
+      <c r="AF1" s="109"/>
+      <c r="AG1" s="109"/>
     </row>
     <row r="2" spans="1:33" ht="144" customHeight="1">
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="74" t="s">
         <v>43</v>
       </c>
       <c r="D2" s="26" t="s">
@@ -11127,7 +10393,7 @@
       <c r="F2" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="91" t="s">
+      <c r="G2" s="88" t="s">
         <v>47</v>
       </c>
       <c r="H2" s="24" t="s">
@@ -11161,7 +10427,7 @@
         <v>57</v>
       </c>
       <c r="R2" s="24" t="s">
-        <v>361</v>
+        <v>289</v>
       </c>
       <c r="S2" s="24" t="s">
         <v>58</v>
@@ -11188,15 +10454,15 @@
         <v>65</v>
       </c>
       <c r="AA2" s="24" t="s">
-        <v>362</v>
+        <v>290</v>
       </c>
       <c r="AB2" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="AC2" s="81" t="s">
+      <c r="AC2" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="AD2" s="81" t="s">
+      <c r="AD2" s="79" t="s">
         <v>68</v>
       </c>
       <c r="AE2" s="24" t="s">
@@ -11211,7 +10477,7 @@
     </row>
     <row r="5" spans="1:33">
       <c r="A5" t="s">
-        <v>264</v>
+        <v>192</v>
       </c>
       <c r="B5" s="46">
         <v>105</v>
@@ -11233,7 +10499,7 @@
     </row>
     <row r="6" spans="1:33">
       <c r="A6" t="s">
-        <v>265</v>
+        <v>193</v>
       </c>
       <c r="B6" s="46">
         <v>106</v>
@@ -11255,7 +10521,7 @@
     </row>
     <row r="7" spans="1:33">
       <c r="A7" t="s">
-        <v>276</v>
+        <v>204</v>
       </c>
       <c r="B7" s="46">
         <v>119</v>
@@ -11271,7 +10537,7 @@
     </row>
     <row r="8" spans="1:33">
       <c r="A8" t="s">
-        <v>277</v>
+        <v>205</v>
       </c>
       <c r="B8" s="46">
         <v>120</v>
@@ -11287,7 +10553,7 @@
     </row>
     <row r="9" spans="1:33">
       <c r="A9" t="s">
-        <v>278</v>
+        <v>206</v>
       </c>
       <c r="B9" s="46">
         <v>121</v>
@@ -11314,7 +10580,7 @@
     </row>
     <row r="10" spans="1:33">
       <c r="A10" t="s">
-        <v>279</v>
+        <v>207</v>
       </c>
       <c r="B10" s="46">
         <v>122</v>
@@ -11340,8 +10606,8 @@
       </c>
     </row>
     <row r="11" spans="1:33">
-      <c r="A11" s="88" t="s">
-        <v>282</v>
+      <c r="A11" s="86" t="s">
+        <v>210</v>
       </c>
       <c r="B11" s="46">
         <v>125</v>
@@ -11358,8 +10624,8 @@
       </c>
     </row>
     <row r="12" spans="1:33">
-      <c r="A12" s="88" t="s">
-        <v>283</v>
+      <c r="A12" s="86" t="s">
+        <v>211</v>
       </c>
       <c r="B12" s="46">
         <v>126</v>
@@ -11377,7 +10643,7 @@
     </row>
     <row r="13" spans="1:33">
       <c r="A13" t="s">
-        <v>290</v>
+        <v>218</v>
       </c>
       <c r="B13" s="46">
         <v>137</v>
@@ -11399,7 +10665,7 @@
     </row>
     <row r="14" spans="1:33">
       <c r="A14" t="s">
-        <v>291</v>
+        <v>219</v>
       </c>
       <c r="B14" s="46">
         <v>138</v>
@@ -11421,7 +10687,7 @@
     </row>
     <row r="15" spans="1:33">
       <c r="A15" s="52" t="s">
-        <v>294</v>
+        <v>222</v>
       </c>
       <c r="B15" s="46">
         <v>141</v>
@@ -11437,7 +10703,7 @@
     </row>
     <row r="16" spans="1:33">
       <c r="A16" s="52" t="s">
-        <v>295</v>
+        <v>223</v>
       </c>
       <c r="B16" s="46">
         <v>142</v>
@@ -11452,7 +10718,7 @@
     </row>
     <row r="17" spans="1:27">
       <c r="A17" t="s">
-        <v>296</v>
+        <v>224</v>
       </c>
       <c r="B17" s="46">
         <v>143</v>
@@ -11476,7 +10742,7 @@
     </row>
     <row r="18" spans="1:27">
       <c r="A18" t="s">
-        <v>297</v>
+        <v>225</v>
       </c>
       <c r="B18" s="46">
         <v>144</v>
@@ -11500,7 +10766,7 @@
     </row>
     <row r="19" spans="1:27">
       <c r="A19" t="s">
-        <v>300</v>
+        <v>228</v>
       </c>
       <c r="B19" s="46">
         <v>147</v>
@@ -11521,7 +10787,7 @@
     </row>
     <row r="20" spans="1:27">
       <c r="A20" t="s">
-        <v>301</v>
+        <v>229</v>
       </c>
       <c r="B20" s="46">
         <v>148</v>
@@ -11542,7 +10808,7 @@
     </row>
     <row r="21" spans="1:27">
       <c r="A21" t="s">
-        <v>304</v>
+        <v>232</v>
       </c>
       <c r="B21" s="46">
         <v>151</v>
@@ -11558,7 +10824,7 @@
     </row>
     <row r="22" spans="1:27">
       <c r="A22" t="s">
-        <v>305</v>
+        <v>233</v>
       </c>
       <c r="B22" s="46">
         <v>152</v>
@@ -11574,7 +10840,7 @@
     </row>
     <row r="23" spans="1:27">
       <c r="A23" t="s">
-        <v>306</v>
+        <v>234</v>
       </c>
       <c r="B23" s="46">
         <v>153</v>
@@ -11589,7 +10855,7 @@
     </row>
     <row r="24" spans="1:27">
       <c r="A24" t="s">
-        <v>307</v>
+        <v>235</v>
       </c>
       <c r="B24" s="46">
         <v>154</v>
@@ -11604,7 +10870,7 @@
     </row>
     <row r="25" spans="1:27">
       <c r="A25" t="s">
-        <v>314</v>
+        <v>242</v>
       </c>
       <c r="B25" s="46">
         <v>163</v>
@@ -11622,7 +10888,7 @@
     </row>
     <row r="26" spans="1:27">
       <c r="A26" t="s">
-        <v>315</v>
+        <v>243</v>
       </c>
       <c r="B26" s="46">
         <v>164</v>
@@ -11640,7 +10906,7 @@
     </row>
     <row r="27" spans="1:27">
       <c r="A27" t="s">
-        <v>316</v>
+        <v>244</v>
       </c>
       <c r="B27" s="46">
         <v>165</v>
@@ -11658,7 +10924,7 @@
     </row>
     <row r="28" spans="1:27">
       <c r="A28" t="s">
-        <v>317</v>
+        <v>245</v>
       </c>
       <c r="B28" s="46">
         <v>166</v>
@@ -11676,7 +10942,7 @@
     </row>
     <row r="29" spans="1:27">
       <c r="A29" t="s">
-        <v>330</v>
+        <v>258</v>
       </c>
       <c r="B29" s="46">
         <v>179</v>
@@ -11697,7 +10963,7 @@
     </row>
     <row r="30" spans="1:27">
       <c r="A30" t="s">
-        <v>331</v>
+        <v>259</v>
       </c>
       <c r="B30" s="40">
         <v>180</v>
@@ -11718,7 +10984,7 @@
     </row>
     <row r="31" spans="1:27">
       <c r="A31" t="s">
-        <v>334</v>
+        <v>262</v>
       </c>
       <c r="B31" s="40">
         <v>183</v>
@@ -11737,7 +11003,7 @@
     </row>
     <row r="32" spans="1:27">
       <c r="A32" t="s">
-        <v>335</v>
+        <v>263</v>
       </c>
       <c r="B32" s="40">
         <v>184</v>
@@ -11756,7 +11022,7 @@
     </row>
     <row r="33" spans="1:33">
       <c r="A33" s="51" t="s">
-        <v>338</v>
+        <v>266</v>
       </c>
       <c r="B33" s="40">
         <v>187</v>
@@ -11768,7 +11034,7 @@
     </row>
     <row r="34" spans="1:33">
       <c r="A34" s="51" t="s">
-        <v>339</v>
+        <v>267</v>
       </c>
       <c r="B34" s="40">
         <v>188</v>
@@ -11780,7 +11046,7 @@
     </row>
     <row r="35" spans="1:33">
       <c r="A35" t="s">
-        <v>340</v>
+        <v>268</v>
       </c>
       <c r="B35" s="40">
         <v>191</v>
@@ -11799,7 +11065,7 @@
     </row>
     <row r="36" spans="1:33">
       <c r="A36" t="s">
-        <v>341</v>
+        <v>269</v>
       </c>
       <c r="B36" s="40">
         <v>192</v>
@@ -11818,7 +11084,7 @@
     </row>
     <row r="37" spans="1:33">
       <c r="A37" t="s">
-        <v>342</v>
+        <v>270</v>
       </c>
       <c r="B37" s="40">
         <v>193</v>
@@ -11857,7 +11123,7 @@
     </row>
     <row r="38" spans="1:33">
       <c r="A38" t="s">
-        <v>343</v>
+        <v>271</v>
       </c>
       <c r="B38" s="40">
         <v>194</v>
@@ -11896,7 +11162,7 @@
     </row>
     <row r="39" spans="1:33">
       <c r="A39" t="s">
-        <v>354</v>
+        <v>282</v>
       </c>
       <c r="B39" s="40">
         <v>205</v>
@@ -11914,7 +11180,7 @@
     </row>
     <row r="40" spans="1:33">
       <c r="A40" t="s">
-        <v>355</v>
+        <v>283</v>
       </c>
       <c r="B40" s="40">
         <v>206</v>
@@ -12172,7 +11438,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
-      <c r="C1" s="84"/>
+      <c r="C1" s="82"/>
       <c r="D1" s="58"/>
       <c r="E1" s="58"/>
       <c r="F1" s="58"/>
@@ -12183,7 +11449,7 @@
       <c r="K1" s="59"/>
     </row>
     <row r="2" spans="1:11" ht="96" customHeight="1">
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="82" t="s">
         <v>80</v>
       </c>
       <c r="D2" s="55" t="s">
@@ -12195,8 +11461,8 @@
       <c r="F2" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="G2" s="89" t="s">
-        <v>363</v>
+      <c r="G2" s="87" t="s">
+        <v>291</v>
       </c>
       <c r="H2" s="55" t="s">
         <v>85</v>
@@ -12213,7 +11479,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>266</v>
+        <v>194</v>
       </c>
       <c r="B3" s="46">
         <v>107</v>
@@ -12236,7 +11502,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>267</v>
+        <v>195</v>
       </c>
       <c r="B4" s="46">
         <v>108</v>
@@ -12253,7 +11519,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="51" t="s">
-        <v>270</v>
+        <v>198</v>
       </c>
       <c r="B5" s="46">
         <v>113</v>
@@ -12265,7 +11531,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="51" t="s">
-        <v>271</v>
+        <v>199</v>
       </c>
       <c r="B6" s="46">
         <v>114</v>
@@ -12277,7 +11543,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>302</v>
+        <v>230</v>
       </c>
       <c r="B7" s="46">
         <v>149</v>
@@ -12291,7 +11557,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>303</v>
+        <v>231</v>
       </c>
       <c r="B8" s="46">
         <v>150</v>
@@ -12305,7 +11571,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>320</v>
+        <v>248</v>
       </c>
       <c r="B9" s="46">
         <v>169</v>
@@ -12320,7 +11586,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>321</v>
+        <v>249</v>
       </c>
       <c r="B10" s="46">
         <v>170</v>
@@ -12335,7 +11601,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>326</v>
+        <v>254</v>
       </c>
       <c r="B11" s="46">
         <v>175</v>
@@ -12350,7 +11616,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>327</v>
+        <v>255</v>
       </c>
       <c r="B12" s="46">
         <v>176</v>
@@ -12365,7 +11631,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>328</v>
+        <v>256</v>
       </c>
       <c r="B13" s="46">
         <v>177</v>
@@ -12381,7 +11647,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>329</v>
+        <v>257</v>
       </c>
       <c r="B14" s="46">
         <v>178</v>
@@ -12396,7 +11662,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>344</v>
+        <v>272</v>
       </c>
       <c r="B15" s="40">
         <v>195</v>
@@ -12413,7 +11679,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>345</v>
+        <v>273</v>
       </c>
       <c r="B16" s="40">
         <v>196</v>
@@ -12430,7 +11696,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>348</v>
+        <v>276</v>
       </c>
       <c r="B17" s="40">
         <v>199</v>
@@ -12445,7 +11711,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>349</v>
+        <v>277</v>
       </c>
       <c r="B18" s="40">
         <v>200</v>
@@ -12460,7 +11726,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>320</v>
+        <v>248</v>
       </c>
       <c r="B19" s="46">
         <v>169</v>
@@ -12471,7 +11737,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>321</v>
+        <v>249</v>
       </c>
       <c r="B20" s="46">
         <v>170</v>
@@ -12481,8 +11747,8 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="86" t="s">
-        <v>250</v>
+      <c r="A21" s="84" t="s">
+        <v>178</v>
       </c>
       <c r="B21" s="40">
         <v>86</v>
@@ -12492,8 +11758,8 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="86" t="s">
-        <v>257</v>
+      <c r="A22" s="84" t="s">
+        <v>185</v>
       </c>
       <c r="B22" s="40">
         <v>94</v>

--- a/tests/_dummy_data.xlsx
+++ b/tests/_dummy_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ali_m\AnacondaProjects\PhD\Semiology-Visualisation-Tool\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64C2017-5E83-4C63-9DAA-E226716576CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF99F514-BAD3-45C7-A6F5-5588951FEF08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="340">
   <si>
     <t xml:space="preserve">Semiology </t>
   </si>
@@ -402,9 +402,6 @@
   </si>
   <si>
     <t>Aura (Epigastric)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>aphasia</t>
@@ -1871,6 +1868,21 @@
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1912,21 +1924,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2374,106 +2371,106 @@
     <row r="1" spans="1:125" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="101"/>
       <c r="C1" s="17"/>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="108"/>
-      <c r="G1" s="115" t="s">
+      <c r="E1" s="113"/>
+      <c r="G1" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="K1" s="117" t="s">
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="K1" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="119"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
-      <c r="U1" s="109"/>
-      <c r="V1" s="109"/>
-      <c r="W1" s="109"/>
-      <c r="X1" s="109"/>
-      <c r="Y1" s="109"/>
-      <c r="Z1" s="109"/>
-      <c r="AA1" s="109"/>
-      <c r="AB1" s="109"/>
-      <c r="AC1" s="109"/>
-      <c r="AD1" s="109"/>
-      <c r="AE1" s="109"/>
-      <c r="AF1" s="109"/>
-      <c r="AG1" s="109"/>
-      <c r="AH1" s="109"/>
-      <c r="AI1" s="109"/>
-      <c r="AJ1" s="109"/>
-      <c r="AK1" s="109"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="124"/>
+      <c r="S1" s="114"/>
+      <c r="T1" s="114"/>
+      <c r="U1" s="114"/>
+      <c r="V1" s="114"/>
+      <c r="W1" s="114"/>
+      <c r="X1" s="114"/>
+      <c r="Y1" s="114"/>
+      <c r="Z1" s="114"/>
+      <c r="AA1" s="114"/>
+      <c r="AB1" s="114"/>
+      <c r="AC1" s="114"/>
+      <c r="AD1" s="114"/>
+      <c r="AE1" s="114"/>
+      <c r="AF1" s="114"/>
+      <c r="AG1" s="114"/>
+      <c r="AH1" s="114"/>
+      <c r="AI1" s="114"/>
+      <c r="AJ1" s="114"/>
+      <c r="AK1" s="114"/>
       <c r="AM1" s="100"/>
-      <c r="AN1" s="110" t="s">
+      <c r="AN1" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="AO1" s="109"/>
-      <c r="AP1" s="109"/>
-      <c r="AQ1" s="109"/>
-      <c r="AR1" s="109"/>
-      <c r="AS1" s="109"/>
-      <c r="AT1" s="109"/>
-      <c r="AU1" s="109"/>
-      <c r="AV1" s="109"/>
-      <c r="AW1" s="109"/>
-      <c r="AX1" s="109"/>
-      <c r="AY1" s="109"/>
-      <c r="AZ1" s="109"/>
-      <c r="BA1" s="109"/>
-      <c r="BB1" s="109"/>
-      <c r="BC1" s="109"/>
-      <c r="BD1" s="109"/>
-      <c r="BE1" s="109"/>
-      <c r="BF1" s="109"/>
-      <c r="BG1" s="109"/>
-      <c r="BH1" s="109"/>
-      <c r="BI1" s="109"/>
-      <c r="BJ1" s="109"/>
-      <c r="BK1" s="109"/>
-      <c r="BL1" s="109"/>
-      <c r="BM1" s="109"/>
-      <c r="BN1" s="109"/>
-      <c r="BO1" s="109"/>
-      <c r="BP1" s="109"/>
-      <c r="BR1" s="112"/>
-      <c r="BS1" s="113"/>
-      <c r="BT1" s="113"/>
-      <c r="BU1" s="113"/>
-      <c r="BV1" s="113"/>
-      <c r="BW1" s="114"/>
+      <c r="AO1" s="114"/>
+      <c r="AP1" s="114"/>
+      <c r="AQ1" s="114"/>
+      <c r="AR1" s="114"/>
+      <c r="AS1" s="114"/>
+      <c r="AT1" s="114"/>
+      <c r="AU1" s="114"/>
+      <c r="AV1" s="114"/>
+      <c r="AW1" s="114"/>
+      <c r="AX1" s="114"/>
+      <c r="AY1" s="114"/>
+      <c r="AZ1" s="114"/>
+      <c r="BA1" s="114"/>
+      <c r="BB1" s="114"/>
+      <c r="BC1" s="114"/>
+      <c r="BD1" s="114"/>
+      <c r="BE1" s="114"/>
+      <c r="BF1" s="114"/>
+      <c r="BG1" s="114"/>
+      <c r="BH1" s="114"/>
+      <c r="BI1" s="114"/>
+      <c r="BJ1" s="114"/>
+      <c r="BK1" s="114"/>
+      <c r="BL1" s="114"/>
+      <c r="BM1" s="114"/>
+      <c r="BN1" s="114"/>
+      <c r="BO1" s="114"/>
+      <c r="BP1" s="114"/>
+      <c r="BR1" s="117"/>
+      <c r="BS1" s="118"/>
+      <c r="BT1" s="118"/>
+      <c r="BU1" s="118"/>
+      <c r="BV1" s="118"/>
+      <c r="BW1" s="119"/>
       <c r="BX1" s="103"/>
-      <c r="BZ1" s="109"/>
-      <c r="CA1" s="109"/>
-      <c r="CB1" s="109"/>
-      <c r="CC1" s="109"/>
-      <c r="CD1" s="109"/>
-      <c r="CE1" s="109"/>
-      <c r="CF1" s="109"/>
-      <c r="CG1" s="111"/>
-      <c r="CH1" s="110" t="s">
+      <c r="BZ1" s="114"/>
+      <c r="CA1" s="114"/>
+      <c r="CB1" s="114"/>
+      <c r="CC1" s="114"/>
+      <c r="CD1" s="114"/>
+      <c r="CE1" s="114"/>
+      <c r="CF1" s="114"/>
+      <c r="CG1" s="116"/>
+      <c r="CH1" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="CI1" s="109"/>
-      <c r="CJ1" s="109"/>
-      <c r="CK1" s="109"/>
-      <c r="CL1" s="109"/>
-      <c r="CM1" s="111"/>
+      <c r="CI1" s="114"/>
+      <c r="CJ1" s="114"/>
+      <c r="CK1" s="114"/>
+      <c r="CL1" s="114"/>
+      <c r="CM1" s="116"/>
       <c r="CO1" s="66"/>
-      <c r="CP1" s="109" t="s">
+      <c r="CP1" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="CQ1" s="109"/>
-      <c r="CR1" s="109"/>
-      <c r="CS1" s="109"/>
-      <c r="CT1" s="109"/>
-      <c r="CU1" s="109"/>
-      <c r="CV1" s="109"/>
+      <c r="CQ1" s="114"/>
+      <c r="CR1" s="114"/>
+      <c r="CS1" s="114"/>
+      <c r="CT1" s="114"/>
+      <c r="CU1" s="114"/>
+      <c r="CV1" s="114"/>
       <c r="CX1" s="96"/>
       <c r="CY1" s="96"/>
       <c r="CZ1" s="96"/>
@@ -2651,7 +2648,7 @@
         <v>57</v>
       </c>
       <c r="BA2" s="24" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="BB2" s="24" t="s">
         <v>58</v>
@@ -2678,7 +2675,7 @@
         <v>65</v>
       </c>
       <c r="BJ2" s="24" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="BK2" s="24" t="s">
         <v>66</v>
@@ -2840,7 +2837,7 @@
     </row>
     <row r="3" spans="1:125" ht="30">
       <c r="A3" s="33" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B3" s="33">
         <v>5</v>
@@ -2849,13 +2846,13 @@
         <v>3</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E3" s="34" t="s">
         <v>117</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G3" s="33" t="s">
         <v>116</v>
@@ -2866,7 +2863,7 @@
         <v>3</v>
       </c>
       <c r="Q3" s="32" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="R3" s="5">
         <v>1</v>
@@ -2888,7 +2885,7 @@
         <v>1</v>
       </c>
       <c r="DA3" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="DB3" s="6">
         <v>5</v>
@@ -2926,7 +2923,7 @@
     </row>
     <row r="5" spans="1:125" ht="30">
       <c r="A5" s="33" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B5" s="33">
         <v>1</v>
@@ -2935,13 +2932,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="E5" s="34" t="s">
         <v>300</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="F5" s="33" t="s">
         <v>301</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>302</v>
       </c>
       <c r="G5" s="33"/>
       <c r="H5" s="33" t="s">
@@ -2960,7 +2957,7 @@
         <v>1</v>
       </c>
       <c r="Q5" s="32" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AL5" s="5">
         <v>1</v>
@@ -3007,7 +3004,7 @@
     </row>
     <row r="7" spans="1:125" ht="30">
       <c r="A7" s="33" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B7" s="33">
         <v>10</v>
@@ -3016,17 +3013,17 @@
         <v>10</v>
       </c>
       <c r="D7" s="33" t="s">
+        <v>306</v>
+      </c>
+      <c r="E7" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="E7" s="34" t="s">
-        <v>308</v>
-      </c>
       <c r="F7" s="33" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G7" s="33"/>
       <c r="H7" s="33" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I7" s="33" t="s">
         <v>116</v>
@@ -3038,7 +3035,7 @@
         <v>10</v>
       </c>
       <c r="Q7" s="32" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AL7" s="5">
         <v>10</v>
@@ -3059,7 +3056,7 @@
         <v>2</v>
       </c>
       <c r="DA7" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="DB7" s="6">
         <v>10</v>
@@ -3074,7 +3071,7 @@
         <v>116</v>
       </c>
       <c r="DH7" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="DP7" s="34"/>
       <c r="DQ7" s="34"/>
@@ -3100,7 +3097,7 @@
     </row>
     <row r="9" spans="1:125">
       <c r="A9" s="33" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B9" s="33">
         <v>10</v>
@@ -3109,13 +3106,13 @@
         <v>10</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G9" s="33" t="s">
         <v>116</v>
@@ -3132,7 +3129,7 @@
         <v>9</v>
       </c>
       <c r="Q9" s="32" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="R9" s="5">
         <v>9</v>
@@ -3150,7 +3147,7 @@
         <v>5</v>
       </c>
       <c r="DA9" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="DB9" s="6">
         <v>10</v>
@@ -3176,13 +3173,13 @@
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
       <c r="D10" s="33" t="s">
+        <v>312</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>312</v>
+      </c>
+      <c r="F10" s="33" t="s">
         <v>313</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>313</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>314</v>
       </c>
       <c r="G10" s="33" t="s">
         <v>116</v>
@@ -3199,7 +3196,7 @@
         <v>1</v>
       </c>
       <c r="Q10" s="32" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AL10" s="5">
         <v>1</v>
@@ -3208,7 +3205,7 @@
         <v>1</v>
       </c>
       <c r="DA10" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="DP10" s="34"/>
       <c r="DQ10" s="34"/>
@@ -3249,7 +3246,7 @@
     </row>
     <row r="13" spans="1:125">
       <c r="A13" s="33" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B13" s="33">
         <v>1</v>
@@ -3258,13 +3255,13 @@
         <v>1</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E13" s="34" t="s">
+        <v>317</v>
+      </c>
+      <c r="F13" s="33" t="s">
         <v>318</v>
-      </c>
-      <c r="F13" s="33" t="s">
-        <v>319</v>
       </c>
       <c r="G13" s="33"/>
       <c r="H13" s="33" t="s">
@@ -3281,7 +3278,7 @@
         <v>1</v>
       </c>
       <c r="DA13" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="DB13" s="6">
         <v>1</v>
@@ -3304,7 +3301,7 @@
     </row>
     <row r="14" spans="1:125">
       <c r="A14" s="33" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B14" s="33">
         <v>1</v>
@@ -3313,13 +3310,13 @@
         <v>1</v>
       </c>
       <c r="D14" s="34" t="s">
+        <v>329</v>
+      </c>
+      <c r="E14" s="34" t="s">
         <v>330</v>
       </c>
-      <c r="E14" s="34" t="s">
-        <v>331</v>
-      </c>
       <c r="F14" s="33" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G14" s="33"/>
       <c r="H14" s="33" t="s">
@@ -3336,7 +3333,7 @@
         <v>1</v>
       </c>
       <c r="DA14" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="DB14" s="6">
         <v>1</v>
@@ -3359,7 +3356,7 @@
     </row>
     <row r="15" spans="1:125">
       <c r="A15" s="33" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B15" s="33">
         <v>1</v>
@@ -3368,13 +3365,13 @@
         <v>1</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G15" s="33"/>
       <c r="H15" s="33" t="s">
@@ -3391,7 +3388,7 @@
         <v>1</v>
       </c>
       <c r="DA15" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="DB15" s="6">
         <v>1</v>
@@ -3985,12 +3982,12 @@
     <row r="1" spans="1:8">
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="120" t="s">
+      <c r="E1" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
     </row>
     <row r="2" spans="1:8" ht="45">
       <c r="C2" s="75" t="s">
@@ -4014,7 +4011,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="51" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B3" s="46">
         <v>109</v>
@@ -4025,7 +4022,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="51" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B4" s="46">
         <v>110</v>
@@ -4041,7 +4038,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B5" s="46">
         <v>115</v>
@@ -4059,7 +4056,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B6" s="46">
         <v>116</v>
@@ -4077,7 +4074,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="51" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B7" s="46">
         <v>129</v>
@@ -4093,7 +4090,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="51" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B8" s="46">
         <v>130</v>
@@ -4109,7 +4106,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B9" s="46">
         <v>135</v>
@@ -4127,7 +4124,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B10" s="46">
         <v>136</v>
@@ -4145,7 +4142,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B11" s="46">
         <v>145</v>
@@ -4163,7 +4160,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B12" s="46">
         <v>146</v>
@@ -4181,7 +4178,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B13" s="46">
         <v>157</v>
@@ -4199,7 +4196,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B14" s="46">
         <v>158</v>
@@ -4217,7 +4214,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B15" s="46">
         <v>161</v>
@@ -4233,7 +4230,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B16" s="46">
         <v>162</v>
@@ -4244,7 +4241,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="51" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B17" s="40">
         <v>197</v>
@@ -4255,7 +4252,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="51" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B18" s="40">
         <v>198</v>
@@ -4289,11 +4286,11 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="C1" s="2"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="111"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="116"/>
       <c r="I1" s="102"/>
       <c r="J1" s="89"/>
     </row>
@@ -4320,12 +4317,12 @@
         <v>79</v>
       </c>
       <c r="J2" s="90" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B3" s="46">
         <v>101</v>
@@ -4346,7 +4343,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B4" s="46">
         <v>102</v>
@@ -4367,7 +4364,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B5" s="46">
         <v>139</v>
@@ -4381,7 +4378,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B6" s="46">
         <v>140</v>
@@ -4395,7 +4392,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B7" s="46">
         <v>167</v>
@@ -4412,7 +4409,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B8" s="46">
         <v>168</v>
@@ -4429,7 +4426,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B9" s="46">
         <v>83</v>
@@ -4443,7 +4440,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B10" s="46">
         <v>91</v>
@@ -4480,15 +4477,15 @@
     <row r="1" spans="1:11" ht="26.25">
       <c r="C1" s="2"/>
       <c r="D1" s="66"/>
-      <c r="E1" s="121" t="s">
+      <c r="E1" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
     </row>
     <row r="2" spans="1:11" ht="30">
       <c r="C2" s="76" t="s">
@@ -4521,7 +4518,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B3" s="46">
         <v>103</v>
@@ -4547,7 +4544,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B4" s="46">
         <v>104</v>
@@ -4573,7 +4570,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B5" s="46">
         <v>173</v>
@@ -4593,7 +4590,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B6" s="46">
         <v>174</v>
@@ -4647,7 +4644,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B3" s="46">
         <v>60</v>
@@ -4658,7 +4655,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B4" s="46">
         <v>61</v>
@@ -4738,7 +4735,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="84" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B3" s="40">
         <v>39</v>
@@ -4754,7 +4751,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="84" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B4" s="40">
         <v>40</v>
@@ -4770,7 +4767,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="84" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B5" s="40">
         <v>41</v>
@@ -4786,7 +4783,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="84" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B6" s="40">
         <v>42</v>
@@ -4802,7 +4799,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="84" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B7" s="40">
         <v>72</v>
@@ -4818,7 +4815,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="84" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B8" s="40">
         <v>73</v>
@@ -4834,7 +4831,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="84" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B9" s="40">
         <v>74</v>
@@ -4887,44 +4884,44 @@
     <row r="1" spans="1:14" s="39" customFormat="1" ht="18" customHeight="1">
       <c r="A1" s="42"/>
       <c r="B1" s="63" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E1" s="64" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I1" s="42"/>
     </row>
     <row r="2" spans="1:14" s="40" customFormat="1" ht="31.5">
       <c r="A2" s="40" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B2" s="30">
         <f>SUM(Main!P9:P15)</f>
         <v>13</v>
       </c>
       <c r="E2" s="74" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F2" s="40" t="s">
+        <v>334</v>
+      </c>
+      <c r="G2" s="40" t="s">
         <v>335</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="H2" s="40" t="s">
+        <v>335</v>
+      </c>
+      <c r="I2" s="40" t="s">
+        <v>335</v>
+      </c>
+      <c r="J2" s="40" t="s">
+        <v>335</v>
+      </c>
+      <c r="K2" s="40" t="s">
+        <v>335</v>
+      </c>
+      <c r="L2" s="39" t="s">
         <v>336</v>
-      </c>
-      <c r="H2" s="40" t="s">
-        <v>336</v>
-      </c>
-      <c r="I2" s="40" t="s">
-        <v>336</v>
-      </c>
-      <c r="J2" s="40" t="s">
-        <v>336</v>
-      </c>
-      <c r="K2" s="40" t="s">
-        <v>336</v>
-      </c>
-      <c r="L2" s="39" t="s">
-        <v>337</v>
       </c>
       <c r="M2" s="74" t="s">
         <v>43</v>
@@ -4932,13 +4929,13 @@
     </row>
     <row r="3" spans="1:14" s="40" customFormat="1">
       <c r="A3" s="40" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B3" s="31">
         <f>SUM(Main!J9:J15)</f>
         <v>6</v>
       </c>
-      <c r="E3" s="123">
+      <c r="E3" s="109">
         <v>32</v>
       </c>
       <c r="I3" s="31"/>
@@ -4946,11 +4943,11 @@
       <c r="K3" s="46">
         <v>5</v>
       </c>
-      <c r="L3" s="122">
+      <c r="L3" s="108">
         <f>SUM(F3:K3)</f>
         <v>5</v>
       </c>
-      <c r="M3" s="123">
+      <c r="M3" s="109">
         <v>105</v>
       </c>
       <c r="N3" s="39">
@@ -4959,7 +4956,7 @@
     </row>
     <row r="4" spans="1:14" s="40" customFormat="1">
       <c r="B4" s="31"/>
-      <c r="E4" s="123">
+      <c r="E4" s="109">
         <v>33</v>
       </c>
       <c r="I4" s="31"/>
@@ -4967,11 +4964,11 @@
       <c r="K4" s="46">
         <v>5</v>
       </c>
-      <c r="L4" s="122">
+      <c r="L4" s="108">
         <f t="shared" ref="L4:L26" si="0">SUM(F4:K4)</f>
         <v>5</v>
       </c>
-      <c r="M4" s="123">
+      <c r="M4" s="109">
         <v>106</v>
       </c>
       <c r="N4" s="39">
@@ -4980,7 +4977,7 @@
     </row>
     <row r="5" spans="1:14" s="40" customFormat="1">
       <c r="B5" s="30"/>
-      <c r="E5" s="123">
+      <c r="E5" s="109">
         <v>48</v>
       </c>
       <c r="F5" s="40">
@@ -4994,11 +4991,11 @@
       <c r="K5" s="46">
         <v>5</v>
       </c>
-      <c r="L5" s="122">
+      <c r="L5" s="108">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="M5" s="123">
+      <c r="M5" s="109">
         <v>119</v>
       </c>
       <c r="N5" s="39">
@@ -5007,9 +5004,9 @@
     </row>
     <row r="6" spans="1:14" s="40" customFormat="1">
       <c r="B6" s="40" t="s">
-        <v>327</v>
-      </c>
-      <c r="E6" s="123">
+        <v>326</v>
+      </c>
+      <c r="E6" s="109">
         <v>49</v>
       </c>
       <c r="F6" s="40">
@@ -5021,11 +5018,11 @@
       <c r="K6" s="46">
         <v>5</v>
       </c>
-      <c r="L6" s="122">
+      <c r="L6" s="108">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="M6" s="123">
+      <c r="M6" s="109">
         <v>120</v>
       </c>
       <c r="N6" s="39">
@@ -5034,12 +5031,12 @@
     </row>
     <row r="7" spans="1:14" s="40" customFormat="1">
       <c r="A7" s="40" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B7" s="30">
         <v>1</v>
       </c>
-      <c r="E7" s="123">
+      <c r="E7" s="109">
         <v>117</v>
       </c>
       <c r="F7" s="40">
@@ -5051,11 +5048,11 @@
       <c r="K7" s="46">
         <v>5</v>
       </c>
-      <c r="L7" s="122">
+      <c r="L7" s="108">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="M7" s="123">
+      <c r="M7" s="109">
         <v>121</v>
       </c>
       <c r="N7" s="39">
@@ -5064,12 +5061,12 @@
     </row>
     <row r="8" spans="1:14" s="40" customFormat="1">
       <c r="A8" s="40" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B8" s="31">
         <v>0</v>
       </c>
-      <c r="E8" s="123">
+      <c r="E8" s="109">
         <v>118</v>
       </c>
       <c r="F8" s="40">
@@ -5082,11 +5079,11 @@
       <c r="K8" s="46">
         <v>5</v>
       </c>
-      <c r="L8" s="122">
+      <c r="L8" s="108">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="M8" s="123">
+      <c r="M8" s="109">
         <v>122</v>
       </c>
       <c r="N8" s="39">
@@ -5094,7 +5091,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" s="40" customFormat="1">
-      <c r="E9" s="123">
+      <c r="E9" s="109">
         <v>123</v>
       </c>
       <c r="F9" s="40">
@@ -5104,11 +5101,11 @@
         <v>9</v>
       </c>
       <c r="K9" s="49"/>
-      <c r="L9" s="122">
+      <c r="L9" s="108">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="M9" s="123">
+      <c r="M9" s="109">
         <v>125</v>
       </c>
       <c r="N9" s="39">
@@ -5116,7 +5113,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" s="40" customFormat="1">
-      <c r="E10" s="123">
+      <c r="E10" s="109">
         <v>124</v>
       </c>
       <c r="F10" s="40">
@@ -5126,11 +5123,11 @@
         <v>9</v>
       </c>
       <c r="K10" s="49"/>
-      <c r="L10" s="122">
+      <c r="L10" s="108">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="M10" s="123">
+      <c r="M10" s="109">
         <v>126</v>
       </c>
       <c r="N10" s="39">
@@ -5139,9 +5136,9 @@
     </row>
     <row r="11" spans="1:14" s="40" customFormat="1">
       <c r="B11" s="40" t="s">
-        <v>328</v>
-      </c>
-      <c r="E11" s="123">
+        <v>327</v>
+      </c>
+      <c r="E11" s="109">
         <v>133</v>
       </c>
       <c r="F11" s="40">
@@ -5156,11 +5153,11 @@
       <c r="J11" s="40">
         <v>4</v>
       </c>
-      <c r="L11" s="122">
+      <c r="L11" s="108">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="M11" s="123">
+      <c r="M11" s="109">
         <v>137</v>
       </c>
       <c r="N11" s="39">
@@ -5169,12 +5166,12 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="40" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B12" s="30">
         <v>1</v>
       </c>
-      <c r="E12" s="123">
+      <c r="E12" s="109">
         <v>134</v>
       </c>
       <c r="F12" s="40">
@@ -5190,11 +5187,11 @@
         <v>4</v>
       </c>
       <c r="K12" s="40"/>
-      <c r="L12" s="122">
+      <c r="L12" s="108">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="M12" s="123">
+      <c r="M12" s="109">
         <v>138</v>
       </c>
       <c r="N12" s="39">
@@ -5203,13 +5200,13 @@
     </row>
     <row r="13" spans="1:14" s="40" customFormat="1">
       <c r="A13" s="40" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B13" s="31">
         <f>SUM(Main!J19:J25)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="123">
+      <c r="E13" s="109">
         <v>155</v>
       </c>
       <c r="F13" s="40">
@@ -5221,11 +5218,11 @@
       <c r="I13" s="46">
         <v>4</v>
       </c>
-      <c r="L13" s="122">
+      <c r="L13" s="108">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="M13" s="123">
+      <c r="M13" s="109">
         <v>141</v>
       </c>
       <c r="N13" s="39">
@@ -5233,7 +5230,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" s="40" customFormat="1">
-      <c r="E14" s="123">
+      <c r="E14" s="109">
         <v>156</v>
       </c>
       <c r="F14" s="40">
@@ -5245,11 +5242,11 @@
       <c r="I14" s="46">
         <v>4</v>
       </c>
-      <c r="L14" s="122">
+      <c r="L14" s="108">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="M14" s="123">
+      <c r="M14" s="109">
         <v>142</v>
       </c>
       <c r="N14" s="39">
@@ -5257,7 +5254,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" s="40" customFormat="1">
-      <c r="E15" s="123">
+      <c r="E15" s="109">
         <v>171</v>
       </c>
       <c r="F15" s="40">
@@ -5269,11 +5266,11 @@
       <c r="K15" s="46">
         <v>5</v>
       </c>
-      <c r="L15" s="122">
+      <c r="L15" s="108">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="M15" s="123">
+      <c r="M15" s="109">
         <v>143</v>
       </c>
       <c r="N15" s="39">
@@ -5282,9 +5279,9 @@
     </row>
     <row r="16" spans="1:14" s="40" customFormat="1">
       <c r="B16" s="40" t="s">
-        <v>329</v>
-      </c>
-      <c r="E16" s="123">
+        <v>328</v>
+      </c>
+      <c r="E16" s="109">
         <v>172</v>
       </c>
       <c r="F16" s="40">
@@ -5296,11 +5293,11 @@
       <c r="K16" s="46">
         <v>5</v>
       </c>
-      <c r="L16" s="122">
+      <c r="L16" s="108">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="M16" s="123">
+      <c r="M16" s="109">
         <v>144</v>
       </c>
       <c r="N16" s="39">
@@ -5309,7 +5306,7 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="40" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B17" s="30">
         <v>1</v>
@@ -5326,11 +5323,11 @@
       <c r="I17" s="46">
         <v>4</v>
       </c>
-      <c r="L17" s="122">
+      <c r="L17" s="108">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="M17" s="123">
+      <c r="M17" s="109">
         <v>147</v>
       </c>
       <c r="N17" s="39">
@@ -5339,7 +5336,7 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="40" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B18" s="31">
         <v>1</v>
@@ -5356,11 +5353,11 @@
       <c r="I18" s="46">
         <v>4</v>
       </c>
-      <c r="L18" s="122">
+      <c r="L18" s="108">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="M18" s="123">
+      <c r="M18" s="109">
         <v>148</v>
       </c>
       <c r="N18" s="39">
@@ -5381,11 +5378,11 @@
       <c r="I19" s="46">
         <v>4</v>
       </c>
-      <c r="L19" s="122">
+      <c r="L19" s="108">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="M19" s="123">
+      <c r="M19" s="109">
         <v>151</v>
       </c>
       <c r="N19" s="39">
@@ -5406,11 +5403,11 @@
       <c r="I20" s="46">
         <v>4</v>
       </c>
-      <c r="L20" s="122">
+      <c r="L20" s="108">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="M20" s="123">
+      <c r="M20" s="109">
         <v>152</v>
       </c>
       <c r="N20" s="39">
@@ -5420,7 +5417,7 @@
     <row r="21" spans="1:14">
       <c r="A21" s="40"/>
       <c r="B21" s="40" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E21" s="39">
         <v>201</v>
@@ -5434,11 +5431,11 @@
       <c r="I21" s="46">
         <v>4</v>
       </c>
-      <c r="L21" s="122">
+      <c r="L21" s="108">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="M21" s="123">
+      <c r="M21" s="109">
         <v>153</v>
       </c>
       <c r="N21" s="39">
@@ -5447,7 +5444,7 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="40" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B22" s="40">
         <v>1</v>
@@ -5464,11 +5461,11 @@
       <c r="I22" s="46">
         <v>4</v>
       </c>
-      <c r="L22" s="122">
+      <c r="L22" s="108">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="M22" s="123">
+      <c r="M22" s="109">
         <v>154</v>
       </c>
       <c r="N22" s="39">
@@ -5477,7 +5474,7 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="40" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B23" s="31">
         <f>SUM(Main!J29:J35)</f>
@@ -5496,11 +5493,11 @@
         <v>5</v>
       </c>
       <c r="I23" s="40"/>
-      <c r="L23" s="122">
+      <c r="L23" s="108">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="M23" s="123">
+      <c r="M23" s="109">
         <v>163</v>
       </c>
       <c r="N23" s="39">
@@ -5522,11 +5519,11 @@
         <v>5</v>
       </c>
       <c r="I24" s="40"/>
-      <c r="L24" s="122">
+      <c r="L24" s="108">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="M24" s="123">
+      <c r="M24" s="109">
         <v>164</v>
       </c>
       <c r="N24" s="39">
@@ -5547,11 +5544,11 @@
       <c r="I25" s="46">
         <v>4</v>
       </c>
-      <c r="L25" s="122">
+      <c r="L25" s="108">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="M25" s="123">
+      <c r="M25" s="109">
         <v>165</v>
       </c>
       <c r="N25" s="39">
@@ -5572,11 +5569,11 @@
       <c r="I26" s="46">
         <v>4</v>
       </c>
-      <c r="L26" s="122">
+      <c r="L26" s="108">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="M26" s="123">
+      <c r="M26" s="109">
         <v>166</v>
       </c>
       <c r="N26" s="39">
@@ -5585,7 +5582,7 @@
     </row>
     <row r="27" spans="1:14">
       <c r="C27" s="40"/>
-      <c r="M27" s="123">
+      <c r="M27" s="109">
         <v>179</v>
       </c>
       <c r="N27" s="39">
@@ -5691,7 +5688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
@@ -5704,14 +5701,14 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="39" t="s">
+        <v>338</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>339</v>
       </c>
-      <c r="B1" s="39" t="s">
-        <v>340</v>
-      </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="124">
+      <c r="A2" s="110">
         <v>32</v>
       </c>
       <c r="B2" s="54">
@@ -5719,7 +5716,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="124">
+      <c r="A3" s="110">
         <v>33</v>
       </c>
       <c r="B3" s="54">
@@ -5727,7 +5724,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="124">
+      <c r="A4" s="110">
         <v>48</v>
       </c>
       <c r="B4" s="54">
@@ -5735,7 +5732,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="124">
+      <c r="A5" s="110">
         <v>49</v>
       </c>
       <c r="B5" s="54">
@@ -5743,7 +5740,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="124">
+      <c r="A6" s="110">
         <v>117</v>
       </c>
       <c r="B6" s="54">
@@ -5751,7 +5748,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="124">
+      <c r="A7" s="110">
         <v>118</v>
       </c>
       <c r="B7" s="54">
@@ -5759,7 +5756,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="124">
+      <c r="A8" s="110">
         <v>123</v>
       </c>
       <c r="B8" s="54">
@@ -5767,7 +5764,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="124">
+      <c r="A9" s="110">
         <v>124</v>
       </c>
       <c r="B9" s="54">
@@ -5775,7 +5772,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="124">
+      <c r="A10" s="110">
         <v>133</v>
       </c>
       <c r="B10" s="54">
@@ -5783,7 +5780,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="124">
+      <c r="A11" s="110">
         <v>134</v>
       </c>
       <c r="B11" s="54">
@@ -5791,7 +5788,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="124">
+      <c r="A12" s="110">
         <v>155</v>
       </c>
       <c r="B12" s="54">
@@ -5799,7 +5796,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="124">
+      <c r="A13" s="110">
         <v>156</v>
       </c>
       <c r="B13" s="54">
@@ -5807,7 +5804,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="124">
+      <c r="A14" s="110">
         <v>171</v>
       </c>
       <c r="B14" s="54">
@@ -5815,7 +5812,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="124">
+      <c r="A15" s="110">
         <v>172</v>
       </c>
       <c r="B15" s="54">
@@ -5903,7 +5900,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="124">
+      <c r="A26" s="110">
         <v>105</v>
       </c>
       <c r="B26" s="54">
@@ -5911,7 +5908,7 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="124">
+      <c r="A27" s="110">
         <v>106</v>
       </c>
       <c r="B27" s="54">
@@ -5919,7 +5916,7 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="124">
+      <c r="A28" s="110">
         <v>119</v>
       </c>
       <c r="B28" s="54">
@@ -5927,7 +5924,7 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="124">
+      <c r="A29" s="110">
         <v>120</v>
       </c>
       <c r="B29" s="54">
@@ -5935,7 +5932,7 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="124">
+      <c r="A30" s="110">
         <v>121</v>
       </c>
       <c r="B30" s="54">
@@ -5943,7 +5940,7 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="124">
+      <c r="A31" s="110">
         <v>122</v>
       </c>
       <c r="B31" s="54">
@@ -5951,7 +5948,7 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="124">
+      <c r="A32" s="110">
         <v>125</v>
       </c>
       <c r="B32" s="54">
@@ -5959,7 +5956,7 @@
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="124">
+      <c r="A33" s="110">
         <v>126</v>
       </c>
       <c r="B33" s="54">
@@ -5967,7 +5964,7 @@
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="124">
+      <c r="A34" s="110">
         <v>137</v>
       </c>
       <c r="B34" s="54">
@@ -5975,7 +5972,7 @@
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="124">
+      <c r="A35" s="110">
         <v>138</v>
       </c>
       <c r="B35" s="54">
@@ -5983,7 +5980,7 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="124">
+      <c r="A36" s="110">
         <v>141</v>
       </c>
       <c r="B36" s="54">
@@ -5991,7 +5988,7 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="124">
+      <c r="A37" s="110">
         <v>142</v>
       </c>
       <c r="B37" s="54">
@@ -5999,7 +5996,7 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="124">
+      <c r="A38" s="110">
         <v>143</v>
       </c>
       <c r="B38" s="54">
@@ -6007,7 +6004,7 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="124">
+      <c r="A39" s="110">
         <v>144</v>
       </c>
       <c r="B39" s="54">
@@ -6015,7 +6012,7 @@
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="124">
+      <c r="A40" s="110">
         <v>147</v>
       </c>
       <c r="B40" s="54">
@@ -6023,7 +6020,7 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="124">
+      <c r="A41" s="110">
         <v>148</v>
       </c>
       <c r="B41" s="54">
@@ -6031,7 +6028,7 @@
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="124">
+      <c r="A42" s="110">
         <v>151</v>
       </c>
       <c r="B42" s="54">
@@ -6039,7 +6036,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="124">
+      <c r="A43" s="110">
         <v>152</v>
       </c>
       <c r="B43" s="54">
@@ -6047,7 +6044,7 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="124">
+      <c r="A44" s="110">
         <v>153</v>
       </c>
       <c r="B44" s="54">
@@ -6055,7 +6052,7 @@
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="124">
+      <c r="A45" s="110">
         <v>154</v>
       </c>
       <c r="B45" s="54">
@@ -6063,7 +6060,7 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="124">
+      <c r="A46" s="110">
         <v>163</v>
       </c>
       <c r="B46" s="54">
@@ -6071,7 +6068,7 @@
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="124">
+      <c r="A47" s="110">
         <v>164</v>
       </c>
       <c r="B47" s="54">
@@ -6079,7 +6076,7 @@
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="124">
+      <c r="A48" s="110">
         <v>165</v>
       </c>
       <c r="B48" s="54">
@@ -6087,7 +6084,7 @@
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="124">
+      <c r="A49" s="110">
         <v>166</v>
       </c>
       <c r="B49" s="54">
@@ -6095,7 +6092,7 @@
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="124">
+      <c r="A50" s="110">
         <v>179</v>
       </c>
       <c r="B50" s="54">
@@ -6174,7 +6171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" s="125" customFormat="1">
+    <row r="60" spans="1:2" s="111" customFormat="1">
       <c r="A60" s="54">
         <v>205</v>
       </c>
@@ -6190,7 +6187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" s="126" customFormat="1"/>
+    <row r="62" spans="1:2" s="112" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6213,21 +6210,21 @@
   <sheetData>
     <row r="1" spans="1:4" s="39" customFormat="1">
       <c r="A1" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="C1" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="D1" s="39" t="s">
         <v>122</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="84" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B2" s="40">
         <v>0</v>
@@ -6235,7 +6232,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="84" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B3" s="40">
         <v>1</v>
@@ -6243,7 +6240,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="84" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B4" s="40">
         <v>2</v>
@@ -6251,7 +6248,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="84" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B5" s="40">
         <v>3</v>
@@ -6259,7 +6256,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="84" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B6" s="40">
         <v>4</v>
@@ -6267,7 +6264,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="84" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B7" s="40">
         <v>5</v>
@@ -6275,7 +6272,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="84" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B8" s="40">
         <v>12</v>
@@ -6283,7 +6280,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="84" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B9" s="40">
         <v>16</v>
@@ -6291,7 +6288,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="84" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C10" s="40">
         <v>24</v>
@@ -6299,7 +6296,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="84" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D11" s="40">
         <v>31</v>
@@ -6307,7 +6304,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="84" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C12" s="40">
         <v>32</v>
@@ -6315,7 +6312,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="84" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D13" s="40">
         <v>33</v>
@@ -6323,7 +6320,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="84" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B14" s="40">
         <v>35</v>
@@ -6331,7 +6328,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="84" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B15" s="40">
         <v>36</v>
@@ -6339,7 +6336,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="84" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C16" s="40">
         <v>37</v>
@@ -6347,7 +6344,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="84" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D17" s="40">
         <v>38</v>
@@ -6355,7 +6352,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="84" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C18" s="40">
         <v>39</v>
@@ -6363,7 +6360,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="84" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D19" s="40">
         <v>40</v>
@@ -6371,7 +6368,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="84" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C20" s="40">
         <v>41</v>
@@ -6379,7 +6376,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="84" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D21" s="40">
         <v>42</v>
@@ -6387,7 +6384,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="84" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C22" s="40">
         <v>43</v>
@@ -6395,7 +6392,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="84" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D23" s="40">
         <v>44</v>
@@ -6403,7 +6400,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="84" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B24" s="40">
         <v>47</v>
@@ -6411,7 +6408,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="84" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C25" s="40">
         <v>48</v>
@@ -6419,7 +6416,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="84" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D26" s="40">
         <v>49</v>
@@ -6427,7 +6424,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="84" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C27" s="40">
         <v>50</v>
@@ -6435,7 +6432,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="84" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D28" s="40">
         <v>51</v>
@@ -6443,7 +6440,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="84" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C29" s="40">
         <v>52</v>
@@ -6451,7 +6448,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="84" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D30" s="40">
         <v>53</v>
@@ -6459,7 +6456,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="84" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C31" s="40">
         <v>54</v>
@@ -6467,7 +6464,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="84" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D32" s="40">
         <v>55</v>
@@ -6475,7 +6472,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="84" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C33" s="40">
         <v>56</v>
@@ -6483,7 +6480,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="84" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D34" s="40">
         <v>57</v>
@@ -6491,7 +6488,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="84" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C35" s="40">
         <v>58</v>
@@ -6499,7 +6496,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="84" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D36" s="40">
         <v>59</v>
@@ -6507,7 +6504,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="84" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C37" s="40">
         <v>60</v>
@@ -6515,7 +6512,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="84" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D38" s="40">
         <v>61</v>
@@ -6523,7 +6520,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="84" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C39" s="40">
         <v>62</v>
@@ -6531,7 +6528,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="84" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D40" s="40">
         <v>63</v>
@@ -6539,7 +6536,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="84" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C41" s="40">
         <v>64</v>
@@ -6547,7 +6544,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="84" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D42" s="40">
         <v>65</v>
@@ -6555,7 +6552,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="84" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C43" s="40">
         <v>66</v>
@@ -6563,7 +6560,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="84" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D44" s="40">
         <v>67</v>
@@ -6571,7 +6568,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="84" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B45" s="40">
         <v>70</v>
@@ -6579,7 +6576,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="84" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B46" s="40">
         <v>72</v>
@@ -6587,7 +6584,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="84" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B47" s="40">
         <v>73</v>
@@ -6595,7 +6592,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="84" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B48" s="40">
         <v>74</v>
@@ -6603,7 +6600,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="84" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C49" s="40">
         <v>76</v>
@@ -6611,7 +6608,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="84" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D50" s="40">
         <v>77</v>
@@ -6619,7 +6616,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="84" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C51" s="40">
         <v>81</v>
@@ -6627,7 +6624,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="84" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C52" s="40">
         <v>82</v>
@@ -6635,7 +6632,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="84" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C53" s="40">
         <v>83</v>
@@ -6643,7 +6640,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="84" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C54" s="40">
         <v>84</v>
@@ -6651,7 +6648,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="84" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C55" s="40">
         <v>85</v>
@@ -6659,7 +6656,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="84" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C56" s="40">
         <v>86</v>
@@ -6667,7 +6664,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="84" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B57" s="40">
         <v>87</v>
@@ -6675,7 +6672,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="84" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D58" s="40">
         <v>89</v>
@@ -6683,7 +6680,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="84" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D59" s="40">
         <v>90</v>
@@ -6691,7 +6688,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="84" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D60" s="40">
         <v>91</v>
@@ -6699,7 +6696,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="84" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D61" s="40">
         <v>92</v>
@@ -6707,7 +6704,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="84" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D62" s="40">
         <v>93</v>
@@ -6715,7 +6712,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="84" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D63" s="40">
         <v>94</v>
@@ -6723,7 +6720,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="84" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C64" s="40">
         <v>96</v>
@@ -6731,7 +6728,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="84" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D65" s="40">
         <v>97</v>
@@ -6739,7 +6736,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="84" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C66" s="40">
         <v>101</v>
@@ -6747,7 +6744,7 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="84" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D67" s="40">
         <v>102</v>
@@ -6755,7 +6752,7 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="84" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C68" s="40">
         <v>103</v>
@@ -6763,7 +6760,7 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="84" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D69" s="40">
         <v>104</v>
@@ -6771,7 +6768,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="84" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C70" s="40">
         <v>105</v>
@@ -6779,7 +6776,7 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="84" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D71" s="40">
         <v>106</v>
@@ -6787,7 +6784,7 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="84" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C72" s="40">
         <v>107</v>
@@ -6795,7 +6792,7 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="84" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D73" s="40">
         <v>108</v>
@@ -6803,7 +6800,7 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="84" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C74" s="40">
         <v>109</v>
@@ -6811,7 +6808,7 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="84" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D75" s="40">
         <v>110</v>
@@ -6819,7 +6816,7 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="84" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C76" s="40">
         <v>113</v>
@@ -6827,7 +6824,7 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="84" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D77" s="40">
         <v>114</v>
@@ -6835,7 +6832,7 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="84" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C78" s="40">
         <v>115</v>
@@ -6843,7 +6840,7 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="84" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D79" s="40">
         <v>116</v>
@@ -6851,7 +6848,7 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="84" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C80" s="40">
         <v>117</v>
@@ -6859,7 +6856,7 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="84" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D81" s="40">
         <v>118</v>
@@ -6867,7 +6864,7 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="84" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C82" s="40">
         <v>119</v>
@@ -6875,7 +6872,7 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="84" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D83" s="40">
         <v>120</v>
@@ -6883,7 +6880,7 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="84" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C84" s="40">
         <v>121</v>
@@ -6891,7 +6888,7 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="84" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D85" s="40">
         <v>122</v>
@@ -6899,7 +6896,7 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="84" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C86" s="40">
         <v>123</v>
@@ -6907,7 +6904,7 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="84" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D87" s="40">
         <v>124</v>
@@ -6915,7 +6912,7 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="84" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C88" s="40">
         <v>125</v>
@@ -6923,7 +6920,7 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="84" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D89" s="40">
         <v>126</v>
@@ -6931,7 +6928,7 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="84" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C90" s="40">
         <v>129</v>
@@ -6939,7 +6936,7 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="84" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D91" s="40">
         <v>130</v>
@@ -6947,7 +6944,7 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="84" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C92" s="40">
         <v>133</v>
@@ -6955,7 +6952,7 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="84" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D93" s="40">
         <v>134</v>
@@ -6963,7 +6960,7 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="84" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C94" s="40">
         <v>135</v>
@@ -6971,7 +6968,7 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="84" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D95" s="40">
         <v>136</v>
@@ -6979,7 +6976,7 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="84" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C96" s="40">
         <v>137</v>
@@ -6987,7 +6984,7 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="84" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D97" s="40">
         <v>138</v>
@@ -6995,7 +6992,7 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="84" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C98" s="40">
         <v>139</v>
@@ -7003,7 +7000,7 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="84" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D99" s="40">
         <v>140</v>
@@ -7011,7 +7008,7 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="84" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C100" s="40">
         <v>141</v>
@@ -7019,7 +7016,7 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="84" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D101" s="40">
         <v>142</v>
@@ -7027,7 +7024,7 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="84" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C102" s="40">
         <v>143</v>
@@ -7035,7 +7032,7 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="84" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D103" s="40">
         <v>144</v>
@@ -7043,7 +7040,7 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="84" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C104" s="40">
         <v>145</v>
@@ -7051,7 +7048,7 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="84" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D105" s="40">
         <v>146</v>
@@ -7059,7 +7056,7 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="84" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C106" s="40">
         <v>147</v>
@@ -7067,7 +7064,7 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="84" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D107" s="40">
         <v>148</v>
@@ -7075,7 +7072,7 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="84" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C108" s="40">
         <v>149</v>
@@ -7083,7 +7080,7 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="84" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D109" s="40">
         <v>150</v>
@@ -7091,7 +7088,7 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="84" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C110" s="40">
         <v>151</v>
@@ -7099,7 +7096,7 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="84" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D111" s="40">
         <v>152</v>
@@ -7107,7 +7104,7 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="84" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C112" s="40">
         <v>153</v>
@@ -7115,7 +7112,7 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="84" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D113" s="40">
         <v>154</v>
@@ -7123,7 +7120,7 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="84" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C114" s="40">
         <v>155</v>
@@ -7131,7 +7128,7 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="84" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D115" s="40">
         <v>156</v>
@@ -7139,7 +7136,7 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="84" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C116" s="40">
         <v>157</v>
@@ -7147,7 +7144,7 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="84" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D117" s="40">
         <v>158</v>
@@ -7155,7 +7152,7 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="84" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C118" s="40">
         <v>161</v>
@@ -7163,7 +7160,7 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="84" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D119" s="40">
         <v>162</v>
@@ -7171,7 +7168,7 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="84" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C120" s="40">
         <v>163</v>
@@ -7179,7 +7176,7 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="84" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D121" s="40">
         <v>164</v>
@@ -7187,7 +7184,7 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="84" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C122" s="40">
         <v>165</v>
@@ -7195,7 +7192,7 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="84" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D123" s="40">
         <v>166</v>
@@ -7203,7 +7200,7 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="84" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C124" s="40">
         <v>167</v>
@@ -7211,7 +7208,7 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="84" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D125" s="40">
         <v>168</v>
@@ -7219,7 +7216,7 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="84" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C126" s="40">
         <v>169</v>
@@ -7227,7 +7224,7 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="84" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D127" s="40">
         <v>170</v>
@@ -7235,7 +7232,7 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="84" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C128" s="40">
         <v>171</v>
@@ -7243,7 +7240,7 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="84" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D129" s="40">
         <v>172</v>
@@ -7251,7 +7248,7 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="84" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C130" s="40">
         <v>173</v>
@@ -7259,7 +7256,7 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="84" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D131" s="40">
         <v>174</v>
@@ -7267,7 +7264,7 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="84" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C132" s="40">
         <v>175</v>
@@ -7275,7 +7272,7 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="84" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D133" s="40">
         <v>176</v>
@@ -7283,7 +7280,7 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="84" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C134" s="40">
         <v>177</v>
@@ -7291,7 +7288,7 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="84" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D135" s="40">
         <v>178</v>
@@ -7299,7 +7296,7 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="84" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C136" s="40">
         <v>179</v>
@@ -7307,7 +7304,7 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="84" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D137" s="40">
         <v>180</v>
@@ -7315,7 +7312,7 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="84" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C138" s="40">
         <v>181</v>
@@ -7323,7 +7320,7 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="84" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D139" s="40">
         <v>182</v>
@@ -7331,7 +7328,7 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="84" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C140" s="40">
         <v>183</v>
@@ -7339,7 +7336,7 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="84" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D141" s="40">
         <v>184</v>
@@ -7347,7 +7344,7 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="84" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C142" s="40">
         <v>185</v>
@@ -7355,7 +7352,7 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="84" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D143" s="40">
         <v>186</v>
@@ -7363,7 +7360,7 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="84" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C144" s="40">
         <v>187</v>
@@ -7371,7 +7368,7 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="84" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D145" s="40">
         <v>188</v>
@@ -7379,7 +7376,7 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="84" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C146" s="40">
         <v>191</v>
@@ -7387,7 +7384,7 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="84" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D147" s="40">
         <v>192</v>
@@ -7395,7 +7392,7 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="84" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C148" s="40">
         <v>193</v>
@@ -7403,7 +7400,7 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="84" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D149" s="40">
         <v>194</v>
@@ -7411,7 +7408,7 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="84" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C150" s="40">
         <v>195</v>
@@ -7419,7 +7416,7 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="84" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D151" s="40">
         <v>196</v>
@@ -7427,7 +7424,7 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="84" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C152" s="40">
         <v>197</v>
@@ -7435,7 +7432,7 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="84" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D153" s="40">
         <v>198</v>
@@ -7443,7 +7440,7 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="84" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C154" s="40">
         <v>199</v>
@@ -7451,7 +7448,7 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="84" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D155" s="40">
         <v>200</v>
@@ -7459,7 +7456,7 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="84" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C156" s="40">
         <v>201</v>
@@ -7467,7 +7464,7 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="84" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D157" s="40">
         <v>202</v>
@@ -7475,7 +7472,7 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="84" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C158" s="40">
         <v>203</v>
@@ -7483,7 +7480,7 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="84" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D159" s="40">
         <v>204</v>
@@ -7491,7 +7488,7 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="84" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C160" s="40">
         <v>205</v>
@@ -7499,7 +7496,7 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="84" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D161" s="40">
         <v>206</v>
@@ -7507,7 +7504,7 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="84" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C162" s="40">
         <v>207</v>
@@ -7515,7 +7512,7 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="84" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D163" s="40">
         <v>208</v>
@@ -7523,7 +7520,7 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="84" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C164" s="40">
         <v>24</v>
@@ -7531,7 +7528,7 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="84" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D165" s="40">
         <v>31</v>
@@ -7539,7 +7536,7 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="84" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B166" s="40">
         <v>35</v>
@@ -7547,7 +7544,7 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="84" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B167" s="40">
         <v>36</v>
@@ -7555,7 +7552,7 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="84" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C168" s="40">
         <v>37</v>
@@ -7563,7 +7560,7 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="84" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D169" s="40">
         <v>38</v>
@@ -7571,7 +7568,7 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="84" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C170" s="40">
         <v>39</v>
@@ -7579,7 +7576,7 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="84" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D171" s="40">
         <v>40</v>
@@ -7587,7 +7584,7 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="84" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C172" s="40">
         <v>43</v>
@@ -7595,7 +7592,7 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="84" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D173" s="40">
         <v>44</v>
@@ -7603,7 +7600,7 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="84" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C174" s="40">
         <v>56</v>
@@ -7611,7 +7608,7 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="84" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D175" s="40">
         <v>57</v>
@@ -7619,7 +7616,7 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="84" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C176" s="40">
         <v>58</v>
@@ -7627,7 +7624,7 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="84" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D177" s="40">
         <v>59</v>
@@ -7635,7 +7632,7 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="84" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C178" s="40">
         <v>60</v>
@@ -7643,7 +7640,7 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="84" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D179" s="40">
         <v>61</v>
@@ -7651,7 +7648,7 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="84" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C180" s="40">
         <v>62</v>
@@ -7659,7 +7656,7 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="84" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D181" s="40">
         <v>63</v>
@@ -7667,7 +7664,7 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="84" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B182" s="40">
         <v>72</v>
@@ -7675,7 +7672,7 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="84" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B183" s="40">
         <v>73</v>
@@ -7683,7 +7680,7 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="84" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B184" s="40">
         <v>74</v>
@@ -7691,7 +7688,7 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="84" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B185" s="40">
         <v>87</v>
@@ -7699,7 +7696,7 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="84" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C186" s="40">
         <v>96</v>
@@ -7707,7 +7704,7 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="84" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D187" s="40">
         <v>97</v>
@@ -7715,7 +7712,7 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="84" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D188" s="40">
         <v>76</v>
@@ -7723,7 +7720,7 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="84" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C189" s="40">
         <v>77</v>
@@ -7752,15 +7749,15 @@
   <sheetData>
     <row r="1" spans="1:2" s="45" customFormat="1">
       <c r="A1" s="43" t="s">
+        <v>286</v>
+      </c>
+      <c r="B1" s="44" t="s">
         <v>287</v>
-      </c>
-      <c r="B1" s="44" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B2" s="46">
         <v>0</v>
@@ -7768,7 +7765,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B3" s="46">
         <v>1</v>
@@ -7776,7 +7773,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B4" s="46">
         <v>2</v>
@@ -7784,7 +7781,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B5" s="46">
         <v>3</v>
@@ -7792,7 +7789,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B6" s="46">
         <v>4</v>
@@ -7800,7 +7797,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B7" s="46">
         <v>5</v>
@@ -7808,7 +7805,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B8" s="46">
         <v>12</v>
@@ -7816,7 +7813,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B9" s="46">
         <v>16</v>
@@ -7824,7 +7821,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B10" s="46">
         <v>24</v>
@@ -7832,7 +7829,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B11" s="46">
         <v>31</v>
@@ -7840,7 +7837,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B12" s="46">
         <v>32</v>
@@ -7848,7 +7845,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B13" s="46">
         <v>33</v>
@@ -7856,7 +7853,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B14" s="46">
         <v>35</v>
@@ -7864,7 +7861,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B15" s="46">
         <v>36</v>
@@ -7872,7 +7869,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B16" s="46">
         <v>37</v>
@@ -7880,7 +7877,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B17" s="46">
         <v>38</v>
@@ -7888,7 +7885,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B18" s="46">
         <v>39</v>
@@ -7896,7 +7893,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B19" s="46">
         <v>40</v>
@@ -7904,7 +7901,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B20" s="46">
         <v>41</v>
@@ -7912,7 +7909,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B21" s="46">
         <v>42</v>
@@ -7920,7 +7917,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B22" s="46">
         <v>43</v>
@@ -7928,7 +7925,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B23" s="46">
         <v>44</v>
@@ -7936,7 +7933,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B24" s="46">
         <v>47</v>
@@ -7944,7 +7941,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B25" s="46">
         <v>48</v>
@@ -7952,7 +7949,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B26" s="46">
         <v>49</v>
@@ -7960,7 +7957,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B27" s="46">
         <v>50</v>
@@ -7968,7 +7965,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B28" s="46">
         <v>51</v>
@@ -7976,7 +7973,7 @@
     </row>
     <row r="29" spans="1:2" s="41" customFormat="1">
       <c r="A29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B29" s="46">
         <v>52</v>
@@ -7984,7 +7981,7 @@
     </row>
     <row r="30" spans="1:2" s="41" customFormat="1">
       <c r="A30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B30" s="46">
         <v>53</v>
@@ -7992,7 +7989,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B31" s="46">
         <v>54</v>
@@ -8000,7 +7997,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B32" s="46">
         <v>55</v>
@@ -8008,7 +8005,7 @@
     </row>
     <row r="33" spans="1:2" s="41" customFormat="1">
       <c r="A33" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B33" s="46">
         <v>56</v>
@@ -8016,7 +8013,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B34" s="46">
         <v>57</v>
@@ -8024,7 +8021,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B35" s="46">
         <v>58</v>
@@ -8032,7 +8029,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B36" s="46">
         <v>59</v>
@@ -8040,7 +8037,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B37" s="46">
         <v>60</v>
@@ -8048,7 +8045,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B38" s="46">
         <v>61</v>
@@ -8056,7 +8053,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B39" s="46">
         <v>62</v>
@@ -8064,7 +8061,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B40" s="46">
         <v>63</v>
@@ -8072,7 +8069,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B41" s="46">
         <v>64</v>
@@ -8080,7 +8077,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B42" s="46">
         <v>65</v>
@@ -8088,7 +8085,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B43" s="46">
         <v>66</v>
@@ -8096,7 +8093,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B44" s="46">
         <v>67</v>
@@ -8104,7 +8101,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B45" s="46">
         <v>70</v>
@@ -8112,7 +8109,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B46" s="46">
         <v>72</v>
@@ -8120,7 +8117,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B47" s="46">
         <v>73</v>
@@ -8128,7 +8125,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B48" s="46">
         <v>74</v>
@@ -8136,7 +8133,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B49" s="46">
         <v>76</v>
@@ -8144,7 +8141,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B50" s="46">
         <v>77</v>
@@ -8152,7 +8149,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B51" s="46">
         <v>81</v>
@@ -8160,7 +8157,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B52" s="46">
         <v>82</v>
@@ -8168,7 +8165,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B53" s="46">
         <v>83</v>
@@ -8176,7 +8173,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B54" s="46">
         <v>84</v>
@@ -8184,7 +8181,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B55" s="46">
         <v>85</v>
@@ -8192,7 +8189,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B56" s="46">
         <v>86</v>
@@ -8200,7 +8197,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B57" s="46">
         <v>87</v>
@@ -8208,7 +8205,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B58" s="46">
         <v>89</v>
@@ -8216,7 +8213,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B59" s="46">
         <v>90</v>
@@ -8224,7 +8221,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B60" s="46">
         <v>91</v>
@@ -8232,7 +8229,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B61" s="46">
         <v>92</v>
@@ -8240,7 +8237,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B62" s="46">
         <v>93</v>
@@ -8248,7 +8245,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B63" s="46">
         <v>94</v>
@@ -8256,7 +8253,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B64" s="46">
         <v>96</v>
@@ -8264,7 +8261,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B65" s="46">
         <v>97</v>
@@ -8272,7 +8269,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B66" s="46">
         <v>101</v>
@@ -8280,7 +8277,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B67" s="46">
         <v>102</v>
@@ -8288,7 +8285,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B68" s="46">
         <v>103</v>
@@ -8296,7 +8293,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B69" s="46">
         <v>104</v>
@@ -8304,7 +8301,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B70" s="46">
         <v>105</v>
@@ -8312,7 +8309,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B71" s="46">
         <v>106</v>
@@ -8320,7 +8317,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B72" s="46">
         <v>107</v>
@@ -8328,7 +8325,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B73" s="46">
         <v>108</v>
@@ -8336,7 +8333,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B74" s="46">
         <v>109</v>
@@ -8344,7 +8341,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B75" s="46">
         <v>110</v>
@@ -8352,7 +8349,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B76" s="46">
         <v>113</v>
@@ -8360,7 +8357,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B77" s="46">
         <v>114</v>
@@ -8368,7 +8365,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B78" s="46">
         <v>115</v>
@@ -8376,7 +8373,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B79" s="46">
         <v>116</v>
@@ -8384,7 +8381,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B80" s="46">
         <v>117</v>
@@ -8392,7 +8389,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B81" s="46">
         <v>118</v>
@@ -8400,7 +8397,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B82" s="46">
         <v>119</v>
@@ -8408,7 +8405,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B83" s="46">
         <v>120</v>
@@ -8416,7 +8413,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B84" s="46">
         <v>121</v>
@@ -8424,7 +8421,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B85" s="46">
         <v>122</v>
@@ -8432,7 +8429,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B86" s="46">
         <v>123</v>
@@ -8440,7 +8437,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B87" s="46">
         <v>124</v>
@@ -8448,7 +8445,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B88" s="46">
         <v>125</v>
@@ -8456,7 +8453,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B89" s="46">
         <v>126</v>
@@ -8464,7 +8461,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B90" s="46">
         <v>129</v>
@@ -8472,7 +8469,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B91" s="46">
         <v>130</v>
@@ -8480,7 +8477,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B92" s="46">
         <v>133</v>
@@ -8488,7 +8485,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B93" s="46">
         <v>134</v>
@@ -8496,7 +8493,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B94" s="46">
         <v>135</v>
@@ -8504,7 +8501,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B95" s="46">
         <v>136</v>
@@ -8512,7 +8509,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B96" s="46">
         <v>137</v>
@@ -8520,7 +8517,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B97" s="46">
         <v>138</v>
@@ -8528,7 +8525,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B98" s="46">
         <v>139</v>
@@ -8536,7 +8533,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B99" s="46">
         <v>140</v>
@@ -8544,7 +8541,7 @@
     </row>
     <row r="100" spans="1:2" s="47" customFormat="1">
       <c r="A100" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B100" s="46">
         <v>141</v>
@@ -8552,7 +8549,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B101" s="46">
         <v>142</v>
@@ -8560,7 +8557,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B102" s="46">
         <v>143</v>
@@ -8568,7 +8565,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B103" s="46">
         <v>144</v>
@@ -8576,7 +8573,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B104" s="46">
         <v>145</v>
@@ -8584,7 +8581,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B105" s="46">
         <v>146</v>
@@ -8592,7 +8589,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B106" s="46">
         <v>147</v>
@@ -8600,7 +8597,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B107" s="46">
         <v>148</v>
@@ -8608,7 +8605,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B108" s="46">
         <v>149</v>
@@ -8616,7 +8613,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B109" s="46">
         <v>150</v>
@@ -8624,7 +8621,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B110" s="46">
         <v>151</v>
@@ -8632,7 +8629,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B111" s="46">
         <v>152</v>
@@ -8640,7 +8637,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B112" s="46">
         <v>153</v>
@@ -8648,7 +8645,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B113" s="46">
         <v>154</v>
@@ -8656,7 +8653,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B114" s="46">
         <v>155</v>
@@ -8664,7 +8661,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B115" s="46">
         <v>156</v>
@@ -8672,7 +8669,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B116" s="46">
         <v>157</v>
@@ -8680,7 +8677,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B117" s="46">
         <v>158</v>
@@ -8688,7 +8685,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B118" s="46">
         <v>161</v>
@@ -8696,7 +8693,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B119" s="46">
         <v>162</v>
@@ -8704,7 +8701,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B120" s="46">
         <v>163</v>
@@ -8712,7 +8709,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B121" s="46">
         <v>164</v>
@@ -8720,7 +8717,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B122" s="46">
         <v>165</v>
@@ -8728,7 +8725,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B123" s="46">
         <v>166</v>
@@ -8736,7 +8733,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B124" s="46">
         <v>167</v>
@@ -8744,7 +8741,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B125" s="46">
         <v>168</v>
@@ -8752,7 +8749,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B126" s="46">
         <v>169</v>
@@ -8760,7 +8757,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B127" s="46">
         <v>170</v>
@@ -8768,7 +8765,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B128" s="46">
         <v>171</v>
@@ -8776,7 +8773,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B129" s="46">
         <v>172</v>
@@ -8784,7 +8781,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B130" s="46">
         <v>173</v>
@@ -8792,7 +8789,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B131" s="46">
         <v>174</v>
@@ -8800,7 +8797,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B132" s="46">
         <v>175</v>
@@ -8808,7 +8805,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B133" s="46">
         <v>176</v>
@@ -8816,7 +8813,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B134" s="46">
         <v>177</v>
@@ -8824,7 +8821,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B135" s="46">
         <v>178</v>
@@ -8832,7 +8829,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B136" s="46">
         <v>179</v>
@@ -8840,7 +8837,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B137" s="40">
         <v>180</v>
@@ -8848,7 +8845,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B138" s="40">
         <v>181</v>
@@ -8856,7 +8853,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B139" s="40">
         <v>182</v>
@@ -8864,7 +8861,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B140" s="40">
         <v>183</v>
@@ -8872,7 +8869,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B141" s="40">
         <v>184</v>
@@ -8880,7 +8877,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B142" s="40">
         <v>185</v>
@@ -8888,7 +8885,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B143" s="40">
         <v>186</v>
@@ -8896,7 +8893,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B144" s="40">
         <v>187</v>
@@ -8904,7 +8901,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B145" s="40">
         <v>188</v>
@@ -8912,7 +8909,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B146" s="40">
         <v>191</v>
@@ -8920,7 +8917,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B147" s="40">
         <v>192</v>
@@ -8928,7 +8925,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B148" s="40">
         <v>193</v>
@@ -8936,7 +8933,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B149" s="40">
         <v>194</v>
@@ -8944,7 +8941,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B150" s="40">
         <v>195</v>
@@ -8952,7 +8949,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B151" s="40">
         <v>196</v>
@@ -8960,7 +8957,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B152" s="40">
         <v>197</v>
@@ -8968,7 +8965,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B153" s="40">
         <v>198</v>
@@ -8976,7 +8973,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B154" s="40">
         <v>199</v>
@@ -8984,7 +8981,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B155" s="40">
         <v>200</v>
@@ -8992,7 +8989,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B156" s="40">
         <v>201</v>
@@ -9000,7 +8997,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B157" s="40">
         <v>202</v>
@@ -9008,7 +9005,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B158" s="40">
         <v>203</v>
@@ -9016,7 +9013,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B159" s="40">
         <v>204</v>
@@ -9024,7 +9021,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B160" s="40">
         <v>205</v>
@@ -9032,7 +9029,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B161" s="40">
         <v>206</v>
@@ -9040,7 +9037,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B162" s="40">
         <v>207</v>
@@ -9048,7 +9045,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B163" s="40">
         <v>208</v>
@@ -9077,16 +9074,16 @@
   <sheetData>
     <row r="1" spans="1:3" s="45" customFormat="1">
       <c r="A1" s="43" t="s">
+        <v>286</v>
+      </c>
+      <c r="B1" s="44" t="s">
         <v>287</v>
-      </c>
-      <c r="B1" s="44" t="s">
-        <v>288</v>
       </c>
       <c r="C1" s="39"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B2" s="46">
         <v>24</v>
@@ -9095,7 +9092,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B3" s="46">
         <v>31</v>
@@ -9104,7 +9101,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B4" s="46">
         <v>35</v>
@@ -9113,7 +9110,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B5" s="46">
         <v>36</v>
@@ -9122,7 +9119,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B6" s="46">
         <v>37</v>
@@ -9131,7 +9128,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B7" s="46">
         <v>38</v>
@@ -9140,7 +9137,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B8" s="46">
         <v>39</v>
@@ -9149,7 +9146,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B9" s="46">
         <v>40</v>
@@ -9158,7 +9155,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B10" s="46">
         <v>43</v>
@@ -9167,7 +9164,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B11" s="46">
         <v>44</v>
@@ -9176,7 +9173,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B12" s="46">
         <v>56</v>
@@ -9185,7 +9182,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B13" s="46">
         <v>57</v>
@@ -9194,7 +9191,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B14" s="46">
         <v>58</v>
@@ -9203,7 +9200,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B15" s="46">
         <v>59</v>
@@ -9212,7 +9209,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B16" s="46">
         <v>60</v>
@@ -9221,7 +9218,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B17" s="46">
         <v>61</v>
@@ -9230,7 +9227,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B18" s="46">
         <v>62</v>
@@ -9239,7 +9236,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B19" s="46">
         <v>63</v>
@@ -9248,7 +9245,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B20" s="46">
         <v>72</v>
@@ -9257,7 +9254,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B21" s="46">
         <v>73</v>
@@ -9266,7 +9263,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B22" s="46">
         <v>74</v>
@@ -9274,7 +9271,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B23" s="46">
         <v>87</v>
@@ -9282,7 +9279,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B24" s="46">
         <v>96</v>
@@ -9290,7 +9287,7 @@
     </row>
     <row r="25" spans="1:3" s="41" customFormat="1">
       <c r="A25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B25" s="46">
         <v>97</v>
@@ -9299,7 +9296,7 @@
     </row>
     <row r="26" spans="1:3" s="41" customFormat="1">
       <c r="A26" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B26" s="46">
         <v>76</v>
@@ -9308,7 +9305,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B27" s="46">
         <v>77</v>
@@ -9350,11 +9347,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:X42"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M3" sqref="M3:M16"/>
+      <selection pane="bottomRight" activeCell="A27" sqref="A27:T34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -9366,24 +9363,24 @@
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1">
       <c r="D1" s="74"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
-      <c r="U1" s="109"/>
-      <c r="V1" s="109"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
+      <c r="R1" s="114"/>
+      <c r="S1" s="114"/>
+      <c r="T1" s="114"/>
+      <c r="U1" s="114"/>
+      <c r="V1" s="114"/>
     </row>
     <row r="2" spans="1:23" ht="96" customHeight="1">
       <c r="A2" s="43"/>
@@ -9452,7 +9449,7 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B3" s="46">
         <v>32</v>
@@ -9477,7 +9474,7 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B4" s="46">
         <v>33</v>
@@ -9502,7 +9499,7 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B5" s="46">
         <v>48</v>
@@ -9526,7 +9523,7 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B6" s="46">
         <v>49</v>
@@ -9550,7 +9547,7 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B7" s="46">
         <v>117</v>
@@ -9574,7 +9571,7 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B8" s="46">
         <v>118</v>
@@ -9598,7 +9595,7 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B9" s="46">
         <v>123</v>
@@ -9624,7 +9621,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B10" s="46">
         <v>124</v>
@@ -9650,7 +9647,7 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B11" s="46">
         <v>133</v>
@@ -9675,7 +9672,7 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B12" s="46">
         <v>134</v>
@@ -9700,7 +9697,7 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B13" s="46">
         <v>155</v>
@@ -9722,7 +9719,7 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B14" s="46">
         <v>156</v>
@@ -9744,7 +9741,7 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B15" s="46">
         <v>171</v>
@@ -9773,7 +9770,7 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B16" s="46">
         <v>172</v>
@@ -9802,7 +9799,7 @@
     </row>
     <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B17" s="40">
         <v>181</v>
@@ -9827,7 +9824,7 @@
     </row>
     <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B18" s="40">
         <v>182</v>
@@ -9852,7 +9849,7 @@
     </row>
     <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B19" s="40">
         <v>185</v>
@@ -9874,7 +9871,7 @@
     </row>
     <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B20" s="40">
         <v>186</v>
@@ -9894,7 +9891,7 @@
     </row>
     <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B21" s="40">
         <v>201</v>
@@ -9914,7 +9911,7 @@
     </row>
     <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B22" s="40">
         <v>202</v>
@@ -9934,7 +9931,7 @@
     </row>
     <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B23" s="40">
         <v>203</v>
@@ -9948,7 +9945,7 @@
     </row>
     <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B24" s="40">
         <v>204</v>
@@ -9962,7 +9959,7 @@
     </row>
     <row r="25" spans="1:24">
       <c r="A25" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B25" s="40">
         <v>207</v>
@@ -9982,7 +9979,7 @@
     </row>
     <row r="26" spans="1:24">
       <c r="A26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B26" s="40">
         <v>208</v>
@@ -10067,9 +10064,6 @@
       <c r="X31"/>
     </row>
     <row r="32" spans="1:24" s="41" customFormat="1">
-      <c r="A32" s="41" t="s">
-        <v>118</v>
-      </c>
       <c r="C32"/>
       <c r="D32"/>
       <c r="E32"/>
@@ -10348,37 +10342,37 @@
     <row r="1" spans="1:33" ht="15" customHeight="1">
       <c r="A1" s="43"/>
       <c r="B1" s="44"/>
-      <c r="E1" s="110" t="s">
+      <c r="E1" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
-      <c r="U1" s="109"/>
-      <c r="V1" s="109"/>
-      <c r="W1" s="109"/>
-      <c r="X1" s="109"/>
-      <c r="Y1" s="109"/>
-      <c r="Z1" s="109"/>
-      <c r="AA1" s="109"/>
-      <c r="AB1" s="109"/>
-      <c r="AC1" s="109"/>
-      <c r="AD1" s="109"/>
-      <c r="AE1" s="109"/>
-      <c r="AF1" s="109"/>
-      <c r="AG1" s="109"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
+      <c r="R1" s="114"/>
+      <c r="S1" s="114"/>
+      <c r="T1" s="114"/>
+      <c r="U1" s="114"/>
+      <c r="V1" s="114"/>
+      <c r="W1" s="114"/>
+      <c r="X1" s="114"/>
+      <c r="Y1" s="114"/>
+      <c r="Z1" s="114"/>
+      <c r="AA1" s="114"/>
+      <c r="AB1" s="114"/>
+      <c r="AC1" s="114"/>
+      <c r="AD1" s="114"/>
+      <c r="AE1" s="114"/>
+      <c r="AF1" s="114"/>
+      <c r="AG1" s="114"/>
     </row>
     <row r="2" spans="1:33" ht="144" customHeight="1">
       <c r="C2" s="74" t="s">
@@ -10427,7 +10421,7 @@
         <v>57</v>
       </c>
       <c r="R2" s="24" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="S2" s="24" t="s">
         <v>58</v>
@@ -10454,7 +10448,7 @@
         <v>65</v>
       </c>
       <c r="AA2" s="24" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AB2" s="24" t="s">
         <v>66</v>
@@ -10477,7 +10471,7 @@
     </row>
     <row r="5" spans="1:33">
       <c r="A5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B5" s="46">
         <v>105</v>
@@ -10499,7 +10493,7 @@
     </row>
     <row r="6" spans="1:33">
       <c r="A6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B6" s="46">
         <v>106</v>
@@ -10521,7 +10515,7 @@
     </row>
     <row r="7" spans="1:33">
       <c r="A7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B7" s="46">
         <v>119</v>
@@ -10537,7 +10531,7 @@
     </row>
     <row r="8" spans="1:33">
       <c r="A8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B8" s="46">
         <v>120</v>
@@ -10553,7 +10547,7 @@
     </row>
     <row r="9" spans="1:33">
       <c r="A9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B9" s="46">
         <v>121</v>
@@ -10580,7 +10574,7 @@
     </row>
     <row r="10" spans="1:33">
       <c r="A10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B10" s="46">
         <v>122</v>
@@ -10607,7 +10601,7 @@
     </row>
     <row r="11" spans="1:33">
       <c r="A11" s="86" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B11" s="46">
         <v>125</v>
@@ -10625,7 +10619,7 @@
     </row>
     <row r="12" spans="1:33">
       <c r="A12" s="86" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B12" s="46">
         <v>126</v>
@@ -10643,7 +10637,7 @@
     </row>
     <row r="13" spans="1:33">
       <c r="A13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B13" s="46">
         <v>137</v>
@@ -10665,7 +10659,7 @@
     </row>
     <row r="14" spans="1:33">
       <c r="A14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B14" s="46">
         <v>138</v>
@@ -10687,7 +10681,7 @@
     </row>
     <row r="15" spans="1:33">
       <c r="A15" s="52" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B15" s="46">
         <v>141</v>
@@ -10703,7 +10697,7 @@
     </row>
     <row r="16" spans="1:33">
       <c r="A16" s="52" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B16" s="46">
         <v>142</v>
@@ -10718,7 +10712,7 @@
     </row>
     <row r="17" spans="1:27">
       <c r="A17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B17" s="46">
         <v>143</v>
@@ -10742,7 +10736,7 @@
     </row>
     <row r="18" spans="1:27">
       <c r="A18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B18" s="46">
         <v>144</v>
@@ -10766,7 +10760,7 @@
     </row>
     <row r="19" spans="1:27">
       <c r="A19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B19" s="46">
         <v>147</v>
@@ -10787,7 +10781,7 @@
     </row>
     <row r="20" spans="1:27">
       <c r="A20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B20" s="46">
         <v>148</v>
@@ -10808,7 +10802,7 @@
     </row>
     <row r="21" spans="1:27">
       <c r="A21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B21" s="46">
         <v>151</v>
@@ -10824,7 +10818,7 @@
     </row>
     <row r="22" spans="1:27">
       <c r="A22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B22" s="46">
         <v>152</v>
@@ -10840,7 +10834,7 @@
     </row>
     <row r="23" spans="1:27">
       <c r="A23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B23" s="46">
         <v>153</v>
@@ -10855,7 +10849,7 @@
     </row>
     <row r="24" spans="1:27">
       <c r="A24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B24" s="46">
         <v>154</v>
@@ -10870,7 +10864,7 @@
     </row>
     <row r="25" spans="1:27">
       <c r="A25" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B25" s="46">
         <v>163</v>
@@ -10888,7 +10882,7 @@
     </row>
     <row r="26" spans="1:27">
       <c r="A26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B26" s="46">
         <v>164</v>
@@ -10906,7 +10900,7 @@
     </row>
     <row r="27" spans="1:27">
       <c r="A27" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B27" s="46">
         <v>165</v>
@@ -10924,7 +10918,7 @@
     </row>
     <row r="28" spans="1:27">
       <c r="A28" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B28" s="46">
         <v>166</v>
@@ -10942,7 +10936,7 @@
     </row>
     <row r="29" spans="1:27">
       <c r="A29" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B29" s="46">
         <v>179</v>
@@ -10963,7 +10957,7 @@
     </row>
     <row r="30" spans="1:27">
       <c r="A30" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B30" s="40">
         <v>180</v>
@@ -10984,7 +10978,7 @@
     </row>
     <row r="31" spans="1:27">
       <c r="A31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B31" s="40">
         <v>183</v>
@@ -11003,7 +10997,7 @@
     </row>
     <row r="32" spans="1:27">
       <c r="A32" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B32" s="40">
         <v>184</v>
@@ -11022,7 +11016,7 @@
     </row>
     <row r="33" spans="1:33">
       <c r="A33" s="51" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B33" s="40">
         <v>187</v>
@@ -11034,7 +11028,7 @@
     </row>
     <row r="34" spans="1:33">
       <c r="A34" s="51" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B34" s="40">
         <v>188</v>
@@ -11046,7 +11040,7 @@
     </row>
     <row r="35" spans="1:33">
       <c r="A35" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B35" s="40">
         <v>191</v>
@@ -11065,7 +11059,7 @@
     </row>
     <row r="36" spans="1:33">
       <c r="A36" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B36" s="40">
         <v>192</v>
@@ -11084,7 +11078,7 @@
     </row>
     <row r="37" spans="1:33">
       <c r="A37" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B37" s="40">
         <v>193</v>
@@ -11123,7 +11117,7 @@
     </row>
     <row r="38" spans="1:33">
       <c r="A38" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B38" s="40">
         <v>194</v>
@@ -11162,7 +11156,7 @@
     </row>
     <row r="39" spans="1:33">
       <c r="A39" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B39" s="40">
         <v>205</v>
@@ -11180,7 +11174,7 @@
     </row>
     <row r="40" spans="1:33">
       <c r="A40" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B40" s="40">
         <v>206</v>
@@ -11462,7 +11456,7 @@
         <v>83</v>
       </c>
       <c r="G2" s="87" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H2" s="55" t="s">
         <v>85</v>
@@ -11479,7 +11473,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B3" s="46">
         <v>107</v>
@@ -11502,7 +11496,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B4" s="46">
         <v>108</v>
@@ -11519,7 +11513,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="51" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B5" s="46">
         <v>113</v>
@@ -11531,7 +11525,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="51" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B6" s="46">
         <v>114</v>
@@ -11543,7 +11537,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B7" s="46">
         <v>149</v>
@@ -11557,7 +11551,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B8" s="46">
         <v>150</v>
@@ -11571,7 +11565,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B9" s="46">
         <v>169</v>
@@ -11586,7 +11580,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B10" s="46">
         <v>170</v>
@@ -11601,7 +11595,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B11" s="46">
         <v>175</v>
@@ -11616,7 +11610,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B12" s="46">
         <v>176</v>
@@ -11631,7 +11625,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B13" s="46">
         <v>177</v>
@@ -11647,7 +11641,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B14" s="46">
         <v>178</v>
@@ -11662,7 +11656,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B15" s="40">
         <v>195</v>
@@ -11679,7 +11673,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B16" s="40">
         <v>196</v>
@@ -11696,7 +11690,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B17" s="40">
         <v>199</v>
@@ -11711,7 +11705,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B18" s="40">
         <v>200</v>
@@ -11726,7 +11720,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B19" s="46">
         <v>169</v>
@@ -11737,7 +11731,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B20" s="46">
         <v>170</v>
@@ -11748,7 +11742,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="84" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B21" s="40">
         <v>86</v>
@@ -11759,7 +11753,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="84" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B22" s="40">
         <v>94</v>

--- a/tests/_dummy_data.xlsx
+++ b/tests/_dummy_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ali_m\AnacondaProjects\PhD\Semiology-Visualisation-Tool\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4F29AA-3B2F-4E76-9C94-7264410CCEF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D9372A-904E-4EC0-B130-0F67D2386BB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -2313,10 +2313,10 @@
   <dimension ref="A1:DU51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D27" sqref="D27:E27"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -6304,7 +6304,7 @@
   <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -6323,484 +6323,275 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="109">
+      <c r="A2">
         <v>32</v>
       </c>
-      <c r="B2" s="53">
-        <v>5</v>
+      <c r="B2">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="109">
+      <c r="A3">
         <v>33</v>
       </c>
-      <c r="B3" s="53">
-        <v>5</v>
+      <c r="B3">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="109">
+      <c r="A4">
         <v>48</v>
       </c>
-      <c r="B4" s="53">
-        <v>17</v>
+      <c r="B4">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="109">
+      <c r="A5">
         <v>49</v>
       </c>
-      <c r="B5" s="53">
-        <v>17</v>
+      <c r="B5">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="109">
+      <c r="A6">
         <v>117</v>
       </c>
-      <c r="B6" s="53">
-        <v>17</v>
+      <c r="B6">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="109">
+      <c r="A7">
         <v>118</v>
       </c>
-      <c r="B7" s="53">
-        <v>17</v>
+      <c r="B7">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="109">
+      <c r="A8">
         <v>123</v>
       </c>
-      <c r="B8" s="53">
-        <v>12</v>
+      <c r="B8">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="109">
+      <c r="A9">
         <v>124</v>
       </c>
-      <c r="B9" s="53">
-        <v>12</v>
+      <c r="B9">
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="109">
+      <c r="A10">
         <v>133</v>
       </c>
-      <c r="B10" s="53">
-        <v>20</v>
+      <c r="B10">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="109">
+      <c r="A11">
         <v>134</v>
       </c>
-      <c r="B11" s="53">
-        <v>20</v>
+      <c r="B11">
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="109">
+      <c r="A12">
         <v>155</v>
       </c>
-      <c r="B12" s="53">
-        <v>16</v>
+      <c r="B12">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="109">
+      <c r="A13">
         <v>156</v>
       </c>
-      <c r="B13" s="53">
-        <v>16</v>
+      <c r="B13">
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="109">
+      <c r="A14">
         <v>171</v>
       </c>
-      <c r="B14" s="53">
-        <v>17</v>
+      <c r="B14">
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="109">
+      <c r="A15">
         <v>172</v>
       </c>
-      <c r="B15" s="53">
-        <v>17</v>
+      <c r="B15">
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="53">
+      <c r="A16">
         <v>181</v>
       </c>
-      <c r="B16" s="53">
-        <v>16</v>
+      <c r="B16">
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="53">
+      <c r="A17">
         <v>182</v>
       </c>
-      <c r="B17" s="53">
-        <v>16</v>
+      <c r="B17">
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="53">
+      <c r="A18">
         <v>185</v>
       </c>
-      <c r="B18" s="53">
-        <v>16</v>
+      <c r="B18">
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="53">
+      <c r="A19">
         <v>186</v>
       </c>
-      <c r="B19" s="53">
-        <v>16</v>
+      <c r="B19">
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="53">
+      <c r="A20">
         <v>201</v>
       </c>
-      <c r="B20" s="53">
-        <v>16</v>
+      <c r="B20">
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="53">
+      <c r="A21">
         <v>202</v>
       </c>
-      <c r="B21" s="53">
-        <v>16</v>
+      <c r="B21">
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="53">
+      <c r="A22">
         <v>203</v>
       </c>
-      <c r="B22" s="53">
-        <v>17</v>
+      <c r="B22">
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="53">
+      <c r="A23">
         <v>204</v>
       </c>
-      <c r="B23" s="53">
-        <v>17</v>
+      <c r="B23">
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="53">
+      <c r="A24">
         <v>207</v>
       </c>
-      <c r="B24" s="53">
-        <v>16</v>
+      <c r="B24">
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="53">
+      <c r="A25">
         <v>208</v>
       </c>
-      <c r="B25" s="53">
-        <v>16</v>
+      <c r="B25">
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="109">
-        <v>105</v>
-      </c>
-      <c r="B26" s="53">
-        <v>1</v>
-      </c>
+      <c r="A26" s="109"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="109">
-        <v>106</v>
-      </c>
-      <c r="B27" s="53">
-        <v>1</v>
-      </c>
+      <c r="A27" s="109"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="109">
-        <v>119</v>
-      </c>
-      <c r="B28" s="53">
-        <v>1</v>
-      </c>
+      <c r="A28" s="109"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="109">
-        <v>120</v>
-      </c>
-      <c r="B29" s="53">
-        <v>1</v>
-      </c>
+      <c r="A29" s="109"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="109">
-        <v>121</v>
-      </c>
-      <c r="B30" s="53">
-        <v>1</v>
-      </c>
+      <c r="A30" s="109"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="109">
-        <v>122</v>
-      </c>
-      <c r="B31" s="53">
-        <v>1</v>
-      </c>
+      <c r="A31" s="109"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="109">
-        <v>125</v>
-      </c>
-      <c r="B32" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="109">
-        <v>126</v>
-      </c>
-      <c r="B33" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="109">
-        <v>137</v>
-      </c>
-      <c r="B34" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="109">
-        <v>138</v>
-      </c>
-      <c r="B35" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="109">
-        <v>141</v>
-      </c>
-      <c r="B36" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="109">
-        <v>142</v>
-      </c>
-      <c r="B37" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="109">
-        <v>143</v>
-      </c>
-      <c r="B38" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="109">
-        <v>144</v>
-      </c>
-      <c r="B39" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="109">
-        <v>147</v>
-      </c>
-      <c r="B40" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="109">
-        <v>148</v>
-      </c>
-      <c r="B41" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="109">
-        <v>151</v>
-      </c>
-      <c r="B42" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="109">
-        <v>152</v>
-      </c>
-      <c r="B43" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="109">
-        <v>153</v>
-      </c>
-      <c r="B44" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="109">
-        <v>154</v>
-      </c>
-      <c r="B45" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="109">
-        <v>163</v>
-      </c>
-      <c r="B46" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="109">
-        <v>164</v>
-      </c>
-      <c r="B47" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="109">
-        <v>165</v>
-      </c>
-      <c r="B48" s="53">
-        <v>1</v>
-      </c>
+      <c r="A32" s="109"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="109"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="109"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="109"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="109"/>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="109"/>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="109"/>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="109"/>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="109"/>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="109"/>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="109"/>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="109"/>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="109"/>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="109"/>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="109"/>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="109"/>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="109"/>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="109">
-        <v>166</v>
-      </c>
-      <c r="B49" s="53">
-        <v>1</v>
-      </c>
+      <c r="A49" s="109"/>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="109">
-        <v>179</v>
-      </c>
-      <c r="B50" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="53">
-        <v>180</v>
-      </c>
-      <c r="B51" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="53">
-        <v>183</v>
-      </c>
-      <c r="B52" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="53">
-        <v>184</v>
-      </c>
-      <c r="B53" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="53">
-        <v>187</v>
-      </c>
-      <c r="B54" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="53">
-        <v>188</v>
-      </c>
-      <c r="B55" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="53">
-        <v>191</v>
-      </c>
-      <c r="B56" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="53">
-        <v>192</v>
-      </c>
-      <c r="B57" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="53">
-        <v>193</v>
-      </c>
-      <c r="B58" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="53">
-        <v>194</v>
-      </c>
-      <c r="B59" s="53">
-        <v>1</v>
-      </c>
+      <c r="A50" s="109"/>
     </row>
     <row r="60" spans="1:2" s="110" customFormat="1">
-      <c r="A60" s="53">
-        <v>205</v>
-      </c>
-      <c r="B60" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="53">
-        <v>206</v>
-      </c>
-      <c r="B61" s="53">
-        <v>1</v>
-      </c>
+      <c r="A60" s="53"/>
+      <c r="B60" s="53"/>
     </row>
     <row r="62" spans="1:2" s="111" customFormat="1"/>
   </sheetData>

--- a/tests/_dummy_data.xlsx
+++ b/tests/_dummy_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ali_m\AnacondaProjects\PhD\Semiology-Visualisation-Tool\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D9372A-904E-4EC0-B130-0F67D2386BB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0C85DA-0233-4443-8143-3E3DB2BDC991}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="355">
   <si>
     <t xml:space="preserve">Semiology </t>
   </si>
@@ -1106,6 +1106,15 @@
   </si>
   <si>
     <t>spasms</t>
+  </si>
+  <si>
+    <t>1 FL non postictal</t>
+  </si>
+  <si>
+    <t>1 FL aphasia</t>
+  </si>
+  <si>
+    <t>IFG FL</t>
   </si>
 </sst>
 </file>
@@ -2313,10 +2322,10 @@
   <dimension ref="A1:DU51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="AW3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11:XFD11"/>
+      <selection pane="bottomRight" activeCell="BE11" sqref="BE11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3252,13 +3261,41 @@
       <c r="DU10" s="33"/>
     </row>
     <row r="11" spans="1:125">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="G11" s="32"/>
+      <c r="A11" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="B11" s="32">
+        <v>1</v>
+      </c>
+      <c r="C11" s="32">
+        <v>1</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>313</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>116</v>
+      </c>
       <c r="H11" s="32"/>
       <c r="I11" s="32"/>
+      <c r="P11" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="AL11" s="5">
+        <v>1</v>
+      </c>
+      <c r="BE11" s="5">
+        <v>1</v>
+      </c>
       <c r="DP11" s="33"/>
       <c r="DQ11" s="33"/>
       <c r="DR11" s="33"/>
@@ -5512,7 +5549,7 @@
       </c>
       <c r="B2" s="29">
         <f>SUM(Main!P9:P15)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="73" t="s">
         <v>337</v>

--- a/tests/_dummy_data.xlsx
+++ b/tests/_dummy_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ali_m\AnacondaProjects\PhD\Semiology-Visualisation-Tool\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0C85DA-0233-4443-8143-3E3DB2BDC991}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1409A7-334F-4DFF-87BF-3B495CF5B76E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1609,7 +1609,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1915,9 +1915,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2321,8 +2318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DU51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="AW3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="BE11" sqref="BE11"/>
@@ -2417,106 +2414,106 @@
     <row r="1" spans="1:125" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="100"/>
       <c r="C1" s="16"/>
-      <c r="D1" s="112" t="s">
+      <c r="D1" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="112"/>
-      <c r="G1" s="119" t="s">
+      <c r="E1" s="111"/>
+      <c r="G1" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="K1" s="121" t="s">
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="K1" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="122"/>
-      <c r="M1" s="122"/>
-      <c r="N1" s="122"/>
-      <c r="O1" s="123"/>
-      <c r="S1" s="113"/>
-      <c r="T1" s="113"/>
-      <c r="U1" s="113"/>
-      <c r="V1" s="113"/>
-      <c r="W1" s="113"/>
-      <c r="X1" s="113"/>
-      <c r="Y1" s="113"/>
-      <c r="Z1" s="113"/>
-      <c r="AA1" s="113"/>
-      <c r="AB1" s="113"/>
-      <c r="AC1" s="113"/>
-      <c r="AD1" s="113"/>
-      <c r="AE1" s="113"/>
-      <c r="AF1" s="113"/>
-      <c r="AG1" s="113"/>
-      <c r="AH1" s="113"/>
-      <c r="AI1" s="113"/>
-      <c r="AJ1" s="113"/>
-      <c r="AK1" s="113"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="122"/>
+      <c r="S1" s="112"/>
+      <c r="T1" s="112"/>
+      <c r="U1" s="112"/>
+      <c r="V1" s="112"/>
+      <c r="W1" s="112"/>
+      <c r="X1" s="112"/>
+      <c r="Y1" s="112"/>
+      <c r="Z1" s="112"/>
+      <c r="AA1" s="112"/>
+      <c r="AB1" s="112"/>
+      <c r="AC1" s="112"/>
+      <c r="AD1" s="112"/>
+      <c r="AE1" s="112"/>
+      <c r="AF1" s="112"/>
+      <c r="AG1" s="112"/>
+      <c r="AH1" s="112"/>
+      <c r="AI1" s="112"/>
+      <c r="AJ1" s="112"/>
+      <c r="AK1" s="112"/>
       <c r="AM1" s="99"/>
-      <c r="AN1" s="114" t="s">
+      <c r="AN1" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="AO1" s="113"/>
-      <c r="AP1" s="113"/>
-      <c r="AQ1" s="113"/>
-      <c r="AR1" s="113"/>
-      <c r="AS1" s="113"/>
-      <c r="AT1" s="113"/>
-      <c r="AU1" s="113"/>
-      <c r="AV1" s="113"/>
-      <c r="AW1" s="113"/>
-      <c r="AX1" s="113"/>
-      <c r="AY1" s="113"/>
-      <c r="AZ1" s="113"/>
-      <c r="BA1" s="113"/>
-      <c r="BB1" s="113"/>
-      <c r="BC1" s="113"/>
-      <c r="BD1" s="113"/>
-      <c r="BE1" s="113"/>
-      <c r="BF1" s="113"/>
-      <c r="BG1" s="113"/>
-      <c r="BH1" s="113"/>
-      <c r="BI1" s="113"/>
-      <c r="BJ1" s="113"/>
-      <c r="BK1" s="113"/>
-      <c r="BL1" s="113"/>
-      <c r="BM1" s="113"/>
-      <c r="BN1" s="113"/>
-      <c r="BO1" s="113"/>
-      <c r="BP1" s="113"/>
-      <c r="BR1" s="116"/>
-      <c r="BS1" s="117"/>
-      <c r="BT1" s="117"/>
-      <c r="BU1" s="117"/>
-      <c r="BV1" s="117"/>
-      <c r="BW1" s="118"/>
+      <c r="AO1" s="112"/>
+      <c r="AP1" s="112"/>
+      <c r="AQ1" s="112"/>
+      <c r="AR1" s="112"/>
+      <c r="AS1" s="112"/>
+      <c r="AT1" s="112"/>
+      <c r="AU1" s="112"/>
+      <c r="AV1" s="112"/>
+      <c r="AW1" s="112"/>
+      <c r="AX1" s="112"/>
+      <c r="AY1" s="112"/>
+      <c r="AZ1" s="112"/>
+      <c r="BA1" s="112"/>
+      <c r="BB1" s="112"/>
+      <c r="BC1" s="112"/>
+      <c r="BD1" s="112"/>
+      <c r="BE1" s="112"/>
+      <c r="BF1" s="112"/>
+      <c r="BG1" s="112"/>
+      <c r="BH1" s="112"/>
+      <c r="BI1" s="112"/>
+      <c r="BJ1" s="112"/>
+      <c r="BK1" s="112"/>
+      <c r="BL1" s="112"/>
+      <c r="BM1" s="112"/>
+      <c r="BN1" s="112"/>
+      <c r="BO1" s="112"/>
+      <c r="BP1" s="112"/>
+      <c r="BR1" s="115"/>
+      <c r="BS1" s="116"/>
+      <c r="BT1" s="116"/>
+      <c r="BU1" s="116"/>
+      <c r="BV1" s="116"/>
+      <c r="BW1" s="117"/>
       <c r="BX1" s="102"/>
-      <c r="BZ1" s="113"/>
-      <c r="CA1" s="113"/>
-      <c r="CB1" s="113"/>
-      <c r="CC1" s="113"/>
-      <c r="CD1" s="113"/>
-      <c r="CE1" s="113"/>
-      <c r="CF1" s="113"/>
-      <c r="CG1" s="115"/>
-      <c r="CH1" s="114" t="s">
+      <c r="BZ1" s="112"/>
+      <c r="CA1" s="112"/>
+      <c r="CB1" s="112"/>
+      <c r="CC1" s="112"/>
+      <c r="CD1" s="112"/>
+      <c r="CE1" s="112"/>
+      <c r="CF1" s="112"/>
+      <c r="CG1" s="114"/>
+      <c r="CH1" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="CI1" s="113"/>
-      <c r="CJ1" s="113"/>
-      <c r="CK1" s="113"/>
-      <c r="CL1" s="113"/>
-      <c r="CM1" s="115"/>
+      <c r="CI1" s="112"/>
+      <c r="CJ1" s="112"/>
+      <c r="CK1" s="112"/>
+      <c r="CL1" s="112"/>
+      <c r="CM1" s="114"/>
       <c r="CO1" s="65"/>
-      <c r="CP1" s="113" t="s">
+      <c r="CP1" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="CQ1" s="113"/>
-      <c r="CR1" s="113"/>
-      <c r="CS1" s="113"/>
-      <c r="CT1" s="113"/>
-      <c r="CU1" s="113"/>
-      <c r="CV1" s="113"/>
+      <c r="CQ1" s="112"/>
+      <c r="CR1" s="112"/>
+      <c r="CS1" s="112"/>
+      <c r="CT1" s="112"/>
+      <c r="CU1" s="112"/>
+      <c r="CV1" s="112"/>
       <c r="CX1" s="95"/>
       <c r="CY1" s="95"/>
       <c r="CZ1" s="95"/>
@@ -3629,7 +3626,7 @@
       <c r="DU22" s="33"/>
     </row>
     <row r="23" spans="1:125" ht="30">
-      <c r="A23" s="126" t="s">
+      <c r="A23" s="125" t="s">
         <v>349</v>
       </c>
       <c r="B23" s="32">
@@ -4508,12 +4505,12 @@
     <row r="1" spans="1:8">
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="124" t="s">
+      <c r="E1" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
     </row>
     <row r="2" spans="1:8" ht="45">
       <c r="C2" s="74" t="s">
@@ -4812,11 +4809,11 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="C1" s="2"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="115"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="114"/>
       <c r="I1" s="101"/>
       <c r="J1" s="88"/>
     </row>
@@ -5003,15 +5000,15 @@
     <row r="1" spans="1:11" ht="26.25">
       <c r="C1" s="2"/>
       <c r="D1" s="65"/>
-      <c r="E1" s="125" t="s">
+      <c r="E1" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
     </row>
     <row r="2" spans="1:11" ht="30">
       <c r="C2" s="75" t="s">
@@ -5453,7 +5450,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="75">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="125" t="s">
         <v>349</v>
       </c>
       <c r="B3" s="32">
@@ -6340,8 +6337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -6393,244 +6390,453 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>171</v>
+        <v>123</v>
       </c>
       <c r="B14">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>172</v>
+        <v>124</v>
       </c>
       <c r="B15">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>182</v>
+        <v>126</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>185</v>
+        <v>133</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>186</v>
+        <v>134</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>201</v>
+        <v>137</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>202</v>
+        <v>138</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>203</v>
+        <v>141</v>
       </c>
       <c r="B22">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>204</v>
+        <v>142</v>
       </c>
       <c r="B23">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>207</v>
+        <v>143</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
+        <v>144</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>147</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>148</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>151</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>152</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>153</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>154</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>155</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>156</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>163</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>164</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>165</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>166</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>171</v>
+      </c>
+      <c r="B38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>172</v>
+      </c>
+      <c r="B39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>179</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>180</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>181</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>182</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>183</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>184</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>185</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>186</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>187</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>188</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>191</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>192</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>193</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <v>194</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <v>201</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <v>202</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>203</v>
+      </c>
+      <c r="B56">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <v>204</v>
+      </c>
+      <c r="B57">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <v>205</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <v>206</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" s="109" customFormat="1">
+      <c r="A60">
+        <v>207</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61">
         <v>208</v>
       </c>
-      <c r="B25">
+      <c r="B61">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="109"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="109"/>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="109"/>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="109"/>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="109"/>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="109"/>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="109"/>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="109"/>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="109"/>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="109"/>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="109"/>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="109"/>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="109"/>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="109"/>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="109"/>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="109"/>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="109"/>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="109"/>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="109"/>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="109"/>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="109"/>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="109"/>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="109"/>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="109"/>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="109"/>
-    </row>
-    <row r="60" spans="1:2" s="110" customFormat="1">
-      <c r="A60" s="53"/>
-      <c r="B60" s="53"/>
-    </row>
-    <row r="62" spans="1:2" s="111" customFormat="1"/>
+    <row r="62" spans="1:2" s="110" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9806,24 +10012,24 @@
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1">
       <c r="D1" s="73"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
-      <c r="P1" s="113"/>
-      <c r="Q1" s="113"/>
-      <c r="R1" s="113"/>
-      <c r="S1" s="113"/>
-      <c r="T1" s="113"/>
-      <c r="U1" s="113"/>
-      <c r="V1" s="113"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
+      <c r="T1" s="112"/>
+      <c r="U1" s="112"/>
+      <c r="V1" s="112"/>
     </row>
     <row r="2" spans="1:23" ht="96" customHeight="1">
       <c r="A2" s="42"/>
@@ -10785,37 +10991,37 @@
     <row r="1" spans="1:33" ht="15" customHeight="1">
       <c r="A1" s="42"/>
       <c r="B1" s="43"/>
-      <c r="E1" s="114" t="s">
+      <c r="E1" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
-      <c r="P1" s="113"/>
-      <c r="Q1" s="113"/>
-      <c r="R1" s="113"/>
-      <c r="S1" s="113"/>
-      <c r="T1" s="113"/>
-      <c r="U1" s="113"/>
-      <c r="V1" s="113"/>
-      <c r="W1" s="113"/>
-      <c r="X1" s="113"/>
-      <c r="Y1" s="113"/>
-      <c r="Z1" s="113"/>
-      <c r="AA1" s="113"/>
-      <c r="AB1" s="113"/>
-      <c r="AC1" s="113"/>
-      <c r="AD1" s="113"/>
-      <c r="AE1" s="113"/>
-      <c r="AF1" s="113"/>
-      <c r="AG1" s="113"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
+      <c r="T1" s="112"/>
+      <c r="U1" s="112"/>
+      <c r="V1" s="112"/>
+      <c r="W1" s="112"/>
+      <c r="X1" s="112"/>
+      <c r="Y1" s="112"/>
+      <c r="Z1" s="112"/>
+      <c r="AA1" s="112"/>
+      <c r="AB1" s="112"/>
+      <c r="AC1" s="112"/>
+      <c r="AD1" s="112"/>
+      <c r="AE1" s="112"/>
+      <c r="AF1" s="112"/>
+      <c r="AG1" s="112"/>
     </row>
     <row r="2" spans="1:33" ht="144" customHeight="1">
       <c r="C2" s="73" t="s">

--- a/tests/_dummy_data.xlsx
+++ b/tests/_dummy_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ali_m\AnacondaProjects\PhD\Semiology-Visualisation-Tool\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1409A7-334F-4DFF-87BF-3B495CF5B76E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06E38C0-1D0E-416B-9844-88EF7336BDE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="364">
   <si>
     <t xml:space="preserve">Semiology </t>
   </si>
@@ -1115,6 +1115,33 @@
   </si>
   <si>
     <t>IFG FL</t>
+  </si>
+  <si>
+    <t>tonic vs asymmetric tonic 1</t>
+  </si>
+  <si>
+    <t>tonic vs asymmetric tonic 2</t>
+  </si>
+  <si>
+    <t>asymmetric tonic</t>
+  </si>
+  <si>
+    <t>tonic</t>
+  </si>
+  <si>
+    <t>Asymmetric Tonic</t>
+  </si>
+  <si>
+    <t>SMA</t>
+  </si>
+  <si>
+    <t>precentral gyrus</t>
+  </si>
+  <si>
+    <t>y+CX5:DG5</t>
+  </si>
+  <si>
+    <t>Romagnoli et al as above in adult</t>
   </si>
 </sst>
 </file>
@@ -1923,6 +1950,9 @@
     <xf numFmtId="0" fontId="21" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1964,9 +1994,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2316,13 +2343,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DU51"/>
+  <dimension ref="A1:DU52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="G9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BE11" sqref="BE11"/>
+      <selection pane="bottomRight" activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2414,106 +2441,106 @@
     <row r="1" spans="1:125" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="100"/>
       <c r="C1" s="16"/>
-      <c r="D1" s="111" t="s">
+      <c r="D1" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="111"/>
-      <c r="G1" s="118" t="s">
+      <c r="E1" s="112"/>
+      <c r="G1" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="K1" s="120" t="s">
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="K1" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="122"/>
-      <c r="S1" s="112"/>
-      <c r="T1" s="112"/>
-      <c r="U1" s="112"/>
-      <c r="V1" s="112"/>
-      <c r="W1" s="112"/>
-      <c r="X1" s="112"/>
-      <c r="Y1" s="112"/>
-      <c r="Z1" s="112"/>
-      <c r="AA1" s="112"/>
-      <c r="AB1" s="112"/>
-      <c r="AC1" s="112"/>
-      <c r="AD1" s="112"/>
-      <c r="AE1" s="112"/>
-      <c r="AF1" s="112"/>
-      <c r="AG1" s="112"/>
-      <c r="AH1" s="112"/>
-      <c r="AI1" s="112"/>
-      <c r="AJ1" s="112"/>
-      <c r="AK1" s="112"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="122"/>
+      <c r="O1" s="123"/>
+      <c r="S1" s="113"/>
+      <c r="T1" s="113"/>
+      <c r="U1" s="113"/>
+      <c r="V1" s="113"/>
+      <c r="W1" s="113"/>
+      <c r="X1" s="113"/>
+      <c r="Y1" s="113"/>
+      <c r="Z1" s="113"/>
+      <c r="AA1" s="113"/>
+      <c r="AB1" s="113"/>
+      <c r="AC1" s="113"/>
+      <c r="AD1" s="113"/>
+      <c r="AE1" s="113"/>
+      <c r="AF1" s="113"/>
+      <c r="AG1" s="113"/>
+      <c r="AH1" s="113"/>
+      <c r="AI1" s="113"/>
+      <c r="AJ1" s="113"/>
+      <c r="AK1" s="113"/>
       <c r="AM1" s="99"/>
-      <c r="AN1" s="113" t="s">
+      <c r="AN1" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="AO1" s="112"/>
-      <c r="AP1" s="112"/>
-      <c r="AQ1" s="112"/>
-      <c r="AR1" s="112"/>
-      <c r="AS1" s="112"/>
-      <c r="AT1" s="112"/>
-      <c r="AU1" s="112"/>
-      <c r="AV1" s="112"/>
-      <c r="AW1" s="112"/>
-      <c r="AX1" s="112"/>
-      <c r="AY1" s="112"/>
-      <c r="AZ1" s="112"/>
-      <c r="BA1" s="112"/>
-      <c r="BB1" s="112"/>
-      <c r="BC1" s="112"/>
-      <c r="BD1" s="112"/>
-      <c r="BE1" s="112"/>
-      <c r="BF1" s="112"/>
-      <c r="BG1" s="112"/>
-      <c r="BH1" s="112"/>
-      <c r="BI1" s="112"/>
-      <c r="BJ1" s="112"/>
-      <c r="BK1" s="112"/>
-      <c r="BL1" s="112"/>
-      <c r="BM1" s="112"/>
-      <c r="BN1" s="112"/>
-      <c r="BO1" s="112"/>
-      <c r="BP1" s="112"/>
-      <c r="BR1" s="115"/>
-      <c r="BS1" s="116"/>
-      <c r="BT1" s="116"/>
-      <c r="BU1" s="116"/>
-      <c r="BV1" s="116"/>
-      <c r="BW1" s="117"/>
+      <c r="AO1" s="113"/>
+      <c r="AP1" s="113"/>
+      <c r="AQ1" s="113"/>
+      <c r="AR1" s="113"/>
+      <c r="AS1" s="113"/>
+      <c r="AT1" s="113"/>
+      <c r="AU1" s="113"/>
+      <c r="AV1" s="113"/>
+      <c r="AW1" s="113"/>
+      <c r="AX1" s="113"/>
+      <c r="AY1" s="113"/>
+      <c r="AZ1" s="113"/>
+      <c r="BA1" s="113"/>
+      <c r="BB1" s="113"/>
+      <c r="BC1" s="113"/>
+      <c r="BD1" s="113"/>
+      <c r="BE1" s="113"/>
+      <c r="BF1" s="113"/>
+      <c r="BG1" s="113"/>
+      <c r="BH1" s="113"/>
+      <c r="BI1" s="113"/>
+      <c r="BJ1" s="113"/>
+      <c r="BK1" s="113"/>
+      <c r="BL1" s="113"/>
+      <c r="BM1" s="113"/>
+      <c r="BN1" s="113"/>
+      <c r="BO1" s="113"/>
+      <c r="BP1" s="113"/>
+      <c r="BR1" s="116"/>
+      <c r="BS1" s="117"/>
+      <c r="BT1" s="117"/>
+      <c r="BU1" s="117"/>
+      <c r="BV1" s="117"/>
+      <c r="BW1" s="118"/>
       <c r="BX1" s="102"/>
-      <c r="BZ1" s="112"/>
-      <c r="CA1" s="112"/>
-      <c r="CB1" s="112"/>
-      <c r="CC1" s="112"/>
-      <c r="CD1" s="112"/>
-      <c r="CE1" s="112"/>
-      <c r="CF1" s="112"/>
-      <c r="CG1" s="114"/>
-      <c r="CH1" s="113" t="s">
+      <c r="BZ1" s="113"/>
+      <c r="CA1" s="113"/>
+      <c r="CB1" s="113"/>
+      <c r="CC1" s="113"/>
+      <c r="CD1" s="113"/>
+      <c r="CE1" s="113"/>
+      <c r="CF1" s="113"/>
+      <c r="CG1" s="115"/>
+      <c r="CH1" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="CI1" s="112"/>
-      <c r="CJ1" s="112"/>
-      <c r="CK1" s="112"/>
-      <c r="CL1" s="112"/>
-      <c r="CM1" s="114"/>
+      <c r="CI1" s="113"/>
+      <c r="CJ1" s="113"/>
+      <c r="CK1" s="113"/>
+      <c r="CL1" s="113"/>
+      <c r="CM1" s="115"/>
       <c r="CO1" s="65"/>
-      <c r="CP1" s="112" t="s">
+      <c r="CP1" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="CQ1" s="112"/>
-      <c r="CR1" s="112"/>
-      <c r="CS1" s="112"/>
-      <c r="CT1" s="112"/>
-      <c r="CU1" s="112"/>
-      <c r="CV1" s="112"/>
+      <c r="CQ1" s="113"/>
+      <c r="CR1" s="113"/>
+      <c r="CS1" s="113"/>
+      <c r="CT1" s="113"/>
+      <c r="CU1" s="113"/>
+      <c r="CV1" s="113"/>
       <c r="CX1" s="95"/>
       <c r="CY1" s="95"/>
       <c r="CZ1" s="95"/>
@@ -2964,173 +2991,197 @@
       <c r="DT4" s="33"/>
       <c r="DU4" s="33"/>
     </row>
-    <row r="5" spans="1:125" ht="30">
-      <c r="A5" s="32" t="s">
-        <v>303</v>
-      </c>
-      <c r="B5" s="32">
+    <row r="7" spans="1:125" s="33" customFormat="1">
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="5"/>
+      <c r="AO7" s="5"/>
+      <c r="AP7" s="5"/>
+      <c r="AQ7" s="5"/>
+      <c r="AR7" s="5"/>
+      <c r="AS7" s="5"/>
+      <c r="AT7" s="5"/>
+      <c r="AU7" s="5"/>
+      <c r="AV7" s="5"/>
+      <c r="AW7" s="5"/>
+      <c r="AX7" s="5"/>
+      <c r="AY7" s="5"/>
+      <c r="AZ7" s="5"/>
+      <c r="BA7" s="5"/>
+      <c r="BB7" s="5"/>
+      <c r="BC7" s="5"/>
+      <c r="BD7" s="5"/>
+      <c r="BE7" s="5"/>
+      <c r="BF7" s="5"/>
+      <c r="BG7" s="5"/>
+      <c r="BH7" s="5"/>
+      <c r="BI7" s="5"/>
+      <c r="BJ7" s="5"/>
+      <c r="BK7" s="5"/>
+      <c r="BL7" s="5"/>
+      <c r="BM7" s="5"/>
+      <c r="BN7" s="5"/>
+      <c r="BO7" s="5"/>
+      <c r="BP7" s="5"/>
+      <c r="BQ7" s="5"/>
+      <c r="BR7" s="5"/>
+      <c r="BS7" s="5"/>
+      <c r="BT7" s="5"/>
+      <c r="BU7" s="5"/>
+      <c r="BV7" s="5"/>
+      <c r="BW7" s="5"/>
+      <c r="BX7" s="5"/>
+      <c r="BY7" s="5"/>
+      <c r="BZ7" s="5"/>
+      <c r="CA7" s="5"/>
+      <c r="CB7" s="5"/>
+      <c r="CC7" s="5"/>
+      <c r="CD7" s="5"/>
+      <c r="CE7" s="5"/>
+      <c r="CF7" s="5"/>
+      <c r="CG7" s="5"/>
+      <c r="CH7" s="5"/>
+      <c r="CI7" s="5"/>
+      <c r="CJ7" s="5"/>
+      <c r="CK7" s="5"/>
+      <c r="CL7" s="5"/>
+      <c r="CM7" s="5"/>
+      <c r="CN7" s="5"/>
+      <c r="CO7" s="5"/>
+      <c r="CP7" s="5"/>
+      <c r="CQ7" s="5"/>
+      <c r="CR7" s="5"/>
+      <c r="CS7" s="5"/>
+      <c r="CT7" s="5"/>
+      <c r="CU7" s="5"/>
+      <c r="CV7" s="5"/>
+      <c r="CW7" s="5"/>
+      <c r="CX7" s="5"/>
+      <c r="CY7" s="5"/>
+      <c r="CZ7" s="5"/>
+      <c r="DA7" s="5"/>
+      <c r="DB7" s="6"/>
+      <c r="DC7" s="6"/>
+      <c r="DD7" s="5"/>
+      <c r="DE7" s="5"/>
+      <c r="DF7" s="5"/>
+      <c r="DG7" s="5"/>
+      <c r="DH7" s="5"/>
+      <c r="DI7" s="5"/>
+      <c r="DJ7" s="5"/>
+      <c r="DK7" s="5"/>
+      <c r="DL7" s="5"/>
+      <c r="DM7" s="5"/>
+      <c r="DN7" s="5"/>
+      <c r="DO7" s="5"/>
+    </row>
+    <row r="8" spans="1:125" ht="30">
+      <c r="A8" s="32" t="s">
+        <v>305</v>
+      </c>
+      <c r="B8" s="32">
+        <v>10</v>
+      </c>
+      <c r="C8" s="32">
+        <v>10</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>306</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>307</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>309</v>
+      </c>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32" t="s">
+        <v>308</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="M8" s="5">
+        <v>10</v>
+      </c>
+      <c r="P8" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="31" t="s">
+        <v>310</v>
+      </c>
+      <c r="AL8" s="5">
+        <v>10</v>
+      </c>
+      <c r="AN8" s="5">
+        <v>5</v>
+      </c>
+      <c r="AV8" s="5">
+        <v>5</v>
+      </c>
+      <c r="AW8" s="5">
         <v>1</v>
       </c>
-      <c r="C5" s="32">
-        <v>1</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>299</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>300</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>301</v>
-      </c>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32" t="s">
+      <c r="BQ8" s="5">
+        <v>2</v>
+      </c>
+      <c r="BS8" s="5">
+        <v>2</v>
+      </c>
+      <c r="DA8" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="DB8" s="6">
+        <v>10</v>
+      </c>
+      <c r="DC8" s="6">
+        <v>0</v>
+      </c>
+      <c r="DD8" s="5">
+        <v>0</v>
+      </c>
+      <c r="DE8" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="I5" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="J5" s="5">
-        <v>1</v>
-      </c>
-      <c r="K5" s="5">
-        <v>1</v>
-      </c>
-      <c r="P5" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="31" t="s">
-        <v>302</v>
-      </c>
-      <c r="AL5" s="5">
-        <v>1</v>
-      </c>
-      <c r="AW5" s="5">
-        <v>1</v>
-      </c>
-      <c r="DA5" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="DB5" s="6">
-        <v>1</v>
-      </c>
-      <c r="DC5" s="6">
-        <v>0</v>
-      </c>
-      <c r="DD5" s="5">
-        <v>0</v>
-      </c>
-      <c r="DG5" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="DP5" s="33"/>
-      <c r="DQ5" s="33"/>
-      <c r="DR5" s="33"/>
-      <c r="DS5" s="33"/>
-      <c r="DT5" s="33"/>
-      <c r="DU5" s="33"/>
-    </row>
-    <row r="6" spans="1:125">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="DP6" s="33"/>
-      <c r="DQ6" s="33"/>
-      <c r="DR6" s="33"/>
-      <c r="DS6" s="33"/>
-      <c r="DT6" s="33"/>
-      <c r="DU6" s="33"/>
-    </row>
-    <row r="7" spans="1:125" ht="30">
-      <c r="A7" s="32" t="s">
-        <v>305</v>
-      </c>
-      <c r="B7" s="32">
-        <v>10</v>
-      </c>
-      <c r="C7" s="32">
-        <v>10</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>306</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>307</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>309</v>
-      </c>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32" t="s">
-        <v>308</v>
-      </c>
-      <c r="I7" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="M7" s="5">
-        <v>10</v>
-      </c>
-      <c r="P7" s="5">
-        <v>10</v>
-      </c>
-      <c r="Q7" s="31" t="s">
-        <v>310</v>
-      </c>
-      <c r="AL7" s="5">
-        <v>10</v>
-      </c>
-      <c r="AN7" s="5">
-        <v>5</v>
-      </c>
-      <c r="AV7" s="5">
-        <v>5</v>
-      </c>
-      <c r="AW7" s="5">
-        <v>1</v>
-      </c>
-      <c r="BQ7" s="5">
-        <v>2</v>
-      </c>
-      <c r="BS7" s="5">
-        <v>2</v>
-      </c>
-      <c r="DA7" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="DB7" s="6">
-        <v>10</v>
-      </c>
-      <c r="DC7" s="6">
-        <v>0</v>
-      </c>
-      <c r="DD7" s="5">
-        <v>0</v>
-      </c>
-      <c r="DE7" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="DH7" s="5" t="s">
+      <c r="DH8" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="DP7" s="33"/>
-      <c r="DQ7" s="33"/>
-      <c r="DR7" s="33"/>
-      <c r="DS7" s="33"/>
-      <c r="DT7" s="33"/>
-      <c r="DU7" s="33"/>
-    </row>
-    <row r="8" spans="1:125">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
       <c r="DP8" s="33"/>
       <c r="DQ8" s="33"/>
       <c r="DR8" s="33"/>
@@ -3139,71 +3190,13 @@
       <c r="DU8" s="33"/>
     </row>
     <row r="9" spans="1:125">
-      <c r="A9" s="32" t="s">
-        <v>311</v>
-      </c>
-      <c r="B9" s="32">
-        <v>10</v>
-      </c>
-      <c r="C9" s="32">
-        <v>10</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>316</v>
-      </c>
-      <c r="F9" s="32" t="s">
-        <v>295</v>
-      </c>
-      <c r="G9" s="32" t="s">
-        <v>116</v>
-      </c>
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="G9" s="32"/>
       <c r="H9" s="32"/>
       <c r="I9" s="32"/>
-      <c r="J9" s="5">
-        <v>5</v>
-      </c>
-      <c r="N9" s="5">
-        <v>5</v>
-      </c>
-      <c r="P9" s="5">
-        <v>9</v>
-      </c>
-      <c r="Q9" s="31" t="s">
-        <v>315</v>
-      </c>
-      <c r="R9" s="5">
-        <v>9</v>
-      </c>
-      <c r="S9" s="5">
-        <v>5</v>
-      </c>
-      <c r="T9" s="5">
-        <v>4</v>
-      </c>
-      <c r="Z9" s="5">
-        <v>4</v>
-      </c>
-      <c r="AA9" s="5">
-        <v>5</v>
-      </c>
-      <c r="DA9" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="DB9" s="6">
-        <v>10</v>
-      </c>
-      <c r="DC9" s="6">
-        <v>0</v>
-      </c>
-      <c r="DD9" s="5">
-        <v>10</v>
-      </c>
-      <c r="DF9" s="5" t="s">
-        <v>116</v>
-      </c>
       <c r="DP9" s="33"/>
       <c r="DQ9" s="33"/>
       <c r="DR9" s="33"/>
@@ -3212,17 +3205,23 @@
       <c r="DU9" s="33"/>
     </row>
     <row r="10" spans="1:125">
-      <c r="A10" s="17"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
+      <c r="A10" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="B10" s="32">
+        <v>10</v>
+      </c>
+      <c r="C10" s="32">
+        <v>10</v>
+      </c>
       <c r="D10" s="32" t="s">
-        <v>312</v>
+        <v>118</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="G10" s="32" t="s">
         <v>116</v>
@@ -3230,25 +3229,46 @@
       <c r="H10" s="32"/>
       <c r="I10" s="32"/>
       <c r="J10" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N10" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P10" s="5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="Q10" s="31" t="s">
-        <v>314</v>
-      </c>
-      <c r="AL10" s="5">
-        <v>1</v>
-      </c>
-      <c r="BE10" s="5">
-        <v>1</v>
+        <v>315</v>
+      </c>
+      <c r="R10" s="5">
+        <v>9</v>
+      </c>
+      <c r="S10" s="5">
+        <v>5</v>
+      </c>
+      <c r="T10" s="5">
+        <v>4</v>
+      </c>
+      <c r="Z10" s="5">
+        <v>4</v>
+      </c>
+      <c r="AA10" s="5">
+        <v>5</v>
       </c>
       <c r="DA10" s="5" t="s">
         <v>297</v>
+      </c>
+      <c r="DB10" s="6">
+        <v>10</v>
+      </c>
+      <c r="DC10" s="6">
+        <v>0</v>
+      </c>
+      <c r="DD10" s="5">
+        <v>10</v>
+      </c>
+      <c r="DF10" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="DP10" s="33"/>
       <c r="DQ10" s="33"/>
@@ -3258,20 +3278,14 @@
       <c r="DU10" s="33"/>
     </row>
     <row r="11" spans="1:125">
-      <c r="A11" s="32" t="s">
-        <v>352</v>
-      </c>
-      <c r="B11" s="32">
-        <v>1</v>
-      </c>
-      <c r="C11" s="32">
-        <v>1</v>
-      </c>
+      <c r="A11" s="17"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
       <c r="D11" s="32" t="s">
-        <v>353</v>
+        <v>312</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>118</v>
+        <v>312</v>
       </c>
       <c r="F11" s="32" t="s">
         <v>313</v>
@@ -3281,17 +3295,26 @@
       </c>
       <c r="H11" s="32"/>
       <c r="I11" s="32"/>
+      <c r="J11" s="5">
+        <v>1</v>
+      </c>
+      <c r="N11" s="5">
+        <v>1</v>
+      </c>
       <c r="P11" s="5">
         <v>1</v>
       </c>
       <c r="Q11" s="31" t="s">
-        <v>354</v>
+        <v>314</v>
       </c>
       <c r="AL11" s="5">
         <v>1</v>
       </c>
       <c r="BE11" s="5">
         <v>1</v>
+      </c>
+      <c r="DA11" s="5" t="s">
+        <v>297</v>
       </c>
       <c r="DP11" s="33"/>
       <c r="DQ11" s="33"/>
@@ -3301,13 +3324,41 @@
       <c r="DU11" s="33"/>
     </row>
     <row r="12" spans="1:125">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="G12" s="32"/>
+      <c r="A12" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="B12" s="32">
+        <v>1</v>
+      </c>
+      <c r="C12" s="32">
+        <v>1</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>313</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>116</v>
+      </c>
       <c r="H12" s="32"/>
       <c r="I12" s="32"/>
+      <c r="P12" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="AL12" s="5">
+        <v>1</v>
+      </c>
+      <c r="BE12" s="5">
+        <v>1</v>
+      </c>
       <c r="DP12" s="33"/>
       <c r="DQ12" s="33"/>
       <c r="DR12" s="33"/>
@@ -3316,53 +3367,13 @@
       <c r="DU12" s="33"/>
     </row>
     <row r="13" spans="1:125">
-      <c r="A13" s="32" t="s">
-        <v>319</v>
-      </c>
-      <c r="B13" s="32">
-        <v>1</v>
-      </c>
-      <c r="C13" s="32">
-        <v>1</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>317</v>
-      </c>
-      <c r="F13" s="32" t="s">
-        <v>318</v>
-      </c>
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
       <c r="G13" s="32"/>
-      <c r="H13" s="32" t="s">
-        <v>116</v>
-      </c>
+      <c r="H13" s="32"/>
       <c r="I13" s="32"/>
-      <c r="P13" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="R13" s="5">
-        <v>1</v>
-      </c>
-      <c r="DA13" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="DB13" s="6">
-        <v>1</v>
-      </c>
-      <c r="DC13" s="6">
-        <v>0</v>
-      </c>
-      <c r="DD13" s="5">
-        <v>0</v>
-      </c>
-      <c r="DF13" s="5" t="s">
-        <v>116</v>
-      </c>
       <c r="DP13" s="33"/>
       <c r="DQ13" s="33"/>
       <c r="DR13" s="33"/>
@@ -3372,7 +3383,7 @@
     </row>
     <row r="14" spans="1:125">
       <c r="A14" s="32" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B14" s="32">
         <v>1</v>
@@ -3380,11 +3391,11 @@
       <c r="C14" s="32">
         <v>1</v>
       </c>
-      <c r="D14" s="33" t="s">
-        <v>329</v>
+      <c r="D14" s="32" t="s">
+        <v>118</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="F14" s="32" t="s">
         <v>318</v>
@@ -3427,7 +3438,7 @@
     </row>
     <row r="15" spans="1:125">
       <c r="A15" s="32" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B15" s="32">
         <v>1</v>
@@ -3435,11 +3446,11 @@
       <c r="C15" s="32">
         <v>1</v>
       </c>
-      <c r="D15" s="32" t="s">
-        <v>322</v>
+      <c r="D15" s="33" t="s">
+        <v>329</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="F15" s="32" t="s">
         <v>318</v>
@@ -3481,13 +3492,53 @@
       <c r="DU15" s="33"/>
     </row>
     <row r="16" spans="1:125">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
+      <c r="A16" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="B16" s="32">
+        <v>1</v>
+      </c>
+      <c r="C16" s="32">
+        <v>1</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>322</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>318</v>
+      </c>
       <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
+      <c r="H16" s="32" t="s">
+        <v>116</v>
+      </c>
       <c r="I16" s="32"/>
+      <c r="P16" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="R16" s="5">
+        <v>1</v>
+      </c>
+      <c r="DA16" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="DB16" s="6">
+        <v>1</v>
+      </c>
+      <c r="DC16" s="6">
+        <v>0</v>
+      </c>
+      <c r="DD16" s="5">
+        <v>0</v>
+      </c>
+      <c r="DF16" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="DP16" s="33"/>
       <c r="DQ16" s="33"/>
       <c r="DR16" s="33"/>
@@ -3571,53 +3622,13 @@
       <c r="DU21" s="33"/>
     </row>
     <row r="22" spans="1:125">
-      <c r="A22" s="17" t="s">
-        <v>340</v>
-      </c>
-      <c r="B22" s="32">
-        <v>10</v>
-      </c>
-      <c r="C22" s="32">
-        <v>10</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>341</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>342</v>
-      </c>
-      <c r="F22" s="32" t="s">
-        <v>343</v>
-      </c>
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
       <c r="G22" s="32"/>
-      <c r="H22" s="32" t="s">
-        <v>116</v>
-      </c>
+      <c r="H22" s="32"/>
       <c r="I22" s="32"/>
-      <c r="M22" s="5">
-        <v>2</v>
-      </c>
-      <c r="P22" s="5">
-        <v>10</v>
-      </c>
-      <c r="Q22" s="31" t="s">
-        <v>344</v>
-      </c>
-      <c r="BQ22" s="5">
-        <v>3</v>
-      </c>
-      <c r="BY22" s="5">
-        <v>4</v>
-      </c>
-      <c r="CN22" s="5">
-        <v>3</v>
-      </c>
-      <c r="DA22" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="DF22" s="5" t="s">
-        <v>116</v>
-      </c>
       <c r="DP22" s="33"/>
       <c r="DQ22" s="33"/>
       <c r="DR22" s="33"/>
@@ -3625,21 +3636,21 @@
       <c r="DT22" s="33"/>
       <c r="DU22" s="33"/>
     </row>
-    <row r="23" spans="1:125" ht="30">
-      <c r="A23" s="125" t="s">
-        <v>349</v>
+    <row r="23" spans="1:125">
+      <c r="A23" s="17" t="s">
+        <v>340</v>
       </c>
       <c r="B23" s="32">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C23" s="32">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="F23" s="32" t="s">
         <v>343</v>
@@ -3649,17 +3660,29 @@
         <v>116</v>
       </c>
       <c r="I23" s="32"/>
+      <c r="M23" s="5">
+        <v>2</v>
+      </c>
       <c r="P23" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q23" s="31" t="s">
-        <v>346</v>
-      </c>
-      <c r="R23" s="5">
-        <v>5</v>
-      </c>
-      <c r="AA23" s="5">
-        <v>5</v>
+        <v>344</v>
+      </c>
+      <c r="BQ23" s="5">
+        <v>3</v>
+      </c>
+      <c r="BY23" s="5">
+        <v>4</v>
+      </c>
+      <c r="CN23" s="5">
+        <v>3</v>
+      </c>
+      <c r="DA23" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="DF23" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="DP23" s="33"/>
       <c r="DQ23" s="33"/>
@@ -3668,18 +3691,18 @@
       <c r="DT23" s="33"/>
       <c r="DU23" s="33"/>
     </row>
-    <row r="24" spans="1:125">
-      <c r="A24" s="17" t="s">
-        <v>350</v>
+    <row r="24" spans="1:125" ht="30">
+      <c r="A24" s="111" t="s">
+        <v>349</v>
       </c>
       <c r="B24" s="32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C24" s="32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E24" s="33" t="s">
         <v>351</v>
@@ -3693,19 +3716,19 @@
       </c>
       <c r="I24" s="32"/>
       <c r="P24" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q24" s="31" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="R24" s="5">
-        <v>1</v>
-      </c>
-      <c r="AL24" s="5">
-        <v>1</v>
-      </c>
-      <c r="DA24" s="5" t="s">
-        <v>297</v>
+        <v>5</v>
+      </c>
+      <c r="AA24" s="5">
+        <v>5</v>
+      </c>
+      <c r="DF24" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="DP24" s="33"/>
       <c r="DQ24" s="33"/>
@@ -3715,13 +3738,47 @@
       <c r="DU24" s="33"/>
     </row>
     <row r="25" spans="1:125">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="17"/>
+      <c r="A25" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="B25" s="32">
+        <v>1</v>
+      </c>
+      <c r="C25" s="32">
+        <v>1</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>351</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>343</v>
+      </c>
       <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
+      <c r="H25" s="32" t="s">
+        <v>116</v>
+      </c>
       <c r="I25" s="32"/>
+      <c r="P25" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="R25" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL25" s="5">
+        <v>1</v>
+      </c>
+      <c r="DA25" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="DF25" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="DP25" s="33"/>
       <c r="DQ25" s="33"/>
       <c r="DR25" s="33"/>
@@ -3760,13 +3817,41 @@
       <c r="DU27" s="33"/>
     </row>
     <row r="28" spans="1:125">
-      <c r="A28" s="32"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="17"/>
-      <c r="G28" s="32"/>
+      <c r="A28" s="32" t="s">
+        <v>355</v>
+      </c>
+      <c r="B28" s="32">
+        <v>1</v>
+      </c>
+      <c r="C28" s="32">
+        <v>1</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="E28" s="33" t="s">
+        <v>359</v>
+      </c>
+      <c r="G28" s="32" t="s">
+        <v>116</v>
+      </c>
       <c r="H28" s="32"/>
       <c r="I28" s="32"/>
+      <c r="P28" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="31" t="s">
+        <v>360</v>
+      </c>
+      <c r="AL28" s="5">
+        <v>1</v>
+      </c>
+      <c r="BO28" s="5">
+        <v>1</v>
+      </c>
+      <c r="DF28" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="DP28" s="33"/>
       <c r="DQ28" s="33"/>
       <c r="DR28" s="33"/>
@@ -3775,13 +3860,41 @@
       <c r="DU28" s="33"/>
     </row>
     <row r="29" spans="1:125">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="17"/>
-      <c r="G29" s="32"/>
+      <c r="A29" s="32" t="s">
+        <v>356</v>
+      </c>
+      <c r="B29" s="32">
+        <v>1</v>
+      </c>
+      <c r="C29" s="32">
+        <v>1</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>358</v>
+      </c>
+      <c r="G29" s="32" t="s">
+        <v>116</v>
+      </c>
       <c r="H29" s="32"/>
       <c r="I29" s="32"/>
+      <c r="P29" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="31" t="s">
+        <v>361</v>
+      </c>
+      <c r="AL29" s="5">
+        <v>10</v>
+      </c>
+      <c r="AW29" s="5">
+        <v>10</v>
+      </c>
+      <c r="DF29" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="DP29" s="33"/>
       <c r="DQ29" s="33"/>
       <c r="DR29" s="33"/>
@@ -3789,14 +3902,65 @@
       <c r="DT29" s="33"/>
       <c r="DU29" s="33"/>
     </row>
-    <row r="30" spans="1:125">
-      <c r="A30" s="32"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="17"/>
+    <row r="30" spans="1:125" ht="30">
+      <c r="A30" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="B30" s="32">
+        <v>1</v>
+      </c>
+      <c r="C30" s="32">
+        <v>1</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="E30" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="F30" s="32" t="s">
+        <v>301</v>
+      </c>
       <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
+      <c r="H30" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="I30" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="J30" s="5">
+        <v>1</v>
+      </c>
+      <c r="K30" s="5">
+        <v>1</v>
+      </c>
+      <c r="P30" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="31" t="s">
+        <v>302</v>
+      </c>
+      <c r="AL30" s="5">
+        <v>1</v>
+      </c>
+      <c r="AW30" s="5">
+        <v>1</v>
+      </c>
+      <c r="DA30" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="DB30" s="6">
+        <v>1</v>
+      </c>
+      <c r="DC30" s="6">
+        <v>0</v>
+      </c>
+      <c r="DD30" s="5">
+        <v>0</v>
+      </c>
+      <c r="DG30" s="5" t="s">
+        <v>362</v>
+      </c>
       <c r="DP30" s="33"/>
       <c r="DQ30" s="33"/>
       <c r="DR30" s="33"/>
@@ -3804,20 +3968,164 @@
       <c r="DT30" s="33"/>
       <c r="DU30" s="33"/>
     </row>
-    <row r="31" spans="1:125">
-      <c r="A31" s="32"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="17"/>
+    <row r="31" spans="1:125" s="33" customFormat="1" ht="30">
+      <c r="A31" s="32" t="s">
+        <v>363</v>
+      </c>
+      <c r="B31" s="32">
+        <v>1</v>
+      </c>
+      <c r="C31" s="32">
+        <v>1</v>
+      </c>
+      <c r="D31" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="E31" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="F31" s="32" t="s">
+        <v>301</v>
+      </c>
       <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="DP31" s="33"/>
-      <c r="DQ31" s="33"/>
-      <c r="DR31" s="33"/>
-      <c r="DS31" s="33"/>
-      <c r="DT31" s="33"/>
-      <c r="DU31" s="33"/>
+      <c r="H31" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="I31" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="J31" s="5">
+        <v>1</v>
+      </c>
+      <c r="K31" s="5">
+        <v>1</v>
+      </c>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="31" t="s">
+        <v>302</v>
+      </c>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="5"/>
+      <c r="AC31" s="5"/>
+      <c r="AD31" s="5"/>
+      <c r="AE31" s="5"/>
+      <c r="AF31" s="5"/>
+      <c r="AG31" s="5"/>
+      <c r="AH31" s="5"/>
+      <c r="AI31" s="5"/>
+      <c r="AJ31" s="5"/>
+      <c r="AK31" s="5"/>
+      <c r="AL31" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM31" s="5"/>
+      <c r="AN31" s="5"/>
+      <c r="AO31" s="5"/>
+      <c r="AP31" s="5"/>
+      <c r="AQ31" s="5"/>
+      <c r="AR31" s="5"/>
+      <c r="AS31" s="5"/>
+      <c r="AT31" s="5"/>
+      <c r="AU31" s="5"/>
+      <c r="AV31" s="5"/>
+      <c r="AW31" s="5">
+        <v>1</v>
+      </c>
+      <c r="AX31" s="5"/>
+      <c r="AY31" s="5"/>
+      <c r="AZ31" s="5"/>
+      <c r="BA31" s="5"/>
+      <c r="BB31" s="5"/>
+      <c r="BC31" s="5"/>
+      <c r="BD31" s="5"/>
+      <c r="BE31" s="5"/>
+      <c r="BF31" s="5"/>
+      <c r="BG31" s="5"/>
+      <c r="BH31" s="5"/>
+      <c r="BI31" s="5"/>
+      <c r="BJ31" s="5"/>
+      <c r="BK31" s="5"/>
+      <c r="BL31" s="5"/>
+      <c r="BM31" s="5"/>
+      <c r="BN31" s="5"/>
+      <c r="BO31" s="5"/>
+      <c r="BP31" s="5"/>
+      <c r="BQ31" s="5"/>
+      <c r="BR31" s="5"/>
+      <c r="BS31" s="5"/>
+      <c r="BT31" s="5"/>
+      <c r="BU31" s="5"/>
+      <c r="BV31" s="5"/>
+      <c r="BW31" s="5"/>
+      <c r="BX31" s="5"/>
+      <c r="BY31" s="5"/>
+      <c r="BZ31" s="5"/>
+      <c r="CA31" s="5"/>
+      <c r="CB31" s="5"/>
+      <c r="CC31" s="5"/>
+      <c r="CD31" s="5"/>
+      <c r="CE31" s="5"/>
+      <c r="CF31" s="5"/>
+      <c r="CG31" s="5"/>
+      <c r="CH31" s="5"/>
+      <c r="CI31" s="5"/>
+      <c r="CJ31" s="5"/>
+      <c r="CK31" s="5"/>
+      <c r="CL31" s="5"/>
+      <c r="CM31" s="5"/>
+      <c r="CN31" s="5"/>
+      <c r="CO31" s="5"/>
+      <c r="CP31" s="5"/>
+      <c r="CQ31" s="5"/>
+      <c r="CR31" s="5"/>
+      <c r="CS31" s="5"/>
+      <c r="CT31" s="5"/>
+      <c r="CU31" s="5"/>
+      <c r="CV31" s="5"/>
+      <c r="CW31" s="5"/>
+      <c r="CX31" s="5"/>
+      <c r="CY31" s="5"/>
+      <c r="CZ31" s="5"/>
+      <c r="DA31" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="DB31" s="6">
+        <v>1</v>
+      </c>
+      <c r="DC31" s="6">
+        <v>0</v>
+      </c>
+      <c r="DD31" s="5">
+        <v>0</v>
+      </c>
+      <c r="DE31" s="5"/>
+      <c r="DF31" s="5"/>
+      <c r="DG31" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="DH31" s="5"/>
+      <c r="DI31" s="5"/>
+      <c r="DJ31" s="5"/>
+      <c r="DK31" s="5"/>
+      <c r="DL31" s="5"/>
+      <c r="DM31" s="5"/>
+      <c r="DN31" s="5"/>
+      <c r="DO31" s="5"/>
     </row>
     <row r="32" spans="1:125">
       <c r="A32" s="32"/>
@@ -3898,7 +4206,7 @@
       <c r="A37" s="32"/>
       <c r="B37" s="32"/>
       <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
+      <c r="D37" s="17"/>
       <c r="G37" s="32"/>
       <c r="H37" s="32"/>
       <c r="I37" s="32"/>
@@ -4060,7 +4368,7 @@
       <c r="DU47" s="33"/>
     </row>
     <row r="48" spans="1:125">
-      <c r="A48" s="34"/>
+      <c r="A48" s="32"/>
       <c r="B48" s="32"/>
       <c r="C48" s="32"/>
       <c r="D48" s="32"/>
@@ -4075,7 +4383,7 @@
       <c r="DU48" s="33"/>
     </row>
     <row r="49" spans="1:125">
-      <c r="A49" s="32"/>
+      <c r="A49" s="34"/>
       <c r="B49" s="32"/>
       <c r="C49" s="32"/>
       <c r="D49" s="32"/>
@@ -4118,6 +4426,21 @@
       <c r="DS51" s="33"/>
       <c r="DT51" s="33"/>
       <c r="DU51" s="33"/>
+    </row>
+    <row r="52" spans="1:125">
+      <c r="A52" s="32"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="32"/>
+      <c r="DP52" s="33"/>
+      <c r="DQ52" s="33"/>
+      <c r="DR52" s="33"/>
+      <c r="DS52" s="33"/>
+      <c r="DT52" s="33"/>
+      <c r="DU52" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -4505,12 +4828,12 @@
     <row r="1" spans="1:8">
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="123" t="s">
+      <c r="E1" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
     </row>
     <row r="2" spans="1:8" ht="45">
       <c r="C2" s="74" t="s">
@@ -4809,11 +5132,11 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="C1" s="2"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="115"/>
       <c r="I1" s="101"/>
       <c r="J1" s="88"/>
     </row>
@@ -5000,15 +5323,15 @@
     <row r="1" spans="1:11" ht="26.25">
       <c r="C1" s="2"/>
       <c r="D1" s="65"/>
-      <c r="E1" s="124" t="s">
+      <c r="E1" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
     </row>
     <row r="2" spans="1:11" ht="30">
       <c r="C2" s="75" t="s">
@@ -5393,7 +5716,7 @@
     <col min="1" max="10" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="120">
+    <row r="1" spans="1:10" ht="60">
       <c r="A1" s="100" t="s">
         <v>6</v>
       </c>
@@ -5449,8 +5772,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="75">
-      <c r="A3" s="125" t="s">
+    <row r="3" spans="1:10" ht="45">
+      <c r="A3" s="111" t="s">
         <v>349</v>
       </c>
       <c r="B3" s="32">
@@ -5474,7 +5797,7 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" ht="45">
+    <row r="4" spans="1:10" ht="30">
       <c r="A4" s="17" t="s">
         <v>350</v>
       </c>
@@ -5545,7 +5868,7 @@
         <v>324</v>
       </c>
       <c r="B2" s="29">
-        <f>SUM(Main!P9:P15)</f>
+        <f>SUM(Main!P10:P16)</f>
         <v>14</v>
       </c>
       <c r="E2" s="73" t="s">
@@ -5581,7 +5904,7 @@
         <v>325</v>
       </c>
       <c r="B3" s="30">
-        <f>SUM(Main!J9:J15)</f>
+        <f>SUM(Main!J10:J16)</f>
         <v>6</v>
       </c>
       <c r="E3" s="108">
@@ -5852,7 +6175,7 @@
         <v>325</v>
       </c>
       <c r="B13" s="30">
-        <f>SUM(Main!J19:J25)</f>
+        <f>SUM(Main!J20:J26)</f>
         <v>0</v>
       </c>
       <c r="E13" s="108">
@@ -6126,8 +6449,8 @@
         <v>325</v>
       </c>
       <c r="B23" s="30">
-        <f>SUM(Main!J29:J35)</f>
-        <v>0</v>
+        <f>SUM(Main!J30:J36)</f>
+        <v>2</v>
       </c>
       <c r="E23" s="38">
         <v>203</v>
@@ -6337,7 +6660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B61"/>
     </sheetView>
   </sheetViews>
@@ -10012,24 +10335,24 @@
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1">
       <c r="D1" s="73"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
-      <c r="T1" s="112"/>
-      <c r="U1" s="112"/>
-      <c r="V1" s="112"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
+      <c r="Q1" s="113"/>
+      <c r="R1" s="113"/>
+      <c r="S1" s="113"/>
+      <c r="T1" s="113"/>
+      <c r="U1" s="113"/>
+      <c r="V1" s="113"/>
     </row>
     <row r="2" spans="1:23" ht="96" customHeight="1">
       <c r="A2" s="42"/>
@@ -10991,37 +11314,37 @@
     <row r="1" spans="1:33" ht="15" customHeight="1">
       <c r="A1" s="42"/>
       <c r="B1" s="43"/>
-      <c r="E1" s="113" t="s">
+      <c r="E1" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
-      <c r="T1" s="112"/>
-      <c r="U1" s="112"/>
-      <c r="V1" s="112"/>
-      <c r="W1" s="112"/>
-      <c r="X1" s="112"/>
-      <c r="Y1" s="112"/>
-      <c r="Z1" s="112"/>
-      <c r="AA1" s="112"/>
-      <c r="AB1" s="112"/>
-      <c r="AC1" s="112"/>
-      <c r="AD1" s="112"/>
-      <c r="AE1" s="112"/>
-      <c r="AF1" s="112"/>
-      <c r="AG1" s="112"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
+      <c r="Q1" s="113"/>
+      <c r="R1" s="113"/>
+      <c r="S1" s="113"/>
+      <c r="T1" s="113"/>
+      <c r="U1" s="113"/>
+      <c r="V1" s="113"/>
+      <c r="W1" s="113"/>
+      <c r="X1" s="113"/>
+      <c r="Y1" s="113"/>
+      <c r="Z1" s="113"/>
+      <c r="AA1" s="113"/>
+      <c r="AB1" s="113"/>
+      <c r="AC1" s="113"/>
+      <c r="AD1" s="113"/>
+      <c r="AE1" s="113"/>
+      <c r="AF1" s="113"/>
+      <c r="AG1" s="113"/>
     </row>
     <row r="2" spans="1:33" ht="144" customHeight="1">
       <c r="C2" s="73" t="s">

--- a/tests/_dummy_data.xlsx
+++ b/tests/_dummy_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ali_m\AnacondaProjects\PhD\Semiology-Visualisation-Tool\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06E38C0-1D0E-416B-9844-88EF7336BDE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA15F34-E75C-4A37-A50B-8553F52575ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="368">
   <si>
     <t xml:space="preserve">Semiology </t>
   </si>
@@ -1142,6 +1142,18 @@
   </si>
   <si>
     <t>Romagnoli et al as above in adult</t>
+  </si>
+  <si>
+    <t>Marvasti's largest atonic collection</t>
+  </si>
+  <si>
+    <t>atonic collapse, loss of power</t>
+  </si>
+  <si>
+    <t>atonic</t>
+  </si>
+  <si>
+    <t>esf</t>
   </si>
 </sst>
 </file>
@@ -2346,10 +2358,10 @@
   <dimension ref="A1:DU52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="G9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="I15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A33" sqref="A33"/>
+      <selection pane="bottomRight" activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4173,13 +4185,47 @@
       <c r="DU34" s="33"/>
     </row>
     <row r="35" spans="1:125">
-      <c r="A35" s="32"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="17"/>
-      <c r="G35" s="32"/>
+      <c r="A35" s="32" t="s">
+        <v>364</v>
+      </c>
+      <c r="B35" s="32">
+        <v>999</v>
+      </c>
+      <c r="C35" s="32">
+        <v>999</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>365</v>
+      </c>
+      <c r="E35" s="33" t="s">
+        <v>366</v>
+      </c>
+      <c r="F35" s="32" t="s">
+        <v>367</v>
+      </c>
+      <c r="G35" s="32" t="s">
+        <v>116</v>
+      </c>
       <c r="H35" s="32"/>
       <c r="I35" s="32"/>
+      <c r="J35" s="5">
+        <v>2</v>
+      </c>
+      <c r="O35" s="5">
+        <v>2</v>
+      </c>
+      <c r="P35" s="5">
+        <v>999</v>
+      </c>
+      <c r="Q35" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="R35" s="5">
+        <v>900</v>
+      </c>
+      <c r="BQ35" s="5">
+        <v>99</v>
+      </c>
       <c r="DP35" s="33"/>
       <c r="DQ35" s="33"/>
       <c r="DR35" s="33"/>
@@ -6450,7 +6496,7 @@
       </c>
       <c r="B23" s="30">
         <f>SUM(Main!J30:J36)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E23" s="38">
         <v>203</v>

--- a/tests/_dummy_data.xlsx
+++ b/tests/_dummy_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ali_m\AnacondaProjects\PhD\Semiology-Visualisation-Tool\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA15F34-E75C-4A37-A50B-8553F52575ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7158D11-8087-4471-80BB-13AC28966581}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="369">
   <si>
     <t xml:space="preserve">Semiology </t>
   </si>
@@ -1154,6 +1154,9 @@
   </si>
   <si>
     <t>esf</t>
+  </si>
+  <si>
+    <t>tl</t>
   </si>
 </sst>
 </file>
@@ -2357,11 +2360,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DU52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="I15" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="M15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I35" sqref="I35"/>
+      <selection pane="bottomRight" activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4237,10 +4240,29 @@
       <c r="A36" s="32"/>
       <c r="B36" s="32"/>
       <c r="C36" s="32"/>
-      <c r="D36" s="17"/>
-      <c r="G36" s="32"/>
+      <c r="D36" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="E36" s="33" t="s">
+        <v>357</v>
+      </c>
+      <c r="F36" s="32" t="s">
+        <v>367</v>
+      </c>
+      <c r="G36" s="32" t="s">
+        <v>116</v>
+      </c>
       <c r="H36" s="32"/>
       <c r="I36" s="32"/>
+      <c r="P36" s="5">
+        <v>7</v>
+      </c>
+      <c r="Q36" s="31" t="s">
+        <v>368</v>
+      </c>
+      <c r="R36" s="5">
+        <v>7</v>
+      </c>
       <c r="DP36" s="33"/>
       <c r="DQ36" s="33"/>
       <c r="DR36" s="33"/>
@@ -4507,10 +4529,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -4806,51 +4828,29 @@
       <c r="G18" s="39"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>247</v>
-      </c>
-      <c r="B19" s="45">
-        <v>169</v>
-      </c>
-      <c r="C19" s="45">
-        <v>169</v>
+      <c r="A19" s="83" t="s">
+        <v>177</v>
+      </c>
+      <c r="B19" s="39">
+        <v>86</v>
+      </c>
+      <c r="C19" s="39">
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>248</v>
-      </c>
-      <c r="B20" s="45">
-        <v>170</v>
-      </c>
-      <c r="C20" s="45">
-        <v>170</v>
+      <c r="A20" s="83" t="s">
+        <v>184</v>
+      </c>
+      <c r="B20" s="39">
+        <v>94</v>
+      </c>
+      <c r="C20" s="39">
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="83" t="s">
-        <v>177</v>
-      </c>
-      <c r="B21" s="39">
-        <v>86</v>
-      </c>
-      <c r="C21" s="39">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="83" t="s">
-        <v>184</v>
-      </c>
-      <c r="B22" s="39">
-        <v>94</v>
-      </c>
-      <c r="C22" s="39">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="B23" s="39"/>
+      <c r="B21" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/_dummy_data.xlsx
+++ b/tests/_dummy_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ali_m\AnacondaProjects\PhD\Semiology-Visualisation-Tool\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7158D11-8087-4471-80BB-13AC28966581}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B4EF72-247A-4B35-A64E-5445F13E1BD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -4531,7 +4531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -6704,10 +6704,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B62"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -6717,15 +6717,17 @@
     <col min="3" max="16384" width="8.85546875" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="38" t="s">
         <v>338</v>
       </c>
       <c r="B1" s="38" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1"/>
+      <c r="D1"/>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>32</v>
       </c>
@@ -6733,7 +6735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>33</v>
       </c>
@@ -6741,7 +6743,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>48</v>
       </c>
@@ -6749,7 +6751,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>49</v>
       </c>
@@ -6757,7 +6759,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>105</v>
       </c>
@@ -6765,7 +6767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>106</v>
       </c>
@@ -6773,7 +6775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>117</v>
       </c>
@@ -6781,7 +6783,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>118</v>
       </c>
@@ -6789,7 +6791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>119</v>
       </c>
@@ -6797,7 +6799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>120</v>
       </c>
@@ -6805,7 +6807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>121</v>
       </c>
@@ -6813,7 +6815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>122</v>
       </c>
@@ -6821,7 +6823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>123</v>
       </c>
@@ -6829,7 +6831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>124</v>
       </c>
@@ -6837,7 +6839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>125</v>
       </c>
@@ -6983,23 +6985,23 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -7007,7 +7009,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -7015,103 +7017,103 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B38">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B39">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B42">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B43">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B46">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B47">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -7119,7 +7121,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -7127,7 +7129,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -7135,7 +7137,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -7143,69 +7145,84 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B54">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B55">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B56">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B57">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:2" s="109" customFormat="1">
       <c r="A60">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B60">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
+        <v>206</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" s="110" customFormat="1">
+      <c r="A62">
+        <v>207</v>
+      </c>
+      <c r="B62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63">
         <v>208</v>
       </c>
-      <c r="B61">
+      <c r="B63">
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:2" s="110" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests/_dummy_data.xlsx
+++ b/tests/_dummy_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ali_m\AnacondaProjects\PhD\Semiology-Visualisation-Tool\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B4EF72-247A-4B35-A64E-5445F13E1BD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF14BD24-5191-4B15-A117-E0494A954F1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1163,7 +1163,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1318,6 +1318,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1651,7 +1658,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1815,9 +1822,6 @@
     <xf numFmtId="0" fontId="8" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1884,14 +1888,8 @@
     <xf numFmtId="0" fontId="19" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2009,6 +2007,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2360,7 +2371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DU52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="M15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -2454,112 +2465,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:125" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="100"/>
+      <c r="A1" s="97"/>
       <c r="C1" s="16"/>
-      <c r="D1" s="112" t="s">
+      <c r="D1" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="112"/>
-      <c r="G1" s="119" t="s">
+      <c r="E1" s="109"/>
+      <c r="G1" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="K1" s="121" t="s">
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="K1" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="122"/>
-      <c r="M1" s="122"/>
-      <c r="N1" s="122"/>
-      <c r="O1" s="123"/>
-      <c r="S1" s="113"/>
-      <c r="T1" s="113"/>
-      <c r="U1" s="113"/>
-      <c r="V1" s="113"/>
-      <c r="W1" s="113"/>
-      <c r="X1" s="113"/>
-      <c r="Y1" s="113"/>
-      <c r="Z1" s="113"/>
-      <c r="AA1" s="113"/>
-      <c r="AB1" s="113"/>
-      <c r="AC1" s="113"/>
-      <c r="AD1" s="113"/>
-      <c r="AE1" s="113"/>
-      <c r="AF1" s="113"/>
-      <c r="AG1" s="113"/>
-      <c r="AH1" s="113"/>
-      <c r="AI1" s="113"/>
-      <c r="AJ1" s="113"/>
-      <c r="AK1" s="113"/>
-      <c r="AM1" s="99"/>
-      <c r="AN1" s="114" t="s">
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="120"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
+      <c r="U1" s="110"/>
+      <c r="V1" s="110"/>
+      <c r="W1" s="110"/>
+      <c r="X1" s="110"/>
+      <c r="Y1" s="110"/>
+      <c r="Z1" s="110"/>
+      <c r="AA1" s="110"/>
+      <c r="AB1" s="110"/>
+      <c r="AC1" s="110"/>
+      <c r="AD1" s="110"/>
+      <c r="AE1" s="110"/>
+      <c r="AF1" s="110"/>
+      <c r="AG1" s="110"/>
+      <c r="AH1" s="110"/>
+      <c r="AI1" s="110"/>
+      <c r="AJ1" s="110"/>
+      <c r="AK1" s="110"/>
+      <c r="AM1" s="96"/>
+      <c r="AN1" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="AO1" s="113"/>
-      <c r="AP1" s="113"/>
-      <c r="AQ1" s="113"/>
-      <c r="AR1" s="113"/>
-      <c r="AS1" s="113"/>
-      <c r="AT1" s="113"/>
-      <c r="AU1" s="113"/>
-      <c r="AV1" s="113"/>
-      <c r="AW1" s="113"/>
-      <c r="AX1" s="113"/>
-      <c r="AY1" s="113"/>
-      <c r="AZ1" s="113"/>
-      <c r="BA1" s="113"/>
-      <c r="BB1" s="113"/>
-      <c r="BC1" s="113"/>
-      <c r="BD1" s="113"/>
-      <c r="BE1" s="113"/>
-      <c r="BF1" s="113"/>
-      <c r="BG1" s="113"/>
-      <c r="BH1" s="113"/>
-      <c r="BI1" s="113"/>
-      <c r="BJ1" s="113"/>
-      <c r="BK1" s="113"/>
-      <c r="BL1" s="113"/>
-      <c r="BM1" s="113"/>
-      <c r="BN1" s="113"/>
-      <c r="BO1" s="113"/>
-      <c r="BP1" s="113"/>
-      <c r="BR1" s="116"/>
-      <c r="BS1" s="117"/>
-      <c r="BT1" s="117"/>
-      <c r="BU1" s="117"/>
-      <c r="BV1" s="117"/>
-      <c r="BW1" s="118"/>
-      <c r="BX1" s="102"/>
-      <c r="BZ1" s="113"/>
-      <c r="CA1" s="113"/>
-      <c r="CB1" s="113"/>
-      <c r="CC1" s="113"/>
-      <c r="CD1" s="113"/>
-      <c r="CE1" s="113"/>
-      <c r="CF1" s="113"/>
-      <c r="CG1" s="115"/>
-      <c r="CH1" s="114" t="s">
+      <c r="AO1" s="110"/>
+      <c r="AP1" s="110"/>
+      <c r="AQ1" s="110"/>
+      <c r="AR1" s="110"/>
+      <c r="AS1" s="110"/>
+      <c r="AT1" s="110"/>
+      <c r="AU1" s="110"/>
+      <c r="AV1" s="110"/>
+      <c r="AW1" s="110"/>
+      <c r="AX1" s="110"/>
+      <c r="AY1" s="110"/>
+      <c r="AZ1" s="110"/>
+      <c r="BA1" s="110"/>
+      <c r="BB1" s="110"/>
+      <c r="BC1" s="110"/>
+      <c r="BD1" s="110"/>
+      <c r="BE1" s="110"/>
+      <c r="BF1" s="110"/>
+      <c r="BG1" s="110"/>
+      <c r="BH1" s="110"/>
+      <c r="BI1" s="110"/>
+      <c r="BJ1" s="110"/>
+      <c r="BK1" s="110"/>
+      <c r="BL1" s="110"/>
+      <c r="BM1" s="110"/>
+      <c r="BN1" s="110"/>
+      <c r="BO1" s="110"/>
+      <c r="BP1" s="110"/>
+      <c r="BR1" s="113"/>
+      <c r="BS1" s="114"/>
+      <c r="BT1" s="114"/>
+      <c r="BU1" s="114"/>
+      <c r="BV1" s="114"/>
+      <c r="BW1" s="115"/>
+      <c r="BX1" s="99"/>
+      <c r="BZ1" s="110"/>
+      <c r="CA1" s="110"/>
+      <c r="CB1" s="110"/>
+      <c r="CC1" s="110"/>
+      <c r="CD1" s="110"/>
+      <c r="CE1" s="110"/>
+      <c r="CF1" s="110"/>
+      <c r="CG1" s="112"/>
+      <c r="CH1" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="CI1" s="113"/>
-      <c r="CJ1" s="113"/>
-      <c r="CK1" s="113"/>
-      <c r="CL1" s="113"/>
-      <c r="CM1" s="115"/>
-      <c r="CO1" s="65"/>
-      <c r="CP1" s="113" t="s">
+      <c r="CI1" s="110"/>
+      <c r="CJ1" s="110"/>
+      <c r="CK1" s="110"/>
+      <c r="CL1" s="110"/>
+      <c r="CM1" s="112"/>
+      <c r="CO1" s="64"/>
+      <c r="CP1" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="CQ1" s="113"/>
-      <c r="CR1" s="113"/>
-      <c r="CS1" s="113"/>
-      <c r="CT1" s="113"/>
-      <c r="CU1" s="113"/>
-      <c r="CV1" s="113"/>
-      <c r="CX1" s="95"/>
-      <c r="CY1" s="95"/>
-      <c r="CZ1" s="95"/>
-      <c r="DA1" s="95"/>
+      <c r="CQ1" s="110"/>
+      <c r="CR1" s="110"/>
+      <c r="CS1" s="110"/>
+      <c r="CT1" s="110"/>
+      <c r="CU1" s="110"/>
+      <c r="CV1" s="110"/>
+      <c r="CX1" s="92"/>
+      <c r="CY1" s="92"/>
+      <c r="CZ1" s="92"/>
+      <c r="DA1" s="92"/>
       <c r="DB1" s="35"/>
       <c r="DC1" s="14"/>
       <c r="DD1" s="15"/>
@@ -2576,10 +2587,10 @@
       <c r="DO1" s="4"/>
     </row>
     <row r="2" spans="1:125" s="13" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="76" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="18" t="s">
@@ -2591,7 +2602,7 @@
       <c r="E2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="69" t="s">
+      <c r="F2" s="68" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="22" t="s">
@@ -2603,7 +2614,7 @@
       <c r="I2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="70" t="s">
+      <c r="J2" s="69" t="s">
         <v>15</v>
       </c>
       <c r="K2" s="7" t="s">
@@ -2621,13 +2632,13 @@
       <c r="O2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="71" t="s">
+      <c r="P2" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="72" t="s">
+      <c r="Q2" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="73" t="s">
+      <c r="R2" s="72" t="s">
         <v>23</v>
       </c>
       <c r="S2" s="25" t="s">
@@ -2687,7 +2698,7 @@
       <c r="AK2" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="AL2" s="73" t="s">
+      <c r="AL2" s="72" t="s">
         <v>43</v>
       </c>
       <c r="AM2" s="25" t="s">
@@ -2699,7 +2710,7 @@
       <c r="AO2" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="AP2" s="87" t="s">
+      <c r="AP2" s="84" t="s">
         <v>47</v>
       </c>
       <c r="AQ2" s="23" t="s">
@@ -2723,7 +2734,7 @@
       <c r="AW2" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="AX2" s="64" t="s">
+      <c r="AX2" s="63" t="s">
         <v>55</v>
       </c>
       <c r="AY2" s="23" t="s">
@@ -2765,10 +2776,10 @@
       <c r="BK2" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="BL2" s="78" t="s">
+      <c r="BL2" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="BM2" s="78" t="s">
+      <c r="BM2" s="77" t="s">
         <v>68</v>
       </c>
       <c r="BN2" s="23" t="s">
@@ -2780,31 +2791,31 @@
       <c r="BP2" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="BQ2" s="73" t="s">
+      <c r="BQ2" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="BR2" s="90" t="s">
+      <c r="BR2" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="BS2" s="91" t="s">
+      <c r="BS2" s="88" t="s">
         <v>74</v>
       </c>
-      <c r="BT2" s="92" t="s">
+      <c r="BT2" s="89" t="s">
         <v>75</v>
       </c>
-      <c r="BU2" s="92" t="s">
+      <c r="BU2" s="89" t="s">
         <v>76</v>
       </c>
-      <c r="BV2" s="93" t="s">
+      <c r="BV2" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="BW2" s="91" t="s">
+      <c r="BW2" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="BX2" s="94" t="s">
+      <c r="BX2" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="BY2" s="73" t="s">
+      <c r="BY2" s="72" t="s">
         <v>80</v>
       </c>
       <c r="BZ2" s="25" t="s">
@@ -2831,16 +2842,16 @@
       <c r="CG2" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="CH2" s="74" t="s">
+      <c r="CH2" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="CI2" s="103" t="s">
+      <c r="CI2" s="100" t="s">
         <v>90</v>
       </c>
       <c r="CJ2" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="CK2" s="80" t="s">
+      <c r="CK2" s="79" t="s">
         <v>92</v>
       </c>
       <c r="CL2" s="25" t="s">
@@ -2849,13 +2860,13 @@
       <c r="CM2" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="CN2" s="75" t="s">
+      <c r="CN2" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="CO2" s="66" t="s">
+      <c r="CO2" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="CP2" s="67" t="s">
+      <c r="CP2" s="66" t="s">
         <v>97</v>
       </c>
       <c r="CQ2" s="23" t="s">
@@ -2876,19 +2887,19 @@
       <c r="CV2" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="CW2" s="76" t="s">
+      <c r="CW2" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="CX2" s="104" t="s">
+      <c r="CX2" s="101" t="s">
         <v>105</v>
       </c>
-      <c r="CY2" s="105" t="s">
+      <c r="CY2" s="102" t="s">
         <v>106</v>
       </c>
-      <c r="CZ2" s="105" t="s">
+      <c r="CZ2" s="102" t="s">
         <v>107</v>
       </c>
-      <c r="DA2" s="106" t="s">
+      <c r="DA2" s="103" t="s">
         <v>108</v>
       </c>
       <c r="DB2" s="36" t="s">
@@ -3707,7 +3718,7 @@
       <c r="DU23" s="33"/>
     </row>
     <row r="24" spans="1:125" ht="30">
-      <c r="A24" s="111" t="s">
+      <c r="A24" s="108" t="s">
         <v>349</v>
       </c>
       <c r="B24" s="32">
@@ -4532,7 +4543,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -4541,7 +4552,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
-      <c r="C1" s="81"/>
+      <c r="C1" s="80"/>
       <c r="D1" s="57"/>
       <c r="E1" s="57"/>
       <c r="F1" s="57"/>
@@ -4552,19 +4563,19 @@
       <c r="K1" s="58"/>
     </row>
     <row r="2" spans="1:11" ht="96" customHeight="1">
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="80" t="s">
         <v>80</v>
       </c>
       <c r="D2" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="61" t="s">
+      <c r="E2" s="60" t="s">
         <v>82</v>
       </c>
       <c r="F2" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="G2" s="86" t="s">
+      <c r="G2" s="83" t="s">
         <v>290</v>
       </c>
       <c r="H2" s="54" t="s">
@@ -4584,39 +4595,39 @@
       <c r="A3" t="s">
         <v>193</v>
       </c>
-      <c r="B3" s="45">
+      <c r="B3" s="39">
         <v>107</v>
       </c>
-      <c r="C3" s="45">
+      <c r="C3" s="39">
         <v>107</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="45">
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="39">
         <v>107</v>
       </c>
-      <c r="I3" s="59"/>
-      <c r="J3" s="45">
+      <c r="I3" s="17"/>
+      <c r="J3" s="39">
         <v>107</v>
       </c>
-      <c r="K3" s="59"/>
+      <c r="K3" s="17"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>194</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="39">
         <v>108</v>
       </c>
-      <c r="C4" s="45">
+      <c r="C4" s="39">
         <v>108</v>
       </c>
-      <c r="H4" s="45">
+      <c r="H4" s="39">
         <v>108</v>
       </c>
-      <c r="J4" s="45">
+      <c r="J4" s="39">
         <v>108</v>
       </c>
     </row>
@@ -4624,37 +4635,40 @@
       <c r="A5" s="50" t="s">
         <v>197</v>
       </c>
-      <c r="B5" s="45">
+      <c r="B5" s="39">
         <v>113</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="39">
         <v>113</v>
       </c>
-      <c r="K5" s="45"/>
+      <c r="K5" s="39"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="50" t="s">
         <v>198</v>
       </c>
-      <c r="B6" s="45">
+      <c r="B6" s="39">
         <v>114</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="39">
         <v>114</v>
       </c>
-      <c r="K6" s="45"/>
+      <c r="K6" s="39"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>229</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="39">
         <v>149</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="39">
         <v>149</v>
       </c>
-      <c r="E7" s="45">
+      <c r="D7" s="39">
+        <v>149</v>
+      </c>
+      <c r="E7" s="39">
         <v>149</v>
       </c>
     </row>
@@ -4662,13 +4676,16 @@
       <c r="A8" t="s">
         <v>230</v>
       </c>
-      <c r="B8" s="45">
+      <c r="B8" s="39">
         <v>150</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="39">
         <v>150</v>
       </c>
-      <c r="E8" s="45">
+      <c r="D8" s="39">
+        <v>150</v>
+      </c>
+      <c r="E8" s="39">
         <v>150</v>
       </c>
     </row>
@@ -4676,14 +4693,14 @@
       <c r="A9" t="s">
         <v>247</v>
       </c>
-      <c r="B9" s="45">
+      <c r="B9" s="39">
         <v>169</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="39">
         <v>169</v>
       </c>
-      <c r="E9" s="45"/>
-      <c r="G9" s="45">
+      <c r="E9" s="39"/>
+      <c r="G9" s="39">
         <v>169</v>
       </c>
     </row>
@@ -4691,14 +4708,14 @@
       <c r="A10" t="s">
         <v>248</v>
       </c>
-      <c r="B10" s="45">
+      <c r="B10" s="39">
         <v>170</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="39">
         <v>170</v>
       </c>
-      <c r="E10" s="45"/>
-      <c r="G10" s="45">
+      <c r="E10" s="39"/>
+      <c r="G10" s="39">
         <v>170</v>
       </c>
     </row>
@@ -4706,14 +4723,14 @@
       <c r="A11" t="s">
         <v>253</v>
       </c>
-      <c r="B11" s="45">
+      <c r="B11" s="39">
         <v>175</v>
       </c>
-      <c r="C11" s="45">
+      <c r="C11" s="39">
         <v>175</v>
       </c>
-      <c r="H11" s="45"/>
-      <c r="K11" s="45">
+      <c r="H11" s="39"/>
+      <c r="K11" s="39">
         <v>175</v>
       </c>
     </row>
@@ -4721,14 +4738,14 @@
       <c r="A12" t="s">
         <v>254</v>
       </c>
-      <c r="B12" s="45">
+      <c r="B12" s="39">
         <v>176</v>
       </c>
-      <c r="C12" s="45">
+      <c r="C12" s="39">
         <v>176</v>
       </c>
-      <c r="H12" s="45"/>
-      <c r="K12" s="45">
+      <c r="H12" s="39"/>
+      <c r="K12" s="39">
         <v>176</v>
       </c>
     </row>
@@ -4736,32 +4753,32 @@
       <c r="A13" t="s">
         <v>255</v>
       </c>
-      <c r="B13" s="45">
+      <c r="B13" s="39">
         <v>177</v>
       </c>
-      <c r="C13" s="45">
+      <c r="C13" s="39">
         <v>177</v>
       </c>
-      <c r="D13" s="45">
+      <c r="D13" s="39">
         <v>177</v>
       </c>
-      <c r="E13" s="45"/>
-      <c r="H13" s="45"/>
+      <c r="E13" s="39"/>
+      <c r="H13" s="39"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>256</v>
       </c>
-      <c r="B14" s="45">
+      <c r="B14" s="39">
         <v>178</v>
       </c>
-      <c r="C14" s="45">
+      <c r="C14" s="39">
         <v>178</v>
       </c>
-      <c r="D14" s="45">
+      <c r="D14" s="39">
         <v>178</v>
       </c>
-      <c r="E14" s="45"/>
+      <c r="E14" s="39"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
@@ -4828,7 +4845,7 @@
       <c r="G18" s="39"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="83" t="s">
+      <c r="A19" s="81" t="s">
         <v>177</v>
       </c>
       <c r="B19" s="39">
@@ -4839,7 +4856,7 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="83" t="s">
+      <c r="A20" s="81" t="s">
         <v>184</v>
       </c>
       <c r="B20" s="39">
@@ -4860,10 +4877,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:H20"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -4871,27 +4888,27 @@
     <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:11">
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="124" t="s">
+      <c r="E1" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-    </row>
-    <row r="2" spans="1:8" ht="45">
-      <c r="C2" s="74" t="s">
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+    </row>
+    <row r="2" spans="1:11" ht="45">
+      <c r="C2" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="78" t="s">
         <v>90</v>
       </c>
       <c r="E2" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="80" t="s">
+      <c r="F2" s="79" t="s">
         <v>92</v>
       </c>
       <c r="G2" s="25" t="s">
@@ -4901,77 +4918,90 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="50" t="s">
+    <row r="3" spans="1:11">
+      <c r="A3" s="51" t="s">
         <v>195</v>
       </c>
-      <c r="B3" s="45">
+      <c r="B3" s="39">
         <v>109</v>
       </c>
-      <c r="C3" s="45">
+      <c r="C3" s="39">
         <v>109</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="50" t="s">
+      <c r="E3" s="39">
+        <v>109</v>
+      </c>
+      <c r="I3" s="82"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="39">
         <v>110</v>
       </c>
-      <c r="C4" s="45">
+      <c r="C4" s="39">
         <v>110</v>
       </c>
       <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
+      <c r="E4" s="39">
+        <v>110</v>
+      </c>
       <c r="F4" s="50"/>
       <c r="G4" s="50"/>
       <c r="H4" s="50"/>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="82"/>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>199</v>
       </c>
-      <c r="B5" s="45">
+      <c r="B5" s="39">
         <v>115</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="39">
         <v>115</v>
       </c>
-      <c r="D5" s="84">
+      <c r="D5" s="126">
         <v>115</v>
       </c>
-      <c r="E5" s="50"/>
+      <c r="E5" s="126">
+        <v>115</v>
+      </c>
       <c r="F5" s="50"/>
       <c r="G5" s="50"/>
       <c r="H5" s="50"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="82"/>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>200</v>
       </c>
-      <c r="B6" s="45">
+      <c r="B6" s="39">
         <v>116</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="39">
         <v>116</v>
       </c>
-      <c r="D6" s="84">
+      <c r="D6" s="126">
         <v>116</v>
       </c>
-      <c r="E6" s="50"/>
+      <c r="E6" s="126">
+        <v>116</v>
+      </c>
       <c r="F6" s="50"/>
       <c r="G6" s="50"/>
       <c r="H6" s="50"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="50" t="s">
+      <c r="I6" s="82"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="51" t="s">
         <v>211</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="39">
         <v>129</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="39">
         <v>129</v>
       </c>
       <c r="D7" s="50"/>
@@ -4979,15 +5009,19 @@
       <c r="F7" s="50"/>
       <c r="G7" s="50"/>
       <c r="H7" s="50"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="50" t="s">
+      <c r="I7" s="82"/>
+      <c r="K7" s="39">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="51" t="s">
         <v>212</v>
       </c>
-      <c r="B8" s="45">
+      <c r="B8" s="39">
         <v>130</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="39">
         <v>130</v>
       </c>
       <c r="D8" s="50"/>
@@ -4995,163 +5029,168 @@
       <c r="F8" s="50"/>
       <c r="G8" s="50"/>
       <c r="H8" s="50"/>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="82"/>
+      <c r="K8" s="39">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>215</v>
       </c>
-      <c r="B9" s="45">
+      <c r="B9" s="39">
         <v>135</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="39">
         <v>135</v>
       </c>
       <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="84">
+      <c r="E9" s="39">
+        <v>135</v>
+      </c>
+      <c r="F9" s="126">
         <v>135</v>
       </c>
       <c r="G9" s="50"/>
       <c r="H9" s="50"/>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="82"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>216</v>
       </c>
-      <c r="B10" s="45">
+      <c r="B10" s="39">
         <v>136</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="39">
         <v>136</v>
       </c>
       <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="84">
+      <c r="E10" s="39">
+        <v>136</v>
+      </c>
+      <c r="F10" s="126">
         <v>136</v>
       </c>
       <c r="G10" s="50"/>
       <c r="H10" s="50"/>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="82"/>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>225</v>
       </c>
-      <c r="B11" s="45">
+      <c r="B11" s="39">
         <v>145</v>
       </c>
-      <c r="C11" s="45">
+      <c r="C11" s="39">
         <v>145</v>
       </c>
       <c r="D11" s="50"/>
-      <c r="E11" s="84">
-        <v>145</v>
-      </c>
+      <c r="E11" s="126"/>
       <c r="F11" s="50"/>
       <c r="G11" s="50"/>
       <c r="H11" s="50"/>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="82"/>
+      <c r="J11" s="39">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>226</v>
       </c>
-      <c r="B12" s="45">
+      <c r="B12" s="39">
         <v>146</v>
       </c>
-      <c r="C12" s="45">
+      <c r="C12" s="39">
         <v>146</v>
       </c>
       <c r="D12" s="50"/>
-      <c r="E12" s="84">
+      <c r="E12" s="126"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="39">
         <v>146</v>
       </c>
-      <c r="F12" s="85"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="85"/>
-    </row>
-    <row r="13" spans="1:8">
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>237</v>
       </c>
-      <c r="B13" s="45">
+      <c r="B13" s="39">
         <v>157</v>
       </c>
-      <c r="C13" s="45">
+      <c r="C13" s="39">
         <v>157</v>
       </c>
       <c r="D13" s="50"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="84">
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="126">
         <v>157</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="82"/>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>238</v>
       </c>
-      <c r="B14" s="45">
+      <c r="B14" s="39">
         <v>158</v>
       </c>
-      <c r="C14" s="45">
+      <c r="C14" s="39">
         <v>158</v>
       </c>
       <c r="D14" s="50"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="84">
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="126">
         <v>158</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="50" t="s">
-        <v>239</v>
-      </c>
-      <c r="B15" s="45">
-        <v>161</v>
-      </c>
-      <c r="C15" s="45">
-        <v>161</v>
-      </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="50" t="s">
-        <v>240</v>
-      </c>
-      <c r="B16" s="45">
-        <v>162</v>
-      </c>
-      <c r="C16" s="45">
-        <v>162</v>
+      <c r="I14" s="82"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="51" t="s">
+        <v>273</v>
+      </c>
+      <c r="B15" s="39">
+        <v>197</v>
+      </c>
+      <c r="C15" s="39">
+        <v>197</v>
+      </c>
+      <c r="I15" s="126">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="51" t="s">
+        <v>274</v>
+      </c>
+      <c r="B16" s="39">
+        <v>198</v>
+      </c>
+      <c r="C16" s="39">
+        <v>198</v>
+      </c>
+      <c r="I16" s="126">
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="50" t="s">
-        <v>273</v>
-      </c>
-      <c r="B17" s="39">
-        <v>197</v>
-      </c>
-      <c r="C17" s="39">
-        <v>197</v>
-      </c>
+      <c r="A17" s="50"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="50" t="s">
-        <v>274</v>
-      </c>
-      <c r="B18" s="39">
-        <v>198</v>
-      </c>
-      <c r="C18" s="39">
-        <v>198</v>
-      </c>
+      <c r="A18" s="50"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5166,7 +5205,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -5178,37 +5217,37 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="C1" s="2"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="88"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="85"/>
     </row>
     <row r="2" spans="1:10" ht="47.25">
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="91" t="s">
+      <c r="D2" s="88" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="92" t="s">
+      <c r="E2" s="89" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="92" t="s">
+      <c r="F2" s="89" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="93" t="s">
+      <c r="G2" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="91" t="s">
+      <c r="H2" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="I2" s="94" t="s">
+      <c r="I2" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="89" t="s">
+      <c r="J2" s="86" t="s">
         <v>291</v>
       </c>
     </row>
@@ -5216,55 +5255,55 @@
       <c r="A3" t="s">
         <v>187</v>
       </c>
-      <c r="B3" s="45">
+      <c r="B3" s="39">
         <v>101</v>
       </c>
-      <c r="C3" s="45">
+      <c r="C3" s="39">
         <v>101</v>
       </c>
-      <c r="D3" s="45">
+      <c r="D3" s="39">
         <v>101</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="39">
         <v>101</v>
       </c>
-      <c r="F3" s="45">
+      <c r="F3" s="39">
         <v>101</v>
       </c>
-      <c r="I3" s="45"/>
+      <c r="I3" s="39"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>188</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="39">
         <v>102</v>
       </c>
-      <c r="C4" s="45">
+      <c r="C4" s="39">
         <v>102</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="39">
         <v>102</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="39">
         <v>102</v>
       </c>
-      <c r="F4" s="45">
+      <c r="F4" s="39">
         <v>102</v>
       </c>
-      <c r="I4" s="45"/>
+      <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>219</v>
       </c>
-      <c r="B5" s="45">
+      <c r="B5" s="39">
         <v>139</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="39">
         <v>139</v>
       </c>
-      <c r="G5" s="45">
+      <c r="G5" s="39">
         <v>139</v>
       </c>
     </row>
@@ -5272,13 +5311,13 @@
       <c r="A6" t="s">
         <v>220</v>
       </c>
-      <c r="B6" s="45">
+      <c r="B6" s="39">
         <v>140</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="39">
         <v>140</v>
       </c>
-      <c r="G6" s="45">
+      <c r="G6" s="39">
         <v>140</v>
       </c>
     </row>
@@ -5286,16 +5325,16 @@
       <c r="A7" t="s">
         <v>245</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="39">
         <v>167</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="39">
         <v>167</v>
       </c>
-      <c r="H7" s="45">
+      <c r="H7" s="39">
         <v>167</v>
       </c>
-      <c r="I7" s="82">
+      <c r="I7" s="123">
         <v>167</v>
       </c>
     </row>
@@ -5303,16 +5342,16 @@
       <c r="A8" t="s">
         <v>246</v>
       </c>
-      <c r="B8" s="45">
+      <c r="B8" s="39">
         <v>168</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="39">
         <v>168</v>
       </c>
-      <c r="H8" s="45">
+      <c r="H8" s="39">
         <v>168</v>
       </c>
-      <c r="I8" s="82">
+      <c r="I8" s="123">
         <v>168</v>
       </c>
     </row>
@@ -5320,10 +5359,10 @@
       <c r="A9" t="s">
         <v>292</v>
       </c>
-      <c r="B9" s="45">
+      <c r="B9" s="39">
         <v>83</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="39">
         <v>83</v>
       </c>
       <c r="J9" s="39">
@@ -5334,10 +5373,10 @@
       <c r="A10" t="s">
         <v>293</v>
       </c>
-      <c r="B10" s="45">
+      <c r="B10" s="39">
         <v>91</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="39">
         <v>91</v>
       </c>
       <c r="J10" s="39">
@@ -5357,7 +5396,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -5368,25 +5407,25 @@
   <sheetData>
     <row r="1" spans="1:11" ht="26.25">
       <c r="C1" s="2"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="125" t="s">
+      <c r="D1" s="64"/>
+      <c r="E1" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
     </row>
     <row r="2" spans="1:11" ht="30">
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="66" t="s">
         <v>97</v>
       </c>
       <c r="F2" s="23" t="s">
@@ -5412,25 +5451,30 @@
       <c r="A3" t="s">
         <v>189</v>
       </c>
-      <c r="B3" s="45">
+      <c r="B3" s="39">
         <v>103</v>
       </c>
-      <c r="C3" s="45">
+      <c r="C3" s="39">
         <v>103</v>
       </c>
-      <c r="D3" s="45">
+      <c r="D3" s="39">
         <v>103</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="39">
         <v>103</v>
       </c>
-      <c r="F3" s="45">
+      <c r="F3" s="39">
         <v>103</v>
       </c>
-      <c r="G3" s="45">
+      <c r="G3" s="39">
         <v>103</v>
       </c>
-      <c r="K3" s="82">
+      <c r="H3" s="39">
+        <v>103</v>
+      </c>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="123">
         <v>103</v>
       </c>
     </row>
@@ -5438,25 +5482,30 @@
       <c r="A4" t="s">
         <v>190</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="39">
         <v>104</v>
       </c>
-      <c r="C4" s="45">
+      <c r="C4" s="39">
         <v>104</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="39">
         <v>104</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="39">
         <v>104</v>
       </c>
-      <c r="F4" s="45">
+      <c r="F4" s="39">
         <v>104</v>
       </c>
-      <c r="G4" s="45">
+      <c r="G4" s="39">
         <v>104</v>
       </c>
-      <c r="K4" s="82">
+      <c r="H4" s="39">
+        <v>104</v>
+      </c>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="123">
         <v>104</v>
       </c>
     </row>
@@ -5464,41 +5513,39 @@
       <c r="A5" t="s">
         <v>251</v>
       </c>
-      <c r="B5" s="45">
+      <c r="B5" s="39">
         <v>173</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="39">
         <v>173</v>
       </c>
-      <c r="H5" s="82">
+      <c r="H5" s="127"/>
+      <c r="I5" s="123">
         <v>173</v>
       </c>
-      <c r="I5" s="82">
+      <c r="J5" s="123">
         <v>173</v>
       </c>
-      <c r="J5" s="45">
-        <v>173</v>
-      </c>
+      <c r="K5" s="51"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>252</v>
       </c>
-      <c r="B6" s="45">
+      <c r="B6" s="39">
         <v>174</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="39">
         <v>174</v>
       </c>
-      <c r="H6" s="82">
+      <c r="H6" s="127"/>
+      <c r="I6" s="123">
         <v>174</v>
       </c>
-      <c r="I6" s="82">
+      <c r="J6" s="123">
         <v>174</v>
       </c>
-      <c r="J6" s="45">
-        <v>174</v>
-      </c>
+      <c r="K6" s="51"/>
     </row>
     <row r="7" spans="1:11">
       <c r="H7" s="50"/>
@@ -5530,7 +5577,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:5" ht="26.25">
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="75" t="s">
         <v>104</v>
       </c>
     </row>
@@ -5557,33 +5604,33 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="83"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="83"/>
+      <c r="A6" s="81"/>
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
       <c r="D6" s="39"/>
       <c r="E6" s="39"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="83"/>
+      <c r="A7" s="81"/>
       <c r="B7" s="39"/>
       <c r="C7" s="39"/>
       <c r="D7" s="39"/>
       <c r="E7" s="39"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="83"/>
+      <c r="A8" s="81"/>
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="83"/>
+      <c r="A9" s="81"/>
       <c r="B9" s="39"/>
       <c r="C9" s="39"/>
       <c r="D9" s="39"/>
@@ -5599,7 +5646,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E9"/>
+      <selection activeCell="AB13" sqref="AB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5610,23 +5657,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
     </row>
     <row r="2" spans="1:6" ht="26.25">
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="93" t="s">
         <v>105</v>
       </c>
-      <c r="D2" s="97" t="s">
+      <c r="D2" s="94" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="97" t="s">
+      <c r="E2" s="94" t="s">
         <v>107</v>
       </c>
       <c r="F2" s="39"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="81" t="s">
         <v>139</v>
       </c>
       <c r="B3" s="39">
@@ -5642,7 +5689,7 @@
       <c r="F3" s="39"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="81" t="s">
         <v>140</v>
       </c>
       <c r="B4" s="39">
@@ -5658,7 +5705,7 @@
       <c r="F4" s="39"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="83" t="s">
+      <c r="A5" s="81" t="s">
         <v>141</v>
       </c>
       <c r="B5" s="39">
@@ -5674,7 +5721,7 @@
       <c r="F5" s="39"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="81" t="s">
         <v>142</v>
       </c>
       <c r="B6" s="39">
@@ -5690,7 +5737,7 @@
       <c r="F6" s="39"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="81" t="s">
         <v>167</v>
       </c>
       <c r="B7" s="39">
@@ -5706,7 +5753,7 @@
       <c r="F7" s="39"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="83" t="s">
+      <c r="A8" s="81" t="s">
         <v>168</v>
       </c>
       <c r="B8" s="39">
@@ -5722,7 +5769,7 @@
       <c r="F8" s="39"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="83" t="s">
+      <c r="A9" s="81" t="s">
         <v>169</v>
       </c>
       <c r="B9" s="39">
@@ -5763,10 +5810,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="60">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="76" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="18" t="s">
@@ -5778,7 +5825,7 @@
       <c r="E1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="69" t="s">
+      <c r="F1" s="68" t="s">
         <v>11</v>
       </c>
       <c r="G1" s="22" t="s">
@@ -5787,7 +5834,7 @@
       <c r="H1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="106" t="s">
+      <c r="J1" s="103" t="s">
         <v>108</v>
       </c>
     </row>
@@ -5819,7 +5866,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="45">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="108" t="s">
         <v>349</v>
       </c>
       <c r="B3" s="32">
@@ -5886,7 +5933,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="68" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="67" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" style="39" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" style="39" bestFit="1" customWidth="1"/>
@@ -5901,10 +5948,10 @@
   <sheetData>
     <row r="1" spans="1:14" s="38" customFormat="1" ht="18" customHeight="1">
       <c r="A1" s="41"/>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="61" t="s">
         <v>323</v>
       </c>
-      <c r="E1" s="63" t="s">
+      <c r="E1" s="62" t="s">
         <v>333</v>
       </c>
       <c r="I1" s="41"/>
@@ -5917,7 +5964,7 @@
         <f>SUM(Main!P10:P16)</f>
         <v>14</v>
       </c>
-      <c r="E2" s="73" t="s">
+      <c r="E2" s="72" t="s">
         <v>337</v>
       </c>
       <c r="F2" s="39" t="s">
@@ -5941,7 +5988,7 @@
       <c r="L2" s="38" t="s">
         <v>336</v>
       </c>
-      <c r="M2" s="73" t="s">
+      <c r="M2" s="72" t="s">
         <v>43</v>
       </c>
     </row>
@@ -5953,7 +6000,7 @@
         <f>SUM(Main!J10:J16)</f>
         <v>6</v>
       </c>
-      <c r="E3" s="108">
+      <c r="E3" s="105">
         <v>32</v>
       </c>
       <c r="I3" s="30"/>
@@ -5961,11 +6008,11 @@
       <c r="K3" s="45">
         <v>5</v>
       </c>
-      <c r="L3" s="107">
+      <c r="L3" s="104">
         <f>SUM(F3:K3)</f>
         <v>5</v>
       </c>
-      <c r="M3" s="108">
+      <c r="M3" s="105">
         <v>105</v>
       </c>
       <c r="N3" s="38">
@@ -5974,7 +6021,7 @@
     </row>
     <row r="4" spans="1:14" s="39" customFormat="1">
       <c r="B4" s="30"/>
-      <c r="E4" s="108">
+      <c r="E4" s="105">
         <v>33</v>
       </c>
       <c r="I4" s="30"/>
@@ -5982,11 +6029,11 @@
       <c r="K4" s="45">
         <v>5</v>
       </c>
-      <c r="L4" s="107">
+      <c r="L4" s="104">
         <f t="shared" ref="L4:L26" si="0">SUM(F4:K4)</f>
         <v>5</v>
       </c>
-      <c r="M4" s="108">
+      <c r="M4" s="105">
         <v>106</v>
       </c>
       <c r="N4" s="38">
@@ -5995,7 +6042,7 @@
     </row>
     <row r="5" spans="1:14" s="39" customFormat="1">
       <c r="B5" s="29"/>
-      <c r="E5" s="108">
+      <c r="E5" s="105">
         <v>48</v>
       </c>
       <c r="F5" s="39">
@@ -6009,11 +6056,11 @@
       <c r="K5" s="45">
         <v>5</v>
       </c>
-      <c r="L5" s="107">
+      <c r="L5" s="104">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="M5" s="108">
+      <c r="M5" s="105">
         <v>119</v>
       </c>
       <c r="N5" s="38">
@@ -6024,7 +6071,7 @@
       <c r="B6" s="39" t="s">
         <v>326</v>
       </c>
-      <c r="E6" s="108">
+      <c r="E6" s="105">
         <v>49</v>
       </c>
       <c r="F6" s="39">
@@ -6036,11 +6083,11 @@
       <c r="K6" s="45">
         <v>5</v>
       </c>
-      <c r="L6" s="107">
+      <c r="L6" s="104">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="M6" s="108">
+      <c r="M6" s="105">
         <v>120</v>
       </c>
       <c r="N6" s="38">
@@ -6054,7 +6101,7 @@
       <c r="B7" s="29">
         <v>1</v>
       </c>
-      <c r="E7" s="108">
+      <c r="E7" s="105">
         <v>117</v>
       </c>
       <c r="F7" s="39">
@@ -6066,11 +6113,11 @@
       <c r="K7" s="45">
         <v>5</v>
       </c>
-      <c r="L7" s="107">
+      <c r="L7" s="104">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="M7" s="108">
+      <c r="M7" s="105">
         <v>121</v>
       </c>
       <c r="N7" s="38">
@@ -6084,7 +6131,7 @@
       <c r="B8" s="30">
         <v>0</v>
       </c>
-      <c r="E8" s="108">
+      <c r="E8" s="105">
         <v>118</v>
       </c>
       <c r="F8" s="39">
@@ -6093,15 +6140,15 @@
       <c r="G8" s="39">
         <v>9</v>
       </c>
-      <c r="H8" s="60"/>
+      <c r="H8" s="59"/>
       <c r="K8" s="45">
         <v>5</v>
       </c>
-      <c r="L8" s="107">
+      <c r="L8" s="104">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="M8" s="108">
+      <c r="M8" s="105">
         <v>122</v>
       </c>
       <c r="N8" s="38">
@@ -6109,7 +6156,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" s="39" customFormat="1">
-      <c r="E9" s="108">
+      <c r="E9" s="105">
         <v>123</v>
       </c>
       <c r="F9" s="39">
@@ -6119,11 +6166,11 @@
         <v>9</v>
       </c>
       <c r="K9" s="48"/>
-      <c r="L9" s="107">
+      <c r="L9" s="104">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="M9" s="108">
+      <c r="M9" s="105">
         <v>125</v>
       </c>
       <c r="N9" s="38">
@@ -6131,7 +6178,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" s="39" customFormat="1">
-      <c r="E10" s="108">
+      <c r="E10" s="105">
         <v>124</v>
       </c>
       <c r="F10" s="39">
@@ -6141,11 +6188,11 @@
         <v>9</v>
       </c>
       <c r="K10" s="48"/>
-      <c r="L10" s="107">
+      <c r="L10" s="104">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="M10" s="108">
+      <c r="M10" s="105">
         <v>126</v>
       </c>
       <c r="N10" s="38">
@@ -6156,7 +6203,7 @@
       <c r="B11" s="39" t="s">
         <v>327</v>
       </c>
-      <c r="E11" s="108">
+      <c r="E11" s="105">
         <v>133</v>
       </c>
       <c r="F11" s="39">
@@ -6171,11 +6218,11 @@
       <c r="J11" s="39">
         <v>4</v>
       </c>
-      <c r="L11" s="107">
+      <c r="L11" s="104">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="M11" s="108">
+      <c r="M11" s="105">
         <v>137</v>
       </c>
       <c r="N11" s="38">
@@ -6189,7 +6236,7 @@
       <c r="B12" s="29">
         <v>1</v>
       </c>
-      <c r="E12" s="108">
+      <c r="E12" s="105">
         <v>134</v>
       </c>
       <c r="F12" s="39">
@@ -6205,11 +6252,11 @@
         <v>4</v>
       </c>
       <c r="K12" s="39"/>
-      <c r="L12" s="107">
+      <c r="L12" s="104">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="M12" s="108">
+      <c r="M12" s="105">
         <v>138</v>
       </c>
       <c r="N12" s="38">
@@ -6224,7 +6271,7 @@
         <f>SUM(Main!J20:J26)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="108">
+      <c r="E13" s="105">
         <v>155</v>
       </c>
       <c r="F13" s="39">
@@ -6236,11 +6283,11 @@
       <c r="I13" s="45">
         <v>4</v>
       </c>
-      <c r="L13" s="107">
+      <c r="L13" s="104">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="M13" s="108">
+      <c r="M13" s="105">
         <v>141</v>
       </c>
       <c r="N13" s="38">
@@ -6248,7 +6295,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" s="39" customFormat="1">
-      <c r="E14" s="108">
+      <c r="E14" s="105">
         <v>156</v>
       </c>
       <c r="F14" s="39">
@@ -6260,11 +6307,11 @@
       <c r="I14" s="45">
         <v>4</v>
       </c>
-      <c r="L14" s="107">
+      <c r="L14" s="104">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="M14" s="108">
+      <c r="M14" s="105">
         <v>142</v>
       </c>
       <c r="N14" s="38">
@@ -6272,7 +6319,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" s="39" customFormat="1">
-      <c r="E15" s="108">
+      <c r="E15" s="105">
         <v>171</v>
       </c>
       <c r="F15" s="39">
@@ -6284,11 +6331,11 @@
       <c r="K15" s="45">
         <v>5</v>
       </c>
-      <c r="L15" s="107">
+      <c r="L15" s="104">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="M15" s="108">
+      <c r="M15" s="105">
         <v>143</v>
       </c>
       <c r="N15" s="38">
@@ -6299,7 +6346,7 @@
       <c r="B16" s="39" t="s">
         <v>328</v>
       </c>
-      <c r="E16" s="108">
+      <c r="E16" s="105">
         <v>172</v>
       </c>
       <c r="F16" s="39">
@@ -6311,11 +6358,11 @@
       <c r="K16" s="45">
         <v>5</v>
       </c>
-      <c r="L16" s="107">
+      <c r="L16" s="104">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="M16" s="108">
+      <c r="M16" s="105">
         <v>144</v>
       </c>
       <c r="N16" s="38">
@@ -6341,11 +6388,11 @@
       <c r="I17" s="45">
         <v>4</v>
       </c>
-      <c r="L17" s="107">
+      <c r="L17" s="104">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="M17" s="108">
+      <c r="M17" s="105">
         <v>147</v>
       </c>
       <c r="N17" s="38">
@@ -6371,11 +6418,11 @@
       <c r="I18" s="45">
         <v>4</v>
       </c>
-      <c r="L18" s="107">
+      <c r="L18" s="104">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="M18" s="108">
+      <c r="M18" s="105">
         <v>148</v>
       </c>
       <c r="N18" s="38">
@@ -6396,11 +6443,11 @@
       <c r="I19" s="45">
         <v>4</v>
       </c>
-      <c r="L19" s="107">
+      <c r="L19" s="104">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="M19" s="108">
+      <c r="M19" s="105">
         <v>151</v>
       </c>
       <c r="N19" s="38">
@@ -6421,11 +6468,11 @@
       <c r="I20" s="45">
         <v>4</v>
       </c>
-      <c r="L20" s="107">
+      <c r="L20" s="104">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="M20" s="108">
+      <c r="M20" s="105">
         <v>152</v>
       </c>
       <c r="N20" s="38">
@@ -6449,11 +6496,11 @@
       <c r="I21" s="45">
         <v>4</v>
       </c>
-      <c r="L21" s="107">
+      <c r="L21" s="104">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="M21" s="108">
+      <c r="M21" s="105">
         <v>153</v>
       </c>
       <c r="N21" s="38">
@@ -6479,11 +6526,11 @@
       <c r="I22" s="45">
         <v>4</v>
       </c>
-      <c r="L22" s="107">
+      <c r="L22" s="104">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="M22" s="108">
+      <c r="M22" s="105">
         <v>154</v>
       </c>
       <c r="N22" s="38">
@@ -6511,11 +6558,11 @@
         <v>5</v>
       </c>
       <c r="I23" s="39"/>
-      <c r="L23" s="107">
+      <c r="L23" s="104">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="M23" s="108">
+      <c r="M23" s="105">
         <v>163</v>
       </c>
       <c r="N23" s="38">
@@ -6537,11 +6584,11 @@
         <v>5</v>
       </c>
       <c r="I24" s="39"/>
-      <c r="L24" s="107">
+      <c r="L24" s="104">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="M24" s="108">
+      <c r="M24" s="105">
         <v>164</v>
       </c>
       <c r="N24" s="38">
@@ -6562,11 +6609,11 @@
       <c r="I25" s="45">
         <v>4</v>
       </c>
-      <c r="L25" s="107">
+      <c r="L25" s="104">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="M25" s="108">
+      <c r="M25" s="105">
         <v>165</v>
       </c>
       <c r="N25" s="38">
@@ -6587,11 +6634,11 @@
       <c r="I26" s="45">
         <v>4</v>
       </c>
-      <c r="L26" s="107">
+      <c r="L26" s="104">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="M26" s="108">
+      <c r="M26" s="105">
         <v>166</v>
       </c>
       <c r="N26" s="38">
@@ -6600,7 +6647,7 @@
     </row>
     <row r="27" spans="1:14">
       <c r="C27" s="39"/>
-      <c r="M27" s="108">
+      <c r="M27" s="105">
         <v>179</v>
       </c>
       <c r="N27" s="38">
@@ -6706,7 +6753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -7191,7 +7238,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:2" s="109" customFormat="1">
+    <row r="60" spans="1:2" s="106" customFormat="1">
       <c r="A60">
         <v>205</v>
       </c>
@@ -7207,7 +7254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" s="110" customFormat="1">
+    <row r="62" spans="1:2" s="107" customFormat="1">
       <c r="A62">
         <v>207</v>
       </c>
@@ -7238,7 +7285,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29" style="83" customWidth="1"/>
+    <col min="1" max="1" width="29" style="81" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" style="39" customWidth="1"/>
     <col min="3" max="4" width="11.42578125" style="39"/>
   </cols>
@@ -7258,7 +7305,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="81" t="s">
         <v>123</v>
       </c>
       <c r="B2" s="39">
@@ -7266,7 +7313,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="81" t="s">
         <v>124</v>
       </c>
       <c r="B3" s="39">
@@ -7274,7 +7321,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="81" t="s">
         <v>125</v>
       </c>
       <c r="B4" s="39">
@@ -7282,7 +7329,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="83" t="s">
+      <c r="A5" s="81" t="s">
         <v>126</v>
       </c>
       <c r="B5" s="39">
@@ -7290,7 +7337,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="81" t="s">
         <v>127</v>
       </c>
       <c r="B6" s="39">
@@ -7298,7 +7345,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="81" t="s">
         <v>128</v>
       </c>
       <c r="B7" s="39">
@@ -7306,7 +7353,7 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="83" t="s">
+      <c r="A8" s="81" t="s">
         <v>129</v>
       </c>
       <c r="B8" s="39">
@@ -7314,7 +7361,7 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="83" t="s">
+      <c r="A9" s="81" t="s">
         <v>130</v>
       </c>
       <c r="B9" s="39">
@@ -7322,7 +7369,7 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="83" t="s">
+      <c r="A10" s="81" t="s">
         <v>131</v>
       </c>
       <c r="C10" s="39">
@@ -7330,7 +7377,7 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="83" t="s">
+      <c r="A11" s="81" t="s">
         <v>132</v>
       </c>
       <c r="D11" s="39">
@@ -7338,7 +7385,7 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="83" t="s">
+      <c r="A12" s="81" t="s">
         <v>133</v>
       </c>
       <c r="C12" s="39">
@@ -7346,7 +7393,7 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="83" t="s">
+      <c r="A13" s="81" t="s">
         <v>134</v>
       </c>
       <c r="D13" s="39">
@@ -7354,7 +7401,7 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="83" t="s">
+      <c r="A14" s="81" t="s">
         <v>135</v>
       </c>
       <c r="B14" s="39">
@@ -7362,7 +7409,7 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="83" t="s">
+      <c r="A15" s="81" t="s">
         <v>136</v>
       </c>
       <c r="B15" s="39">
@@ -7370,7 +7417,7 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="83" t="s">
+      <c r="A16" s="81" t="s">
         <v>137</v>
       </c>
       <c r="C16" s="39">
@@ -7378,7 +7425,7 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="83" t="s">
+      <c r="A17" s="81" t="s">
         <v>138</v>
       </c>
       <c r="D17" s="39">
@@ -7386,7 +7433,7 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="83" t="s">
+      <c r="A18" s="81" t="s">
         <v>139</v>
       </c>
       <c r="C18" s="39">
@@ -7394,7 +7441,7 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="83" t="s">
+      <c r="A19" s="81" t="s">
         <v>140</v>
       </c>
       <c r="D19" s="39">
@@ -7402,7 +7449,7 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="83" t="s">
+      <c r="A20" s="81" t="s">
         <v>141</v>
       </c>
       <c r="C20" s="39">
@@ -7410,7 +7457,7 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="83" t="s">
+      <c r="A21" s="81" t="s">
         <v>142</v>
       </c>
       <c r="D21" s="39">
@@ -7418,7 +7465,7 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="83" t="s">
+      <c r="A22" s="81" t="s">
         <v>143</v>
       </c>
       <c r="C22" s="39">
@@ -7426,7 +7473,7 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="83" t="s">
+      <c r="A23" s="81" t="s">
         <v>144</v>
       </c>
       <c r="D23" s="39">
@@ -7434,7 +7481,7 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="83" t="s">
+      <c r="A24" s="81" t="s">
         <v>145</v>
       </c>
       <c r="B24" s="39">
@@ -7442,7 +7489,7 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="83" t="s">
+      <c r="A25" s="81" t="s">
         <v>146</v>
       </c>
       <c r="C25" s="39">
@@ -7450,7 +7497,7 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="83" t="s">
+      <c r="A26" s="81" t="s">
         <v>147</v>
       </c>
       <c r="D26" s="39">
@@ -7458,7 +7505,7 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="83" t="s">
+      <c r="A27" s="81" t="s">
         <v>148</v>
       </c>
       <c r="C27" s="39">
@@ -7466,7 +7513,7 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="83" t="s">
+      <c r="A28" s="81" t="s">
         <v>149</v>
       </c>
       <c r="D28" s="39">
@@ -7474,7 +7521,7 @@
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="83" t="s">
+      <c r="A29" s="81" t="s">
         <v>150</v>
       </c>
       <c r="C29" s="39">
@@ -7482,7 +7529,7 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="83" t="s">
+      <c r="A30" s="81" t="s">
         <v>151</v>
       </c>
       <c r="D30" s="39">
@@ -7490,7 +7537,7 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="83" t="s">
+      <c r="A31" s="81" t="s">
         <v>152</v>
       </c>
       <c r="C31" s="39">
@@ -7498,7 +7545,7 @@
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="83" t="s">
+      <c r="A32" s="81" t="s">
         <v>153</v>
       </c>
       <c r="D32" s="39">
@@ -7506,7 +7553,7 @@
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="83" t="s">
+      <c r="A33" s="81" t="s">
         <v>154</v>
       </c>
       <c r="C33" s="39">
@@ -7514,7 +7561,7 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="83" t="s">
+      <c r="A34" s="81" t="s">
         <v>155</v>
       </c>
       <c r="D34" s="39">
@@ -7522,7 +7569,7 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="83" t="s">
+      <c r="A35" s="81" t="s">
         <v>156</v>
       </c>
       <c r="C35" s="39">
@@ -7530,7 +7577,7 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="83" t="s">
+      <c r="A36" s="81" t="s">
         <v>157</v>
       </c>
       <c r="D36" s="39">
@@ -7538,7 +7585,7 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="83" t="s">
+      <c r="A37" s="81" t="s">
         <v>158</v>
       </c>
       <c r="C37" s="39">
@@ -7546,7 +7593,7 @@
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="83" t="s">
+      <c r="A38" s="81" t="s">
         <v>159</v>
       </c>
       <c r="D38" s="39">
@@ -7554,7 +7601,7 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="83" t="s">
+      <c r="A39" s="81" t="s">
         <v>160</v>
       </c>
       <c r="C39" s="39">
@@ -7562,7 +7609,7 @@
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="83" t="s">
+      <c r="A40" s="81" t="s">
         <v>161</v>
       </c>
       <c r="D40" s="39">
@@ -7570,7 +7617,7 @@
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="83" t="s">
+      <c r="A41" s="81" t="s">
         <v>162</v>
       </c>
       <c r="C41" s="39">
@@ -7578,7 +7625,7 @@
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="83" t="s">
+      <c r="A42" s="81" t="s">
         <v>163</v>
       </c>
       <c r="D42" s="39">
@@ -7586,7 +7633,7 @@
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="83" t="s">
+      <c r="A43" s="81" t="s">
         <v>164</v>
       </c>
       <c r="C43" s="39">
@@ -7594,7 +7641,7 @@
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="83" t="s">
+      <c r="A44" s="81" t="s">
         <v>165</v>
       </c>
       <c r="D44" s="39">
@@ -7602,7 +7649,7 @@
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="83" t="s">
+      <c r="A45" s="81" t="s">
         <v>166</v>
       </c>
       <c r="B45" s="39">
@@ -7610,7 +7657,7 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="83" t="s">
+      <c r="A46" s="81" t="s">
         <v>167</v>
       </c>
       <c r="B46" s="39">
@@ -7618,7 +7665,7 @@
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="83" t="s">
+      <c r="A47" s="81" t="s">
         <v>168</v>
       </c>
       <c r="B47" s="39">
@@ -7626,7 +7673,7 @@
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="83" t="s">
+      <c r="A48" s="81" t="s">
         <v>169</v>
       </c>
       <c r="B48" s="39">
@@ -7634,7 +7681,7 @@
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="83" t="s">
+      <c r="A49" s="81" t="s">
         <v>170</v>
       </c>
       <c r="C49" s="39">
@@ -7642,7 +7689,7 @@
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="83" t="s">
+      <c r="A50" s="81" t="s">
         <v>171</v>
       </c>
       <c r="D50" s="39">
@@ -7650,7 +7697,7 @@
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="83" t="s">
+      <c r="A51" s="81" t="s">
         <v>172</v>
       </c>
       <c r="C51" s="39">
@@ -7658,7 +7705,7 @@
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="83" t="s">
+      <c r="A52" s="81" t="s">
         <v>173</v>
       </c>
       <c r="C52" s="39">
@@ -7666,7 +7713,7 @@
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="83" t="s">
+      <c r="A53" s="81" t="s">
         <v>174</v>
       </c>
       <c r="C53" s="39">
@@ -7674,7 +7721,7 @@
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="83" t="s">
+      <c r="A54" s="81" t="s">
         <v>175</v>
       </c>
       <c r="C54" s="39">
@@ -7682,7 +7729,7 @@
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="83" t="s">
+      <c r="A55" s="81" t="s">
         <v>176</v>
       </c>
       <c r="C55" s="39">
@@ -7690,7 +7737,7 @@
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="83" t="s">
+      <c r="A56" s="81" t="s">
         <v>177</v>
       </c>
       <c r="C56" s="39">
@@ -7698,7 +7745,7 @@
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="83" t="s">
+      <c r="A57" s="81" t="s">
         <v>178</v>
       </c>
       <c r="B57" s="39">
@@ -7706,7 +7753,7 @@
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="83" t="s">
+      <c r="A58" s="81" t="s">
         <v>179</v>
       </c>
       <c r="D58" s="39">
@@ -7714,7 +7761,7 @@
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="83" t="s">
+      <c r="A59" s="81" t="s">
         <v>180</v>
       </c>
       <c r="D59" s="39">
@@ -7722,7 +7769,7 @@
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="83" t="s">
+      <c r="A60" s="81" t="s">
         <v>181</v>
       </c>
       <c r="D60" s="39">
@@ -7730,7 +7777,7 @@
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="83" t="s">
+      <c r="A61" s="81" t="s">
         <v>182</v>
       </c>
       <c r="D61" s="39">
@@ -7738,7 +7785,7 @@
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="83" t="s">
+      <c r="A62" s="81" t="s">
         <v>183</v>
       </c>
       <c r="D62" s="39">
@@ -7746,7 +7793,7 @@
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="83" t="s">
+      <c r="A63" s="81" t="s">
         <v>184</v>
       </c>
       <c r="D63" s="39">
@@ -7754,7 +7801,7 @@
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="83" t="s">
+      <c r="A64" s="81" t="s">
         <v>185</v>
       </c>
       <c r="C64" s="39">
@@ -7762,7 +7809,7 @@
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="83" t="s">
+      <c r="A65" s="81" t="s">
         <v>186</v>
       </c>
       <c r="D65" s="39">
@@ -7770,7 +7817,7 @@
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="83" t="s">
+      <c r="A66" s="81" t="s">
         <v>187</v>
       </c>
       <c r="C66" s="39">
@@ -7778,7 +7825,7 @@
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="83" t="s">
+      <c r="A67" s="81" t="s">
         <v>188</v>
       </c>
       <c r="D67" s="39">
@@ -7786,7 +7833,7 @@
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="83" t="s">
+      <c r="A68" s="81" t="s">
         <v>189</v>
       </c>
       <c r="C68" s="39">
@@ -7794,7 +7841,7 @@
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="83" t="s">
+      <c r="A69" s="81" t="s">
         <v>190</v>
       </c>
       <c r="D69" s="39">
@@ -7802,7 +7849,7 @@
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="83" t="s">
+      <c r="A70" s="81" t="s">
         <v>191</v>
       </c>
       <c r="C70" s="39">
@@ -7810,7 +7857,7 @@
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="83" t="s">
+      <c r="A71" s="81" t="s">
         <v>192</v>
       </c>
       <c r="D71" s="39">
@@ -7818,7 +7865,7 @@
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="83" t="s">
+      <c r="A72" s="81" t="s">
         <v>193</v>
       </c>
       <c r="C72" s="39">
@@ -7826,7 +7873,7 @@
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="83" t="s">
+      <c r="A73" s="81" t="s">
         <v>194</v>
       </c>
       <c r="D73" s="39">
@@ -7834,7 +7881,7 @@
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="83" t="s">
+      <c r="A74" s="81" t="s">
         <v>195</v>
       </c>
       <c r="C74" s="39">
@@ -7842,7 +7889,7 @@
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="83" t="s">
+      <c r="A75" s="81" t="s">
         <v>196</v>
       </c>
       <c r="D75" s="39">
@@ -7850,7 +7897,7 @@
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="83" t="s">
+      <c r="A76" s="81" t="s">
         <v>197</v>
       </c>
       <c r="C76" s="39">
@@ -7858,7 +7905,7 @@
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="83" t="s">
+      <c r="A77" s="81" t="s">
         <v>198</v>
       </c>
       <c r="D77" s="39">
@@ -7866,7 +7913,7 @@
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="83" t="s">
+      <c r="A78" s="81" t="s">
         <v>199</v>
       </c>
       <c r="C78" s="39">
@@ -7874,7 +7921,7 @@
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="83" t="s">
+      <c r="A79" s="81" t="s">
         <v>200</v>
       </c>
       <c r="D79" s="39">
@@ -7882,7 +7929,7 @@
       </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="83" t="s">
+      <c r="A80" s="81" t="s">
         <v>201</v>
       </c>
       <c r="C80" s="39">
@@ -7890,7 +7937,7 @@
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="83" t="s">
+      <c r="A81" s="81" t="s">
         <v>202</v>
       </c>
       <c r="D81" s="39">
@@ -7898,7 +7945,7 @@
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="83" t="s">
+      <c r="A82" s="81" t="s">
         <v>203</v>
       </c>
       <c r="C82" s="39">
@@ -7906,7 +7953,7 @@
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="83" t="s">
+      <c r="A83" s="81" t="s">
         <v>204</v>
       </c>
       <c r="D83" s="39">
@@ -7914,7 +7961,7 @@
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="83" t="s">
+      <c r="A84" s="81" t="s">
         <v>205</v>
       </c>
       <c r="C84" s="39">
@@ -7922,7 +7969,7 @@
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="83" t="s">
+      <c r="A85" s="81" t="s">
         <v>206</v>
       </c>
       <c r="D85" s="39">
@@ -7930,7 +7977,7 @@
       </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="83" t="s">
+      <c r="A86" s="81" t="s">
         <v>207</v>
       </c>
       <c r="C86" s="39">
@@ -7938,7 +7985,7 @@
       </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="83" t="s">
+      <c r="A87" s="81" t="s">
         <v>208</v>
       </c>
       <c r="D87" s="39">
@@ -7946,7 +7993,7 @@
       </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="83" t="s">
+      <c r="A88" s="81" t="s">
         <v>209</v>
       </c>
       <c r="C88" s="39">
@@ -7954,7 +8001,7 @@
       </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="83" t="s">
+      <c r="A89" s="81" t="s">
         <v>210</v>
       </c>
       <c r="D89" s="39">
@@ -7962,7 +8009,7 @@
       </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="83" t="s">
+      <c r="A90" s="81" t="s">
         <v>211</v>
       </c>
       <c r="C90" s="39">
@@ -7970,7 +8017,7 @@
       </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="83" t="s">
+      <c r="A91" s="81" t="s">
         <v>212</v>
       </c>
       <c r="D91" s="39">
@@ -7978,7 +8025,7 @@
       </c>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="83" t="s">
+      <c r="A92" s="81" t="s">
         <v>213</v>
       </c>
       <c r="C92" s="39">
@@ -7986,7 +8033,7 @@
       </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="83" t="s">
+      <c r="A93" s="81" t="s">
         <v>214</v>
       </c>
       <c r="D93" s="39">
@@ -7994,7 +8041,7 @@
       </c>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="83" t="s">
+      <c r="A94" s="81" t="s">
         <v>215</v>
       </c>
       <c r="C94" s="39">
@@ -8002,7 +8049,7 @@
       </c>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="83" t="s">
+      <c r="A95" s="81" t="s">
         <v>216</v>
       </c>
       <c r="D95" s="39">
@@ -8010,7 +8057,7 @@
       </c>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="83" t="s">
+      <c r="A96" s="81" t="s">
         <v>217</v>
       </c>
       <c r="C96" s="39">
@@ -8018,7 +8065,7 @@
       </c>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="83" t="s">
+      <c r="A97" s="81" t="s">
         <v>218</v>
       </c>
       <c r="D97" s="39">
@@ -8026,7 +8073,7 @@
       </c>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="83" t="s">
+      <c r="A98" s="81" t="s">
         <v>219</v>
       </c>
       <c r="C98" s="39">
@@ -8034,7 +8081,7 @@
       </c>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="83" t="s">
+      <c r="A99" s="81" t="s">
         <v>220</v>
       </c>
       <c r="D99" s="39">
@@ -8042,7 +8089,7 @@
       </c>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="83" t="s">
+      <c r="A100" s="81" t="s">
         <v>221</v>
       </c>
       <c r="C100" s="39">
@@ -8050,7 +8097,7 @@
       </c>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="83" t="s">
+      <c r="A101" s="81" t="s">
         <v>222</v>
       </c>
       <c r="D101" s="39">
@@ -8058,7 +8105,7 @@
       </c>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="83" t="s">
+      <c r="A102" s="81" t="s">
         <v>223</v>
       </c>
       <c r="C102" s="39">
@@ -8066,7 +8113,7 @@
       </c>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="83" t="s">
+      <c r="A103" s="81" t="s">
         <v>224</v>
       </c>
       <c r="D103" s="39">
@@ -8074,7 +8121,7 @@
       </c>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="83" t="s">
+      <c r="A104" s="81" t="s">
         <v>225</v>
       </c>
       <c r="C104" s="39">
@@ -8082,7 +8129,7 @@
       </c>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="83" t="s">
+      <c r="A105" s="81" t="s">
         <v>226</v>
       </c>
       <c r="D105" s="39">
@@ -8090,7 +8137,7 @@
       </c>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="83" t="s">
+      <c r="A106" s="81" t="s">
         <v>227</v>
       </c>
       <c r="C106" s="39">
@@ -8098,7 +8145,7 @@
       </c>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="83" t="s">
+      <c r="A107" s="81" t="s">
         <v>228</v>
       </c>
       <c r="D107" s="39">
@@ -8106,7 +8153,7 @@
       </c>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="83" t="s">
+      <c r="A108" s="81" t="s">
         <v>229</v>
       </c>
       <c r="C108" s="39">
@@ -8114,7 +8161,7 @@
       </c>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="83" t="s">
+      <c r="A109" s="81" t="s">
         <v>230</v>
       </c>
       <c r="D109" s="39">
@@ -8122,7 +8169,7 @@
       </c>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="83" t="s">
+      <c r="A110" s="81" t="s">
         <v>231</v>
       </c>
       <c r="C110" s="39">
@@ -8130,7 +8177,7 @@
       </c>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="83" t="s">
+      <c r="A111" s="81" t="s">
         <v>232</v>
       </c>
       <c r="D111" s="39">
@@ -8138,7 +8185,7 @@
       </c>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="83" t="s">
+      <c r="A112" s="81" t="s">
         <v>233</v>
       </c>
       <c r="C112" s="39">
@@ -8146,7 +8193,7 @@
       </c>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" s="83" t="s">
+      <c r="A113" s="81" t="s">
         <v>234</v>
       </c>
       <c r="D113" s="39">
@@ -8154,7 +8201,7 @@
       </c>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="83" t="s">
+      <c r="A114" s="81" t="s">
         <v>235</v>
       </c>
       <c r="C114" s="39">
@@ -8162,7 +8209,7 @@
       </c>
     </row>
     <row r="115" spans="1:4">
-      <c r="A115" s="83" t="s">
+      <c r="A115" s="81" t="s">
         <v>236</v>
       </c>
       <c r="D115" s="39">
@@ -8170,7 +8217,7 @@
       </c>
     </row>
     <row r="116" spans="1:4">
-      <c r="A116" s="83" t="s">
+      <c r="A116" s="81" t="s">
         <v>237</v>
       </c>
       <c r="C116" s="39">
@@ -8178,7 +8225,7 @@
       </c>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" s="83" t="s">
+      <c r="A117" s="81" t="s">
         <v>238</v>
       </c>
       <c r="D117" s="39">
@@ -8186,7 +8233,7 @@
       </c>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="83" t="s">
+      <c r="A118" s="81" t="s">
         <v>239</v>
       </c>
       <c r="C118" s="39">
@@ -8194,7 +8241,7 @@
       </c>
     </row>
     <row r="119" spans="1:4">
-      <c r="A119" s="83" t="s">
+      <c r="A119" s="81" t="s">
         <v>240</v>
       </c>
       <c r="D119" s="39">
@@ -8202,7 +8249,7 @@
       </c>
     </row>
     <row r="120" spans="1:4">
-      <c r="A120" s="83" t="s">
+      <c r="A120" s="81" t="s">
         <v>241</v>
       </c>
       <c r="C120" s="39">
@@ -8210,7 +8257,7 @@
       </c>
     </row>
     <row r="121" spans="1:4">
-      <c r="A121" s="83" t="s">
+      <c r="A121" s="81" t="s">
         <v>242</v>
       </c>
       <c r="D121" s="39">
@@ -8218,7 +8265,7 @@
       </c>
     </row>
     <row r="122" spans="1:4">
-      <c r="A122" s="83" t="s">
+      <c r="A122" s="81" t="s">
         <v>243</v>
       </c>
       <c r="C122" s="39">
@@ -8226,7 +8273,7 @@
       </c>
     </row>
     <row r="123" spans="1:4">
-      <c r="A123" s="83" t="s">
+      <c r="A123" s="81" t="s">
         <v>244</v>
       </c>
       <c r="D123" s="39">
@@ -8234,7 +8281,7 @@
       </c>
     </row>
     <row r="124" spans="1:4">
-      <c r="A124" s="83" t="s">
+      <c r="A124" s="81" t="s">
         <v>245</v>
       </c>
       <c r="C124" s="39">
@@ -8242,7 +8289,7 @@
       </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="83" t="s">
+      <c r="A125" s="81" t="s">
         <v>246</v>
       </c>
       <c r="D125" s="39">
@@ -8250,7 +8297,7 @@
       </c>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" s="83" t="s">
+      <c r="A126" s="81" t="s">
         <v>247</v>
       </c>
       <c r="C126" s="39">
@@ -8258,7 +8305,7 @@
       </c>
     </row>
     <row r="127" spans="1:4">
-      <c r="A127" s="83" t="s">
+      <c r="A127" s="81" t="s">
         <v>248</v>
       </c>
       <c r="D127" s="39">
@@ -8266,7 +8313,7 @@
       </c>
     </row>
     <row r="128" spans="1:4">
-      <c r="A128" s="83" t="s">
+      <c r="A128" s="81" t="s">
         <v>249</v>
       </c>
       <c r="C128" s="39">
@@ -8274,7 +8321,7 @@
       </c>
     </row>
     <row r="129" spans="1:4">
-      <c r="A129" s="83" t="s">
+      <c r="A129" s="81" t="s">
         <v>250</v>
       </c>
       <c r="D129" s="39">
@@ -8282,7 +8329,7 @@
       </c>
     </row>
     <row r="130" spans="1:4">
-      <c r="A130" s="83" t="s">
+      <c r="A130" s="81" t="s">
         <v>251</v>
       </c>
       <c r="C130" s="39">
@@ -8290,7 +8337,7 @@
       </c>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="83" t="s">
+      <c r="A131" s="81" t="s">
         <v>252</v>
       </c>
       <c r="D131" s="39">
@@ -8298,7 +8345,7 @@
       </c>
     </row>
     <row r="132" spans="1:4">
-      <c r="A132" s="83" t="s">
+      <c r="A132" s="81" t="s">
         <v>253</v>
       </c>
       <c r="C132" s="39">
@@ -8306,7 +8353,7 @@
       </c>
     </row>
     <row r="133" spans="1:4">
-      <c r="A133" s="83" t="s">
+      <c r="A133" s="81" t="s">
         <v>254</v>
       </c>
       <c r="D133" s="39">
@@ -8314,7 +8361,7 @@
       </c>
     </row>
     <row r="134" spans="1:4">
-      <c r="A134" s="83" t="s">
+      <c r="A134" s="81" t="s">
         <v>255</v>
       </c>
       <c r="C134" s="39">
@@ -8322,7 +8369,7 @@
       </c>
     </row>
     <row r="135" spans="1:4">
-      <c r="A135" s="83" t="s">
+      <c r="A135" s="81" t="s">
         <v>256</v>
       </c>
       <c r="D135" s="39">
@@ -8330,7 +8377,7 @@
       </c>
     </row>
     <row r="136" spans="1:4">
-      <c r="A136" s="83" t="s">
+      <c r="A136" s="81" t="s">
         <v>257</v>
       </c>
       <c r="C136" s="39">
@@ -8338,7 +8385,7 @@
       </c>
     </row>
     <row r="137" spans="1:4">
-      <c r="A137" s="83" t="s">
+      <c r="A137" s="81" t="s">
         <v>258</v>
       </c>
       <c r="D137" s="39">
@@ -8346,7 +8393,7 @@
       </c>
     </row>
     <row r="138" spans="1:4">
-      <c r="A138" s="83" t="s">
+      <c r="A138" s="81" t="s">
         <v>259</v>
       </c>
       <c r="C138" s="39">
@@ -8354,7 +8401,7 @@
       </c>
     </row>
     <row r="139" spans="1:4">
-      <c r="A139" s="83" t="s">
+      <c r="A139" s="81" t="s">
         <v>260</v>
       </c>
       <c r="D139" s="39">
@@ -8362,7 +8409,7 @@
       </c>
     </row>
     <row r="140" spans="1:4">
-      <c r="A140" s="83" t="s">
+      <c r="A140" s="81" t="s">
         <v>261</v>
       </c>
       <c r="C140" s="39">
@@ -8370,7 +8417,7 @@
       </c>
     </row>
     <row r="141" spans="1:4">
-      <c r="A141" s="83" t="s">
+      <c r="A141" s="81" t="s">
         <v>262</v>
       </c>
       <c r="D141" s="39">
@@ -8378,7 +8425,7 @@
       </c>
     </row>
     <row r="142" spans="1:4">
-      <c r="A142" s="83" t="s">
+      <c r="A142" s="81" t="s">
         <v>263</v>
       </c>
       <c r="C142" s="39">
@@ -8386,7 +8433,7 @@
       </c>
     </row>
     <row r="143" spans="1:4">
-      <c r="A143" s="83" t="s">
+      <c r="A143" s="81" t="s">
         <v>264</v>
       </c>
       <c r="D143" s="39">
@@ -8394,7 +8441,7 @@
       </c>
     </row>
     <row r="144" spans="1:4">
-      <c r="A144" s="83" t="s">
+      <c r="A144" s="81" t="s">
         <v>265</v>
       </c>
       <c r="C144" s="39">
@@ -8402,7 +8449,7 @@
       </c>
     </row>
     <row r="145" spans="1:4">
-      <c r="A145" s="83" t="s">
+      <c r="A145" s="81" t="s">
         <v>266</v>
       </c>
       <c r="D145" s="39">
@@ -8410,7 +8457,7 @@
       </c>
     </row>
     <row r="146" spans="1:4">
-      <c r="A146" s="83" t="s">
+      <c r="A146" s="81" t="s">
         <v>267</v>
       </c>
       <c r="C146" s="39">
@@ -8418,7 +8465,7 @@
       </c>
     </row>
     <row r="147" spans="1:4">
-      <c r="A147" s="83" t="s">
+      <c r="A147" s="81" t="s">
         <v>268</v>
       </c>
       <c r="D147" s="39">
@@ -8426,7 +8473,7 @@
       </c>
     </row>
     <row r="148" spans="1:4">
-      <c r="A148" s="83" t="s">
+      <c r="A148" s="81" t="s">
         <v>269</v>
       </c>
       <c r="C148" s="39">
@@ -8434,7 +8481,7 @@
       </c>
     </row>
     <row r="149" spans="1:4">
-      <c r="A149" s="83" t="s">
+      <c r="A149" s="81" t="s">
         <v>270</v>
       </c>
       <c r="D149" s="39">
@@ -8442,7 +8489,7 @@
       </c>
     </row>
     <row r="150" spans="1:4">
-      <c r="A150" s="83" t="s">
+      <c r="A150" s="81" t="s">
         <v>271</v>
       </c>
       <c r="C150" s="39">
@@ -8450,7 +8497,7 @@
       </c>
     </row>
     <row r="151" spans="1:4">
-      <c r="A151" s="83" t="s">
+      <c r="A151" s="81" t="s">
         <v>272</v>
       </c>
       <c r="D151" s="39">
@@ -8458,7 +8505,7 @@
       </c>
     </row>
     <row r="152" spans="1:4">
-      <c r="A152" s="83" t="s">
+      <c r="A152" s="81" t="s">
         <v>273</v>
       </c>
       <c r="C152" s="39">
@@ -8466,7 +8513,7 @@
       </c>
     </row>
     <row r="153" spans="1:4">
-      <c r="A153" s="83" t="s">
+      <c r="A153" s="81" t="s">
         <v>274</v>
       </c>
       <c r="D153" s="39">
@@ -8474,7 +8521,7 @@
       </c>
     </row>
     <row r="154" spans="1:4">
-      <c r="A154" s="83" t="s">
+      <c r="A154" s="81" t="s">
         <v>275</v>
       </c>
       <c r="C154" s="39">
@@ -8482,7 +8529,7 @@
       </c>
     </row>
     <row r="155" spans="1:4">
-      <c r="A155" s="83" t="s">
+      <c r="A155" s="81" t="s">
         <v>276</v>
       </c>
       <c r="D155" s="39">
@@ -8490,7 +8537,7 @@
       </c>
     </row>
     <row r="156" spans="1:4">
-      <c r="A156" s="83" t="s">
+      <c r="A156" s="81" t="s">
         <v>277</v>
       </c>
       <c r="C156" s="39">
@@ -8498,7 +8545,7 @@
       </c>
     </row>
     <row r="157" spans="1:4">
-      <c r="A157" s="83" t="s">
+      <c r="A157" s="81" t="s">
         <v>278</v>
       </c>
       <c r="D157" s="39">
@@ -8506,7 +8553,7 @@
       </c>
     </row>
     <row r="158" spans="1:4">
-      <c r="A158" s="83" t="s">
+      <c r="A158" s="81" t="s">
         <v>279</v>
       </c>
       <c r="C158" s="39">
@@ -8514,7 +8561,7 @@
       </c>
     </row>
     <row r="159" spans="1:4">
-      <c r="A159" s="83" t="s">
+      <c r="A159" s="81" t="s">
         <v>280</v>
       </c>
       <c r="D159" s="39">
@@ -8522,7 +8569,7 @@
       </c>
     </row>
     <row r="160" spans="1:4">
-      <c r="A160" s="83" t="s">
+      <c r="A160" s="81" t="s">
         <v>281</v>
       </c>
       <c r="C160" s="39">
@@ -8530,7 +8577,7 @@
       </c>
     </row>
     <row r="161" spans="1:4">
-      <c r="A161" s="83" t="s">
+      <c r="A161" s="81" t="s">
         <v>282</v>
       </c>
       <c r="D161" s="39">
@@ -8538,7 +8585,7 @@
       </c>
     </row>
     <row r="162" spans="1:4">
-      <c r="A162" s="83" t="s">
+      <c r="A162" s="81" t="s">
         <v>283</v>
       </c>
       <c r="C162" s="39">
@@ -8546,7 +8593,7 @@
       </c>
     </row>
     <row r="163" spans="1:4">
-      <c r="A163" s="83" t="s">
+      <c r="A163" s="81" t="s">
         <v>284</v>
       </c>
       <c r="D163" s="39">
@@ -8554,7 +8601,7 @@
       </c>
     </row>
     <row r="164" spans="1:4">
-      <c r="A164" s="83" t="s">
+      <c r="A164" s="81" t="s">
         <v>131</v>
       </c>
       <c r="C164" s="39">
@@ -8562,7 +8609,7 @@
       </c>
     </row>
     <row r="165" spans="1:4">
-      <c r="A165" s="83" t="s">
+      <c r="A165" s="81" t="s">
         <v>132</v>
       </c>
       <c r="D165" s="39">
@@ -8570,7 +8617,7 @@
       </c>
     </row>
     <row r="166" spans="1:4">
-      <c r="A166" s="83" t="s">
+      <c r="A166" s="81" t="s">
         <v>135</v>
       </c>
       <c r="B166" s="39">
@@ -8578,7 +8625,7 @@
       </c>
     </row>
     <row r="167" spans="1:4">
-      <c r="A167" s="83" t="s">
+      <c r="A167" s="81" t="s">
         <v>136</v>
       </c>
       <c r="B167" s="39">
@@ -8586,7 +8633,7 @@
       </c>
     </row>
     <row r="168" spans="1:4">
-      <c r="A168" s="83" t="s">
+      <c r="A168" s="81" t="s">
         <v>137</v>
       </c>
       <c r="C168" s="39">
@@ -8594,7 +8641,7 @@
       </c>
     </row>
     <row r="169" spans="1:4">
-      <c r="A169" s="83" t="s">
+      <c r="A169" s="81" t="s">
         <v>138</v>
       </c>
       <c r="D169" s="39">
@@ -8602,7 +8649,7 @@
       </c>
     </row>
     <row r="170" spans="1:4">
-      <c r="A170" s="83" t="s">
+      <c r="A170" s="81" t="s">
         <v>139</v>
       </c>
       <c r="C170" s="39">
@@ -8610,7 +8657,7 @@
       </c>
     </row>
     <row r="171" spans="1:4">
-      <c r="A171" s="83" t="s">
+      <c r="A171" s="81" t="s">
         <v>140</v>
       </c>
       <c r="D171" s="39">
@@ -8618,7 +8665,7 @@
       </c>
     </row>
     <row r="172" spans="1:4">
-      <c r="A172" s="83" t="s">
+      <c r="A172" s="81" t="s">
         <v>143</v>
       </c>
       <c r="C172" s="39">
@@ -8626,7 +8673,7 @@
       </c>
     </row>
     <row r="173" spans="1:4">
-      <c r="A173" s="83" t="s">
+      <c r="A173" s="81" t="s">
         <v>144</v>
       </c>
       <c r="D173" s="39">
@@ -8634,7 +8681,7 @@
       </c>
     </row>
     <row r="174" spans="1:4">
-      <c r="A174" s="83" t="s">
+      <c r="A174" s="81" t="s">
         <v>154</v>
       </c>
       <c r="C174" s="39">
@@ -8642,7 +8689,7 @@
       </c>
     </row>
     <row r="175" spans="1:4">
-      <c r="A175" s="83" t="s">
+      <c r="A175" s="81" t="s">
         <v>155</v>
       </c>
       <c r="D175" s="39">
@@ -8650,7 +8697,7 @@
       </c>
     </row>
     <row r="176" spans="1:4">
-      <c r="A176" s="83" t="s">
+      <c r="A176" s="81" t="s">
         <v>156</v>
       </c>
       <c r="C176" s="39">
@@ -8658,7 +8705,7 @@
       </c>
     </row>
     <row r="177" spans="1:4">
-      <c r="A177" s="83" t="s">
+      <c r="A177" s="81" t="s">
         <v>157</v>
       </c>
       <c r="D177" s="39">
@@ -8666,7 +8713,7 @@
       </c>
     </row>
     <row r="178" spans="1:4">
-      <c r="A178" s="83" t="s">
+      <c r="A178" s="81" t="s">
         <v>158</v>
       </c>
       <c r="C178" s="39">
@@ -8674,7 +8721,7 @@
       </c>
     </row>
     <row r="179" spans="1:4">
-      <c r="A179" s="83" t="s">
+      <c r="A179" s="81" t="s">
         <v>159</v>
       </c>
       <c r="D179" s="39">
@@ -8682,7 +8729,7 @@
       </c>
     </row>
     <row r="180" spans="1:4">
-      <c r="A180" s="83" t="s">
+      <c r="A180" s="81" t="s">
         <v>160</v>
       </c>
       <c r="C180" s="39">
@@ -8690,7 +8737,7 @@
       </c>
     </row>
     <row r="181" spans="1:4">
-      <c r="A181" s="83" t="s">
+      <c r="A181" s="81" t="s">
         <v>161</v>
       </c>
       <c r="D181" s="39">
@@ -8698,7 +8745,7 @@
       </c>
     </row>
     <row r="182" spans="1:4">
-      <c r="A182" s="83" t="s">
+      <c r="A182" s="81" t="s">
         <v>167</v>
       </c>
       <c r="B182" s="39">
@@ -8706,7 +8753,7 @@
       </c>
     </row>
     <row r="183" spans="1:4">
-      <c r="A183" s="83" t="s">
+      <c r="A183" s="81" t="s">
         <v>168</v>
       </c>
       <c r="B183" s="39">
@@ -8714,7 +8761,7 @@
       </c>
     </row>
     <row r="184" spans="1:4">
-      <c r="A184" s="83" t="s">
+      <c r="A184" s="81" t="s">
         <v>169</v>
       </c>
       <c r="B184" s="39">
@@ -8722,7 +8769,7 @@
       </c>
     </row>
     <row r="185" spans="1:4">
-      <c r="A185" s="83" t="s">
+      <c r="A185" s="81" t="s">
         <v>178</v>
       </c>
       <c r="B185" s="39">
@@ -8730,7 +8777,7 @@
       </c>
     </row>
     <row r="186" spans="1:4">
-      <c r="A186" s="83" t="s">
+      <c r="A186" s="81" t="s">
         <v>185</v>
       </c>
       <c r="C186" s="39">
@@ -8738,7 +8785,7 @@
       </c>
     </row>
     <row r="187" spans="1:4">
-      <c r="A187" s="83" t="s">
+      <c r="A187" s="81" t="s">
         <v>186</v>
       </c>
       <c r="D187" s="39">
@@ -8746,7 +8793,7 @@
       </c>
     </row>
     <row r="188" spans="1:4">
-      <c r="A188" s="83" t="s">
+      <c r="A188" s="81" t="s">
         <v>285</v>
       </c>
       <c r="D188" s="39">
@@ -8754,7 +8801,7 @@
       </c>
     </row>
     <row r="189" spans="1:4">
-      <c r="A189" s="83" t="s">
+      <c r="A189" s="81" t="s">
         <v>171</v>
       </c>
       <c r="C189" s="39">
@@ -10386,7 +10433,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A27" sqref="A27:T34"/>
+      <selection pane="bottomRight" activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -10397,31 +10444,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1">
-      <c r="D1" s="73"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
-      <c r="P1" s="113"/>
-      <c r="Q1" s="113"/>
-      <c r="R1" s="113"/>
-      <c r="S1" s="113"/>
-      <c r="T1" s="113"/>
-      <c r="U1" s="113"/>
-      <c r="V1" s="113"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
+      <c r="U1" s="110"/>
+      <c r="V1" s="110"/>
     </row>
     <row r="2" spans="1:23" ht="96" customHeight="1">
       <c r="A2" s="42"/>
       <c r="B2" s="43"/>
       <c r="C2" s="38"/>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="72" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="25" t="s">
@@ -10486,171 +10533,158 @@
       <c r="A3" t="s">
         <v>133</v>
       </c>
-      <c r="B3" s="45">
+      <c r="B3" s="39">
         <v>32</v>
       </c>
-      <c r="D3" s="45">
+      <c r="D3" s="39">
         <v>32</v>
       </c>
-      <c r="M3" s="45">
+      <c r="M3" s="39">
         <v>32</v>
       </c>
-      <c r="N3" s="48">
+      <c r="N3" s="123">
         <v>32</v>
       </c>
-      <c r="O3" s="49"/>
-      <c r="R3" s="45">
+      <c r="O3" s="123"/>
+      <c r="R3" s="39">
         <v>32</v>
       </c>
-      <c r="S3" s="45"/>
-      <c r="U3" s="48">
-        <v>32</v>
-      </c>
+      <c r="U3" s="49"/>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" t="s">
         <v>134</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="39">
         <v>33</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="39">
         <v>33</v>
       </c>
-      <c r="M4" s="45">
+      <c r="M4" s="39">
         <v>33</v>
       </c>
-      <c r="N4" s="48">
+      <c r="N4" s="123">
         <v>33</v>
       </c>
-      <c r="O4" s="49"/>
-      <c r="R4" s="45">
+      <c r="O4" s="123"/>
+      <c r="R4" s="39">
         <v>33</v>
       </c>
-      <c r="S4" s="45"/>
-      <c r="U4" s="48">
-        <v>33</v>
-      </c>
+      <c r="U4" s="49"/>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="45">
+      <c r="B5" s="39">
         <v>48</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="39">
         <v>48</v>
       </c>
-      <c r="M5" s="45">
+      <c r="M5" s="39">
         <v>48</v>
       </c>
-      <c r="N5" s="48">
+      <c r="N5" s="123"/>
+      <c r="O5" s="123">
         <v>48</v>
       </c>
-      <c r="O5" s="49"/>
-      <c r="T5" s="45">
+      <c r="T5" s="39">
         <v>48</v>
       </c>
-      <c r="U5" s="48">
-        <v>48</v>
-      </c>
+      <c r="U5" s="49"/>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" t="s">
         <v>147</v>
       </c>
-      <c r="B6" s="45">
+      <c r="B6" s="39">
         <v>49</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="39">
         <v>49</v>
       </c>
-      <c r="M6" s="45">
+      <c r="M6" s="39">
         <v>49</v>
       </c>
-      <c r="N6" s="48">
+      <c r="N6" s="123"/>
+      <c r="O6" s="123">
         <v>49</v>
       </c>
-      <c r="O6" s="49"/>
-      <c r="T6" s="45">
+      <c r="T6" s="39">
         <v>49</v>
       </c>
-      <c r="U6" s="48">
-        <v>49</v>
-      </c>
+      <c r="U6" s="49"/>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
         <v>201</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="39">
         <v>117</v>
       </c>
-      <c r="D7" s="45">
+      <c r="D7" s="39">
         <v>117</v>
       </c>
-      <c r="M7" s="45">
+      <c r="M7" s="39">
         <v>117</v>
       </c>
-      <c r="N7" s="48">
+      <c r="N7" s="123">
         <v>117</v>
       </c>
-      <c r="O7" s="49"/>
-      <c r="P7" s="45">
+      <c r="O7" s="123"/>
+      <c r="P7" s="39">
         <v>117</v>
       </c>
-      <c r="U7" s="48">
-        <v>117</v>
-      </c>
+      <c r="U7" s="49"/>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
         <v>202</v>
       </c>
-      <c r="B8" s="45">
+      <c r="B8" s="39">
         <v>118</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="39">
         <v>118</v>
       </c>
-      <c r="M8" s="45">
+      <c r="M8" s="39">
         <v>118</v>
       </c>
-      <c r="N8" s="48">
+      <c r="N8" s="123">
         <v>118</v>
       </c>
-      <c r="O8" s="49"/>
-      <c r="P8" s="45">
+      <c r="O8" s="123"/>
+      <c r="P8" s="39">
         <v>118</v>
       </c>
-      <c r="U8" s="48">
-        <v>118</v>
-      </c>
+      <c r="U8" s="49"/>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
         <v>207</v>
       </c>
-      <c r="B9" s="45">
+      <c r="B9" s="39">
         <v>123</v>
       </c>
-      <c r="D9" s="45">
+      <c r="D9" s="39">
         <v>123</v>
       </c>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
+      <c r="N9" s="123"/>
+      <c r="O9" s="39">
+        <v>123</v>
+      </c>
       <c r="Q9" s="39">
         <v>123</v>
       </c>
-      <c r="U9" s="45">
+      <c r="U9" s="39">
         <v>123</v>
       </c>
-      <c r="V9" s="45">
+      <c r="V9" s="39">
         <v>123</v>
       </c>
-      <c r="W9" s="45">
+      <c r="W9" s="39">
         <v>123</v>
       </c>
     </row>
@@ -10658,25 +10692,26 @@
       <c r="A10" t="s">
         <v>208</v>
       </c>
-      <c r="B10" s="45">
+      <c r="B10" s="39">
         <v>124</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="39">
         <v>124</v>
       </c>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
+      <c r="N10" s="123"/>
+      <c r="O10" s="39">
+        <v>124</v>
+      </c>
       <c r="Q10" s="39">
         <v>124</v>
       </c>
-      <c r="U10" s="45">
+      <c r="U10" s="39">
         <v>124</v>
       </c>
-      <c r="V10" s="45">
+      <c r="V10" s="39">
         <v>124</v>
       </c>
-      <c r="W10" s="45">
+      <c r="W10" s="39">
         <v>124</v>
       </c>
     </row>
@@ -10684,24 +10719,24 @@
       <c r="A11" t="s">
         <v>213</v>
       </c>
-      <c r="B11" s="45">
+      <c r="B11" s="39">
         <v>133</v>
       </c>
-      <c r="D11" s="45">
+      <c r="D11" s="39">
         <v>133</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="39">
         <v>133</v>
       </c>
-      <c r="L11" s="45">
+      <c r="L11" s="39">
         <v>133</v>
       </c>
-      <c r="N11" s="49"/>
-      <c r="O11" s="49"/>
-      <c r="U11" s="45">
+      <c r="N11" s="123"/>
+      <c r="O11" s="123"/>
+      <c r="U11" s="39">
         <v>133</v>
       </c>
-      <c r="V11" s="45">
+      <c r="V11" s="39">
         <v>133</v>
       </c>
     </row>
@@ -10709,24 +10744,24 @@
       <c r="A12" t="s">
         <v>214</v>
       </c>
-      <c r="B12" s="45">
+      <c r="B12" s="39">
         <v>134</v>
       </c>
-      <c r="D12" s="45">
+      <c r="D12" s="39">
         <v>134</v>
       </c>
-      <c r="F12" s="45">
+      <c r="F12" s="39">
         <v>134</v>
       </c>
-      <c r="L12" s="45">
+      <c r="L12" s="39">
         <v>134</v>
       </c>
-      <c r="N12" s="49"/>
-      <c r="O12" s="49"/>
-      <c r="U12" s="45">
+      <c r="N12" s="123"/>
+      <c r="O12" s="123"/>
+      <c r="U12" s="39">
         <v>134</v>
       </c>
-      <c r="V12" s="45">
+      <c r="V12" s="39">
         <v>134</v>
       </c>
     </row>
@@ -10734,21 +10769,21 @@
       <c r="A13" t="s">
         <v>235</v>
       </c>
-      <c r="B13" s="45">
+      <c r="B13" s="39">
         <v>155</v>
       </c>
-      <c r="D13" s="45">
+      <c r="D13" s="39">
         <v>155</v>
       </c>
-      <c r="F13" s="45">
+      <c r="F13" s="39">
         <v>155</v>
       </c>
-      <c r="K13" s="45">
+      <c r="K13" s="39">
         <v>155</v>
       </c>
-      <c r="N13" s="49"/>
-      <c r="O13" s="49"/>
-      <c r="U13" s="45">
+      <c r="N13" s="123"/>
+      <c r="O13" s="123"/>
+      <c r="U13" s="39">
         <v>155</v>
       </c>
     </row>
@@ -10756,21 +10791,21 @@
       <c r="A14" t="s">
         <v>236</v>
       </c>
-      <c r="B14" s="45">
+      <c r="B14" s="39">
         <v>156</v>
       </c>
-      <c r="D14" s="45">
+      <c r="D14" s="39">
         <v>156</v>
       </c>
-      <c r="F14" s="45">
+      <c r="F14" s="39">
         <v>156</v>
       </c>
-      <c r="K14" s="45">
+      <c r="K14" s="39">
         <v>156</v>
       </c>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
-      <c r="U14" s="45">
+      <c r="N14" s="123"/>
+      <c r="O14" s="123"/>
+      <c r="U14" s="39">
         <v>156</v>
       </c>
     </row>
@@ -10778,28 +10813,24 @@
       <c r="A15" t="s">
         <v>249</v>
       </c>
-      <c r="B15" s="45">
+      <c r="B15" s="39">
         <v>171</v>
       </c>
-      <c r="D15" s="45">
+      <c r="D15" s="39">
         <v>171</v>
       </c>
-      <c r="M15" s="45">
+      <c r="M15" s="39">
         <v>171</v>
       </c>
-      <c r="N15" s="48">
+      <c r="N15" s="123"/>
+      <c r="O15" s="123">
         <v>171</v>
       </c>
-      <c r="O15" s="48">
+      <c r="S15" s="39">
         <v>171</v>
       </c>
-      <c r="S15" s="45">
-        <v>171</v>
-      </c>
-      <c r="U15" s="48">
-        <v>171</v>
-      </c>
-      <c r="V15" s="45">
+      <c r="U15" s="49"/>
+      <c r="V15" s="39">
         <v>171</v>
       </c>
     </row>
@@ -10807,28 +10838,24 @@
       <c r="A16" t="s">
         <v>250</v>
       </c>
-      <c r="B16" s="45">
+      <c r="B16" s="39">
         <v>172</v>
       </c>
-      <c r="D16" s="45">
+      <c r="D16" s="39">
         <v>172</v>
       </c>
-      <c r="M16" s="45">
+      <c r="M16" s="39">
         <v>172</v>
       </c>
-      <c r="N16" s="48">
+      <c r="N16" s="123"/>
+      <c r="O16" s="123">
         <v>172</v>
       </c>
-      <c r="O16" s="48">
+      <c r="S16" s="39">
         <v>172</v>
       </c>
-      <c r="S16" s="45">
-        <v>172</v>
-      </c>
-      <c r="U16" s="48">
-        <v>172</v>
-      </c>
-      <c r="V16" s="45">
+      <c r="U16" s="49"/>
+      <c r="V16" s="39">
         <v>172</v>
       </c>
     </row>
@@ -10851,11 +10878,8 @@
       <c r="J17" s="39">
         <v>181</v>
       </c>
-      <c r="N17" s="49"/>
-      <c r="O17" s="49"/>
-      <c r="U17" s="39">
-        <v>181</v>
-      </c>
+      <c r="N17" s="123"/>
+      <c r="O17" s="123"/>
     </row>
     <row r="18" spans="1:24">
       <c r="A18" t="s">
@@ -10876,11 +10900,8 @@
       <c r="J18" s="39">
         <v>182</v>
       </c>
-      <c r="N18" s="49"/>
-      <c r="O18" s="49"/>
-      <c r="U18" s="39">
-        <v>182</v>
-      </c>
+      <c r="N18" s="123"/>
+      <c r="O18" s="123"/>
     </row>
     <row r="19" spans="1:24">
       <c r="A19" t="s">
@@ -10895,11 +10916,14 @@
       <c r="F19" s="39">
         <v>185</v>
       </c>
+      <c r="G19" s="39">
+        <v>185</v>
+      </c>
       <c r="I19" s="39">
         <v>185</v>
       </c>
-      <c r="N19" s="49"/>
-      <c r="O19" s="49"/>
+      <c r="N19" s="123"/>
+      <c r="O19" s="123"/>
       <c r="U19" s="39">
         <v>185</v>
       </c>
@@ -10917,6 +10941,9 @@
       <c r="F20" s="39">
         <v>186</v>
       </c>
+      <c r="G20" s="39">
+        <v>186</v>
+      </c>
       <c r="I20" s="39">
         <v>186</v>
       </c>
@@ -11005,10 +11032,10 @@
       <c r="F25" s="39">
         <v>207</v>
       </c>
+      <c r="G25" s="39">
+        <v>207</v>
+      </c>
       <c r="H25" s="39">
-        <v>207</v>
-      </c>
-      <c r="U25" s="39">
         <v>207</v>
       </c>
     </row>
@@ -11025,11 +11052,53 @@
       <c r="F26" s="39">
         <v>208</v>
       </c>
+      <c r="G26" s="39">
+        <v>208</v>
+      </c>
       <c r="H26" s="39">
         <v>208</v>
       </c>
-      <c r="U26" s="39">
-        <v>208</v>
+    </row>
+    <row r="27" spans="1:24">
+      <c r="A27" s="124" t="s">
+        <v>239</v>
+      </c>
+      <c r="B27" s="125">
+        <v>161</v>
+      </c>
+      <c r="C27" s="124"/>
+      <c r="D27" s="125">
+        <v>161</v>
+      </c>
+      <c r="Q27" s="125">
+        <v>161</v>
+      </c>
+      <c r="V27" s="125">
+        <v>161</v>
+      </c>
+      <c r="W27" s="125">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
+      <c r="A28" s="124" t="s">
+        <v>240</v>
+      </c>
+      <c r="B28" s="125">
+        <v>162</v>
+      </c>
+      <c r="C28" s="124"/>
+      <c r="D28" s="125">
+        <v>162</v>
+      </c>
+      <c r="Q28" s="125">
+        <v>162</v>
+      </c>
+      <c r="V28" s="125">
+        <v>162</v>
+      </c>
+      <c r="W28" s="125">
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:24">
@@ -11363,7 +11432,7 @@
   <dimension ref="A1:AG324"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="U55" sqref="U55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -11377,40 +11446,40 @@
     <row r="1" spans="1:33" ht="15" customHeight="1">
       <c r="A1" s="42"/>
       <c r="B1" s="43"/>
-      <c r="E1" s="114" t="s">
+      <c r="E1" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
-      <c r="P1" s="113"/>
-      <c r="Q1" s="113"/>
-      <c r="R1" s="113"/>
-      <c r="S1" s="113"/>
-      <c r="T1" s="113"/>
-      <c r="U1" s="113"/>
-      <c r="V1" s="113"/>
-      <c r="W1" s="113"/>
-      <c r="X1" s="113"/>
-      <c r="Y1" s="113"/>
-      <c r="Z1" s="113"/>
-      <c r="AA1" s="113"/>
-      <c r="AB1" s="113"/>
-      <c r="AC1" s="113"/>
-      <c r="AD1" s="113"/>
-      <c r="AE1" s="113"/>
-      <c r="AF1" s="113"/>
-      <c r="AG1" s="113"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
+      <c r="U1" s="110"/>
+      <c r="V1" s="110"/>
+      <c r="W1" s="110"/>
+      <c r="X1" s="110"/>
+      <c r="Y1" s="110"/>
+      <c r="Z1" s="110"/>
+      <c r="AA1" s="110"/>
+      <c r="AB1" s="110"/>
+      <c r="AC1" s="110"/>
+      <c r="AD1" s="110"/>
+      <c r="AE1" s="110"/>
+      <c r="AF1" s="110"/>
+      <c r="AG1" s="110"/>
     </row>
     <row r="2" spans="1:33" ht="144" customHeight="1">
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="72" t="s">
         <v>43</v>
       </c>
       <c r="D2" s="25" t="s">
@@ -11422,7 +11491,7 @@
       <c r="F2" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="87" t="s">
+      <c r="G2" s="84" t="s">
         <v>47</v>
       </c>
       <c r="H2" s="23" t="s">
@@ -11446,7 +11515,7 @@
       <c r="N2" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="O2" s="64" t="s">
+      <c r="O2" s="63" t="s">
         <v>55</v>
       </c>
       <c r="P2" s="23" t="s">
@@ -11488,10 +11557,10 @@
       <c r="AB2" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="AC2" s="78" t="s">
+      <c r="AC2" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="AD2" s="78" t="s">
+      <c r="AD2" s="77" t="s">
         <v>68</v>
       </c>
       <c r="AE2" s="23" t="s">
@@ -11508,21 +11577,19 @@
       <c r="A5" t="s">
         <v>191</v>
       </c>
-      <c r="B5" s="45">
+      <c r="B5" s="39">
         <v>105</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="39">
         <v>105</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45">
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="39">
         <v>105</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="45">
-        <v>105</v>
-      </c>
-      <c r="I5" s="45">
+      <c r="I5" s="39">
         <v>105</v>
       </c>
     </row>
@@ -11530,21 +11597,19 @@
       <c r="A6" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="45">
+      <c r="B6" s="39">
         <v>106</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="39">
         <v>106</v>
       </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45">
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="39">
         <v>106</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="45">
-        <v>106</v>
-      </c>
-      <c r="I6" s="45">
+      <c r="I6" s="39">
         <v>106</v>
       </c>
     </row>
@@ -11552,15 +11617,15 @@
       <c r="A7" t="s">
         <v>203</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="39">
         <v>119</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="39">
         <v>119</v>
       </c>
-      <c r="D7" s="45"/>
+      <c r="D7" s="39"/>
       <c r="G7" s="5"/>
-      <c r="P7" s="45">
+      <c r="P7" s="39">
         <v>119</v>
       </c>
     </row>
@@ -11568,15 +11633,15 @@
       <c r="A8" t="s">
         <v>204</v>
       </c>
-      <c r="B8" s="45">
+      <c r="B8" s="39">
         <v>120</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="39">
         <v>120</v>
       </c>
-      <c r="D8" s="45"/>
+      <c r="D8" s="39"/>
       <c r="G8" s="5"/>
-      <c r="P8" s="45">
+      <c r="P8" s="39">
         <v>120</v>
       </c>
     </row>
@@ -11584,26 +11649,22 @@
       <c r="A9" t="s">
         <v>205</v>
       </c>
-      <c r="B9" s="45">
+      <c r="B9" s="39">
         <v>121</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="39">
         <v>121</v>
       </c>
-      <c r="D9" s="45">
+      <c r="D9" s="39">
         <v>121</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="5"/>
+      <c r="S9" s="39">
         <v>121</v>
       </c>
-      <c r="F9" s="45">
-        <v>121</v>
-      </c>
-      <c r="G9" s="30"/>
-      <c r="S9" s="45">
-        <v>121</v>
-      </c>
-      <c r="U9" s="45">
+      <c r="U9" s="39">
         <v>121</v>
       </c>
     </row>
@@ -11611,61 +11672,53 @@
       <c r="A10" t="s">
         <v>206</v>
       </c>
-      <c r="B10" s="45">
+      <c r="B10" s="39">
         <v>122</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="39">
         <v>122</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="39">
         <v>122</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="5"/>
+      <c r="S10" s="39">
         <v>122</v>
       </c>
-      <c r="F10" s="45">
+      <c r="U10" s="39">
         <v>122</v>
       </c>
-      <c r="G10" s="30"/>
-      <c r="S10" s="45">
-        <v>122</v>
-      </c>
-      <c r="U10" s="45">
-        <v>122</v>
-      </c>
     </row>
     <row r="11" spans="1:33">
-      <c r="A11" s="85" t="s">
+      <c r="A11" s="82" t="s">
         <v>209</v>
       </c>
-      <c r="B11" s="45">
+      <c r="B11" s="39">
         <v>125</v>
       </c>
-      <c r="C11" s="45">
+      <c r="C11" s="39">
         <v>125</v>
       </c>
-      <c r="D11" s="45"/>
-      <c r="E11" s="39">
-        <v>125</v>
-      </c>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
       <c r="G11" s="5">
         <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:33">
-      <c r="A12" s="85" t="s">
+      <c r="A12" s="82" t="s">
         <v>210</v>
       </c>
-      <c r="B12" s="45">
+      <c r="B12" s="39">
         <v>126</v>
       </c>
-      <c r="C12" s="45">
+      <c r="C12" s="39">
         <v>126</v>
       </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="39">
-        <v>126</v>
-      </c>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
       <c r="G12" s="5">
         <v>126</v>
       </c>
@@ -11674,21 +11727,22 @@
       <c r="A13" t="s">
         <v>217</v>
       </c>
-      <c r="B13" s="45">
+      <c r="B13" s="39">
         <v>137</v>
       </c>
-      <c r="C13" s="45">
+      <c r="C13" s="39">
         <v>137</v>
       </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45">
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="39">
         <v>137</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="45">
+      <c r="K13" s="39">
         <v>137</v>
       </c>
-      <c r="K13" s="45">
+      <c r="AC13" s="39">
         <v>137</v>
       </c>
     </row>
@@ -11696,21 +11750,22 @@
       <c r="A14" t="s">
         <v>218</v>
       </c>
-      <c r="B14" s="45">
+      <c r="B14" s="39">
         <v>138</v>
       </c>
-      <c r="C14" s="45">
+      <c r="C14" s="39">
         <v>138</v>
       </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45">
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="39">
         <v>138</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="45">
+      <c r="K14" s="39">
         <v>138</v>
       </c>
-      <c r="K14" s="45">
+      <c r="AC14" s="39">
         <v>138</v>
       </c>
     </row>
@@ -11718,13 +11773,13 @@
       <c r="A15" s="51" t="s">
         <v>221</v>
       </c>
-      <c r="B15" s="45">
+      <c r="B15" s="39">
         <v>141</v>
       </c>
-      <c r="C15" s="45">
+      <c r="C15" s="39">
         <v>141</v>
       </c>
-      <c r="D15" s="45"/>
+      <c r="D15" s="39"/>
       <c r="G15" s="5"/>
       <c r="M15">
         <v>141</v>
@@ -11734,263 +11789,346 @@
       <c r="A16" s="51" t="s">
         <v>222</v>
       </c>
-      <c r="B16" s="45">
+      <c r="B16" s="39">
         <v>142</v>
       </c>
-      <c r="C16" s="45">
+      <c r="C16" s="39">
         <v>142</v>
       </c>
-      <c r="D16" s="45"/>
+      <c r="D16" s="39"/>
       <c r="M16">
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:31">
       <c r="A17" t="s">
         <v>223</v>
       </c>
-      <c r="B17" s="45">
+      <c r="B17" s="39">
         <v>143</v>
       </c>
-      <c r="C17" s="45">
+      <c r="C17" s="39">
         <v>143</v>
       </c>
-      <c r="D17" s="45"/>
-      <c r="T17" s="45">
+      <c r="D17" s="39"/>
+      <c r="E17" s="39">
         <v>143</v>
       </c>
-      <c r="U17" s="45">
+      <c r="F17" s="39">
         <v>143</v>
       </c>
-      <c r="Z17" s="45">
+      <c r="T17" s="39">
         <v>143</v>
       </c>
-      <c r="AA17" s="45">
+      <c r="U17" s="39">
         <v>143</v>
       </c>
-    </row>
-    <row r="18" spans="1:27">
+      <c r="Z17" s="39">
+        <v>143</v>
+      </c>
+      <c r="AA17" s="39">
+        <v>143</v>
+      </c>
+      <c r="AB17" s="39">
+        <v>143</v>
+      </c>
+      <c r="AC17" s="39">
+        <v>143</v>
+      </c>
+      <c r="AD17" s="39">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31">
       <c r="A18" t="s">
         <v>224</v>
       </c>
-      <c r="B18" s="45">
+      <c r="B18" s="39">
         <v>144</v>
       </c>
-      <c r="C18" s="45">
+      <c r="C18" s="39">
         <v>144</v>
       </c>
-      <c r="D18" s="45"/>
-      <c r="T18" s="45">
+      <c r="D18" s="39"/>
+      <c r="E18" s="39">
         <v>144</v>
       </c>
-      <c r="U18" s="45">
+      <c r="F18" s="39">
         <v>144</v>
       </c>
-      <c r="Z18" s="45">
+      <c r="T18" s="39">
         <v>144</v>
       </c>
-      <c r="AA18" s="45">
+      <c r="U18" s="39">
         <v>144</v>
       </c>
-    </row>
-    <row r="19" spans="1:27">
+      <c r="Z18" s="39">
+        <v>144</v>
+      </c>
+      <c r="AA18" s="39">
+        <v>144</v>
+      </c>
+      <c r="AB18" s="39">
+        <v>144</v>
+      </c>
+      <c r="AC18" s="39">
+        <v>144</v>
+      </c>
+      <c r="AD18" s="39">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31">
       <c r="A19" t="s">
         <v>227</v>
       </c>
-      <c r="B19" s="45">
+      <c r="B19" s="39">
         <v>147</v>
       </c>
-      <c r="C19" s="45">
+      <c r="C19" s="39">
         <v>147</v>
       </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45">
+      <c r="D19" s="39"/>
+      <c r="H19" s="39">
         <v>147</v>
       </c>
-      <c r="H19" s="45">
+      <c r="L19" s="39">
         <v>147</v>
       </c>
-      <c r="L19" s="45">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27">
+    </row>
+    <row r="20" spans="1:31">
       <c r="A20" t="s">
         <v>228</v>
       </c>
-      <c r="B20" s="45">
+      <c r="B20" s="39">
         <v>148</v>
       </c>
-      <c r="C20" s="45">
+      <c r="C20" s="39">
         <v>148</v>
       </c>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45">
+      <c r="D20" s="39"/>
+      <c r="H20" s="39">
         <v>148</v>
       </c>
-      <c r="H20" s="45">
+      <c r="L20" s="39">
         <v>148</v>
       </c>
-      <c r="L20" s="45">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27">
+    </row>
+    <row r="21" spans="1:31">
       <c r="A21" t="s">
         <v>231</v>
       </c>
-      <c r="B21" s="45">
+      <c r="B21" s="39">
         <v>151</v>
       </c>
-      <c r="C21" s="45">
+      <c r="C21" s="39">
         <v>151</v>
       </c>
-      <c r="D21" s="45"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="45">
+      <c r="D21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39">
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:31">
       <c r="A22" t="s">
         <v>232</v>
       </c>
-      <c r="B22" s="45">
+      <c r="B22" s="39">
         <v>152</v>
       </c>
-      <c r="C22" s="45">
+      <c r="C22" s="39">
         <v>152</v>
       </c>
-      <c r="D22" s="45"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="45">
+      <c r="D22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39">
         <v>152</v>
       </c>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:31">
       <c r="A23" t="s">
         <v>233</v>
       </c>
-      <c r="B23" s="45">
+      <c r="B23" s="39">
         <v>153</v>
       </c>
-      <c r="C23" s="45">
+      <c r="C23" s="39">
         <v>153</v>
       </c>
-      <c r="D23" s="45"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39">
+        <v>153</v>
+      </c>
       <c r="R23">
         <v>153</v>
       </c>
-    </row>
-    <row r="24" spans="1:27">
+      <c r="Z23" s="39">
+        <v>153</v>
+      </c>
+      <c r="AA23" s="39">
+        <v>153</v>
+      </c>
+      <c r="AE23" s="39">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31">
       <c r="A24" t="s">
         <v>234</v>
       </c>
-      <c r="B24" s="45">
+      <c r="B24" s="39">
         <v>154</v>
       </c>
-      <c r="C24" s="45">
+      <c r="C24" s="39">
         <v>154</v>
       </c>
-      <c r="D24" s="45"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39">
+        <v>154</v>
+      </c>
       <c r="R24">
         <v>154</v>
       </c>
-    </row>
-    <row r="25" spans="1:27">
+      <c r="Z24" s="39">
+        <v>154</v>
+      </c>
+      <c r="AA24" s="39">
+        <v>154</v>
+      </c>
+      <c r="AE24" s="39">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31">
       <c r="A25" t="s">
         <v>241</v>
       </c>
-      <c r="B25" s="45">
+      <c r="B25" s="39">
         <v>163</v>
       </c>
-      <c r="C25" s="45">
+      <c r="C25" s="39">
         <v>163</v>
       </c>
-      <c r="D25" s="45"/>
-      <c r="V25" s="45">
+      <c r="D25" s="39"/>
+      <c r="E25" s="39">
         <v>163</v>
       </c>
-      <c r="Y25" s="45">
+      <c r="F25" s="39">
         <v>163</v>
       </c>
-    </row>
-    <row r="26" spans="1:27">
+      <c r="V25" s="39">
+        <v>163</v>
+      </c>
+      <c r="Y25" s="39">
+        <v>163</v>
+      </c>
+      <c r="Z25" s="39">
+        <v>163</v>
+      </c>
+      <c r="AB25" s="39">
+        <v>163</v>
+      </c>
+      <c r="AD25" s="39">
+        <v>163</v>
+      </c>
+      <c r="AE25" s="39"/>
+    </row>
+    <row r="26" spans="1:31">
       <c r="A26" t="s">
         <v>242</v>
       </c>
-      <c r="B26" s="45">
+      <c r="B26" s="39">
         <v>164</v>
       </c>
-      <c r="C26" s="45">
+      <c r="C26" s="39">
         <v>164</v>
       </c>
-      <c r="D26" s="45"/>
-      <c r="V26" s="45">
+      <c r="D26" s="39"/>
+      <c r="E26" s="39">
         <v>164</v>
       </c>
-      <c r="Y26" s="45">
+      <c r="F26" s="39">
         <v>164</v>
       </c>
-    </row>
-    <row r="27" spans="1:27">
+      <c r="V26" s="39">
+        <v>164</v>
+      </c>
+      <c r="Y26" s="39">
+        <v>164</v>
+      </c>
+      <c r="Z26" s="39">
+        <v>164</v>
+      </c>
+      <c r="AB26" s="39">
+        <v>164</v>
+      </c>
+      <c r="AD26" s="39">
+        <v>164</v>
+      </c>
+      <c r="AE26" s="39"/>
+    </row>
+    <row r="27" spans="1:31">
       <c r="A27" t="s">
         <v>243</v>
       </c>
-      <c r="B27" s="45">
+      <c r="B27" s="39">
         <v>165</v>
       </c>
-      <c r="C27" s="45">
+      <c r="C27" s="39">
         <v>165</v>
       </c>
-      <c r="D27" s="45"/>
-      <c r="V27" s="45">
+      <c r="D27" s="39"/>
+      <c r="V27" s="39">
         <v>165</v>
       </c>
-      <c r="W27" s="45">
+      <c r="W27" s="39">
         <v>165</v>
       </c>
-    </row>
-    <row r="28" spans="1:27">
+      <c r="AC27" s="39">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31">
       <c r="A28" t="s">
         <v>244</v>
       </c>
-      <c r="B28" s="45">
+      <c r="B28" s="39">
         <v>166</v>
       </c>
-      <c r="C28" s="45">
+      <c r="C28" s="39">
         <v>166</v>
       </c>
-      <c r="D28" s="45"/>
-      <c r="V28" s="45">
+      <c r="D28" s="39"/>
+      <c r="V28" s="39">
         <v>166</v>
       </c>
-      <c r="W28" s="45">
+      <c r="W28" s="39">
         <v>166</v>
       </c>
-    </row>
-    <row r="29" spans="1:27">
+      <c r="AC28" s="39">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31">
       <c r="A29" t="s">
         <v>257</v>
       </c>
-      <c r="B29" s="45">
+      <c r="B29" s="39">
         <v>179</v>
       </c>
-      <c r="C29" s="45">
+      <c r="C29" s="39">
         <v>179</v>
       </c>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45">
+      <c r="D29" s="39"/>
+      <c r="H29" s="39">
         <v>179</v>
       </c>
-      <c r="H29" s="45">
+      <c r="J29" s="39">
         <v>179</v>
       </c>
-      <c r="J29" s="45">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27">
+    </row>
+    <row r="30" spans="1:31">
       <c r="A30" t="s">
         <v>258</v>
       </c>
@@ -12001,9 +12139,6 @@
         <v>180</v>
       </c>
       <c r="D30" s="39"/>
-      <c r="E30" s="39">
-        <v>180</v>
-      </c>
       <c r="H30" s="39">
         <v>180</v>
       </c>
@@ -12011,7 +12146,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:31">
       <c r="A31" t="s">
         <v>261</v>
       </c>
@@ -12030,7 +12165,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:31">
       <c r="A32" t="s">
         <v>262</v>
       </c>
@@ -12084,6 +12219,10 @@
         <v>191</v>
       </c>
       <c r="D35" s="39"/>
+      <c r="E35" s="39">
+        <v>191</v>
+      </c>
+      <c r="F35" s="39"/>
       <c r="Q35" s="39">
         <v>191</v>
       </c>
@@ -12091,6 +12230,18 @@
       <c r="S35" s="39">
         <v>191</v>
       </c>
+      <c r="Z35" s="39">
+        <v>191</v>
+      </c>
+      <c r="AA35" s="39">
+        <v>191</v>
+      </c>
+      <c r="AB35" s="39"/>
+      <c r="AC35" s="39"/>
+      <c r="AD35" s="39"/>
+      <c r="AE35" s="39">
+        <v>191</v>
+      </c>
     </row>
     <row r="36" spans="1:33">
       <c r="A36" t="s">
@@ -12103,6 +12254,10 @@
         <v>192</v>
       </c>
       <c r="D36" s="39"/>
+      <c r="E36" s="39">
+        <v>192</v>
+      </c>
+      <c r="F36" s="39"/>
       <c r="Q36" s="39">
         <v>192</v>
       </c>
@@ -12110,6 +12265,18 @@
       <c r="S36" s="39">
         <v>192</v>
       </c>
+      <c r="Z36" s="39">
+        <v>192</v>
+      </c>
+      <c r="AA36" s="39">
+        <v>192</v>
+      </c>
+      <c r="AB36" s="39"/>
+      <c r="AC36" s="39"/>
+      <c r="AD36" s="39"/>
+      <c r="AE36" s="39">
+        <v>192</v>
+      </c>
     </row>
     <row r="37" spans="1:33">
       <c r="A37" t="s">
@@ -12122,31 +12289,26 @@
         <v>193</v>
       </c>
       <c r="D37" s="39"/>
-      <c r="F37" s="39">
+      <c r="E37" s="52">
         <v>193</v>
       </c>
+      <c r="F37" s="52"/>
       <c r="Z37" s="52">
         <v>193</v>
       </c>
       <c r="AA37" s="52">
         <v>193</v>
       </c>
-      <c r="AB37" s="52">
-        <v>193</v>
-      </c>
-      <c r="AC37" s="52">
-        <v>193</v>
-      </c>
-      <c r="AD37" s="52">
-        <v>193</v>
-      </c>
+      <c r="AB37" s="52"/>
+      <c r="AC37" s="52"/>
+      <c r="AD37" s="52"/>
       <c r="AE37" s="52">
         <v>193</v>
       </c>
-      <c r="AF37" s="53">
+      <c r="AF37" s="39">
         <v>193</v>
       </c>
-      <c r="AG37" s="53">
+      <c r="AG37" s="39">
         <v>193</v>
       </c>
     </row>
@@ -12161,31 +12323,26 @@
         <v>194</v>
       </c>
       <c r="D38" s="39"/>
-      <c r="F38" s="39">
+      <c r="E38" s="52">
         <v>194</v>
       </c>
+      <c r="F38" s="52"/>
       <c r="Z38" s="52">
         <v>194</v>
       </c>
       <c r="AA38" s="52">
         <v>194</v>
       </c>
-      <c r="AB38" s="52">
-        <v>194</v>
-      </c>
-      <c r="AC38" s="52">
-        <v>194</v>
-      </c>
-      <c r="AD38" s="52">
-        <v>194</v>
-      </c>
+      <c r="AB38" s="52"/>
+      <c r="AC38" s="52"/>
+      <c r="AD38" s="52"/>
       <c r="AE38" s="52">
         <v>194</v>
       </c>
-      <c r="AF38" s="53">
+      <c r="AF38" s="39">
         <v>194</v>
       </c>
-      <c r="AG38" s="53">
+      <c r="AG38" s="39">
         <v>194</v>
       </c>
     </row>
@@ -12200,10 +12357,28 @@
         <v>205</v>
       </c>
       <c r="D39" s="39"/>
+      <c r="E39" s="39">
+        <v>205</v>
+      </c>
+      <c r="F39" s="39">
+        <v>205</v>
+      </c>
       <c r="V39" s="39">
         <v>205</v>
       </c>
       <c r="X39" s="39">
+        <v>205</v>
+      </c>
+      <c r="Z39" s="39">
+        <v>205</v>
+      </c>
+      <c r="AA39" s="39">
+        <v>205</v>
+      </c>
+      <c r="AC39" s="39">
+        <v>205</v>
+      </c>
+      <c r="AD39" s="39">
         <v>205</v>
       </c>
     </row>
@@ -12218,10 +12393,28 @@
         <v>206</v>
       </c>
       <c r="D40" s="39"/>
+      <c r="E40" s="39">
+        <v>206</v>
+      </c>
+      <c r="F40" s="39">
+        <v>206</v>
+      </c>
       <c r="V40" s="39">
         <v>206</v>
       </c>
       <c r="X40" s="39">
+        <v>206</v>
+      </c>
+      <c r="Z40" s="39">
+        <v>206</v>
+      </c>
+      <c r="AA40" s="39">
+        <v>206</v>
+      </c>
+      <c r="AC40" s="39">
+        <v>206</v>
+      </c>
+      <c r="AD40" s="39">
         <v>206</v>
       </c>
     </row>

--- a/tests/_dummy_data.xlsx
+++ b/tests/_dummy_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ali_m\AnacondaProjects\PhD\Semiology-Visualisation-Tool\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF14BD24-5191-4B15-A117-E0494A954F1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC8329A-8CA5-48DE-ADA8-491DC153AA2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="391">
   <si>
     <t xml:space="preserve">Semiology </t>
   </si>
@@ -1157,6 +1157,72 @@
   </si>
   <si>
     <t>tl</t>
+  </si>
+  <si>
+    <t>_mappings_TL</t>
+  </si>
+  <si>
+    <t>_mapiings_TL1</t>
+  </si>
+  <si>
+    <t>_mapiings_TL2</t>
+  </si>
+  <si>
+    <t>calibration visualisation</t>
+  </si>
+  <si>
+    <t>_mapiings_TL3</t>
+  </si>
+  <si>
+    <t>_mapiings_TL4</t>
+  </si>
+  <si>
+    <t>_mapiings_TL5</t>
+  </si>
+  <si>
+    <t>_mapiings_TL6</t>
+  </si>
+  <si>
+    <t>_mapiings_TL7</t>
+  </si>
+  <si>
+    <t>_mapiings_TL8</t>
+  </si>
+  <si>
+    <t>_mapiings_TL9</t>
+  </si>
+  <si>
+    <t>_mapiings_TL10</t>
+  </si>
+  <si>
+    <t>_mapiings_TL11</t>
+  </si>
+  <si>
+    <t>_mapiings_TL12</t>
+  </si>
+  <si>
+    <t>_mapiings_TL13</t>
+  </si>
+  <si>
+    <t>_mapiings_TL14</t>
+  </si>
+  <si>
+    <t>_mapiings_TL15</t>
+  </si>
+  <si>
+    <t>_mapiings_TL16</t>
+  </si>
+  <si>
+    <t>_mapiings_TL17</t>
+  </si>
+  <si>
+    <t>_mapiings_TL18</t>
+  </si>
+  <si>
+    <t>_mapiings_TL19</t>
+  </si>
+  <si>
+    <t>Marvasti mappings v 1.0.8</t>
   </si>
 </sst>
 </file>
@@ -1966,6 +2032,19 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2007,19 +2086,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2369,13 +2435,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DU52"/>
+  <dimension ref="A1:DU62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="M15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q35" sqref="Q35"/>
+      <selection pane="bottomRight" activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2467,106 +2533,106 @@
     <row r="1" spans="1:125" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="97"/>
       <c r="C1" s="16"/>
-      <c r="D1" s="109" t="s">
+      <c r="D1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="109"/>
-      <c r="G1" s="116" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="K1" s="118" t="s">
+      <c r="E1" s="114"/>
+      <c r="G1" s="121" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="K1" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="120"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
-      <c r="U1" s="110"/>
-      <c r="V1" s="110"/>
-      <c r="W1" s="110"/>
-      <c r="X1" s="110"/>
-      <c r="Y1" s="110"/>
-      <c r="Z1" s="110"/>
-      <c r="AA1" s="110"/>
-      <c r="AB1" s="110"/>
-      <c r="AC1" s="110"/>
-      <c r="AD1" s="110"/>
-      <c r="AE1" s="110"/>
-      <c r="AF1" s="110"/>
-      <c r="AG1" s="110"/>
-      <c r="AH1" s="110"/>
-      <c r="AI1" s="110"/>
-      <c r="AJ1" s="110"/>
-      <c r="AK1" s="110"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="125"/>
+      <c r="S1" s="115"/>
+      <c r="T1" s="115"/>
+      <c r="U1" s="115"/>
+      <c r="V1" s="115"/>
+      <c r="W1" s="115"/>
+      <c r="X1" s="115"/>
+      <c r="Y1" s="115"/>
+      <c r="Z1" s="115"/>
+      <c r="AA1" s="115"/>
+      <c r="AB1" s="115"/>
+      <c r="AC1" s="115"/>
+      <c r="AD1" s="115"/>
+      <c r="AE1" s="115"/>
+      <c r="AF1" s="115"/>
+      <c r="AG1" s="115"/>
+      <c r="AH1" s="115"/>
+      <c r="AI1" s="115"/>
+      <c r="AJ1" s="115"/>
+      <c r="AK1" s="115"/>
       <c r="AM1" s="96"/>
-      <c r="AN1" s="111" t="s">
+      <c r="AN1" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="AO1" s="110"/>
-      <c r="AP1" s="110"/>
-      <c r="AQ1" s="110"/>
-      <c r="AR1" s="110"/>
-      <c r="AS1" s="110"/>
-      <c r="AT1" s="110"/>
-      <c r="AU1" s="110"/>
-      <c r="AV1" s="110"/>
-      <c r="AW1" s="110"/>
-      <c r="AX1" s="110"/>
-      <c r="AY1" s="110"/>
-      <c r="AZ1" s="110"/>
-      <c r="BA1" s="110"/>
-      <c r="BB1" s="110"/>
-      <c r="BC1" s="110"/>
-      <c r="BD1" s="110"/>
-      <c r="BE1" s="110"/>
-      <c r="BF1" s="110"/>
-      <c r="BG1" s="110"/>
-      <c r="BH1" s="110"/>
-      <c r="BI1" s="110"/>
-      <c r="BJ1" s="110"/>
-      <c r="BK1" s="110"/>
-      <c r="BL1" s="110"/>
-      <c r="BM1" s="110"/>
-      <c r="BN1" s="110"/>
-      <c r="BO1" s="110"/>
-      <c r="BP1" s="110"/>
-      <c r="BR1" s="113"/>
-      <c r="BS1" s="114"/>
-      <c r="BT1" s="114"/>
-      <c r="BU1" s="114"/>
-      <c r="BV1" s="114"/>
-      <c r="BW1" s="115"/>
+      <c r="AO1" s="115"/>
+      <c r="AP1" s="115"/>
+      <c r="AQ1" s="115"/>
+      <c r="AR1" s="115"/>
+      <c r="AS1" s="115"/>
+      <c r="AT1" s="115"/>
+      <c r="AU1" s="115"/>
+      <c r="AV1" s="115"/>
+      <c r="AW1" s="115"/>
+      <c r="AX1" s="115"/>
+      <c r="AY1" s="115"/>
+      <c r="AZ1" s="115"/>
+      <c r="BA1" s="115"/>
+      <c r="BB1" s="115"/>
+      <c r="BC1" s="115"/>
+      <c r="BD1" s="115"/>
+      <c r="BE1" s="115"/>
+      <c r="BF1" s="115"/>
+      <c r="BG1" s="115"/>
+      <c r="BH1" s="115"/>
+      <c r="BI1" s="115"/>
+      <c r="BJ1" s="115"/>
+      <c r="BK1" s="115"/>
+      <c r="BL1" s="115"/>
+      <c r="BM1" s="115"/>
+      <c r="BN1" s="115"/>
+      <c r="BO1" s="115"/>
+      <c r="BP1" s="115"/>
+      <c r="BR1" s="118"/>
+      <c r="BS1" s="119"/>
+      <c r="BT1" s="119"/>
+      <c r="BU1" s="119"/>
+      <c r="BV1" s="119"/>
+      <c r="BW1" s="120"/>
       <c r="BX1" s="99"/>
-      <c r="BZ1" s="110"/>
-      <c r="CA1" s="110"/>
-      <c r="CB1" s="110"/>
-      <c r="CC1" s="110"/>
-      <c r="CD1" s="110"/>
-      <c r="CE1" s="110"/>
-      <c r="CF1" s="110"/>
-      <c r="CG1" s="112"/>
-      <c r="CH1" s="111" t="s">
+      <c r="BZ1" s="115"/>
+      <c r="CA1" s="115"/>
+      <c r="CB1" s="115"/>
+      <c r="CC1" s="115"/>
+      <c r="CD1" s="115"/>
+      <c r="CE1" s="115"/>
+      <c r="CF1" s="115"/>
+      <c r="CG1" s="117"/>
+      <c r="CH1" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="CI1" s="110"/>
-      <c r="CJ1" s="110"/>
-      <c r="CK1" s="110"/>
-      <c r="CL1" s="110"/>
-      <c r="CM1" s="112"/>
+      <c r="CI1" s="115"/>
+      <c r="CJ1" s="115"/>
+      <c r="CK1" s="115"/>
+      <c r="CL1" s="115"/>
+      <c r="CM1" s="117"/>
       <c r="CO1" s="64"/>
-      <c r="CP1" s="110" t="s">
+      <c r="CP1" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="CQ1" s="110"/>
-      <c r="CR1" s="110"/>
-      <c r="CS1" s="110"/>
-      <c r="CT1" s="110"/>
-      <c r="CU1" s="110"/>
-      <c r="CV1" s="110"/>
+      <c r="CQ1" s="115"/>
+      <c r="CR1" s="115"/>
+      <c r="CS1" s="115"/>
+      <c r="CT1" s="115"/>
+      <c r="CU1" s="115"/>
+      <c r="CV1" s="115"/>
       <c r="CX1" s="92"/>
       <c r="CY1" s="92"/>
       <c r="CZ1" s="92"/>
@@ -4371,14 +4437,26 @@
       <c r="DT42" s="33"/>
       <c r="DU42" s="33"/>
     </row>
-    <row r="43" spans="1:125">
-      <c r="A43" s="32"/>
+    <row r="43" spans="1:125" ht="30">
+      <c r="A43" s="32" t="s">
+        <v>390</v>
+      </c>
       <c r="B43" s="32"/>
       <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="G43" s="32"/>
+      <c r="D43" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="F43" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="G43" s="32" t="s">
+        <v>116</v>
+      </c>
       <c r="H43" s="32"/>
       <c r="I43" s="32"/>
+      <c r="R43" s="5">
+        <v>1</v>
+      </c>
       <c r="DP43" s="33"/>
       <c r="DQ43" s="33"/>
       <c r="DR43" s="33"/>
@@ -4386,14 +4464,24 @@
       <c r="DT43" s="33"/>
       <c r="DU43" s="33"/>
     </row>
-    <row r="44" spans="1:125">
+    <row r="44" spans="1:125" ht="30">
       <c r="A44" s="32"/>
       <c r="B44" s="32"/>
       <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="G44" s="32"/>
+      <c r="D44" s="32" t="s">
+        <v>370</v>
+      </c>
+      <c r="F44" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="G44" s="32" t="s">
+        <v>116</v>
+      </c>
       <c r="H44" s="32"/>
       <c r="I44" s="32"/>
+      <c r="S44" s="5">
+        <v>1</v>
+      </c>
       <c r="DP44" s="33"/>
       <c r="DQ44" s="33"/>
       <c r="DR44" s="33"/>
@@ -4401,14 +4489,24 @@
       <c r="DT44" s="33"/>
       <c r="DU44" s="33"/>
     </row>
-    <row r="45" spans="1:125">
+    <row r="45" spans="1:125" ht="30">
       <c r="A45" s="32"/>
       <c r="B45" s="32"/>
       <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="G45" s="32"/>
+      <c r="D45" s="32" t="s">
+        <v>371</v>
+      </c>
+      <c r="F45" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="G45" s="32" t="s">
+        <v>116</v>
+      </c>
       <c r="H45" s="32"/>
       <c r="I45" s="32"/>
+      <c r="T45" s="5">
+        <v>1</v>
+      </c>
       <c r="DP45" s="33"/>
       <c r="DQ45" s="33"/>
       <c r="DR45" s="33"/>
@@ -4416,14 +4514,24 @@
       <c r="DT45" s="33"/>
       <c r="DU45" s="33"/>
     </row>
-    <row r="46" spans="1:125">
+    <row r="46" spans="1:125" ht="30">
       <c r="A46" s="32"/>
       <c r="B46" s="32"/>
       <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
-      <c r="G46" s="32"/>
+      <c r="D46" s="32" t="s">
+        <v>373</v>
+      </c>
+      <c r="F46" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="G46" s="32" t="s">
+        <v>116</v>
+      </c>
       <c r="H46" s="32"/>
       <c r="I46" s="32"/>
+      <c r="U46" s="5">
+        <v>1</v>
+      </c>
       <c r="DP46" s="33"/>
       <c r="DQ46" s="33"/>
       <c r="DR46" s="33"/>
@@ -4431,14 +4539,24 @@
       <c r="DT46" s="33"/>
       <c r="DU46" s="33"/>
     </row>
-    <row r="47" spans="1:125">
+    <row r="47" spans="1:125" ht="30">
       <c r="A47" s="32"/>
       <c r="B47" s="32"/>
       <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-      <c r="G47" s="32"/>
+      <c r="D47" s="32" t="s">
+        <v>374</v>
+      </c>
+      <c r="F47" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="G47" s="32" t="s">
+        <v>116</v>
+      </c>
       <c r="H47" s="32"/>
       <c r="I47" s="32"/>
+      <c r="V47" s="5">
+        <v>1</v>
+      </c>
       <c r="DP47" s="33"/>
       <c r="DQ47" s="33"/>
       <c r="DR47" s="33"/>
@@ -4446,14 +4564,24 @@
       <c r="DT47" s="33"/>
       <c r="DU47" s="33"/>
     </row>
-    <row r="48" spans="1:125">
+    <row r="48" spans="1:125" ht="30">
       <c r="A48" s="32"/>
       <c r="B48" s="32"/>
       <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
-      <c r="G48" s="32"/>
+      <c r="D48" s="32" t="s">
+        <v>375</v>
+      </c>
+      <c r="F48" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="G48" s="32" t="s">
+        <v>116</v>
+      </c>
       <c r="H48" s="32"/>
       <c r="I48" s="32"/>
+      <c r="W48" s="5">
+        <v>1</v>
+      </c>
       <c r="DP48" s="33"/>
       <c r="DQ48" s="33"/>
       <c r="DR48" s="33"/>
@@ -4461,14 +4589,24 @@
       <c r="DT48" s="33"/>
       <c r="DU48" s="33"/>
     </row>
-    <row r="49" spans="1:125">
+    <row r="49" spans="1:125" ht="30">
       <c r="A49" s="34"/>
       <c r="B49" s="32"/>
       <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
-      <c r="G49" s="32"/>
+      <c r="D49" s="32" t="s">
+        <v>376</v>
+      </c>
+      <c r="F49" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="G49" s="32" t="s">
+        <v>116</v>
+      </c>
       <c r="H49" s="32"/>
       <c r="I49" s="32"/>
+      <c r="X49" s="5">
+        <v>1</v>
+      </c>
       <c r="DP49" s="33"/>
       <c r="DQ49" s="33"/>
       <c r="DR49" s="33"/>
@@ -4476,14 +4614,24 @@
       <c r="DT49" s="33"/>
       <c r="DU49" s="33"/>
     </row>
-    <row r="50" spans="1:125">
+    <row r="50" spans="1:125" ht="30">
       <c r="A50" s="32"/>
       <c r="B50" s="32"/>
       <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
-      <c r="G50" s="32"/>
+      <c r="D50" s="32" t="s">
+        <v>377</v>
+      </c>
+      <c r="F50" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="G50" s="32" t="s">
+        <v>116</v>
+      </c>
       <c r="H50" s="32"/>
       <c r="I50" s="32"/>
+      <c r="Y50" s="5">
+        <v>1</v>
+      </c>
       <c r="DP50" s="33"/>
       <c r="DQ50" s="33"/>
       <c r="DR50" s="33"/>
@@ -4491,14 +4639,24 @@
       <c r="DT50" s="33"/>
       <c r="DU50" s="33"/>
     </row>
-    <row r="51" spans="1:125">
+    <row r="51" spans="1:125" ht="30">
       <c r="A51" s="32"/>
       <c r="B51" s="32"/>
       <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
-      <c r="G51" s="32"/>
+      <c r="D51" s="32" t="s">
+        <v>378</v>
+      </c>
+      <c r="F51" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="G51" s="32" t="s">
+        <v>116</v>
+      </c>
       <c r="H51" s="32"/>
       <c r="I51" s="32"/>
+      <c r="Z51" s="5">
+        <v>1</v>
+      </c>
       <c r="DP51" s="33"/>
       <c r="DQ51" s="33"/>
       <c r="DR51" s="33"/>
@@ -4506,20 +4664,170 @@
       <c r="DT51" s="33"/>
       <c r="DU51" s="33"/>
     </row>
-    <row r="52" spans="1:125">
+    <row r="52" spans="1:125" ht="30">
       <c r="A52" s="32"/>
       <c r="B52" s="32"/>
       <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
-      <c r="G52" s="32"/>
+      <c r="D52" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F52" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="G52" s="32" t="s">
+        <v>116</v>
+      </c>
       <c r="H52" s="32"/>
       <c r="I52" s="32"/>
+      <c r="AA52" s="5">
+        <v>1</v>
+      </c>
       <c r="DP52" s="33"/>
       <c r="DQ52" s="33"/>
       <c r="DR52" s="33"/>
       <c r="DS52" s="33"/>
       <c r="DT52" s="33"/>
       <c r="DU52" s="33"/>
+    </row>
+    <row r="53" spans="1:125" ht="30">
+      <c r="D53" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="F53" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="G53" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB53" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:125" ht="30">
+      <c r="D54" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="F54" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="G54" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC54" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:125" ht="30">
+      <c r="D55" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="F55" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="G55" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD55" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:125" ht="30">
+      <c r="D56" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="F56" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="G56" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE56" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:125" ht="30">
+      <c r="D57" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="F57" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="G57" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF57" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:125" ht="30">
+      <c r="D58" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F58" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="G58" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG58" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:125" ht="30">
+      <c r="D59" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="F59" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="G59" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH59" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:125" ht="30">
+      <c r="D60" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="F60" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="G60" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI60" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:125" ht="30">
+      <c r="D61" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="F61" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="G61" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ61" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:125" ht="30">
+      <c r="D62" s="32" t="s">
+        <v>389</v>
+      </c>
+      <c r="F62" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="G62" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK62" s="5">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -4891,12 +5199,12 @@
     <row r="1" spans="1:11">
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="121" t="s">
+      <c r="E1" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
     </row>
     <row r="2" spans="1:11" ht="45">
       <c r="C2" s="73" t="s">
@@ -4962,10 +5270,10 @@
       <c r="C5" s="39">
         <v>115</v>
       </c>
-      <c r="D5" s="126">
+      <c r="D5" s="112">
         <v>115</v>
       </c>
-      <c r="E5" s="126">
+      <c r="E5" s="112">
         <v>115</v>
       </c>
       <c r="F5" s="50"/>
@@ -4983,10 +5291,10 @@
       <c r="C6" s="39">
         <v>116</v>
       </c>
-      <c r="D6" s="126">
+      <c r="D6" s="112">
         <v>116</v>
       </c>
-      <c r="E6" s="126">
+      <c r="E6" s="112">
         <v>116</v>
       </c>
       <c r="F6" s="50"/>
@@ -5048,7 +5356,7 @@
       <c r="E9" s="39">
         <v>135</v>
       </c>
-      <c r="F9" s="126">
+      <c r="F9" s="112">
         <v>135</v>
       </c>
       <c r="G9" s="50"/>
@@ -5069,7 +5377,7 @@
       <c r="E10" s="39">
         <v>136</v>
       </c>
-      <c r="F10" s="126">
+      <c r="F10" s="112">
         <v>136</v>
       </c>
       <c r="G10" s="50"/>
@@ -5087,7 +5395,7 @@
         <v>145</v>
       </c>
       <c r="D11" s="50"/>
-      <c r="E11" s="126"/>
+      <c r="E11" s="112"/>
       <c r="F11" s="50"/>
       <c r="G11" s="50"/>
       <c r="H11" s="50"/>
@@ -5107,7 +5415,7 @@
         <v>146</v>
       </c>
       <c r="D12" s="50"/>
-      <c r="E12" s="126"/>
+      <c r="E12" s="112"/>
       <c r="F12" s="82"/>
       <c r="G12" s="82"/>
       <c r="H12" s="82"/>
@@ -5130,7 +5438,7 @@
       <c r="E13" s="82"/>
       <c r="F13" s="82"/>
       <c r="G13" s="82"/>
-      <c r="H13" s="126">
+      <c r="H13" s="112">
         <v>157</v>
       </c>
       <c r="I13" s="82"/>
@@ -5149,7 +5457,7 @@
       <c r="E14" s="82"/>
       <c r="F14" s="82"/>
       <c r="G14" s="82"/>
-      <c r="H14" s="126">
+      <c r="H14" s="112">
         <v>158</v>
       </c>
       <c r="I14" s="82"/>
@@ -5164,7 +5472,7 @@
       <c r="C15" s="39">
         <v>197</v>
       </c>
-      <c r="I15" s="126">
+      <c r="I15" s="112">
         <v>197</v>
       </c>
     </row>
@@ -5178,7 +5486,7 @@
       <c r="C16" s="39">
         <v>198</v>
       </c>
-      <c r="I16" s="126">
+      <c r="I16" s="112">
         <v>198</v>
       </c>
     </row>
@@ -5217,11 +5525,11 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="C1" s="2"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="112"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="117"/>
       <c r="I1" s="98"/>
       <c r="J1" s="85"/>
     </row>
@@ -5334,7 +5642,7 @@
       <c r="H7" s="39">
         <v>167</v>
       </c>
-      <c r="I7" s="123">
+      <c r="I7" s="109">
         <v>167</v>
       </c>
     </row>
@@ -5351,7 +5659,7 @@
       <c r="H8" s="39">
         <v>168</v>
       </c>
-      <c r="I8" s="123">
+      <c r="I8" s="109">
         <v>168</v>
       </c>
     </row>
@@ -5408,15 +5716,15 @@
     <row r="1" spans="1:11" ht="26.25">
       <c r="C1" s="2"/>
       <c r="D1" s="64"/>
-      <c r="E1" s="122" t="s">
+      <c r="E1" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
     </row>
     <row r="2" spans="1:11" ht="30">
       <c r="C2" s="74" t="s">
@@ -5474,7 +5782,7 @@
       </c>
       <c r="I3" s="51"/>
       <c r="J3" s="51"/>
-      <c r="K3" s="123">
+      <c r="K3" s="109">
         <v>103</v>
       </c>
     </row>
@@ -5505,7 +5813,7 @@
       </c>
       <c r="I4" s="51"/>
       <c r="J4" s="51"/>
-      <c r="K4" s="123">
+      <c r="K4" s="109">
         <v>104</v>
       </c>
     </row>
@@ -5519,11 +5827,11 @@
       <c r="C5" s="39">
         <v>173</v>
       </c>
-      <c r="H5" s="127"/>
-      <c r="I5" s="123">
+      <c r="H5" s="113"/>
+      <c r="I5" s="109">
         <v>173</v>
       </c>
-      <c r="J5" s="123">
+      <c r="J5" s="109">
         <v>173</v>
       </c>
       <c r="K5" s="51"/>
@@ -5538,11 +5846,11 @@
       <c r="C6" s="39">
         <v>174</v>
       </c>
-      <c r="H6" s="127"/>
-      <c r="I6" s="123">
+      <c r="H6" s="113"/>
+      <c r="I6" s="109">
         <v>174</v>
       </c>
-      <c r="J6" s="123">
+      <c r="J6" s="109">
         <v>174</v>
       </c>
       <c r="K6" s="51"/>
@@ -10445,24 +10753,24 @@
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1">
       <c r="D1" s="72"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
-      <c r="U1" s="110"/>
-      <c r="V1" s="110"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="115"/>
+      <c r="P1" s="115"/>
+      <c r="Q1" s="115"/>
+      <c r="R1" s="115"/>
+      <c r="S1" s="115"/>
+      <c r="T1" s="115"/>
+      <c r="U1" s="115"/>
+      <c r="V1" s="115"/>
     </row>
     <row r="2" spans="1:23" ht="96" customHeight="1">
       <c r="A2" s="42"/>
@@ -10542,10 +10850,10 @@
       <c r="M3" s="39">
         <v>32</v>
       </c>
-      <c r="N3" s="123">
+      <c r="N3" s="109">
         <v>32</v>
       </c>
-      <c r="O3" s="123"/>
+      <c r="O3" s="109"/>
       <c r="R3" s="39">
         <v>32</v>
       </c>
@@ -10564,10 +10872,10 @@
       <c r="M4" s="39">
         <v>33</v>
       </c>
-      <c r="N4" s="123">
+      <c r="N4" s="109">
         <v>33</v>
       </c>
-      <c r="O4" s="123"/>
+      <c r="O4" s="109"/>
       <c r="R4" s="39">
         <v>33</v>
       </c>
@@ -10586,8 +10894,8 @@
       <c r="M5" s="39">
         <v>48</v>
       </c>
-      <c r="N5" s="123"/>
-      <c r="O5" s="123">
+      <c r="N5" s="109"/>
+      <c r="O5" s="109">
         <v>48</v>
       </c>
       <c r="T5" s="39">
@@ -10608,8 +10916,8 @@
       <c r="M6" s="39">
         <v>49</v>
       </c>
-      <c r="N6" s="123"/>
-      <c r="O6" s="123">
+      <c r="N6" s="109"/>
+      <c r="O6" s="109">
         <v>49</v>
       </c>
       <c r="T6" s="39">
@@ -10630,10 +10938,10 @@
       <c r="M7" s="39">
         <v>117</v>
       </c>
-      <c r="N7" s="123">
+      <c r="N7" s="109">
         <v>117</v>
       </c>
-      <c r="O7" s="123"/>
+      <c r="O7" s="109"/>
       <c r="P7" s="39">
         <v>117</v>
       </c>
@@ -10652,10 +10960,10 @@
       <c r="M8" s="39">
         <v>118</v>
       </c>
-      <c r="N8" s="123">
+      <c r="N8" s="109">
         <v>118</v>
       </c>
-      <c r="O8" s="123"/>
+      <c r="O8" s="109"/>
       <c r="P8" s="39">
         <v>118</v>
       </c>
@@ -10671,7 +10979,7 @@
       <c r="D9" s="39">
         <v>123</v>
       </c>
-      <c r="N9" s="123"/>
+      <c r="N9" s="109"/>
       <c r="O9" s="39">
         <v>123</v>
       </c>
@@ -10698,7 +11006,7 @@
       <c r="D10" s="39">
         <v>124</v>
       </c>
-      <c r="N10" s="123"/>
+      <c r="N10" s="109"/>
       <c r="O10" s="39">
         <v>124</v>
       </c>
@@ -10731,8 +11039,8 @@
       <c r="L11" s="39">
         <v>133</v>
       </c>
-      <c r="N11" s="123"/>
-      <c r="O11" s="123"/>
+      <c r="N11" s="109"/>
+      <c r="O11" s="109"/>
       <c r="U11" s="39">
         <v>133</v>
       </c>
@@ -10756,8 +11064,8 @@
       <c r="L12" s="39">
         <v>134</v>
       </c>
-      <c r="N12" s="123"/>
-      <c r="O12" s="123"/>
+      <c r="N12" s="109"/>
+      <c r="O12" s="109"/>
       <c r="U12" s="39">
         <v>134</v>
       </c>
@@ -10781,8 +11089,8 @@
       <c r="K13" s="39">
         <v>155</v>
       </c>
-      <c r="N13" s="123"/>
-      <c r="O13" s="123"/>
+      <c r="N13" s="109"/>
+      <c r="O13" s="109"/>
       <c r="U13" s="39">
         <v>155</v>
       </c>
@@ -10803,8 +11111,8 @@
       <c r="K14" s="39">
         <v>156</v>
       </c>
-      <c r="N14" s="123"/>
-      <c r="O14" s="123"/>
+      <c r="N14" s="109"/>
+      <c r="O14" s="109"/>
       <c r="U14" s="39">
         <v>156</v>
       </c>
@@ -10822,8 +11130,8 @@
       <c r="M15" s="39">
         <v>171</v>
       </c>
-      <c r="N15" s="123"/>
-      <c r="O15" s="123">
+      <c r="N15" s="109"/>
+      <c r="O15" s="109">
         <v>171</v>
       </c>
       <c r="S15" s="39">
@@ -10847,8 +11155,8 @@
       <c r="M16" s="39">
         <v>172</v>
       </c>
-      <c r="N16" s="123"/>
-      <c r="O16" s="123">
+      <c r="N16" s="109"/>
+      <c r="O16" s="109">
         <v>172</v>
       </c>
       <c r="S16" s="39">
@@ -10878,8 +11186,8 @@
       <c r="J17" s="39">
         <v>181</v>
       </c>
-      <c r="N17" s="123"/>
-      <c r="O17" s="123"/>
+      <c r="N17" s="109"/>
+      <c r="O17" s="109"/>
     </row>
     <row r="18" spans="1:24">
       <c r="A18" t="s">
@@ -10900,8 +11208,8 @@
       <c r="J18" s="39">
         <v>182</v>
       </c>
-      <c r="N18" s="123"/>
-      <c r="O18" s="123"/>
+      <c r="N18" s="109"/>
+      <c r="O18" s="109"/>
     </row>
     <row r="19" spans="1:24">
       <c r="A19" t="s">
@@ -10922,8 +11230,8 @@
       <c r="I19" s="39">
         <v>185</v>
       </c>
-      <c r="N19" s="123"/>
-      <c r="O19" s="123"/>
+      <c r="N19" s="109"/>
+      <c r="O19" s="109"/>
       <c r="U19" s="39">
         <v>185</v>
       </c>
@@ -11060,44 +11368,44 @@
       </c>
     </row>
     <row r="27" spans="1:24">
-      <c r="A27" s="124" t="s">
+      <c r="A27" s="110" t="s">
         <v>239</v>
       </c>
-      <c r="B27" s="125">
+      <c r="B27" s="111">
         <v>161</v>
       </c>
-      <c r="C27" s="124"/>
-      <c r="D27" s="125">
+      <c r="C27" s="110"/>
+      <c r="D27" s="111">
         <v>161</v>
       </c>
-      <c r="Q27" s="125">
+      <c r="Q27" s="111">
         <v>161</v>
       </c>
-      <c r="V27" s="125">
+      <c r="V27" s="111">
         <v>161</v>
       </c>
-      <c r="W27" s="125">
+      <c r="W27" s="111">
         <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:24">
-      <c r="A28" s="124" t="s">
+      <c r="A28" s="110" t="s">
         <v>240</v>
       </c>
-      <c r="B28" s="125">
+      <c r="B28" s="111">
         <v>162</v>
       </c>
-      <c r="C28" s="124"/>
-      <c r="D28" s="125">
+      <c r="C28" s="110"/>
+      <c r="D28" s="111">
         <v>162</v>
       </c>
-      <c r="Q28" s="125">
+      <c r="Q28" s="111">
         <v>162</v>
       </c>
-      <c r="V28" s="125">
+      <c r="V28" s="111">
         <v>162</v>
       </c>
-      <c r="W28" s="125">
+      <c r="W28" s="111">
         <v>162</v>
       </c>
     </row>
@@ -11446,37 +11754,37 @@
     <row r="1" spans="1:33" ht="15" customHeight="1">
       <c r="A1" s="42"/>
       <c r="B1" s="43"/>
-      <c r="E1" s="111" t="s">
+      <c r="E1" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
-      <c r="U1" s="110"/>
-      <c r="V1" s="110"/>
-      <c r="W1" s="110"/>
-      <c r="X1" s="110"/>
-      <c r="Y1" s="110"/>
-      <c r="Z1" s="110"/>
-      <c r="AA1" s="110"/>
-      <c r="AB1" s="110"/>
-      <c r="AC1" s="110"/>
-      <c r="AD1" s="110"/>
-      <c r="AE1" s="110"/>
-      <c r="AF1" s="110"/>
-      <c r="AG1" s="110"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="115"/>
+      <c r="P1" s="115"/>
+      <c r="Q1" s="115"/>
+      <c r="R1" s="115"/>
+      <c r="S1" s="115"/>
+      <c r="T1" s="115"/>
+      <c r="U1" s="115"/>
+      <c r="V1" s="115"/>
+      <c r="W1" s="115"/>
+      <c r="X1" s="115"/>
+      <c r="Y1" s="115"/>
+      <c r="Z1" s="115"/>
+      <c r="AA1" s="115"/>
+      <c r="AB1" s="115"/>
+      <c r="AC1" s="115"/>
+      <c r="AD1" s="115"/>
+      <c r="AE1" s="115"/>
+      <c r="AF1" s="115"/>
+      <c r="AG1" s="115"/>
     </row>
     <row r="2" spans="1:33" ht="144" customHeight="1">
       <c r="C2" s="72" t="s">

--- a/tests/_dummy_data.xlsx
+++ b/tests/_dummy_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ali_m\AnacondaProjects\PhD\Semiology-Visualisation-Tool\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC8329A-8CA5-48DE-ADA8-491DC153AA2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF14BD24-5191-4B15-A117-E0494A954F1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="369">
   <si>
     <t xml:space="preserve">Semiology </t>
   </si>
@@ -1157,72 +1157,6 @@
   </si>
   <si>
     <t>tl</t>
-  </si>
-  <si>
-    <t>_mappings_TL</t>
-  </si>
-  <si>
-    <t>_mapiings_TL1</t>
-  </si>
-  <si>
-    <t>_mapiings_TL2</t>
-  </si>
-  <si>
-    <t>calibration visualisation</t>
-  </si>
-  <si>
-    <t>_mapiings_TL3</t>
-  </si>
-  <si>
-    <t>_mapiings_TL4</t>
-  </si>
-  <si>
-    <t>_mapiings_TL5</t>
-  </si>
-  <si>
-    <t>_mapiings_TL6</t>
-  </si>
-  <si>
-    <t>_mapiings_TL7</t>
-  </si>
-  <si>
-    <t>_mapiings_TL8</t>
-  </si>
-  <si>
-    <t>_mapiings_TL9</t>
-  </si>
-  <si>
-    <t>_mapiings_TL10</t>
-  </si>
-  <si>
-    <t>_mapiings_TL11</t>
-  </si>
-  <si>
-    <t>_mapiings_TL12</t>
-  </si>
-  <si>
-    <t>_mapiings_TL13</t>
-  </si>
-  <si>
-    <t>_mapiings_TL14</t>
-  </si>
-  <si>
-    <t>_mapiings_TL15</t>
-  </si>
-  <si>
-    <t>_mapiings_TL16</t>
-  </si>
-  <si>
-    <t>_mapiings_TL17</t>
-  </si>
-  <si>
-    <t>_mapiings_TL18</t>
-  </si>
-  <si>
-    <t>_mapiings_TL19</t>
-  </si>
-  <si>
-    <t>Marvasti mappings v 1.0.8</t>
   </si>
 </sst>
 </file>
@@ -2032,19 +1966,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2086,6 +2007,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2435,13 +2369,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DU62"/>
+  <dimension ref="A1:DU52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="M15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A46" sqref="A46"/>
+      <selection pane="bottomRight" activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2533,106 +2467,106 @@
     <row r="1" spans="1:125" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="97"/>
       <c r="C1" s="16"/>
-      <c r="D1" s="114" t="s">
+      <c r="D1" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="114"/>
-      <c r="G1" s="121" t="s">
+      <c r="E1" s="109"/>
+      <c r="G1" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="K1" s="123" t="s">
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="K1" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="125"/>
-      <c r="S1" s="115"/>
-      <c r="T1" s="115"/>
-      <c r="U1" s="115"/>
-      <c r="V1" s="115"/>
-      <c r="W1" s="115"/>
-      <c r="X1" s="115"/>
-      <c r="Y1" s="115"/>
-      <c r="Z1" s="115"/>
-      <c r="AA1" s="115"/>
-      <c r="AB1" s="115"/>
-      <c r="AC1" s="115"/>
-      <c r="AD1" s="115"/>
-      <c r="AE1" s="115"/>
-      <c r="AF1" s="115"/>
-      <c r="AG1" s="115"/>
-      <c r="AH1" s="115"/>
-      <c r="AI1" s="115"/>
-      <c r="AJ1" s="115"/>
-      <c r="AK1" s="115"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="120"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
+      <c r="U1" s="110"/>
+      <c r="V1" s="110"/>
+      <c r="W1" s="110"/>
+      <c r="X1" s="110"/>
+      <c r="Y1" s="110"/>
+      <c r="Z1" s="110"/>
+      <c r="AA1" s="110"/>
+      <c r="AB1" s="110"/>
+      <c r="AC1" s="110"/>
+      <c r="AD1" s="110"/>
+      <c r="AE1" s="110"/>
+      <c r="AF1" s="110"/>
+      <c r="AG1" s="110"/>
+      <c r="AH1" s="110"/>
+      <c r="AI1" s="110"/>
+      <c r="AJ1" s="110"/>
+      <c r="AK1" s="110"/>
       <c r="AM1" s="96"/>
-      <c r="AN1" s="116" t="s">
+      <c r="AN1" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="AO1" s="115"/>
-      <c r="AP1" s="115"/>
-      <c r="AQ1" s="115"/>
-      <c r="AR1" s="115"/>
-      <c r="AS1" s="115"/>
-      <c r="AT1" s="115"/>
-      <c r="AU1" s="115"/>
-      <c r="AV1" s="115"/>
-      <c r="AW1" s="115"/>
-      <c r="AX1" s="115"/>
-      <c r="AY1" s="115"/>
-      <c r="AZ1" s="115"/>
-      <c r="BA1" s="115"/>
-      <c r="BB1" s="115"/>
-      <c r="BC1" s="115"/>
-      <c r="BD1" s="115"/>
-      <c r="BE1" s="115"/>
-      <c r="BF1" s="115"/>
-      <c r="BG1" s="115"/>
-      <c r="BH1" s="115"/>
-      <c r="BI1" s="115"/>
-      <c r="BJ1" s="115"/>
-      <c r="BK1" s="115"/>
-      <c r="BL1" s="115"/>
-      <c r="BM1" s="115"/>
-      <c r="BN1" s="115"/>
-      <c r="BO1" s="115"/>
-      <c r="BP1" s="115"/>
-      <c r="BR1" s="118"/>
-      <c r="BS1" s="119"/>
-      <c r="BT1" s="119"/>
-      <c r="BU1" s="119"/>
-      <c r="BV1" s="119"/>
-      <c r="BW1" s="120"/>
+      <c r="AO1" s="110"/>
+      <c r="AP1" s="110"/>
+      <c r="AQ1" s="110"/>
+      <c r="AR1" s="110"/>
+      <c r="AS1" s="110"/>
+      <c r="AT1" s="110"/>
+      <c r="AU1" s="110"/>
+      <c r="AV1" s="110"/>
+      <c r="AW1" s="110"/>
+      <c r="AX1" s="110"/>
+      <c r="AY1" s="110"/>
+      <c r="AZ1" s="110"/>
+      <c r="BA1" s="110"/>
+      <c r="BB1" s="110"/>
+      <c r="BC1" s="110"/>
+      <c r="BD1" s="110"/>
+      <c r="BE1" s="110"/>
+      <c r="BF1" s="110"/>
+      <c r="BG1" s="110"/>
+      <c r="BH1" s="110"/>
+      <c r="BI1" s="110"/>
+      <c r="BJ1" s="110"/>
+      <c r="BK1" s="110"/>
+      <c r="BL1" s="110"/>
+      <c r="BM1" s="110"/>
+      <c r="BN1" s="110"/>
+      <c r="BO1" s="110"/>
+      <c r="BP1" s="110"/>
+      <c r="BR1" s="113"/>
+      <c r="BS1" s="114"/>
+      <c r="BT1" s="114"/>
+      <c r="BU1" s="114"/>
+      <c r="BV1" s="114"/>
+      <c r="BW1" s="115"/>
       <c r="BX1" s="99"/>
-      <c r="BZ1" s="115"/>
-      <c r="CA1" s="115"/>
-      <c r="CB1" s="115"/>
-      <c r="CC1" s="115"/>
-      <c r="CD1" s="115"/>
-      <c r="CE1" s="115"/>
-      <c r="CF1" s="115"/>
-      <c r="CG1" s="117"/>
-      <c r="CH1" s="116" t="s">
+      <c r="BZ1" s="110"/>
+      <c r="CA1" s="110"/>
+      <c r="CB1" s="110"/>
+      <c r="CC1" s="110"/>
+      <c r="CD1" s="110"/>
+      <c r="CE1" s="110"/>
+      <c r="CF1" s="110"/>
+      <c r="CG1" s="112"/>
+      <c r="CH1" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="CI1" s="115"/>
-      <c r="CJ1" s="115"/>
-      <c r="CK1" s="115"/>
-      <c r="CL1" s="115"/>
-      <c r="CM1" s="117"/>
+      <c r="CI1" s="110"/>
+      <c r="CJ1" s="110"/>
+      <c r="CK1" s="110"/>
+      <c r="CL1" s="110"/>
+      <c r="CM1" s="112"/>
       <c r="CO1" s="64"/>
-      <c r="CP1" s="115" t="s">
+      <c r="CP1" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="CQ1" s="115"/>
-      <c r="CR1" s="115"/>
-      <c r="CS1" s="115"/>
-      <c r="CT1" s="115"/>
-      <c r="CU1" s="115"/>
-      <c r="CV1" s="115"/>
+      <c r="CQ1" s="110"/>
+      <c r="CR1" s="110"/>
+      <c r="CS1" s="110"/>
+      <c r="CT1" s="110"/>
+      <c r="CU1" s="110"/>
+      <c r="CV1" s="110"/>
       <c r="CX1" s="92"/>
       <c r="CY1" s="92"/>
       <c r="CZ1" s="92"/>
@@ -4437,26 +4371,14 @@
       <c r="DT42" s="33"/>
       <c r="DU42" s="33"/>
     </row>
-    <row r="43" spans="1:125" ht="30">
-      <c r="A43" s="32" t="s">
-        <v>390</v>
-      </c>
+    <row r="43" spans="1:125">
+      <c r="A43" s="32"/>
       <c r="B43" s="32"/>
       <c r="C43" s="32"/>
-      <c r="D43" s="32" t="s">
-        <v>369</v>
-      </c>
-      <c r="F43" s="32" t="s">
-        <v>372</v>
-      </c>
-      <c r="G43" s="32" t="s">
-        <v>116</v>
-      </c>
+      <c r="D43" s="32"/>
+      <c r="G43" s="32"/>
       <c r="H43" s="32"/>
       <c r="I43" s="32"/>
-      <c r="R43" s="5">
-        <v>1</v>
-      </c>
       <c r="DP43" s="33"/>
       <c r="DQ43" s="33"/>
       <c r="DR43" s="33"/>
@@ -4464,24 +4386,14 @@
       <c r="DT43" s="33"/>
       <c r="DU43" s="33"/>
     </row>
-    <row r="44" spans="1:125" ht="30">
+    <row r="44" spans="1:125">
       <c r="A44" s="32"/>
       <c r="B44" s="32"/>
       <c r="C44" s="32"/>
-      <c r="D44" s="32" t="s">
-        <v>370</v>
-      </c>
-      <c r="F44" s="32" t="s">
-        <v>372</v>
-      </c>
-      <c r="G44" s="32" t="s">
-        <v>116</v>
-      </c>
+      <c r="D44" s="32"/>
+      <c r="G44" s="32"/>
       <c r="H44" s="32"/>
       <c r="I44" s="32"/>
-      <c r="S44" s="5">
-        <v>1</v>
-      </c>
       <c r="DP44" s="33"/>
       <c r="DQ44" s="33"/>
       <c r="DR44" s="33"/>
@@ -4489,24 +4401,14 @@
       <c r="DT44" s="33"/>
       <c r="DU44" s="33"/>
     </row>
-    <row r="45" spans="1:125" ht="30">
+    <row r="45" spans="1:125">
       <c r="A45" s="32"/>
       <c r="B45" s="32"/>
       <c r="C45" s="32"/>
-      <c r="D45" s="32" t="s">
-        <v>371</v>
-      </c>
-      <c r="F45" s="32" t="s">
-        <v>372</v>
-      </c>
-      <c r="G45" s="32" t="s">
-        <v>116</v>
-      </c>
+      <c r="D45" s="32"/>
+      <c r="G45" s="32"/>
       <c r="H45" s="32"/>
       <c r="I45" s="32"/>
-      <c r="T45" s="5">
-        <v>1</v>
-      </c>
       <c r="DP45" s="33"/>
       <c r="DQ45" s="33"/>
       <c r="DR45" s="33"/>
@@ -4514,24 +4416,14 @@
       <c r="DT45" s="33"/>
       <c r="DU45" s="33"/>
     </row>
-    <row r="46" spans="1:125" ht="30">
+    <row r="46" spans="1:125">
       <c r="A46" s="32"/>
       <c r="B46" s="32"/>
       <c r="C46" s="32"/>
-      <c r="D46" s="32" t="s">
-        <v>373</v>
-      </c>
-      <c r="F46" s="32" t="s">
-        <v>372</v>
-      </c>
-      <c r="G46" s="32" t="s">
-        <v>116</v>
-      </c>
+      <c r="D46" s="32"/>
+      <c r="G46" s="32"/>
       <c r="H46" s="32"/>
       <c r="I46" s="32"/>
-      <c r="U46" s="5">
-        <v>1</v>
-      </c>
       <c r="DP46" s="33"/>
       <c r="DQ46" s="33"/>
       <c r="DR46" s="33"/>
@@ -4539,24 +4431,14 @@
       <c r="DT46" s="33"/>
       <c r="DU46" s="33"/>
     </row>
-    <row r="47" spans="1:125" ht="30">
+    <row r="47" spans="1:125">
       <c r="A47" s="32"/>
       <c r="B47" s="32"/>
       <c r="C47" s="32"/>
-      <c r="D47" s="32" t="s">
-        <v>374</v>
-      </c>
-      <c r="F47" s="32" t="s">
-        <v>372</v>
-      </c>
-      <c r="G47" s="32" t="s">
-        <v>116</v>
-      </c>
+      <c r="D47" s="32"/>
+      <c r="G47" s="32"/>
       <c r="H47" s="32"/>
       <c r="I47" s="32"/>
-      <c r="V47" s="5">
-        <v>1</v>
-      </c>
       <c r="DP47" s="33"/>
       <c r="DQ47" s="33"/>
       <c r="DR47" s="33"/>
@@ -4564,24 +4446,14 @@
       <c r="DT47" s="33"/>
       <c r="DU47" s="33"/>
     </row>
-    <row r="48" spans="1:125" ht="30">
+    <row r="48" spans="1:125">
       <c r="A48" s="32"/>
       <c r="B48" s="32"/>
       <c r="C48" s="32"/>
-      <c r="D48" s="32" t="s">
-        <v>375</v>
-      </c>
-      <c r="F48" s="32" t="s">
-        <v>372</v>
-      </c>
-      <c r="G48" s="32" t="s">
-        <v>116</v>
-      </c>
+      <c r="D48" s="32"/>
+      <c r="G48" s="32"/>
       <c r="H48" s="32"/>
       <c r="I48" s="32"/>
-      <c r="W48" s="5">
-        <v>1</v>
-      </c>
       <c r="DP48" s="33"/>
       <c r="DQ48" s="33"/>
       <c r="DR48" s="33"/>
@@ -4589,24 +4461,14 @@
       <c r="DT48" s="33"/>
       <c r="DU48" s="33"/>
     </row>
-    <row r="49" spans="1:125" ht="30">
+    <row r="49" spans="1:125">
       <c r="A49" s="34"/>
       <c r="B49" s="32"/>
       <c r="C49" s="32"/>
-      <c r="D49" s="32" t="s">
-        <v>376</v>
-      </c>
-      <c r="F49" s="32" t="s">
-        <v>372</v>
-      </c>
-      <c r="G49" s="32" t="s">
-        <v>116</v>
-      </c>
+      <c r="D49" s="32"/>
+      <c r="G49" s="32"/>
       <c r="H49" s="32"/>
       <c r="I49" s="32"/>
-      <c r="X49" s="5">
-        <v>1</v>
-      </c>
       <c r="DP49" s="33"/>
       <c r="DQ49" s="33"/>
       <c r="DR49" s="33"/>
@@ -4614,24 +4476,14 @@
       <c r="DT49" s="33"/>
       <c r="DU49" s="33"/>
     </row>
-    <row r="50" spans="1:125" ht="30">
+    <row r="50" spans="1:125">
       <c r="A50" s="32"/>
       <c r="B50" s="32"/>
       <c r="C50" s="32"/>
-      <c r="D50" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="F50" s="32" t="s">
-        <v>372</v>
-      </c>
-      <c r="G50" s="32" t="s">
-        <v>116</v>
-      </c>
+      <c r="D50" s="32"/>
+      <c r="G50" s="32"/>
       <c r="H50" s="32"/>
       <c r="I50" s="32"/>
-      <c r="Y50" s="5">
-        <v>1</v>
-      </c>
       <c r="DP50" s="33"/>
       <c r="DQ50" s="33"/>
       <c r="DR50" s="33"/>
@@ -4639,24 +4491,14 @@
       <c r="DT50" s="33"/>
       <c r="DU50" s="33"/>
     </row>
-    <row r="51" spans="1:125" ht="30">
+    <row r="51" spans="1:125">
       <c r="A51" s="32"/>
       <c r="B51" s="32"/>
       <c r="C51" s="32"/>
-      <c r="D51" s="32" t="s">
-        <v>378</v>
-      </c>
-      <c r="F51" s="32" t="s">
-        <v>372</v>
-      </c>
-      <c r="G51" s="32" t="s">
-        <v>116</v>
-      </c>
+      <c r="D51" s="32"/>
+      <c r="G51" s="32"/>
       <c r="H51" s="32"/>
       <c r="I51" s="32"/>
-      <c r="Z51" s="5">
-        <v>1</v>
-      </c>
       <c r="DP51" s="33"/>
       <c r="DQ51" s="33"/>
       <c r="DR51" s="33"/>
@@ -4664,170 +4506,20 @@
       <c r="DT51" s="33"/>
       <c r="DU51" s="33"/>
     </row>
-    <row r="52" spans="1:125" ht="30">
+    <row r="52" spans="1:125">
       <c r="A52" s="32"/>
       <c r="B52" s="32"/>
       <c r="C52" s="32"/>
-      <c r="D52" s="32" t="s">
-        <v>379</v>
-      </c>
-      <c r="F52" s="32" t="s">
-        <v>372</v>
-      </c>
-      <c r="G52" s="32" t="s">
-        <v>116</v>
-      </c>
+      <c r="D52" s="32"/>
+      <c r="G52" s="32"/>
       <c r="H52" s="32"/>
       <c r="I52" s="32"/>
-      <c r="AA52" s="5">
-        <v>1</v>
-      </c>
       <c r="DP52" s="33"/>
       <c r="DQ52" s="33"/>
       <c r="DR52" s="33"/>
       <c r="DS52" s="33"/>
       <c r="DT52" s="33"/>
       <c r="DU52" s="33"/>
-    </row>
-    <row r="53" spans="1:125" ht="30">
-      <c r="D53" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="F53" s="32" t="s">
-        <v>372</v>
-      </c>
-      <c r="G53" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB53" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:125" ht="30">
-      <c r="D54" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="F54" s="32" t="s">
-        <v>372</v>
-      </c>
-      <c r="G54" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC54" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:125" ht="30">
-      <c r="D55" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="F55" s="32" t="s">
-        <v>372</v>
-      </c>
-      <c r="G55" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD55" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:125" ht="30">
-      <c r="D56" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="F56" s="32" t="s">
-        <v>372</v>
-      </c>
-      <c r="G56" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="AE56" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:125" ht="30">
-      <c r="D57" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="F57" s="32" t="s">
-        <v>372</v>
-      </c>
-      <c r="G57" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="AF57" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:125" ht="30">
-      <c r="D58" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="F58" s="32" t="s">
-        <v>372</v>
-      </c>
-      <c r="G58" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG58" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:125" ht="30">
-      <c r="D59" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="F59" s="32" t="s">
-        <v>372</v>
-      </c>
-      <c r="G59" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH59" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:125" ht="30">
-      <c r="D60" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="F60" s="32" t="s">
-        <v>372</v>
-      </c>
-      <c r="G60" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI60" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:125" ht="30">
-      <c r="D61" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="F61" s="32" t="s">
-        <v>372</v>
-      </c>
-      <c r="G61" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="AJ61" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:125" ht="30">
-      <c r="D62" s="32" t="s">
-        <v>389</v>
-      </c>
-      <c r="F62" s="32" t="s">
-        <v>372</v>
-      </c>
-      <c r="G62" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="AK62" s="5">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5199,12 +4891,12 @@
     <row r="1" spans="1:11">
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="126" t="s">
+      <c r="E1" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
     </row>
     <row r="2" spans="1:11" ht="45">
       <c r="C2" s="73" t="s">
@@ -5270,10 +4962,10 @@
       <c r="C5" s="39">
         <v>115</v>
       </c>
-      <c r="D5" s="112">
+      <c r="D5" s="126">
         <v>115</v>
       </c>
-      <c r="E5" s="112">
+      <c r="E5" s="126">
         <v>115</v>
       </c>
       <c r="F5" s="50"/>
@@ -5291,10 +4983,10 @@
       <c r="C6" s="39">
         <v>116</v>
       </c>
-      <c r="D6" s="112">
+      <c r="D6" s="126">
         <v>116</v>
       </c>
-      <c r="E6" s="112">
+      <c r="E6" s="126">
         <v>116</v>
       </c>
       <c r="F6" s="50"/>
@@ -5356,7 +5048,7 @@
       <c r="E9" s="39">
         <v>135</v>
       </c>
-      <c r="F9" s="112">
+      <c r="F9" s="126">
         <v>135</v>
       </c>
       <c r="G9" s="50"/>
@@ -5377,7 +5069,7 @@
       <c r="E10" s="39">
         <v>136</v>
       </c>
-      <c r="F10" s="112">
+      <c r="F10" s="126">
         <v>136</v>
       </c>
       <c r="G10" s="50"/>
@@ -5395,7 +5087,7 @@
         <v>145</v>
       </c>
       <c r="D11" s="50"/>
-      <c r="E11" s="112"/>
+      <c r="E11" s="126"/>
       <c r="F11" s="50"/>
       <c r="G11" s="50"/>
       <c r="H11" s="50"/>
@@ -5415,7 +5107,7 @@
         <v>146</v>
       </c>
       <c r="D12" s="50"/>
-      <c r="E12" s="112"/>
+      <c r="E12" s="126"/>
       <c r="F12" s="82"/>
       <c r="G12" s="82"/>
       <c r="H12" s="82"/>
@@ -5438,7 +5130,7 @@
       <c r="E13" s="82"/>
       <c r="F13" s="82"/>
       <c r="G13" s="82"/>
-      <c r="H13" s="112">
+      <c r="H13" s="126">
         <v>157</v>
       </c>
       <c r="I13" s="82"/>
@@ -5457,7 +5149,7 @@
       <c r="E14" s="82"/>
       <c r="F14" s="82"/>
       <c r="G14" s="82"/>
-      <c r="H14" s="112">
+      <c r="H14" s="126">
         <v>158</v>
       </c>
       <c r="I14" s="82"/>
@@ -5472,7 +5164,7 @@
       <c r="C15" s="39">
         <v>197</v>
       </c>
-      <c r="I15" s="112">
+      <c r="I15" s="126">
         <v>197</v>
       </c>
     </row>
@@ -5486,7 +5178,7 @@
       <c r="C16" s="39">
         <v>198</v>
       </c>
-      <c r="I16" s="112">
+      <c r="I16" s="126">
         <v>198</v>
       </c>
     </row>
@@ -5525,11 +5217,11 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="C1" s="2"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="117"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="112"/>
       <c r="I1" s="98"/>
       <c r="J1" s="85"/>
     </row>
@@ -5642,7 +5334,7 @@
       <c r="H7" s="39">
         <v>167</v>
       </c>
-      <c r="I7" s="109">
+      <c r="I7" s="123">
         <v>167</v>
       </c>
     </row>
@@ -5659,7 +5351,7 @@
       <c r="H8" s="39">
         <v>168</v>
       </c>
-      <c r="I8" s="109">
+      <c r="I8" s="123">
         <v>168</v>
       </c>
     </row>
@@ -5716,15 +5408,15 @@
     <row r="1" spans="1:11" ht="26.25">
       <c r="C1" s="2"/>
       <c r="D1" s="64"/>
-      <c r="E1" s="127" t="s">
+      <c r="E1" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
     </row>
     <row r="2" spans="1:11" ht="30">
       <c r="C2" s="74" t="s">
@@ -5782,7 +5474,7 @@
       </c>
       <c r="I3" s="51"/>
       <c r="J3" s="51"/>
-      <c r="K3" s="109">
+      <c r="K3" s="123">
         <v>103</v>
       </c>
     </row>
@@ -5813,7 +5505,7 @@
       </c>
       <c r="I4" s="51"/>
       <c r="J4" s="51"/>
-      <c r="K4" s="109">
+      <c r="K4" s="123">
         <v>104</v>
       </c>
     </row>
@@ -5827,11 +5519,11 @@
       <c r="C5" s="39">
         <v>173</v>
       </c>
-      <c r="H5" s="113"/>
-      <c r="I5" s="109">
+      <c r="H5" s="127"/>
+      <c r="I5" s="123">
         <v>173</v>
       </c>
-      <c r="J5" s="109">
+      <c r="J5" s="123">
         <v>173</v>
       </c>
       <c r="K5" s="51"/>
@@ -5846,11 +5538,11 @@
       <c r="C6" s="39">
         <v>174</v>
       </c>
-      <c r="H6" s="113"/>
-      <c r="I6" s="109">
+      <c r="H6" s="127"/>
+      <c r="I6" s="123">
         <v>174</v>
       </c>
-      <c r="J6" s="109">
+      <c r="J6" s="123">
         <v>174</v>
       </c>
       <c r="K6" s="51"/>
@@ -10753,24 +10445,24 @@
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1">
       <c r="D1" s="72"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
-      <c r="Q1" s="115"/>
-      <c r="R1" s="115"/>
-      <c r="S1" s="115"/>
-      <c r="T1" s="115"/>
-      <c r="U1" s="115"/>
-      <c r="V1" s="115"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
+      <c r="U1" s="110"/>
+      <c r="V1" s="110"/>
     </row>
     <row r="2" spans="1:23" ht="96" customHeight="1">
       <c r="A2" s="42"/>
@@ -10850,10 +10542,10 @@
       <c r="M3" s="39">
         <v>32</v>
       </c>
-      <c r="N3" s="109">
+      <c r="N3" s="123">
         <v>32</v>
       </c>
-      <c r="O3" s="109"/>
+      <c r="O3" s="123"/>
       <c r="R3" s="39">
         <v>32</v>
       </c>
@@ -10872,10 +10564,10 @@
       <c r="M4" s="39">
         <v>33</v>
       </c>
-      <c r="N4" s="109">
+      <c r="N4" s="123">
         <v>33</v>
       </c>
-      <c r="O4" s="109"/>
+      <c r="O4" s="123"/>
       <c r="R4" s="39">
         <v>33</v>
       </c>
@@ -10894,8 +10586,8 @@
       <c r="M5" s="39">
         <v>48</v>
       </c>
-      <c r="N5" s="109"/>
-      <c r="O5" s="109">
+      <c r="N5" s="123"/>
+      <c r="O5" s="123">
         <v>48</v>
       </c>
       <c r="T5" s="39">
@@ -10916,8 +10608,8 @@
       <c r="M6" s="39">
         <v>49</v>
       </c>
-      <c r="N6" s="109"/>
-      <c r="O6" s="109">
+      <c r="N6" s="123"/>
+      <c r="O6" s="123">
         <v>49</v>
       </c>
       <c r="T6" s="39">
@@ -10938,10 +10630,10 @@
       <c r="M7" s="39">
         <v>117</v>
       </c>
-      <c r="N7" s="109">
+      <c r="N7" s="123">
         <v>117</v>
       </c>
-      <c r="O7" s="109"/>
+      <c r="O7" s="123"/>
       <c r="P7" s="39">
         <v>117</v>
       </c>
@@ -10960,10 +10652,10 @@
       <c r="M8" s="39">
         <v>118</v>
       </c>
-      <c r="N8" s="109">
+      <c r="N8" s="123">
         <v>118</v>
       </c>
-      <c r="O8" s="109"/>
+      <c r="O8" s="123"/>
       <c r="P8" s="39">
         <v>118</v>
       </c>
@@ -10979,7 +10671,7 @@
       <c r="D9" s="39">
         <v>123</v>
       </c>
-      <c r="N9" s="109"/>
+      <c r="N9" s="123"/>
       <c r="O9" s="39">
         <v>123</v>
       </c>
@@ -11006,7 +10698,7 @@
       <c r="D10" s="39">
         <v>124</v>
       </c>
-      <c r="N10" s="109"/>
+      <c r="N10" s="123"/>
       <c r="O10" s="39">
         <v>124</v>
       </c>
@@ -11039,8 +10731,8 @@
       <c r="L11" s="39">
         <v>133</v>
       </c>
-      <c r="N11" s="109"/>
-      <c r="O11" s="109"/>
+      <c r="N11" s="123"/>
+      <c r="O11" s="123"/>
       <c r="U11" s="39">
         <v>133</v>
       </c>
@@ -11064,8 +10756,8 @@
       <c r="L12" s="39">
         <v>134</v>
       </c>
-      <c r="N12" s="109"/>
-      <c r="O12" s="109"/>
+      <c r="N12" s="123"/>
+      <c r="O12" s="123"/>
       <c r="U12" s="39">
         <v>134</v>
       </c>
@@ -11089,8 +10781,8 @@
       <c r="K13" s="39">
         <v>155</v>
       </c>
-      <c r="N13" s="109"/>
-      <c r="O13" s="109"/>
+      <c r="N13" s="123"/>
+      <c r="O13" s="123"/>
       <c r="U13" s="39">
         <v>155</v>
       </c>
@@ -11111,8 +10803,8 @@
       <c r="K14" s="39">
         <v>156</v>
       </c>
-      <c r="N14" s="109"/>
-      <c r="O14" s="109"/>
+      <c r="N14" s="123"/>
+      <c r="O14" s="123"/>
       <c r="U14" s="39">
         <v>156</v>
       </c>
@@ -11130,8 +10822,8 @@
       <c r="M15" s="39">
         <v>171</v>
       </c>
-      <c r="N15" s="109"/>
-      <c r="O15" s="109">
+      <c r="N15" s="123"/>
+      <c r="O15" s="123">
         <v>171</v>
       </c>
       <c r="S15" s="39">
@@ -11155,8 +10847,8 @@
       <c r="M16" s="39">
         <v>172</v>
       </c>
-      <c r="N16" s="109"/>
-      <c r="O16" s="109">
+      <c r="N16" s="123"/>
+      <c r="O16" s="123">
         <v>172</v>
       </c>
       <c r="S16" s="39">
@@ -11186,8 +10878,8 @@
       <c r="J17" s="39">
         <v>181</v>
       </c>
-      <c r="N17" s="109"/>
-      <c r="O17" s="109"/>
+      <c r="N17" s="123"/>
+      <c r="O17" s="123"/>
     </row>
     <row r="18" spans="1:24">
       <c r="A18" t="s">
@@ -11208,8 +10900,8 @@
       <c r="J18" s="39">
         <v>182</v>
       </c>
-      <c r="N18" s="109"/>
-      <c r="O18" s="109"/>
+      <c r="N18" s="123"/>
+      <c r="O18" s="123"/>
     </row>
     <row r="19" spans="1:24">
       <c r="A19" t="s">
@@ -11230,8 +10922,8 @@
       <c r="I19" s="39">
         <v>185</v>
       </c>
-      <c r="N19" s="109"/>
-      <c r="O19" s="109"/>
+      <c r="N19" s="123"/>
+      <c r="O19" s="123"/>
       <c r="U19" s="39">
         <v>185</v>
       </c>
@@ -11368,44 +11060,44 @@
       </c>
     </row>
     <row r="27" spans="1:24">
-      <c r="A27" s="110" t="s">
+      <c r="A27" s="124" t="s">
         <v>239</v>
       </c>
-      <c r="B27" s="111">
+      <c r="B27" s="125">
         <v>161</v>
       </c>
-      <c r="C27" s="110"/>
-      <c r="D27" s="111">
+      <c r="C27" s="124"/>
+      <c r="D27" s="125">
         <v>161</v>
       </c>
-      <c r="Q27" s="111">
+      <c r="Q27" s="125">
         <v>161</v>
       </c>
-      <c r="V27" s="111">
+      <c r="V27" s="125">
         <v>161</v>
       </c>
-      <c r="W27" s="111">
+      <c r="W27" s="125">
         <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:24">
-      <c r="A28" s="110" t="s">
+      <c r="A28" s="124" t="s">
         <v>240</v>
       </c>
-      <c r="B28" s="111">
+      <c r="B28" s="125">
         <v>162</v>
       </c>
-      <c r="C28" s="110"/>
-      <c r="D28" s="111">
+      <c r="C28" s="124"/>
+      <c r="D28" s="125">
         <v>162</v>
       </c>
-      <c r="Q28" s="111">
+      <c r="Q28" s="125">
         <v>162</v>
       </c>
-      <c r="V28" s="111">
+      <c r="V28" s="125">
         <v>162</v>
       </c>
-      <c r="W28" s="111">
+      <c r="W28" s="125">
         <v>162</v>
       </c>
     </row>
@@ -11754,37 +11446,37 @@
     <row r="1" spans="1:33" ht="15" customHeight="1">
       <c r="A1" s="42"/>
       <c r="B1" s="43"/>
-      <c r="E1" s="116" t="s">
+      <c r="E1" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
-      <c r="Q1" s="115"/>
-      <c r="R1" s="115"/>
-      <c r="S1" s="115"/>
-      <c r="T1" s="115"/>
-      <c r="U1" s="115"/>
-      <c r="V1" s="115"/>
-      <c r="W1" s="115"/>
-      <c r="X1" s="115"/>
-      <c r="Y1" s="115"/>
-      <c r="Z1" s="115"/>
-      <c r="AA1" s="115"/>
-      <c r="AB1" s="115"/>
-      <c r="AC1" s="115"/>
-      <c r="AD1" s="115"/>
-      <c r="AE1" s="115"/>
-      <c r="AF1" s="115"/>
-      <c r="AG1" s="115"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
+      <c r="U1" s="110"/>
+      <c r="V1" s="110"/>
+      <c r="W1" s="110"/>
+      <c r="X1" s="110"/>
+      <c r="Y1" s="110"/>
+      <c r="Z1" s="110"/>
+      <c r="AA1" s="110"/>
+      <c r="AB1" s="110"/>
+      <c r="AC1" s="110"/>
+      <c r="AD1" s="110"/>
+      <c r="AE1" s="110"/>
+      <c r="AF1" s="110"/>
+      <c r="AG1" s="110"/>
     </row>
     <row r="2" spans="1:33" ht="144" customHeight="1">
       <c r="C2" s="72" t="s">

--- a/tests/_dummy_data.xlsx
+++ b/tests/_dummy_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ali_m\AnacondaProjects\PhD\Semiology-Visualisation-Tool\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF14BD24-5191-4B15-A117-E0494A954F1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3560C6C5-258D-4575-BC46-FB8785FC287B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="370">
   <si>
     <t xml:space="preserve">Semiology </t>
   </si>
@@ -396,9 +396,6 @@
     <t>Epilepsy Topology (ET)</t>
   </si>
   <si>
-    <t>Other (e.g. Abs)</t>
-  </si>
-  <si>
     <t>y</t>
   </si>
   <si>
@@ -1157,6 +1154,12 @@
   </si>
   <si>
     <t>tl</t>
+  </si>
+  <si>
+    <t>Other factors (e.g. Abs, genetic mutations)</t>
+  </si>
+  <si>
+    <t>paediatric subgroup &lt;7 years (0-6 yrs) y/n</t>
   </si>
 </sst>
 </file>
@@ -1966,6 +1969,19 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2007,19 +2023,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2372,10 +2375,10 @@
   <dimension ref="A1:DU52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="M15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q35" sqref="Q35"/>
+      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2467,106 +2470,106 @@
     <row r="1" spans="1:125" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="97"/>
       <c r="C1" s="16"/>
-      <c r="D1" s="109" t="s">
+      <c r="D1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="109"/>
-      <c r="G1" s="116" t="s">
+      <c r="E1" s="114"/>
+      <c r="G1" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="K1" s="118" t="s">
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="K1" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="120"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
-      <c r="U1" s="110"/>
-      <c r="V1" s="110"/>
-      <c r="W1" s="110"/>
-      <c r="X1" s="110"/>
-      <c r="Y1" s="110"/>
-      <c r="Z1" s="110"/>
-      <c r="AA1" s="110"/>
-      <c r="AB1" s="110"/>
-      <c r="AC1" s="110"/>
-      <c r="AD1" s="110"/>
-      <c r="AE1" s="110"/>
-      <c r="AF1" s="110"/>
-      <c r="AG1" s="110"/>
-      <c r="AH1" s="110"/>
-      <c r="AI1" s="110"/>
-      <c r="AJ1" s="110"/>
-      <c r="AK1" s="110"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="125"/>
+      <c r="S1" s="115"/>
+      <c r="T1" s="115"/>
+      <c r="U1" s="115"/>
+      <c r="V1" s="115"/>
+      <c r="W1" s="115"/>
+      <c r="X1" s="115"/>
+      <c r="Y1" s="115"/>
+      <c r="Z1" s="115"/>
+      <c r="AA1" s="115"/>
+      <c r="AB1" s="115"/>
+      <c r="AC1" s="115"/>
+      <c r="AD1" s="115"/>
+      <c r="AE1" s="115"/>
+      <c r="AF1" s="115"/>
+      <c r="AG1" s="115"/>
+      <c r="AH1" s="115"/>
+      <c r="AI1" s="115"/>
+      <c r="AJ1" s="115"/>
+      <c r="AK1" s="115"/>
       <c r="AM1" s="96"/>
-      <c r="AN1" s="111" t="s">
+      <c r="AN1" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="AO1" s="110"/>
-      <c r="AP1" s="110"/>
-      <c r="AQ1" s="110"/>
-      <c r="AR1" s="110"/>
-      <c r="AS1" s="110"/>
-      <c r="AT1" s="110"/>
-      <c r="AU1" s="110"/>
-      <c r="AV1" s="110"/>
-      <c r="AW1" s="110"/>
-      <c r="AX1" s="110"/>
-      <c r="AY1" s="110"/>
-      <c r="AZ1" s="110"/>
-      <c r="BA1" s="110"/>
-      <c r="BB1" s="110"/>
-      <c r="BC1" s="110"/>
-      <c r="BD1" s="110"/>
-      <c r="BE1" s="110"/>
-      <c r="BF1" s="110"/>
-      <c r="BG1" s="110"/>
-      <c r="BH1" s="110"/>
-      <c r="BI1" s="110"/>
-      <c r="BJ1" s="110"/>
-      <c r="BK1" s="110"/>
-      <c r="BL1" s="110"/>
-      <c r="BM1" s="110"/>
-      <c r="BN1" s="110"/>
-      <c r="BO1" s="110"/>
-      <c r="BP1" s="110"/>
-      <c r="BR1" s="113"/>
-      <c r="BS1" s="114"/>
-      <c r="BT1" s="114"/>
-      <c r="BU1" s="114"/>
-      <c r="BV1" s="114"/>
-      <c r="BW1" s="115"/>
+      <c r="AO1" s="115"/>
+      <c r="AP1" s="115"/>
+      <c r="AQ1" s="115"/>
+      <c r="AR1" s="115"/>
+      <c r="AS1" s="115"/>
+      <c r="AT1" s="115"/>
+      <c r="AU1" s="115"/>
+      <c r="AV1" s="115"/>
+      <c r="AW1" s="115"/>
+      <c r="AX1" s="115"/>
+      <c r="AY1" s="115"/>
+      <c r="AZ1" s="115"/>
+      <c r="BA1" s="115"/>
+      <c r="BB1" s="115"/>
+      <c r="BC1" s="115"/>
+      <c r="BD1" s="115"/>
+      <c r="BE1" s="115"/>
+      <c r="BF1" s="115"/>
+      <c r="BG1" s="115"/>
+      <c r="BH1" s="115"/>
+      <c r="BI1" s="115"/>
+      <c r="BJ1" s="115"/>
+      <c r="BK1" s="115"/>
+      <c r="BL1" s="115"/>
+      <c r="BM1" s="115"/>
+      <c r="BN1" s="115"/>
+      <c r="BO1" s="115"/>
+      <c r="BP1" s="115"/>
+      <c r="BR1" s="118"/>
+      <c r="BS1" s="119"/>
+      <c r="BT1" s="119"/>
+      <c r="BU1" s="119"/>
+      <c r="BV1" s="119"/>
+      <c r="BW1" s="120"/>
       <c r="BX1" s="99"/>
-      <c r="BZ1" s="110"/>
-      <c r="CA1" s="110"/>
-      <c r="CB1" s="110"/>
-      <c r="CC1" s="110"/>
-      <c r="CD1" s="110"/>
-      <c r="CE1" s="110"/>
-      <c r="CF1" s="110"/>
-      <c r="CG1" s="112"/>
-      <c r="CH1" s="111" t="s">
+      <c r="BZ1" s="115"/>
+      <c r="CA1" s="115"/>
+      <c r="CB1" s="115"/>
+      <c r="CC1" s="115"/>
+      <c r="CD1" s="115"/>
+      <c r="CE1" s="115"/>
+      <c r="CF1" s="115"/>
+      <c r="CG1" s="117"/>
+      <c r="CH1" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="CI1" s="110"/>
-      <c r="CJ1" s="110"/>
-      <c r="CK1" s="110"/>
-      <c r="CL1" s="110"/>
-      <c r="CM1" s="112"/>
+      <c r="CI1" s="115"/>
+      <c r="CJ1" s="115"/>
+      <c r="CK1" s="115"/>
+      <c r="CL1" s="115"/>
+      <c r="CM1" s="117"/>
       <c r="CO1" s="64"/>
-      <c r="CP1" s="110" t="s">
+      <c r="CP1" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="CQ1" s="110"/>
-      <c r="CR1" s="110"/>
-      <c r="CS1" s="110"/>
-      <c r="CT1" s="110"/>
-      <c r="CU1" s="110"/>
-      <c r="CV1" s="110"/>
+      <c r="CQ1" s="115"/>
+      <c r="CR1" s="115"/>
+      <c r="CS1" s="115"/>
+      <c r="CT1" s="115"/>
+      <c r="CU1" s="115"/>
+      <c r="CV1" s="115"/>
       <c r="CX1" s="92"/>
       <c r="CY1" s="92"/>
       <c r="CZ1" s="92"/>
@@ -2744,7 +2747,7 @@
         <v>57</v>
       </c>
       <c r="BA2" s="23" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="BB2" s="23" t="s">
         <v>58</v>
@@ -2771,7 +2774,7 @@
         <v>65</v>
       </c>
       <c r="BJ2" s="23" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="BK2" s="23" t="s">
         <v>66</v>
@@ -2900,7 +2903,7 @@
         <v>107</v>
       </c>
       <c r="DA2" s="103" t="s">
-        <v>108</v>
+        <v>369</v>
       </c>
       <c r="DB2" s="36" t="s">
         <v>109</v>
@@ -2921,7 +2924,7 @@
         <v>114</v>
       </c>
       <c r="DH2" s="13" t="s">
-        <v>115</v>
+        <v>368</v>
       </c>
       <c r="DI2" s="12"/>
       <c r="DJ2" s="12"/>
@@ -2933,7 +2936,7 @@
     </row>
     <row r="3" spans="1:125" ht="30">
       <c r="A3" s="32" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B3" s="32">
         <v>5</v>
@@ -2942,16 +2945,16 @@
         <v>3</v>
       </c>
       <c r="D3" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" s="32" t="s">
         <v>294</v>
       </c>
-      <c r="E3" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>295</v>
-      </c>
       <c r="G3" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H3" s="32"/>
       <c r="I3" s="32"/>
@@ -2959,7 +2962,7 @@
         <v>3</v>
       </c>
       <c r="Q3" s="31" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="R3" s="5">
         <v>1</v>
@@ -2981,7 +2984,7 @@
         <v>1</v>
       </c>
       <c r="DA3" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="DB3" s="6">
         <v>5</v>
@@ -2993,7 +2996,7 @@
         <v>3</v>
       </c>
       <c r="DF3" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="DP3" s="33"/>
       <c r="DQ3" s="33"/>
@@ -3139,7 +3142,7 @@
     </row>
     <row r="8" spans="1:125" ht="30">
       <c r="A8" s="32" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B8" s="32">
         <v>10</v>
@@ -3148,20 +3151,20 @@
         <v>10</v>
       </c>
       <c r="D8" s="32" t="s">
+        <v>305</v>
+      </c>
+      <c r="E8" s="33" t="s">
         <v>306</v>
       </c>
-      <c r="E8" s="33" t="s">
-        <v>307</v>
-      </c>
       <c r="F8" s="32" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G8" s="32"/>
       <c r="H8" s="32" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I8" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M8" s="5">
         <v>10</v>
@@ -3170,7 +3173,7 @@
         <v>10</v>
       </c>
       <c r="Q8" s="31" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AL8" s="5">
         <v>10</v>
@@ -3191,7 +3194,7 @@
         <v>2</v>
       </c>
       <c r="DA8" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="DB8" s="6">
         <v>10</v>
@@ -3203,10 +3206,10 @@
         <v>0</v>
       </c>
       <c r="DE8" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="DH8" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="DP8" s="33"/>
       <c r="DQ8" s="33"/>
@@ -3232,7 +3235,7 @@
     </row>
     <row r="10" spans="1:125">
       <c r="A10" s="32" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B10" s="32">
         <v>10</v>
@@ -3241,16 +3244,16 @@
         <v>10</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H10" s="32"/>
       <c r="I10" s="32"/>
@@ -3264,7 +3267,7 @@
         <v>9</v>
       </c>
       <c r="Q10" s="31" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="R10" s="5">
         <v>9</v>
@@ -3282,7 +3285,7 @@
         <v>5</v>
       </c>
       <c r="DA10" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="DB10" s="6">
         <v>10</v>
@@ -3294,7 +3297,7 @@
         <v>10</v>
       </c>
       <c r="DF10" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="DP10" s="33"/>
       <c r="DQ10" s="33"/>
@@ -3308,16 +3311,16 @@
       <c r="B11" s="32"/>
       <c r="C11" s="32"/>
       <c r="D11" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="F11" s="32" t="s">
         <v>312</v>
       </c>
-      <c r="E11" s="33" t="s">
-        <v>312</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>313</v>
-      </c>
       <c r="G11" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H11" s="32"/>
       <c r="I11" s="32"/>
@@ -3331,7 +3334,7 @@
         <v>1</v>
       </c>
       <c r="Q11" s="31" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AL11" s="5">
         <v>1</v>
@@ -3340,7 +3343,7 @@
         <v>1</v>
       </c>
       <c r="DA11" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="DP11" s="33"/>
       <c r="DQ11" s="33"/>
@@ -3351,7 +3354,7 @@
     </row>
     <row r="12" spans="1:125">
       <c r="A12" s="32" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B12" s="32">
         <v>1</v>
@@ -3360,16 +3363,16 @@
         <v>1</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H12" s="32"/>
       <c r="I12" s="32"/>
@@ -3377,7 +3380,7 @@
         <v>1</v>
       </c>
       <c r="Q12" s="31" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AL12" s="5">
         <v>1</v>
@@ -3409,7 +3412,7 @@
     </row>
     <row r="14" spans="1:125">
       <c r="A14" s="32" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B14" s="32">
         <v>1</v>
@@ -3418,17 +3421,17 @@
         <v>1</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E14" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="F14" s="32" t="s">
         <v>317</v>
-      </c>
-      <c r="F14" s="32" t="s">
-        <v>318</v>
       </c>
       <c r="G14" s="32"/>
       <c r="H14" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I14" s="32"/>
       <c r="P14" s="5">
@@ -3441,7 +3444,7 @@
         <v>1</v>
       </c>
       <c r="DA14" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="DB14" s="6">
         <v>1</v>
@@ -3453,7 +3456,7 @@
         <v>0</v>
       </c>
       <c r="DF14" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="DP14" s="33"/>
       <c r="DQ14" s="33"/>
@@ -3464,7 +3467,7 @@
     </row>
     <row r="15" spans="1:125">
       <c r="A15" s="32" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B15" s="32">
         <v>1</v>
@@ -3473,17 +3476,17 @@
         <v>1</v>
       </c>
       <c r="D15" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="E15" s="33" t="s">
         <v>329</v>
       </c>
-      <c r="E15" s="33" t="s">
-        <v>330</v>
-      </c>
       <c r="F15" s="32" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G15" s="32"/>
       <c r="H15" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I15" s="32"/>
       <c r="P15" s="5">
@@ -3496,7 +3499,7 @@
         <v>1</v>
       </c>
       <c r="DA15" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="DB15" s="6">
         <v>1</v>
@@ -3508,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="DF15" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="DP15" s="33"/>
       <c r="DQ15" s="33"/>
@@ -3519,7 +3522,7 @@
     </row>
     <row r="16" spans="1:125">
       <c r="A16" s="32" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B16" s="32">
         <v>1</v>
@@ -3528,17 +3531,17 @@
         <v>1</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G16" s="32"/>
       <c r="H16" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I16" s="32"/>
       <c r="P16" s="5">
@@ -3551,7 +3554,7 @@
         <v>1</v>
       </c>
       <c r="DA16" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="DB16" s="6">
         <v>1</v>
@@ -3563,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="DF16" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="DP16" s="33"/>
       <c r="DQ16" s="33"/>
@@ -3664,7 +3667,7 @@
     </row>
     <row r="23" spans="1:125">
       <c r="A23" s="17" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B23" s="32">
         <v>10</v>
@@ -3673,17 +3676,17 @@
         <v>10</v>
       </c>
       <c r="D23" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="E23" s="33" t="s">
         <v>341</v>
       </c>
-      <c r="E23" s="33" t="s">
+      <c r="F23" s="32" t="s">
         <v>342</v>
-      </c>
-      <c r="F23" s="32" t="s">
-        <v>343</v>
       </c>
       <c r="G23" s="32"/>
       <c r="H23" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I23" s="32"/>
       <c r="M23" s="5">
@@ -3693,7 +3696,7 @@
         <v>10</v>
       </c>
       <c r="Q23" s="31" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="BQ23" s="5">
         <v>3</v>
@@ -3705,10 +3708,10 @@
         <v>3</v>
       </c>
       <c r="DA23" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="DF23" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="DP23" s="33"/>
       <c r="DQ23" s="33"/>
@@ -3719,7 +3722,7 @@
     </row>
     <row r="24" spans="1:125" ht="30">
       <c r="A24" s="108" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B24" s="32">
         <v>5</v>
@@ -3728,24 +3731,24 @@
         <v>5</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E24" s="33" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F24" s="32" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G24" s="32"/>
       <c r="H24" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I24" s="32"/>
       <c r="P24" s="5">
         <v>5</v>
       </c>
       <c r="Q24" s="31" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="R24" s="5">
         <v>5</v>
@@ -3754,7 +3757,7 @@
         <v>5</v>
       </c>
       <c r="DF24" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="DP24" s="33"/>
       <c r="DQ24" s="33"/>
@@ -3765,7 +3768,7 @@
     </row>
     <row r="25" spans="1:125">
       <c r="A25" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B25" s="32">
         <v>1</v>
@@ -3774,24 +3777,24 @@
         <v>1</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F25" s="32" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G25" s="32"/>
       <c r="H25" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I25" s="32"/>
       <c r="P25" s="5">
         <v>1</v>
       </c>
       <c r="Q25" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R25" s="5">
         <v>1</v>
@@ -3800,10 +3803,10 @@
         <v>1</v>
       </c>
       <c r="DA25" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="DF25" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="DP25" s="33"/>
       <c r="DQ25" s="33"/>
@@ -3844,7 +3847,7 @@
     </row>
     <row r="28" spans="1:125">
       <c r="A28" s="32" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B28" s="32">
         <v>1</v>
@@ -3853,13 +3856,13 @@
         <v>1</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G28" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H28" s="32"/>
       <c r="I28" s="32"/>
@@ -3867,7 +3870,7 @@
         <v>1</v>
       </c>
       <c r="Q28" s="31" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AL28" s="5">
         <v>1</v>
@@ -3876,7 +3879,7 @@
         <v>1</v>
       </c>
       <c r="DF28" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="DP28" s="33"/>
       <c r="DQ28" s="33"/>
@@ -3887,7 +3890,7 @@
     </row>
     <row r="29" spans="1:125">
       <c r="A29" s="32" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B29" s="32">
         <v>1</v>
@@ -3896,13 +3899,13 @@
         <v>1</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G29" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H29" s="32"/>
       <c r="I29" s="32"/>
@@ -3910,7 +3913,7 @@
         <v>10</v>
       </c>
       <c r="Q29" s="31" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AL29" s="5">
         <v>10</v>
@@ -3919,7 +3922,7 @@
         <v>10</v>
       </c>
       <c r="DF29" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="DP29" s="33"/>
       <c r="DQ29" s="33"/>
@@ -3930,7 +3933,7 @@
     </row>
     <row r="30" spans="1:125" ht="30">
       <c r="A30" s="32" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B30" s="32">
         <v>1</v>
@@ -3939,20 +3942,20 @@
         <v>1</v>
       </c>
       <c r="D30" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="E30" s="33" t="s">
         <v>299</v>
       </c>
-      <c r="E30" s="33" t="s">
+      <c r="F30" s="32" t="s">
         <v>300</v>
-      </c>
-      <c r="F30" s="32" t="s">
-        <v>301</v>
       </c>
       <c r="G30" s="32"/>
       <c r="H30" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I30" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J30" s="5">
         <v>1</v>
@@ -3964,7 +3967,7 @@
         <v>1</v>
       </c>
       <c r="Q30" s="31" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AL30" s="5">
         <v>1</v>
@@ -3973,7 +3976,7 @@
         <v>1</v>
       </c>
       <c r="DA30" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="DB30" s="6">
         <v>1</v>
@@ -3985,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="DG30" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="DP30" s="33"/>
       <c r="DQ30" s="33"/>
@@ -3996,7 +3999,7 @@
     </row>
     <row r="31" spans="1:125" s="33" customFormat="1" ht="30">
       <c r="A31" s="32" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B31" s="32">
         <v>1</v>
@@ -4005,20 +4008,20 @@
         <v>1</v>
       </c>
       <c r="D31" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="E31" s="33" t="s">
         <v>299</v>
       </c>
-      <c r="E31" s="33" t="s">
+      <c r="F31" s="32" t="s">
         <v>300</v>
-      </c>
-      <c r="F31" s="32" t="s">
-        <v>301</v>
       </c>
       <c r="G31" s="32"/>
       <c r="H31" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I31" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J31" s="5">
         <v>1</v>
@@ -4034,7 +4037,7 @@
         <v>1</v>
       </c>
       <c r="Q31" s="31" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="R31" s="5"/>
       <c r="S31" s="5"/>
@@ -4128,7 +4131,7 @@
       <c r="CY31" s="5"/>
       <c r="CZ31" s="5"/>
       <c r="DA31" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="DB31" s="6">
         <v>1</v>
@@ -4142,7 +4145,7 @@
       <c r="DE31" s="5"/>
       <c r="DF31" s="5"/>
       <c r="DG31" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="DH31" s="5"/>
       <c r="DI31" s="5"/>
@@ -4200,7 +4203,7 @@
     </row>
     <row r="35" spans="1:125">
       <c r="A35" s="32" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B35" s="32">
         <v>999</v>
@@ -4209,16 +4212,16 @@
         <v>999</v>
       </c>
       <c r="D35" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="E35" s="33" t="s">
         <v>365</v>
       </c>
-      <c r="E35" s="33" t="s">
+      <c r="F35" s="32" t="s">
         <v>366</v>
       </c>
-      <c r="F35" s="32" t="s">
-        <v>367</v>
-      </c>
       <c r="G35" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H35" s="32"/>
       <c r="I35" s="32"/>
@@ -4252,16 +4255,16 @@
       <c r="B36" s="32"/>
       <c r="C36" s="32"/>
       <c r="D36" s="17" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E36" s="33" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F36" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G36" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H36" s="32"/>
       <c r="I36" s="32"/>
@@ -4269,7 +4272,7 @@
         <v>7</v>
       </c>
       <c r="Q36" s="31" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="R36" s="5">
         <v>7</v>
@@ -4576,7 +4579,7 @@
         <v>83</v>
       </c>
       <c r="G2" s="83" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H2" s="54" t="s">
         <v>85</v>
@@ -4593,7 +4596,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B3" s="39">
         <v>107</v>
@@ -4616,7 +4619,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B4" s="39">
         <v>108</v>
@@ -4633,7 +4636,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="50" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B5" s="39">
         <v>113</v>
@@ -4645,7 +4648,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="50" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B6" s="39">
         <v>114</v>
@@ -4657,7 +4660,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B7" s="39">
         <v>149</v>
@@ -4674,7 +4677,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B8" s="39">
         <v>150</v>
@@ -4691,7 +4694,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B9" s="39">
         <v>169</v>
@@ -4706,7 +4709,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B10" s="39">
         <v>170</v>
@@ -4721,7 +4724,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B11" s="39">
         <v>175</v>
@@ -4736,7 +4739,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B12" s="39">
         <v>176</v>
@@ -4751,7 +4754,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B13" s="39">
         <v>177</v>
@@ -4767,7 +4770,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B14" s="39">
         <v>178</v>
@@ -4782,7 +4785,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B15" s="39">
         <v>195</v>
@@ -4799,7 +4802,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B16" s="39">
         <v>196</v>
@@ -4816,7 +4819,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B17" s="39">
         <v>199</v>
@@ -4831,7 +4834,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B18" s="39">
         <v>200</v>
@@ -4846,7 +4849,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="81" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B19" s="39">
         <v>86</v>
@@ -4857,7 +4860,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="81" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B20" s="39">
         <v>94</v>
@@ -4891,12 +4894,12 @@
     <row r="1" spans="1:11">
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="121" t="s">
+      <c r="E1" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
     </row>
     <row r="2" spans="1:11" ht="45">
       <c r="C2" s="73" t="s">
@@ -4920,7 +4923,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="51" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B3" s="39">
         <v>109</v>
@@ -4935,7 +4938,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="51" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B4" s="39">
         <v>110</v>
@@ -4954,7 +4957,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B5" s="39">
         <v>115</v>
@@ -4962,10 +4965,10 @@
       <c r="C5" s="39">
         <v>115</v>
       </c>
-      <c r="D5" s="126">
+      <c r="D5" s="112">
         <v>115</v>
       </c>
-      <c r="E5" s="126">
+      <c r="E5" s="112">
         <v>115</v>
       </c>
       <c r="F5" s="50"/>
@@ -4975,7 +4978,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B6" s="39">
         <v>116</v>
@@ -4983,10 +4986,10 @@
       <c r="C6" s="39">
         <v>116</v>
       </c>
-      <c r="D6" s="126">
+      <c r="D6" s="112">
         <v>116</v>
       </c>
-      <c r="E6" s="126">
+      <c r="E6" s="112">
         <v>116</v>
       </c>
       <c r="F6" s="50"/>
@@ -4996,7 +4999,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="51" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B7" s="39">
         <v>129</v>
@@ -5016,7 +5019,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="51" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B8" s="39">
         <v>130</v>
@@ -5036,7 +5039,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B9" s="39">
         <v>135</v>
@@ -5048,7 +5051,7 @@
       <c r="E9" s="39">
         <v>135</v>
       </c>
-      <c r="F9" s="126">
+      <c r="F9" s="112">
         <v>135</v>
       </c>
       <c r="G9" s="50"/>
@@ -5057,7 +5060,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B10" s="39">
         <v>136</v>
@@ -5069,7 +5072,7 @@
       <c r="E10" s="39">
         <v>136</v>
       </c>
-      <c r="F10" s="126">
+      <c r="F10" s="112">
         <v>136</v>
       </c>
       <c r="G10" s="50"/>
@@ -5078,7 +5081,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B11" s="39">
         <v>145</v>
@@ -5087,7 +5090,7 @@
         <v>145</v>
       </c>
       <c r="D11" s="50"/>
-      <c r="E11" s="126"/>
+      <c r="E11" s="112"/>
       <c r="F11" s="50"/>
       <c r="G11" s="50"/>
       <c r="H11" s="50"/>
@@ -5098,7 +5101,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B12" s="39">
         <v>146</v>
@@ -5107,7 +5110,7 @@
         <v>146</v>
       </c>
       <c r="D12" s="50"/>
-      <c r="E12" s="126"/>
+      <c r="E12" s="112"/>
       <c r="F12" s="82"/>
       <c r="G12" s="82"/>
       <c r="H12" s="82"/>
@@ -5118,7 +5121,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B13" s="39">
         <v>157</v>
@@ -5130,14 +5133,14 @@
       <c r="E13" s="82"/>
       <c r="F13" s="82"/>
       <c r="G13" s="82"/>
-      <c r="H13" s="126">
+      <c r="H13" s="112">
         <v>157</v>
       </c>
       <c r="I13" s="82"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B14" s="39">
         <v>158</v>
@@ -5149,14 +5152,14 @@
       <c r="E14" s="82"/>
       <c r="F14" s="82"/>
       <c r="G14" s="82"/>
-      <c r="H14" s="126">
+      <c r="H14" s="112">
         <v>158</v>
       </c>
       <c r="I14" s="82"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="51" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B15" s="39">
         <v>197</v>
@@ -5164,13 +5167,13 @@
       <c r="C15" s="39">
         <v>197</v>
       </c>
-      <c r="I15" s="126">
+      <c r="I15" s="112">
         <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="51" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B16" s="39">
         <v>198</v>
@@ -5178,7 +5181,7 @@
       <c r="C16" s="39">
         <v>198</v>
       </c>
-      <c r="I16" s="126">
+      <c r="I16" s="112">
         <v>198</v>
       </c>
     </row>
@@ -5217,11 +5220,11 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="C1" s="2"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="112"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="117"/>
       <c r="I1" s="98"/>
       <c r="J1" s="85"/>
     </row>
@@ -5248,12 +5251,12 @@
         <v>79</v>
       </c>
       <c r="J2" s="86" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B3" s="39">
         <v>101</v>
@@ -5274,7 +5277,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B4" s="39">
         <v>102</v>
@@ -5295,7 +5298,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B5" s="39">
         <v>139</v>
@@ -5309,7 +5312,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B6" s="39">
         <v>140</v>
@@ -5323,7 +5326,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B7" s="39">
         <v>167</v>
@@ -5334,13 +5337,13 @@
       <c r="H7" s="39">
         <v>167</v>
       </c>
-      <c r="I7" s="123">
+      <c r="I7" s="109">
         <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B8" s="39">
         <v>168</v>
@@ -5351,13 +5354,13 @@
       <c r="H8" s="39">
         <v>168</v>
       </c>
-      <c r="I8" s="123">
+      <c r="I8" s="109">
         <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B9" s="39">
         <v>83</v>
@@ -5371,7 +5374,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B10" s="39">
         <v>91</v>
@@ -5408,15 +5411,15 @@
     <row r="1" spans="1:11" ht="26.25">
       <c r="C1" s="2"/>
       <c r="D1" s="64"/>
-      <c r="E1" s="122" t="s">
+      <c r="E1" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
     </row>
     <row r="2" spans="1:11" ht="30">
       <c r="C2" s="74" t="s">
@@ -5449,7 +5452,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B3" s="39">
         <v>103</v>
@@ -5474,13 +5477,13 @@
       </c>
       <c r="I3" s="51"/>
       <c r="J3" s="51"/>
-      <c r="K3" s="123">
+      <c r="K3" s="109">
         <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B4" s="39">
         <v>104</v>
@@ -5505,13 +5508,13 @@
       </c>
       <c r="I4" s="51"/>
       <c r="J4" s="51"/>
-      <c r="K4" s="123">
+      <c r="K4" s="109">
         <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B5" s="39">
         <v>173</v>
@@ -5519,18 +5522,18 @@
       <c r="C5" s="39">
         <v>173</v>
       </c>
-      <c r="H5" s="127"/>
-      <c r="I5" s="123">
+      <c r="H5" s="113"/>
+      <c r="I5" s="109">
         <v>173</v>
       </c>
-      <c r="J5" s="123">
+      <c r="J5" s="109">
         <v>173</v>
       </c>
       <c r="K5" s="51"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B6" s="39">
         <v>174</v>
@@ -5538,11 +5541,11 @@
       <c r="C6" s="39">
         <v>174</v>
       </c>
-      <c r="H6" s="127"/>
-      <c r="I6" s="123">
+      <c r="H6" s="113"/>
+      <c r="I6" s="109">
         <v>174</v>
       </c>
-      <c r="J6" s="123">
+      <c r="J6" s="109">
         <v>174</v>
       </c>
       <c r="K6" s="51"/>
@@ -5583,7 +5586,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B3" s="45">
         <v>60</v>
@@ -5594,7 +5597,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B4" s="45">
         <v>61</v>
@@ -5674,7 +5677,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="81" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B3" s="39">
         <v>39</v>
@@ -5690,7 +5693,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="81" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B4" s="39">
         <v>40</v>
@@ -5706,7 +5709,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="81" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B5" s="39">
         <v>41</v>
@@ -5722,7 +5725,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="81" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B6" s="39">
         <v>42</v>
@@ -5738,7 +5741,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="81" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B7" s="39">
         <v>72</v>
@@ -5754,7 +5757,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="81" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B8" s="39">
         <v>73</v>
@@ -5770,7 +5773,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="81" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B9" s="39">
         <v>74</v>
@@ -5840,7 +5843,7 @@
     </row>
     <row r="2" spans="1:10" ht="30">
       <c r="A2" s="17" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B2" s="32">
         <v>10</v>
@@ -5849,25 +5852,25 @@
         <v>10</v>
       </c>
       <c r="D2" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="E2" s="33" t="s">
         <v>341</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="F2" s="32" t="s">
         <v>342</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>343</v>
       </c>
       <c r="G2" s="32"/>
       <c r="H2" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="45">
       <c r="A3" s="108" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B3" s="32">
         <v>5</v>
@@ -5876,23 +5879,23 @@
         <v>5</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G3" s="32"/>
       <c r="H3" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="30">
       <c r="A4" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B4" s="32">
         <v>1</v>
@@ -5901,20 +5904,20 @@
         <v>1</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G4" s="32"/>
       <c r="H4" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -5949,44 +5952,44 @@
     <row r="1" spans="1:14" s="38" customFormat="1" ht="18" customHeight="1">
       <c r="A1" s="41"/>
       <c r="B1" s="61" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E1" s="62" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I1" s="41"/>
     </row>
     <row r="2" spans="1:14" s="39" customFormat="1" ht="31.5">
       <c r="A2" s="39" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B2" s="29">
         <f>SUM(Main!P10:P16)</f>
         <v>14</v>
       </c>
       <c r="E2" s="72" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F2" s="39" t="s">
+        <v>333</v>
+      </c>
+      <c r="G2" s="39" t="s">
         <v>334</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="H2" s="39" t="s">
+        <v>334</v>
+      </c>
+      <c r="I2" s="39" t="s">
+        <v>334</v>
+      </c>
+      <c r="J2" s="39" t="s">
+        <v>334</v>
+      </c>
+      <c r="K2" s="39" t="s">
+        <v>334</v>
+      </c>
+      <c r="L2" s="38" t="s">
         <v>335</v>
-      </c>
-      <c r="H2" s="39" t="s">
-        <v>335</v>
-      </c>
-      <c r="I2" s="39" t="s">
-        <v>335</v>
-      </c>
-      <c r="J2" s="39" t="s">
-        <v>335</v>
-      </c>
-      <c r="K2" s="39" t="s">
-        <v>335</v>
-      </c>
-      <c r="L2" s="38" t="s">
-        <v>336</v>
       </c>
       <c r="M2" s="72" t="s">
         <v>43</v>
@@ -5994,7 +5997,7 @@
     </row>
     <row r="3" spans="1:14" s="39" customFormat="1">
       <c r="A3" s="39" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B3" s="30">
         <f>SUM(Main!J10:J16)</f>
@@ -6069,7 +6072,7 @@
     </row>
     <row r="6" spans="1:14" s="39" customFormat="1">
       <c r="B6" s="39" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E6" s="105">
         <v>49</v>
@@ -6096,7 +6099,7 @@
     </row>
     <row r="7" spans="1:14" s="39" customFormat="1">
       <c r="A7" s="39" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B7" s="29">
         <v>1</v>
@@ -6126,7 +6129,7 @@
     </row>
     <row r="8" spans="1:14" s="39" customFormat="1">
       <c r="A8" s="39" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B8" s="30">
         <v>0</v>
@@ -6201,7 +6204,7 @@
     </row>
     <row r="11" spans="1:14" s="39" customFormat="1">
       <c r="B11" s="39" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E11" s="105">
         <v>133</v>
@@ -6231,7 +6234,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="39" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B12" s="29">
         <v>1</v>
@@ -6265,7 +6268,7 @@
     </row>
     <row r="13" spans="1:14" s="39" customFormat="1">
       <c r="A13" s="39" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B13" s="30">
         <f>SUM(Main!J20:J26)</f>
@@ -6344,7 +6347,7 @@
     </row>
     <row r="16" spans="1:14" s="39" customFormat="1">
       <c r="B16" s="39" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E16" s="105">
         <v>172</v>
@@ -6371,7 +6374,7 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="39" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B17" s="29">
         <v>1</v>
@@ -6401,7 +6404,7 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="39" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B18" s="30">
         <v>1</v>
@@ -6482,7 +6485,7 @@
     <row r="21" spans="1:14">
       <c r="A21" s="39"/>
       <c r="B21" s="39" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E21" s="38">
         <v>201</v>
@@ -6509,7 +6512,7 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="39" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B22" s="39">
         <v>1</v>
@@ -6539,7 +6542,7 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="39" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B23" s="30">
         <f>SUM(Main!J30:J36)</f>
@@ -6766,10 +6769,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="38" t="s">
+        <v>337</v>
+      </c>
+      <c r="B1" s="38" t="s">
         <v>338</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>339</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
@@ -7292,21 +7295,21 @@
   <sheetData>
     <row r="1" spans="1:4" s="38" customFormat="1">
       <c r="A1" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="C1" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="D1" s="38" t="s">
         <v>121</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="81" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B2" s="39">
         <v>0</v>
@@ -7314,7 +7317,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="81" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B3" s="39">
         <v>1</v>
@@ -7322,7 +7325,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="81" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B4" s="39">
         <v>2</v>
@@ -7330,7 +7333,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="81" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B5" s="39">
         <v>3</v>
@@ -7338,7 +7341,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="81" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B6" s="39">
         <v>4</v>
@@ -7346,7 +7349,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="81" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B7" s="39">
         <v>5</v>
@@ -7354,7 +7357,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="81" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B8" s="39">
         <v>12</v>
@@ -7362,7 +7365,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="81" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B9" s="39">
         <v>16</v>
@@ -7370,7 +7373,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="81" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C10" s="39">
         <v>24</v>
@@ -7378,7 +7381,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="81" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D11" s="39">
         <v>31</v>
@@ -7386,7 +7389,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="81" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C12" s="39">
         <v>32</v>
@@ -7394,7 +7397,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="81" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D13" s="39">
         <v>33</v>
@@ -7402,7 +7405,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="81" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B14" s="39">
         <v>35</v>
@@ -7410,7 +7413,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="81" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B15" s="39">
         <v>36</v>
@@ -7418,7 +7421,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="81" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C16" s="39">
         <v>37</v>
@@ -7426,7 +7429,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="81" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D17" s="39">
         <v>38</v>
@@ -7434,7 +7437,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="81" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C18" s="39">
         <v>39</v>
@@ -7442,7 +7445,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="81" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D19" s="39">
         <v>40</v>
@@ -7450,7 +7453,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="81" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C20" s="39">
         <v>41</v>
@@ -7458,7 +7461,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="81" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D21" s="39">
         <v>42</v>
@@ -7466,7 +7469,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="81" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C22" s="39">
         <v>43</v>
@@ -7474,7 +7477,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="81" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D23" s="39">
         <v>44</v>
@@ -7482,7 +7485,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="81" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B24" s="39">
         <v>47</v>
@@ -7490,7 +7493,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="81" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C25" s="39">
         <v>48</v>
@@ -7498,7 +7501,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="81" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D26" s="39">
         <v>49</v>
@@ -7506,7 +7509,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="81" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C27" s="39">
         <v>50</v>
@@ -7514,7 +7517,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="81" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D28" s="39">
         <v>51</v>
@@ -7522,7 +7525,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="81" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C29" s="39">
         <v>52</v>
@@ -7530,7 +7533,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="81" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D30" s="39">
         <v>53</v>
@@ -7538,7 +7541,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="81" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C31" s="39">
         <v>54</v>
@@ -7546,7 +7549,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="81" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D32" s="39">
         <v>55</v>
@@ -7554,7 +7557,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="81" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C33" s="39">
         <v>56</v>
@@ -7562,7 +7565,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="81" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D34" s="39">
         <v>57</v>
@@ -7570,7 +7573,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="81" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C35" s="39">
         <v>58</v>
@@ -7578,7 +7581,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="81" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D36" s="39">
         <v>59</v>
@@ -7586,7 +7589,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="81" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C37" s="39">
         <v>60</v>
@@ -7594,7 +7597,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="81" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D38" s="39">
         <v>61</v>
@@ -7602,7 +7605,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="81" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C39" s="39">
         <v>62</v>
@@ -7610,7 +7613,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="81" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D40" s="39">
         <v>63</v>
@@ -7618,7 +7621,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="81" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C41" s="39">
         <v>64</v>
@@ -7626,7 +7629,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="81" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D42" s="39">
         <v>65</v>
@@ -7634,7 +7637,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="81" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C43" s="39">
         <v>66</v>
@@ -7642,7 +7645,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="81" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D44" s="39">
         <v>67</v>
@@ -7650,7 +7653,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="81" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B45" s="39">
         <v>70</v>
@@ -7658,7 +7661,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="81" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B46" s="39">
         <v>72</v>
@@ -7666,7 +7669,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="81" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B47" s="39">
         <v>73</v>
@@ -7674,7 +7677,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="81" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B48" s="39">
         <v>74</v>
@@ -7682,7 +7685,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="81" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C49" s="39">
         <v>76</v>
@@ -7690,7 +7693,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="81" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D50" s="39">
         <v>77</v>
@@ -7698,7 +7701,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="81" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C51" s="39">
         <v>81</v>
@@ -7706,7 +7709,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="81" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C52" s="39">
         <v>82</v>
@@ -7714,7 +7717,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="81" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C53" s="39">
         <v>83</v>
@@ -7722,7 +7725,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="81" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C54" s="39">
         <v>84</v>
@@ -7730,7 +7733,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="81" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C55" s="39">
         <v>85</v>
@@ -7738,7 +7741,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="81" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C56" s="39">
         <v>86</v>
@@ -7746,7 +7749,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="81" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B57" s="39">
         <v>87</v>
@@ -7754,7 +7757,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="81" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D58" s="39">
         <v>89</v>
@@ -7762,7 +7765,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="81" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D59" s="39">
         <v>90</v>
@@ -7770,7 +7773,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="81" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D60" s="39">
         <v>91</v>
@@ -7778,7 +7781,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="81" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D61" s="39">
         <v>92</v>
@@ -7786,7 +7789,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="81" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D62" s="39">
         <v>93</v>
@@ -7794,7 +7797,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="81" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D63" s="39">
         <v>94</v>
@@ -7802,7 +7805,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="81" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C64" s="39">
         <v>96</v>
@@ -7810,7 +7813,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="81" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D65" s="39">
         <v>97</v>
@@ -7818,7 +7821,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="81" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C66" s="39">
         <v>101</v>
@@ -7826,7 +7829,7 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="81" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D67" s="39">
         <v>102</v>
@@ -7834,7 +7837,7 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="81" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C68" s="39">
         <v>103</v>
@@ -7842,7 +7845,7 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="81" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D69" s="39">
         <v>104</v>
@@ -7850,7 +7853,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="81" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C70" s="39">
         <v>105</v>
@@ -7858,7 +7861,7 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="81" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D71" s="39">
         <v>106</v>
@@ -7866,7 +7869,7 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="81" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C72" s="39">
         <v>107</v>
@@ -7874,7 +7877,7 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="81" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D73" s="39">
         <v>108</v>
@@ -7882,7 +7885,7 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="81" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C74" s="39">
         <v>109</v>
@@ -7890,7 +7893,7 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="81" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D75" s="39">
         <v>110</v>
@@ -7898,7 +7901,7 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="81" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C76" s="39">
         <v>113</v>
@@ -7906,7 +7909,7 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="81" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D77" s="39">
         <v>114</v>
@@ -7914,7 +7917,7 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="81" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C78" s="39">
         <v>115</v>
@@ -7922,7 +7925,7 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="81" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D79" s="39">
         <v>116</v>
@@ -7930,7 +7933,7 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="81" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C80" s="39">
         <v>117</v>
@@ -7938,7 +7941,7 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="81" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D81" s="39">
         <v>118</v>
@@ -7946,7 +7949,7 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="81" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C82" s="39">
         <v>119</v>
@@ -7954,7 +7957,7 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="81" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D83" s="39">
         <v>120</v>
@@ -7962,7 +7965,7 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="81" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C84" s="39">
         <v>121</v>
@@ -7970,7 +7973,7 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="81" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D85" s="39">
         <v>122</v>
@@ -7978,7 +7981,7 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="81" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C86" s="39">
         <v>123</v>
@@ -7986,7 +7989,7 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="81" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D87" s="39">
         <v>124</v>
@@ -7994,7 +7997,7 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="81" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C88" s="39">
         <v>125</v>
@@ -8002,7 +8005,7 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="81" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D89" s="39">
         <v>126</v>
@@ -8010,7 +8013,7 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="81" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C90" s="39">
         <v>129</v>
@@ -8018,7 +8021,7 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="81" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D91" s="39">
         <v>130</v>
@@ -8026,7 +8029,7 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="81" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C92" s="39">
         <v>133</v>
@@ -8034,7 +8037,7 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="81" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D93" s="39">
         <v>134</v>
@@ -8042,7 +8045,7 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="81" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C94" s="39">
         <v>135</v>
@@ -8050,7 +8053,7 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="81" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D95" s="39">
         <v>136</v>
@@ -8058,7 +8061,7 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="81" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C96" s="39">
         <v>137</v>
@@ -8066,7 +8069,7 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="81" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D97" s="39">
         <v>138</v>
@@ -8074,7 +8077,7 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="81" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C98" s="39">
         <v>139</v>
@@ -8082,7 +8085,7 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="81" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D99" s="39">
         <v>140</v>
@@ -8090,7 +8093,7 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="81" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C100" s="39">
         <v>141</v>
@@ -8098,7 +8101,7 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="81" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D101" s="39">
         <v>142</v>
@@ -8106,7 +8109,7 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="81" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C102" s="39">
         <v>143</v>
@@ -8114,7 +8117,7 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="81" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D103" s="39">
         <v>144</v>
@@ -8122,7 +8125,7 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="81" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C104" s="39">
         <v>145</v>
@@ -8130,7 +8133,7 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="81" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D105" s="39">
         <v>146</v>
@@ -8138,7 +8141,7 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="81" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C106" s="39">
         <v>147</v>
@@ -8146,7 +8149,7 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="81" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D107" s="39">
         <v>148</v>
@@ -8154,7 +8157,7 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="81" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C108" s="39">
         <v>149</v>
@@ -8162,7 +8165,7 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="81" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D109" s="39">
         <v>150</v>
@@ -8170,7 +8173,7 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="81" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C110" s="39">
         <v>151</v>
@@ -8178,7 +8181,7 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="81" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D111" s="39">
         <v>152</v>
@@ -8186,7 +8189,7 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="81" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C112" s="39">
         <v>153</v>
@@ -8194,7 +8197,7 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="81" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D113" s="39">
         <v>154</v>
@@ -8202,7 +8205,7 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="81" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C114" s="39">
         <v>155</v>
@@ -8210,7 +8213,7 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="81" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D115" s="39">
         <v>156</v>
@@ -8218,7 +8221,7 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="81" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C116" s="39">
         <v>157</v>
@@ -8226,7 +8229,7 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="81" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D117" s="39">
         <v>158</v>
@@ -8234,7 +8237,7 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="81" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C118" s="39">
         <v>161</v>
@@ -8242,7 +8245,7 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="81" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D119" s="39">
         <v>162</v>
@@ -8250,7 +8253,7 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="81" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C120" s="39">
         <v>163</v>
@@ -8258,7 +8261,7 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="81" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D121" s="39">
         <v>164</v>
@@ -8266,7 +8269,7 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="81" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C122" s="39">
         <v>165</v>
@@ -8274,7 +8277,7 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="81" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D123" s="39">
         <v>166</v>
@@ -8282,7 +8285,7 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="81" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C124" s="39">
         <v>167</v>
@@ -8290,7 +8293,7 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="81" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D125" s="39">
         <v>168</v>
@@ -8298,7 +8301,7 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="81" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C126" s="39">
         <v>169</v>
@@ -8306,7 +8309,7 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="81" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D127" s="39">
         <v>170</v>
@@ -8314,7 +8317,7 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="81" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C128" s="39">
         <v>171</v>
@@ -8322,7 +8325,7 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="81" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D129" s="39">
         <v>172</v>
@@ -8330,7 +8333,7 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="81" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C130" s="39">
         <v>173</v>
@@ -8338,7 +8341,7 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="81" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D131" s="39">
         <v>174</v>
@@ -8346,7 +8349,7 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="81" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C132" s="39">
         <v>175</v>
@@ -8354,7 +8357,7 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="81" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D133" s="39">
         <v>176</v>
@@ -8362,7 +8365,7 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="81" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C134" s="39">
         <v>177</v>
@@ -8370,7 +8373,7 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="81" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D135" s="39">
         <v>178</v>
@@ -8378,7 +8381,7 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="81" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C136" s="39">
         <v>179</v>
@@ -8386,7 +8389,7 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="81" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D137" s="39">
         <v>180</v>
@@ -8394,7 +8397,7 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="81" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C138" s="39">
         <v>181</v>
@@ -8402,7 +8405,7 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="81" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D139" s="39">
         <v>182</v>
@@ -8410,7 +8413,7 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="81" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C140" s="39">
         <v>183</v>
@@ -8418,7 +8421,7 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="81" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D141" s="39">
         <v>184</v>
@@ -8426,7 +8429,7 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="81" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C142" s="39">
         <v>185</v>
@@ -8434,7 +8437,7 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="81" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D143" s="39">
         <v>186</v>
@@ -8442,7 +8445,7 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="81" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C144" s="39">
         <v>187</v>
@@ -8450,7 +8453,7 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="81" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D145" s="39">
         <v>188</v>
@@ -8458,7 +8461,7 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="81" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C146" s="39">
         <v>191</v>
@@ -8466,7 +8469,7 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="81" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D147" s="39">
         <v>192</v>
@@ -8474,7 +8477,7 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="81" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C148" s="39">
         <v>193</v>
@@ -8482,7 +8485,7 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="81" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D149" s="39">
         <v>194</v>
@@ -8490,7 +8493,7 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="81" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C150" s="39">
         <v>195</v>
@@ -8498,7 +8501,7 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="81" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D151" s="39">
         <v>196</v>
@@ -8506,7 +8509,7 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="81" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C152" s="39">
         <v>197</v>
@@ -8514,7 +8517,7 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="81" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D153" s="39">
         <v>198</v>
@@ -8522,7 +8525,7 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="81" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C154" s="39">
         <v>199</v>
@@ -8530,7 +8533,7 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="81" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D155" s="39">
         <v>200</v>
@@ -8538,7 +8541,7 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="81" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C156" s="39">
         <v>201</v>
@@ -8546,7 +8549,7 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="81" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D157" s="39">
         <v>202</v>
@@ -8554,7 +8557,7 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="81" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C158" s="39">
         <v>203</v>
@@ -8562,7 +8565,7 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="81" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D159" s="39">
         <v>204</v>
@@ -8570,7 +8573,7 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="81" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C160" s="39">
         <v>205</v>
@@ -8578,7 +8581,7 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="81" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D161" s="39">
         <v>206</v>
@@ -8586,7 +8589,7 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="81" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C162" s="39">
         <v>207</v>
@@ -8594,7 +8597,7 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="81" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D163" s="39">
         <v>208</v>
@@ -8602,7 +8605,7 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="81" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C164" s="39">
         <v>24</v>
@@ -8610,7 +8613,7 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="81" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D165" s="39">
         <v>31</v>
@@ -8618,7 +8621,7 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="81" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B166" s="39">
         <v>35</v>
@@ -8626,7 +8629,7 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="81" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B167" s="39">
         <v>36</v>
@@ -8634,7 +8637,7 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="81" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C168" s="39">
         <v>37</v>
@@ -8642,7 +8645,7 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="81" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D169" s="39">
         <v>38</v>
@@ -8650,7 +8653,7 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="81" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C170" s="39">
         <v>39</v>
@@ -8658,7 +8661,7 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="81" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D171" s="39">
         <v>40</v>
@@ -8666,7 +8669,7 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="81" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C172" s="39">
         <v>43</v>
@@ -8674,7 +8677,7 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="81" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D173" s="39">
         <v>44</v>
@@ -8682,7 +8685,7 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="81" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C174" s="39">
         <v>56</v>
@@ -8690,7 +8693,7 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="81" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D175" s="39">
         <v>57</v>
@@ -8698,7 +8701,7 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="81" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C176" s="39">
         <v>58</v>
@@ -8706,7 +8709,7 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="81" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D177" s="39">
         <v>59</v>
@@ -8714,7 +8717,7 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="81" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C178" s="39">
         <v>60</v>
@@ -8722,7 +8725,7 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="81" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D179" s="39">
         <v>61</v>
@@ -8730,7 +8733,7 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="81" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C180" s="39">
         <v>62</v>
@@ -8738,7 +8741,7 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="81" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D181" s="39">
         <v>63</v>
@@ -8746,7 +8749,7 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="81" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B182" s="39">
         <v>72</v>
@@ -8754,7 +8757,7 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="81" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B183" s="39">
         <v>73</v>
@@ -8762,7 +8765,7 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="81" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B184" s="39">
         <v>74</v>
@@ -8770,7 +8773,7 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="81" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B185" s="39">
         <v>87</v>
@@ -8778,7 +8781,7 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="81" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C186" s="39">
         <v>96</v>
@@ -8786,7 +8789,7 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="81" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D187" s="39">
         <v>97</v>
@@ -8794,7 +8797,7 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="81" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D188" s="39">
         <v>76</v>
@@ -8802,7 +8805,7 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="81" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C189" s="39">
         <v>77</v>
@@ -8831,15 +8834,15 @@
   <sheetData>
     <row r="1" spans="1:2" s="44" customFormat="1">
       <c r="A1" s="42" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1" s="43" t="s">
         <v>286</v>
-      </c>
-      <c r="B1" s="43" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B2" s="45">
         <v>0</v>
@@ -8847,7 +8850,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B3" s="45">
         <v>1</v>
@@ -8855,7 +8858,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B4" s="45">
         <v>2</v>
@@ -8863,7 +8866,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B5" s="45">
         <v>3</v>
@@ -8871,7 +8874,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B6" s="45">
         <v>4</v>
@@ -8879,7 +8882,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B7" s="45">
         <v>5</v>
@@ -8887,7 +8890,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B8" s="45">
         <v>12</v>
@@ -8895,7 +8898,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B9" s="45">
         <v>16</v>
@@ -8903,7 +8906,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B10" s="45">
         <v>24</v>
@@ -8911,7 +8914,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B11" s="45">
         <v>31</v>
@@ -8919,7 +8922,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B12" s="45">
         <v>32</v>
@@ -8927,7 +8930,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B13" s="45">
         <v>33</v>
@@ -8935,7 +8938,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B14" s="45">
         <v>35</v>
@@ -8943,7 +8946,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B15" s="45">
         <v>36</v>
@@ -8951,7 +8954,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B16" s="45">
         <v>37</v>
@@ -8959,7 +8962,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B17" s="45">
         <v>38</v>
@@ -8967,7 +8970,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B18" s="45">
         <v>39</v>
@@ -8975,7 +8978,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B19" s="45">
         <v>40</v>
@@ -8983,7 +8986,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B20" s="45">
         <v>41</v>
@@ -8991,7 +8994,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B21" s="45">
         <v>42</v>
@@ -8999,7 +9002,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B22" s="45">
         <v>43</v>
@@ -9007,7 +9010,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B23" s="45">
         <v>44</v>
@@ -9015,7 +9018,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B24" s="45">
         <v>47</v>
@@ -9023,7 +9026,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B25" s="45">
         <v>48</v>
@@ -9031,7 +9034,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B26" s="45">
         <v>49</v>
@@ -9039,7 +9042,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B27" s="45">
         <v>50</v>
@@ -9047,7 +9050,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B28" s="45">
         <v>51</v>
@@ -9055,7 +9058,7 @@
     </row>
     <row r="29" spans="1:2" s="40" customFormat="1">
       <c r="A29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B29" s="45">
         <v>52</v>
@@ -9063,7 +9066,7 @@
     </row>
     <row r="30" spans="1:2" s="40" customFormat="1">
       <c r="A30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B30" s="45">
         <v>53</v>
@@ -9071,7 +9074,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B31" s="45">
         <v>54</v>
@@ -9079,7 +9082,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B32" s="45">
         <v>55</v>
@@ -9087,7 +9090,7 @@
     </row>
     <row r="33" spans="1:2" s="40" customFormat="1">
       <c r="A33" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B33" s="45">
         <v>56</v>
@@ -9095,7 +9098,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B34" s="45">
         <v>57</v>
@@ -9103,7 +9106,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B35" s="45">
         <v>58</v>
@@ -9111,7 +9114,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B36" s="45">
         <v>59</v>
@@ -9119,7 +9122,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B37" s="45">
         <v>60</v>
@@ -9127,7 +9130,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B38" s="45">
         <v>61</v>
@@ -9135,7 +9138,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B39" s="45">
         <v>62</v>
@@ -9143,7 +9146,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B40" s="45">
         <v>63</v>
@@ -9151,7 +9154,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B41" s="45">
         <v>64</v>
@@ -9159,7 +9162,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B42" s="45">
         <v>65</v>
@@ -9167,7 +9170,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B43" s="45">
         <v>66</v>
@@ -9175,7 +9178,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B44" s="45">
         <v>67</v>
@@ -9183,7 +9186,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B45" s="45">
         <v>70</v>
@@ -9191,7 +9194,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B46" s="45">
         <v>72</v>
@@ -9199,7 +9202,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B47" s="45">
         <v>73</v>
@@ -9207,7 +9210,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B48" s="45">
         <v>74</v>
@@ -9215,7 +9218,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B49" s="45">
         <v>76</v>
@@ -9223,7 +9226,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B50" s="45">
         <v>77</v>
@@ -9231,7 +9234,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B51" s="45">
         <v>81</v>
@@ -9239,7 +9242,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B52" s="45">
         <v>82</v>
@@ -9247,7 +9250,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B53" s="45">
         <v>83</v>
@@ -9255,7 +9258,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B54" s="45">
         <v>84</v>
@@ -9263,7 +9266,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B55" s="45">
         <v>85</v>
@@ -9271,7 +9274,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B56" s="45">
         <v>86</v>
@@ -9279,7 +9282,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B57" s="45">
         <v>87</v>
@@ -9287,7 +9290,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B58" s="45">
         <v>89</v>
@@ -9295,7 +9298,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B59" s="45">
         <v>90</v>
@@ -9303,7 +9306,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B60" s="45">
         <v>91</v>
@@ -9311,7 +9314,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B61" s="45">
         <v>92</v>
@@ -9319,7 +9322,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B62" s="45">
         <v>93</v>
@@ -9327,7 +9330,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B63" s="45">
         <v>94</v>
@@ -9335,7 +9338,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B64" s="45">
         <v>96</v>
@@ -9343,7 +9346,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B65" s="45">
         <v>97</v>
@@ -9351,7 +9354,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B66" s="45">
         <v>101</v>
@@ -9359,7 +9362,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B67" s="45">
         <v>102</v>
@@ -9367,7 +9370,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B68" s="45">
         <v>103</v>
@@ -9375,7 +9378,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B69" s="45">
         <v>104</v>
@@ -9383,7 +9386,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B70" s="45">
         <v>105</v>
@@ -9391,7 +9394,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B71" s="45">
         <v>106</v>
@@ -9399,7 +9402,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B72" s="45">
         <v>107</v>
@@ -9407,7 +9410,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B73" s="45">
         <v>108</v>
@@ -9415,7 +9418,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B74" s="45">
         <v>109</v>
@@ -9423,7 +9426,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B75" s="45">
         <v>110</v>
@@ -9431,7 +9434,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B76" s="45">
         <v>113</v>
@@ -9439,7 +9442,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B77" s="45">
         <v>114</v>
@@ -9447,7 +9450,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B78" s="45">
         <v>115</v>
@@ -9455,7 +9458,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B79" s="45">
         <v>116</v>
@@ -9463,7 +9466,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B80" s="45">
         <v>117</v>
@@ -9471,7 +9474,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B81" s="45">
         <v>118</v>
@@ -9479,7 +9482,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B82" s="45">
         <v>119</v>
@@ -9487,7 +9490,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B83" s="45">
         <v>120</v>
@@ -9495,7 +9498,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B84" s="45">
         <v>121</v>
@@ -9503,7 +9506,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B85" s="45">
         <v>122</v>
@@ -9511,7 +9514,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B86" s="45">
         <v>123</v>
@@ -9519,7 +9522,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B87" s="45">
         <v>124</v>
@@ -9527,7 +9530,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B88" s="45">
         <v>125</v>
@@ -9535,7 +9538,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B89" s="45">
         <v>126</v>
@@ -9543,7 +9546,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B90" s="45">
         <v>129</v>
@@ -9551,7 +9554,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B91" s="45">
         <v>130</v>
@@ -9559,7 +9562,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B92" s="45">
         <v>133</v>
@@ -9567,7 +9570,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B93" s="45">
         <v>134</v>
@@ -9575,7 +9578,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B94" s="45">
         <v>135</v>
@@ -9583,7 +9586,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B95" s="45">
         <v>136</v>
@@ -9591,7 +9594,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B96" s="45">
         <v>137</v>
@@ -9599,7 +9602,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B97" s="45">
         <v>138</v>
@@ -9607,7 +9610,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B98" s="45">
         <v>139</v>
@@ -9615,7 +9618,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B99" s="45">
         <v>140</v>
@@ -9623,7 +9626,7 @@
     </row>
     <row r="100" spans="1:2" s="46" customFormat="1">
       <c r="A100" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B100" s="45">
         <v>141</v>
@@ -9631,7 +9634,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B101" s="45">
         <v>142</v>
@@ -9639,7 +9642,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B102" s="45">
         <v>143</v>
@@ -9647,7 +9650,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B103" s="45">
         <v>144</v>
@@ -9655,7 +9658,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B104" s="45">
         <v>145</v>
@@ -9663,7 +9666,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B105" s="45">
         <v>146</v>
@@ -9671,7 +9674,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B106" s="45">
         <v>147</v>
@@ -9679,7 +9682,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B107" s="45">
         <v>148</v>
@@ -9687,7 +9690,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B108" s="45">
         <v>149</v>
@@ -9695,7 +9698,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B109" s="45">
         <v>150</v>
@@ -9703,7 +9706,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B110" s="45">
         <v>151</v>
@@ -9711,7 +9714,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B111" s="45">
         <v>152</v>
@@ -9719,7 +9722,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B112" s="45">
         <v>153</v>
@@ -9727,7 +9730,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B113" s="45">
         <v>154</v>
@@ -9735,7 +9738,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B114" s="45">
         <v>155</v>
@@ -9743,7 +9746,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B115" s="45">
         <v>156</v>
@@ -9751,7 +9754,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B116" s="45">
         <v>157</v>
@@ -9759,7 +9762,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B117" s="45">
         <v>158</v>
@@ -9767,7 +9770,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B118" s="45">
         <v>161</v>
@@ -9775,7 +9778,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B119" s="45">
         <v>162</v>
@@ -9783,7 +9786,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B120" s="45">
         <v>163</v>
@@ -9791,7 +9794,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B121" s="45">
         <v>164</v>
@@ -9799,7 +9802,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B122" s="45">
         <v>165</v>
@@ -9807,7 +9810,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B123" s="45">
         <v>166</v>
@@ -9815,7 +9818,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B124" s="45">
         <v>167</v>
@@ -9823,7 +9826,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B125" s="45">
         <v>168</v>
@@ -9831,7 +9834,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B126" s="45">
         <v>169</v>
@@ -9839,7 +9842,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B127" s="45">
         <v>170</v>
@@ -9847,7 +9850,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B128" s="45">
         <v>171</v>
@@ -9855,7 +9858,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B129" s="45">
         <v>172</v>
@@ -9863,7 +9866,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B130" s="45">
         <v>173</v>
@@ -9871,7 +9874,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B131" s="45">
         <v>174</v>
@@ -9879,7 +9882,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B132" s="45">
         <v>175</v>
@@ -9887,7 +9890,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B133" s="45">
         <v>176</v>
@@ -9895,7 +9898,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B134" s="45">
         <v>177</v>
@@ -9903,7 +9906,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B135" s="45">
         <v>178</v>
@@ -9911,7 +9914,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B136" s="45">
         <v>179</v>
@@ -9919,7 +9922,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B137" s="39">
         <v>180</v>
@@ -9927,7 +9930,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B138" s="39">
         <v>181</v>
@@ -9935,7 +9938,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B139" s="39">
         <v>182</v>
@@ -9943,7 +9946,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B140" s="39">
         <v>183</v>
@@ -9951,7 +9954,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B141" s="39">
         <v>184</v>
@@ -9959,7 +9962,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B142" s="39">
         <v>185</v>
@@ -9967,7 +9970,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B143" s="39">
         <v>186</v>
@@ -9975,7 +9978,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B144" s="39">
         <v>187</v>
@@ -9983,7 +9986,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B145" s="39">
         <v>188</v>
@@ -9991,7 +9994,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B146" s="39">
         <v>191</v>
@@ -9999,7 +10002,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B147" s="39">
         <v>192</v>
@@ -10007,7 +10010,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B148" s="39">
         <v>193</v>
@@ -10015,7 +10018,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B149" s="39">
         <v>194</v>
@@ -10023,7 +10026,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B150" s="39">
         <v>195</v>
@@ -10031,7 +10034,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B151" s="39">
         <v>196</v>
@@ -10039,7 +10042,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B152" s="39">
         <v>197</v>
@@ -10047,7 +10050,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B153" s="39">
         <v>198</v>
@@ -10055,7 +10058,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B154" s="39">
         <v>199</v>
@@ -10063,7 +10066,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B155" s="39">
         <v>200</v>
@@ -10071,7 +10074,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B156" s="39">
         <v>201</v>
@@ -10079,7 +10082,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B157" s="39">
         <v>202</v>
@@ -10087,7 +10090,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B158" s="39">
         <v>203</v>
@@ -10095,7 +10098,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B159" s="39">
         <v>204</v>
@@ -10103,7 +10106,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B160" s="39">
         <v>205</v>
@@ -10111,7 +10114,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B161" s="39">
         <v>206</v>
@@ -10119,7 +10122,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B162" s="39">
         <v>207</v>
@@ -10127,7 +10130,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B163" s="39">
         <v>208</v>
@@ -10156,16 +10159,16 @@
   <sheetData>
     <row r="1" spans="1:3" s="44" customFormat="1">
       <c r="A1" s="42" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1" s="43" t="s">
         <v>286</v>
-      </c>
-      <c r="B1" s="43" t="s">
-        <v>287</v>
       </c>
       <c r="C1" s="38"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B2" s="45">
         <v>24</v>
@@ -10174,7 +10177,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B3" s="45">
         <v>31</v>
@@ -10183,7 +10186,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B4" s="45">
         <v>35</v>
@@ -10192,7 +10195,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B5" s="45">
         <v>36</v>
@@ -10201,7 +10204,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B6" s="45">
         <v>37</v>
@@ -10210,7 +10213,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B7" s="45">
         <v>38</v>
@@ -10219,7 +10222,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B8" s="45">
         <v>39</v>
@@ -10228,7 +10231,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B9" s="45">
         <v>40</v>
@@ -10237,7 +10240,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B10" s="45">
         <v>43</v>
@@ -10246,7 +10249,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B11" s="45">
         <v>44</v>
@@ -10255,7 +10258,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B12" s="45">
         <v>56</v>
@@ -10264,7 +10267,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B13" s="45">
         <v>57</v>
@@ -10273,7 +10276,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B14" s="45">
         <v>58</v>
@@ -10282,7 +10285,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B15" s="45">
         <v>59</v>
@@ -10291,7 +10294,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B16" s="45">
         <v>60</v>
@@ -10300,7 +10303,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B17" s="45">
         <v>61</v>
@@ -10309,7 +10312,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B18" s="45">
         <v>62</v>
@@ -10318,7 +10321,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B19" s="45">
         <v>63</v>
@@ -10327,7 +10330,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B20" s="45">
         <v>72</v>
@@ -10336,7 +10339,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B21" s="45">
         <v>73</v>
@@ -10345,7 +10348,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B22" s="45">
         <v>74</v>
@@ -10353,7 +10356,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B23" s="45">
         <v>87</v>
@@ -10361,7 +10364,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B24" s="45">
         <v>96</v>
@@ -10369,7 +10372,7 @@
     </row>
     <row r="25" spans="1:3" s="40" customFormat="1">
       <c r="A25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B25" s="45">
         <v>97</v>
@@ -10378,7 +10381,7 @@
     </row>
     <row r="26" spans="1:3" s="40" customFormat="1">
       <c r="A26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B26" s="45">
         <v>76</v>
@@ -10387,7 +10390,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B27" s="45">
         <v>77</v>
@@ -10445,24 +10448,24 @@
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1">
       <c r="D1" s="72"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
-      <c r="U1" s="110"/>
-      <c r="V1" s="110"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="115"/>
+      <c r="P1" s="115"/>
+      <c r="Q1" s="115"/>
+      <c r="R1" s="115"/>
+      <c r="S1" s="115"/>
+      <c r="T1" s="115"/>
+      <c r="U1" s="115"/>
+      <c r="V1" s="115"/>
     </row>
     <row r="2" spans="1:23" ht="96" customHeight="1">
       <c r="A2" s="42"/>
@@ -10531,7 +10534,7 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B3" s="39">
         <v>32</v>
@@ -10542,10 +10545,10 @@
       <c r="M3" s="39">
         <v>32</v>
       </c>
-      <c r="N3" s="123">
+      <c r="N3" s="109">
         <v>32</v>
       </c>
-      <c r="O3" s="123"/>
+      <c r="O3" s="109"/>
       <c r="R3" s="39">
         <v>32</v>
       </c>
@@ -10553,7 +10556,7 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B4" s="39">
         <v>33</v>
@@ -10564,10 +10567,10 @@
       <c r="M4" s="39">
         <v>33</v>
       </c>
-      <c r="N4" s="123">
+      <c r="N4" s="109">
         <v>33</v>
       </c>
-      <c r="O4" s="123"/>
+      <c r="O4" s="109"/>
       <c r="R4" s="39">
         <v>33</v>
       </c>
@@ -10575,7 +10578,7 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B5" s="39">
         <v>48</v>
@@ -10586,8 +10589,8 @@
       <c r="M5" s="39">
         <v>48</v>
       </c>
-      <c r="N5" s="123"/>
-      <c r="O5" s="123">
+      <c r="N5" s="109"/>
+      <c r="O5" s="109">
         <v>48</v>
       </c>
       <c r="T5" s="39">
@@ -10597,7 +10600,7 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B6" s="39">
         <v>49</v>
@@ -10608,8 +10611,8 @@
       <c r="M6" s="39">
         <v>49</v>
       </c>
-      <c r="N6" s="123"/>
-      <c r="O6" s="123">
+      <c r="N6" s="109"/>
+      <c r="O6" s="109">
         <v>49</v>
       </c>
       <c r="T6" s="39">
@@ -10619,7 +10622,7 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B7" s="39">
         <v>117</v>
@@ -10630,10 +10633,10 @@
       <c r="M7" s="39">
         <v>117</v>
       </c>
-      <c r="N7" s="123">
+      <c r="N7" s="109">
         <v>117</v>
       </c>
-      <c r="O7" s="123"/>
+      <c r="O7" s="109"/>
       <c r="P7" s="39">
         <v>117</v>
       </c>
@@ -10641,7 +10644,7 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B8" s="39">
         <v>118</v>
@@ -10652,10 +10655,10 @@
       <c r="M8" s="39">
         <v>118</v>
       </c>
-      <c r="N8" s="123">
+      <c r="N8" s="109">
         <v>118</v>
       </c>
-      <c r="O8" s="123"/>
+      <c r="O8" s="109"/>
       <c r="P8" s="39">
         <v>118</v>
       </c>
@@ -10663,7 +10666,7 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B9" s="39">
         <v>123</v>
@@ -10671,7 +10674,7 @@
       <c r="D9" s="39">
         <v>123</v>
       </c>
-      <c r="N9" s="123"/>
+      <c r="N9" s="109"/>
       <c r="O9" s="39">
         <v>123</v>
       </c>
@@ -10690,7 +10693,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B10" s="39">
         <v>124</v>
@@ -10698,7 +10701,7 @@
       <c r="D10" s="39">
         <v>124</v>
       </c>
-      <c r="N10" s="123"/>
+      <c r="N10" s="109"/>
       <c r="O10" s="39">
         <v>124</v>
       </c>
@@ -10717,7 +10720,7 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B11" s="39">
         <v>133</v>
@@ -10731,8 +10734,8 @@
       <c r="L11" s="39">
         <v>133</v>
       </c>
-      <c r="N11" s="123"/>
-      <c r="O11" s="123"/>
+      <c r="N11" s="109"/>
+      <c r="O11" s="109"/>
       <c r="U11" s="39">
         <v>133</v>
       </c>
@@ -10742,7 +10745,7 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B12" s="39">
         <v>134</v>
@@ -10756,8 +10759,8 @@
       <c r="L12" s="39">
         <v>134</v>
       </c>
-      <c r="N12" s="123"/>
-      <c r="O12" s="123"/>
+      <c r="N12" s="109"/>
+      <c r="O12" s="109"/>
       <c r="U12" s="39">
         <v>134</v>
       </c>
@@ -10767,7 +10770,7 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B13" s="39">
         <v>155</v>
@@ -10781,15 +10784,15 @@
       <c r="K13" s="39">
         <v>155</v>
       </c>
-      <c r="N13" s="123"/>
-      <c r="O13" s="123"/>
+      <c r="N13" s="109"/>
+      <c r="O13" s="109"/>
       <c r="U13" s="39">
         <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B14" s="39">
         <v>156</v>
@@ -10803,15 +10806,15 @@
       <c r="K14" s="39">
         <v>156</v>
       </c>
-      <c r="N14" s="123"/>
-      <c r="O14" s="123"/>
+      <c r="N14" s="109"/>
+      <c r="O14" s="109"/>
       <c r="U14" s="39">
         <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B15" s="39">
         <v>171</v>
@@ -10822,8 +10825,8 @@
       <c r="M15" s="39">
         <v>171</v>
       </c>
-      <c r="N15" s="123"/>
-      <c r="O15" s="123">
+      <c r="N15" s="109"/>
+      <c r="O15" s="109">
         <v>171</v>
       </c>
       <c r="S15" s="39">
@@ -10836,7 +10839,7 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B16" s="39">
         <v>172</v>
@@ -10847,8 +10850,8 @@
       <c r="M16" s="39">
         <v>172</v>
       </c>
-      <c r="N16" s="123"/>
-      <c r="O16" s="123">
+      <c r="N16" s="109"/>
+      <c r="O16" s="109">
         <v>172</v>
       </c>
       <c r="S16" s="39">
@@ -10861,7 +10864,7 @@
     </row>
     <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B17" s="39">
         <v>181</v>
@@ -10878,12 +10881,12 @@
       <c r="J17" s="39">
         <v>181</v>
       </c>
-      <c r="N17" s="123"/>
-      <c r="O17" s="123"/>
+      <c r="N17" s="109"/>
+      <c r="O17" s="109"/>
     </row>
     <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B18" s="39">
         <v>182</v>
@@ -10900,12 +10903,12 @@
       <c r="J18" s="39">
         <v>182</v>
       </c>
-      <c r="N18" s="123"/>
-      <c r="O18" s="123"/>
+      <c r="N18" s="109"/>
+      <c r="O18" s="109"/>
     </row>
     <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B19" s="39">
         <v>185</v>
@@ -10922,15 +10925,15 @@
       <c r="I19" s="39">
         <v>185</v>
       </c>
-      <c r="N19" s="123"/>
-      <c r="O19" s="123"/>
+      <c r="N19" s="109"/>
+      <c r="O19" s="109"/>
       <c r="U19" s="39">
         <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B20" s="39">
         <v>186</v>
@@ -10953,7 +10956,7 @@
     </row>
     <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B21" s="39">
         <v>201</v>
@@ -10973,7 +10976,7 @@
     </row>
     <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B22" s="39">
         <v>202</v>
@@ -10993,7 +10996,7 @@
     </row>
     <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B23" s="39">
         <v>203</v>
@@ -11007,7 +11010,7 @@
     </row>
     <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B24" s="39">
         <v>204</v>
@@ -11021,7 +11024,7 @@
     </row>
     <row r="25" spans="1:24">
       <c r="A25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B25" s="39">
         <v>207</v>
@@ -11041,7 +11044,7 @@
     </row>
     <row r="26" spans="1:24">
       <c r="A26" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B26" s="39">
         <v>208</v>
@@ -11060,44 +11063,44 @@
       </c>
     </row>
     <row r="27" spans="1:24">
-      <c r="A27" s="124" t="s">
+      <c r="A27" s="110" t="s">
+        <v>238</v>
+      </c>
+      <c r="B27" s="111">
+        <v>161</v>
+      </c>
+      <c r="C27" s="110"/>
+      <c r="D27" s="111">
+        <v>161</v>
+      </c>
+      <c r="Q27" s="111">
+        <v>161</v>
+      </c>
+      <c r="V27" s="111">
+        <v>161</v>
+      </c>
+      <c r="W27" s="111">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
+      <c r="A28" s="110" t="s">
         <v>239</v>
       </c>
-      <c r="B27" s="125">
-        <v>161</v>
-      </c>
-      <c r="C27" s="124"/>
-      <c r="D27" s="125">
-        <v>161</v>
-      </c>
-      <c r="Q27" s="125">
-        <v>161</v>
-      </c>
-      <c r="V27" s="125">
-        <v>161</v>
-      </c>
-      <c r="W27" s="125">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24">
-      <c r="A28" s="124" t="s">
-        <v>240</v>
-      </c>
-      <c r="B28" s="125">
+      <c r="B28" s="111">
         <v>162</v>
       </c>
-      <c r="C28" s="124"/>
-      <c r="D28" s="125">
+      <c r="C28" s="110"/>
+      <c r="D28" s="111">
         <v>162</v>
       </c>
-      <c r="Q28" s="125">
+      <c r="Q28" s="111">
         <v>162</v>
       </c>
-      <c r="V28" s="125">
+      <c r="V28" s="111">
         <v>162</v>
       </c>
-      <c r="W28" s="125">
+      <c r="W28" s="111">
         <v>162</v>
       </c>
     </row>
@@ -11446,37 +11449,37 @@
     <row r="1" spans="1:33" ht="15" customHeight="1">
       <c r="A1" s="42"/>
       <c r="B1" s="43"/>
-      <c r="E1" s="111" t="s">
+      <c r="E1" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
-      <c r="U1" s="110"/>
-      <c r="V1" s="110"/>
-      <c r="W1" s="110"/>
-      <c r="X1" s="110"/>
-      <c r="Y1" s="110"/>
-      <c r="Z1" s="110"/>
-      <c r="AA1" s="110"/>
-      <c r="AB1" s="110"/>
-      <c r="AC1" s="110"/>
-      <c r="AD1" s="110"/>
-      <c r="AE1" s="110"/>
-      <c r="AF1" s="110"/>
-      <c r="AG1" s="110"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="115"/>
+      <c r="P1" s="115"/>
+      <c r="Q1" s="115"/>
+      <c r="R1" s="115"/>
+      <c r="S1" s="115"/>
+      <c r="T1" s="115"/>
+      <c r="U1" s="115"/>
+      <c r="V1" s="115"/>
+      <c r="W1" s="115"/>
+      <c r="X1" s="115"/>
+      <c r="Y1" s="115"/>
+      <c r="Z1" s="115"/>
+      <c r="AA1" s="115"/>
+      <c r="AB1" s="115"/>
+      <c r="AC1" s="115"/>
+      <c r="AD1" s="115"/>
+      <c r="AE1" s="115"/>
+      <c r="AF1" s="115"/>
+      <c r="AG1" s="115"/>
     </row>
     <row r="2" spans="1:33" ht="144" customHeight="1">
       <c r="C2" s="72" t="s">
@@ -11525,7 +11528,7 @@
         <v>57</v>
       </c>
       <c r="R2" s="23" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="S2" s="23" t="s">
         <v>58</v>
@@ -11552,7 +11555,7 @@
         <v>65</v>
       </c>
       <c r="AA2" s="23" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AB2" s="23" t="s">
         <v>66</v>
@@ -11575,7 +11578,7 @@
     </row>
     <row r="5" spans="1:33">
       <c r="A5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B5" s="39">
         <v>105</v>
@@ -11595,7 +11598,7 @@
     </row>
     <row r="6" spans="1:33">
       <c r="A6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B6" s="39">
         <v>106</v>
@@ -11615,7 +11618,7 @@
     </row>
     <row r="7" spans="1:33">
       <c r="A7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B7" s="39">
         <v>119</v>
@@ -11631,7 +11634,7 @@
     </row>
     <row r="8" spans="1:33">
       <c r="A8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B8" s="39">
         <v>120</v>
@@ -11647,7 +11650,7 @@
     </row>
     <row r="9" spans="1:33">
       <c r="A9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B9" s="39">
         <v>121</v>
@@ -11670,7 +11673,7 @@
     </row>
     <row r="10" spans="1:33">
       <c r="A10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B10" s="39">
         <v>122</v>
@@ -11693,7 +11696,7 @@
     </row>
     <row r="11" spans="1:33">
       <c r="A11" s="82" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B11" s="39">
         <v>125</v>
@@ -11709,7 +11712,7 @@
     </row>
     <row r="12" spans="1:33">
       <c r="A12" s="82" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B12" s="39">
         <v>126</v>
@@ -11725,7 +11728,7 @@
     </row>
     <row r="13" spans="1:33">
       <c r="A13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B13" s="39">
         <v>137</v>
@@ -11748,7 +11751,7 @@
     </row>
     <row r="14" spans="1:33">
       <c r="A14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B14" s="39">
         <v>138</v>
@@ -11771,7 +11774,7 @@
     </row>
     <row r="15" spans="1:33">
       <c r="A15" s="51" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B15" s="39">
         <v>141</v>
@@ -11787,7 +11790,7 @@
     </row>
     <row r="16" spans="1:33">
       <c r="A16" s="51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B16" s="39">
         <v>142</v>
@@ -11802,7 +11805,7 @@
     </row>
     <row r="17" spans="1:31">
       <c r="A17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B17" s="39">
         <v>143</v>
@@ -11841,7 +11844,7 @@
     </row>
     <row r="18" spans="1:31">
       <c r="A18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B18" s="39">
         <v>144</v>
@@ -11880,7 +11883,7 @@
     </row>
     <row r="19" spans="1:31">
       <c r="A19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B19" s="39">
         <v>147</v>
@@ -11898,7 +11901,7 @@
     </row>
     <row r="20" spans="1:31">
       <c r="A20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B20" s="39">
         <v>148</v>
@@ -11916,7 +11919,7 @@
     </row>
     <row r="21" spans="1:31">
       <c r="A21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B21" s="39">
         <v>151</v>
@@ -11932,7 +11935,7 @@
     </row>
     <row r="22" spans="1:31">
       <c r="A22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B22" s="39">
         <v>152</v>
@@ -11948,7 +11951,7 @@
     </row>
     <row r="23" spans="1:31">
       <c r="A23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B23" s="39">
         <v>153</v>
@@ -11975,7 +11978,7 @@
     </row>
     <row r="24" spans="1:31">
       <c r="A24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B24" s="39">
         <v>154</v>
@@ -12002,7 +12005,7 @@
     </row>
     <row r="25" spans="1:31">
       <c r="A25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B25" s="39">
         <v>163</v>
@@ -12036,7 +12039,7 @@
     </row>
     <row r="26" spans="1:31">
       <c r="A26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B26" s="39">
         <v>164</v>
@@ -12070,7 +12073,7 @@
     </row>
     <row r="27" spans="1:31">
       <c r="A27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B27" s="39">
         <v>165</v>
@@ -12091,7 +12094,7 @@
     </row>
     <row r="28" spans="1:31">
       <c r="A28" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B28" s="39">
         <v>166</v>
@@ -12112,7 +12115,7 @@
     </row>
     <row r="29" spans="1:31">
       <c r="A29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B29" s="39">
         <v>179</v>
@@ -12130,7 +12133,7 @@
     </row>
     <row r="30" spans="1:31">
       <c r="A30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B30" s="39">
         <v>180</v>
@@ -12148,7 +12151,7 @@
     </row>
     <row r="31" spans="1:31">
       <c r="A31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B31" s="39">
         <v>183</v>
@@ -12167,7 +12170,7 @@
     </row>
     <row r="32" spans="1:31">
       <c r="A32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B32" s="39">
         <v>184</v>
@@ -12186,7 +12189,7 @@
     </row>
     <row r="33" spans="1:33">
       <c r="A33" s="50" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B33" s="39">
         <v>187</v>
@@ -12198,7 +12201,7 @@
     </row>
     <row r="34" spans="1:33">
       <c r="A34" s="50" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B34" s="39">
         <v>188</v>
@@ -12210,7 +12213,7 @@
     </row>
     <row r="35" spans="1:33">
       <c r="A35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B35" s="39">
         <v>191</v>
@@ -12245,7 +12248,7 @@
     </row>
     <row r="36" spans="1:33">
       <c r="A36" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B36" s="39">
         <v>192</v>
@@ -12280,7 +12283,7 @@
     </row>
     <row r="37" spans="1:33">
       <c r="A37" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B37" s="39">
         <v>193</v>
@@ -12314,7 +12317,7 @@
     </row>
     <row r="38" spans="1:33">
       <c r="A38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B38" s="39">
         <v>194</v>
@@ -12348,7 +12351,7 @@
     </row>
     <row r="39" spans="1:33">
       <c r="A39" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B39" s="39">
         <v>205</v>
@@ -12384,7 +12387,7 @@
     </row>
     <row r="40" spans="1:33">
       <c r="A40" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B40" s="39">
         <v>206</v>

--- a/tests/_dummy_data.xlsx
+++ b/tests/_dummy_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ali_m\AnacondaProjects\PhD\Semiology-Visualisation-Tool\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3560C6C5-258D-4575-BC46-FB8785FC287B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093B1A07-8D8A-4303-B20C-12A9A7590742}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <sheet name="GIF INSULA" sheetId="10" r:id="rId13"/>
     <sheet name="GIF HYPOTHALAMUS" sheetId="14" r:id="rId14"/>
     <sheet name="GIF CEREBELLUM" sheetId="13" r:id="rId15"/>
+    <sheet name="GIF MIXED" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -2374,7 +2375,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DU52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -5799,6 +5800,20 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4857BDEA-9F5F-47BD-BAA7-9B49C3FA289A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9DE9A4A-45CF-4C31-A3A4-FA8E679F91A6}">
   <dimension ref="A1:J4"/>

--- a/tests/_dummy_data.xlsx
+++ b/tests/_dummy_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ali_m\AnacondaProjects\PhD\Semiology-Visualisation-Tool\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093B1A07-8D8A-4303-B20C-12A9A7590742}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5D5FA7-BBD5-43BA-851E-D5D340DC15EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1160,7 +1160,7 @@
     <t>Other factors (e.g. Abs, genetic mutations)</t>
   </si>
   <si>
-    <t>paediatric subgroup &lt;7 years (0-6 yrs) y/n</t>
+    <t>paediatric subgroup &lt;7 years (0-6 yrs) y/n</t>
   </si>
 </sst>
 </file>
@@ -2375,11 +2375,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DU52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="CW3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
+      <selection pane="bottomRight" activeCell="CX12" sqref="CX12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -5804,8 +5804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4857BDEA-9F5F-47BD-BAA7-9B49C3FA289A}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/tests/_dummy_data.xlsx
+++ b/tests/_dummy_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ali_m\AnacondaProjects\PhD\Semiology-Visualisation-Tool\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF14BD24-5191-4B15-A117-E0494A954F1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5D5FA7-BBD5-43BA-851E-D5D340DC15EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <sheet name="GIF INSULA" sheetId="10" r:id="rId13"/>
     <sheet name="GIF HYPOTHALAMUS" sheetId="14" r:id="rId14"/>
     <sheet name="GIF CEREBELLUM" sheetId="13" r:id="rId15"/>
+    <sheet name="GIF MIXED" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="370">
   <si>
     <t xml:space="preserve">Semiology </t>
   </si>
@@ -396,9 +397,6 @@
     <t>Epilepsy Topology (ET)</t>
   </si>
   <si>
-    <t>Other (e.g. Abs)</t>
-  </si>
-  <si>
     <t>y</t>
   </si>
   <si>
@@ -1157,6 +1155,12 @@
   </si>
   <si>
     <t>tl</t>
+  </si>
+  <si>
+    <t>Other factors (e.g. Abs, genetic mutations)</t>
+  </si>
+  <si>
+    <t>paediatric subgroup &lt;7 years (0-6 yrs) y/n</t>
   </si>
 </sst>
 </file>
@@ -1966,6 +1970,19 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2007,19 +2024,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2372,10 +2376,10 @@
   <dimension ref="A1:DU52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="M15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="CW3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q35" sqref="Q35"/>
+      <selection pane="bottomRight" activeCell="CX12" sqref="CX12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2467,106 +2471,106 @@
     <row r="1" spans="1:125" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="97"/>
       <c r="C1" s="16"/>
-      <c r="D1" s="109" t="s">
+      <c r="D1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="109"/>
-      <c r="G1" s="116" t="s">
+      <c r="E1" s="114"/>
+      <c r="G1" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="K1" s="118" t="s">
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="K1" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="120"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
-      <c r="U1" s="110"/>
-      <c r="V1" s="110"/>
-      <c r="W1" s="110"/>
-      <c r="X1" s="110"/>
-      <c r="Y1" s="110"/>
-      <c r="Z1" s="110"/>
-      <c r="AA1" s="110"/>
-      <c r="AB1" s="110"/>
-      <c r="AC1" s="110"/>
-      <c r="AD1" s="110"/>
-      <c r="AE1" s="110"/>
-      <c r="AF1" s="110"/>
-      <c r="AG1" s="110"/>
-      <c r="AH1" s="110"/>
-      <c r="AI1" s="110"/>
-      <c r="AJ1" s="110"/>
-      <c r="AK1" s="110"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="125"/>
+      <c r="S1" s="115"/>
+      <c r="T1" s="115"/>
+      <c r="U1" s="115"/>
+      <c r="V1" s="115"/>
+      <c r="W1" s="115"/>
+      <c r="X1" s="115"/>
+      <c r="Y1" s="115"/>
+      <c r="Z1" s="115"/>
+      <c r="AA1" s="115"/>
+      <c r="AB1" s="115"/>
+      <c r="AC1" s="115"/>
+      <c r="AD1" s="115"/>
+      <c r="AE1" s="115"/>
+      <c r="AF1" s="115"/>
+      <c r="AG1" s="115"/>
+      <c r="AH1" s="115"/>
+      <c r="AI1" s="115"/>
+      <c r="AJ1" s="115"/>
+      <c r="AK1" s="115"/>
       <c r="AM1" s="96"/>
-      <c r="AN1" s="111" t="s">
+      <c r="AN1" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="AO1" s="110"/>
-      <c r="AP1" s="110"/>
-      <c r="AQ1" s="110"/>
-      <c r="AR1" s="110"/>
-      <c r="AS1" s="110"/>
-      <c r="AT1" s="110"/>
-      <c r="AU1" s="110"/>
-      <c r="AV1" s="110"/>
-      <c r="AW1" s="110"/>
-      <c r="AX1" s="110"/>
-      <c r="AY1" s="110"/>
-      <c r="AZ1" s="110"/>
-      <c r="BA1" s="110"/>
-      <c r="BB1" s="110"/>
-      <c r="BC1" s="110"/>
-      <c r="BD1" s="110"/>
-      <c r="BE1" s="110"/>
-      <c r="BF1" s="110"/>
-      <c r="BG1" s="110"/>
-      <c r="BH1" s="110"/>
-      <c r="BI1" s="110"/>
-      <c r="BJ1" s="110"/>
-      <c r="BK1" s="110"/>
-      <c r="BL1" s="110"/>
-      <c r="BM1" s="110"/>
-      <c r="BN1" s="110"/>
-      <c r="BO1" s="110"/>
-      <c r="BP1" s="110"/>
-      <c r="BR1" s="113"/>
-      <c r="BS1" s="114"/>
-      <c r="BT1" s="114"/>
-      <c r="BU1" s="114"/>
-      <c r="BV1" s="114"/>
-      <c r="BW1" s="115"/>
+      <c r="AO1" s="115"/>
+      <c r="AP1" s="115"/>
+      <c r="AQ1" s="115"/>
+      <c r="AR1" s="115"/>
+      <c r="AS1" s="115"/>
+      <c r="AT1" s="115"/>
+      <c r="AU1" s="115"/>
+      <c r="AV1" s="115"/>
+      <c r="AW1" s="115"/>
+      <c r="AX1" s="115"/>
+      <c r="AY1" s="115"/>
+      <c r="AZ1" s="115"/>
+      <c r="BA1" s="115"/>
+      <c r="BB1" s="115"/>
+      <c r="BC1" s="115"/>
+      <c r="BD1" s="115"/>
+      <c r="BE1" s="115"/>
+      <c r="BF1" s="115"/>
+      <c r="BG1" s="115"/>
+      <c r="BH1" s="115"/>
+      <c r="BI1" s="115"/>
+      <c r="BJ1" s="115"/>
+      <c r="BK1" s="115"/>
+      <c r="BL1" s="115"/>
+      <c r="BM1" s="115"/>
+      <c r="BN1" s="115"/>
+      <c r="BO1" s="115"/>
+      <c r="BP1" s="115"/>
+      <c r="BR1" s="118"/>
+      <c r="BS1" s="119"/>
+      <c r="BT1" s="119"/>
+      <c r="BU1" s="119"/>
+      <c r="BV1" s="119"/>
+      <c r="BW1" s="120"/>
       <c r="BX1" s="99"/>
-      <c r="BZ1" s="110"/>
-      <c r="CA1" s="110"/>
-      <c r="CB1" s="110"/>
-      <c r="CC1" s="110"/>
-      <c r="CD1" s="110"/>
-      <c r="CE1" s="110"/>
-      <c r="CF1" s="110"/>
-      <c r="CG1" s="112"/>
-      <c r="CH1" s="111" t="s">
+      <c r="BZ1" s="115"/>
+      <c r="CA1" s="115"/>
+      <c r="CB1" s="115"/>
+      <c r="CC1" s="115"/>
+      <c r="CD1" s="115"/>
+      <c r="CE1" s="115"/>
+      <c r="CF1" s="115"/>
+      <c r="CG1" s="117"/>
+      <c r="CH1" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="CI1" s="110"/>
-      <c r="CJ1" s="110"/>
-      <c r="CK1" s="110"/>
-      <c r="CL1" s="110"/>
-      <c r="CM1" s="112"/>
+      <c r="CI1" s="115"/>
+      <c r="CJ1" s="115"/>
+      <c r="CK1" s="115"/>
+      <c r="CL1" s="115"/>
+      <c r="CM1" s="117"/>
       <c r="CO1" s="64"/>
-      <c r="CP1" s="110" t="s">
+      <c r="CP1" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="CQ1" s="110"/>
-      <c r="CR1" s="110"/>
-      <c r="CS1" s="110"/>
-      <c r="CT1" s="110"/>
-      <c r="CU1" s="110"/>
-      <c r="CV1" s="110"/>
+      <c r="CQ1" s="115"/>
+      <c r="CR1" s="115"/>
+      <c r="CS1" s="115"/>
+      <c r="CT1" s="115"/>
+      <c r="CU1" s="115"/>
+      <c r="CV1" s="115"/>
       <c r="CX1" s="92"/>
       <c r="CY1" s="92"/>
       <c r="CZ1" s="92"/>
@@ -2744,7 +2748,7 @@
         <v>57</v>
       </c>
       <c r="BA2" s="23" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="BB2" s="23" t="s">
         <v>58</v>
@@ -2771,7 +2775,7 @@
         <v>65</v>
       </c>
       <c r="BJ2" s="23" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="BK2" s="23" t="s">
         <v>66</v>
@@ -2900,7 +2904,7 @@
         <v>107</v>
       </c>
       <c r="DA2" s="103" t="s">
-        <v>108</v>
+        <v>369</v>
       </c>
       <c r="DB2" s="36" t="s">
         <v>109</v>
@@ -2921,7 +2925,7 @@
         <v>114</v>
       </c>
       <c r="DH2" s="13" t="s">
-        <v>115</v>
+        <v>368</v>
       </c>
       <c r="DI2" s="12"/>
       <c r="DJ2" s="12"/>
@@ -2933,7 +2937,7 @@
     </row>
     <row r="3" spans="1:125" ht="30">
       <c r="A3" s="32" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B3" s="32">
         <v>5</v>
@@ -2942,16 +2946,16 @@
         <v>3</v>
       </c>
       <c r="D3" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" s="32" t="s">
         <v>294</v>
       </c>
-      <c r="E3" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>295</v>
-      </c>
       <c r="G3" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H3" s="32"/>
       <c r="I3" s="32"/>
@@ -2959,7 +2963,7 @@
         <v>3</v>
       </c>
       <c r="Q3" s="31" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="R3" s="5">
         <v>1</v>
@@ -2981,7 +2985,7 @@
         <v>1</v>
       </c>
       <c r="DA3" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="DB3" s="6">
         <v>5</v>
@@ -2993,7 +2997,7 @@
         <v>3</v>
       </c>
       <c r="DF3" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="DP3" s="33"/>
       <c r="DQ3" s="33"/>
@@ -3139,7 +3143,7 @@
     </row>
     <row r="8" spans="1:125" ht="30">
       <c r="A8" s="32" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B8" s="32">
         <v>10</v>
@@ -3148,20 +3152,20 @@
         <v>10</v>
       </c>
       <c r="D8" s="32" t="s">
+        <v>305</v>
+      </c>
+      <c r="E8" s="33" t="s">
         <v>306</v>
       </c>
-      <c r="E8" s="33" t="s">
-        <v>307</v>
-      </c>
       <c r="F8" s="32" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G8" s="32"/>
       <c r="H8" s="32" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I8" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M8" s="5">
         <v>10</v>
@@ -3170,7 +3174,7 @@
         <v>10</v>
       </c>
       <c r="Q8" s="31" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AL8" s="5">
         <v>10</v>
@@ -3191,7 +3195,7 @@
         <v>2</v>
       </c>
       <c r="DA8" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="DB8" s="6">
         <v>10</v>
@@ -3203,10 +3207,10 @@
         <v>0</v>
       </c>
       <c r="DE8" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="DH8" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="DP8" s="33"/>
       <c r="DQ8" s="33"/>
@@ -3232,7 +3236,7 @@
     </row>
     <row r="10" spans="1:125">
       <c r="A10" s="32" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B10" s="32">
         <v>10</v>
@@ -3241,16 +3245,16 @@
         <v>10</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H10" s="32"/>
       <c r="I10" s="32"/>
@@ -3264,7 +3268,7 @@
         <v>9</v>
       </c>
       <c r="Q10" s="31" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="R10" s="5">
         <v>9</v>
@@ -3282,7 +3286,7 @@
         <v>5</v>
       </c>
       <c r="DA10" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="DB10" s="6">
         <v>10</v>
@@ -3294,7 +3298,7 @@
         <v>10</v>
       </c>
       <c r="DF10" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="DP10" s="33"/>
       <c r="DQ10" s="33"/>
@@ -3308,16 +3312,16 @@
       <c r="B11" s="32"/>
       <c r="C11" s="32"/>
       <c r="D11" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="F11" s="32" t="s">
         <v>312</v>
       </c>
-      <c r="E11" s="33" t="s">
-        <v>312</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>313</v>
-      </c>
       <c r="G11" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H11" s="32"/>
       <c r="I11" s="32"/>
@@ -3331,7 +3335,7 @@
         <v>1</v>
       </c>
       <c r="Q11" s="31" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AL11" s="5">
         <v>1</v>
@@ -3340,7 +3344,7 @@
         <v>1</v>
       </c>
       <c r="DA11" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="DP11" s="33"/>
       <c r="DQ11" s="33"/>
@@ -3351,7 +3355,7 @@
     </row>
     <row r="12" spans="1:125">
       <c r="A12" s="32" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B12" s="32">
         <v>1</v>
@@ -3360,16 +3364,16 @@
         <v>1</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H12" s="32"/>
       <c r="I12" s="32"/>
@@ -3377,7 +3381,7 @@
         <v>1</v>
       </c>
       <c r="Q12" s="31" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AL12" s="5">
         <v>1</v>
@@ -3409,7 +3413,7 @@
     </row>
     <row r="14" spans="1:125">
       <c r="A14" s="32" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B14" s="32">
         <v>1</v>
@@ -3418,17 +3422,17 @@
         <v>1</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E14" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="F14" s="32" t="s">
         <v>317</v>
-      </c>
-      <c r="F14" s="32" t="s">
-        <v>318</v>
       </c>
       <c r="G14" s="32"/>
       <c r="H14" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I14" s="32"/>
       <c r="P14" s="5">
@@ -3441,7 +3445,7 @@
         <v>1</v>
       </c>
       <c r="DA14" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="DB14" s="6">
         <v>1</v>
@@ -3453,7 +3457,7 @@
         <v>0</v>
       </c>
       <c r="DF14" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="DP14" s="33"/>
       <c r="DQ14" s="33"/>
@@ -3464,7 +3468,7 @@
     </row>
     <row r="15" spans="1:125">
       <c r="A15" s="32" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B15" s="32">
         <v>1</v>
@@ -3473,17 +3477,17 @@
         <v>1</v>
       </c>
       <c r="D15" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="E15" s="33" t="s">
         <v>329</v>
       </c>
-      <c r="E15" s="33" t="s">
-        <v>330</v>
-      </c>
       <c r="F15" s="32" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G15" s="32"/>
       <c r="H15" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I15" s="32"/>
       <c r="P15" s="5">
@@ -3496,7 +3500,7 @@
         <v>1</v>
       </c>
       <c r="DA15" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="DB15" s="6">
         <v>1</v>
@@ -3508,7 +3512,7 @@
         <v>0</v>
       </c>
       <c r="DF15" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="DP15" s="33"/>
       <c r="DQ15" s="33"/>
@@ -3519,7 +3523,7 @@
     </row>
     <row r="16" spans="1:125">
       <c r="A16" s="32" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B16" s="32">
         <v>1</v>
@@ -3528,17 +3532,17 @@
         <v>1</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G16" s="32"/>
       <c r="H16" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I16" s="32"/>
       <c r="P16" s="5">
@@ -3551,7 +3555,7 @@
         <v>1</v>
       </c>
       <c r="DA16" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="DB16" s="6">
         <v>1</v>
@@ -3563,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="DF16" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="DP16" s="33"/>
       <c r="DQ16" s="33"/>
@@ -3664,7 +3668,7 @@
     </row>
     <row r="23" spans="1:125">
       <c r="A23" s="17" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B23" s="32">
         <v>10</v>
@@ -3673,17 +3677,17 @@
         <v>10</v>
       </c>
       <c r="D23" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="E23" s="33" t="s">
         <v>341</v>
       </c>
-      <c r="E23" s="33" t="s">
+      <c r="F23" s="32" t="s">
         <v>342</v>
-      </c>
-      <c r="F23" s="32" t="s">
-        <v>343</v>
       </c>
       <c r="G23" s="32"/>
       <c r="H23" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I23" s="32"/>
       <c r="M23" s="5">
@@ -3693,7 +3697,7 @@
         <v>10</v>
       </c>
       <c r="Q23" s="31" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="BQ23" s="5">
         <v>3</v>
@@ -3705,10 +3709,10 @@
         <v>3</v>
       </c>
       <c r="DA23" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="DF23" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="DP23" s="33"/>
       <c r="DQ23" s="33"/>
@@ -3719,7 +3723,7 @@
     </row>
     <row r="24" spans="1:125" ht="30">
       <c r="A24" s="108" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B24" s="32">
         <v>5</v>
@@ -3728,24 +3732,24 @@
         <v>5</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E24" s="33" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F24" s="32" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G24" s="32"/>
       <c r="H24" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I24" s="32"/>
       <c r="P24" s="5">
         <v>5</v>
       </c>
       <c r="Q24" s="31" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="R24" s="5">
         <v>5</v>
@@ -3754,7 +3758,7 @@
         <v>5</v>
       </c>
       <c r="DF24" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="DP24" s="33"/>
       <c r="DQ24" s="33"/>
@@ -3765,7 +3769,7 @@
     </row>
     <row r="25" spans="1:125">
       <c r="A25" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B25" s="32">
         <v>1</v>
@@ -3774,24 +3778,24 @@
         <v>1</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F25" s="32" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G25" s="32"/>
       <c r="H25" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I25" s="32"/>
       <c r="P25" s="5">
         <v>1</v>
       </c>
       <c r="Q25" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R25" s="5">
         <v>1</v>
@@ -3800,10 +3804,10 @@
         <v>1</v>
       </c>
       <c r="DA25" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="DF25" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="DP25" s="33"/>
       <c r="DQ25" s="33"/>
@@ -3844,7 +3848,7 @@
     </row>
     <row r="28" spans="1:125">
       <c r="A28" s="32" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B28" s="32">
         <v>1</v>
@@ -3853,13 +3857,13 @@
         <v>1</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G28" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H28" s="32"/>
       <c r="I28" s="32"/>
@@ -3867,7 +3871,7 @@
         <v>1</v>
       </c>
       <c r="Q28" s="31" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AL28" s="5">
         <v>1</v>
@@ -3876,7 +3880,7 @@
         <v>1</v>
       </c>
       <c r="DF28" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="DP28" s="33"/>
       <c r="DQ28" s="33"/>
@@ -3887,7 +3891,7 @@
     </row>
     <row r="29" spans="1:125">
       <c r="A29" s="32" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B29" s="32">
         <v>1</v>
@@ -3896,13 +3900,13 @@
         <v>1</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G29" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H29" s="32"/>
       <c r="I29" s="32"/>
@@ -3910,7 +3914,7 @@
         <v>10</v>
       </c>
       <c r="Q29" s="31" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AL29" s="5">
         <v>10</v>
@@ -3919,7 +3923,7 @@
         <v>10</v>
       </c>
       <c r="DF29" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="DP29" s="33"/>
       <c r="DQ29" s="33"/>
@@ -3930,7 +3934,7 @@
     </row>
     <row r="30" spans="1:125" ht="30">
       <c r="A30" s="32" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B30" s="32">
         <v>1</v>
@@ -3939,20 +3943,20 @@
         <v>1</v>
       </c>
       <c r="D30" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="E30" s="33" t="s">
         <v>299</v>
       </c>
-      <c r="E30" s="33" t="s">
+      <c r="F30" s="32" t="s">
         <v>300</v>
-      </c>
-      <c r="F30" s="32" t="s">
-        <v>301</v>
       </c>
       <c r="G30" s="32"/>
       <c r="H30" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I30" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J30" s="5">
         <v>1</v>
@@ -3964,7 +3968,7 @@
         <v>1</v>
       </c>
       <c r="Q30" s="31" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AL30" s="5">
         <v>1</v>
@@ -3973,7 +3977,7 @@
         <v>1</v>
       </c>
       <c r="DA30" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="DB30" s="6">
         <v>1</v>
@@ -3985,7 +3989,7 @@
         <v>0</v>
       </c>
       <c r="DG30" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="DP30" s="33"/>
       <c r="DQ30" s="33"/>
@@ -3996,7 +4000,7 @@
     </row>
     <row r="31" spans="1:125" s="33" customFormat="1" ht="30">
       <c r="A31" s="32" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B31" s="32">
         <v>1</v>
@@ -4005,20 +4009,20 @@
         <v>1</v>
       </c>
       <c r="D31" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="E31" s="33" t="s">
         <v>299</v>
       </c>
-      <c r="E31" s="33" t="s">
+      <c r="F31" s="32" t="s">
         <v>300</v>
-      </c>
-      <c r="F31" s="32" t="s">
-        <v>301</v>
       </c>
       <c r="G31" s="32"/>
       <c r="H31" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I31" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J31" s="5">
         <v>1</v>
@@ -4034,7 +4038,7 @@
         <v>1</v>
       </c>
       <c r="Q31" s="31" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="R31" s="5"/>
       <c r="S31" s="5"/>
@@ -4128,7 +4132,7 @@
       <c r="CY31" s="5"/>
       <c r="CZ31" s="5"/>
       <c r="DA31" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="DB31" s="6">
         <v>1</v>
@@ -4142,7 +4146,7 @@
       <c r="DE31" s="5"/>
       <c r="DF31" s="5"/>
       <c r="DG31" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="DH31" s="5"/>
       <c r="DI31" s="5"/>
@@ -4200,7 +4204,7 @@
     </row>
     <row r="35" spans="1:125">
       <c r="A35" s="32" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B35" s="32">
         <v>999</v>
@@ -4209,16 +4213,16 @@
         <v>999</v>
       </c>
       <c r="D35" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="E35" s="33" t="s">
         <v>365</v>
       </c>
-      <c r="E35" s="33" t="s">
+      <c r="F35" s="32" t="s">
         <v>366</v>
       </c>
-      <c r="F35" s="32" t="s">
-        <v>367</v>
-      </c>
       <c r="G35" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H35" s="32"/>
       <c r="I35" s="32"/>
@@ -4252,16 +4256,16 @@
       <c r="B36" s="32"/>
       <c r="C36" s="32"/>
       <c r="D36" s="17" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E36" s="33" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F36" s="32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G36" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H36" s="32"/>
       <c r="I36" s="32"/>
@@ -4269,7 +4273,7 @@
         <v>7</v>
       </c>
       <c r="Q36" s="31" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="R36" s="5">
         <v>7</v>
@@ -4576,7 +4580,7 @@
         <v>83</v>
       </c>
       <c r="G2" s="83" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H2" s="54" t="s">
         <v>85</v>
@@ -4593,7 +4597,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B3" s="39">
         <v>107</v>
@@ -4616,7 +4620,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B4" s="39">
         <v>108</v>
@@ -4633,7 +4637,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="50" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B5" s="39">
         <v>113</v>
@@ -4645,7 +4649,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="50" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B6" s="39">
         <v>114</v>
@@ -4657,7 +4661,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B7" s="39">
         <v>149</v>
@@ -4674,7 +4678,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B8" s="39">
         <v>150</v>
@@ -4691,7 +4695,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B9" s="39">
         <v>169</v>
@@ -4706,7 +4710,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B10" s="39">
         <v>170</v>
@@ -4721,7 +4725,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B11" s="39">
         <v>175</v>
@@ -4736,7 +4740,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B12" s="39">
         <v>176</v>
@@ -4751,7 +4755,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B13" s="39">
         <v>177</v>
@@ -4767,7 +4771,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B14" s="39">
         <v>178</v>
@@ -4782,7 +4786,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B15" s="39">
         <v>195</v>
@@ -4799,7 +4803,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B16" s="39">
         <v>196</v>
@@ -4816,7 +4820,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B17" s="39">
         <v>199</v>
@@ -4831,7 +4835,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B18" s="39">
         <v>200</v>
@@ -4846,7 +4850,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="81" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B19" s="39">
         <v>86</v>
@@ -4857,7 +4861,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="81" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B20" s="39">
         <v>94</v>
@@ -4891,12 +4895,12 @@
     <row r="1" spans="1:11">
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="121" t="s">
+      <c r="E1" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
     </row>
     <row r="2" spans="1:11" ht="45">
       <c r="C2" s="73" t="s">
@@ -4920,7 +4924,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="51" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B3" s="39">
         <v>109</v>
@@ -4935,7 +4939,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="51" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B4" s="39">
         <v>110</v>
@@ -4954,7 +4958,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B5" s="39">
         <v>115</v>
@@ -4962,10 +4966,10 @@
       <c r="C5" s="39">
         <v>115</v>
       </c>
-      <c r="D5" s="126">
+      <c r="D5" s="112">
         <v>115</v>
       </c>
-      <c r="E5" s="126">
+      <c r="E5" s="112">
         <v>115</v>
       </c>
       <c r="F5" s="50"/>
@@ -4975,7 +4979,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B6" s="39">
         <v>116</v>
@@ -4983,10 +4987,10 @@
       <c r="C6" s="39">
         <v>116</v>
       </c>
-      <c r="D6" s="126">
+      <c r="D6" s="112">
         <v>116</v>
       </c>
-      <c r="E6" s="126">
+      <c r="E6" s="112">
         <v>116</v>
       </c>
       <c r="F6" s="50"/>
@@ -4996,7 +5000,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="51" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B7" s="39">
         <v>129</v>
@@ -5016,7 +5020,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="51" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B8" s="39">
         <v>130</v>
@@ -5036,7 +5040,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B9" s="39">
         <v>135</v>
@@ -5048,7 +5052,7 @@
       <c r="E9" s="39">
         <v>135</v>
       </c>
-      <c r="F9" s="126">
+      <c r="F9" s="112">
         <v>135</v>
       </c>
       <c r="G9" s="50"/>
@@ -5057,7 +5061,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B10" s="39">
         <v>136</v>
@@ -5069,7 +5073,7 @@
       <c r="E10" s="39">
         <v>136</v>
       </c>
-      <c r="F10" s="126">
+      <c r="F10" s="112">
         <v>136</v>
       </c>
       <c r="G10" s="50"/>
@@ -5078,7 +5082,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B11" s="39">
         <v>145</v>
@@ -5087,7 +5091,7 @@
         <v>145</v>
       </c>
       <c r="D11" s="50"/>
-      <c r="E11" s="126"/>
+      <c r="E11" s="112"/>
       <c r="F11" s="50"/>
       <c r="G11" s="50"/>
       <c r="H11" s="50"/>
@@ -5098,7 +5102,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B12" s="39">
         <v>146</v>
@@ -5107,7 +5111,7 @@
         <v>146</v>
       </c>
       <c r="D12" s="50"/>
-      <c r="E12" s="126"/>
+      <c r="E12" s="112"/>
       <c r="F12" s="82"/>
       <c r="G12" s="82"/>
       <c r="H12" s="82"/>
@@ -5118,7 +5122,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B13" s="39">
         <v>157</v>
@@ -5130,14 +5134,14 @@
       <c r="E13" s="82"/>
       <c r="F13" s="82"/>
       <c r="G13" s="82"/>
-      <c r="H13" s="126">
+      <c r="H13" s="112">
         <v>157</v>
       </c>
       <c r="I13" s="82"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B14" s="39">
         <v>158</v>
@@ -5149,14 +5153,14 @@
       <c r="E14" s="82"/>
       <c r="F14" s="82"/>
       <c r="G14" s="82"/>
-      <c r="H14" s="126">
+      <c r="H14" s="112">
         <v>158</v>
       </c>
       <c r="I14" s="82"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="51" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B15" s="39">
         <v>197</v>
@@ -5164,13 +5168,13 @@
       <c r="C15" s="39">
         <v>197</v>
       </c>
-      <c r="I15" s="126">
+      <c r="I15" s="112">
         <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="51" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B16" s="39">
         <v>198</v>
@@ -5178,7 +5182,7 @@
       <c r="C16" s="39">
         <v>198</v>
       </c>
-      <c r="I16" s="126">
+      <c r="I16" s="112">
         <v>198</v>
       </c>
     </row>
@@ -5217,11 +5221,11 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="C1" s="2"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="112"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="117"/>
       <c r="I1" s="98"/>
       <c r="J1" s="85"/>
     </row>
@@ -5248,12 +5252,12 @@
         <v>79</v>
       </c>
       <c r="J2" s="86" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B3" s="39">
         <v>101</v>
@@ -5274,7 +5278,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B4" s="39">
         <v>102</v>
@@ -5295,7 +5299,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B5" s="39">
         <v>139</v>
@@ -5309,7 +5313,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B6" s="39">
         <v>140</v>
@@ -5323,7 +5327,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B7" s="39">
         <v>167</v>
@@ -5334,13 +5338,13 @@
       <c r="H7" s="39">
         <v>167</v>
       </c>
-      <c r="I7" s="123">
+      <c r="I7" s="109">
         <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B8" s="39">
         <v>168</v>
@@ -5351,13 +5355,13 @@
       <c r="H8" s="39">
         <v>168</v>
       </c>
-      <c r="I8" s="123">
+      <c r="I8" s="109">
         <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B9" s="39">
         <v>83</v>
@@ -5371,7 +5375,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B10" s="39">
         <v>91</v>
@@ -5408,15 +5412,15 @@
     <row r="1" spans="1:11" ht="26.25">
       <c r="C1" s="2"/>
       <c r="D1" s="64"/>
-      <c r="E1" s="122" t="s">
+      <c r="E1" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
     </row>
     <row r="2" spans="1:11" ht="30">
       <c r="C2" s="74" t="s">
@@ -5449,7 +5453,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B3" s="39">
         <v>103</v>
@@ -5474,13 +5478,13 @@
       </c>
       <c r="I3" s="51"/>
       <c r="J3" s="51"/>
-      <c r="K3" s="123">
+      <c r="K3" s="109">
         <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B4" s="39">
         <v>104</v>
@@ -5505,13 +5509,13 @@
       </c>
       <c r="I4" s="51"/>
       <c r="J4" s="51"/>
-      <c r="K4" s="123">
+      <c r="K4" s="109">
         <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B5" s="39">
         <v>173</v>
@@ -5519,18 +5523,18 @@
       <c r="C5" s="39">
         <v>173</v>
       </c>
-      <c r="H5" s="127"/>
-      <c r="I5" s="123">
+      <c r="H5" s="113"/>
+      <c r="I5" s="109">
         <v>173</v>
       </c>
-      <c r="J5" s="123">
+      <c r="J5" s="109">
         <v>173</v>
       </c>
       <c r="K5" s="51"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B6" s="39">
         <v>174</v>
@@ -5538,11 +5542,11 @@
       <c r="C6" s="39">
         <v>174</v>
       </c>
-      <c r="H6" s="127"/>
-      <c r="I6" s="123">
+      <c r="H6" s="113"/>
+      <c r="I6" s="109">
         <v>174</v>
       </c>
-      <c r="J6" s="123">
+      <c r="J6" s="109">
         <v>174</v>
       </c>
       <c r="K6" s="51"/>
@@ -5583,7 +5587,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B3" s="45">
         <v>60</v>
@@ -5594,7 +5598,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B4" s="45">
         <v>61</v>
@@ -5674,7 +5678,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="81" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B3" s="39">
         <v>39</v>
@@ -5690,7 +5694,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="81" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B4" s="39">
         <v>40</v>
@@ -5706,7 +5710,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="81" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B5" s="39">
         <v>41</v>
@@ -5722,7 +5726,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="81" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B6" s="39">
         <v>42</v>
@@ -5738,7 +5742,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="81" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B7" s="39">
         <v>72</v>
@@ -5754,7 +5758,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="81" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B8" s="39">
         <v>73</v>
@@ -5770,7 +5774,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="81" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B9" s="39">
         <v>74</v>
@@ -5792,6 +5796,20 @@
       <c r="F10" s="39"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4857BDEA-9F5F-47BD-BAA7-9B49C3FA289A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5840,7 +5858,7 @@
     </row>
     <row r="2" spans="1:10" ht="30">
       <c r="A2" s="17" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B2" s="32">
         <v>10</v>
@@ -5849,25 +5867,25 @@
         <v>10</v>
       </c>
       <c r="D2" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="E2" s="33" t="s">
         <v>341</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="F2" s="32" t="s">
         <v>342</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>343</v>
       </c>
       <c r="G2" s="32"/>
       <c r="H2" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="45">
       <c r="A3" s="108" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B3" s="32">
         <v>5</v>
@@ -5876,23 +5894,23 @@
         <v>5</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G3" s="32"/>
       <c r="H3" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="30">
       <c r="A4" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B4" s="32">
         <v>1</v>
@@ -5901,20 +5919,20 @@
         <v>1</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G4" s="32"/>
       <c r="H4" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -5949,44 +5967,44 @@
     <row r="1" spans="1:14" s="38" customFormat="1" ht="18" customHeight="1">
       <c r="A1" s="41"/>
       <c r="B1" s="61" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E1" s="62" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I1" s="41"/>
     </row>
     <row r="2" spans="1:14" s="39" customFormat="1" ht="31.5">
       <c r="A2" s="39" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B2" s="29">
         <f>SUM(Main!P10:P16)</f>
         <v>14</v>
       </c>
       <c r="E2" s="72" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F2" s="39" t="s">
+        <v>333</v>
+      </c>
+      <c r="G2" s="39" t="s">
         <v>334</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="H2" s="39" t="s">
+        <v>334</v>
+      </c>
+      <c r="I2" s="39" t="s">
+        <v>334</v>
+      </c>
+      <c r="J2" s="39" t="s">
+        <v>334</v>
+      </c>
+      <c r="K2" s="39" t="s">
+        <v>334</v>
+      </c>
+      <c r="L2" s="38" t="s">
         <v>335</v>
-      </c>
-      <c r="H2" s="39" t="s">
-        <v>335</v>
-      </c>
-      <c r="I2" s="39" t="s">
-        <v>335</v>
-      </c>
-      <c r="J2" s="39" t="s">
-        <v>335</v>
-      </c>
-      <c r="K2" s="39" t="s">
-        <v>335</v>
-      </c>
-      <c r="L2" s="38" t="s">
-        <v>336</v>
       </c>
       <c r="M2" s="72" t="s">
         <v>43</v>
@@ -5994,7 +6012,7 @@
     </row>
     <row r="3" spans="1:14" s="39" customFormat="1">
       <c r="A3" s="39" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B3" s="30">
         <f>SUM(Main!J10:J16)</f>
@@ -6069,7 +6087,7 @@
     </row>
     <row r="6" spans="1:14" s="39" customFormat="1">
       <c r="B6" s="39" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E6" s="105">
         <v>49</v>
@@ -6096,7 +6114,7 @@
     </row>
     <row r="7" spans="1:14" s="39" customFormat="1">
       <c r="A7" s="39" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B7" s="29">
         <v>1</v>
@@ -6126,7 +6144,7 @@
     </row>
     <row r="8" spans="1:14" s="39" customFormat="1">
       <c r="A8" s="39" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B8" s="30">
         <v>0</v>
@@ -6201,7 +6219,7 @@
     </row>
     <row r="11" spans="1:14" s="39" customFormat="1">
       <c r="B11" s="39" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E11" s="105">
         <v>133</v>
@@ -6231,7 +6249,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="39" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B12" s="29">
         <v>1</v>
@@ -6265,7 +6283,7 @@
     </row>
     <row r="13" spans="1:14" s="39" customFormat="1">
       <c r="A13" s="39" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B13" s="30">
         <f>SUM(Main!J20:J26)</f>
@@ -6344,7 +6362,7 @@
     </row>
     <row r="16" spans="1:14" s="39" customFormat="1">
       <c r="B16" s="39" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E16" s="105">
         <v>172</v>
@@ -6371,7 +6389,7 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="39" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B17" s="29">
         <v>1</v>
@@ -6401,7 +6419,7 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="39" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B18" s="30">
         <v>1</v>
@@ -6482,7 +6500,7 @@
     <row r="21" spans="1:14">
       <c r="A21" s="39"/>
       <c r="B21" s="39" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E21" s="38">
         <v>201</v>
@@ -6509,7 +6527,7 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="39" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B22" s="39">
         <v>1</v>
@@ -6539,7 +6557,7 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="39" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B23" s="30">
         <f>SUM(Main!J30:J36)</f>
@@ -6766,10 +6784,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="38" t="s">
+        <v>337</v>
+      </c>
+      <c r="B1" s="38" t="s">
         <v>338</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>339</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
@@ -7292,21 +7310,21 @@
   <sheetData>
     <row r="1" spans="1:4" s="38" customFormat="1">
       <c r="A1" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="C1" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="D1" s="38" t="s">
         <v>121</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="81" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B2" s="39">
         <v>0</v>
@@ -7314,7 +7332,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="81" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B3" s="39">
         <v>1</v>
@@ -7322,7 +7340,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="81" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B4" s="39">
         <v>2</v>
@@ -7330,7 +7348,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="81" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B5" s="39">
         <v>3</v>
@@ -7338,7 +7356,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="81" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B6" s="39">
         <v>4</v>
@@ -7346,7 +7364,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="81" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B7" s="39">
         <v>5</v>
@@ -7354,7 +7372,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="81" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B8" s="39">
         <v>12</v>
@@ -7362,7 +7380,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="81" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B9" s="39">
         <v>16</v>
@@ -7370,7 +7388,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="81" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C10" s="39">
         <v>24</v>
@@ -7378,7 +7396,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="81" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D11" s="39">
         <v>31</v>
@@ -7386,7 +7404,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="81" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C12" s="39">
         <v>32</v>
@@ -7394,7 +7412,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="81" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D13" s="39">
         <v>33</v>
@@ -7402,7 +7420,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="81" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B14" s="39">
         <v>35</v>
@@ -7410,7 +7428,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="81" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B15" s="39">
         <v>36</v>
@@ -7418,7 +7436,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="81" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C16" s="39">
         <v>37</v>
@@ -7426,7 +7444,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="81" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D17" s="39">
         <v>38</v>
@@ -7434,7 +7452,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="81" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C18" s="39">
         <v>39</v>
@@ -7442,7 +7460,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="81" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D19" s="39">
         <v>40</v>
@@ -7450,7 +7468,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="81" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C20" s="39">
         <v>41</v>
@@ -7458,7 +7476,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="81" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D21" s="39">
         <v>42</v>
@@ -7466,7 +7484,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="81" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C22" s="39">
         <v>43</v>
@@ -7474,7 +7492,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="81" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D23" s="39">
         <v>44</v>
@@ -7482,7 +7500,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="81" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B24" s="39">
         <v>47</v>
@@ -7490,7 +7508,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="81" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C25" s="39">
         <v>48</v>
@@ -7498,7 +7516,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="81" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D26" s="39">
         <v>49</v>
@@ -7506,7 +7524,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="81" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C27" s="39">
         <v>50</v>
@@ -7514,7 +7532,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="81" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D28" s="39">
         <v>51</v>
@@ -7522,7 +7540,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="81" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C29" s="39">
         <v>52</v>
@@ -7530,7 +7548,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="81" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D30" s="39">
         <v>53</v>
@@ -7538,7 +7556,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="81" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C31" s="39">
         <v>54</v>
@@ -7546,7 +7564,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="81" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D32" s="39">
         <v>55</v>
@@ -7554,7 +7572,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="81" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C33" s="39">
         <v>56</v>
@@ -7562,7 +7580,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="81" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D34" s="39">
         <v>57</v>
@@ -7570,7 +7588,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="81" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C35" s="39">
         <v>58</v>
@@ -7578,7 +7596,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="81" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D36" s="39">
         <v>59</v>
@@ -7586,7 +7604,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="81" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C37" s="39">
         <v>60</v>
@@ -7594,7 +7612,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="81" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D38" s="39">
         <v>61</v>
@@ -7602,7 +7620,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="81" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C39" s="39">
         <v>62</v>
@@ -7610,7 +7628,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="81" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D40" s="39">
         <v>63</v>
@@ -7618,7 +7636,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="81" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C41" s="39">
         <v>64</v>
@@ -7626,7 +7644,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="81" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D42" s="39">
         <v>65</v>
@@ -7634,7 +7652,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="81" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C43" s="39">
         <v>66</v>
@@ -7642,7 +7660,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="81" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D44" s="39">
         <v>67</v>
@@ -7650,7 +7668,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="81" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B45" s="39">
         <v>70</v>
@@ -7658,7 +7676,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="81" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B46" s="39">
         <v>72</v>
@@ -7666,7 +7684,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="81" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B47" s="39">
         <v>73</v>
@@ -7674,7 +7692,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="81" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B48" s="39">
         <v>74</v>
@@ -7682,7 +7700,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="81" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C49" s="39">
         <v>76</v>
@@ -7690,7 +7708,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="81" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D50" s="39">
         <v>77</v>
@@ -7698,7 +7716,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="81" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C51" s="39">
         <v>81</v>
@@ -7706,7 +7724,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="81" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C52" s="39">
         <v>82</v>
@@ -7714,7 +7732,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="81" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C53" s="39">
         <v>83</v>
@@ -7722,7 +7740,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="81" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C54" s="39">
         <v>84</v>
@@ -7730,7 +7748,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="81" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C55" s="39">
         <v>85</v>
@@ -7738,7 +7756,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="81" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C56" s="39">
         <v>86</v>
@@ -7746,7 +7764,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="81" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B57" s="39">
         <v>87</v>
@@ -7754,7 +7772,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="81" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D58" s="39">
         <v>89</v>
@@ -7762,7 +7780,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="81" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D59" s="39">
         <v>90</v>
@@ -7770,7 +7788,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="81" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D60" s="39">
         <v>91</v>
@@ -7778,7 +7796,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="81" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D61" s="39">
         <v>92</v>
@@ -7786,7 +7804,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="81" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D62" s="39">
         <v>93</v>
@@ -7794,7 +7812,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="81" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D63" s="39">
         <v>94</v>
@@ -7802,7 +7820,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="81" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C64" s="39">
         <v>96</v>
@@ -7810,7 +7828,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="81" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D65" s="39">
         <v>97</v>
@@ -7818,7 +7836,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="81" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C66" s="39">
         <v>101</v>
@@ -7826,7 +7844,7 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="81" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D67" s="39">
         <v>102</v>
@@ -7834,7 +7852,7 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="81" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C68" s="39">
         <v>103</v>
@@ -7842,7 +7860,7 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="81" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D69" s="39">
         <v>104</v>
@@ -7850,7 +7868,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="81" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C70" s="39">
         <v>105</v>
@@ -7858,7 +7876,7 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="81" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D71" s="39">
         <v>106</v>
@@ -7866,7 +7884,7 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="81" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C72" s="39">
         <v>107</v>
@@ -7874,7 +7892,7 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="81" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D73" s="39">
         <v>108</v>
@@ -7882,7 +7900,7 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="81" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C74" s="39">
         <v>109</v>
@@ -7890,7 +7908,7 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="81" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D75" s="39">
         <v>110</v>
@@ -7898,7 +7916,7 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="81" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C76" s="39">
         <v>113</v>
@@ -7906,7 +7924,7 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="81" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D77" s="39">
         <v>114</v>
@@ -7914,7 +7932,7 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="81" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C78" s="39">
         <v>115</v>
@@ -7922,7 +7940,7 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="81" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D79" s="39">
         <v>116</v>
@@ -7930,7 +7948,7 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="81" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C80" s="39">
         <v>117</v>
@@ -7938,7 +7956,7 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="81" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D81" s="39">
         <v>118</v>
@@ -7946,7 +7964,7 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="81" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C82" s="39">
         <v>119</v>
@@ -7954,7 +7972,7 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="81" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D83" s="39">
         <v>120</v>
@@ -7962,7 +7980,7 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="81" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C84" s="39">
         <v>121</v>
@@ -7970,7 +7988,7 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="81" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D85" s="39">
         <v>122</v>
@@ -7978,7 +7996,7 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="81" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C86" s="39">
         <v>123</v>
@@ -7986,7 +8004,7 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="81" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D87" s="39">
         <v>124</v>
@@ -7994,7 +8012,7 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="81" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C88" s="39">
         <v>125</v>
@@ -8002,7 +8020,7 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="81" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D89" s="39">
         <v>126</v>
@@ -8010,7 +8028,7 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="81" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C90" s="39">
         <v>129</v>
@@ -8018,7 +8036,7 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="81" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D91" s="39">
         <v>130</v>
@@ -8026,7 +8044,7 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="81" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C92" s="39">
         <v>133</v>
@@ -8034,7 +8052,7 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="81" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D93" s="39">
         <v>134</v>
@@ -8042,7 +8060,7 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="81" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C94" s="39">
         <v>135</v>
@@ -8050,7 +8068,7 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="81" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D95" s="39">
         <v>136</v>
@@ -8058,7 +8076,7 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="81" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C96" s="39">
         <v>137</v>
@@ -8066,7 +8084,7 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="81" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D97" s="39">
         <v>138</v>
@@ -8074,7 +8092,7 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="81" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C98" s="39">
         <v>139</v>
@@ -8082,7 +8100,7 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="81" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D99" s="39">
         <v>140</v>
@@ -8090,7 +8108,7 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="81" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C100" s="39">
         <v>141</v>
@@ -8098,7 +8116,7 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="81" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D101" s="39">
         <v>142</v>
@@ -8106,7 +8124,7 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="81" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C102" s="39">
         <v>143</v>
@@ -8114,7 +8132,7 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="81" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D103" s="39">
         <v>144</v>
@@ -8122,7 +8140,7 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="81" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C104" s="39">
         <v>145</v>
@@ -8130,7 +8148,7 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="81" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D105" s="39">
         <v>146</v>
@@ -8138,7 +8156,7 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="81" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C106" s="39">
         <v>147</v>
@@ -8146,7 +8164,7 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="81" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D107" s="39">
         <v>148</v>
@@ -8154,7 +8172,7 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="81" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C108" s="39">
         <v>149</v>
@@ -8162,7 +8180,7 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="81" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D109" s="39">
         <v>150</v>
@@ -8170,7 +8188,7 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="81" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C110" s="39">
         <v>151</v>
@@ -8178,7 +8196,7 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="81" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D111" s="39">
         <v>152</v>
@@ -8186,7 +8204,7 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="81" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C112" s="39">
         <v>153</v>
@@ -8194,7 +8212,7 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="81" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D113" s="39">
         <v>154</v>
@@ -8202,7 +8220,7 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="81" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C114" s="39">
         <v>155</v>
@@ -8210,7 +8228,7 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="81" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D115" s="39">
         <v>156</v>
@@ -8218,7 +8236,7 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="81" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C116" s="39">
         <v>157</v>
@@ -8226,7 +8244,7 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="81" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D117" s="39">
         <v>158</v>
@@ -8234,7 +8252,7 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="81" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C118" s="39">
         <v>161</v>
@@ -8242,7 +8260,7 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="81" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D119" s="39">
         <v>162</v>
@@ -8250,7 +8268,7 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="81" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C120" s="39">
         <v>163</v>
@@ -8258,7 +8276,7 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="81" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D121" s="39">
         <v>164</v>
@@ -8266,7 +8284,7 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="81" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C122" s="39">
         <v>165</v>
@@ -8274,7 +8292,7 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="81" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D123" s="39">
         <v>166</v>
@@ -8282,7 +8300,7 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="81" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C124" s="39">
         <v>167</v>
@@ -8290,7 +8308,7 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="81" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D125" s="39">
         <v>168</v>
@@ -8298,7 +8316,7 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="81" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C126" s="39">
         <v>169</v>
@@ -8306,7 +8324,7 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="81" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D127" s="39">
         <v>170</v>
@@ -8314,7 +8332,7 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="81" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C128" s="39">
         <v>171</v>
@@ -8322,7 +8340,7 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="81" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D129" s="39">
         <v>172</v>
@@ -8330,7 +8348,7 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="81" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C130" s="39">
         <v>173</v>
@@ -8338,7 +8356,7 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="81" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D131" s="39">
         <v>174</v>
@@ -8346,7 +8364,7 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="81" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C132" s="39">
         <v>175</v>
@@ -8354,7 +8372,7 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="81" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D133" s="39">
         <v>176</v>
@@ -8362,7 +8380,7 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="81" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C134" s="39">
         <v>177</v>
@@ -8370,7 +8388,7 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="81" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D135" s="39">
         <v>178</v>
@@ -8378,7 +8396,7 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="81" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C136" s="39">
         <v>179</v>
@@ -8386,7 +8404,7 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="81" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D137" s="39">
         <v>180</v>
@@ -8394,7 +8412,7 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="81" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C138" s="39">
         <v>181</v>
@@ -8402,7 +8420,7 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="81" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D139" s="39">
         <v>182</v>
@@ -8410,7 +8428,7 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="81" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C140" s="39">
         <v>183</v>
@@ -8418,7 +8436,7 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="81" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D141" s="39">
         <v>184</v>
@@ -8426,7 +8444,7 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="81" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C142" s="39">
         <v>185</v>
@@ -8434,7 +8452,7 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="81" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D143" s="39">
         <v>186</v>
@@ -8442,7 +8460,7 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="81" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C144" s="39">
         <v>187</v>
@@ -8450,7 +8468,7 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="81" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D145" s="39">
         <v>188</v>
@@ -8458,7 +8476,7 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="81" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C146" s="39">
         <v>191</v>
@@ -8466,7 +8484,7 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="81" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D147" s="39">
         <v>192</v>
@@ -8474,7 +8492,7 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="81" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C148" s="39">
         <v>193</v>
@@ -8482,7 +8500,7 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="81" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D149" s="39">
         <v>194</v>
@@ -8490,7 +8508,7 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="81" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C150" s="39">
         <v>195</v>
@@ -8498,7 +8516,7 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="81" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D151" s="39">
         <v>196</v>
@@ -8506,7 +8524,7 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="81" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C152" s="39">
         <v>197</v>
@@ -8514,7 +8532,7 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="81" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D153" s="39">
         <v>198</v>
@@ -8522,7 +8540,7 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="81" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C154" s="39">
         <v>199</v>
@@ -8530,7 +8548,7 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="81" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D155" s="39">
         <v>200</v>
@@ -8538,7 +8556,7 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="81" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C156" s="39">
         <v>201</v>
@@ -8546,7 +8564,7 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="81" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D157" s="39">
         <v>202</v>
@@ -8554,7 +8572,7 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="81" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C158" s="39">
         <v>203</v>
@@ -8562,7 +8580,7 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="81" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D159" s="39">
         <v>204</v>
@@ -8570,7 +8588,7 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="81" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C160" s="39">
         <v>205</v>
@@ -8578,7 +8596,7 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="81" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D161" s="39">
         <v>206</v>
@@ -8586,7 +8604,7 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="81" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C162" s="39">
         <v>207</v>
@@ -8594,7 +8612,7 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="81" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D163" s="39">
         <v>208</v>
@@ -8602,7 +8620,7 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="81" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C164" s="39">
         <v>24</v>
@@ -8610,7 +8628,7 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="81" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D165" s="39">
         <v>31</v>
@@ -8618,7 +8636,7 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="81" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B166" s="39">
         <v>35</v>
@@ -8626,7 +8644,7 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="81" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B167" s="39">
         <v>36</v>
@@ -8634,7 +8652,7 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="81" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C168" s="39">
         <v>37</v>
@@ -8642,7 +8660,7 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="81" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D169" s="39">
         <v>38</v>
@@ -8650,7 +8668,7 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="81" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C170" s="39">
         <v>39</v>
@@ -8658,7 +8676,7 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="81" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D171" s="39">
         <v>40</v>
@@ -8666,7 +8684,7 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="81" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C172" s="39">
         <v>43</v>
@@ -8674,7 +8692,7 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="81" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D173" s="39">
         <v>44</v>
@@ -8682,7 +8700,7 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="81" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C174" s="39">
         <v>56</v>
@@ -8690,7 +8708,7 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="81" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D175" s="39">
         <v>57</v>
@@ -8698,7 +8716,7 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="81" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C176" s="39">
         <v>58</v>
@@ -8706,7 +8724,7 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="81" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D177" s="39">
         <v>59</v>
@@ -8714,7 +8732,7 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="81" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C178" s="39">
         <v>60</v>
@@ -8722,7 +8740,7 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="81" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D179" s="39">
         <v>61</v>
@@ -8730,7 +8748,7 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="81" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C180" s="39">
         <v>62</v>
@@ -8738,7 +8756,7 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="81" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D181" s="39">
         <v>63</v>
@@ -8746,7 +8764,7 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="81" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B182" s="39">
         <v>72</v>
@@ -8754,7 +8772,7 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="81" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B183" s="39">
         <v>73</v>
@@ -8762,7 +8780,7 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="81" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B184" s="39">
         <v>74</v>
@@ -8770,7 +8788,7 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="81" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B185" s="39">
         <v>87</v>
@@ -8778,7 +8796,7 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="81" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C186" s="39">
         <v>96</v>
@@ -8786,7 +8804,7 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="81" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D187" s="39">
         <v>97</v>
@@ -8794,7 +8812,7 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="81" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D188" s="39">
         <v>76</v>
@@ -8802,7 +8820,7 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="81" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C189" s="39">
         <v>77</v>
@@ -8831,15 +8849,15 @@
   <sheetData>
     <row r="1" spans="1:2" s="44" customFormat="1">
       <c r="A1" s="42" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1" s="43" t="s">
         <v>286</v>
-      </c>
-      <c r="B1" s="43" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B2" s="45">
         <v>0</v>
@@ -8847,7 +8865,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B3" s="45">
         <v>1</v>
@@ -8855,7 +8873,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B4" s="45">
         <v>2</v>
@@ -8863,7 +8881,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B5" s="45">
         <v>3</v>
@@ -8871,7 +8889,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B6" s="45">
         <v>4</v>
@@ -8879,7 +8897,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B7" s="45">
         <v>5</v>
@@ -8887,7 +8905,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B8" s="45">
         <v>12</v>
@@ -8895,7 +8913,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B9" s="45">
         <v>16</v>
@@ -8903,7 +8921,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B10" s="45">
         <v>24</v>
@@ -8911,7 +8929,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B11" s="45">
         <v>31</v>
@@ -8919,7 +8937,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B12" s="45">
         <v>32</v>
@@ -8927,7 +8945,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B13" s="45">
         <v>33</v>
@@ -8935,7 +8953,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B14" s="45">
         <v>35</v>
@@ -8943,7 +8961,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B15" s="45">
         <v>36</v>
@@ -8951,7 +8969,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B16" s="45">
         <v>37</v>
@@ -8959,7 +8977,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B17" s="45">
         <v>38</v>
@@ -8967,7 +8985,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B18" s="45">
         <v>39</v>
@@ -8975,7 +8993,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B19" s="45">
         <v>40</v>
@@ -8983,7 +9001,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B20" s="45">
         <v>41</v>
@@ -8991,7 +9009,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B21" s="45">
         <v>42</v>
@@ -8999,7 +9017,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B22" s="45">
         <v>43</v>
@@ -9007,7 +9025,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B23" s="45">
         <v>44</v>
@@ -9015,7 +9033,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B24" s="45">
         <v>47</v>
@@ -9023,7 +9041,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B25" s="45">
         <v>48</v>
@@ -9031,7 +9049,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B26" s="45">
         <v>49</v>
@@ -9039,7 +9057,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B27" s="45">
         <v>50</v>
@@ -9047,7 +9065,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B28" s="45">
         <v>51</v>
@@ -9055,7 +9073,7 @@
     </row>
     <row r="29" spans="1:2" s="40" customFormat="1">
       <c r="A29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B29" s="45">
         <v>52</v>
@@ -9063,7 +9081,7 @@
     </row>
     <row r="30" spans="1:2" s="40" customFormat="1">
       <c r="A30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B30" s="45">
         <v>53</v>
@@ -9071,7 +9089,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B31" s="45">
         <v>54</v>
@@ -9079,7 +9097,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B32" s="45">
         <v>55</v>
@@ -9087,7 +9105,7 @@
     </row>
     <row r="33" spans="1:2" s="40" customFormat="1">
       <c r="A33" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B33" s="45">
         <v>56</v>
@@ -9095,7 +9113,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B34" s="45">
         <v>57</v>
@@ -9103,7 +9121,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B35" s="45">
         <v>58</v>
@@ -9111,7 +9129,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B36" s="45">
         <v>59</v>
@@ -9119,7 +9137,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B37" s="45">
         <v>60</v>
@@ -9127,7 +9145,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B38" s="45">
         <v>61</v>
@@ -9135,7 +9153,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B39" s="45">
         <v>62</v>
@@ -9143,7 +9161,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B40" s="45">
         <v>63</v>
@@ -9151,7 +9169,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B41" s="45">
         <v>64</v>
@@ -9159,7 +9177,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B42" s="45">
         <v>65</v>
@@ -9167,7 +9185,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B43" s="45">
         <v>66</v>
@@ -9175,7 +9193,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B44" s="45">
         <v>67</v>
@@ -9183,7 +9201,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B45" s="45">
         <v>70</v>
@@ -9191,7 +9209,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B46" s="45">
         <v>72</v>
@@ -9199,7 +9217,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B47" s="45">
         <v>73</v>
@@ -9207,7 +9225,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B48" s="45">
         <v>74</v>
@@ -9215,7 +9233,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B49" s="45">
         <v>76</v>
@@ -9223,7 +9241,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B50" s="45">
         <v>77</v>
@@ -9231,7 +9249,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B51" s="45">
         <v>81</v>
@@ -9239,7 +9257,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B52" s="45">
         <v>82</v>
@@ -9247,7 +9265,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B53" s="45">
         <v>83</v>
@@ -9255,7 +9273,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B54" s="45">
         <v>84</v>
@@ -9263,7 +9281,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B55" s="45">
         <v>85</v>
@@ -9271,7 +9289,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B56" s="45">
         <v>86</v>
@@ -9279,7 +9297,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B57" s="45">
         <v>87</v>
@@ -9287,7 +9305,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B58" s="45">
         <v>89</v>
@@ -9295,7 +9313,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B59" s="45">
         <v>90</v>
@@ -9303,7 +9321,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B60" s="45">
         <v>91</v>
@@ -9311,7 +9329,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B61" s="45">
         <v>92</v>
@@ -9319,7 +9337,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B62" s="45">
         <v>93</v>
@@ -9327,7 +9345,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B63" s="45">
         <v>94</v>
@@ -9335,7 +9353,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B64" s="45">
         <v>96</v>
@@ -9343,7 +9361,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B65" s="45">
         <v>97</v>
@@ -9351,7 +9369,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B66" s="45">
         <v>101</v>
@@ -9359,7 +9377,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B67" s="45">
         <v>102</v>
@@ -9367,7 +9385,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B68" s="45">
         <v>103</v>
@@ -9375,7 +9393,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B69" s="45">
         <v>104</v>
@@ -9383,7 +9401,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B70" s="45">
         <v>105</v>
@@ -9391,7 +9409,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B71" s="45">
         <v>106</v>
@@ -9399,7 +9417,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B72" s="45">
         <v>107</v>
@@ -9407,7 +9425,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B73" s="45">
         <v>108</v>
@@ -9415,7 +9433,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B74" s="45">
         <v>109</v>
@@ -9423,7 +9441,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B75" s="45">
         <v>110</v>
@@ -9431,7 +9449,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B76" s="45">
         <v>113</v>
@@ -9439,7 +9457,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B77" s="45">
         <v>114</v>
@@ -9447,7 +9465,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B78" s="45">
         <v>115</v>
@@ -9455,7 +9473,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B79" s="45">
         <v>116</v>
@@ -9463,7 +9481,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B80" s="45">
         <v>117</v>
@@ -9471,7 +9489,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B81" s="45">
         <v>118</v>
@@ -9479,7 +9497,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B82" s="45">
         <v>119</v>
@@ -9487,7 +9505,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B83" s="45">
         <v>120</v>
@@ -9495,7 +9513,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B84" s="45">
         <v>121</v>
@@ -9503,7 +9521,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B85" s="45">
         <v>122</v>
@@ -9511,7 +9529,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B86" s="45">
         <v>123</v>
@@ -9519,7 +9537,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B87" s="45">
         <v>124</v>
@@ -9527,7 +9545,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B88" s="45">
         <v>125</v>
@@ -9535,7 +9553,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B89" s="45">
         <v>126</v>
@@ -9543,7 +9561,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B90" s="45">
         <v>129</v>
@@ -9551,7 +9569,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B91" s="45">
         <v>130</v>
@@ -9559,7 +9577,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B92" s="45">
         <v>133</v>
@@ -9567,7 +9585,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B93" s="45">
         <v>134</v>
@@ -9575,7 +9593,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B94" s="45">
         <v>135</v>
@@ -9583,7 +9601,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B95" s="45">
         <v>136</v>
@@ -9591,7 +9609,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B96" s="45">
         <v>137</v>
@@ -9599,7 +9617,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B97" s="45">
         <v>138</v>
@@ -9607,7 +9625,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B98" s="45">
         <v>139</v>
@@ -9615,7 +9633,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B99" s="45">
         <v>140</v>
@@ -9623,7 +9641,7 @@
     </row>
     <row r="100" spans="1:2" s="46" customFormat="1">
       <c r="A100" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B100" s="45">
         <v>141</v>
@@ -9631,7 +9649,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B101" s="45">
         <v>142</v>
@@ -9639,7 +9657,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B102" s="45">
         <v>143</v>
@@ -9647,7 +9665,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B103" s="45">
         <v>144</v>
@@ -9655,7 +9673,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B104" s="45">
         <v>145</v>
@@ -9663,7 +9681,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B105" s="45">
         <v>146</v>
@@ -9671,7 +9689,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B106" s="45">
         <v>147</v>
@@ -9679,7 +9697,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B107" s="45">
         <v>148</v>
@@ -9687,7 +9705,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B108" s="45">
         <v>149</v>
@@ -9695,7 +9713,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B109" s="45">
         <v>150</v>
@@ -9703,7 +9721,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B110" s="45">
         <v>151</v>
@@ -9711,7 +9729,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B111" s="45">
         <v>152</v>
@@ -9719,7 +9737,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B112" s="45">
         <v>153</v>
@@ -9727,7 +9745,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B113" s="45">
         <v>154</v>
@@ -9735,7 +9753,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B114" s="45">
         <v>155</v>
@@ -9743,7 +9761,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B115" s="45">
         <v>156</v>
@@ -9751,7 +9769,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B116" s="45">
         <v>157</v>
@@ -9759,7 +9777,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B117" s="45">
         <v>158</v>
@@ -9767,7 +9785,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B118" s="45">
         <v>161</v>
@@ -9775,7 +9793,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B119" s="45">
         <v>162</v>
@@ -9783,7 +9801,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B120" s="45">
         <v>163</v>
@@ -9791,7 +9809,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B121" s="45">
         <v>164</v>
@@ -9799,7 +9817,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B122" s="45">
         <v>165</v>
@@ -9807,7 +9825,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B123" s="45">
         <v>166</v>
@@ -9815,7 +9833,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B124" s="45">
         <v>167</v>
@@ -9823,7 +9841,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B125" s="45">
         <v>168</v>
@@ -9831,7 +9849,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B126" s="45">
         <v>169</v>
@@ -9839,7 +9857,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B127" s="45">
         <v>170</v>
@@ -9847,7 +9865,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B128" s="45">
         <v>171</v>
@@ -9855,7 +9873,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B129" s="45">
         <v>172</v>
@@ -9863,7 +9881,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B130" s="45">
         <v>173</v>
@@ -9871,7 +9889,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B131" s="45">
         <v>174</v>
@@ -9879,7 +9897,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B132" s="45">
         <v>175</v>
@@ -9887,7 +9905,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B133" s="45">
         <v>176</v>
@@ -9895,7 +9913,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B134" s="45">
         <v>177</v>
@@ -9903,7 +9921,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B135" s="45">
         <v>178</v>
@@ -9911,7 +9929,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B136" s="45">
         <v>179</v>
@@ -9919,7 +9937,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B137" s="39">
         <v>180</v>
@@ -9927,7 +9945,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B138" s="39">
         <v>181</v>
@@ -9935,7 +9953,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B139" s="39">
         <v>182</v>
@@ -9943,7 +9961,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B140" s="39">
         <v>183</v>
@@ -9951,7 +9969,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B141" s="39">
         <v>184</v>
@@ -9959,7 +9977,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B142" s="39">
         <v>185</v>
@@ -9967,7 +9985,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B143" s="39">
         <v>186</v>
@@ -9975,7 +9993,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B144" s="39">
         <v>187</v>
@@ -9983,7 +10001,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B145" s="39">
         <v>188</v>
@@ -9991,7 +10009,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B146" s="39">
         <v>191</v>
@@ -9999,7 +10017,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B147" s="39">
         <v>192</v>
@@ -10007,7 +10025,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B148" s="39">
         <v>193</v>
@@ -10015,7 +10033,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B149" s="39">
         <v>194</v>
@@ -10023,7 +10041,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B150" s="39">
         <v>195</v>
@@ -10031,7 +10049,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B151" s="39">
         <v>196</v>
@@ -10039,7 +10057,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B152" s="39">
         <v>197</v>
@@ -10047,7 +10065,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B153" s="39">
         <v>198</v>
@@ -10055,7 +10073,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B154" s="39">
         <v>199</v>
@@ -10063,7 +10081,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B155" s="39">
         <v>200</v>
@@ -10071,7 +10089,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B156" s="39">
         <v>201</v>
@@ -10079,7 +10097,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B157" s="39">
         <v>202</v>
@@ -10087,7 +10105,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B158" s="39">
         <v>203</v>
@@ -10095,7 +10113,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B159" s="39">
         <v>204</v>
@@ -10103,7 +10121,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B160" s="39">
         <v>205</v>
@@ -10111,7 +10129,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B161" s="39">
         <v>206</v>
@@ -10119,7 +10137,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B162" s="39">
         <v>207</v>
@@ -10127,7 +10145,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B163" s="39">
         <v>208</v>
@@ -10156,16 +10174,16 @@
   <sheetData>
     <row r="1" spans="1:3" s="44" customFormat="1">
       <c r="A1" s="42" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1" s="43" t="s">
         <v>286</v>
-      </c>
-      <c r="B1" s="43" t="s">
-        <v>287</v>
       </c>
       <c r="C1" s="38"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B2" s="45">
         <v>24</v>
@@ -10174,7 +10192,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B3" s="45">
         <v>31</v>
@@ -10183,7 +10201,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B4" s="45">
         <v>35</v>
@@ -10192,7 +10210,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B5" s="45">
         <v>36</v>
@@ -10201,7 +10219,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B6" s="45">
         <v>37</v>
@@ -10210,7 +10228,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B7" s="45">
         <v>38</v>
@@ -10219,7 +10237,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B8" s="45">
         <v>39</v>
@@ -10228,7 +10246,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B9" s="45">
         <v>40</v>
@@ -10237,7 +10255,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B10" s="45">
         <v>43</v>
@@ -10246,7 +10264,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B11" s="45">
         <v>44</v>
@@ -10255,7 +10273,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B12" s="45">
         <v>56</v>
@@ -10264,7 +10282,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B13" s="45">
         <v>57</v>
@@ -10273,7 +10291,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B14" s="45">
         <v>58</v>
@@ -10282,7 +10300,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B15" s="45">
         <v>59</v>
@@ -10291,7 +10309,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B16" s="45">
         <v>60</v>
@@ -10300,7 +10318,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B17" s="45">
         <v>61</v>
@@ -10309,7 +10327,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B18" s="45">
         <v>62</v>
@@ -10318,7 +10336,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B19" s="45">
         <v>63</v>
@@ -10327,7 +10345,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B20" s="45">
         <v>72</v>
@@ -10336,7 +10354,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B21" s="45">
         <v>73</v>
@@ -10345,7 +10363,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B22" s="45">
         <v>74</v>
@@ -10353,7 +10371,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B23" s="45">
         <v>87</v>
@@ -10361,7 +10379,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B24" s="45">
         <v>96</v>
@@ -10369,7 +10387,7 @@
     </row>
     <row r="25" spans="1:3" s="40" customFormat="1">
       <c r="A25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B25" s="45">
         <v>97</v>
@@ -10378,7 +10396,7 @@
     </row>
     <row r="26" spans="1:3" s="40" customFormat="1">
       <c r="A26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B26" s="45">
         <v>76</v>
@@ -10387,7 +10405,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B27" s="45">
         <v>77</v>
@@ -10445,24 +10463,24 @@
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1">
       <c r="D1" s="72"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
-      <c r="U1" s="110"/>
-      <c r="V1" s="110"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="115"/>
+      <c r="P1" s="115"/>
+      <c r="Q1" s="115"/>
+      <c r="R1" s="115"/>
+      <c r="S1" s="115"/>
+      <c r="T1" s="115"/>
+      <c r="U1" s="115"/>
+      <c r="V1" s="115"/>
     </row>
     <row r="2" spans="1:23" ht="96" customHeight="1">
       <c r="A2" s="42"/>
@@ -10531,7 +10549,7 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B3" s="39">
         <v>32</v>
@@ -10542,10 +10560,10 @@
       <c r="M3" s="39">
         <v>32</v>
       </c>
-      <c r="N3" s="123">
+      <c r="N3" s="109">
         <v>32</v>
       </c>
-      <c r="O3" s="123"/>
+      <c r="O3" s="109"/>
       <c r="R3" s="39">
         <v>32</v>
       </c>
@@ -10553,7 +10571,7 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B4" s="39">
         <v>33</v>
@@ -10564,10 +10582,10 @@
       <c r="M4" s="39">
         <v>33</v>
       </c>
-      <c r="N4" s="123">
+      <c r="N4" s="109">
         <v>33</v>
       </c>
-      <c r="O4" s="123"/>
+      <c r="O4" s="109"/>
       <c r="R4" s="39">
         <v>33</v>
       </c>
@@ -10575,7 +10593,7 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B5" s="39">
         <v>48</v>
@@ -10586,8 +10604,8 @@
       <c r="M5" s="39">
         <v>48</v>
       </c>
-      <c r="N5" s="123"/>
-      <c r="O5" s="123">
+      <c r="N5" s="109"/>
+      <c r="O5" s="109">
         <v>48</v>
       </c>
       <c r="T5" s="39">
@@ -10597,7 +10615,7 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B6" s="39">
         <v>49</v>
@@ -10608,8 +10626,8 @@
       <c r="M6" s="39">
         <v>49</v>
       </c>
-      <c r="N6" s="123"/>
-      <c r="O6" s="123">
+      <c r="N6" s="109"/>
+      <c r="O6" s="109">
         <v>49</v>
       </c>
       <c r="T6" s="39">
@@ -10619,7 +10637,7 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B7" s="39">
         <v>117</v>
@@ -10630,10 +10648,10 @@
       <c r="M7" s="39">
         <v>117</v>
       </c>
-      <c r="N7" s="123">
+      <c r="N7" s="109">
         <v>117</v>
       </c>
-      <c r="O7" s="123"/>
+      <c r="O7" s="109"/>
       <c r="P7" s="39">
         <v>117</v>
       </c>
@@ -10641,7 +10659,7 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B8" s="39">
         <v>118</v>
@@ -10652,10 +10670,10 @@
       <c r="M8" s="39">
         <v>118</v>
       </c>
-      <c r="N8" s="123">
+      <c r="N8" s="109">
         <v>118</v>
       </c>
-      <c r="O8" s="123"/>
+      <c r="O8" s="109"/>
       <c r="P8" s="39">
         <v>118</v>
       </c>
@@ -10663,7 +10681,7 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B9" s="39">
         <v>123</v>
@@ -10671,7 +10689,7 @@
       <c r="D9" s="39">
         <v>123</v>
       </c>
-      <c r="N9" s="123"/>
+      <c r="N9" s="109"/>
       <c r="O9" s="39">
         <v>123</v>
       </c>
@@ -10690,7 +10708,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B10" s="39">
         <v>124</v>
@@ -10698,7 +10716,7 @@
       <c r="D10" s="39">
         <v>124</v>
       </c>
-      <c r="N10" s="123"/>
+      <c r="N10" s="109"/>
       <c r="O10" s="39">
         <v>124</v>
       </c>
@@ -10717,7 +10735,7 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B11" s="39">
         <v>133</v>
@@ -10731,8 +10749,8 @@
       <c r="L11" s="39">
         <v>133</v>
       </c>
-      <c r="N11" s="123"/>
-      <c r="O11" s="123"/>
+      <c r="N11" s="109"/>
+      <c r="O11" s="109"/>
       <c r="U11" s="39">
         <v>133</v>
       </c>
@@ -10742,7 +10760,7 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B12" s="39">
         <v>134</v>
@@ -10756,8 +10774,8 @@
       <c r="L12" s="39">
         <v>134</v>
       </c>
-      <c r="N12" s="123"/>
-      <c r="O12" s="123"/>
+      <c r="N12" s="109"/>
+      <c r="O12" s="109"/>
       <c r="U12" s="39">
         <v>134</v>
       </c>
@@ -10767,7 +10785,7 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B13" s="39">
         <v>155</v>
@@ -10781,15 +10799,15 @@
       <c r="K13" s="39">
         <v>155</v>
       </c>
-      <c r="N13" s="123"/>
-      <c r="O13" s="123"/>
+      <c r="N13" s="109"/>
+      <c r="O13" s="109"/>
       <c r="U13" s="39">
         <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B14" s="39">
         <v>156</v>
@@ -10803,15 +10821,15 @@
       <c r="K14" s="39">
         <v>156</v>
       </c>
-      <c r="N14" s="123"/>
-      <c r="O14" s="123"/>
+      <c r="N14" s="109"/>
+      <c r="O14" s="109"/>
       <c r="U14" s="39">
         <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B15" s="39">
         <v>171</v>
@@ -10822,8 +10840,8 @@
       <c r="M15" s="39">
         <v>171</v>
       </c>
-      <c r="N15" s="123"/>
-      <c r="O15" s="123">
+      <c r="N15" s="109"/>
+      <c r="O15" s="109">
         <v>171</v>
       </c>
       <c r="S15" s="39">
@@ -10836,7 +10854,7 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B16" s="39">
         <v>172</v>
@@ -10847,8 +10865,8 @@
       <c r="M16" s="39">
         <v>172</v>
       </c>
-      <c r="N16" s="123"/>
-      <c r="O16" s="123">
+      <c r="N16" s="109"/>
+      <c r="O16" s="109">
         <v>172</v>
       </c>
       <c r="S16" s="39">
@@ -10861,7 +10879,7 @@
     </row>
     <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B17" s="39">
         <v>181</v>
@@ -10878,12 +10896,12 @@
       <c r="J17" s="39">
         <v>181</v>
       </c>
-      <c r="N17" s="123"/>
-      <c r="O17" s="123"/>
+      <c r="N17" s="109"/>
+      <c r="O17" s="109"/>
     </row>
     <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B18" s="39">
         <v>182</v>
@@ -10900,12 +10918,12 @@
       <c r="J18" s="39">
         <v>182</v>
       </c>
-      <c r="N18" s="123"/>
-      <c r="O18" s="123"/>
+      <c r="N18" s="109"/>
+      <c r="O18" s="109"/>
     </row>
     <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B19" s="39">
         <v>185</v>
@@ -10922,15 +10940,15 @@
       <c r="I19" s="39">
         <v>185</v>
       </c>
-      <c r="N19" s="123"/>
-      <c r="O19" s="123"/>
+      <c r="N19" s="109"/>
+      <c r="O19" s="109"/>
       <c r="U19" s="39">
         <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B20" s="39">
         <v>186</v>
@@ -10953,7 +10971,7 @@
     </row>
     <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B21" s="39">
         <v>201</v>
@@ -10973,7 +10991,7 @@
     </row>
     <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B22" s="39">
         <v>202</v>
@@ -10993,7 +11011,7 @@
     </row>
     <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B23" s="39">
         <v>203</v>
@@ -11007,7 +11025,7 @@
     </row>
     <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B24" s="39">
         <v>204</v>
@@ -11021,7 +11039,7 @@
     </row>
     <row r="25" spans="1:24">
       <c r="A25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B25" s="39">
         <v>207</v>
@@ -11041,7 +11059,7 @@
     </row>
     <row r="26" spans="1:24">
       <c r="A26" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B26" s="39">
         <v>208</v>
@@ -11060,44 +11078,44 @@
       </c>
     </row>
     <row r="27" spans="1:24">
-      <c r="A27" s="124" t="s">
+      <c r="A27" s="110" t="s">
+        <v>238</v>
+      </c>
+      <c r="B27" s="111">
+        <v>161</v>
+      </c>
+      <c r="C27" s="110"/>
+      <c r="D27" s="111">
+        <v>161</v>
+      </c>
+      <c r="Q27" s="111">
+        <v>161</v>
+      </c>
+      <c r="V27" s="111">
+        <v>161</v>
+      </c>
+      <c r="W27" s="111">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
+      <c r="A28" s="110" t="s">
         <v>239</v>
       </c>
-      <c r="B27" s="125">
-        <v>161</v>
-      </c>
-      <c r="C27" s="124"/>
-      <c r="D27" s="125">
-        <v>161</v>
-      </c>
-      <c r="Q27" s="125">
-        <v>161</v>
-      </c>
-      <c r="V27" s="125">
-        <v>161</v>
-      </c>
-      <c r="W27" s="125">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24">
-      <c r="A28" s="124" t="s">
-        <v>240</v>
-      </c>
-      <c r="B28" s="125">
+      <c r="B28" s="111">
         <v>162</v>
       </c>
-      <c r="C28" s="124"/>
-      <c r="D28" s="125">
+      <c r="C28" s="110"/>
+      <c r="D28" s="111">
         <v>162</v>
       </c>
-      <c r="Q28" s="125">
+      <c r="Q28" s="111">
         <v>162</v>
       </c>
-      <c r="V28" s="125">
+      <c r="V28" s="111">
         <v>162</v>
       </c>
-      <c r="W28" s="125">
+      <c r="W28" s="111">
         <v>162</v>
       </c>
     </row>
@@ -11446,37 +11464,37 @@
     <row r="1" spans="1:33" ht="15" customHeight="1">
       <c r="A1" s="42"/>
       <c r="B1" s="43"/>
-      <c r="E1" s="111" t="s">
+      <c r="E1" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
-      <c r="U1" s="110"/>
-      <c r="V1" s="110"/>
-      <c r="W1" s="110"/>
-      <c r="X1" s="110"/>
-      <c r="Y1" s="110"/>
-      <c r="Z1" s="110"/>
-      <c r="AA1" s="110"/>
-      <c r="AB1" s="110"/>
-      <c r="AC1" s="110"/>
-      <c r="AD1" s="110"/>
-      <c r="AE1" s="110"/>
-      <c r="AF1" s="110"/>
-      <c r="AG1" s="110"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="115"/>
+      <c r="P1" s="115"/>
+      <c r="Q1" s="115"/>
+      <c r="R1" s="115"/>
+      <c r="S1" s="115"/>
+      <c r="T1" s="115"/>
+      <c r="U1" s="115"/>
+      <c r="V1" s="115"/>
+      <c r="W1" s="115"/>
+      <c r="X1" s="115"/>
+      <c r="Y1" s="115"/>
+      <c r="Z1" s="115"/>
+      <c r="AA1" s="115"/>
+      <c r="AB1" s="115"/>
+      <c r="AC1" s="115"/>
+      <c r="AD1" s="115"/>
+      <c r="AE1" s="115"/>
+      <c r="AF1" s="115"/>
+      <c r="AG1" s="115"/>
     </row>
     <row r="2" spans="1:33" ht="144" customHeight="1">
       <c r="C2" s="72" t="s">
@@ -11525,7 +11543,7 @@
         <v>57</v>
       </c>
       <c r="R2" s="23" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="S2" s="23" t="s">
         <v>58</v>
@@ -11552,7 +11570,7 @@
         <v>65</v>
       </c>
       <c r="AA2" s="23" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AB2" s="23" t="s">
         <v>66</v>
@@ -11575,7 +11593,7 @@
     </row>
     <row r="5" spans="1:33">
       <c r="A5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B5" s="39">
         <v>105</v>
@@ -11595,7 +11613,7 @@
     </row>
     <row r="6" spans="1:33">
       <c r="A6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B6" s="39">
         <v>106</v>
@@ -11615,7 +11633,7 @@
     </row>
     <row r="7" spans="1:33">
       <c r="A7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B7" s="39">
         <v>119</v>
@@ -11631,7 +11649,7 @@
     </row>
     <row r="8" spans="1:33">
       <c r="A8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B8" s="39">
         <v>120</v>
@@ -11647,7 +11665,7 @@
     </row>
     <row r="9" spans="1:33">
       <c r="A9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B9" s="39">
         <v>121</v>
@@ -11670,7 +11688,7 @@
     </row>
     <row r="10" spans="1:33">
       <c r="A10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B10" s="39">
         <v>122</v>
@@ -11693,7 +11711,7 @@
     </row>
     <row r="11" spans="1:33">
       <c r="A11" s="82" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B11" s="39">
         <v>125</v>
@@ -11709,7 +11727,7 @@
     </row>
     <row r="12" spans="1:33">
       <c r="A12" s="82" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B12" s="39">
         <v>126</v>
@@ -11725,7 +11743,7 @@
     </row>
     <row r="13" spans="1:33">
       <c r="A13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B13" s="39">
         <v>137</v>
@@ -11748,7 +11766,7 @@
     </row>
     <row r="14" spans="1:33">
       <c r="A14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B14" s="39">
         <v>138</v>
@@ -11771,7 +11789,7 @@
     </row>
     <row r="15" spans="1:33">
       <c r="A15" s="51" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B15" s="39">
         <v>141</v>
@@ -11787,7 +11805,7 @@
     </row>
     <row r="16" spans="1:33">
       <c r="A16" s="51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B16" s="39">
         <v>142</v>
@@ -11802,7 +11820,7 @@
     </row>
     <row r="17" spans="1:31">
       <c r="A17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B17" s="39">
         <v>143</v>
@@ -11841,7 +11859,7 @@
     </row>
     <row r="18" spans="1:31">
       <c r="A18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B18" s="39">
         <v>144</v>
@@ -11880,7 +11898,7 @@
     </row>
     <row r="19" spans="1:31">
       <c r="A19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B19" s="39">
         <v>147</v>
@@ -11898,7 +11916,7 @@
     </row>
     <row r="20" spans="1:31">
       <c r="A20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B20" s="39">
         <v>148</v>
@@ -11916,7 +11934,7 @@
     </row>
     <row r="21" spans="1:31">
       <c r="A21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B21" s="39">
         <v>151</v>
@@ -11932,7 +11950,7 @@
     </row>
     <row r="22" spans="1:31">
       <c r="A22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B22" s="39">
         <v>152</v>
@@ -11948,7 +11966,7 @@
     </row>
     <row r="23" spans="1:31">
       <c r="A23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B23" s="39">
         <v>153</v>
@@ -11975,7 +11993,7 @@
     </row>
     <row r="24" spans="1:31">
       <c r="A24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B24" s="39">
         <v>154</v>
@@ -12002,7 +12020,7 @@
     </row>
     <row r="25" spans="1:31">
       <c r="A25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B25" s="39">
         <v>163</v>
@@ -12036,7 +12054,7 @@
     </row>
     <row r="26" spans="1:31">
       <c r="A26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B26" s="39">
         <v>164</v>
@@ -12070,7 +12088,7 @@
     </row>
     <row r="27" spans="1:31">
       <c r="A27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B27" s="39">
         <v>165</v>
@@ -12091,7 +12109,7 @@
     </row>
     <row r="28" spans="1:31">
       <c r="A28" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B28" s="39">
         <v>166</v>
@@ -12112,7 +12130,7 @@
     </row>
     <row r="29" spans="1:31">
       <c r="A29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B29" s="39">
         <v>179</v>
@@ -12130,7 +12148,7 @@
     </row>
     <row r="30" spans="1:31">
       <c r="A30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B30" s="39">
         <v>180</v>
@@ -12148,7 +12166,7 @@
     </row>
     <row r="31" spans="1:31">
       <c r="A31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B31" s="39">
         <v>183</v>
@@ -12167,7 +12185,7 @@
     </row>
     <row r="32" spans="1:31">
       <c r="A32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B32" s="39">
         <v>184</v>
@@ -12186,7 +12204,7 @@
     </row>
     <row r="33" spans="1:33">
       <c r="A33" s="50" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B33" s="39">
         <v>187</v>
@@ -12198,7 +12216,7 @@
     </row>
     <row r="34" spans="1:33">
       <c r="A34" s="50" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B34" s="39">
         <v>188</v>
@@ -12210,7 +12228,7 @@
     </row>
     <row r="35" spans="1:33">
       <c r="A35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B35" s="39">
         <v>191</v>
@@ -12245,7 +12263,7 @@
     </row>
     <row r="36" spans="1:33">
       <c r="A36" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B36" s="39">
         <v>192</v>
@@ -12280,7 +12298,7 @@
     </row>
     <row r="37" spans="1:33">
       <c r="A37" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B37" s="39">
         <v>193</v>
@@ -12314,7 +12332,7 @@
     </row>
     <row r="38" spans="1:33">
       <c r="A38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B38" s="39">
         <v>194</v>
@@ -12348,7 +12366,7 @@
     </row>
     <row r="39" spans="1:33">
       <c r="A39" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B39" s="39">
         <v>205</v>
@@ -12384,7 +12402,7 @@
     </row>
     <row r="40" spans="1:33">
       <c r="A40" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B40" s="39">
         <v>206</v>

--- a/tests/_dummy_data.xlsx
+++ b/tests/_dummy_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ali_m\AnacondaProjects\PhD\Semiology-Visualisation-Tool\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5D5FA7-BBD5-43BA-851E-D5D340DC15EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A64BFD-40E6-494D-8D77-120EB894F83A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,19 +31,11 @@
     <sheet name="GIF MIXED" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="374">
   <si>
     <t xml:space="preserve">Semiology </t>
   </si>
@@ -1136,9 +1128,6 @@
     <t>precentral gyrus</t>
   </si>
   <si>
-    <t>y+CX5:DG5</t>
-  </si>
-  <si>
     <t>Romagnoli et al as above in adult</t>
   </si>
   <si>
@@ -1161,6 +1150,21 @@
   </si>
   <si>
     <t>paediatric subgroup &lt;7 years (0-6 yrs) y/n</t>
+  </si>
+  <si>
+    <t>lateralising but not localsiing</t>
+  </si>
+  <si>
+    <t>lat_not_loc</t>
+  </si>
+  <si>
+    <t>lat and loc</t>
+  </si>
+  <si>
+    <t>lat_and_loc</t>
+  </si>
+  <si>
+    <t>MTG of TL</t>
   </si>
 </sst>
 </file>
@@ -2376,10 +2380,10 @@
   <dimension ref="A1:DU52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="CW3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="J21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CX12" sqref="CX12"/>
+      <selection pane="bottomRight" activeCell="DB26" sqref="DB26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2904,7 +2908,7 @@
         <v>107</v>
       </c>
       <c r="DA2" s="103" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="DB2" s="36" t="s">
         <v>109</v>
@@ -2925,7 +2929,7 @@
         <v>114</v>
       </c>
       <c r="DH2" s="13" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="DI2" s="12"/>
       <c r="DJ2" s="12"/>
@@ -3989,7 +3993,7 @@
         <v>0</v>
       </c>
       <c r="DG30" s="5" t="s">
-        <v>361</v>
+        <v>115</v>
       </c>
       <c r="DP30" s="33"/>
       <c r="DQ30" s="33"/>
@@ -4000,7 +4004,7 @@
     </row>
     <row r="31" spans="1:125" s="33" customFormat="1" ht="30">
       <c r="A31" s="32" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B31" s="32">
         <v>1</v>
@@ -4146,7 +4150,7 @@
       <c r="DE31" s="5"/>
       <c r="DF31" s="5"/>
       <c r="DG31" s="5" t="s">
-        <v>361</v>
+        <v>115</v>
       </c>
       <c r="DH31" s="5"/>
       <c r="DI31" s="5"/>
@@ -4204,7 +4208,7 @@
     </row>
     <row r="35" spans="1:125">
       <c r="A35" s="32" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B35" s="32">
         <v>999</v>
@@ -4213,13 +4217,13 @@
         <v>999</v>
       </c>
       <c r="D35" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="E35" s="33" t="s">
         <v>364</v>
       </c>
-      <c r="E35" s="33" t="s">
+      <c r="F35" s="32" t="s">
         <v>365</v>
-      </c>
-      <c r="F35" s="32" t="s">
-        <v>366</v>
       </c>
       <c r="G35" s="32" t="s">
         <v>115</v>
@@ -4262,7 +4266,7 @@
         <v>356</v>
       </c>
       <c r="F36" s="32" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G36" s="32" t="s">
         <v>115</v>
@@ -4273,7 +4277,7 @@
         <v>7</v>
       </c>
       <c r="Q36" s="31" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="R36" s="5">
         <v>7</v>
@@ -4346,13 +4350,41 @@
       <c r="DU40" s="33"/>
     </row>
     <row r="41" spans="1:125">
-      <c r="A41" s="32"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="G41" s="32"/>
+      <c r="A41" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="B41" s="32">
+        <v>1</v>
+      </c>
+      <c r="C41" s="32">
+        <v>1</v>
+      </c>
+      <c r="D41" s="32" t="s">
+        <v>370</v>
+      </c>
+      <c r="E41" s="32" t="s">
+        <v>370</v>
+      </c>
+      <c r="F41" s="32" t="s">
+        <v>365</v>
+      </c>
+      <c r="G41" s="32" t="s">
+        <v>115</v>
+      </c>
       <c r="H41" s="32"/>
       <c r="I41" s="32"/>
+      <c r="J41" s="5">
+        <v>1</v>
+      </c>
+      <c r="K41" s="5">
+        <v>1</v>
+      </c>
+      <c r="DA41" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="DF41" s="5" t="s">
+        <v>115</v>
+      </c>
       <c r="DP41" s="33"/>
       <c r="DQ41" s="33"/>
       <c r="DR41" s="33"/>
@@ -4361,13 +4393,56 @@
       <c r="DU41" s="33"/>
     </row>
     <row r="42" spans="1:125">
-      <c r="A42" s="32"/>
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="G42" s="32"/>
+      <c r="A42" s="32" t="s">
+        <v>371</v>
+      </c>
+      <c r="B42" s="32">
+        <v>1</v>
+      </c>
+      <c r="C42" s="32">
+        <v>1</v>
+      </c>
+      <c r="D42" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="E42" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="F42" s="32" t="s">
+        <v>365</v>
+      </c>
+      <c r="G42" s="32" t="s">
+        <v>115</v>
+      </c>
       <c r="H42" s="32"/>
       <c r="I42" s="32"/>
+      <c r="J42" s="5">
+        <v>1</v>
+      </c>
+      <c r="L42" s="5">
+        <v>1</v>
+      </c>
+      <c r="P42" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="R42" s="5">
+        <v>1</v>
+      </c>
+      <c r="T42" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y42" s="5">
+        <v>1</v>
+      </c>
+      <c r="DA42" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="DF42" s="5" t="s">
+        <v>115</v>
+      </c>
       <c r="DP42" s="33"/>
       <c r="DQ42" s="33"/>
       <c r="DR42" s="33"/>

--- a/tests/_dummy_data.xlsx
+++ b/tests/_dummy_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ali_m\AnacondaProjects\PhD\Semiology-Visualisation-Tool\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A64BFD-40E6-494D-8D77-120EB894F83A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A158E1A-1BD4-49F1-BB8A-F26C0598CBD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="374">
   <si>
     <t xml:space="preserve">Semiology </t>
   </si>
@@ -2379,11 +2379,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DU52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="J21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="DB26" sqref="DB26"/>
+      <selection pane="bottomRight" activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -7370,10 +7370,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D189"/>
+  <dimension ref="A1:D169"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="F175" sqref="F175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -8695,210 +8695,50 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="81" t="s">
-        <v>130</v>
-      </c>
-      <c r="C164" s="39">
-        <v>24</v>
+        <v>134</v>
+      </c>
+      <c r="B164" s="39">
+        <v>35</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="81" t="s">
-        <v>131</v>
-      </c>
-      <c r="D165" s="39">
-        <v>31</v>
+        <v>135</v>
+      </c>
+      <c r="B165" s="39">
+        <v>36</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="81" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="B166" s="39">
-        <v>35</v>
+        <v>72</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="81" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="B167" s="39">
-        <v>36</v>
+        <v>73</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="81" t="s">
-        <v>136</v>
-      </c>
-      <c r="C168" s="39">
-        <v>37</v>
+        <v>168</v>
+      </c>
+      <c r="B168" s="39">
+        <v>74</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="81" t="s">
-        <v>137</v>
-      </c>
-      <c r="D169" s="39">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4">
-      <c r="A170" s="81" t="s">
-        <v>138</v>
-      </c>
-      <c r="C170" s="39">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4">
-      <c r="A171" s="81" t="s">
-        <v>139</v>
-      </c>
-      <c r="D171" s="39">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4">
-      <c r="A172" s="81" t="s">
-        <v>142</v>
-      </c>
-      <c r="C172" s="39">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4">
-      <c r="A173" s="81" t="s">
-        <v>143</v>
-      </c>
-      <c r="D173" s="39">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
-      <c r="A174" s="81" t="s">
-        <v>153</v>
-      </c>
-      <c r="C174" s="39">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
-      <c r="A175" s="81" t="s">
-        <v>154</v>
-      </c>
-      <c r="D175" s="39">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
-      <c r="A176" s="81" t="s">
-        <v>155</v>
-      </c>
-      <c r="C176" s="39">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4">
-      <c r="A177" s="81" t="s">
-        <v>156</v>
-      </c>
-      <c r="D177" s="39">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4">
-      <c r="A178" s="81" t="s">
-        <v>157</v>
-      </c>
-      <c r="C178" s="39">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4">
-      <c r="A179" s="81" t="s">
-        <v>158</v>
-      </c>
-      <c r="D179" s="39">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4">
-      <c r="A180" s="81" t="s">
-        <v>159</v>
-      </c>
-      <c r="C180" s="39">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4">
-      <c r="A181" s="81" t="s">
-        <v>160</v>
-      </c>
-      <c r="D181" s="39">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4">
-      <c r="A182" s="81" t="s">
-        <v>166</v>
-      </c>
-      <c r="B182" s="39">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4">
-      <c r="A183" s="81" t="s">
-        <v>167</v>
-      </c>
-      <c r="B183" s="39">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4">
-      <c r="A184" s="81" t="s">
-        <v>168</v>
-      </c>
-      <c r="B184" s="39">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4">
-      <c r="A185" s="81" t="s">
         <v>177</v>
       </c>
-      <c r="B185" s="39">
+      <c r="B169" s="39">
         <v>87</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4">
-      <c r="A186" s="81" t="s">
-        <v>184</v>
-      </c>
-      <c r="C186" s="39">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4">
-      <c r="A187" s="81" t="s">
-        <v>185</v>
-      </c>
-      <c r="D187" s="39">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4">
-      <c r="A188" s="81" t="s">
-        <v>284</v>
-      </c>
-      <c r="D188" s="39">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4">
-      <c r="A189" s="81" t="s">
-        <v>170</v>
-      </c>
-      <c r="C189" s="39">
-        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/tests/_dummy_data.xlsx
+++ b/tests/_dummy_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ali_m\AnacondaProjects\PhD\Semiology-Visualisation-Tool\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A158E1A-1BD4-49F1-BB8A-F26C0598CBD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FB367D-0D51-4A1B-B882-09A1ADA77347}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="376">
   <si>
     <t xml:space="preserve">Semiology </t>
   </si>
@@ -1165,6 +1165,12 @@
   </si>
   <si>
     <t>MTG of TL</t>
+  </si>
+  <si>
+    <t>_loc</t>
+  </si>
+  <si>
+    <t>latexceedsloc</t>
   </si>
 </sst>
 </file>
@@ -2379,11 +2385,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DU52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="J21" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A41" sqref="A41"/>
+      <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4320,13 +4326,59 @@
       <c r="DU38" s="33"/>
     </row>
     <row r="39" spans="1:125">
-      <c r="A39" s="32"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="G39" s="32"/>
+      <c r="A39" s="32" t="s">
+        <v>375</v>
+      </c>
+      <c r="B39" s="32">
+        <v>5</v>
+      </c>
+      <c r="C39" s="32">
+        <v>500</v>
+      </c>
+      <c r="D39" s="32" t="s">
+        <v>375</v>
+      </c>
+      <c r="E39" s="32" t="s">
+        <v>375</v>
+      </c>
+      <c r="F39" s="32" t="s">
+        <v>365</v>
+      </c>
+      <c r="G39" s="32" t="s">
+        <v>115</v>
+      </c>
       <c r="H39" s="32"/>
       <c r="I39" s="32"/>
+      <c r="J39" s="5">
+        <v>500</v>
+      </c>
+      <c r="K39" s="5">
+        <v>300</v>
+      </c>
+      <c r="L39" s="5">
+        <v>200</v>
+      </c>
+      <c r="P39" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q39" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="R39" s="5">
+        <v>2</v>
+      </c>
+      <c r="T39" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y39" s="5">
+        <v>2</v>
+      </c>
+      <c r="DA39" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="DF39" s="5" t="s">
+        <v>115</v>
+      </c>
       <c r="DP39" s="33"/>
       <c r="DQ39" s="33"/>
       <c r="DR39" s="33"/>
@@ -4451,13 +4503,56 @@
       <c r="DU42" s="33"/>
     </row>
     <row r="43" spans="1:125">
-      <c r="A43" s="32"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="G43" s="32"/>
+      <c r="A43" s="32" t="s">
+        <v>374</v>
+      </c>
+      <c r="B43" s="32">
+        <v>5</v>
+      </c>
+      <c r="C43" s="32">
+        <v>5</v>
+      </c>
+      <c r="D43" s="32" t="s">
+        <v>374</v>
+      </c>
+      <c r="E43" s="32" t="s">
+        <v>374</v>
+      </c>
+      <c r="F43" s="32" t="s">
+        <v>365</v>
+      </c>
+      <c r="G43" s="32" t="s">
+        <v>115</v>
+      </c>
       <c r="H43" s="32"/>
       <c r="I43" s="32"/>
+      <c r="J43" s="5">
+        <v>5</v>
+      </c>
+      <c r="K43" s="5">
+        <v>3</v>
+      </c>
+      <c r="L43" s="5">
+        <v>2</v>
+      </c>
+      <c r="P43" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q43" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="R43" s="5">
+        <v>2</v>
+      </c>
+      <c r="T43" s="5">
+        <v>2</v>
+      </c>
+      <c r="DA43" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="DF43" s="5" t="s">
+        <v>115</v>
+      </c>
       <c r="DP43" s="33"/>
       <c r="DQ43" s="33"/>
       <c r="DR43" s="33"/>
@@ -7372,8 +7467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="F175" sqref="F175"/>
+    <sheetView topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -10366,7 +10461,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="R33" sqref="R33"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>

--- a/tests/_dummy_data.xlsx
+++ b/tests/_dummy_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ali_m\AnacondaProjects\PhD\Semiology-Visualisation-Tool\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5D5FA7-BBD5-43BA-851E-D5D340DC15EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FB367D-0D51-4A1B-B882-09A1ADA77347}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,19 +31,11 @@
     <sheet name="GIF MIXED" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="376">
   <si>
     <t xml:space="preserve">Semiology </t>
   </si>
@@ -1136,9 +1128,6 @@
     <t>precentral gyrus</t>
   </si>
   <si>
-    <t>y+CX5:DG5</t>
-  </si>
-  <si>
     <t>Romagnoli et al as above in adult</t>
   </si>
   <si>
@@ -1161,6 +1150,27 @@
   </si>
   <si>
     <t>paediatric subgroup &lt;7 years (0-6 yrs) y/n</t>
+  </si>
+  <si>
+    <t>lateralising but not localsiing</t>
+  </si>
+  <si>
+    <t>lat_not_loc</t>
+  </si>
+  <si>
+    <t>lat and loc</t>
+  </si>
+  <si>
+    <t>lat_and_loc</t>
+  </si>
+  <si>
+    <t>MTG of TL</t>
+  </si>
+  <si>
+    <t>_loc</t>
+  </si>
+  <si>
+    <t>latexceedsloc</t>
   </si>
 </sst>
 </file>
@@ -2376,10 +2386,10 @@
   <dimension ref="A1:DU52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="CW3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CX12" sqref="CX12"/>
+      <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2904,7 +2914,7 @@
         <v>107</v>
       </c>
       <c r="DA2" s="103" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="DB2" s="36" t="s">
         <v>109</v>
@@ -2925,7 +2935,7 @@
         <v>114</v>
       </c>
       <c r="DH2" s="13" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="DI2" s="12"/>
       <c r="DJ2" s="12"/>
@@ -3989,7 +3999,7 @@
         <v>0</v>
       </c>
       <c r="DG30" s="5" t="s">
-        <v>361</v>
+        <v>115</v>
       </c>
       <c r="DP30" s="33"/>
       <c r="DQ30" s="33"/>
@@ -4000,7 +4010,7 @@
     </row>
     <row r="31" spans="1:125" s="33" customFormat="1" ht="30">
       <c r="A31" s="32" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B31" s="32">
         <v>1</v>
@@ -4146,7 +4156,7 @@
       <c r="DE31" s="5"/>
       <c r="DF31" s="5"/>
       <c r="DG31" s="5" t="s">
-        <v>361</v>
+        <v>115</v>
       </c>
       <c r="DH31" s="5"/>
       <c r="DI31" s="5"/>
@@ -4204,7 +4214,7 @@
     </row>
     <row r="35" spans="1:125">
       <c r="A35" s="32" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B35" s="32">
         <v>999</v>
@@ -4213,13 +4223,13 @@
         <v>999</v>
       </c>
       <c r="D35" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="E35" s="33" t="s">
         <v>364</v>
       </c>
-      <c r="E35" s="33" t="s">
+      <c r="F35" s="32" t="s">
         <v>365</v>
-      </c>
-      <c r="F35" s="32" t="s">
-        <v>366</v>
       </c>
       <c r="G35" s="32" t="s">
         <v>115</v>
@@ -4262,7 +4272,7 @@
         <v>356</v>
       </c>
       <c r="F36" s="32" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G36" s="32" t="s">
         <v>115</v>
@@ -4273,7 +4283,7 @@
         <v>7</v>
       </c>
       <c r="Q36" s="31" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="R36" s="5">
         <v>7</v>
@@ -4316,13 +4326,59 @@
       <c r="DU38" s="33"/>
     </row>
     <row r="39" spans="1:125">
-      <c r="A39" s="32"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="G39" s="32"/>
+      <c r="A39" s="32" t="s">
+        <v>375</v>
+      </c>
+      <c r="B39" s="32">
+        <v>5</v>
+      </c>
+      <c r="C39" s="32">
+        <v>500</v>
+      </c>
+      <c r="D39" s="32" t="s">
+        <v>375</v>
+      </c>
+      <c r="E39" s="32" t="s">
+        <v>375</v>
+      </c>
+      <c r="F39" s="32" t="s">
+        <v>365</v>
+      </c>
+      <c r="G39" s="32" t="s">
+        <v>115</v>
+      </c>
       <c r="H39" s="32"/>
       <c r="I39" s="32"/>
+      <c r="J39" s="5">
+        <v>500</v>
+      </c>
+      <c r="K39" s="5">
+        <v>300</v>
+      </c>
+      <c r="L39" s="5">
+        <v>200</v>
+      </c>
+      <c r="P39" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q39" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="R39" s="5">
+        <v>2</v>
+      </c>
+      <c r="T39" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y39" s="5">
+        <v>2</v>
+      </c>
+      <c r="DA39" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="DF39" s="5" t="s">
+        <v>115</v>
+      </c>
       <c r="DP39" s="33"/>
       <c r="DQ39" s="33"/>
       <c r="DR39" s="33"/>
@@ -4346,13 +4402,41 @@
       <c r="DU40" s="33"/>
     </row>
     <row r="41" spans="1:125">
-      <c r="A41" s="32"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="G41" s="32"/>
+      <c r="A41" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="B41" s="32">
+        <v>1</v>
+      </c>
+      <c r="C41" s="32">
+        <v>1</v>
+      </c>
+      <c r="D41" s="32" t="s">
+        <v>370</v>
+      </c>
+      <c r="E41" s="32" t="s">
+        <v>370</v>
+      </c>
+      <c r="F41" s="32" t="s">
+        <v>365</v>
+      </c>
+      <c r="G41" s="32" t="s">
+        <v>115</v>
+      </c>
       <c r="H41" s="32"/>
       <c r="I41" s="32"/>
+      <c r="J41" s="5">
+        <v>1</v>
+      </c>
+      <c r="K41" s="5">
+        <v>1</v>
+      </c>
+      <c r="DA41" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="DF41" s="5" t="s">
+        <v>115</v>
+      </c>
       <c r="DP41" s="33"/>
       <c r="DQ41" s="33"/>
       <c r="DR41" s="33"/>
@@ -4361,13 +4445,56 @@
       <c r="DU41" s="33"/>
     </row>
     <row r="42" spans="1:125">
-      <c r="A42" s="32"/>
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="G42" s="32"/>
+      <c r="A42" s="32" t="s">
+        <v>371</v>
+      </c>
+      <c r="B42" s="32">
+        <v>1</v>
+      </c>
+      <c r="C42" s="32">
+        <v>1</v>
+      </c>
+      <c r="D42" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="E42" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="F42" s="32" t="s">
+        <v>365</v>
+      </c>
+      <c r="G42" s="32" t="s">
+        <v>115</v>
+      </c>
       <c r="H42" s="32"/>
       <c r="I42" s="32"/>
+      <c r="J42" s="5">
+        <v>1</v>
+      </c>
+      <c r="L42" s="5">
+        <v>1</v>
+      </c>
+      <c r="P42" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="R42" s="5">
+        <v>1</v>
+      </c>
+      <c r="T42" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y42" s="5">
+        <v>1</v>
+      </c>
+      <c r="DA42" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="DF42" s="5" t="s">
+        <v>115</v>
+      </c>
       <c r="DP42" s="33"/>
       <c r="DQ42" s="33"/>
       <c r="DR42" s="33"/>
@@ -4376,13 +4503,56 @@
       <c r="DU42" s="33"/>
     </row>
     <row r="43" spans="1:125">
-      <c r="A43" s="32"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="G43" s="32"/>
+      <c r="A43" s="32" t="s">
+        <v>374</v>
+      </c>
+      <c r="B43" s="32">
+        <v>5</v>
+      </c>
+      <c r="C43" s="32">
+        <v>5</v>
+      </c>
+      <c r="D43" s="32" t="s">
+        <v>374</v>
+      </c>
+      <c r="E43" s="32" t="s">
+        <v>374</v>
+      </c>
+      <c r="F43" s="32" t="s">
+        <v>365</v>
+      </c>
+      <c r="G43" s="32" t="s">
+        <v>115</v>
+      </c>
       <c r="H43" s="32"/>
       <c r="I43" s="32"/>
+      <c r="J43" s="5">
+        <v>5</v>
+      </c>
+      <c r="K43" s="5">
+        <v>3</v>
+      </c>
+      <c r="L43" s="5">
+        <v>2</v>
+      </c>
+      <c r="P43" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q43" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="R43" s="5">
+        <v>2</v>
+      </c>
+      <c r="T43" s="5">
+        <v>2</v>
+      </c>
+      <c r="DA43" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="DF43" s="5" t="s">
+        <v>115</v>
+      </c>
       <c r="DP43" s="33"/>
       <c r="DQ43" s="33"/>
       <c r="DR43" s="33"/>
@@ -7295,10 +7465,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D189"/>
+  <dimension ref="A1:D169"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -8620,210 +8790,50 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="81" t="s">
-        <v>130</v>
-      </c>
-      <c r="C164" s="39">
-        <v>24</v>
+        <v>134</v>
+      </c>
+      <c r="B164" s="39">
+        <v>35</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="81" t="s">
-        <v>131</v>
-      </c>
-      <c r="D165" s="39">
-        <v>31</v>
+        <v>135</v>
+      </c>
+      <c r="B165" s="39">
+        <v>36</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="81" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="B166" s="39">
-        <v>35</v>
+        <v>72</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="81" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="B167" s="39">
-        <v>36</v>
+        <v>73</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="81" t="s">
-        <v>136</v>
-      </c>
-      <c r="C168" s="39">
-        <v>37</v>
+        <v>168</v>
+      </c>
+      <c r="B168" s="39">
+        <v>74</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="81" t="s">
-        <v>137</v>
-      </c>
-      <c r="D169" s="39">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4">
-      <c r="A170" s="81" t="s">
-        <v>138</v>
-      </c>
-      <c r="C170" s="39">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4">
-      <c r="A171" s="81" t="s">
-        <v>139</v>
-      </c>
-      <c r="D171" s="39">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4">
-      <c r="A172" s="81" t="s">
-        <v>142</v>
-      </c>
-      <c r="C172" s="39">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4">
-      <c r="A173" s="81" t="s">
-        <v>143</v>
-      </c>
-      <c r="D173" s="39">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
-      <c r="A174" s="81" t="s">
-        <v>153</v>
-      </c>
-      <c r="C174" s="39">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
-      <c r="A175" s="81" t="s">
-        <v>154</v>
-      </c>
-      <c r="D175" s="39">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
-      <c r="A176" s="81" t="s">
-        <v>155</v>
-      </c>
-      <c r="C176" s="39">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4">
-      <c r="A177" s="81" t="s">
-        <v>156</v>
-      </c>
-      <c r="D177" s="39">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4">
-      <c r="A178" s="81" t="s">
-        <v>157</v>
-      </c>
-      <c r="C178" s="39">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4">
-      <c r="A179" s="81" t="s">
-        <v>158</v>
-      </c>
-      <c r="D179" s="39">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4">
-      <c r="A180" s="81" t="s">
-        <v>159</v>
-      </c>
-      <c r="C180" s="39">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4">
-      <c r="A181" s="81" t="s">
-        <v>160</v>
-      </c>
-      <c r="D181" s="39">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4">
-      <c r="A182" s="81" t="s">
-        <v>166</v>
-      </c>
-      <c r="B182" s="39">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4">
-      <c r="A183" s="81" t="s">
-        <v>167</v>
-      </c>
-      <c r="B183" s="39">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4">
-      <c r="A184" s="81" t="s">
-        <v>168</v>
-      </c>
-      <c r="B184" s="39">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4">
-      <c r="A185" s="81" t="s">
         <v>177</v>
       </c>
-      <c r="B185" s="39">
+      <c r="B169" s="39">
         <v>87</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4">
-      <c r="A186" s="81" t="s">
-        <v>184</v>
-      </c>
-      <c r="C186" s="39">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4">
-      <c r="A187" s="81" t="s">
-        <v>185</v>
-      </c>
-      <c r="D187" s="39">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4">
-      <c r="A188" s="81" t="s">
-        <v>284</v>
-      </c>
-      <c r="D188" s="39">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4">
-      <c r="A189" s="81" t="s">
-        <v>170</v>
-      </c>
-      <c r="C189" s="39">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -10451,7 +10461,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="R33" sqref="R33"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>

--- a/tests/_dummy_data.xlsx
+++ b/tests/_dummy_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ali_m\AnacondaProjects\PhD\Semiology-Visualisation-Tool\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FB367D-0D51-4A1B-B882-09A1ADA77347}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05AAC2B0-153A-4C58-8FD9-51029BBF580C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -265,9 +265,6 @@
     <t>Cingulum WM</t>
   </si>
   <si>
-    <t>Ant Cing</t>
-  </si>
-  <si>
     <t>Ventr Ant Cing
 (BA 24)</t>
   </si>
@@ -1171,6 +1168,9 @@
   </si>
   <si>
     <t>latexceedsloc</t>
+  </si>
+  <si>
+    <t>Ant Cing (frontal, genu)</t>
   </si>
 </sst>
 </file>
@@ -2386,10 +2386,10 @@
   <dimension ref="A1:DU52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="Z21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
+      <selection pane="bottomRight" activeCell="AH2" sqref="AH2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2758,7 +2758,7 @@
         <v>57</v>
       </c>
       <c r="BA2" s="23" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="BB2" s="23" t="s">
         <v>58</v>
@@ -2785,7 +2785,7 @@
         <v>65</v>
       </c>
       <c r="BJ2" s="23" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="BK2" s="23" t="s">
         <v>66</v>
@@ -2812,130 +2812,130 @@
         <v>73</v>
       </c>
       <c r="BS2" s="88" t="s">
+        <v>375</v>
+      </c>
+      <c r="BT2" s="89" t="s">
         <v>74</v>
       </c>
-      <c r="BT2" s="89" t="s">
+      <c r="BU2" s="89" t="s">
         <v>75</v>
       </c>
-      <c r="BU2" s="89" t="s">
+      <c r="BV2" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="BV2" s="90" t="s">
+      <c r="BW2" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="BW2" s="88" t="s">
+      <c r="BX2" s="91" t="s">
         <v>78</v>
       </c>
-      <c r="BX2" s="91" t="s">
+      <c r="BY2" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="BY2" s="72" t="s">
+      <c r="BZ2" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="BZ2" s="25" t="s">
+      <c r="CA2" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="CA2" s="23" t="s">
+      <c r="CB2" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="CB2" s="25" t="s">
+      <c r="CC2" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="CC2" s="23" t="s">
+      <c r="CD2" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="CD2" s="27" t="s">
+      <c r="CE2" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="CE2" s="23" t="s">
+      <c r="CF2" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="CF2" s="23" t="s">
+      <c r="CG2" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="CG2" s="37" t="s">
+      <c r="CH2" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="CH2" s="73" t="s">
+      <c r="CI2" s="100" t="s">
         <v>89</v>
       </c>
-      <c r="CI2" s="100" t="s">
+      <c r="CJ2" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="CJ2" s="25" t="s">
+      <c r="CK2" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="CK2" s="79" t="s">
+      <c r="CL2" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="CL2" s="25" t="s">
+      <c r="CM2" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="CM2" s="25" t="s">
+      <c r="CN2" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="CN2" s="74" t="s">
+      <c r="CO2" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="CO2" s="65" t="s">
+      <c r="CP2" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="CP2" s="66" t="s">
+      <c r="CQ2" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="CQ2" s="23" t="s">
+      <c r="CR2" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="CR2" s="23" t="s">
+      <c r="CS2" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="CS2" s="25" t="s">
+      <c r="CT2" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="CT2" s="25" t="s">
+      <c r="CU2" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="CU2" s="25" t="s">
+      <c r="CV2" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="CV2" s="28" t="s">
+      <c r="CW2" s="75" t="s">
         <v>103</v>
       </c>
-      <c r="CW2" s="75" t="s">
+      <c r="CX2" s="101" t="s">
         <v>104</v>
       </c>
-      <c r="CX2" s="101" t="s">
+      <c r="CY2" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="CY2" s="102" t="s">
+      <c r="CZ2" s="102" t="s">
         <v>106</v>
       </c>
-      <c r="CZ2" s="102" t="s">
-        <v>107</v>
-      </c>
       <c r="DA2" s="103" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="DB2" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="DC2" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="DC2" s="19" t="s">
+      <c r="DD2" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="DD2" s="19" t="s">
+      <c r="DE2" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="DE2" s="9" t="s">
+      <c r="DF2" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="DF2" s="10" t="s">
+      <c r="DG2" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="DG2" s="11" t="s">
-        <v>114</v>
-      </c>
       <c r="DH2" s="13" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="DI2" s="12"/>
       <c r="DJ2" s="12"/>
@@ -2947,7 +2947,7 @@
     </row>
     <row r="3" spans="1:125" ht="30">
       <c r="A3" s="32" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B3" s="32">
         <v>5</v>
@@ -2956,16 +2956,16 @@
         <v>3</v>
       </c>
       <c r="D3" s="32" t="s">
+        <v>292</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="32" t="s">
         <v>293</v>
       </c>
-      <c r="E3" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>294</v>
-      </c>
       <c r="G3" s="32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H3" s="32"/>
       <c r="I3" s="32"/>
@@ -2973,7 +2973,7 @@
         <v>3</v>
       </c>
       <c r="Q3" s="31" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="R3" s="5">
         <v>1</v>
@@ -2995,7 +2995,7 @@
         <v>1</v>
       </c>
       <c r="DA3" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="DB3" s="6">
         <v>5</v>
@@ -3007,7 +3007,7 @@
         <v>3</v>
       </c>
       <c r="DF3" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="DP3" s="33"/>
       <c r="DQ3" s="33"/>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="8" spans="1:125" ht="30">
       <c r="A8" s="32" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B8" s="32">
         <v>10</v>
@@ -3162,20 +3162,20 @@
         <v>10</v>
       </c>
       <c r="D8" s="32" t="s">
+        <v>304</v>
+      </c>
+      <c r="E8" s="33" t="s">
         <v>305</v>
       </c>
-      <c r="E8" s="33" t="s">
-        <v>306</v>
-      </c>
       <c r="F8" s="32" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G8" s="32"/>
       <c r="H8" s="32" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I8" s="32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M8" s="5">
         <v>10</v>
@@ -3184,7 +3184,7 @@
         <v>10</v>
       </c>
       <c r="Q8" s="31" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AL8" s="5">
         <v>10</v>
@@ -3205,7 +3205,7 @@
         <v>2</v>
       </c>
       <c r="DA8" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="DB8" s="6">
         <v>10</v>
@@ -3217,10 +3217,10 @@
         <v>0</v>
       </c>
       <c r="DE8" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="DH8" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="DP8" s="33"/>
       <c r="DQ8" s="33"/>
@@ -3246,7 +3246,7 @@
     </row>
     <row r="10" spans="1:125">
       <c r="A10" s="32" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B10" s="32">
         <v>10</v>
@@ -3255,16 +3255,16 @@
         <v>10</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H10" s="32"/>
       <c r="I10" s="32"/>
@@ -3278,7 +3278,7 @@
         <v>9</v>
       </c>
       <c r="Q10" s="31" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="R10" s="5">
         <v>9</v>
@@ -3296,7 +3296,7 @@
         <v>5</v>
       </c>
       <c r="DA10" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="DB10" s="6">
         <v>10</v>
@@ -3308,7 +3308,7 @@
         <v>10</v>
       </c>
       <c r="DF10" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="DP10" s="33"/>
       <c r="DQ10" s="33"/>
@@ -3322,16 +3322,16 @@
       <c r="B11" s="32"/>
       <c r="C11" s="32"/>
       <c r="D11" s="32" t="s">
+        <v>310</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="F11" s="32" t="s">
         <v>311</v>
       </c>
-      <c r="E11" s="33" t="s">
-        <v>311</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>312</v>
-      </c>
       <c r="G11" s="32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H11" s="32"/>
       <c r="I11" s="32"/>
@@ -3345,7 +3345,7 @@
         <v>1</v>
       </c>
       <c r="Q11" s="31" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AL11" s="5">
         <v>1</v>
@@ -3354,7 +3354,7 @@
         <v>1</v>
       </c>
       <c r="DA11" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="DP11" s="33"/>
       <c r="DQ11" s="33"/>
@@ -3365,7 +3365,7 @@
     </row>
     <row r="12" spans="1:125">
       <c r="A12" s="32" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B12" s="32">
         <v>1</v>
@@ -3374,16 +3374,16 @@
         <v>1</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H12" s="32"/>
       <c r="I12" s="32"/>
@@ -3391,7 +3391,7 @@
         <v>1</v>
       </c>
       <c r="Q12" s="31" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AL12" s="5">
         <v>1</v>
@@ -3423,7 +3423,7 @@
     </row>
     <row r="14" spans="1:125">
       <c r="A14" s="32" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B14" s="32">
         <v>1</v>
@@ -3432,17 +3432,17 @@
         <v>1</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E14" s="33" t="s">
+        <v>315</v>
+      </c>
+      <c r="F14" s="32" t="s">
         <v>316</v>
-      </c>
-      <c r="F14" s="32" t="s">
-        <v>317</v>
       </c>
       <c r="G14" s="32"/>
       <c r="H14" s="32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I14" s="32"/>
       <c r="P14" s="5">
@@ -3455,7 +3455,7 @@
         <v>1</v>
       </c>
       <c r="DA14" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="DB14" s="6">
         <v>1</v>
@@ -3467,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="DF14" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="DP14" s="33"/>
       <c r="DQ14" s="33"/>
@@ -3478,7 +3478,7 @@
     </row>
     <row r="15" spans="1:125">
       <c r="A15" s="32" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B15" s="32">
         <v>1</v>
@@ -3487,17 +3487,17 @@
         <v>1</v>
       </c>
       <c r="D15" s="33" t="s">
+        <v>327</v>
+      </c>
+      <c r="E15" s="33" t="s">
         <v>328</v>
       </c>
-      <c r="E15" s="33" t="s">
-        <v>329</v>
-      </c>
       <c r="F15" s="32" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G15" s="32"/>
       <c r="H15" s="32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I15" s="32"/>
       <c r="P15" s="5">
@@ -3510,7 +3510,7 @@
         <v>1</v>
       </c>
       <c r="DA15" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="DB15" s="6">
         <v>1</v>
@@ -3522,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="DF15" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="DP15" s="33"/>
       <c r="DQ15" s="33"/>
@@ -3533,7 +3533,7 @@
     </row>
     <row r="16" spans="1:125">
       <c r="A16" s="32" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B16" s="32">
         <v>1</v>
@@ -3542,17 +3542,17 @@
         <v>1</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G16" s="32"/>
       <c r="H16" s="32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I16" s="32"/>
       <c r="P16" s="5">
@@ -3565,7 +3565,7 @@
         <v>1</v>
       </c>
       <c r="DA16" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="DB16" s="6">
         <v>1</v>
@@ -3577,7 +3577,7 @@
         <v>0</v>
       </c>
       <c r="DF16" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="DP16" s="33"/>
       <c r="DQ16" s="33"/>
@@ -3678,7 +3678,7 @@
     </row>
     <row r="23" spans="1:125">
       <c r="A23" s="17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B23" s="32">
         <v>10</v>
@@ -3687,17 +3687,17 @@
         <v>10</v>
       </c>
       <c r="D23" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="E23" s="33" t="s">
         <v>340</v>
       </c>
-      <c r="E23" s="33" t="s">
+      <c r="F23" s="32" t="s">
         <v>341</v>
-      </c>
-      <c r="F23" s="32" t="s">
-        <v>342</v>
       </c>
       <c r="G23" s="32"/>
       <c r="H23" s="32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I23" s="32"/>
       <c r="M23" s="5">
@@ -3707,7 +3707,7 @@
         <v>10</v>
       </c>
       <c r="Q23" s="31" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="BQ23" s="5">
         <v>3</v>
@@ -3719,10 +3719,10 @@
         <v>3</v>
       </c>
       <c r="DA23" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="DF23" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="DP23" s="33"/>
       <c r="DQ23" s="33"/>
@@ -3733,7 +3733,7 @@
     </row>
     <row r="24" spans="1:125" ht="30">
       <c r="A24" s="108" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B24" s="32">
         <v>5</v>
@@ -3742,24 +3742,24 @@
         <v>5</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E24" s="33" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F24" s="32" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G24" s="32"/>
       <c r="H24" s="32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I24" s="32"/>
       <c r="P24" s="5">
         <v>5</v>
       </c>
       <c r="Q24" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R24" s="5">
         <v>5</v>
@@ -3768,7 +3768,7 @@
         <v>5</v>
       </c>
       <c r="DF24" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="DP24" s="33"/>
       <c r="DQ24" s="33"/>
@@ -3779,7 +3779,7 @@
     </row>
     <row r="25" spans="1:125">
       <c r="A25" s="17" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B25" s="32">
         <v>1</v>
@@ -3788,24 +3788,24 @@
         <v>1</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F25" s="32" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G25" s="32"/>
       <c r="H25" s="32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I25" s="32"/>
       <c r="P25" s="5">
         <v>1</v>
       </c>
       <c r="Q25" s="31" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="R25" s="5">
         <v>1</v>
@@ -3814,10 +3814,10 @@
         <v>1</v>
       </c>
       <c r="DA25" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="DF25" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="DP25" s="33"/>
       <c r="DQ25" s="33"/>
@@ -3858,7 +3858,7 @@
     </row>
     <row r="28" spans="1:125">
       <c r="A28" s="32" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B28" s="32">
         <v>1</v>
@@ -3867,13 +3867,13 @@
         <v>1</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G28" s="32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H28" s="32"/>
       <c r="I28" s="32"/>
@@ -3881,7 +3881,7 @@
         <v>1</v>
       </c>
       <c r="Q28" s="31" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AL28" s="5">
         <v>1</v>
@@ -3890,7 +3890,7 @@
         <v>1</v>
       </c>
       <c r="DF28" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="DP28" s="33"/>
       <c r="DQ28" s="33"/>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="29" spans="1:125">
       <c r="A29" s="32" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B29" s="32">
         <v>1</v>
@@ -3910,13 +3910,13 @@
         <v>1</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G29" s="32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H29" s="32"/>
       <c r="I29" s="32"/>
@@ -3924,7 +3924,7 @@
         <v>10</v>
       </c>
       <c r="Q29" s="31" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AL29" s="5">
         <v>10</v>
@@ -3933,7 +3933,7 @@
         <v>10</v>
       </c>
       <c r="DF29" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="DP29" s="33"/>
       <c r="DQ29" s="33"/>
@@ -3944,7 +3944,7 @@
     </row>
     <row r="30" spans="1:125" ht="30">
       <c r="A30" s="32" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B30" s="32">
         <v>1</v>
@@ -3953,20 +3953,20 @@
         <v>1</v>
       </c>
       <c r="D30" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="E30" s="33" t="s">
         <v>298</v>
       </c>
-      <c r="E30" s="33" t="s">
+      <c r="F30" s="32" t="s">
         <v>299</v>
-      </c>
-      <c r="F30" s="32" t="s">
-        <v>300</v>
       </c>
       <c r="G30" s="32"/>
       <c r="H30" s="32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I30" s="32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J30" s="5">
         <v>1</v>
@@ -3978,7 +3978,7 @@
         <v>1</v>
       </c>
       <c r="Q30" s="31" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AL30" s="5">
         <v>1</v>
@@ -3987,7 +3987,7 @@
         <v>1</v>
       </c>
       <c r="DA30" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="DB30" s="6">
         <v>1</v>
@@ -3999,7 +3999,7 @@
         <v>0</v>
       </c>
       <c r="DG30" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="DP30" s="33"/>
       <c r="DQ30" s="33"/>
@@ -4010,7 +4010,7 @@
     </row>
     <row r="31" spans="1:125" s="33" customFormat="1" ht="30">
       <c r="A31" s="32" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B31" s="32">
         <v>1</v>
@@ -4019,20 +4019,20 @@
         <v>1</v>
       </c>
       <c r="D31" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="E31" s="33" t="s">
         <v>298</v>
       </c>
-      <c r="E31" s="33" t="s">
+      <c r="F31" s="32" t="s">
         <v>299</v>
-      </c>
-      <c r="F31" s="32" t="s">
-        <v>300</v>
       </c>
       <c r="G31" s="32"/>
       <c r="H31" s="32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I31" s="32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J31" s="5">
         <v>1</v>
@@ -4048,7 +4048,7 @@
         <v>1</v>
       </c>
       <c r="Q31" s="31" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="R31" s="5"/>
       <c r="S31" s="5"/>
@@ -4142,7 +4142,7 @@
       <c r="CY31" s="5"/>
       <c r="CZ31" s="5"/>
       <c r="DA31" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="DB31" s="6">
         <v>1</v>
@@ -4156,7 +4156,7 @@
       <c r="DE31" s="5"/>
       <c r="DF31" s="5"/>
       <c r="DG31" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="DH31" s="5"/>
       <c r="DI31" s="5"/>
@@ -4214,7 +4214,7 @@
     </row>
     <row r="35" spans="1:125">
       <c r="A35" s="32" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B35" s="32">
         <v>999</v>
@@ -4223,16 +4223,16 @@
         <v>999</v>
       </c>
       <c r="D35" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="E35" s="33" t="s">
         <v>363</v>
       </c>
-      <c r="E35" s="33" t="s">
+      <c r="F35" s="32" t="s">
         <v>364</v>
       </c>
-      <c r="F35" s="32" t="s">
-        <v>365</v>
-      </c>
       <c r="G35" s="32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H35" s="32"/>
       <c r="I35" s="32"/>
@@ -4266,16 +4266,16 @@
       <c r="B36" s="32"/>
       <c r="C36" s="32"/>
       <c r="D36" s="17" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E36" s="33" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F36" s="32" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G36" s="32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H36" s="32"/>
       <c r="I36" s="32"/>
@@ -4283,7 +4283,7 @@
         <v>7</v>
       </c>
       <c r="Q36" s="31" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="R36" s="5">
         <v>7</v>
@@ -4327,7 +4327,7 @@
     </row>
     <row r="39" spans="1:125">
       <c r="A39" s="32" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B39" s="32">
         <v>5</v>
@@ -4336,16 +4336,16 @@
         <v>500</v>
       </c>
       <c r="D39" s="32" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E39" s="32" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F39" s="32" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G39" s="32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H39" s="32"/>
       <c r="I39" s="32"/>
@@ -4362,7 +4362,7 @@
         <v>2</v>
       </c>
       <c r="Q39" s="31" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="R39" s="5">
         <v>2</v>
@@ -4374,10 +4374,10 @@
         <v>2</v>
       </c>
       <c r="DA39" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="DF39" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="DP39" s="33"/>
       <c r="DQ39" s="33"/>
@@ -4403,7 +4403,7 @@
     </row>
     <row r="41" spans="1:125">
       <c r="A41" s="32" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B41" s="32">
         <v>1</v>
@@ -4412,16 +4412,16 @@
         <v>1</v>
       </c>
       <c r="D41" s="32" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E41" s="32" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F41" s="32" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G41" s="32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H41" s="32"/>
       <c r="I41" s="32"/>
@@ -4432,10 +4432,10 @@
         <v>1</v>
       </c>
       <c r="DA41" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="DF41" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="DP41" s="33"/>
       <c r="DQ41" s="33"/>
@@ -4446,7 +4446,7 @@
     </row>
     <row r="42" spans="1:125">
       <c r="A42" s="32" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B42" s="32">
         <v>1</v>
@@ -4455,16 +4455,16 @@
         <v>1</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E42" s="32" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F42" s="32" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G42" s="32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H42" s="32"/>
       <c r="I42" s="32"/>
@@ -4478,7 +4478,7 @@
         <v>1</v>
       </c>
       <c r="Q42" s="31" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="R42" s="5">
         <v>1</v>
@@ -4490,10 +4490,10 @@
         <v>1</v>
       </c>
       <c r="DA42" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="DF42" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="DP42" s="33"/>
       <c r="DQ42" s="33"/>
@@ -4504,7 +4504,7 @@
     </row>
     <row r="43" spans="1:125">
       <c r="A43" s="32" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B43" s="32">
         <v>5</v>
@@ -4513,16 +4513,16 @@
         <v>5</v>
       </c>
       <c r="D43" s="32" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E43" s="32" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F43" s="32" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G43" s="32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H43" s="32"/>
       <c r="I43" s="32"/>
@@ -4539,7 +4539,7 @@
         <v>2</v>
       </c>
       <c r="Q43" s="31" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="R43" s="5">
         <v>2</v>
@@ -4548,10 +4548,10 @@
         <v>2</v>
       </c>
       <c r="DA43" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="DF43" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="DP43" s="33"/>
       <c r="DQ43" s="33"/>
@@ -4738,36 +4738,36 @@
     </row>
     <row r="2" spans="1:11" ht="96" customHeight="1">
       <c r="C2" s="80" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="E2" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="60" t="s">
+      <c r="F2" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="54" t="s">
-        <v>83</v>
-      </c>
       <c r="G2" s="83" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H2" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="I2" s="55" t="s">
+      <c r="J2" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="J2" s="55" t="s">
+      <c r="K2" s="56" t="s">
         <v>87</v>
-      </c>
-      <c r="K2" s="56" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B3" s="39">
         <v>107</v>
@@ -4790,7 +4790,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B4" s="39">
         <v>108</v>
@@ -4807,7 +4807,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="50" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B5" s="39">
         <v>113</v>
@@ -4819,7 +4819,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="50" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B6" s="39">
         <v>114</v>
@@ -4831,7 +4831,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B7" s="39">
         <v>149</v>
@@ -4848,7 +4848,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B8" s="39">
         <v>150</v>
@@ -4865,7 +4865,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B9" s="39">
         <v>169</v>
@@ -4880,7 +4880,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B10" s="39">
         <v>170</v>
@@ -4895,7 +4895,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B11" s="39">
         <v>175</v>
@@ -4910,7 +4910,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B12" s="39">
         <v>176</v>
@@ -4925,7 +4925,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B13" s="39">
         <v>177</v>
@@ -4941,7 +4941,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B14" s="39">
         <v>178</v>
@@ -4956,7 +4956,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B15" s="39">
         <v>195</v>
@@ -4973,7 +4973,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B16" s="39">
         <v>196</v>
@@ -4990,7 +4990,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B17" s="39">
         <v>199</v>
@@ -5005,7 +5005,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B18" s="39">
         <v>200</v>
@@ -5020,7 +5020,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="81" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B19" s="39">
         <v>86</v>
@@ -5031,7 +5031,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="81" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B20" s="39">
         <v>94</v>
@@ -5074,27 +5074,27 @@
     </row>
     <row r="2" spans="1:11" ht="45">
       <c r="C2" s="73" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="78" t="s">
+      <c r="E2" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="F2" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="79" t="s">
+      <c r="G2" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="H2" s="25" t="s">
         <v>93</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="51" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B3" s="39">
         <v>109</v>
@@ -5109,7 +5109,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="51" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B4" s="39">
         <v>110</v>
@@ -5128,7 +5128,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B5" s="39">
         <v>115</v>
@@ -5149,7 +5149,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B6" s="39">
         <v>116</v>
@@ -5170,7 +5170,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="51" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B7" s="39">
         <v>129</v>
@@ -5190,7 +5190,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="51" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B8" s="39">
         <v>130</v>
@@ -5210,7 +5210,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B9" s="39">
         <v>135</v>
@@ -5231,7 +5231,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B10" s="39">
         <v>136</v>
@@ -5252,7 +5252,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B11" s="39">
         <v>145</v>
@@ -5272,7 +5272,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B12" s="39">
         <v>146</v>
@@ -5292,7 +5292,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B13" s="39">
         <v>157</v>
@@ -5311,7 +5311,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B14" s="39">
         <v>158</v>
@@ -5330,7 +5330,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="51" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B15" s="39">
         <v>197</v>
@@ -5344,7 +5344,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="51" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B16" s="39">
         <v>198</v>
@@ -5379,7 +5379,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -5404,30 +5404,30 @@
         <v>72</v>
       </c>
       <c r="D2" s="88" t="s">
+        <v>375</v>
+      </c>
+      <c r="E2" s="89" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="89" t="s">
+      <c r="F2" s="89" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="89" t="s">
+      <c r="G2" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="90" t="s">
+      <c r="H2" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="88" t="s">
+      <c r="I2" s="91" t="s">
         <v>78</v>
       </c>
-      <c r="I2" s="91" t="s">
-        <v>79</v>
-      </c>
       <c r="J2" s="86" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B3" s="39">
         <v>101</v>
@@ -5448,7 +5448,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B4" s="39">
         <v>102</v>
@@ -5469,7 +5469,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B5" s="39">
         <v>139</v>
@@ -5483,7 +5483,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B6" s="39">
         <v>140</v>
@@ -5497,7 +5497,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B7" s="39">
         <v>167</v>
@@ -5514,7 +5514,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B8" s="39">
         <v>168</v>
@@ -5531,7 +5531,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B9" s="39">
         <v>83</v>
@@ -5545,7 +5545,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B10" s="39">
         <v>91</v>
@@ -5594,36 +5594,36 @@
     </row>
     <row r="2" spans="1:11" ht="30">
       <c r="C2" s="74" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="E2" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="F2" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="G2" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="H2" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="I2" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="J2" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="K2" s="28" t="s">
         <v>102</v>
-      </c>
-      <c r="K2" s="28" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B3" s="39">
         <v>103</v>
@@ -5654,7 +5654,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B4" s="39">
         <v>104</v>
@@ -5685,7 +5685,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B5" s="39">
         <v>173</v>
@@ -5704,7 +5704,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B6" s="39">
         <v>174</v>
@@ -5752,12 +5752,12 @@
     <row r="1" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:5" ht="26.25">
       <c r="C2" s="75" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B3" s="45">
         <v>60</v>
@@ -5768,7 +5768,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B4" s="45">
         <v>61</v>
@@ -5836,19 +5836,19 @@
     </row>
     <row r="2" spans="1:6" ht="26.25">
       <c r="C2" s="93" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="D2" s="94" t="s">
+      <c r="E2" s="94" t="s">
         <v>106</v>
-      </c>
-      <c r="E2" s="94" t="s">
-        <v>107</v>
       </c>
       <c r="F2" s="39"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="81" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B3" s="39">
         <v>39</v>
@@ -5864,7 +5864,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="81" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B4" s="39">
         <v>40</v>
@@ -5880,7 +5880,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="81" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B5" s="39">
         <v>41</v>
@@ -5896,7 +5896,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="81" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B6" s="39">
         <v>42</v>
@@ -5912,7 +5912,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="81" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B7" s="39">
         <v>72</v>
@@ -5928,7 +5928,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="81" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B8" s="39">
         <v>73</v>
@@ -5944,7 +5944,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="81" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B9" s="39">
         <v>74</v>
@@ -6023,12 +6023,12 @@
         <v>13</v>
       </c>
       <c r="J1" s="103" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30">
       <c r="A2" s="17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B2" s="32">
         <v>10</v>
@@ -6037,25 +6037,25 @@
         <v>10</v>
       </c>
       <c r="D2" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="E2" s="33" t="s">
         <v>340</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="F2" s="32" t="s">
         <v>341</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>342</v>
       </c>
       <c r="G2" s="32"/>
       <c r="H2" s="32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="45">
       <c r="A3" s="108" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B3" s="32">
         <v>5</v>
@@ -6064,23 +6064,23 @@
         <v>5</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G3" s="32"/>
       <c r="H3" s="32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="30">
       <c r="A4" s="17" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B4" s="32">
         <v>1</v>
@@ -6089,20 +6089,20 @@
         <v>1</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G4" s="32"/>
       <c r="H4" s="32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -6137,44 +6137,44 @@
     <row r="1" spans="1:14" s="38" customFormat="1" ht="18" customHeight="1">
       <c r="A1" s="41"/>
       <c r="B1" s="61" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E1" s="62" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I1" s="41"/>
     </row>
     <row r="2" spans="1:14" s="39" customFormat="1" ht="31.5">
       <c r="A2" s="39" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B2" s="29">
         <f>SUM(Main!P10:P16)</f>
         <v>14</v>
       </c>
       <c r="E2" s="72" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F2" s="39" t="s">
+        <v>332</v>
+      </c>
+      <c r="G2" s="39" t="s">
         <v>333</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="H2" s="39" t="s">
+        <v>333</v>
+      </c>
+      <c r="I2" s="39" t="s">
+        <v>333</v>
+      </c>
+      <c r="J2" s="39" t="s">
+        <v>333</v>
+      </c>
+      <c r="K2" s="39" t="s">
+        <v>333</v>
+      </c>
+      <c r="L2" s="38" t="s">
         <v>334</v>
-      </c>
-      <c r="H2" s="39" t="s">
-        <v>334</v>
-      </c>
-      <c r="I2" s="39" t="s">
-        <v>334</v>
-      </c>
-      <c r="J2" s="39" t="s">
-        <v>334</v>
-      </c>
-      <c r="K2" s="39" t="s">
-        <v>334</v>
-      </c>
-      <c r="L2" s="38" t="s">
-        <v>335</v>
       </c>
       <c r="M2" s="72" t="s">
         <v>43</v>
@@ -6182,7 +6182,7 @@
     </row>
     <row r="3" spans="1:14" s="39" customFormat="1">
       <c r="A3" s="39" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B3" s="30">
         <f>SUM(Main!J10:J16)</f>
@@ -6257,7 +6257,7 @@
     </row>
     <row r="6" spans="1:14" s="39" customFormat="1">
       <c r="B6" s="39" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E6" s="105">
         <v>49</v>
@@ -6284,7 +6284,7 @@
     </row>
     <row r="7" spans="1:14" s="39" customFormat="1">
       <c r="A7" s="39" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B7" s="29">
         <v>1</v>
@@ -6314,7 +6314,7 @@
     </row>
     <row r="8" spans="1:14" s="39" customFormat="1">
       <c r="A8" s="39" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B8" s="30">
         <v>0</v>
@@ -6389,7 +6389,7 @@
     </row>
     <row r="11" spans="1:14" s="39" customFormat="1">
       <c r="B11" s="39" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E11" s="105">
         <v>133</v>
@@ -6419,7 +6419,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="39" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B12" s="29">
         <v>1</v>
@@ -6453,7 +6453,7 @@
     </row>
     <row r="13" spans="1:14" s="39" customFormat="1">
       <c r="A13" s="39" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B13" s="30">
         <f>SUM(Main!J20:J26)</f>
@@ -6532,7 +6532,7 @@
     </row>
     <row r="16" spans="1:14" s="39" customFormat="1">
       <c r="B16" s="39" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E16" s="105">
         <v>172</v>
@@ -6559,7 +6559,7 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="39" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B17" s="29">
         <v>1</v>
@@ -6589,7 +6589,7 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="39" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B18" s="30">
         <v>1</v>
@@ -6670,7 +6670,7 @@
     <row r="21" spans="1:14">
       <c r="A21" s="39"/>
       <c r="B21" s="39" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E21" s="38">
         <v>201</v>
@@ -6697,7 +6697,7 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="39" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B22" s="39">
         <v>1</v>
@@ -6727,7 +6727,7 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="39" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B23" s="30">
         <f>SUM(Main!J30:J36)</f>
@@ -6954,10 +6954,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="38" t="s">
+        <v>336</v>
+      </c>
+      <c r="B1" s="38" t="s">
         <v>337</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>338</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
@@ -7480,21 +7480,21 @@
   <sheetData>
     <row r="1" spans="1:4" s="38" customFormat="1">
       <c r="A1" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="C1" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="D1" s="38" t="s">
         <v>120</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="81" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B2" s="39">
         <v>0</v>
@@ -7502,7 +7502,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="81" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B3" s="39">
         <v>1</v>
@@ -7510,7 +7510,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="81" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B4" s="39">
         <v>2</v>
@@ -7518,7 +7518,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="81" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B5" s="39">
         <v>3</v>
@@ -7526,7 +7526,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="81" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B6" s="39">
         <v>4</v>
@@ -7534,7 +7534,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="81" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B7" s="39">
         <v>5</v>
@@ -7542,7 +7542,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="81" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B8" s="39">
         <v>12</v>
@@ -7550,7 +7550,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="81" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B9" s="39">
         <v>16</v>
@@ -7558,7 +7558,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="81" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C10" s="39">
         <v>24</v>
@@ -7566,7 +7566,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="81" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D11" s="39">
         <v>31</v>
@@ -7574,7 +7574,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="81" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C12" s="39">
         <v>32</v>
@@ -7582,7 +7582,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="81" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D13" s="39">
         <v>33</v>
@@ -7590,7 +7590,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="81" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B14" s="39">
         <v>35</v>
@@ -7598,7 +7598,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="81" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B15" s="39">
         <v>36</v>
@@ -7606,7 +7606,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="81" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C16" s="39">
         <v>37</v>
@@ -7614,7 +7614,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="81" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D17" s="39">
         <v>38</v>
@@ -7622,7 +7622,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="81" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C18" s="39">
         <v>39</v>
@@ -7630,7 +7630,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="81" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D19" s="39">
         <v>40</v>
@@ -7638,7 +7638,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="81" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C20" s="39">
         <v>41</v>
@@ -7646,7 +7646,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="81" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D21" s="39">
         <v>42</v>
@@ -7654,7 +7654,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="81" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C22" s="39">
         <v>43</v>
@@ -7662,7 +7662,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="81" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D23" s="39">
         <v>44</v>
@@ -7670,7 +7670,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="81" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B24" s="39">
         <v>47</v>
@@ -7678,7 +7678,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="81" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C25" s="39">
         <v>48</v>
@@ -7686,7 +7686,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="81" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D26" s="39">
         <v>49</v>
@@ -7694,7 +7694,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="81" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C27" s="39">
         <v>50</v>
@@ -7702,7 +7702,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="81" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D28" s="39">
         <v>51</v>
@@ -7710,7 +7710,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="81" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C29" s="39">
         <v>52</v>
@@ -7718,7 +7718,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="81" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D30" s="39">
         <v>53</v>
@@ -7726,7 +7726,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="81" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C31" s="39">
         <v>54</v>
@@ -7734,7 +7734,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="81" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D32" s="39">
         <v>55</v>
@@ -7742,7 +7742,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="81" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C33" s="39">
         <v>56</v>
@@ -7750,7 +7750,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="81" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D34" s="39">
         <v>57</v>
@@ -7758,7 +7758,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="81" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C35" s="39">
         <v>58</v>
@@ -7766,7 +7766,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="81" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D36" s="39">
         <v>59</v>
@@ -7774,7 +7774,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="81" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C37" s="39">
         <v>60</v>
@@ -7782,7 +7782,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="81" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D38" s="39">
         <v>61</v>
@@ -7790,7 +7790,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="81" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C39" s="39">
         <v>62</v>
@@ -7798,7 +7798,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="81" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D40" s="39">
         <v>63</v>
@@ -7806,7 +7806,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="81" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C41" s="39">
         <v>64</v>
@@ -7814,7 +7814,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="81" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D42" s="39">
         <v>65</v>
@@ -7822,7 +7822,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="81" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C43" s="39">
         <v>66</v>
@@ -7830,7 +7830,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="81" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D44" s="39">
         <v>67</v>
@@ -7838,7 +7838,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="81" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B45" s="39">
         <v>70</v>
@@ -7846,7 +7846,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="81" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B46" s="39">
         <v>72</v>
@@ -7854,7 +7854,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="81" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B47" s="39">
         <v>73</v>
@@ -7862,7 +7862,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="81" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B48" s="39">
         <v>74</v>
@@ -7870,7 +7870,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="81" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C49" s="39">
         <v>76</v>
@@ -7878,7 +7878,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="81" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D50" s="39">
         <v>77</v>
@@ -7886,7 +7886,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="81" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C51" s="39">
         <v>81</v>
@@ -7894,7 +7894,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="81" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C52" s="39">
         <v>82</v>
@@ -7902,7 +7902,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="81" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C53" s="39">
         <v>83</v>
@@ -7910,7 +7910,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="81" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C54" s="39">
         <v>84</v>
@@ -7918,7 +7918,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="81" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C55" s="39">
         <v>85</v>
@@ -7926,7 +7926,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="81" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C56" s="39">
         <v>86</v>
@@ -7934,7 +7934,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="81" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B57" s="39">
         <v>87</v>
@@ -7942,7 +7942,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="81" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D58" s="39">
         <v>89</v>
@@ -7950,7 +7950,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="81" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D59" s="39">
         <v>90</v>
@@ -7958,7 +7958,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="81" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D60" s="39">
         <v>91</v>
@@ -7966,7 +7966,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="81" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D61" s="39">
         <v>92</v>
@@ -7974,7 +7974,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="81" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D62" s="39">
         <v>93</v>
@@ -7982,7 +7982,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="81" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D63" s="39">
         <v>94</v>
@@ -7990,7 +7990,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="81" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C64" s="39">
         <v>96</v>
@@ -7998,7 +7998,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="81" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D65" s="39">
         <v>97</v>
@@ -8006,7 +8006,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="81" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C66" s="39">
         <v>101</v>
@@ -8014,7 +8014,7 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="81" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D67" s="39">
         <v>102</v>
@@ -8022,7 +8022,7 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="81" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C68" s="39">
         <v>103</v>
@@ -8030,7 +8030,7 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="81" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D69" s="39">
         <v>104</v>
@@ -8038,7 +8038,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="81" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C70" s="39">
         <v>105</v>
@@ -8046,7 +8046,7 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="81" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D71" s="39">
         <v>106</v>
@@ -8054,7 +8054,7 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="81" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C72" s="39">
         <v>107</v>
@@ -8062,7 +8062,7 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="81" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D73" s="39">
         <v>108</v>
@@ -8070,7 +8070,7 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="81" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C74" s="39">
         <v>109</v>
@@ -8078,7 +8078,7 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="81" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D75" s="39">
         <v>110</v>
@@ -8086,7 +8086,7 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="81" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C76" s="39">
         <v>113</v>
@@ -8094,7 +8094,7 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="81" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D77" s="39">
         <v>114</v>
@@ -8102,7 +8102,7 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="81" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C78" s="39">
         <v>115</v>
@@ -8110,7 +8110,7 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="81" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D79" s="39">
         <v>116</v>
@@ -8118,7 +8118,7 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="81" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C80" s="39">
         <v>117</v>
@@ -8126,7 +8126,7 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="81" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D81" s="39">
         <v>118</v>
@@ -8134,7 +8134,7 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="81" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C82" s="39">
         <v>119</v>
@@ -8142,7 +8142,7 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="81" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D83" s="39">
         <v>120</v>
@@ -8150,7 +8150,7 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="81" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C84" s="39">
         <v>121</v>
@@ -8158,7 +8158,7 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="81" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D85" s="39">
         <v>122</v>
@@ -8166,7 +8166,7 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="81" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C86" s="39">
         <v>123</v>
@@ -8174,7 +8174,7 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="81" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D87" s="39">
         <v>124</v>
@@ -8182,7 +8182,7 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="81" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C88" s="39">
         <v>125</v>
@@ -8190,7 +8190,7 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="81" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D89" s="39">
         <v>126</v>
@@ -8198,7 +8198,7 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="81" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C90" s="39">
         <v>129</v>
@@ -8206,7 +8206,7 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="81" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D91" s="39">
         <v>130</v>
@@ -8214,7 +8214,7 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="81" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C92" s="39">
         <v>133</v>
@@ -8222,7 +8222,7 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="81" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D93" s="39">
         <v>134</v>
@@ -8230,7 +8230,7 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="81" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C94" s="39">
         <v>135</v>
@@ -8238,7 +8238,7 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="81" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D95" s="39">
         <v>136</v>
@@ -8246,7 +8246,7 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="81" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C96" s="39">
         <v>137</v>
@@ -8254,7 +8254,7 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="81" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D97" s="39">
         <v>138</v>
@@ -8262,7 +8262,7 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="81" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C98" s="39">
         <v>139</v>
@@ -8270,7 +8270,7 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="81" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D99" s="39">
         <v>140</v>
@@ -8278,7 +8278,7 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="81" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C100" s="39">
         <v>141</v>
@@ -8286,7 +8286,7 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="81" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D101" s="39">
         <v>142</v>
@@ -8294,7 +8294,7 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="81" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C102" s="39">
         <v>143</v>
@@ -8302,7 +8302,7 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="81" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D103" s="39">
         <v>144</v>
@@ -8310,7 +8310,7 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="81" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C104" s="39">
         <v>145</v>
@@ -8318,7 +8318,7 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="81" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D105" s="39">
         <v>146</v>
@@ -8326,7 +8326,7 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="81" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C106" s="39">
         <v>147</v>
@@ -8334,7 +8334,7 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="81" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D107" s="39">
         <v>148</v>
@@ -8342,7 +8342,7 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="81" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C108" s="39">
         <v>149</v>
@@ -8350,7 +8350,7 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="81" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D109" s="39">
         <v>150</v>
@@ -8358,7 +8358,7 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="81" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C110" s="39">
         <v>151</v>
@@ -8366,7 +8366,7 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="81" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D111" s="39">
         <v>152</v>
@@ -8374,7 +8374,7 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="81" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C112" s="39">
         <v>153</v>
@@ -8382,7 +8382,7 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="81" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D113" s="39">
         <v>154</v>
@@ -8390,7 +8390,7 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="81" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C114" s="39">
         <v>155</v>
@@ -8398,7 +8398,7 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="81" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D115" s="39">
         <v>156</v>
@@ -8406,7 +8406,7 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="81" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C116" s="39">
         <v>157</v>
@@ -8414,7 +8414,7 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="81" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D117" s="39">
         <v>158</v>
@@ -8422,7 +8422,7 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="81" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C118" s="39">
         <v>161</v>
@@ -8430,7 +8430,7 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="81" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D119" s="39">
         <v>162</v>
@@ -8438,7 +8438,7 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="81" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C120" s="39">
         <v>163</v>
@@ -8446,7 +8446,7 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="81" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D121" s="39">
         <v>164</v>
@@ -8454,7 +8454,7 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="81" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C122" s="39">
         <v>165</v>
@@ -8462,7 +8462,7 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="81" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D123" s="39">
         <v>166</v>
@@ -8470,7 +8470,7 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="81" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C124" s="39">
         <v>167</v>
@@ -8478,7 +8478,7 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="81" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D125" s="39">
         <v>168</v>
@@ -8486,7 +8486,7 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="81" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C126" s="39">
         <v>169</v>
@@ -8494,7 +8494,7 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="81" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D127" s="39">
         <v>170</v>
@@ -8502,7 +8502,7 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="81" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C128" s="39">
         <v>171</v>
@@ -8510,7 +8510,7 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="81" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D129" s="39">
         <v>172</v>
@@ -8518,7 +8518,7 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="81" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C130" s="39">
         <v>173</v>
@@ -8526,7 +8526,7 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="81" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D131" s="39">
         <v>174</v>
@@ -8534,7 +8534,7 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="81" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C132" s="39">
         <v>175</v>
@@ -8542,7 +8542,7 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="81" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D133" s="39">
         <v>176</v>
@@ -8550,7 +8550,7 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="81" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C134" s="39">
         <v>177</v>
@@ -8558,7 +8558,7 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="81" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D135" s="39">
         <v>178</v>
@@ -8566,7 +8566,7 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="81" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C136" s="39">
         <v>179</v>
@@ -8574,7 +8574,7 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="81" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D137" s="39">
         <v>180</v>
@@ -8582,7 +8582,7 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="81" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C138" s="39">
         <v>181</v>
@@ -8590,7 +8590,7 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="81" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D139" s="39">
         <v>182</v>
@@ -8598,7 +8598,7 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="81" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C140" s="39">
         <v>183</v>
@@ -8606,7 +8606,7 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="81" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D141" s="39">
         <v>184</v>
@@ -8614,7 +8614,7 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="81" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C142" s="39">
         <v>185</v>
@@ -8622,7 +8622,7 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="81" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D143" s="39">
         <v>186</v>
@@ -8630,7 +8630,7 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="81" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C144" s="39">
         <v>187</v>
@@ -8638,7 +8638,7 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="81" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D145" s="39">
         <v>188</v>
@@ -8646,7 +8646,7 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="81" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C146" s="39">
         <v>191</v>
@@ -8654,7 +8654,7 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="81" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D147" s="39">
         <v>192</v>
@@ -8662,7 +8662,7 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="81" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C148" s="39">
         <v>193</v>
@@ -8670,7 +8670,7 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="81" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D149" s="39">
         <v>194</v>
@@ -8678,7 +8678,7 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="81" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C150" s="39">
         <v>195</v>
@@ -8686,7 +8686,7 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="81" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D151" s="39">
         <v>196</v>
@@ -8694,7 +8694,7 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="81" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C152" s="39">
         <v>197</v>
@@ -8702,7 +8702,7 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="81" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D153" s="39">
         <v>198</v>
@@ -8710,7 +8710,7 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="81" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C154" s="39">
         <v>199</v>
@@ -8718,7 +8718,7 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="81" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D155" s="39">
         <v>200</v>
@@ -8726,7 +8726,7 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="81" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C156" s="39">
         <v>201</v>
@@ -8734,7 +8734,7 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="81" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D157" s="39">
         <v>202</v>
@@ -8742,7 +8742,7 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="81" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C158" s="39">
         <v>203</v>
@@ -8750,7 +8750,7 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="81" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D159" s="39">
         <v>204</v>
@@ -8758,7 +8758,7 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="81" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C160" s="39">
         <v>205</v>
@@ -8766,7 +8766,7 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="81" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D161" s="39">
         <v>206</v>
@@ -8774,7 +8774,7 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="81" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C162" s="39">
         <v>207</v>
@@ -8782,7 +8782,7 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="81" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D163" s="39">
         <v>208</v>
@@ -8790,7 +8790,7 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="81" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B164" s="39">
         <v>35</v>
@@ -8798,7 +8798,7 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="81" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B165" s="39">
         <v>36</v>
@@ -8806,7 +8806,7 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="81" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B166" s="39">
         <v>72</v>
@@ -8814,7 +8814,7 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="81" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B167" s="39">
         <v>73</v>
@@ -8822,7 +8822,7 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="81" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B168" s="39">
         <v>74</v>
@@ -8830,7 +8830,7 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="81" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B169" s="39">
         <v>87</v>
@@ -8859,15 +8859,15 @@
   <sheetData>
     <row r="1" spans="1:2" s="44" customFormat="1">
       <c r="A1" s="42" t="s">
+        <v>284</v>
+      </c>
+      <c r="B1" s="43" t="s">
         <v>285</v>
-      </c>
-      <c r="B1" s="43" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B2" s="45">
         <v>0</v>
@@ -8875,7 +8875,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B3" s="45">
         <v>1</v>
@@ -8883,7 +8883,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B4" s="45">
         <v>2</v>
@@ -8891,7 +8891,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B5" s="45">
         <v>3</v>
@@ -8899,7 +8899,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B6" s="45">
         <v>4</v>
@@ -8907,7 +8907,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B7" s="45">
         <v>5</v>
@@ -8915,7 +8915,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B8" s="45">
         <v>12</v>
@@ -8923,7 +8923,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B9" s="45">
         <v>16</v>
@@ -8931,7 +8931,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B10" s="45">
         <v>24</v>
@@ -8939,7 +8939,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B11" s="45">
         <v>31</v>
@@ -8947,7 +8947,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B12" s="45">
         <v>32</v>
@@ -8955,7 +8955,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B13" s="45">
         <v>33</v>
@@ -8963,7 +8963,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B14" s="45">
         <v>35</v>
@@ -8971,7 +8971,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B15" s="45">
         <v>36</v>
@@ -8979,7 +8979,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B16" s="45">
         <v>37</v>
@@ -8987,7 +8987,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B17" s="45">
         <v>38</v>
@@ -8995,7 +8995,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B18" s="45">
         <v>39</v>
@@ -9003,7 +9003,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B19" s="45">
         <v>40</v>
@@ -9011,7 +9011,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B20" s="45">
         <v>41</v>
@@ -9019,7 +9019,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B21" s="45">
         <v>42</v>
@@ -9027,7 +9027,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B22" s="45">
         <v>43</v>
@@ -9035,7 +9035,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B23" s="45">
         <v>44</v>
@@ -9043,7 +9043,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B24" s="45">
         <v>47</v>
@@ -9051,7 +9051,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B25" s="45">
         <v>48</v>
@@ -9059,7 +9059,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B26" s="45">
         <v>49</v>
@@ -9067,7 +9067,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B27" s="45">
         <v>50</v>
@@ -9075,7 +9075,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B28" s="45">
         <v>51</v>
@@ -9083,7 +9083,7 @@
     </row>
     <row r="29" spans="1:2" s="40" customFormat="1">
       <c r="A29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B29" s="45">
         <v>52</v>
@@ -9091,7 +9091,7 @@
     </row>
     <row r="30" spans="1:2" s="40" customFormat="1">
       <c r="A30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B30" s="45">
         <v>53</v>
@@ -9099,7 +9099,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B31" s="45">
         <v>54</v>
@@ -9107,7 +9107,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B32" s="45">
         <v>55</v>
@@ -9115,7 +9115,7 @@
     </row>
     <row r="33" spans="1:2" s="40" customFormat="1">
       <c r="A33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B33" s="45">
         <v>56</v>
@@ -9123,7 +9123,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B34" s="45">
         <v>57</v>
@@ -9131,7 +9131,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B35" s="45">
         <v>58</v>
@@ -9139,7 +9139,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B36" s="45">
         <v>59</v>
@@ -9147,7 +9147,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B37" s="45">
         <v>60</v>
@@ -9155,7 +9155,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B38" s="45">
         <v>61</v>
@@ -9163,7 +9163,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B39" s="45">
         <v>62</v>
@@ -9171,7 +9171,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B40" s="45">
         <v>63</v>
@@ -9179,7 +9179,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B41" s="45">
         <v>64</v>
@@ -9187,7 +9187,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B42" s="45">
         <v>65</v>
@@ -9195,7 +9195,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B43" s="45">
         <v>66</v>
@@ -9203,7 +9203,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B44" s="45">
         <v>67</v>
@@ -9211,7 +9211,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B45" s="45">
         <v>70</v>
@@ -9219,7 +9219,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B46" s="45">
         <v>72</v>
@@ -9227,7 +9227,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B47" s="45">
         <v>73</v>
@@ -9235,7 +9235,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B48" s="45">
         <v>74</v>
@@ -9243,7 +9243,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B49" s="45">
         <v>76</v>
@@ -9251,7 +9251,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B50" s="45">
         <v>77</v>
@@ -9259,7 +9259,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B51" s="45">
         <v>81</v>
@@ -9267,7 +9267,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B52" s="45">
         <v>82</v>
@@ -9275,7 +9275,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B53" s="45">
         <v>83</v>
@@ -9283,7 +9283,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B54" s="45">
         <v>84</v>
@@ -9291,7 +9291,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B55" s="45">
         <v>85</v>
@@ -9299,7 +9299,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B56" s="45">
         <v>86</v>
@@ -9307,7 +9307,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B57" s="45">
         <v>87</v>
@@ -9315,7 +9315,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B58" s="45">
         <v>89</v>
@@ -9323,7 +9323,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B59" s="45">
         <v>90</v>
@@ -9331,7 +9331,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B60" s="45">
         <v>91</v>
@@ -9339,7 +9339,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B61" s="45">
         <v>92</v>
@@ -9347,7 +9347,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B62" s="45">
         <v>93</v>
@@ -9355,7 +9355,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B63" s="45">
         <v>94</v>
@@ -9363,7 +9363,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B64" s="45">
         <v>96</v>
@@ -9371,7 +9371,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B65" s="45">
         <v>97</v>
@@ -9379,7 +9379,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B66" s="45">
         <v>101</v>
@@ -9387,7 +9387,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B67" s="45">
         <v>102</v>
@@ -9395,7 +9395,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B68" s="45">
         <v>103</v>
@@ -9403,7 +9403,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B69" s="45">
         <v>104</v>
@@ -9411,7 +9411,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B70" s="45">
         <v>105</v>
@@ -9419,7 +9419,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B71" s="45">
         <v>106</v>
@@ -9427,7 +9427,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B72" s="45">
         <v>107</v>
@@ -9435,7 +9435,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B73" s="45">
         <v>108</v>
@@ -9443,7 +9443,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B74" s="45">
         <v>109</v>
@@ -9451,7 +9451,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B75" s="45">
         <v>110</v>
@@ -9459,7 +9459,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B76" s="45">
         <v>113</v>
@@ -9467,7 +9467,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B77" s="45">
         <v>114</v>
@@ -9475,7 +9475,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B78" s="45">
         <v>115</v>
@@ -9483,7 +9483,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B79" s="45">
         <v>116</v>
@@ -9491,7 +9491,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B80" s="45">
         <v>117</v>
@@ -9499,7 +9499,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B81" s="45">
         <v>118</v>
@@ -9507,7 +9507,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B82" s="45">
         <v>119</v>
@@ -9515,7 +9515,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B83" s="45">
         <v>120</v>
@@ -9523,7 +9523,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B84" s="45">
         <v>121</v>
@@ -9531,7 +9531,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B85" s="45">
         <v>122</v>
@@ -9539,7 +9539,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B86" s="45">
         <v>123</v>
@@ -9547,7 +9547,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B87" s="45">
         <v>124</v>
@@ -9555,7 +9555,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B88" s="45">
         <v>125</v>
@@ -9563,7 +9563,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B89" s="45">
         <v>126</v>
@@ -9571,7 +9571,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B90" s="45">
         <v>129</v>
@@ -9579,7 +9579,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B91" s="45">
         <v>130</v>
@@ -9587,7 +9587,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B92" s="45">
         <v>133</v>
@@ -9595,7 +9595,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B93" s="45">
         <v>134</v>
@@ -9603,7 +9603,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B94" s="45">
         <v>135</v>
@@ -9611,7 +9611,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B95" s="45">
         <v>136</v>
@@ -9619,7 +9619,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B96" s="45">
         <v>137</v>
@@ -9627,7 +9627,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B97" s="45">
         <v>138</v>
@@ -9635,7 +9635,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B98" s="45">
         <v>139</v>
@@ -9643,7 +9643,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B99" s="45">
         <v>140</v>
@@ -9651,7 +9651,7 @@
     </row>
     <row r="100" spans="1:2" s="46" customFormat="1">
       <c r="A100" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B100" s="45">
         <v>141</v>
@@ -9659,7 +9659,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B101" s="45">
         <v>142</v>
@@ -9667,7 +9667,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B102" s="45">
         <v>143</v>
@@ -9675,7 +9675,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B103" s="45">
         <v>144</v>
@@ -9683,7 +9683,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B104" s="45">
         <v>145</v>
@@ -9691,7 +9691,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B105" s="45">
         <v>146</v>
@@ -9699,7 +9699,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B106" s="45">
         <v>147</v>
@@ -9707,7 +9707,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B107" s="45">
         <v>148</v>
@@ -9715,7 +9715,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B108" s="45">
         <v>149</v>
@@ -9723,7 +9723,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B109" s="45">
         <v>150</v>
@@ -9731,7 +9731,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B110" s="45">
         <v>151</v>
@@ -9739,7 +9739,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B111" s="45">
         <v>152</v>
@@ -9747,7 +9747,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B112" s="45">
         <v>153</v>
@@ -9755,7 +9755,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B113" s="45">
         <v>154</v>
@@ -9763,7 +9763,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B114" s="45">
         <v>155</v>
@@ -9771,7 +9771,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B115" s="45">
         <v>156</v>
@@ -9779,7 +9779,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B116" s="45">
         <v>157</v>
@@ -9787,7 +9787,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B117" s="45">
         <v>158</v>
@@ -9795,7 +9795,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B118" s="45">
         <v>161</v>
@@ -9803,7 +9803,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B119" s="45">
         <v>162</v>
@@ -9811,7 +9811,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B120" s="45">
         <v>163</v>
@@ -9819,7 +9819,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B121" s="45">
         <v>164</v>
@@ -9827,7 +9827,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B122" s="45">
         <v>165</v>
@@ -9835,7 +9835,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B123" s="45">
         <v>166</v>
@@ -9843,7 +9843,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B124" s="45">
         <v>167</v>
@@ -9851,7 +9851,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B125" s="45">
         <v>168</v>
@@ -9859,7 +9859,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B126" s="45">
         <v>169</v>
@@ -9867,7 +9867,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B127" s="45">
         <v>170</v>
@@ -9875,7 +9875,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B128" s="45">
         <v>171</v>
@@ -9883,7 +9883,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B129" s="45">
         <v>172</v>
@@ -9891,7 +9891,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B130" s="45">
         <v>173</v>
@@ -9899,7 +9899,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B131" s="45">
         <v>174</v>
@@ -9907,7 +9907,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B132" s="45">
         <v>175</v>
@@ -9915,7 +9915,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B133" s="45">
         <v>176</v>
@@ -9923,7 +9923,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B134" s="45">
         <v>177</v>
@@ -9931,7 +9931,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B135" s="45">
         <v>178</v>
@@ -9939,7 +9939,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B136" s="45">
         <v>179</v>
@@ -9947,7 +9947,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B137" s="39">
         <v>180</v>
@@ -9955,7 +9955,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B138" s="39">
         <v>181</v>
@@ -9963,7 +9963,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B139" s="39">
         <v>182</v>
@@ -9971,7 +9971,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B140" s="39">
         <v>183</v>
@@ -9979,7 +9979,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B141" s="39">
         <v>184</v>
@@ -9987,7 +9987,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B142" s="39">
         <v>185</v>
@@ -9995,7 +9995,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B143" s="39">
         <v>186</v>
@@ -10003,7 +10003,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B144" s="39">
         <v>187</v>
@@ -10011,7 +10011,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B145" s="39">
         <v>188</v>
@@ -10019,7 +10019,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B146" s="39">
         <v>191</v>
@@ -10027,7 +10027,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B147" s="39">
         <v>192</v>
@@ -10035,7 +10035,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B148" s="39">
         <v>193</v>
@@ -10043,7 +10043,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B149" s="39">
         <v>194</v>
@@ -10051,7 +10051,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B150" s="39">
         <v>195</v>
@@ -10059,7 +10059,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B151" s="39">
         <v>196</v>
@@ -10067,7 +10067,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B152" s="39">
         <v>197</v>
@@ -10075,7 +10075,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B153" s="39">
         <v>198</v>
@@ -10083,7 +10083,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B154" s="39">
         <v>199</v>
@@ -10091,7 +10091,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B155" s="39">
         <v>200</v>
@@ -10099,7 +10099,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B156" s="39">
         <v>201</v>
@@ -10107,7 +10107,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B157" s="39">
         <v>202</v>
@@ -10115,7 +10115,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B158" s="39">
         <v>203</v>
@@ -10123,7 +10123,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B159" s="39">
         <v>204</v>
@@ -10131,7 +10131,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B160" s="39">
         <v>205</v>
@@ -10139,7 +10139,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B161" s="39">
         <v>206</v>
@@ -10147,7 +10147,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B162" s="39">
         <v>207</v>
@@ -10155,7 +10155,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B163" s="39">
         <v>208</v>
@@ -10184,16 +10184,16 @@
   <sheetData>
     <row r="1" spans="1:3" s="44" customFormat="1">
       <c r="A1" s="42" t="s">
+        <v>284</v>
+      </c>
+      <c r="B1" s="43" t="s">
         <v>285</v>
-      </c>
-      <c r="B1" s="43" t="s">
-        <v>286</v>
       </c>
       <c r="C1" s="38"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B2" s="45">
         <v>24</v>
@@ -10202,7 +10202,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B3" s="45">
         <v>31</v>
@@ -10211,7 +10211,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B4" s="45">
         <v>35</v>
@@ -10220,7 +10220,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B5" s="45">
         <v>36</v>
@@ -10229,7 +10229,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B6" s="45">
         <v>37</v>
@@ -10238,7 +10238,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B7" s="45">
         <v>38</v>
@@ -10247,7 +10247,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B8" s="45">
         <v>39</v>
@@ -10256,7 +10256,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B9" s="45">
         <v>40</v>
@@ -10265,7 +10265,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B10" s="45">
         <v>43</v>
@@ -10274,7 +10274,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B11" s="45">
         <v>44</v>
@@ -10283,7 +10283,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B12" s="45">
         <v>56</v>
@@ -10292,7 +10292,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B13" s="45">
         <v>57</v>
@@ -10301,7 +10301,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B14" s="45">
         <v>58</v>
@@ -10310,7 +10310,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B15" s="45">
         <v>59</v>
@@ -10319,7 +10319,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B16" s="45">
         <v>60</v>
@@ -10328,7 +10328,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B17" s="45">
         <v>61</v>
@@ -10337,7 +10337,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B18" s="45">
         <v>62</v>
@@ -10346,7 +10346,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B19" s="45">
         <v>63</v>
@@ -10355,7 +10355,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B20" s="45">
         <v>72</v>
@@ -10364,7 +10364,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B21" s="45">
         <v>73</v>
@@ -10373,7 +10373,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B22" s="45">
         <v>74</v>
@@ -10381,7 +10381,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B23" s="45">
         <v>87</v>
@@ -10389,7 +10389,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B24" s="45">
         <v>96</v>
@@ -10397,7 +10397,7 @@
     </row>
     <row r="25" spans="1:3" s="40" customFormat="1">
       <c r="A25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B25" s="45">
         <v>97</v>
@@ -10406,7 +10406,7 @@
     </row>
     <row r="26" spans="1:3" s="40" customFormat="1">
       <c r="A26" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B26" s="45">
         <v>76</v>
@@ -10415,7 +10415,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B27" s="45">
         <v>77</v>
@@ -10461,7 +10461,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -10559,7 +10559,7 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B3" s="39">
         <v>32</v>
@@ -10581,7 +10581,7 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B4" s="39">
         <v>33</v>
@@ -10603,7 +10603,7 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B5" s="39">
         <v>48</v>
@@ -10625,7 +10625,7 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B6" s="39">
         <v>49</v>
@@ -10647,7 +10647,7 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B7" s="39">
         <v>117</v>
@@ -10669,7 +10669,7 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B8" s="39">
         <v>118</v>
@@ -10691,7 +10691,7 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B9" s="39">
         <v>123</v>
@@ -10718,7 +10718,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B10" s="39">
         <v>124</v>
@@ -10745,7 +10745,7 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B11" s="39">
         <v>133</v>
@@ -10770,7 +10770,7 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B12" s="39">
         <v>134</v>
@@ -10795,7 +10795,7 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B13" s="39">
         <v>155</v>
@@ -10817,7 +10817,7 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B14" s="39">
         <v>156</v>
@@ -10839,7 +10839,7 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B15" s="39">
         <v>171</v>
@@ -10864,7 +10864,7 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B16" s="39">
         <v>172</v>
@@ -10889,7 +10889,7 @@
     </row>
     <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B17" s="39">
         <v>181</v>
@@ -10911,7 +10911,7 @@
     </row>
     <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B18" s="39">
         <v>182</v>
@@ -10933,7 +10933,7 @@
     </row>
     <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B19" s="39">
         <v>185</v>
@@ -10958,7 +10958,7 @@
     </row>
     <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B20" s="39">
         <v>186</v>
@@ -10981,7 +10981,7 @@
     </row>
     <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B21" s="39">
         <v>201</v>
@@ -11001,7 +11001,7 @@
     </row>
     <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B22" s="39">
         <v>202</v>
@@ -11021,7 +11021,7 @@
     </row>
     <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B23" s="39">
         <v>203</v>
@@ -11035,7 +11035,7 @@
     </row>
     <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B24" s="39">
         <v>204</v>
@@ -11049,7 +11049,7 @@
     </row>
     <row r="25" spans="1:24">
       <c r="A25" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B25" s="39">
         <v>207</v>
@@ -11069,7 +11069,7 @@
     </row>
     <row r="26" spans="1:24">
       <c r="A26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B26" s="39">
         <v>208</v>
@@ -11089,7 +11089,7 @@
     </row>
     <row r="27" spans="1:24">
       <c r="A27" s="110" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B27" s="111">
         <v>161</v>
@@ -11110,7 +11110,7 @@
     </row>
     <row r="28" spans="1:24">
       <c r="A28" s="110" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B28" s="111">
         <v>162</v>
@@ -11553,7 +11553,7 @@
         <v>57</v>
       </c>
       <c r="R2" s="23" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="S2" s="23" t="s">
         <v>58</v>
@@ -11580,7 +11580,7 @@
         <v>65</v>
       </c>
       <c r="AA2" s="23" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AB2" s="23" t="s">
         <v>66</v>
@@ -11603,7 +11603,7 @@
     </row>
     <row r="5" spans="1:33">
       <c r="A5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B5" s="39">
         <v>105</v>
@@ -11623,7 +11623,7 @@
     </row>
     <row r="6" spans="1:33">
       <c r="A6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B6" s="39">
         <v>106</v>
@@ -11643,7 +11643,7 @@
     </row>
     <row r="7" spans="1:33">
       <c r="A7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B7" s="39">
         <v>119</v>
@@ -11659,7 +11659,7 @@
     </row>
     <row r="8" spans="1:33">
       <c r="A8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B8" s="39">
         <v>120</v>
@@ -11675,7 +11675,7 @@
     </row>
     <row r="9" spans="1:33">
       <c r="A9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B9" s="39">
         <v>121</v>
@@ -11698,7 +11698,7 @@
     </row>
     <row r="10" spans="1:33">
       <c r="A10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B10" s="39">
         <v>122</v>
@@ -11721,7 +11721,7 @@
     </row>
     <row r="11" spans="1:33">
       <c r="A11" s="82" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B11" s="39">
         <v>125</v>
@@ -11737,7 +11737,7 @@
     </row>
     <row r="12" spans="1:33">
       <c r="A12" s="82" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B12" s="39">
         <v>126</v>
@@ -11753,7 +11753,7 @@
     </row>
     <row r="13" spans="1:33">
       <c r="A13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B13" s="39">
         <v>137</v>
@@ -11776,7 +11776,7 @@
     </row>
     <row r="14" spans="1:33">
       <c r="A14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B14" s="39">
         <v>138</v>
@@ -11799,7 +11799,7 @@
     </row>
     <row r="15" spans="1:33">
       <c r="A15" s="51" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B15" s="39">
         <v>141</v>
@@ -11815,7 +11815,7 @@
     </row>
     <row r="16" spans="1:33">
       <c r="A16" s="51" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B16" s="39">
         <v>142</v>
@@ -11830,7 +11830,7 @@
     </row>
     <row r="17" spans="1:31">
       <c r="A17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B17" s="39">
         <v>143</v>
@@ -11869,7 +11869,7 @@
     </row>
     <row r="18" spans="1:31">
       <c r="A18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B18" s="39">
         <v>144</v>
@@ -11908,7 +11908,7 @@
     </row>
     <row r="19" spans="1:31">
       <c r="A19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B19" s="39">
         <v>147</v>
@@ -11926,7 +11926,7 @@
     </row>
     <row r="20" spans="1:31">
       <c r="A20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B20" s="39">
         <v>148</v>
@@ -11944,7 +11944,7 @@
     </row>
     <row r="21" spans="1:31">
       <c r="A21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B21" s="39">
         <v>151</v>
@@ -11960,7 +11960,7 @@
     </row>
     <row r="22" spans="1:31">
       <c r="A22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B22" s="39">
         <v>152</v>
@@ -11976,7 +11976,7 @@
     </row>
     <row r="23" spans="1:31">
       <c r="A23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B23" s="39">
         <v>153</v>
@@ -12003,7 +12003,7 @@
     </row>
     <row r="24" spans="1:31">
       <c r="A24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B24" s="39">
         <v>154</v>
@@ -12030,7 +12030,7 @@
     </row>
     <row r="25" spans="1:31">
       <c r="A25" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B25" s="39">
         <v>163</v>
@@ -12064,7 +12064,7 @@
     </row>
     <row r="26" spans="1:31">
       <c r="A26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B26" s="39">
         <v>164</v>
@@ -12098,7 +12098,7 @@
     </row>
     <row r="27" spans="1:31">
       <c r="A27" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B27" s="39">
         <v>165</v>
@@ -12119,7 +12119,7 @@
     </row>
     <row r="28" spans="1:31">
       <c r="A28" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B28" s="39">
         <v>166</v>
@@ -12140,7 +12140,7 @@
     </row>
     <row r="29" spans="1:31">
       <c r="A29" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B29" s="39">
         <v>179</v>
@@ -12158,7 +12158,7 @@
     </row>
     <row r="30" spans="1:31">
       <c r="A30" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B30" s="39">
         <v>180</v>
@@ -12176,7 +12176,7 @@
     </row>
     <row r="31" spans="1:31">
       <c r="A31" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B31" s="39">
         <v>183</v>
@@ -12195,7 +12195,7 @@
     </row>
     <row r="32" spans="1:31">
       <c r="A32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B32" s="39">
         <v>184</v>
@@ -12214,7 +12214,7 @@
     </row>
     <row r="33" spans="1:33">
       <c r="A33" s="50" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B33" s="39">
         <v>187</v>
@@ -12226,7 +12226,7 @@
     </row>
     <row r="34" spans="1:33">
       <c r="A34" s="50" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B34" s="39">
         <v>188</v>
@@ -12238,7 +12238,7 @@
     </row>
     <row r="35" spans="1:33">
       <c r="A35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B35" s="39">
         <v>191</v>
@@ -12273,7 +12273,7 @@
     </row>
     <row r="36" spans="1:33">
       <c r="A36" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B36" s="39">
         <v>192</v>
@@ -12308,7 +12308,7 @@
     </row>
     <row r="37" spans="1:33">
       <c r="A37" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B37" s="39">
         <v>193</v>
@@ -12342,7 +12342,7 @@
     </row>
     <row r="38" spans="1:33">
       <c r="A38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B38" s="39">
         <v>194</v>
@@ -12376,7 +12376,7 @@
     </row>
     <row r="39" spans="1:33">
       <c r="A39" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B39" s="39">
         <v>205</v>
@@ -12412,7 +12412,7 @@
     </row>
     <row r="40" spans="1:33">
       <c r="A40" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B40" s="39">
         <v>206</v>

--- a/tests/_dummy_data.xlsx
+++ b/tests/_dummy_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ali_m\AnacondaProjects\PhD\Semiology-Visualisation-Tool\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05AAC2B0-153A-4C58-8FD9-51029BBF580C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835B5FF4-F208-463B-8C0C-D1A3660F8DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="375">
   <si>
     <t xml:space="preserve">Semiology </t>
   </si>
@@ -175,11 +175,6 @@
     <t>Pre-frontal (BA 8, 9, 10, 11, 12, 13, 14, 24, 25, 32, 44, 45, 46, 47)</t>
   </si>
   <si>
-    <t>DL-PFC 
-(BA 46) 
-(include subgroups BA 9, 8, 10 - frontopolar/anterior prefrontal)</t>
-  </si>
-  <si>
     <t>gyrus rectus (basal = gyrus rectus and OFC)</t>
   </si>
   <si>
@@ -196,10 +191,6 @@
   </si>
   <si>
     <t>Med OF</t>
-  </si>
-  <si>
-    <t>Medial Frontal 
-(should include medial premotor and its constituents as its subsets)</t>
   </si>
   <si>
     <t>Primary Motor Cortex (Pre-central gyrus, BA 4, Rolandic)</t>
@@ -909,9 +900,6 @@
 (BA 8, frontal-eye-fields)</t>
   </si>
   <si>
-    <t>Precuneus (medial post sup par lobule)</t>
-  </si>
-  <si>
     <t>Cingulum (WM)</t>
   </si>
   <si>
@@ -1171,6 +1159,12 @@
   </si>
   <si>
     <t>Ant Cing (frontal, genu)</t>
+  </si>
+  <si>
+    <t>DL-PFC (BA 46) (include subgroups BA 9, 8, 10 - frontopolar/anterior prefrontal)</t>
+  </si>
+  <si>
+    <t>Medial Frontal (include medial premotor and its constituents as its subsets)</t>
   </si>
 </sst>
 </file>
@@ -2385,11 +2379,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DU52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="Z21" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="AK3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AH2" sqref="AH2"/>
+      <selection pane="bottomRight" activeCell="AX2" sqref="AX2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2722,220 +2716,220 @@
         <v>45</v>
       </c>
       <c r="AO2" s="23" t="s">
+        <v>373</v>
+      </c>
+      <c r="AP2" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="AP2" s="84" t="s">
+      <c r="AQ2" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="AQ2" s="23" t="s">
+      <c r="AR2" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="AR2" s="26" t="s">
+      <c r="AS2" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="AS2" s="26" t="s">
+      <c r="AT2" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="AT2" s="26" t="s">
+      <c r="AU2" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="AU2" s="26" t="s">
+      <c r="AV2" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="AW2" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="AV2" s="25" t="s">
+      <c r="AX2" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="AW2" s="25" t="s">
+      <c r="AY2" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="AX2" s="63" t="s">
+      <c r="AZ2" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="AY2" s="23" t="s">
+      <c r="BA2" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="BB2" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="AZ2" s="25" t="s">
+      <c r="BC2" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="BA2" s="23" t="s">
-        <v>286</v>
-      </c>
-      <c r="BB2" s="23" t="s">
+      <c r="BD2" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="BC2" s="25" t="s">
+      <c r="BE2" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="BD2" s="23" t="s">
+      <c r="BF2" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="BE2" s="25" t="s">
+      <c r="BG2" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="BF2" s="23" t="s">
+      <c r="BH2" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="BG2" s="23" t="s">
+      <c r="BI2" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="BH2" s="37" t="s">
+      <c r="BJ2" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="BK2" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="BI2" s="25" t="s">
+      <c r="BL2" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="BJ2" s="23" t="s">
-        <v>287</v>
-      </c>
-      <c r="BK2" s="23" t="s">
+      <c r="BM2" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="BL2" s="77" t="s">
+      <c r="BN2" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="BM2" s="77" t="s">
+      <c r="BO2" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="BN2" s="23" t="s">
+      <c r="BP2" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="BO2" s="25" t="s">
+      <c r="BQ2" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="BP2" s="25" t="s">
+      <c r="BR2" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="BQ2" s="72" t="s">
+      <c r="BS2" s="88" t="s">
+        <v>372</v>
+      </c>
+      <c r="BT2" s="89" t="s">
         <v>72</v>
       </c>
-      <c r="BR2" s="87" t="s">
+      <c r="BU2" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="BS2" s="88" t="s">
-        <v>375</v>
-      </c>
-      <c r="BT2" s="89" t="s">
+      <c r="BV2" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="BU2" s="89" t="s">
+      <c r="BW2" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="BV2" s="90" t="s">
+      <c r="BX2" s="91" t="s">
         <v>76</v>
       </c>
-      <c r="BW2" s="88" t="s">
+      <c r="BY2" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="BX2" s="91" t="s">
+      <c r="BZ2" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="BY2" s="72" t="s">
+      <c r="CA2" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="BZ2" s="25" t="s">
+      <c r="CB2" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="CA2" s="23" t="s">
+      <c r="CC2" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="CB2" s="25" t="s">
+      <c r="CD2" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="CC2" s="23" t="s">
+      <c r="CE2" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="CD2" s="27" t="s">
+      <c r="CF2" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="CE2" s="23" t="s">
+      <c r="CG2" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="CF2" s="23" t="s">
+      <c r="CH2" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="CG2" s="37" t="s">
+      <c r="CI2" s="100" t="s">
         <v>87</v>
       </c>
-      <c r="CH2" s="73" t="s">
+      <c r="CJ2" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="CI2" s="100" t="s">
+      <c r="CK2" s="79" t="s">
         <v>89</v>
       </c>
-      <c r="CJ2" s="25" t="s">
+      <c r="CL2" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="CK2" s="79" t="s">
+      <c r="CM2" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="CL2" s="25" t="s">
+      <c r="CN2" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="CM2" s="25" t="s">
+      <c r="CO2" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="CN2" s="74" t="s">
+      <c r="CP2" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="CO2" s="65" t="s">
+      <c r="CQ2" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="CP2" s="66" t="s">
+      <c r="CR2" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="CQ2" s="23" t="s">
+      <c r="CS2" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="CR2" s="23" t="s">
+      <c r="CT2" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="CS2" s="25" t="s">
+      <c r="CU2" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="CT2" s="25" t="s">
+      <c r="CV2" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="CU2" s="25" t="s">
+      <c r="CW2" s="75" t="s">
         <v>101</v>
       </c>
-      <c r="CV2" s="28" t="s">
+      <c r="CX2" s="101" t="s">
         <v>102</v>
       </c>
-      <c r="CW2" s="75" t="s">
+      <c r="CY2" s="102" t="s">
         <v>103</v>
       </c>
-      <c r="CX2" s="101" t="s">
+      <c r="CZ2" s="102" t="s">
         <v>104</v>
       </c>
-      <c r="CY2" s="102" t="s">
-        <v>105</v>
-      </c>
-      <c r="CZ2" s="102" t="s">
+      <c r="DA2" s="103" t="s">
+        <v>364</v>
+      </c>
+      <c r="DB2" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="DA2" s="103" t="s">
-        <v>367</v>
-      </c>
-      <c r="DB2" s="36" t="s">
+      <c r="DC2" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="DD2" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="DC2" s="19" t="s">
+      <c r="DE2" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="DD2" s="19" t="s">
+      <c r="DF2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="DE2" s="9" t="s">
+      <c r="DG2" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="DF2" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="DG2" s="11" t="s">
-        <v>113</v>
-      </c>
       <c r="DH2" s="13" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="DI2" s="12"/>
       <c r="DJ2" s="12"/>
@@ -2947,7 +2941,7 @@
     </row>
     <row r="3" spans="1:125" ht="30">
       <c r="A3" s="32" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B3" s="32">
         <v>5</v>
@@ -2956,16 +2950,16 @@
         <v>3</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G3" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H3" s="32"/>
       <c r="I3" s="32"/>
@@ -2973,7 +2967,7 @@
         <v>3</v>
       </c>
       <c r="Q3" s="31" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="R3" s="5">
         <v>1</v>
@@ -2995,7 +2989,7 @@
         <v>1</v>
       </c>
       <c r="DA3" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="DB3" s="6">
         <v>5</v>
@@ -3007,7 +3001,7 @@
         <v>3</v>
       </c>
       <c r="DF3" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="DP3" s="33"/>
       <c r="DQ3" s="33"/>
@@ -3153,7 +3147,7 @@
     </row>
     <row r="8" spans="1:125" ht="30">
       <c r="A8" s="32" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B8" s="32">
         <v>10</v>
@@ -3162,20 +3156,20 @@
         <v>10</v>
       </c>
       <c r="D8" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="F8" s="32" t="s">
         <v>304</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>305</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>307</v>
       </c>
       <c r="G8" s="32"/>
       <c r="H8" s="32" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="I8" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M8" s="5">
         <v>10</v>
@@ -3184,7 +3178,7 @@
         <v>10</v>
       </c>
       <c r="Q8" s="31" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AL8" s="5">
         <v>10</v>
@@ -3205,7 +3199,7 @@
         <v>2</v>
       </c>
       <c r="DA8" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="DB8" s="6">
         <v>10</v>
@@ -3217,10 +3211,10 @@
         <v>0</v>
       </c>
       <c r="DE8" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="DH8" s="5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="DP8" s="33"/>
       <c r="DQ8" s="33"/>
@@ -3246,7 +3240,7 @@
     </row>
     <row r="10" spans="1:125">
       <c r="A10" s="32" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B10" s="32">
         <v>10</v>
@@ -3255,16 +3249,16 @@
         <v>10</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H10" s="32"/>
       <c r="I10" s="32"/>
@@ -3278,7 +3272,7 @@
         <v>9</v>
       </c>
       <c r="Q10" s="31" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="R10" s="5">
         <v>9</v>
@@ -3296,7 +3290,7 @@
         <v>5</v>
       </c>
       <c r="DA10" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="DB10" s="6">
         <v>10</v>
@@ -3308,7 +3302,7 @@
         <v>10</v>
       </c>
       <c r="DF10" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="DP10" s="33"/>
       <c r="DQ10" s="33"/>
@@ -3322,16 +3316,16 @@
       <c r="B11" s="32"/>
       <c r="C11" s="32"/>
       <c r="D11" s="32" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H11" s="32"/>
       <c r="I11" s="32"/>
@@ -3345,7 +3339,7 @@
         <v>1</v>
       </c>
       <c r="Q11" s="31" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="AL11" s="5">
         <v>1</v>
@@ -3354,7 +3348,7 @@
         <v>1</v>
       </c>
       <c r="DA11" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="DP11" s="33"/>
       <c r="DQ11" s="33"/>
@@ -3365,7 +3359,7 @@
     </row>
     <row r="12" spans="1:125">
       <c r="A12" s="32" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B12" s="32">
         <v>1</v>
@@ -3374,16 +3368,16 @@
         <v>1</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H12" s="32"/>
       <c r="I12" s="32"/>
@@ -3391,7 +3385,7 @@
         <v>1</v>
       </c>
       <c r="Q12" s="31" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="AL12" s="5">
         <v>1</v>
@@ -3423,7 +3417,7 @@
     </row>
     <row r="14" spans="1:125">
       <c r="A14" s="32" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B14" s="32">
         <v>1</v>
@@ -3432,17 +3426,17 @@
         <v>1</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G14" s="32"/>
       <c r="H14" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I14" s="32"/>
       <c r="P14" s="5">
@@ -3455,7 +3449,7 @@
         <v>1</v>
       </c>
       <c r="DA14" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="DB14" s="6">
         <v>1</v>
@@ -3467,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="DF14" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="DP14" s="33"/>
       <c r="DQ14" s="33"/>
@@ -3478,7 +3472,7 @@
     </row>
     <row r="15" spans="1:125">
       <c r="A15" s="32" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B15" s="32">
         <v>1</v>
@@ -3487,17 +3481,17 @@
         <v>1</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G15" s="32"/>
       <c r="H15" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I15" s="32"/>
       <c r="P15" s="5">
@@ -3510,7 +3504,7 @@
         <v>1</v>
       </c>
       <c r="DA15" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="DB15" s="6">
         <v>1</v>
@@ -3522,7 +3516,7 @@
         <v>0</v>
       </c>
       <c r="DF15" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="DP15" s="33"/>
       <c r="DQ15" s="33"/>
@@ -3533,7 +3527,7 @@
     </row>
     <row r="16" spans="1:125">
       <c r="A16" s="32" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B16" s="32">
         <v>1</v>
@@ -3542,17 +3536,17 @@
         <v>1</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G16" s="32"/>
       <c r="H16" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I16" s="32"/>
       <c r="P16" s="5">
@@ -3565,7 +3559,7 @@
         <v>1</v>
       </c>
       <c r="DA16" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="DB16" s="6">
         <v>1</v>
@@ -3577,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="DF16" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="DP16" s="33"/>
       <c r="DQ16" s="33"/>
@@ -3678,7 +3672,7 @@
     </row>
     <row r="23" spans="1:125">
       <c r="A23" s="17" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B23" s="32">
         <v>10</v>
@@ -3687,17 +3681,17 @@
         <v>10</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F23" s="32" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G23" s="32"/>
       <c r="H23" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I23" s="32"/>
       <c r="M23" s="5">
@@ -3707,7 +3701,7 @@
         <v>10</v>
       </c>
       <c r="Q23" s="31" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="BQ23" s="5">
         <v>3</v>
@@ -3719,10 +3713,10 @@
         <v>3</v>
       </c>
       <c r="DA23" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="DF23" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="DP23" s="33"/>
       <c r="DQ23" s="33"/>
@@ -3733,7 +3727,7 @@
     </row>
     <row r="24" spans="1:125" ht="30">
       <c r="A24" s="108" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B24" s="32">
         <v>5</v>
@@ -3742,24 +3736,24 @@
         <v>5</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E24" s="33" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F24" s="32" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G24" s="32"/>
       <c r="H24" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I24" s="32"/>
       <c r="P24" s="5">
         <v>5</v>
       </c>
       <c r="Q24" s="31" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="R24" s="5">
         <v>5</v>
@@ -3768,7 +3762,7 @@
         <v>5</v>
       </c>
       <c r="DF24" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="DP24" s="33"/>
       <c r="DQ24" s="33"/>
@@ -3779,7 +3773,7 @@
     </row>
     <row r="25" spans="1:125">
       <c r="A25" s="17" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B25" s="32">
         <v>1</v>
@@ -3788,24 +3782,24 @@
         <v>1</v>
       </c>
       <c r="D25" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="E25" s="33" t="s">
         <v>346</v>
       </c>
-      <c r="E25" s="33" t="s">
-        <v>349</v>
-      </c>
       <c r="F25" s="32" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G25" s="32"/>
       <c r="H25" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I25" s="32"/>
       <c r="P25" s="5">
         <v>1</v>
       </c>
       <c r="Q25" s="31" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="R25" s="5">
         <v>1</v>
@@ -3814,10 +3808,10 @@
         <v>1</v>
       </c>
       <c r="DA25" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="DF25" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="DP25" s="33"/>
       <c r="DQ25" s="33"/>
@@ -3858,7 +3852,7 @@
     </row>
     <row r="28" spans="1:125">
       <c r="A28" s="32" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B28" s="32">
         <v>1</v>
@@ -3867,13 +3861,13 @@
         <v>1</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G28" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H28" s="32"/>
       <c r="I28" s="32"/>
@@ -3881,7 +3875,7 @@
         <v>1</v>
       </c>
       <c r="Q28" s="31" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="AL28" s="5">
         <v>1</v>
@@ -3890,7 +3884,7 @@
         <v>1</v>
       </c>
       <c r="DF28" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="DP28" s="33"/>
       <c r="DQ28" s="33"/>
@@ -3901,7 +3895,7 @@
     </row>
     <row r="29" spans="1:125">
       <c r="A29" s="32" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B29" s="32">
         <v>1</v>
@@ -3910,13 +3904,13 @@
         <v>1</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G29" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H29" s="32"/>
       <c r="I29" s="32"/>
@@ -3924,7 +3918,7 @@
         <v>10</v>
       </c>
       <c r="Q29" s="31" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="AL29" s="5">
         <v>10</v>
@@ -3933,7 +3927,7 @@
         <v>10</v>
       </c>
       <c r="DF29" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="DP29" s="33"/>
       <c r="DQ29" s="33"/>
@@ -3944,7 +3938,7 @@
     </row>
     <row r="30" spans="1:125" ht="30">
       <c r="A30" s="32" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B30" s="32">
         <v>1</v>
@@ -3953,20 +3947,20 @@
         <v>1</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E30" s="33" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F30" s="32" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G30" s="32"/>
       <c r="H30" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I30" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J30" s="5">
         <v>1</v>
@@ -3978,7 +3972,7 @@
         <v>1</v>
       </c>
       <c r="Q30" s="31" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AL30" s="5">
         <v>1</v>
@@ -3987,7 +3981,7 @@
         <v>1</v>
       </c>
       <c r="DA30" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="DB30" s="6">
         <v>1</v>
@@ -3999,7 +3993,7 @@
         <v>0</v>
       </c>
       <c r="DG30" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="DP30" s="33"/>
       <c r="DQ30" s="33"/>
@@ -4010,7 +4004,7 @@
     </row>
     <row r="31" spans="1:125" s="33" customFormat="1" ht="30">
       <c r="A31" s="32" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B31" s="32">
         <v>1</v>
@@ -4019,20 +4013,20 @@
         <v>1</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F31" s="32" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G31" s="32"/>
       <c r="H31" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I31" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J31" s="5">
         <v>1</v>
@@ -4048,7 +4042,7 @@
         <v>1</v>
       </c>
       <c r="Q31" s="31" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="R31" s="5"/>
       <c r="S31" s="5"/>
@@ -4142,7 +4136,7 @@
       <c r="CY31" s="5"/>
       <c r="CZ31" s="5"/>
       <c r="DA31" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="DB31" s="6">
         <v>1</v>
@@ -4156,7 +4150,7 @@
       <c r="DE31" s="5"/>
       <c r="DF31" s="5"/>
       <c r="DG31" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="DH31" s="5"/>
       <c r="DI31" s="5"/>
@@ -4214,7 +4208,7 @@
     </row>
     <row r="35" spans="1:125">
       <c r="A35" s="32" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B35" s="32">
         <v>999</v>
@@ -4223,16 +4217,16 @@
         <v>999</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E35" s="33" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F35" s="32" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G35" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H35" s="32"/>
       <c r="I35" s="32"/>
@@ -4266,16 +4260,16 @@
       <c r="B36" s="32"/>
       <c r="C36" s="32"/>
       <c r="D36" s="17" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E36" s="33" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F36" s="32" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G36" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H36" s="32"/>
       <c r="I36" s="32"/>
@@ -4283,7 +4277,7 @@
         <v>7</v>
       </c>
       <c r="Q36" s="31" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="R36" s="5">
         <v>7</v>
@@ -4327,7 +4321,7 @@
     </row>
     <row r="39" spans="1:125">
       <c r="A39" s="32" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B39" s="32">
         <v>5</v>
@@ -4336,16 +4330,16 @@
         <v>500</v>
       </c>
       <c r="D39" s="32" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E39" s="32" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F39" s="32" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G39" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H39" s="32"/>
       <c r="I39" s="32"/>
@@ -4362,7 +4356,7 @@
         <v>2</v>
       </c>
       <c r="Q39" s="31" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="R39" s="5">
         <v>2</v>
@@ -4374,10 +4368,10 @@
         <v>2</v>
       </c>
       <c r="DA39" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="DF39" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="DP39" s="33"/>
       <c r="DQ39" s="33"/>
@@ -4403,7 +4397,7 @@
     </row>
     <row r="41" spans="1:125">
       <c r="A41" s="32" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B41" s="32">
         <v>1</v>
@@ -4412,16 +4406,16 @@
         <v>1</v>
       </c>
       <c r="D41" s="32" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E41" s="32" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F41" s="32" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G41" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H41" s="32"/>
       <c r="I41" s="32"/>
@@ -4432,10 +4426,10 @@
         <v>1</v>
       </c>
       <c r="DA41" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="DF41" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="DP41" s="33"/>
       <c r="DQ41" s="33"/>
@@ -4446,7 +4440,7 @@
     </row>
     <row r="42" spans="1:125">
       <c r="A42" s="32" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B42" s="32">
         <v>1</v>
@@ -4455,16 +4449,16 @@
         <v>1</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E42" s="32" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F42" s="32" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G42" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H42" s="32"/>
       <c r="I42" s="32"/>
@@ -4478,7 +4472,7 @@
         <v>1</v>
       </c>
       <c r="Q42" s="31" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="R42" s="5">
         <v>1</v>
@@ -4490,10 +4484,10 @@
         <v>1</v>
       </c>
       <c r="DA42" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="DF42" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="DP42" s="33"/>
       <c r="DQ42" s="33"/>
@@ -4504,7 +4498,7 @@
     </row>
     <row r="43" spans="1:125">
       <c r="A43" s="32" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B43" s="32">
         <v>5</v>
@@ -4513,16 +4507,16 @@
         <v>5</v>
       </c>
       <c r="D43" s="32" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E43" s="32" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F43" s="32" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G43" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H43" s="32"/>
       <c r="I43" s="32"/>
@@ -4539,7 +4533,7 @@
         <v>2</v>
       </c>
       <c r="Q43" s="31" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="R43" s="5">
         <v>2</v>
@@ -4548,10 +4542,10 @@
         <v>2</v>
       </c>
       <c r="DA43" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="DF43" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="DP43" s="33"/>
       <c r="DQ43" s="33"/>
@@ -4717,7 +4711,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -4738,36 +4732,36 @@
     </row>
     <row r="2" spans="1:11" ht="96" customHeight="1">
       <c r="C2" s="80" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="F2" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="60" t="s">
+      <c r="G2" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="H2" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="83" t="s">
-        <v>288</v>
-      </c>
-      <c r="H2" s="54" t="s">
+      <c r="I2" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="I2" s="55" t="s">
+      <c r="K2" s="56" t="s">
         <v>85</v>
-      </c>
-      <c r="J2" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="K2" s="56" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B3" s="39">
         <v>107</v>
@@ -4790,7 +4784,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B4" s="39">
         <v>108</v>
@@ -4807,7 +4801,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="50" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B5" s="39">
         <v>113</v>
@@ -4819,7 +4813,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="50" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B6" s="39">
         <v>114</v>
@@ -4831,7 +4825,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B7" s="39">
         <v>149</v>
@@ -4848,7 +4842,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B8" s="39">
         <v>150</v>
@@ -4865,7 +4859,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B9" s="39">
         <v>169</v>
@@ -4880,7 +4874,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B10" s="39">
         <v>170</v>
@@ -4895,7 +4889,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B11" s="39">
         <v>175</v>
@@ -4910,7 +4904,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B12" s="39">
         <v>176</v>
@@ -4925,7 +4919,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B13" s="39">
         <v>177</v>
@@ -4941,7 +4935,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B14" s="39">
         <v>178</v>
@@ -4956,7 +4950,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B15" s="39">
         <v>195</v>
@@ -4973,7 +4967,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B16" s="39">
         <v>196</v>
@@ -4990,7 +4984,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B17" s="39">
         <v>199</v>
@@ -5005,7 +4999,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B18" s="39">
         <v>200</v>
@@ -5020,7 +5014,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="81" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B19" s="39">
         <v>86</v>
@@ -5031,7 +5025,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="81" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B20" s="39">
         <v>94</v>
@@ -5074,27 +5068,27 @@
     </row>
     <row r="2" spans="1:11" ht="45">
       <c r="C2" s="73" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="78" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="78" t="s">
+      <c r="F2" s="79" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="G2" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="79" t="s">
+      <c r="H2" s="25" t="s">
         <v>91</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="51" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B3" s="39">
         <v>109</v>
@@ -5109,7 +5103,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="51" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B4" s="39">
         <v>110</v>
@@ -5128,7 +5122,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B5" s="39">
         <v>115</v>
@@ -5149,7 +5143,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B6" s="39">
         <v>116</v>
@@ -5170,7 +5164,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="51" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B7" s="39">
         <v>129</v>
@@ -5190,7 +5184,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="51" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B8" s="39">
         <v>130</v>
@@ -5210,7 +5204,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B9" s="39">
         <v>135</v>
@@ -5231,7 +5225,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B10" s="39">
         <v>136</v>
@@ -5252,7 +5246,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B11" s="39">
         <v>145</v>
@@ -5272,7 +5266,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B12" s="39">
         <v>146</v>
@@ -5292,7 +5286,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B13" s="39">
         <v>157</v>
@@ -5311,7 +5305,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B14" s="39">
         <v>158</v>
@@ -5330,7 +5324,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="51" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B15" s="39">
         <v>197</v>
@@ -5344,7 +5338,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="51" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B16" s="39">
         <v>198</v>
@@ -5401,33 +5395,33 @@
     </row>
     <row r="2" spans="1:10" ht="47.25">
       <c r="C2" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="88" t="s">
+        <v>372</v>
+      </c>
+      <c r="E2" s="89" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="88" t="s">
-        <v>375</v>
-      </c>
-      <c r="E2" s="89" t="s">
+      <c r="F2" s="89" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="89" t="s">
+      <c r="H2" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="90" t="s">
+      <c r="I2" s="91" t="s">
         <v>76</v>
       </c>
-      <c r="H2" s="88" t="s">
-        <v>77</v>
-      </c>
-      <c r="I2" s="91" t="s">
-        <v>78</v>
-      </c>
       <c r="J2" s="86" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B3" s="39">
         <v>101</v>
@@ -5448,7 +5442,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B4" s="39">
         <v>102</v>
@@ -5469,7 +5463,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B5" s="39">
         <v>139</v>
@@ -5483,7 +5477,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B6" s="39">
         <v>140</v>
@@ -5497,7 +5491,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B7" s="39">
         <v>167</v>
@@ -5514,7 +5508,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B8" s="39">
         <v>168</v>
@@ -5531,7 +5525,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B9" s="39">
         <v>83</v>
@@ -5545,7 +5539,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B10" s="39">
         <v>91</v>
@@ -5594,36 +5588,36 @@
     </row>
     <row r="2" spans="1:11" ht="30">
       <c r="C2" s="74" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="F2" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="G2" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="H2" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="I2" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="J2" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="K2" s="28" t="s">
         <v>100</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="K2" s="28" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B3" s="39">
         <v>103</v>
@@ -5654,7 +5648,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B4" s="39">
         <v>104</v>
@@ -5685,7 +5679,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B5" s="39">
         <v>173</v>
@@ -5704,7 +5698,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B6" s="39">
         <v>174</v>
@@ -5752,12 +5746,12 @@
     <row r="1" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:5" ht="26.25">
       <c r="C2" s="75" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B3" s="45">
         <v>60</v>
@@ -5768,7 +5762,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B4" s="45">
         <v>61</v>
@@ -5836,19 +5830,19 @@
     </row>
     <row r="2" spans="1:6" ht="26.25">
       <c r="C2" s="93" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="94" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="94" t="s">
         <v>104</v>
-      </c>
-      <c r="D2" s="94" t="s">
-        <v>105</v>
-      </c>
-      <c r="E2" s="94" t="s">
-        <v>106</v>
       </c>
       <c r="F2" s="39"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="81" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B3" s="39">
         <v>39</v>
@@ -5864,7 +5858,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="81" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B4" s="39">
         <v>40</v>
@@ -5880,7 +5874,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="81" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B5" s="39">
         <v>41</v>
@@ -5896,7 +5890,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="81" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B6" s="39">
         <v>42</v>
@@ -5912,7 +5906,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="81" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B7" s="39">
         <v>72</v>
@@ -5928,7 +5922,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="81" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B8" s="39">
         <v>73</v>
@@ -5944,7 +5938,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="81" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B9" s="39">
         <v>74</v>
@@ -6023,12 +6017,12 @@
         <v>13</v>
       </c>
       <c r="J1" s="103" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30">
       <c r="A2" s="17" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B2" s="32">
         <v>10</v>
@@ -6037,25 +6031,25 @@
         <v>10</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G2" s="32"/>
       <c r="H2" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="45">
       <c r="A3" s="108" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B3" s="32">
         <v>5</v>
@@ -6064,23 +6058,23 @@
         <v>5</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G3" s="32"/>
       <c r="H3" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="30">
       <c r="A4" s="17" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B4" s="32">
         <v>1</v>
@@ -6089,20 +6083,20 @@
         <v>1</v>
       </c>
       <c r="D4" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="E4" s="33" t="s">
         <v>346</v>
       </c>
-      <c r="E4" s="33" t="s">
-        <v>349</v>
-      </c>
       <c r="F4" s="32" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G4" s="32"/>
       <c r="H4" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -6137,44 +6131,44 @@
     <row r="1" spans="1:14" s="38" customFormat="1" ht="18" customHeight="1">
       <c r="A1" s="41"/>
       <c r="B1" s="61" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E1" s="62" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="I1" s="41"/>
     </row>
     <row r="2" spans="1:14" s="39" customFormat="1" ht="31.5">
       <c r="A2" s="39" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B2" s="29">
         <f>SUM(Main!P10:P16)</f>
         <v>14</v>
       </c>
       <c r="E2" s="72" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G2" s="39" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H2" s="39" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I2" s="39" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="J2" s="39" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="K2" s="39" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="L2" s="38" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="M2" s="72" t="s">
         <v>43</v>
@@ -6182,7 +6176,7 @@
     </row>
     <row r="3" spans="1:14" s="39" customFormat="1">
       <c r="A3" s="39" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B3" s="30">
         <f>SUM(Main!J10:J16)</f>
@@ -6257,7 +6251,7 @@
     </row>
     <row r="6" spans="1:14" s="39" customFormat="1">
       <c r="B6" s="39" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E6" s="105">
         <v>49</v>
@@ -6284,7 +6278,7 @@
     </row>
     <row r="7" spans="1:14" s="39" customFormat="1">
       <c r="A7" s="39" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B7" s="29">
         <v>1</v>
@@ -6314,7 +6308,7 @@
     </row>
     <row r="8" spans="1:14" s="39" customFormat="1">
       <c r="A8" s="39" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B8" s="30">
         <v>0</v>
@@ -6389,7 +6383,7 @@
     </row>
     <row r="11" spans="1:14" s="39" customFormat="1">
       <c r="B11" s="39" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E11" s="105">
         <v>133</v>
@@ -6419,7 +6413,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="39" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B12" s="29">
         <v>1</v>
@@ -6453,7 +6447,7 @@
     </row>
     <row r="13" spans="1:14" s="39" customFormat="1">
       <c r="A13" s="39" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B13" s="30">
         <f>SUM(Main!J20:J26)</f>
@@ -6532,7 +6526,7 @@
     </row>
     <row r="16" spans="1:14" s="39" customFormat="1">
       <c r="B16" s="39" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E16" s="105">
         <v>172</v>
@@ -6559,7 +6553,7 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="39" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B17" s="29">
         <v>1</v>
@@ -6589,7 +6583,7 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="39" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B18" s="30">
         <v>1</v>
@@ -6670,7 +6664,7 @@
     <row r="21" spans="1:14">
       <c r="A21" s="39"/>
       <c r="B21" s="39" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E21" s="38">
         <v>201</v>
@@ -6697,7 +6691,7 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="39" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B22" s="39">
         <v>1</v>
@@ -6727,7 +6721,7 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="39" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B23" s="30">
         <f>SUM(Main!J30:J36)</f>
@@ -6954,10 +6948,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="38" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
@@ -7480,21 +7474,21 @@
   <sheetData>
     <row r="1" spans="1:4" s="38" customFormat="1">
       <c r="A1" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="D1" s="38" t="s">
         <v>118</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="81" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B2" s="39">
         <v>0</v>
@@ -7502,7 +7496,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="81" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B3" s="39">
         <v>1</v>
@@ -7510,7 +7504,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="81" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B4" s="39">
         <v>2</v>
@@ -7518,7 +7512,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="81" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B5" s="39">
         <v>3</v>
@@ -7526,7 +7520,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="81" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B6" s="39">
         <v>4</v>
@@ -7534,7 +7528,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="81" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B7" s="39">
         <v>5</v>
@@ -7542,7 +7536,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="81" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B8" s="39">
         <v>12</v>
@@ -7550,7 +7544,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="81" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B9" s="39">
         <v>16</v>
@@ -7558,7 +7552,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="81" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C10" s="39">
         <v>24</v>
@@ -7566,7 +7560,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="81" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D11" s="39">
         <v>31</v>
@@ -7574,7 +7568,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="81" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C12" s="39">
         <v>32</v>
@@ -7582,7 +7576,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="81" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D13" s="39">
         <v>33</v>
@@ -7590,7 +7584,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="81" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B14" s="39">
         <v>35</v>
@@ -7598,7 +7592,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="81" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B15" s="39">
         <v>36</v>
@@ -7606,7 +7600,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="81" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C16" s="39">
         <v>37</v>
@@ -7614,7 +7608,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="81" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D17" s="39">
         <v>38</v>
@@ -7622,7 +7616,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="81" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C18" s="39">
         <v>39</v>
@@ -7630,7 +7624,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="81" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D19" s="39">
         <v>40</v>
@@ -7638,7 +7632,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="81" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C20" s="39">
         <v>41</v>
@@ -7646,7 +7640,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="81" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D21" s="39">
         <v>42</v>
@@ -7654,7 +7648,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="81" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C22" s="39">
         <v>43</v>
@@ -7662,7 +7656,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="81" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D23" s="39">
         <v>44</v>
@@ -7670,7 +7664,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="81" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B24" s="39">
         <v>47</v>
@@ -7678,7 +7672,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="81" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C25" s="39">
         <v>48</v>
@@ -7686,7 +7680,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="81" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D26" s="39">
         <v>49</v>
@@ -7694,7 +7688,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="81" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C27" s="39">
         <v>50</v>
@@ -7702,7 +7696,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="81" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D28" s="39">
         <v>51</v>
@@ -7710,7 +7704,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="81" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C29" s="39">
         <v>52</v>
@@ -7718,7 +7712,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="81" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D30" s="39">
         <v>53</v>
@@ -7726,7 +7720,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="81" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C31" s="39">
         <v>54</v>
@@ -7734,7 +7728,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="81" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D32" s="39">
         <v>55</v>
@@ -7742,7 +7736,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="81" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C33" s="39">
         <v>56</v>
@@ -7750,7 +7744,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="81" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D34" s="39">
         <v>57</v>
@@ -7758,7 +7752,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="81" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C35" s="39">
         <v>58</v>
@@ -7766,7 +7760,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="81" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D36" s="39">
         <v>59</v>
@@ -7774,7 +7768,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="81" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C37" s="39">
         <v>60</v>
@@ -7782,7 +7776,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="81" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D38" s="39">
         <v>61</v>
@@ -7790,7 +7784,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="81" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C39" s="39">
         <v>62</v>
@@ -7798,7 +7792,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="81" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D40" s="39">
         <v>63</v>
@@ -7806,7 +7800,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="81" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C41" s="39">
         <v>64</v>
@@ -7814,7 +7808,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="81" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D42" s="39">
         <v>65</v>
@@ -7822,7 +7816,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="81" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C43" s="39">
         <v>66</v>
@@ -7830,7 +7824,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="81" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D44" s="39">
         <v>67</v>
@@ -7838,7 +7832,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="81" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B45" s="39">
         <v>70</v>
@@ -7846,7 +7840,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="81" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B46" s="39">
         <v>72</v>
@@ -7854,7 +7848,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="81" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B47" s="39">
         <v>73</v>
@@ -7862,7 +7856,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="81" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B48" s="39">
         <v>74</v>
@@ -7870,7 +7864,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="81" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C49" s="39">
         <v>76</v>
@@ -7878,7 +7872,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="81" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D50" s="39">
         <v>77</v>
@@ -7886,7 +7880,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="81" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C51" s="39">
         <v>81</v>
@@ -7894,7 +7888,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="81" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C52" s="39">
         <v>82</v>
@@ -7902,7 +7896,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="81" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C53" s="39">
         <v>83</v>
@@ -7910,7 +7904,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="81" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C54" s="39">
         <v>84</v>
@@ -7918,7 +7912,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="81" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C55" s="39">
         <v>85</v>
@@ -7926,7 +7920,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="81" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C56" s="39">
         <v>86</v>
@@ -7934,7 +7928,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="81" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B57" s="39">
         <v>87</v>
@@ -7942,7 +7936,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="81" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D58" s="39">
         <v>89</v>
@@ -7950,7 +7944,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="81" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D59" s="39">
         <v>90</v>
@@ -7958,7 +7952,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="81" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D60" s="39">
         <v>91</v>
@@ -7966,7 +7960,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="81" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D61" s="39">
         <v>92</v>
@@ -7974,7 +7968,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="81" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D62" s="39">
         <v>93</v>
@@ -7982,7 +7976,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="81" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D63" s="39">
         <v>94</v>
@@ -7990,7 +7984,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="81" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C64" s="39">
         <v>96</v>
@@ -7998,7 +7992,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="81" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D65" s="39">
         <v>97</v>
@@ -8006,7 +8000,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="81" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C66" s="39">
         <v>101</v>
@@ -8014,7 +8008,7 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="81" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D67" s="39">
         <v>102</v>
@@ -8022,7 +8016,7 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="81" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C68" s="39">
         <v>103</v>
@@ -8030,7 +8024,7 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="81" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D69" s="39">
         <v>104</v>
@@ -8038,7 +8032,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="81" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C70" s="39">
         <v>105</v>
@@ -8046,7 +8040,7 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="81" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D71" s="39">
         <v>106</v>
@@ -8054,7 +8048,7 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="81" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C72" s="39">
         <v>107</v>
@@ -8062,7 +8056,7 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="81" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D73" s="39">
         <v>108</v>
@@ -8070,7 +8064,7 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="81" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C74" s="39">
         <v>109</v>
@@ -8078,7 +8072,7 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="81" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D75" s="39">
         <v>110</v>
@@ -8086,7 +8080,7 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="81" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C76" s="39">
         <v>113</v>
@@ -8094,7 +8088,7 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="81" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D77" s="39">
         <v>114</v>
@@ -8102,7 +8096,7 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="81" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C78" s="39">
         <v>115</v>
@@ -8110,7 +8104,7 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="81" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D79" s="39">
         <v>116</v>
@@ -8118,7 +8112,7 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="81" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C80" s="39">
         <v>117</v>
@@ -8126,7 +8120,7 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="81" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D81" s="39">
         <v>118</v>
@@ -8134,7 +8128,7 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="81" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C82" s="39">
         <v>119</v>
@@ -8142,7 +8136,7 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="81" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D83" s="39">
         <v>120</v>
@@ -8150,7 +8144,7 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="81" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C84" s="39">
         <v>121</v>
@@ -8158,7 +8152,7 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="81" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D85" s="39">
         <v>122</v>
@@ -8166,7 +8160,7 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="81" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C86" s="39">
         <v>123</v>
@@ -8174,7 +8168,7 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="81" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D87" s="39">
         <v>124</v>
@@ -8182,7 +8176,7 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="81" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C88" s="39">
         <v>125</v>
@@ -8190,7 +8184,7 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="81" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D89" s="39">
         <v>126</v>
@@ -8198,7 +8192,7 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="81" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C90" s="39">
         <v>129</v>
@@ -8206,7 +8200,7 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="81" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D91" s="39">
         <v>130</v>
@@ -8214,7 +8208,7 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="81" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C92" s="39">
         <v>133</v>
@@ -8222,7 +8216,7 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="81" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D93" s="39">
         <v>134</v>
@@ -8230,7 +8224,7 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="81" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C94" s="39">
         <v>135</v>
@@ -8238,7 +8232,7 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="81" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D95" s="39">
         <v>136</v>
@@ -8246,7 +8240,7 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="81" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C96" s="39">
         <v>137</v>
@@ -8254,7 +8248,7 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="81" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D97" s="39">
         <v>138</v>
@@ -8262,7 +8256,7 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="81" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C98" s="39">
         <v>139</v>
@@ -8270,7 +8264,7 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="81" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D99" s="39">
         <v>140</v>
@@ -8278,7 +8272,7 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="81" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C100" s="39">
         <v>141</v>
@@ -8286,7 +8280,7 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="81" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D101" s="39">
         <v>142</v>
@@ -8294,7 +8288,7 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="81" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C102" s="39">
         <v>143</v>
@@ -8302,7 +8296,7 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="81" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D103" s="39">
         <v>144</v>
@@ -8310,7 +8304,7 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="81" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C104" s="39">
         <v>145</v>
@@ -8318,7 +8312,7 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="81" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D105" s="39">
         <v>146</v>
@@ -8326,7 +8320,7 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="81" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C106" s="39">
         <v>147</v>
@@ -8334,7 +8328,7 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="81" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D107" s="39">
         <v>148</v>
@@ -8342,7 +8336,7 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="81" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C108" s="39">
         <v>149</v>
@@ -8350,7 +8344,7 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="81" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D109" s="39">
         <v>150</v>
@@ -8358,7 +8352,7 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="81" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C110" s="39">
         <v>151</v>
@@ -8366,7 +8360,7 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="81" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D111" s="39">
         <v>152</v>
@@ -8374,7 +8368,7 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="81" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C112" s="39">
         <v>153</v>
@@ -8382,7 +8376,7 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="81" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D113" s="39">
         <v>154</v>
@@ -8390,7 +8384,7 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="81" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C114" s="39">
         <v>155</v>
@@ -8398,7 +8392,7 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="81" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D115" s="39">
         <v>156</v>
@@ -8406,7 +8400,7 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="81" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C116" s="39">
         <v>157</v>
@@ -8414,7 +8408,7 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="81" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D117" s="39">
         <v>158</v>
@@ -8422,7 +8416,7 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="81" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C118" s="39">
         <v>161</v>
@@ -8430,7 +8424,7 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="81" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D119" s="39">
         <v>162</v>
@@ -8438,7 +8432,7 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="81" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C120" s="39">
         <v>163</v>
@@ -8446,7 +8440,7 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="81" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D121" s="39">
         <v>164</v>
@@ -8454,7 +8448,7 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="81" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C122" s="39">
         <v>165</v>
@@ -8462,7 +8456,7 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="81" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D123" s="39">
         <v>166</v>
@@ -8470,7 +8464,7 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="81" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C124" s="39">
         <v>167</v>
@@ -8478,7 +8472,7 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="81" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D125" s="39">
         <v>168</v>
@@ -8486,7 +8480,7 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="81" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C126" s="39">
         <v>169</v>
@@ -8494,7 +8488,7 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="81" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D127" s="39">
         <v>170</v>
@@ -8502,7 +8496,7 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="81" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C128" s="39">
         <v>171</v>
@@ -8510,7 +8504,7 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="81" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D129" s="39">
         <v>172</v>
@@ -8518,7 +8512,7 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="81" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C130" s="39">
         <v>173</v>
@@ -8526,7 +8520,7 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="81" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D131" s="39">
         <v>174</v>
@@ -8534,7 +8528,7 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="81" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C132" s="39">
         <v>175</v>
@@ -8542,7 +8536,7 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="81" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D133" s="39">
         <v>176</v>
@@ -8550,7 +8544,7 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="81" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C134" s="39">
         <v>177</v>
@@ -8558,7 +8552,7 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="81" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D135" s="39">
         <v>178</v>
@@ -8566,7 +8560,7 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="81" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C136" s="39">
         <v>179</v>
@@ -8574,7 +8568,7 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="81" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D137" s="39">
         <v>180</v>
@@ -8582,7 +8576,7 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="81" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C138" s="39">
         <v>181</v>
@@ -8590,7 +8584,7 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="81" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D139" s="39">
         <v>182</v>
@@ -8598,7 +8592,7 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="81" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C140" s="39">
         <v>183</v>
@@ -8606,7 +8600,7 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="81" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D141" s="39">
         <v>184</v>
@@ -8614,7 +8608,7 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="81" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C142" s="39">
         <v>185</v>
@@ -8622,7 +8616,7 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="81" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D143" s="39">
         <v>186</v>
@@ -8630,7 +8624,7 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="81" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C144" s="39">
         <v>187</v>
@@ -8638,7 +8632,7 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="81" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D145" s="39">
         <v>188</v>
@@ -8646,7 +8640,7 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="81" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C146" s="39">
         <v>191</v>
@@ -8654,7 +8648,7 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="81" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D147" s="39">
         <v>192</v>
@@ -8662,7 +8656,7 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="81" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C148" s="39">
         <v>193</v>
@@ -8670,7 +8664,7 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="81" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D149" s="39">
         <v>194</v>
@@ -8678,7 +8672,7 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="81" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C150" s="39">
         <v>195</v>
@@ -8686,7 +8680,7 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="81" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D151" s="39">
         <v>196</v>
@@ -8694,7 +8688,7 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="81" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C152" s="39">
         <v>197</v>
@@ -8702,7 +8696,7 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="81" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D153" s="39">
         <v>198</v>
@@ -8710,7 +8704,7 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="81" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C154" s="39">
         <v>199</v>
@@ -8718,7 +8712,7 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="81" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D155" s="39">
         <v>200</v>
@@ -8726,7 +8720,7 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="81" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C156" s="39">
         <v>201</v>
@@ -8734,7 +8728,7 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="81" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D157" s="39">
         <v>202</v>
@@ -8742,7 +8736,7 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="81" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C158" s="39">
         <v>203</v>
@@ -8750,7 +8744,7 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="81" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D159" s="39">
         <v>204</v>
@@ -8758,7 +8752,7 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="81" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C160" s="39">
         <v>205</v>
@@ -8766,7 +8760,7 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="81" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D161" s="39">
         <v>206</v>
@@ -8774,7 +8768,7 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="81" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C162" s="39">
         <v>207</v>
@@ -8782,7 +8776,7 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="81" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D163" s="39">
         <v>208</v>
@@ -8790,7 +8784,7 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="81" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B164" s="39">
         <v>35</v>
@@ -8798,7 +8792,7 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="81" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B165" s="39">
         <v>36</v>
@@ -8806,7 +8800,7 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="81" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B166" s="39">
         <v>72</v>
@@ -8814,7 +8808,7 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="81" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B167" s="39">
         <v>73</v>
@@ -8822,7 +8816,7 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="81" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B168" s="39">
         <v>74</v>
@@ -8830,7 +8824,7 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="81" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B169" s="39">
         <v>87</v>
@@ -8859,15 +8853,15 @@
   <sheetData>
     <row r="1" spans="1:2" s="44" customFormat="1">
       <c r="A1" s="42" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B2" s="45">
         <v>0</v>
@@ -8875,7 +8869,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B3" s="45">
         <v>1</v>
@@ -8883,7 +8877,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B4" s="45">
         <v>2</v>
@@ -8891,7 +8885,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B5" s="45">
         <v>3</v>
@@ -8899,7 +8893,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B6" s="45">
         <v>4</v>
@@ -8907,7 +8901,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B7" s="45">
         <v>5</v>
@@ -8915,7 +8909,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B8" s="45">
         <v>12</v>
@@ -8923,7 +8917,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B9" s="45">
         <v>16</v>
@@ -8931,7 +8925,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B10" s="45">
         <v>24</v>
@@ -8939,7 +8933,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B11" s="45">
         <v>31</v>
@@ -8947,7 +8941,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B12" s="45">
         <v>32</v>
@@ -8955,7 +8949,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B13" s="45">
         <v>33</v>
@@ -8963,7 +8957,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B14" s="45">
         <v>35</v>
@@ -8971,7 +8965,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B15" s="45">
         <v>36</v>
@@ -8979,7 +8973,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B16" s="45">
         <v>37</v>
@@ -8987,7 +8981,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B17" s="45">
         <v>38</v>
@@ -8995,7 +8989,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B18" s="45">
         <v>39</v>
@@ -9003,7 +8997,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B19" s="45">
         <v>40</v>
@@ -9011,7 +9005,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B20" s="45">
         <v>41</v>
@@ -9019,7 +9013,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B21" s="45">
         <v>42</v>
@@ -9027,7 +9021,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B22" s="45">
         <v>43</v>
@@ -9035,7 +9029,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B23" s="45">
         <v>44</v>
@@ -9043,7 +9037,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B24" s="45">
         <v>47</v>
@@ -9051,7 +9045,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B25" s="45">
         <v>48</v>
@@ -9059,7 +9053,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B26" s="45">
         <v>49</v>
@@ -9067,7 +9061,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B27" s="45">
         <v>50</v>
@@ -9075,7 +9069,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B28" s="45">
         <v>51</v>
@@ -9083,7 +9077,7 @@
     </row>
     <row r="29" spans="1:2" s="40" customFormat="1">
       <c r="A29" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B29" s="45">
         <v>52</v>
@@ -9091,7 +9085,7 @@
     </row>
     <row r="30" spans="1:2" s="40" customFormat="1">
       <c r="A30" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B30" s="45">
         <v>53</v>
@@ -9099,7 +9093,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B31" s="45">
         <v>54</v>
@@ -9107,7 +9101,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B32" s="45">
         <v>55</v>
@@ -9115,7 +9109,7 @@
     </row>
     <row r="33" spans="1:2" s="40" customFormat="1">
       <c r="A33" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B33" s="45">
         <v>56</v>
@@ -9123,7 +9117,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B34" s="45">
         <v>57</v>
@@ -9131,7 +9125,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B35" s="45">
         <v>58</v>
@@ -9139,7 +9133,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B36" s="45">
         <v>59</v>
@@ -9147,7 +9141,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B37" s="45">
         <v>60</v>
@@ -9155,7 +9149,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B38" s="45">
         <v>61</v>
@@ -9163,7 +9157,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B39" s="45">
         <v>62</v>
@@ -9171,7 +9165,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B40" s="45">
         <v>63</v>
@@ -9179,7 +9173,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B41" s="45">
         <v>64</v>
@@ -9187,7 +9181,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B42" s="45">
         <v>65</v>
@@ -9195,7 +9189,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B43" s="45">
         <v>66</v>
@@ -9203,7 +9197,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B44" s="45">
         <v>67</v>
@@ -9211,7 +9205,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B45" s="45">
         <v>70</v>
@@ -9219,7 +9213,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B46" s="45">
         <v>72</v>
@@ -9227,7 +9221,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B47" s="45">
         <v>73</v>
@@ -9235,7 +9229,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B48" s="45">
         <v>74</v>
@@ -9243,7 +9237,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B49" s="45">
         <v>76</v>
@@ -9251,7 +9245,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B50" s="45">
         <v>77</v>
@@ -9259,7 +9253,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B51" s="45">
         <v>81</v>
@@ -9267,7 +9261,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B52" s="45">
         <v>82</v>
@@ -9275,7 +9269,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B53" s="45">
         <v>83</v>
@@ -9283,7 +9277,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B54" s="45">
         <v>84</v>
@@ -9291,7 +9285,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B55" s="45">
         <v>85</v>
@@ -9299,7 +9293,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B56" s="45">
         <v>86</v>
@@ -9307,7 +9301,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B57" s="45">
         <v>87</v>
@@ -9315,7 +9309,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B58" s="45">
         <v>89</v>
@@ -9323,7 +9317,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B59" s="45">
         <v>90</v>
@@ -9331,7 +9325,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B60" s="45">
         <v>91</v>
@@ -9339,7 +9333,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B61" s="45">
         <v>92</v>
@@ -9347,7 +9341,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B62" s="45">
         <v>93</v>
@@ -9355,7 +9349,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B63" s="45">
         <v>94</v>
@@ -9363,7 +9357,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B64" s="45">
         <v>96</v>
@@ -9371,7 +9365,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B65" s="45">
         <v>97</v>
@@ -9379,7 +9373,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B66" s="45">
         <v>101</v>
@@ -9387,7 +9381,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B67" s="45">
         <v>102</v>
@@ -9395,7 +9389,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B68" s="45">
         <v>103</v>
@@ -9403,7 +9397,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B69" s="45">
         <v>104</v>
@@ -9411,7 +9405,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B70" s="45">
         <v>105</v>
@@ -9419,7 +9413,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B71" s="45">
         <v>106</v>
@@ -9427,7 +9421,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B72" s="45">
         <v>107</v>
@@ -9435,7 +9429,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B73" s="45">
         <v>108</v>
@@ -9443,7 +9437,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B74" s="45">
         <v>109</v>
@@ -9451,7 +9445,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B75" s="45">
         <v>110</v>
@@ -9459,7 +9453,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B76" s="45">
         <v>113</v>
@@ -9467,7 +9461,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B77" s="45">
         <v>114</v>
@@ -9475,7 +9469,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B78" s="45">
         <v>115</v>
@@ -9483,7 +9477,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B79" s="45">
         <v>116</v>
@@ -9491,7 +9485,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B80" s="45">
         <v>117</v>
@@ -9499,7 +9493,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B81" s="45">
         <v>118</v>
@@ -9507,7 +9501,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B82" s="45">
         <v>119</v>
@@ -9515,7 +9509,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B83" s="45">
         <v>120</v>
@@ -9523,7 +9517,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B84" s="45">
         <v>121</v>
@@ -9531,7 +9525,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B85" s="45">
         <v>122</v>
@@ -9539,7 +9533,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B86" s="45">
         <v>123</v>
@@ -9547,7 +9541,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B87" s="45">
         <v>124</v>
@@ -9555,7 +9549,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B88" s="45">
         <v>125</v>
@@ -9563,7 +9557,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B89" s="45">
         <v>126</v>
@@ -9571,7 +9565,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B90" s="45">
         <v>129</v>
@@ -9579,7 +9573,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B91" s="45">
         <v>130</v>
@@ -9587,7 +9581,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B92" s="45">
         <v>133</v>
@@ -9595,7 +9589,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B93" s="45">
         <v>134</v>
@@ -9603,7 +9597,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B94" s="45">
         <v>135</v>
@@ -9611,7 +9605,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B95" s="45">
         <v>136</v>
@@ -9619,7 +9613,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B96" s="45">
         <v>137</v>
@@ -9627,7 +9621,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B97" s="45">
         <v>138</v>
@@ -9635,7 +9629,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B98" s="45">
         <v>139</v>
@@ -9643,7 +9637,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B99" s="45">
         <v>140</v>
@@ -9651,7 +9645,7 @@
     </row>
     <row r="100" spans="1:2" s="46" customFormat="1">
       <c r="A100" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B100" s="45">
         <v>141</v>
@@ -9659,7 +9653,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B101" s="45">
         <v>142</v>
@@ -9667,7 +9661,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B102" s="45">
         <v>143</v>
@@ -9675,7 +9669,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B103" s="45">
         <v>144</v>
@@ -9683,7 +9677,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B104" s="45">
         <v>145</v>
@@ -9691,7 +9685,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B105" s="45">
         <v>146</v>
@@ -9699,7 +9693,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B106" s="45">
         <v>147</v>
@@ -9707,7 +9701,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B107" s="45">
         <v>148</v>
@@ -9715,7 +9709,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B108" s="45">
         <v>149</v>
@@ -9723,7 +9717,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B109" s="45">
         <v>150</v>
@@ -9731,7 +9725,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B110" s="45">
         <v>151</v>
@@ -9739,7 +9733,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B111" s="45">
         <v>152</v>
@@ -9747,7 +9741,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B112" s="45">
         <v>153</v>
@@ -9755,7 +9749,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B113" s="45">
         <v>154</v>
@@ -9763,7 +9757,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B114" s="45">
         <v>155</v>
@@ -9771,7 +9765,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B115" s="45">
         <v>156</v>
@@ -9779,7 +9773,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B116" s="45">
         <v>157</v>
@@ -9787,7 +9781,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B117" s="45">
         <v>158</v>
@@ -9795,7 +9789,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B118" s="45">
         <v>161</v>
@@ -9803,7 +9797,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B119" s="45">
         <v>162</v>
@@ -9811,7 +9805,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B120" s="45">
         <v>163</v>
@@ -9819,7 +9813,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B121" s="45">
         <v>164</v>
@@ -9827,7 +9821,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B122" s="45">
         <v>165</v>
@@ -9835,7 +9829,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B123" s="45">
         <v>166</v>
@@ -9843,7 +9837,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B124" s="45">
         <v>167</v>
@@ -9851,7 +9845,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B125" s="45">
         <v>168</v>
@@ -9859,7 +9853,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B126" s="45">
         <v>169</v>
@@ -9867,7 +9861,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B127" s="45">
         <v>170</v>
@@ -9875,7 +9869,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B128" s="45">
         <v>171</v>
@@ -9883,7 +9877,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B129" s="45">
         <v>172</v>
@@ -9891,7 +9885,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B130" s="45">
         <v>173</v>
@@ -9899,7 +9893,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B131" s="45">
         <v>174</v>
@@ -9907,7 +9901,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B132" s="45">
         <v>175</v>
@@ -9915,7 +9909,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B133" s="45">
         <v>176</v>
@@ -9923,7 +9917,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B134" s="45">
         <v>177</v>
@@ -9931,7 +9925,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B135" s="45">
         <v>178</v>
@@ -9939,7 +9933,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B136" s="45">
         <v>179</v>
@@ -9947,7 +9941,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B137" s="39">
         <v>180</v>
@@ -9955,7 +9949,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B138" s="39">
         <v>181</v>
@@ -9963,7 +9957,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B139" s="39">
         <v>182</v>
@@ -9971,7 +9965,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B140" s="39">
         <v>183</v>
@@ -9979,7 +9973,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B141" s="39">
         <v>184</v>
@@ -9987,7 +9981,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B142" s="39">
         <v>185</v>
@@ -9995,7 +9989,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B143" s="39">
         <v>186</v>
@@ -10003,7 +9997,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B144" s="39">
         <v>187</v>
@@ -10011,7 +10005,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B145" s="39">
         <v>188</v>
@@ -10019,7 +10013,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B146" s="39">
         <v>191</v>
@@ -10027,7 +10021,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B147" s="39">
         <v>192</v>
@@ -10035,7 +10029,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B148" s="39">
         <v>193</v>
@@ -10043,7 +10037,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B149" s="39">
         <v>194</v>
@@ -10051,7 +10045,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B150" s="39">
         <v>195</v>
@@ -10059,7 +10053,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B151" s="39">
         <v>196</v>
@@ -10067,7 +10061,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B152" s="39">
         <v>197</v>
@@ -10075,7 +10069,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B153" s="39">
         <v>198</v>
@@ -10083,7 +10077,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B154" s="39">
         <v>199</v>
@@ -10091,7 +10085,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B155" s="39">
         <v>200</v>
@@ -10099,7 +10093,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B156" s="39">
         <v>201</v>
@@ -10107,7 +10101,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B157" s="39">
         <v>202</v>
@@ -10115,7 +10109,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B158" s="39">
         <v>203</v>
@@ -10123,7 +10117,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B159" s="39">
         <v>204</v>
@@ -10131,7 +10125,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B160" s="39">
         <v>205</v>
@@ -10139,7 +10133,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B161" s="39">
         <v>206</v>
@@ -10147,7 +10141,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B162" s="39">
         <v>207</v>
@@ -10155,7 +10149,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B163" s="39">
         <v>208</v>
@@ -10184,16 +10178,16 @@
   <sheetData>
     <row r="1" spans="1:3" s="44" customFormat="1">
       <c r="A1" s="42" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C1" s="38"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B2" s="45">
         <v>24</v>
@@ -10202,7 +10196,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B3" s="45">
         <v>31</v>
@@ -10211,7 +10205,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B4" s="45">
         <v>35</v>
@@ -10220,7 +10214,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B5" s="45">
         <v>36</v>
@@ -10229,7 +10223,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B6" s="45">
         <v>37</v>
@@ -10238,7 +10232,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B7" s="45">
         <v>38</v>
@@ -10247,7 +10241,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B8" s="45">
         <v>39</v>
@@ -10256,7 +10250,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B9" s="45">
         <v>40</v>
@@ -10265,7 +10259,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B10" s="45">
         <v>43</v>
@@ -10274,7 +10268,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B11" s="45">
         <v>44</v>
@@ -10283,7 +10277,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B12" s="45">
         <v>56</v>
@@ -10292,7 +10286,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B13" s="45">
         <v>57</v>
@@ -10301,7 +10295,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B14" s="45">
         <v>58</v>
@@ -10310,7 +10304,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B15" s="45">
         <v>59</v>
@@ -10319,7 +10313,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B16" s="45">
         <v>60</v>
@@ -10328,7 +10322,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B17" s="45">
         <v>61</v>
@@ -10337,7 +10331,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B18" s="45">
         <v>62</v>
@@ -10346,7 +10340,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B19" s="45">
         <v>63</v>
@@ -10355,7 +10349,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B20" s="45">
         <v>72</v>
@@ -10364,7 +10358,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B21" s="45">
         <v>73</v>
@@ -10373,7 +10367,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B22" s="45">
         <v>74</v>
@@ -10381,7 +10375,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B23" s="45">
         <v>87</v>
@@ -10389,7 +10383,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B24" s="45">
         <v>96</v>
@@ -10397,7 +10391,7 @@
     </row>
     <row r="25" spans="1:3" s="40" customFormat="1">
       <c r="A25" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B25" s="45">
         <v>97</v>
@@ -10406,7 +10400,7 @@
     </row>
     <row r="26" spans="1:3" s="40" customFormat="1">
       <c r="A26" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B26" s="45">
         <v>76</v>
@@ -10415,7 +10409,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B27" s="45">
         <v>77</v>
@@ -10559,7 +10553,7 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B3" s="39">
         <v>32</v>
@@ -10581,7 +10575,7 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B4" s="39">
         <v>33</v>
@@ -10603,7 +10597,7 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B5" s="39">
         <v>48</v>
@@ -10625,7 +10619,7 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B6" s="39">
         <v>49</v>
@@ -10647,7 +10641,7 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B7" s="39">
         <v>117</v>
@@ -10669,7 +10663,7 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B8" s="39">
         <v>118</v>
@@ -10691,7 +10685,7 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B9" s="39">
         <v>123</v>
@@ -10718,7 +10712,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B10" s="39">
         <v>124</v>
@@ -10745,7 +10739,7 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B11" s="39">
         <v>133</v>
@@ -10770,7 +10764,7 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B12" s="39">
         <v>134</v>
@@ -10795,7 +10789,7 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B13" s="39">
         <v>155</v>
@@ -10817,7 +10811,7 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B14" s="39">
         <v>156</v>
@@ -10839,7 +10833,7 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B15" s="39">
         <v>171</v>
@@ -10864,7 +10858,7 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B16" s="39">
         <v>172</v>
@@ -10889,7 +10883,7 @@
     </row>
     <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B17" s="39">
         <v>181</v>
@@ -10911,7 +10905,7 @@
     </row>
     <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B18" s="39">
         <v>182</v>
@@ -10933,7 +10927,7 @@
     </row>
     <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B19" s="39">
         <v>185</v>
@@ -10958,7 +10952,7 @@
     </row>
     <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B20" s="39">
         <v>186</v>
@@ -10981,7 +10975,7 @@
     </row>
     <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B21" s="39">
         <v>201</v>
@@ -11001,7 +10995,7 @@
     </row>
     <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B22" s="39">
         <v>202</v>
@@ -11021,7 +11015,7 @@
     </row>
     <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B23" s="39">
         <v>203</v>
@@ -11035,7 +11029,7 @@
     </row>
     <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B24" s="39">
         <v>204</v>
@@ -11049,7 +11043,7 @@
     </row>
     <row r="25" spans="1:24">
       <c r="A25" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B25" s="39">
         <v>207</v>
@@ -11069,7 +11063,7 @@
     </row>
     <row r="26" spans="1:24">
       <c r="A26" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B26" s="39">
         <v>208</v>
@@ -11089,7 +11083,7 @@
     </row>
     <row r="27" spans="1:24">
       <c r="A27" s="110" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B27" s="111">
         <v>161</v>
@@ -11110,7 +11104,7 @@
     </row>
     <row r="28" spans="1:24">
       <c r="A28" s="110" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B28" s="111">
         <v>162</v>
@@ -11459,8 +11453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AG324"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="U55" sqref="U55"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -11517,93 +11511,93 @@
         <v>45</v>
       </c>
       <c r="F2" s="23" t="s">
+        <v>373</v>
+      </c>
+      <c r="G2" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="84" t="s">
+      <c r="H2" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="I2" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="J2" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="K2" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="L2" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="26" t="s">
+      <c r="M2" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="N2" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="O2" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="N2" s="25" t="s">
+      <c r="P2" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="O2" s="63" t="s">
+      <c r="Q2" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="P2" s="23" t="s">
+      <c r="R2" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="S2" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="Q2" s="25" t="s">
+      <c r="T2" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="R2" s="23" t="s">
-        <v>286</v>
-      </c>
-      <c r="S2" s="23" t="s">
+      <c r="U2" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="T2" s="25" t="s">
+      <c r="V2" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="U2" s="23" t="s">
+      <c r="W2" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="V2" s="25" t="s">
+      <c r="X2" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="W2" s="23" t="s">
+      <c r="Y2" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="X2" s="23" t="s">
+      <c r="Z2" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="Y2" s="37" t="s">
+      <c r="AA2" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="AB2" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="Z2" s="25" t="s">
+      <c r="AC2" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="AA2" s="23" t="s">
-        <v>287</v>
-      </c>
-      <c r="AB2" s="23" t="s">
+      <c r="AD2" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="AC2" s="77" t="s">
+      <c r="AE2" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="AD2" s="77" t="s">
+      <c r="AF2" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="AE2" s="23" t="s">
+      <c r="AG2" s="25" t="s">
         <v>69</v>
-      </c>
-      <c r="AF2" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG2" s="25" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:33">
       <c r="A5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B5" s="39">
         <v>105</v>
@@ -11623,7 +11617,7 @@
     </row>
     <row r="6" spans="1:33">
       <c r="A6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B6" s="39">
         <v>106</v>
@@ -11643,7 +11637,7 @@
     </row>
     <row r="7" spans="1:33">
       <c r="A7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B7" s="39">
         <v>119</v>
@@ -11659,7 +11653,7 @@
     </row>
     <row r="8" spans="1:33">
       <c r="A8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B8" s="39">
         <v>120</v>
@@ -11675,7 +11669,7 @@
     </row>
     <row r="9" spans="1:33">
       <c r="A9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B9" s="39">
         <v>121</v>
@@ -11698,7 +11692,7 @@
     </row>
     <row r="10" spans="1:33">
       <c r="A10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B10" s="39">
         <v>122</v>
@@ -11721,7 +11715,7 @@
     </row>
     <row r="11" spans="1:33">
       <c r="A11" s="82" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B11" s="39">
         <v>125</v>
@@ -11737,7 +11731,7 @@
     </row>
     <row r="12" spans="1:33">
       <c r="A12" s="82" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B12" s="39">
         <v>126</v>
@@ -11753,7 +11747,7 @@
     </row>
     <row r="13" spans="1:33">
       <c r="A13" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B13" s="39">
         <v>137</v>
@@ -11776,7 +11770,7 @@
     </row>
     <row r="14" spans="1:33">
       <c r="A14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B14" s="39">
         <v>138</v>
@@ -11799,7 +11793,7 @@
     </row>
     <row r="15" spans="1:33">
       <c r="A15" s="51" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B15" s="39">
         <v>141</v>
@@ -11815,7 +11809,7 @@
     </row>
     <row r="16" spans="1:33">
       <c r="A16" s="51" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B16" s="39">
         <v>142</v>
@@ -11830,7 +11824,7 @@
     </row>
     <row r="17" spans="1:31">
       <c r="A17" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B17" s="39">
         <v>143</v>
@@ -11869,7 +11863,7 @@
     </row>
     <row r="18" spans="1:31">
       <c r="A18" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B18" s="39">
         <v>144</v>
@@ -11908,7 +11902,7 @@
     </row>
     <row r="19" spans="1:31">
       <c r="A19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B19" s="39">
         <v>147</v>
@@ -11926,7 +11920,7 @@
     </row>
     <row r="20" spans="1:31">
       <c r="A20" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B20" s="39">
         <v>148</v>
@@ -11944,7 +11938,7 @@
     </row>
     <row r="21" spans="1:31">
       <c r="A21" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B21" s="39">
         <v>151</v>
@@ -11960,7 +11954,7 @@
     </row>
     <row r="22" spans="1:31">
       <c r="A22" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B22" s="39">
         <v>152</v>
@@ -11976,7 +11970,7 @@
     </row>
     <row r="23" spans="1:31">
       <c r="A23" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B23" s="39">
         <v>153</v>
@@ -12003,7 +11997,7 @@
     </row>
     <row r="24" spans="1:31">
       <c r="A24" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B24" s="39">
         <v>154</v>
@@ -12030,7 +12024,7 @@
     </row>
     <row r="25" spans="1:31">
       <c r="A25" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B25" s="39">
         <v>163</v>
@@ -12064,7 +12058,7 @@
     </row>
     <row r="26" spans="1:31">
       <c r="A26" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B26" s="39">
         <v>164</v>
@@ -12098,7 +12092,7 @@
     </row>
     <row r="27" spans="1:31">
       <c r="A27" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B27" s="39">
         <v>165</v>
@@ -12119,7 +12113,7 @@
     </row>
     <row r="28" spans="1:31">
       <c r="A28" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B28" s="39">
         <v>166</v>
@@ -12140,7 +12134,7 @@
     </row>
     <row r="29" spans="1:31">
       <c r="A29" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B29" s="39">
         <v>179</v>
@@ -12158,7 +12152,7 @@
     </row>
     <row r="30" spans="1:31">
       <c r="A30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B30" s="39">
         <v>180</v>
@@ -12176,7 +12170,7 @@
     </row>
     <row r="31" spans="1:31">
       <c r="A31" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B31" s="39">
         <v>183</v>
@@ -12195,7 +12189,7 @@
     </row>
     <row r="32" spans="1:31">
       <c r="A32" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B32" s="39">
         <v>184</v>
@@ -12214,7 +12208,7 @@
     </row>
     <row r="33" spans="1:33">
       <c r="A33" s="50" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B33" s="39">
         <v>187</v>
@@ -12226,7 +12220,7 @@
     </row>
     <row r="34" spans="1:33">
       <c r="A34" s="50" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B34" s="39">
         <v>188</v>
@@ -12238,7 +12232,7 @@
     </row>
     <row r="35" spans="1:33">
       <c r="A35" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B35" s="39">
         <v>191</v>
@@ -12273,7 +12267,7 @@
     </row>
     <row r="36" spans="1:33">
       <c r="A36" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B36" s="39">
         <v>192</v>
@@ -12308,7 +12302,7 @@
     </row>
     <row r="37" spans="1:33">
       <c r="A37" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B37" s="39">
         <v>193</v>
@@ -12342,7 +12336,7 @@
     </row>
     <row r="38" spans="1:33">
       <c r="A38" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B38" s="39">
         <v>194</v>
@@ -12376,7 +12370,7 @@
     </row>
     <row r="39" spans="1:33">
       <c r="A39" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B39" s="39">
         <v>205</v>
@@ -12412,7 +12406,7 @@
     </row>
     <row r="40" spans="1:33">
       <c r="A40" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B40" s="39">
         <v>206</v>

--- a/tests/_dummy_data.xlsx
+++ b/tests/_dummy_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ali_m\AnacondaProjects\PhD\Semiology-Visualisation-Tool\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835B5FF4-F208-463B-8C0C-D1A3660F8DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579FDE4A-95B5-4FD0-96AC-25C8429DB538}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="379">
   <si>
     <t xml:space="preserve">Semiology </t>
   </si>
@@ -1165,6 +1165,18 @@
   </si>
   <si>
     <t>Medial Frontal (include medial premotor and its constituents as its subsets)</t>
+  </si>
+  <si>
+    <t>various</t>
+  </si>
+  <si>
+    <t>pipeline_laateralises_semioA</t>
+  </si>
+  <si>
+    <t>pipeline_notlaat_semioB</t>
+  </si>
+  <si>
+    <t>pipeline testing</t>
   </si>
 </sst>
 </file>
@@ -2377,21 +2389,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DU52"/>
+  <dimension ref="A1:DU57"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="AK3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AX2" sqref="AX2"/>
+      <selection pane="bottomRight" activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="38.28515625" style="3" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.28515625" style="33" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" style="32" customWidth="1"/>
     <col min="7" max="9" width="20.7109375" style="3" customWidth="1"/>
@@ -2472,7 +2484,7 @@
     <col min="120" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:125" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:125" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A1" s="97"/>
       <c r="C1" s="16"/>
       <c r="D1" s="114" t="s">
@@ -3013,7 +3025,6 @@
     <row r="4" spans="1:125">
       <c r="A4" s="32"/>
       <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
       <c r="D4" s="32"/>
       <c r="G4" s="32"/>
       <c r="H4" s="32"/>
@@ -3226,7 +3237,6 @@
     <row r="9" spans="1:125">
       <c r="A9" s="32"/>
       <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
       <c r="D9" s="32"/>
       <c r="G9" s="32"/>
       <c r="H9" s="32"/>
@@ -3314,7 +3324,6 @@
     <row r="11" spans="1:125">
       <c r="A11" s="17"/>
       <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
       <c r="D11" s="32" t="s">
         <v>307</v>
       </c>
@@ -3403,7 +3412,6 @@
     <row r="13" spans="1:125">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
       <c r="D13" s="32"/>
       <c r="G13" s="32"/>
       <c r="H13" s="32"/>
@@ -3583,7 +3591,6 @@
     <row r="17" spans="1:125">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
       <c r="D17" s="32"/>
       <c r="G17" s="32"/>
       <c r="H17" s="32"/>
@@ -3598,7 +3605,6 @@
     <row r="18" spans="1:125">
       <c r="A18" s="32"/>
       <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
       <c r="D18" s="32"/>
       <c r="G18" s="32"/>
       <c r="H18" s="32"/>
@@ -3613,7 +3619,6 @@
     <row r="19" spans="1:125">
       <c r="A19" s="32"/>
       <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
       <c r="D19" s="32"/>
       <c r="G19" s="32"/>
       <c r="H19" s="32"/>
@@ -3628,7 +3633,6 @@
     <row r="20" spans="1:125">
       <c r="A20" s="32"/>
       <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
       <c r="D20" s="32"/>
       <c r="G20" s="32"/>
       <c r="H20" s="32"/>
@@ -3643,7 +3647,6 @@
     <row r="21" spans="1:125">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
       <c r="D21" s="32"/>
       <c r="G21" s="32"/>
       <c r="H21" s="32"/>
@@ -3658,7 +3661,6 @@
     <row r="22" spans="1:125">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
       <c r="D22" s="32"/>
       <c r="G22" s="32"/>
       <c r="H22" s="32"/>
@@ -3823,7 +3825,6 @@
     <row r="26" spans="1:125">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
       <c r="D26" s="17"/>
       <c r="G26" s="32"/>
       <c r="H26" s="32"/>
@@ -3838,7 +3839,6 @@
     <row r="27" spans="1:125">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
       <c r="D27" s="17"/>
       <c r="G27" s="32"/>
       <c r="H27" s="32"/>
@@ -4164,7 +4164,6 @@
     <row r="32" spans="1:125">
       <c r="A32" s="32"/>
       <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
       <c r="D32" s="17"/>
       <c r="G32" s="32"/>
       <c r="H32" s="32"/>
@@ -4179,7 +4178,6 @@
     <row r="33" spans="1:125">
       <c r="A33" s="32"/>
       <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
       <c r="D33" s="17"/>
       <c r="G33" s="32"/>
       <c r="H33" s="32"/>
@@ -4194,7 +4192,6 @@
     <row r="34" spans="1:125">
       <c r="A34" s="32"/>
       <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
       <c r="D34" s="17"/>
       <c r="G34" s="32"/>
       <c r="H34" s="32"/>
@@ -4258,7 +4255,6 @@
     <row r="36" spans="1:125">
       <c r="A36" s="32"/>
       <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
       <c r="D36" s="17" t="s">
         <v>352</v>
       </c>
@@ -4292,7 +4288,6 @@
     <row r="37" spans="1:125">
       <c r="A37" s="32"/>
       <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
       <c r="D37" s="17"/>
       <c r="G37" s="32"/>
       <c r="H37" s="32"/>
@@ -4307,7 +4302,6 @@
     <row r="38" spans="1:125">
       <c r="A38" s="32"/>
       <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
       <c r="D38" s="32"/>
       <c r="G38" s="32"/>
       <c r="H38" s="32"/>
@@ -4383,7 +4377,6 @@
     <row r="40" spans="1:125">
       <c r="A40" s="32"/>
       <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
       <c r="D40" s="32"/>
       <c r="G40" s="32"/>
       <c r="H40" s="32"/>
@@ -4557,7 +4550,6 @@
     <row r="44" spans="1:125">
       <c r="A44" s="32"/>
       <c r="B44" s="32"/>
-      <c r="C44" s="32"/>
       <c r="D44" s="32"/>
       <c r="G44" s="32"/>
       <c r="H44" s="32"/>
@@ -4572,7 +4564,6 @@
     <row r="45" spans="1:125">
       <c r="A45" s="32"/>
       <c r="B45" s="32"/>
-      <c r="C45" s="32"/>
       <c r="D45" s="32"/>
       <c r="G45" s="32"/>
       <c r="H45" s="32"/>
@@ -4587,7 +4578,6 @@
     <row r="46" spans="1:125">
       <c r="A46" s="32"/>
       <c r="B46" s="32"/>
-      <c r="C46" s="32"/>
       <c r="D46" s="32"/>
       <c r="G46" s="32"/>
       <c r="H46" s="32"/>
@@ -4602,7 +4592,6 @@
     <row r="47" spans="1:125">
       <c r="A47" s="32"/>
       <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
       <c r="D47" s="32"/>
       <c r="G47" s="32"/>
       <c r="H47" s="32"/>
@@ -4616,9 +4605,10 @@
     </row>
     <row r="48" spans="1:125">
       <c r="A48" s="32"/>
-      <c r="B48" s="32"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
+      <c r="B48"/>
+      <c r="C48" s="39"/>
+      <c r="D48"/>
+      <c r="E48"/>
       <c r="G48" s="32"/>
       <c r="H48" s="32"/>
       <c r="I48" s="32"/>
@@ -4630,13 +4620,88 @@
       <c r="DU48" s="33"/>
     </row>
     <row r="49" spans="1:125">
-      <c r="A49" s="34"/>
-      <c r="B49" s="32"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
-      <c r="G49" s="32"/>
+      <c r="A49" s="34" t="s">
+        <v>378</v>
+      </c>
+      <c r="B49"/>
+      <c r="C49" s="39">
+        <v>10</v>
+      </c>
+      <c r="D49" t="s">
+        <v>376</v>
+      </c>
+      <c r="E49"/>
+      <c r="F49" s="32" t="s">
+        <v>361</v>
+      </c>
+      <c r="G49" s="32" t="s">
+        <v>112</v>
+      </c>
       <c r="H49" s="32"/>
       <c r="I49" s="32"/>
+      <c r="J49" s="5">
+        <v>9</v>
+      </c>
+      <c r="K49" s="5">
+        <v>8</v>
+      </c>
+      <c r="L49" s="5">
+        <v>1</v>
+      </c>
+      <c r="P49" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q49" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="R49" s="5">
+        <v>3</v>
+      </c>
+      <c r="T49" s="5">
+        <v>3</v>
+      </c>
+      <c r="U49" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y49" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL49" s="5">
+        <v>4</v>
+      </c>
+      <c r="AQ49" s="5">
+        <v>2</v>
+      </c>
+      <c r="AR49" s="5">
+        <v>2</v>
+      </c>
+      <c r="AV49" s="5">
+        <v>2</v>
+      </c>
+      <c r="BQ49" s="5">
+        <v>1</v>
+      </c>
+      <c r="BW49" s="5">
+        <v>1</v>
+      </c>
+      <c r="BY49" s="5">
+        <v>1</v>
+      </c>
+      <c r="CB49" s="5">
+        <v>1</v>
+      </c>
+      <c r="CN49" s="5">
+        <v>1</v>
+      </c>
+      <c r="CO49" s="5">
+        <v>1</v>
+      </c>
+      <c r="DA49" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="DF49" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="DP49" s="33"/>
       <c r="DQ49" s="33"/>
       <c r="DR49" s="33"/>
@@ -4646,9 +4711,10 @@
     </row>
     <row r="50" spans="1:125">
       <c r="A50" s="32"/>
-      <c r="B50" s="32"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
+      <c r="B50"/>
+      <c r="C50" s="39"/>
+      <c r="D50"/>
+      <c r="E50"/>
       <c r="G50" s="32"/>
       <c r="H50" s="32"/>
       <c r="I50" s="32"/>
@@ -4661,12 +4727,76 @@
     </row>
     <row r="51" spans="1:125">
       <c r="A51" s="32"/>
-      <c r="B51" s="32"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
-      <c r="G51" s="32"/>
+      <c r="B51"/>
+      <c r="C51" s="39">
+        <v>10</v>
+      </c>
+      <c r="D51" t="s">
+        <v>377</v>
+      </c>
+      <c r="E51"/>
+      <c r="F51" s="32" t="s">
+        <v>361</v>
+      </c>
+      <c r="G51" s="32" t="s">
+        <v>112</v>
+      </c>
       <c r="H51" s="32"/>
       <c r="I51" s="32"/>
+      <c r="P51" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q51" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="R51" s="5">
+        <v>3</v>
+      </c>
+      <c r="T51" s="5">
+        <v>3</v>
+      </c>
+      <c r="U51" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y51" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL51" s="5">
+        <v>4</v>
+      </c>
+      <c r="AQ51" s="5">
+        <v>2</v>
+      </c>
+      <c r="AR51" s="5">
+        <v>2</v>
+      </c>
+      <c r="AV51" s="5">
+        <v>2</v>
+      </c>
+      <c r="BQ51" s="5">
+        <v>1</v>
+      </c>
+      <c r="BW51" s="5">
+        <v>1</v>
+      </c>
+      <c r="BY51" s="5">
+        <v>1</v>
+      </c>
+      <c r="CB51" s="5">
+        <v>1</v>
+      </c>
+      <c r="CN51" s="5">
+        <v>1</v>
+      </c>
+      <c r="CO51" s="5">
+        <v>1</v>
+      </c>
+      <c r="DA51" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="DF51" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="DP51" s="33"/>
       <c r="DQ51" s="33"/>
       <c r="DR51" s="33"/>
@@ -4676,9 +4806,10 @@
     </row>
     <row r="52" spans="1:125">
       <c r="A52" s="32"/>
-      <c r="B52" s="32"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
+      <c r="B52"/>
+      <c r="C52" s="39"/>
+      <c r="D52"/>
+      <c r="E52"/>
       <c r="G52" s="32"/>
       <c r="H52" s="32"/>
       <c r="I52" s="32"/>
@@ -4688,6 +4819,36 @@
       <c r="DS52" s="33"/>
       <c r="DT52" s="33"/>
       <c r="DU52" s="33"/>
+    </row>
+    <row r="53" spans="1:125">
+      <c r="B53"/>
+      <c r="C53" s="39"/>
+      <c r="D53"/>
+      <c r="E53"/>
+    </row>
+    <row r="54" spans="1:125">
+      <c r="B54"/>
+      <c r="C54" s="39"/>
+      <c r="D54"/>
+      <c r="E54"/>
+    </row>
+    <row r="55" spans="1:125">
+      <c r="B55"/>
+      <c r="C55" s="39"/>
+      <c r="D55"/>
+      <c r="E55"/>
+    </row>
+    <row r="56" spans="1:125">
+      <c r="B56"/>
+      <c r="C56" s="39"/>
+      <c r="D56"/>
+      <c r="E56"/>
+    </row>
+    <row r="57" spans="1:125">
+      <c r="B57"/>
+      <c r="C57" s="39"/>
+      <c r="D57"/>
+      <c r="E57"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -11453,7 +11614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AG324"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>

--- a/tests/_dummy_data.xlsx
+++ b/tests/_dummy_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ali_m\AnacondaProjects\PhD\Semiology-Visualisation-Tool\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579FDE4A-95B5-4FD0-96AC-25C8429DB538}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98D50DA-1BEF-414A-A41F-79C14509BEAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="381">
   <si>
     <t xml:space="preserve">Semiology </t>
   </si>
@@ -1177,6 +1177,12 @@
   </si>
   <si>
     <t>pipeline testing</t>
+  </si>
+  <si>
+    <t>pipeline_50_50_laateralises_semioC</t>
+  </si>
+  <si>
+    <t>as above various</t>
   </si>
 </sst>
 </file>
@@ -2392,10 +2398,10 @@
   <dimension ref="A1:DU57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="P30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D57" sqref="D57"/>
+      <selection pane="bottomRight" activeCell="R55" sqref="R55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2403,7 +2409,7 @@
     <col min="1" max="1" width="38.28515625" style="3" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" style="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.28515625" style="33" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" style="32" customWidth="1"/>
     <col min="7" max="9" width="20.7109375" style="3" customWidth="1"/>
@@ -4747,7 +4753,7 @@
         <v>10</v>
       </c>
       <c r="Q51" s="31" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="R51" s="5">
         <v>3</v>
@@ -4822,19 +4828,86 @@
     </row>
     <row r="53" spans="1:125">
       <c r="B53"/>
-      <c r="C53" s="39"/>
-      <c r="D53"/>
+      <c r="C53" s="39">
+        <v>30</v>
+      </c>
+      <c r="D53" t="s">
+        <v>379</v>
+      </c>
       <c r="E53"/>
+      <c r="J53" s="5">
+        <v>20</v>
+      </c>
+      <c r="K53" s="5">
+        <v>10</v>
+      </c>
+      <c r="L53" s="5">
+        <v>10</v>
+      </c>
+      <c r="P53" s="5">
+        <v>30</v>
+      </c>
+      <c r="Q53" s="31" t="s">
+        <v>380</v>
+      </c>
+      <c r="R53" s="5">
+        <v>3</v>
+      </c>
+      <c r="T53" s="5">
+        <v>3</v>
+      </c>
+      <c r="U53" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y53" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL53" s="5">
+        <v>4</v>
+      </c>
+      <c r="AQ53" s="5">
+        <v>2</v>
+      </c>
+      <c r="AR53" s="5">
+        <v>2</v>
+      </c>
+      <c r="AV53" s="5">
+        <v>2</v>
+      </c>
+      <c r="BQ53" s="5">
+        <v>1</v>
+      </c>
+      <c r="BW53" s="5">
+        <v>1</v>
+      </c>
+      <c r="BY53" s="5">
+        <v>1</v>
+      </c>
+      <c r="CB53" s="5">
+        <v>1</v>
+      </c>
+      <c r="CN53" s="5">
+        <v>1</v>
+      </c>
+      <c r="CO53" s="5">
+        <v>1</v>
+      </c>
+      <c r="DA53" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="DF53" s="5" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="54" spans="1:125">
       <c r="B54"/>
-      <c r="C54" s="39"/>
+      <c r="C54"/>
       <c r="D54"/>
       <c r="E54"/>
     </row>
     <row r="55" spans="1:125">
       <c r="B55"/>
-      <c r="C55" s="39"/>
+      <c r="C55"/>
       <c r="D55"/>
       <c r="E55"/>
     </row>
@@ -7622,8 +7695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D169"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="D103" sqref="D103"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D61" sqref="D60:D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>

--- a/tests/_dummy_data.xlsx
+++ b/tests/_dummy_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ali_m\AnacondaProjects\PhD\Semiology-Visualisation-Tool\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835B5FF4-F208-463B-8C0C-D1A3660F8DCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98D50DA-1BEF-414A-A41F-79C14509BEAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="381">
   <si>
     <t xml:space="preserve">Semiology </t>
   </si>
@@ -1165,6 +1165,24 @@
   </si>
   <si>
     <t>Medial Frontal (include medial premotor and its constituents as its subsets)</t>
+  </si>
+  <si>
+    <t>various</t>
+  </si>
+  <si>
+    <t>pipeline_laateralises_semioA</t>
+  </si>
+  <si>
+    <t>pipeline_notlaat_semioB</t>
+  </si>
+  <si>
+    <t>pipeline testing</t>
+  </si>
+  <si>
+    <t>pipeline_50_50_laateralises_semioC</t>
+  </si>
+  <si>
+    <t>as above various</t>
   </si>
 </sst>
 </file>
@@ -2377,21 +2395,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DU52"/>
+  <dimension ref="A1:DU57"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="AK3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="P30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AX2" sqref="AX2"/>
+      <selection pane="bottomRight" activeCell="R55" sqref="R55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="38.28515625" style="3" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.28515625" style="33" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" style="32" customWidth="1"/>
     <col min="7" max="9" width="20.7109375" style="3" customWidth="1"/>
@@ -2472,7 +2490,7 @@
     <col min="120" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:125" s="2" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:125" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A1" s="97"/>
       <c r="C1" s="16"/>
       <c r="D1" s="114" t="s">
@@ -3013,7 +3031,6 @@
     <row r="4" spans="1:125">
       <c r="A4" s="32"/>
       <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
       <c r="D4" s="32"/>
       <c r="G4" s="32"/>
       <c r="H4" s="32"/>
@@ -3226,7 +3243,6 @@
     <row r="9" spans="1:125">
       <c r="A9" s="32"/>
       <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
       <c r="D9" s="32"/>
       <c r="G9" s="32"/>
       <c r="H9" s="32"/>
@@ -3314,7 +3330,6 @@
     <row r="11" spans="1:125">
       <c r="A11" s="17"/>
       <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
       <c r="D11" s="32" t="s">
         <v>307</v>
       </c>
@@ -3403,7 +3418,6 @@
     <row r="13" spans="1:125">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
       <c r="D13" s="32"/>
       <c r="G13" s="32"/>
       <c r="H13" s="32"/>
@@ -3583,7 +3597,6 @@
     <row r="17" spans="1:125">
       <c r="A17" s="32"/>
       <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
       <c r="D17" s="32"/>
       <c r="G17" s="32"/>
       <c r="H17" s="32"/>
@@ -3598,7 +3611,6 @@
     <row r="18" spans="1:125">
       <c r="A18" s="32"/>
       <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
       <c r="D18" s="32"/>
       <c r="G18" s="32"/>
       <c r="H18" s="32"/>
@@ -3613,7 +3625,6 @@
     <row r="19" spans="1:125">
       <c r="A19" s="32"/>
       <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
       <c r="D19" s="32"/>
       <c r="G19" s="32"/>
       <c r="H19" s="32"/>
@@ -3628,7 +3639,6 @@
     <row r="20" spans="1:125">
       <c r="A20" s="32"/>
       <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
       <c r="D20" s="32"/>
       <c r="G20" s="32"/>
       <c r="H20" s="32"/>
@@ -3643,7 +3653,6 @@
     <row r="21" spans="1:125">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
       <c r="D21" s="32"/>
       <c r="G21" s="32"/>
       <c r="H21" s="32"/>
@@ -3658,7 +3667,6 @@
     <row r="22" spans="1:125">
       <c r="A22" s="32"/>
       <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
       <c r="D22" s="32"/>
       <c r="G22" s="32"/>
       <c r="H22" s="32"/>
@@ -3823,7 +3831,6 @@
     <row r="26" spans="1:125">
       <c r="A26" s="32"/>
       <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
       <c r="D26" s="17"/>
       <c r="G26" s="32"/>
       <c r="H26" s="32"/>
@@ -3838,7 +3845,6 @@
     <row r="27" spans="1:125">
       <c r="A27" s="32"/>
       <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
       <c r="D27" s="17"/>
       <c r="G27" s="32"/>
       <c r="H27" s="32"/>
@@ -4164,7 +4170,6 @@
     <row r="32" spans="1:125">
       <c r="A32" s="32"/>
       <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
       <c r="D32" s="17"/>
       <c r="G32" s="32"/>
       <c r="H32" s="32"/>
@@ -4179,7 +4184,6 @@
     <row r="33" spans="1:125">
       <c r="A33" s="32"/>
       <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
       <c r="D33" s="17"/>
       <c r="G33" s="32"/>
       <c r="H33" s="32"/>
@@ -4194,7 +4198,6 @@
     <row r="34" spans="1:125">
       <c r="A34" s="32"/>
       <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
       <c r="D34" s="17"/>
       <c r="G34" s="32"/>
       <c r="H34" s="32"/>
@@ -4258,7 +4261,6 @@
     <row r="36" spans="1:125">
       <c r="A36" s="32"/>
       <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
       <c r="D36" s="17" t="s">
         <v>352</v>
       </c>
@@ -4292,7 +4294,6 @@
     <row r="37" spans="1:125">
       <c r="A37" s="32"/>
       <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
       <c r="D37" s="17"/>
       <c r="G37" s="32"/>
       <c r="H37" s="32"/>
@@ -4307,7 +4308,6 @@
     <row r="38" spans="1:125">
       <c r="A38" s="32"/>
       <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
       <c r="D38" s="32"/>
       <c r="G38" s="32"/>
       <c r="H38" s="32"/>
@@ -4383,7 +4383,6 @@
     <row r="40" spans="1:125">
       <c r="A40" s="32"/>
       <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
       <c r="D40" s="32"/>
       <c r="G40" s="32"/>
       <c r="H40" s="32"/>
@@ -4557,7 +4556,6 @@
     <row r="44" spans="1:125">
       <c r="A44" s="32"/>
       <c r="B44" s="32"/>
-      <c r="C44" s="32"/>
       <c r="D44" s="32"/>
       <c r="G44" s="32"/>
       <c r="H44" s="32"/>
@@ -4572,7 +4570,6 @@
     <row r="45" spans="1:125">
       <c r="A45" s="32"/>
       <c r="B45" s="32"/>
-      <c r="C45" s="32"/>
       <c r="D45" s="32"/>
       <c r="G45" s="32"/>
       <c r="H45" s="32"/>
@@ -4587,7 +4584,6 @@
     <row r="46" spans="1:125">
       <c r="A46" s="32"/>
       <c r="B46" s="32"/>
-      <c r="C46" s="32"/>
       <c r="D46" s="32"/>
       <c r="G46" s="32"/>
       <c r="H46" s="32"/>
@@ -4602,7 +4598,6 @@
     <row r="47" spans="1:125">
       <c r="A47" s="32"/>
       <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
       <c r="D47" s="32"/>
       <c r="G47" s="32"/>
       <c r="H47" s="32"/>
@@ -4616,9 +4611,10 @@
     </row>
     <row r="48" spans="1:125">
       <c r="A48" s="32"/>
-      <c r="B48" s="32"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
+      <c r="B48"/>
+      <c r="C48" s="39"/>
+      <c r="D48"/>
+      <c r="E48"/>
       <c r="G48" s="32"/>
       <c r="H48" s="32"/>
       <c r="I48" s="32"/>
@@ -4630,13 +4626,88 @@
       <c r="DU48" s="33"/>
     </row>
     <row r="49" spans="1:125">
-      <c r="A49" s="34"/>
-      <c r="B49" s="32"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
-      <c r="G49" s="32"/>
+      <c r="A49" s="34" t="s">
+        <v>378</v>
+      </c>
+      <c r="B49"/>
+      <c r="C49" s="39">
+        <v>10</v>
+      </c>
+      <c r="D49" t="s">
+        <v>376</v>
+      </c>
+      <c r="E49"/>
+      <c r="F49" s="32" t="s">
+        <v>361</v>
+      </c>
+      <c r="G49" s="32" t="s">
+        <v>112</v>
+      </c>
       <c r="H49" s="32"/>
       <c r="I49" s="32"/>
+      <c r="J49" s="5">
+        <v>9</v>
+      </c>
+      <c r="K49" s="5">
+        <v>8</v>
+      </c>
+      <c r="L49" s="5">
+        <v>1</v>
+      </c>
+      <c r="P49" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q49" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="R49" s="5">
+        <v>3</v>
+      </c>
+      <c r="T49" s="5">
+        <v>3</v>
+      </c>
+      <c r="U49" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y49" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL49" s="5">
+        <v>4</v>
+      </c>
+      <c r="AQ49" s="5">
+        <v>2</v>
+      </c>
+      <c r="AR49" s="5">
+        <v>2</v>
+      </c>
+      <c r="AV49" s="5">
+        <v>2</v>
+      </c>
+      <c r="BQ49" s="5">
+        <v>1</v>
+      </c>
+      <c r="BW49" s="5">
+        <v>1</v>
+      </c>
+      <c r="BY49" s="5">
+        <v>1</v>
+      </c>
+      <c r="CB49" s="5">
+        <v>1</v>
+      </c>
+      <c r="CN49" s="5">
+        <v>1</v>
+      </c>
+      <c r="CO49" s="5">
+        <v>1</v>
+      </c>
+      <c r="DA49" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="DF49" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="DP49" s="33"/>
       <c r="DQ49" s="33"/>
       <c r="DR49" s="33"/>
@@ -4646,9 +4717,10 @@
     </row>
     <row r="50" spans="1:125">
       <c r="A50" s="32"/>
-      <c r="B50" s="32"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
+      <c r="B50"/>
+      <c r="C50" s="39"/>
+      <c r="D50"/>
+      <c r="E50"/>
       <c r="G50" s="32"/>
       <c r="H50" s="32"/>
       <c r="I50" s="32"/>
@@ -4661,12 +4733,76 @@
     </row>
     <row r="51" spans="1:125">
       <c r="A51" s="32"/>
-      <c r="B51" s="32"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
-      <c r="G51" s="32"/>
+      <c r="B51"/>
+      <c r="C51" s="39">
+        <v>10</v>
+      </c>
+      <c r="D51" t="s">
+        <v>377</v>
+      </c>
+      <c r="E51"/>
+      <c r="F51" s="32" t="s">
+        <v>361</v>
+      </c>
+      <c r="G51" s="32" t="s">
+        <v>112</v>
+      </c>
       <c r="H51" s="32"/>
       <c r="I51" s="32"/>
+      <c r="P51" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q51" s="31" t="s">
+        <v>380</v>
+      </c>
+      <c r="R51" s="5">
+        <v>3</v>
+      </c>
+      <c r="T51" s="5">
+        <v>3</v>
+      </c>
+      <c r="U51" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y51" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL51" s="5">
+        <v>4</v>
+      </c>
+      <c r="AQ51" s="5">
+        <v>2</v>
+      </c>
+      <c r="AR51" s="5">
+        <v>2</v>
+      </c>
+      <c r="AV51" s="5">
+        <v>2</v>
+      </c>
+      <c r="BQ51" s="5">
+        <v>1</v>
+      </c>
+      <c r="BW51" s="5">
+        <v>1</v>
+      </c>
+      <c r="BY51" s="5">
+        <v>1</v>
+      </c>
+      <c r="CB51" s="5">
+        <v>1</v>
+      </c>
+      <c r="CN51" s="5">
+        <v>1</v>
+      </c>
+      <c r="CO51" s="5">
+        <v>1</v>
+      </c>
+      <c r="DA51" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="DF51" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="DP51" s="33"/>
       <c r="DQ51" s="33"/>
       <c r="DR51" s="33"/>
@@ -4676,9 +4812,10 @@
     </row>
     <row r="52" spans="1:125">
       <c r="A52" s="32"/>
-      <c r="B52" s="32"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
+      <c r="B52"/>
+      <c r="C52" s="39"/>
+      <c r="D52"/>
+      <c r="E52"/>
       <c r="G52" s="32"/>
       <c r="H52" s="32"/>
       <c r="I52" s="32"/>
@@ -4688,6 +4825,103 @@
       <c r="DS52" s="33"/>
       <c r="DT52" s="33"/>
       <c r="DU52" s="33"/>
+    </row>
+    <row r="53" spans="1:125">
+      <c r="B53"/>
+      <c r="C53" s="39">
+        <v>30</v>
+      </c>
+      <c r="D53" t="s">
+        <v>379</v>
+      </c>
+      <c r="E53"/>
+      <c r="J53" s="5">
+        <v>20</v>
+      </c>
+      <c r="K53" s="5">
+        <v>10</v>
+      </c>
+      <c r="L53" s="5">
+        <v>10</v>
+      </c>
+      <c r="P53" s="5">
+        <v>30</v>
+      </c>
+      <c r="Q53" s="31" t="s">
+        <v>380</v>
+      </c>
+      <c r="R53" s="5">
+        <v>3</v>
+      </c>
+      <c r="T53" s="5">
+        <v>3</v>
+      </c>
+      <c r="U53" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y53" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL53" s="5">
+        <v>4</v>
+      </c>
+      <c r="AQ53" s="5">
+        <v>2</v>
+      </c>
+      <c r="AR53" s="5">
+        <v>2</v>
+      </c>
+      <c r="AV53" s="5">
+        <v>2</v>
+      </c>
+      <c r="BQ53" s="5">
+        <v>1</v>
+      </c>
+      <c r="BW53" s="5">
+        <v>1</v>
+      </c>
+      <c r="BY53" s="5">
+        <v>1</v>
+      </c>
+      <c r="CB53" s="5">
+        <v>1</v>
+      </c>
+      <c r="CN53" s="5">
+        <v>1</v>
+      </c>
+      <c r="CO53" s="5">
+        <v>1</v>
+      </c>
+      <c r="DA53" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="DF53" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" spans="1:125">
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+    </row>
+    <row r="55" spans="1:125">
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+    </row>
+    <row r="56" spans="1:125">
+      <c r="B56"/>
+      <c r="C56" s="39"/>
+      <c r="D56"/>
+      <c r="E56"/>
+    </row>
+    <row r="57" spans="1:125">
+      <c r="B57"/>
+      <c r="C57" s="39"/>
+      <c r="D57"/>
+      <c r="E57"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -7461,8 +7695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D169"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="D103" sqref="D103"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D61" sqref="D60:D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -11453,7 +11687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AG324"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>

--- a/tests/_dummy_data.xlsx
+++ b/tests/_dummy_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ali_m\AnacondaProjects\PhD\Semiology-Visualisation-Tool\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98D50DA-1BEF-414A-A41F-79C14509BEAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41C953F-FDC9-4AAE-96AC-49D0EC77BB1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="381">
   <si>
     <t xml:space="preserve">Semiology </t>
   </si>
@@ -2398,10 +2398,10 @@
   <dimension ref="A1:DU57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="P30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="H30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R55" sqref="R55"/>
+      <selection pane="bottomRight" activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4835,17 +4835,23 @@
         <v>379</v>
       </c>
       <c r="E53"/>
+      <c r="F53" s="32" t="s">
+        <v>361</v>
+      </c>
+      <c r="G53" s="32" t="s">
+        <v>112</v>
+      </c>
       <c r="J53" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K53" s="5">
+        <v>5</v>
+      </c>
+      <c r="L53" s="5">
+        <v>5</v>
+      </c>
+      <c r="P53" s="5">
         <v>10</v>
-      </c>
-      <c r="L53" s="5">
-        <v>10</v>
-      </c>
-      <c r="P53" s="5">
-        <v>30</v>
       </c>
       <c r="Q53" s="31" t="s">
         <v>380</v>

--- a/tests/_dummy_data.xlsx
+++ b/tests/_dummy_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ali_m\AnacondaProjects\PhD\Semiology-Visualisation-Tool\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41C953F-FDC9-4AAE-96AC-49D0EC77BB1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9567653-48DD-4BC6-990A-E5AB9E4971B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2401,7 +2401,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="H30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I50" sqref="I50"/>
+      <selection pane="bottomRight" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4829,7 +4829,7 @@
     <row r="53" spans="1:125">
       <c r="B53"/>
       <c r="C53" s="39">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
         <v>379</v>

--- a/tests/_dummy_data.xlsx
+++ b/tests/_dummy_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ali_m\AnacondaProjects\PhD\Semiology-Visualisation-Tool\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9567653-48DD-4BC6-990A-E5AB9E4971B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0ABA2F-17A5-4144-ADB5-FE55489721C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2401,7 +2401,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="H30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C53" sqref="C53"/>
+      <selection pane="bottomRight" activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>

--- a/tests/_dummy_data.xlsx
+++ b/tests/_dummy_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ali_m\AnacondaProjects\PhD\Semiology-Visualisation-Tool\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0ABA2F-17A5-4144-ADB5-FE55489721C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31544ACE-914C-487D-A8B0-3F9AE4FDBEFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="384">
   <si>
     <t xml:space="preserve">Semiology </t>
   </si>
@@ -1183,6 +1183,15 @@
   </si>
   <si>
     <t>as above various</t>
+  </si>
+  <si>
+    <t>ILV_4</t>
+  </si>
+  <si>
+    <t>ILV_1</t>
+  </si>
+  <si>
+    <t>4 separate lobes</t>
   </si>
 </sst>
 </file>
@@ -2398,10 +2407,10 @@
   <dimension ref="A1:DU57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="H30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="F36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D56" sqref="D56"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4907,21 +4916,123 @@
     </row>
     <row r="54" spans="1:125">
       <c r="B54"/>
-      <c r="C54"/>
+      <c r="C54" s="39"/>
       <c r="D54"/>
       <c r="E54"/>
     </row>
     <row r="55" spans="1:125">
       <c r="B55"/>
-      <c r="C55"/>
-      <c r="D55"/>
-      <c r="E55"/>
+      <c r="C55" s="39">
+        <v>4</v>
+      </c>
+      <c r="D55" t="s">
+        <v>381</v>
+      </c>
+      <c r="E55" t="s">
+        <v>381</v>
+      </c>
+      <c r="F55" s="32" t="s">
+        <v>361</v>
+      </c>
+      <c r="G55" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="P55" s="5">
+        <v>4</v>
+      </c>
+      <c r="Q55" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="R55" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA55" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH55" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL55" s="5">
+        <v>1</v>
+      </c>
+      <c r="AW55" s="5">
+        <v>1</v>
+      </c>
+      <c r="BQ55" s="5">
+        <v>1</v>
+      </c>
+      <c r="BY55" s="5">
+        <v>1</v>
+      </c>
+      <c r="CD55" s="5">
+        <v>1</v>
+      </c>
+      <c r="CF55" s="5">
+        <v>1</v>
+      </c>
+      <c r="DA55" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="DF55" s="5" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="56" spans="1:125">
       <c r="B56"/>
-      <c r="C56" s="39"/>
-      <c r="D56"/>
-      <c r="E56"/>
+      <c r="C56" s="39">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>382</v>
+      </c>
+      <c r="E56" t="s">
+        <v>382</v>
+      </c>
+      <c r="F56" s="32" t="s">
+        <v>361</v>
+      </c>
+      <c r="G56" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="P56" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="R56" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA56" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH56" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL56" s="5">
+        <v>1</v>
+      </c>
+      <c r="AW56" s="5">
+        <v>1</v>
+      </c>
+      <c r="BQ56" s="5">
+        <v>1</v>
+      </c>
+      <c r="BY56" s="5">
+        <v>1</v>
+      </c>
+      <c r="CD56" s="5">
+        <v>1</v>
+      </c>
+      <c r="CF56" s="5">
+        <v>1</v>
+      </c>
+      <c r="DA56" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="DF56" s="5" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="57" spans="1:125">
       <c r="B57"/>

--- a/tests/_dummy_data.xlsx
+++ b/tests/_dummy_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ali_m\AnacondaProjects\PhD\Semiology-Visualisation-Tool\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31544ACE-914C-487D-A8B0-3F9AE4FDBEFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497636CA-478E-4B47-80AF-7EECE4606478}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2407,10 +2407,10 @@
   <dimension ref="A1:DU57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="F36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="AJ30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1:C1048576"/>
+      <selection pane="bottomRight" activeCell="AN53" sqref="AN53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4779,6 +4779,9 @@
       <c r="AL51" s="5">
         <v>4</v>
       </c>
+      <c r="AN51" s="5">
+        <v>2</v>
+      </c>
       <c r="AQ51" s="5">
         <v>2</v>
       </c>
@@ -4879,6 +4882,9 @@
       </c>
       <c r="AL53" s="5">
         <v>4</v>
+      </c>
+      <c r="AN53" s="5">
+        <v>2</v>
       </c>
       <c r="AQ53" s="5">
         <v>2</v>
@@ -7812,8 +7818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D169"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D61" sqref="D60:D61"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -11805,7 +11811,7 @@
   <dimension ref="A1:AG324"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="H5" sqref="H5:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>

--- a/tests/_dummy_data.xlsx
+++ b/tests/_dummy_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ali_m\AnacondaProjects\PhD\Semiology-Visualisation-Tool\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497636CA-478E-4B47-80AF-7EECE4606478}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DBB9A8-4619-43F8-99F4-1C4B31D16885}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2407,10 +2407,10 @@
   <dimension ref="A1:DU57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="AJ30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="L30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AN53" sqref="AN53"/>
+      <selection pane="bottomRight" activeCell="AR61" sqref="AR61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4684,6 +4684,9 @@
       <c r="AL49" s="5">
         <v>4</v>
       </c>
+      <c r="AN49" s="5">
+        <v>2</v>
+      </c>
       <c r="AQ49" s="5">
         <v>2</v>
       </c>
@@ -7818,8 +7821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D169"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G74" sqref="G74"/>
+    <sheetView topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="A160" sqref="A160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -11810,8 +11813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AG324"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:I6"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>

--- a/tests/_dummy_data.xlsx
+++ b/tests/_dummy_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ali_m\AnacondaProjects\PhD\Semiology-Visualisation-Tool\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0ABA2F-17A5-4144-ADB5-FE55489721C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DBB9A8-4619-43F8-99F4-1C4B31D16885}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="384">
   <si>
     <t xml:space="preserve">Semiology </t>
   </si>
@@ -1183,6 +1183,15 @@
   </si>
   <si>
     <t>as above various</t>
+  </si>
+  <si>
+    <t>ILV_4</t>
+  </si>
+  <si>
+    <t>ILV_1</t>
+  </si>
+  <si>
+    <t>4 separate lobes</t>
   </si>
 </sst>
 </file>
@@ -2398,10 +2407,10 @@
   <dimension ref="A1:DU57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="H30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="L30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D56" sqref="D56"/>
+      <selection pane="bottomRight" activeCell="AR61" sqref="AR61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4675,6 +4684,9 @@
       <c r="AL49" s="5">
         <v>4</v>
       </c>
+      <c r="AN49" s="5">
+        <v>2</v>
+      </c>
       <c r="AQ49" s="5">
         <v>2</v>
       </c>
@@ -4770,6 +4782,9 @@
       <c r="AL51" s="5">
         <v>4</v>
       </c>
+      <c r="AN51" s="5">
+        <v>2</v>
+      </c>
       <c r="AQ51" s="5">
         <v>2</v>
       </c>
@@ -4871,6 +4886,9 @@
       <c r="AL53" s="5">
         <v>4</v>
       </c>
+      <c r="AN53" s="5">
+        <v>2</v>
+      </c>
       <c r="AQ53" s="5">
         <v>2</v>
       </c>
@@ -4907,21 +4925,123 @@
     </row>
     <row r="54" spans="1:125">
       <c r="B54"/>
-      <c r="C54"/>
+      <c r="C54" s="39"/>
       <c r="D54"/>
       <c r="E54"/>
     </row>
     <row r="55" spans="1:125">
       <c r="B55"/>
-      <c r="C55"/>
-      <c r="D55"/>
-      <c r="E55"/>
+      <c r="C55" s="39">
+        <v>4</v>
+      </c>
+      <c r="D55" t="s">
+        <v>381</v>
+      </c>
+      <c r="E55" t="s">
+        <v>381</v>
+      </c>
+      <c r="F55" s="32" t="s">
+        <v>361</v>
+      </c>
+      <c r="G55" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="P55" s="5">
+        <v>4</v>
+      </c>
+      <c r="Q55" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="R55" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA55" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH55" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL55" s="5">
+        <v>1</v>
+      </c>
+      <c r="AW55" s="5">
+        <v>1</v>
+      </c>
+      <c r="BQ55" s="5">
+        <v>1</v>
+      </c>
+      <c r="BY55" s="5">
+        <v>1</v>
+      </c>
+      <c r="CD55" s="5">
+        <v>1</v>
+      </c>
+      <c r="CF55" s="5">
+        <v>1</v>
+      </c>
+      <c r="DA55" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="DF55" s="5" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="56" spans="1:125">
       <c r="B56"/>
-      <c r="C56" s="39"/>
-      <c r="D56"/>
-      <c r="E56"/>
+      <c r="C56" s="39">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>382</v>
+      </c>
+      <c r="E56" t="s">
+        <v>382</v>
+      </c>
+      <c r="F56" s="32" t="s">
+        <v>361</v>
+      </c>
+      <c r="G56" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="P56" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="R56" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA56" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH56" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL56" s="5">
+        <v>1</v>
+      </c>
+      <c r="AW56" s="5">
+        <v>1</v>
+      </c>
+      <c r="BQ56" s="5">
+        <v>1</v>
+      </c>
+      <c r="BY56" s="5">
+        <v>1</v>
+      </c>
+      <c r="CD56" s="5">
+        <v>1</v>
+      </c>
+      <c r="CF56" s="5">
+        <v>1</v>
+      </c>
+      <c r="DA56" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="DF56" s="5" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="57" spans="1:125">
       <c r="B57"/>
@@ -7701,8 +7821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D169"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D61" sqref="D60:D61"/>
+    <sheetView topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="A160" sqref="A160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -11693,8 +11813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AG324"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
